--- a/archive/iceKnives32/iceKnives32.xlsx
+++ b/archive/iceKnives32/iceKnives32.xlsx
@@ -3767,7 +3767,7 @@
     <t>0';</t>
   </si>
   <si>
-    <t>[internet/website/php/namespace/library/memory/unit/];</t>
+    <t>[internet/website/php/library/memory/packet/];</t>
   </si>
   <si>
     <t>{associative/};</t>
@@ -3779,7 +3779,7 @@
     <t>&lt;primitive/&gt;;</t>
   </si>
   <si>
-    <t>275';</t>
+    <t>246';</t>
   </si>
 </sst>
 </file>

--- a/archive/iceKnives32/iceKnives32.xlsx
+++ b/archive/iceKnives32/iceKnives32.xlsx
@@ -7,6 +7,8 @@
     <sheet state="visible" name="_ic" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="_pi" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="_rangeone" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="_migratenode" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="_packetformat" sheetId="6" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="1249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1682" uniqueCount="1270">
   <si>
     <t>{_f}</t>
   </si>
@@ -3780,6 +3782,69 @@
   </si>
   <si>
     <t>246';</t>
+  </si>
+  <si>
+    <t>_migrate</t>
+  </si>
+  <si>
+    <t>_node</t>
+  </si>
+  <si>
+    <t>robot</t>
+  </si>
+  <si>
+    <t>conversation</t>
+  </si>
+  <si>
+    <t>network</t>
+  </si>
+  <si>
+    <t>compass</t>
+  </si>
+  <si>
+    <t>optimisation</t>
+  </si>
+  <si>
+    <t>explain</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>synchronization</t>
+  </si>
+  <si>
+    <t>machine</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>formation</t>
+  </si>
+  <si>
+    <t>cell</t>
+  </si>
+  <si>
+    <t>assign</t>
+  </si>
+  <si>
+    <t>reservation</t>
+  </si>
+  <si>
+    <t>container</t>
+  </si>
+  <si>
+    <t>_packet</t>
+  </si>
+  <si>
+    <t>_format</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>vector</t>
   </si>
 </sst>
 </file>
@@ -3880,6 +3945,14 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -9127,4 +9200,764 @@
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="7.5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="6" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="6" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="6" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>1253</v>
+      </c>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="6" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>1256</v>
+      </c>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="6" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>1259</v>
+      </c>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>1264</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>1265</v>
+      </c>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="6" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="6" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="6" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="6" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="6" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="6" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="6" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="6" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="6" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="6" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="6" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="6" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="6" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="6" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>1212</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="6" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="6"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="6" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="6"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="6" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="6"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="6" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="6"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="6" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="6"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="6" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="6" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>1246</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>1247</v>
+      </c>
+      <c r="E36" s="6"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="7.5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="6" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="6" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="6" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="6" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="6" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>1269</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="6" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="6"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="6"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="6" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="6" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="6" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="6" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="6" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="6" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="6" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="6" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="6" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="6" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="6" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="6" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="6" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="6"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="6" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="6"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="6" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="6"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="6" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="6"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="6" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="6"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="6" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="6"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="6" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E35" s="6"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="6"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="6"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/archive/iceKnives32/iceKnives32.xlsx
+++ b/archive/iceKnives32/iceKnives32.xlsx
@@ -9,6 +9,7 @@
     <sheet state="visible" name="_rangeone" sheetId="4" r:id="rId7"/>
     <sheet state="visible" name="_migratenode" sheetId="5" r:id="rId8"/>
     <sheet state="visible" name="_packetformat" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="_recycleit" sheetId="7" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1682" uniqueCount="1270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1780" uniqueCount="1333">
   <si>
     <t>{_f}</t>
   </si>
@@ -3835,6 +3836,15 @@
     <t>container</t>
   </si>
   <si>
+    <t>template</t>
+  </si>
+  <si>
+    <t>specimen</t>
+  </si>
+  <si>
+    <t>pattern</t>
+  </si>
+  <si>
     <t>_packet</t>
   </si>
   <si>
@@ -3845,6 +3855,186 @@
   </si>
   <si>
     <t>vector</t>
+  </si>
+  <si>
+    <t>signal</t>
+  </si>
+  <si>
+    <t>behaviour</t>
+  </si>
+  <si>
+    <t>_recycle</t>
+  </si>
+  <si>
+    <t>_it</t>
+  </si>
+  <si>
+    <t>_late_</t>
+  </si>
+  <si>
+    <t>_random_</t>
+  </si>
+  <si>
+    <t>_wakeUp28_</t>
+  </si>
+  <si>
+    <t>_except_</t>
+  </si>
+  <si>
+    <t>_cross_</t>
+  </si>
+  <si>
+    <t>_warning_</t>
+  </si>
+  <si>
+    <t>_fade_</t>
+  </si>
+  <si>
+    <t>_understand_</t>
+  </si>
+  <si>
+    <t>_exit_</t>
+  </si>
+  <si>
+    <t>_jobless_</t>
+  </si>
+  <si>
+    <t>_deprecate_</t>
+  </si>
+  <si>
+    <t>_reference_</t>
+  </si>
+  <si>
+    <t>_cute_</t>
+  </si>
+  <si>
+    <t>_empty_</t>
+  </si>
+  <si>
+    <t>_mic_</t>
+  </si>
+  <si>
+    <t>_leak_</t>
+  </si>
+  <si>
+    <t>_orange_</t>
+  </si>
+  <si>
+    <t>_transcript_</t>
+  </si>
+  <si>
+    <t>_cry_</t>
+  </si>
+  <si>
+    <t>_teach_</t>
+  </si>
+  <si>
+    <t>_highlight_</t>
+  </si>
+  <si>
+    <t>_mono_</t>
+  </si>
+  <si>
+    <t>_class_</t>
+  </si>
+  <si>
+    <t>_load_</t>
+  </si>
+  <si>
+    <t>_fate_</t>
+  </si>
+  <si>
+    <t>_key_</t>
+  </si>
+  <si>
+    <t>_forward_</t>
+  </si>
+  <si>
+    <t>_water_</t>
+  </si>
+  <si>
+    <t>_menthol_</t>
+  </si>
+  <si>
+    <t>_swap_</t>
+  </si>
+  <si>
+    <t>_summary_</t>
+  </si>
+  <si>
+    <t>_real_</t>
+  </si>
+  <si>
+    <t>_zero_</t>
+  </si>
+  <si>
+    <t>_fast_</t>
+  </si>
+  <si>
+    <t>_loss_</t>
+  </si>
+  <si>
+    <t>_bare_</t>
+  </si>
+  <si>
+    <t>_weak_</t>
+  </si>
+  <si>
+    <t>_near_</t>
+  </si>
+  <si>
+    <t>_sketch_</t>
+  </si>
+  <si>
+    <t>_order_</t>
+  </si>
+  <si>
+    <t>_lot_</t>
+  </si>
+  <si>
+    <t>_quite_</t>
+  </si>
+  <si>
+    <t>_bracket_</t>
+  </si>
+  <si>
+    <t>_fellow_</t>
+  </si>
+  <si>
+    <t>_easy_</t>
+  </si>
+  <si>
+    <t>_baby_</t>
+  </si>
+  <si>
+    <t>_ride_</t>
+  </si>
+  <si>
+    <t>_superstition_</t>
+  </si>
+  <si>
+    <t>_coincident_</t>
+  </si>
+  <si>
+    <t>_lour_</t>
+  </si>
+  <si>
+    <t>_war_</t>
+  </si>
+  <si>
+    <t>_dialogue_</t>
+  </si>
+  <si>
+    <t>_bubble_</t>
+  </si>
+  <si>
+    <t>_pain_</t>
+  </si>
+  <si>
+    <t>_attire_</t>
+  </si>
+  <si>
+    <t>_native_</t>
   </si>
 </sst>
 </file>
@@ -3953,6 +4143,10 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -9328,8 +9522,15 @@
       <c r="A8" s="6" t="s">
         <v>1107</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="D8" s="9"/>
+      <c r="B8" s="9" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>1267</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>1268</v>
+      </c>
       <c r="E8" s="6"/>
     </row>
     <row r="9">
@@ -9617,7 +9818,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="6" t="s">
-        <v>1266</v>
+        <v>1269</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>1077</v>
@@ -9625,21 +9826,17 @@
       <c r="C1" s="7" t="s">
         <v>1078</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>1079</v>
-      </c>
-      <c r="E1" s="12" t="s">
+      <c r="D1" s="12" t="s">
         <v>1080</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
-        <v>1267</v>
+        <v>1270</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="6"/>
+      <c r="D2" s="6"/>
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
@@ -9651,8 +9848,7 @@
       <c r="C3" s="9" t="s">
         <v>1082</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="6"/>
+      <c r="D3" s="6"/>
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
@@ -9664,8 +9860,7 @@
       <c r="C4" s="9" t="s">
         <v>1083</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="6"/>
+      <c r="D4" s="6"/>
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
@@ -9677,38 +9872,38 @@
       <c r="C5" s="9" t="s">
         <v>1084</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="6"/>
+      <c r="D5" s="6"/>
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
         <v>1098</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>1268</v>
+        <v>1271</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>1269</v>
-      </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="6"/>
+        <v>1272</v>
+      </c>
+      <c r="D6" s="6"/>
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
         <v>1103</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="6"/>
+      <c r="B7" s="9" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>1274</v>
+      </c>
+      <c r="D7" s="6"/>
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
         <v>1107</v>
       </c>
       <c r="B8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="6"/>
+      <c r="D8" s="6"/>
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
@@ -9716,8 +9911,7 @@
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="6"/>
+      <c r="D9" s="6"/>
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
@@ -9725,8 +9919,7 @@
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="6"/>
+      <c r="D10" s="6"/>
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
@@ -9734,8 +9927,7 @@
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="6"/>
+      <c r="D11" s="6"/>
     </row>
     <row r="12">
       <c r="A12" s="6" t="s">
@@ -9743,8 +9935,7 @@
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="6"/>
+      <c r="D12" s="6"/>
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
@@ -9752,8 +9943,7 @@
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="6"/>
+      <c r="D13" s="6"/>
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
@@ -9761,8 +9951,7 @@
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="6"/>
+      <c r="D14" s="6"/>
     </row>
     <row r="15">
       <c r="A15" s="6" t="s">
@@ -9770,8 +9959,7 @@
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="6"/>
+      <c r="D15" s="6"/>
     </row>
     <row r="16">
       <c r="A16" s="6" t="s">
@@ -9779,8 +9967,7 @@
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="6"/>
+      <c r="D16" s="6"/>
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
@@ -9788,8 +9975,7 @@
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="6"/>
+      <c r="D17" s="6"/>
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
@@ -9797,8 +9983,7 @@
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="6"/>
+      <c r="D18" s="6"/>
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
@@ -9806,8 +9991,7 @@
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="6"/>
+      <c r="D19" s="6"/>
     </row>
     <row r="20">
       <c r="A20" s="6" t="s">
@@ -9815,8 +9999,7 @@
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="6"/>
+      <c r="D20" s="6"/>
     </row>
     <row r="21">
       <c r="A21" s="6" t="s">
@@ -9824,8 +10007,7 @@
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="6"/>
+      <c r="D21" s="6"/>
     </row>
     <row r="22">
       <c r="A22" s="6" t="s">
@@ -9833,8 +10015,7 @@
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="6"/>
+      <c r="D22" s="6"/>
     </row>
     <row r="23">
       <c r="A23" s="6" t="s">
@@ -9842,8 +10023,7 @@
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="6"/>
+      <c r="D23" s="6"/>
     </row>
     <row r="24">
       <c r="A24" s="6" t="s">
@@ -9851,8 +10031,7 @@
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="6"/>
+      <c r="D24" s="6"/>
     </row>
     <row r="25">
       <c r="A25" s="6" t="s">
@@ -9860,8 +10039,7 @@
       </c>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="6"/>
+      <c r="D25" s="6"/>
     </row>
     <row r="26">
       <c r="A26" s="6" t="s">
@@ -9869,8 +10047,7 @@
       </c>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="6"/>
+      <c r="D26" s="6"/>
     </row>
     <row r="27">
       <c r="A27" s="6" t="s">
@@ -9878,8 +10055,7 @@
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="6"/>
+      <c r="D27" s="6"/>
     </row>
     <row r="28">
       <c r="A28" s="6" t="s">
@@ -9887,8 +10063,7 @@
       </c>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="6"/>
+      <c r="D28" s="6"/>
     </row>
     <row r="29">
       <c r="A29" s="6" t="s">
@@ -9896,8 +10071,7 @@
       </c>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="6"/>
+      <c r="D29" s="6"/>
     </row>
     <row r="30">
       <c r="A30" s="6" t="s">
@@ -9905,8 +10079,7 @@
       </c>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="6"/>
+      <c r="D30" s="6"/>
     </row>
     <row r="31">
       <c r="A31" s="6" t="s">
@@ -9914,8 +10087,7 @@
       </c>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="6"/>
+      <c r="D31" s="6"/>
     </row>
     <row r="32">
       <c r="A32" s="6" t="s">
@@ -9923,8 +10095,7 @@
       </c>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="6"/>
+      <c r="D32" s="6"/>
     </row>
     <row r="33">
       <c r="A33" s="6" t="s">
@@ -9932,8 +10103,7 @@
       </c>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="6"/>
+      <c r="D33" s="6"/>
     </row>
     <row r="34">
       <c r="A34" s="6" t="s">
@@ -9941,21 +10111,439 @@
       </c>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="6"/>
+      <c r="D34" s="6"/>
     </row>
     <row r="35">
       <c r="A35" s="6" t="s">
         <v>1239</v>
       </c>
-      <c r="E35" s="6"/>
+      <c r="D35" s="6"/>
     </row>
     <row r="36">
       <c r="A36" s="6"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="6"/>
+      <c r="D36" s="6"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="7.5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="6" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="6" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="6" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>1280</v>
+      </c>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="6" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>1282</v>
+      </c>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="6" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>1284</v>
+      </c>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>1288</v>
+      </c>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>1292</v>
+      </c>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>1294</v>
+      </c>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>1296</v>
+      </c>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="6" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>1298</v>
+      </c>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>1300</v>
+      </c>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="6" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>1302</v>
+      </c>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="6" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>1304</v>
+      </c>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="6" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>1305</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>1306</v>
+      </c>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>1307</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="6" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>1312</v>
+      </c>
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="6" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>1314</v>
+      </c>
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="6" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>1315</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>1316</v>
+      </c>
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>1317</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>1318</v>
+      </c>
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="6" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>1320</v>
+      </c>
+      <c r="D23" s="6"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="6" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D24" s="6"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="6" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>1323</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D25" s="6"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="6" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>1326</v>
+      </c>
+      <c r="D26" s="6"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="6" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>1328</v>
+      </c>
+      <c r="D27" s="6"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="6" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D28" s="6"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="6" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>1332</v>
+      </c>
+      <c r="D29" s="6"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="6" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="6"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="6" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="6"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="6" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="6"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="6" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="6"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="6" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="6"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="6" t="s">
+        <v>1239</v>
+      </c>
+      <c r="D35" s="6"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="6"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="6"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/archive/iceKnives32/iceKnives32.xlsx
+++ b/archive/iceKnives32/iceKnives32.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1780" uniqueCount="1333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1783" uniqueCount="1336">
   <si>
     <t>{_f}</t>
   </si>
@@ -3843,6 +3843,15 @@
   </si>
   <si>
     <t>pattern</t>
+  </si>
+  <si>
+    <t>access</t>
+  </si>
+  <si>
+    <t>speciality</t>
+  </si>
+  <si>
+    <t>default</t>
   </si>
   <si>
     <t>_packet</t>
@@ -9537,9 +9546,15 @@
       <c r="A9" s="6" t="s">
         <v>1112</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
+      <c r="B9" s="9" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>1270</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>1271</v>
+      </c>
       <c r="E9" s="6"/>
     </row>
     <row r="10">
@@ -9818,7 +9833,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="6" t="s">
-        <v>1269</v>
+        <v>1272</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>1077</v>
@@ -9832,7 +9847,7 @@
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
-        <v>1270</v>
+        <v>1273</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -9879,10 +9894,10 @@
         <v>1098</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>1271</v>
+        <v>1274</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>1272</v>
+        <v>1275</v>
       </c>
       <c r="D6" s="6"/>
     </row>
@@ -9891,10 +9906,10 @@
         <v>1103</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>1273</v>
+        <v>1276</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>1274</v>
+        <v>1277</v>
       </c>
       <c r="D7" s="6"/>
     </row>
@@ -10145,7 +10160,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="6" t="s">
-        <v>1275</v>
+        <v>1278</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>1077</v>
@@ -10159,13 +10174,13 @@
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
-        <v>1276</v>
+        <v>1279</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>1277</v>
+        <v>1280</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>1278</v>
+        <v>1281</v>
       </c>
       <c r="D2" s="6"/>
     </row>
@@ -10174,10 +10189,10 @@
         <v>1077</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>1279</v>
+        <v>1282</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>1280</v>
+        <v>1283</v>
       </c>
       <c r="D3" s="6"/>
     </row>
@@ -10186,10 +10201,10 @@
         <v>1078</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>1281</v>
+        <v>1284</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>1282</v>
+        <v>1285</v>
       </c>
       <c r="D4" s="6"/>
     </row>
@@ -10198,10 +10213,10 @@
         <v>1079</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>1283</v>
+        <v>1286</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>1284</v>
+        <v>1287</v>
       </c>
       <c r="D5" s="6"/>
     </row>
@@ -10210,10 +10225,10 @@
         <v>1098</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>1285</v>
+        <v>1288</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>1286</v>
+        <v>1289</v>
       </c>
       <c r="D6" s="6"/>
     </row>
@@ -10222,10 +10237,10 @@
         <v>1103</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>1287</v>
+        <v>1290</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>1288</v>
+        <v>1291</v>
       </c>
       <c r="D7" s="6"/>
     </row>
@@ -10234,10 +10249,10 @@
         <v>1107</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>1289</v>
+        <v>1292</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>1290</v>
+        <v>1293</v>
       </c>
       <c r="D8" s="6"/>
     </row>
@@ -10246,10 +10261,10 @@
         <v>1112</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>1291</v>
+        <v>1294</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>1292</v>
+        <v>1295</v>
       </c>
       <c r="D9" s="6"/>
     </row>
@@ -10258,10 +10273,10 @@
         <v>1117</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>1293</v>
+        <v>1296</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>1294</v>
+        <v>1297</v>
       </c>
       <c r="D10" s="6"/>
     </row>
@@ -10270,10 +10285,10 @@
         <v>1122</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>1295</v>
+        <v>1298</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>1296</v>
+        <v>1299</v>
       </c>
       <c r="D11" s="6"/>
     </row>
@@ -10282,10 +10297,10 @@
         <v>1127</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>1297</v>
+        <v>1300</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>1298</v>
+        <v>1301</v>
       </c>
       <c r="D12" s="6"/>
     </row>
@@ -10294,10 +10309,10 @@
         <v>1132</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>1299</v>
+        <v>1302</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>1300</v>
+        <v>1303</v>
       </c>
       <c r="D13" s="6"/>
     </row>
@@ -10306,10 +10321,10 @@
         <v>1137</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>1301</v>
+        <v>1304</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>1302</v>
+        <v>1305</v>
       </c>
       <c r="D14" s="6"/>
     </row>
@@ -10318,10 +10333,10 @@
         <v>1142</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>1303</v>
+        <v>1306</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>1304</v>
+        <v>1307</v>
       </c>
       <c r="D15" s="6"/>
     </row>
@@ -10330,10 +10345,10 @@
         <v>1147</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>1305</v>
+        <v>1308</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>1306</v>
+        <v>1309</v>
       </c>
       <c r="D16" s="6"/>
     </row>
@@ -10342,10 +10357,10 @@
         <v>1152</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>1307</v>
+        <v>1310</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>1308</v>
+        <v>1311</v>
       </c>
       <c r="D17" s="6"/>
     </row>
@@ -10354,10 +10369,10 @@
         <v>1157</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>1309</v>
+        <v>1312</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>1310</v>
+        <v>1313</v>
       </c>
       <c r="D18" s="6"/>
     </row>
@@ -10366,10 +10381,10 @@
         <v>1161</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>1311</v>
+        <v>1314</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>1312</v>
+        <v>1315</v>
       </c>
       <c r="D19" s="6"/>
     </row>
@@ -10378,10 +10393,10 @@
         <v>1166</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>1313</v>
+        <v>1316</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>1314</v>
+        <v>1317</v>
       </c>
       <c r="D20" s="6"/>
     </row>
@@ -10390,10 +10405,10 @@
         <v>1171</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>1315</v>
+        <v>1318</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>1316</v>
+        <v>1319</v>
       </c>
       <c r="D21" s="6"/>
     </row>
@@ -10402,10 +10417,10 @@
         <v>1176</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>1317</v>
+        <v>1320</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>1318</v>
+        <v>1321</v>
       </c>
       <c r="D22" s="6"/>
     </row>
@@ -10414,10 +10429,10 @@
         <v>1181</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>1319</v>
+        <v>1322</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>1320</v>
+        <v>1323</v>
       </c>
       <c r="D23" s="6"/>
     </row>
@@ -10426,10 +10441,10 @@
         <v>1186</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>1321</v>
+        <v>1324</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>1322</v>
+        <v>1325</v>
       </c>
       <c r="D24" s="6"/>
     </row>
@@ -10438,10 +10453,10 @@
         <v>1191</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>1323</v>
+        <v>1326</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>1324</v>
+        <v>1327</v>
       </c>
       <c r="D25" s="6"/>
     </row>
@@ -10450,10 +10465,10 @@
         <v>1196</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>1325</v>
+        <v>1328</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>1326</v>
+        <v>1329</v>
       </c>
       <c r="D26" s="6"/>
     </row>
@@ -10462,10 +10477,10 @@
         <v>1200</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>1327</v>
+        <v>1330</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>1328</v>
+        <v>1331</v>
       </c>
       <c r="D27" s="6"/>
     </row>
@@ -10474,10 +10489,10 @@
         <v>1204</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>1329</v>
+        <v>1332</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>1330</v>
+        <v>1333</v>
       </c>
       <c r="D28" s="6"/>
     </row>
@@ -10486,10 +10501,10 @@
         <v>1209</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>1331</v>
+        <v>1334</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>1332</v>
+        <v>1335</v>
       </c>
       <c r="D29" s="6"/>
     </row>

--- a/archive/iceKnives32/iceKnives32.xlsx
+++ b/archive/iceKnives32/iceKnives32.xlsx
@@ -29,6 +29,276 @@
 ----
 Drumstick
 	-D Tapader (Dev)</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="B3">
+      <text>
+        <t xml:space="preserve">_wakeUp28_</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C3">
+      <text>
+        <t xml:space="preserve">_trap_</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B4">
+      <text>
+        <t xml:space="preserve">_abnormal_</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C4">
+      <text>
+        <t xml:space="preserve">_chop_</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B5">
+      <text>
+        <t xml:space="preserve">_love_</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C5">
+      <text>
+        <t xml:space="preserve">_once_</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B6">
+      <text>
+        <t xml:space="preserve">_lady_</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C6">
+      <text>
+        <t xml:space="preserve">_namaste_</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B7">
+      <text>
+        <t xml:space="preserve">_meat_</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C7">
+      <text>
+        <t xml:space="preserve">_grape_</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B8">
+      <text>
+        <t xml:space="preserve">_sleep_</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C8">
+      <text>
+        <t xml:space="preserve">_wrapper_</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B9">
+      <text>
+        <t xml:space="preserve">_wood_</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C9">
+      <text>
+        <t xml:space="preserve">_critical_</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B10">
+      <text>
+        <t xml:space="preserve">_volatile_</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C10">
+      <text>
+        <t xml:space="preserve">_abort_</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B11">
+      <text>
+        <t xml:space="preserve">_clip_</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C11">
+      <text>
+        <t xml:space="preserve">_animal_</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B12">
+      <text>
+        <t xml:space="preserve">_glass_</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C12">
+      <text>
+        <t xml:space="preserve">_challenge_</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B13">
+      <text>
+        <t xml:space="preserve">_shot_</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C13">
+      <text>
+        <t xml:space="preserve">_timestamp_</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B14">
+      <text>
+        <t xml:space="preserve">_human_</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C14">
+      <text>
+        <t xml:space="preserve">_install_</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B15">
+      <text>
+        <t xml:space="preserve">_angel_</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C15">
+      <text>
+        <t xml:space="preserve">_question_</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B16">
+      <text>
+        <t xml:space="preserve">_mad_</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C16">
+      <text>
+        <t xml:space="preserve">_previous_</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B17">
+      <text>
+        <t xml:space="preserve">_here_</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C17">
+      <text>
+        <t xml:space="preserve">_placement_</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B18">
+      <text>
+        <t xml:space="preserve">_multiple_</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C18">
+      <text>
+        <t xml:space="preserve">_discovery_</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B19">
+      <text>
+        <t xml:space="preserve">_double_</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C19">
+      <text>
+        <t xml:space="preserve">_hand_</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B20">
+      <text>
+        <t xml:space="preserve">_dessert_</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C20">
+      <text>
+        <t xml:space="preserve">_animate_</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B21">
+      <text>
+        <t xml:space="preserve">_offline_</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C21">
+      <text>
+        <t xml:space="preserve">_chronological_</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B22">
+      <text>
+        <t xml:space="preserve">_but_</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C22">
+      <text>
+        <t xml:space="preserve">_hungry_</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B23">
+      <text>
+        <t xml:space="preserve">_incarnate_</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C23">
+      <text>
+        <t xml:space="preserve">_partner_</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B24">
+      <text>
+        <t xml:space="preserve">_wonder_</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C24">
+      <text>
+        <t xml:space="preserve">_shy_</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B25">
+      <text>
+        <t xml:space="preserve">_escape_</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C25">
+      <text>
+        <t xml:space="preserve">_equation_</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B26">
+      <text>
+        <t xml:space="preserve">_valve_</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C26">
+      <text>
+        <t xml:space="preserve">_draw_</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B27">
+      <text>
+        <t xml:space="preserve">_file_</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C27">
+      <text>
+        <t xml:space="preserve">_dark_</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B28">
+      <text>
+        <t xml:space="preserve">_nil_</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C28">
+      <text>
+        <t xml:space="preserve">_advice_</t>
       </text>
     </comment>
   </commentList>
@@ -10561,6 +10831,7 @@
       <c r="D36" s="6"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/archive/iceKnives32/iceKnives32.xlsx
+++ b/archive/iceKnives32/iceKnives32.xlsx
@@ -306,7 +306,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1783" uniqueCount="1336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1791" uniqueCount="1344">
   <si>
     <t>{_f}</t>
   </si>
@@ -4124,6 +4124,24 @@
     <t>default</t>
   </si>
   <si>
+    <t>determinant</t>
+  </si>
+  <si>
+    <t>slate</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>disturb</t>
+  </si>
+  <si>
+    <t>print</t>
+  </si>
+  <si>
+    <t>tolerance</t>
+  </si>
+  <si>
     <t>_packet</t>
   </si>
   <si>
@@ -4140,6 +4158,12 @@
   </si>
   <si>
     <t>behaviour</t>
+  </si>
+  <si>
+    <t>distribute</t>
+  </si>
+  <si>
+    <t>club</t>
   </si>
   <si>
     <t>_recycle</t>
@@ -9831,18 +9855,30 @@
       <c r="A10" s="6" t="s">
         <v>1117</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
+      <c r="B10" s="9" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>1274</v>
+      </c>
       <c r="E10" s="6"/>
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
         <v>1122</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
+      <c r="B11" s="9" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>1277</v>
+      </c>
       <c r="E11" s="6"/>
     </row>
     <row r="12">
@@ -10103,7 +10139,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="6" t="s">
-        <v>1272</v>
+        <v>1278</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>1077</v>
@@ -10117,7 +10153,7 @@
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
-        <v>1273</v>
+        <v>1279</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -10164,10 +10200,10 @@
         <v>1098</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>1274</v>
+        <v>1280</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>1275</v>
+        <v>1281</v>
       </c>
       <c r="D6" s="6"/>
     </row>
@@ -10176,10 +10212,10 @@
         <v>1103</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>1276</v>
+        <v>1282</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>1277</v>
+        <v>1283</v>
       </c>
       <c r="D7" s="6"/>
     </row>
@@ -10187,7 +10223,12 @@
       <c r="A8" s="6" t="s">
         <v>1107</v>
       </c>
-      <c r="B8" s="9"/>
+      <c r="B8" s="9" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>1285</v>
+      </c>
       <c r="D8" s="6"/>
     </row>
     <row r="9">
@@ -10430,7 +10471,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="6" t="s">
-        <v>1278</v>
+        <v>1286</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>1077</v>
@@ -10444,13 +10485,13 @@
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
-        <v>1279</v>
+        <v>1287</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>1280</v>
+        <v>1288</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>1281</v>
+        <v>1289</v>
       </c>
       <c r="D2" s="6"/>
     </row>
@@ -10459,10 +10500,10 @@
         <v>1077</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>1282</v>
+        <v>1290</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>1283</v>
+        <v>1291</v>
       </c>
       <c r="D3" s="6"/>
     </row>
@@ -10471,10 +10512,10 @@
         <v>1078</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>1284</v>
+        <v>1292</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>1285</v>
+        <v>1293</v>
       </c>
       <c r="D4" s="6"/>
     </row>
@@ -10483,10 +10524,10 @@
         <v>1079</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>1286</v>
+        <v>1294</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>1287</v>
+        <v>1295</v>
       </c>
       <c r="D5" s="6"/>
     </row>
@@ -10495,10 +10536,10 @@
         <v>1098</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>1288</v>
+        <v>1296</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>1289</v>
+        <v>1297</v>
       </c>
       <c r="D6" s="6"/>
     </row>
@@ -10507,10 +10548,10 @@
         <v>1103</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>1290</v>
+        <v>1298</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>1291</v>
+        <v>1299</v>
       </c>
       <c r="D7" s="6"/>
     </row>
@@ -10519,10 +10560,10 @@
         <v>1107</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>1292</v>
+        <v>1300</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>1293</v>
+        <v>1301</v>
       </c>
       <c r="D8" s="6"/>
     </row>
@@ -10531,10 +10572,10 @@
         <v>1112</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>1294</v>
+        <v>1302</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>1295</v>
+        <v>1303</v>
       </c>
       <c r="D9" s="6"/>
     </row>
@@ -10543,10 +10584,10 @@
         <v>1117</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>1296</v>
+        <v>1304</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>1297</v>
+        <v>1305</v>
       </c>
       <c r="D10" s="6"/>
     </row>
@@ -10555,10 +10596,10 @@
         <v>1122</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>1298</v>
+        <v>1306</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>1299</v>
+        <v>1307</v>
       </c>
       <c r="D11" s="6"/>
     </row>
@@ -10567,10 +10608,10 @@
         <v>1127</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>1300</v>
+        <v>1308</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>1301</v>
+        <v>1309</v>
       </c>
       <c r="D12" s="6"/>
     </row>
@@ -10579,10 +10620,10 @@
         <v>1132</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>1302</v>
+        <v>1310</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>1303</v>
+        <v>1311</v>
       </c>
       <c r="D13" s="6"/>
     </row>
@@ -10591,10 +10632,10 @@
         <v>1137</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>1304</v>
+        <v>1312</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>1305</v>
+        <v>1313</v>
       </c>
       <c r="D14" s="6"/>
     </row>
@@ -10603,10 +10644,10 @@
         <v>1142</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>1306</v>
+        <v>1314</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>1307</v>
+        <v>1315</v>
       </c>
       <c r="D15" s="6"/>
     </row>
@@ -10615,10 +10656,10 @@
         <v>1147</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>1308</v>
+        <v>1316</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>1309</v>
+        <v>1317</v>
       </c>
       <c r="D16" s="6"/>
     </row>
@@ -10627,10 +10668,10 @@
         <v>1152</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>1310</v>
+        <v>1318</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>1311</v>
+        <v>1319</v>
       </c>
       <c r="D17" s="6"/>
     </row>
@@ -10639,10 +10680,10 @@
         <v>1157</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>1312</v>
+        <v>1320</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>1313</v>
+        <v>1321</v>
       </c>
       <c r="D18" s="6"/>
     </row>
@@ -10651,10 +10692,10 @@
         <v>1161</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>1314</v>
+        <v>1322</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>1315</v>
+        <v>1323</v>
       </c>
       <c r="D19" s="6"/>
     </row>
@@ -10663,10 +10704,10 @@
         <v>1166</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>1316</v>
+        <v>1324</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>1317</v>
+        <v>1325</v>
       </c>
       <c r="D20" s="6"/>
     </row>
@@ -10675,10 +10716,10 @@
         <v>1171</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>1318</v>
+        <v>1326</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>1319</v>
+        <v>1327</v>
       </c>
       <c r="D21" s="6"/>
     </row>
@@ -10687,10 +10728,10 @@
         <v>1176</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>1320</v>
+        <v>1328</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>1321</v>
+        <v>1329</v>
       </c>
       <c r="D22" s="6"/>
     </row>
@@ -10699,10 +10740,10 @@
         <v>1181</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>1322</v>
+        <v>1330</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>1323</v>
+        <v>1331</v>
       </c>
       <c r="D23" s="6"/>
     </row>
@@ -10711,10 +10752,10 @@
         <v>1186</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>1324</v>
+        <v>1332</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>1325</v>
+        <v>1333</v>
       </c>
       <c r="D24" s="6"/>
     </row>
@@ -10723,10 +10764,10 @@
         <v>1191</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>1326</v>
+        <v>1334</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>1327</v>
+        <v>1335</v>
       </c>
       <c r="D25" s="6"/>
     </row>
@@ -10735,10 +10776,10 @@
         <v>1196</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>1328</v>
+        <v>1336</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>1329</v>
+        <v>1337</v>
       </c>
       <c r="D26" s="6"/>
     </row>
@@ -10747,10 +10788,10 @@
         <v>1200</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>1330</v>
+        <v>1338</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>1331</v>
+        <v>1339</v>
       </c>
       <c r="D27" s="6"/>
     </row>
@@ -10759,10 +10800,10 @@
         <v>1204</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>1332</v>
+        <v>1340</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>1333</v>
+        <v>1341</v>
       </c>
       <c r="D28" s="6"/>
     </row>
@@ -10771,10 +10812,10 @@
         <v>1209</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>1334</v>
+        <v>1342</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>1335</v>
+        <v>1343</v>
       </c>
       <c r="D29" s="6"/>
     </row>

--- a/archive/iceKnives32/iceKnives32.xlsx
+++ b/archive/iceKnives32/iceKnives32.xlsx
@@ -6,9 +6,9 @@
     <sheet state="visible" name="_fx" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="_ic" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="_pi" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="_rangeone" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="_migratenode" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="_packetformat" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="_packetformat" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="_rangeone" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="_migratenode" sheetId="6" r:id="rId9"/>
     <sheet state="visible" name="_recycleit" sheetId="7" r:id="rId10"/>
   </sheets>
   <definedNames/>
@@ -306,7 +306,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1791" uniqueCount="1344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2058" uniqueCount="1408">
   <si>
     <t>{_f}</t>
   </si>
@@ -3536,33 +3536,225 @@
     <t>{1150}</t>
   </si>
   <si>
+    <t>_packet</t>
+  </si>
+  <si>
+    <t>_1</t>
+  </si>
+  <si>
+    <t>_2</t>
+  </si>
+  <si>
+    <t>_3</t>
+  </si>
+  <si>
+    <t>_s'</t>
+  </si>
+  <si>
+    <t>_format</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>'</t>
+  </si>
+  <si>
+    <t>associative</t>
+  </si>
+  <si>
+    <t>reference</t>
+  </si>
+  <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>classic</t>
+  </si>
+  <si>
+    <t>form</t>
+  </si>
+  <si>
+    <t>()</t>
+  </si>
+  <si>
+    <t>primitive</t>
+  </si>
+  <si>
+    <t>scalar</t>
+  </si>
+  <si>
+    <t>&lt;&gt;</t>
+  </si>
+  <si>
+    <t>_4</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>vector</t>
+  </si>
+  <si>
+    <t>||</t>
+  </si>
+  <si>
+    <t>_5</t>
+  </si>
+  <si>
+    <t>signal</t>
+  </si>
+  <si>
+    <t>behaviour</t>
+  </si>
+  <si>
+    <t>_6</t>
+  </si>
+  <si>
+    <t>distribute</t>
+  </si>
+  <si>
+    <t>club</t>
+  </si>
+  <si>
+    <t>_7</t>
+  </si>
+  <si>
+    <t>span</t>
+  </si>
+  <si>
+    <t>consent</t>
+  </si>
+  <si>
+    <t>_8</t>
+  </si>
+  <si>
+    <t>enquiry</t>
+  </si>
+  <si>
+    <t>period</t>
+  </si>
+  <si>
+    <t>_9</t>
+  </si>
+  <si>
+    <t>trouble</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>_10</t>
+  </si>
+  <si>
+    <t>island</t>
+  </si>
+  <si>
+    <t>sense</t>
+  </si>
+  <si>
+    <t>_11</t>
+  </si>
+  <si>
+    <t>_12</t>
+  </si>
+  <si>
+    <t>_13</t>
+  </si>
+  <si>
+    <t>_14</t>
+  </si>
+  <si>
+    <t>_15</t>
+  </si>
+  <si>
+    <t>_16</t>
+  </si>
+  <si>
+    <t>_17</t>
+  </si>
+  <si>
+    <t>_18</t>
+  </si>
+  <si>
+    <t>_19</t>
+  </si>
+  <si>
+    <t>_20</t>
+  </si>
+  <si>
+    <t>_21</t>
+  </si>
+  <si>
+    <t>_22</t>
+  </si>
+  <si>
+    <t>_23</t>
+  </si>
+  <si>
+    <t>_24</t>
+  </si>
+  <si>
+    <t>_25</t>
+  </si>
+  <si>
+    <t>_26</t>
+  </si>
+  <si>
+    <t>_@</t>
+  </si>
+  <si>
+    <t>[_s]</t>
+  </si>
+  <si>
+    <t>[_t]</t>
+  </si>
+  <si>
+    <t>[*1]</t>
+  </si>
+  <si>
+    <t>[*2]</t>
+  </si>
+  <si>
+    <t>[_#]</t>
+  </si>
+  <si>
+    <t>[/?];</t>
+  </si>
+  <si>
+    <t>{1/6/2025 11:25:17};</t>
+  </si>
+  <si>
+    <t>(1/6/2025 11:29:32);</t>
+  </si>
+  <si>
+    <t>|1/6/2025 11:35:20|;</t>
+  </si>
+  <si>
+    <t>'0'</t>
+  </si>
+  <si>
+    <t>[internet/website/php/library/memory/packet/];</t>
+  </si>
+  <si>
+    <t>{};</t>
+  </si>
+  <si>
+    <t>();</t>
+  </si>
+  <si>
+    <t>||;</t>
+  </si>
+  <si>
+    <t>148'</t>
+  </si>
+  <si>
     <t>_range</t>
   </si>
   <si>
-    <t>_1</t>
-  </si>
-  <si>
-    <t>_2</t>
-  </si>
-  <si>
-    <t>_3</t>
-  </si>
-  <si>
-    <t>_s'</t>
-  </si>
-  <si>
     <t>_one</t>
   </si>
   <si>
-    <t>reference</t>
-  </si>
-  <si>
-    <t>form</t>
-  </si>
-  <si>
-    <t>scalar</t>
-  </si>
-  <si>
     <t>77'</t>
   </si>
   <si>
@@ -3602,9 +3794,6 @@
     <t>56'</t>
   </si>
   <si>
-    <t>_4</t>
-  </si>
-  <si>
     <t>update</t>
   </si>
   <si>
@@ -3617,9 +3806,6 @@
     <t>80'</t>
   </si>
   <si>
-    <t>_5</t>
-  </si>
-  <si>
     <t>add</t>
   </si>
   <si>
@@ -3629,9 +3815,6 @@
     <t>structure</t>
   </si>
   <si>
-    <t>_6</t>
-  </si>
-  <si>
     <t>find</t>
   </si>
   <si>
@@ -3644,9 +3827,6 @@
     <t>65'</t>
   </si>
   <si>
-    <t>_7</t>
-  </si>
-  <si>
     <t>delete</t>
   </si>
   <si>
@@ -3659,9 +3839,6 @@
     <t>69'</t>
   </si>
   <si>
-    <t>_8</t>
-  </si>
-  <si>
     <t>chunk</t>
   </si>
   <si>
@@ -3674,9 +3851,6 @@
     <t>62'</t>
   </si>
   <si>
-    <t>_9</t>
-  </si>
-  <si>
     <t>part</t>
   </si>
   <si>
@@ -3689,9 +3863,6 @@
     <t>46'</t>
   </si>
   <si>
-    <t>_10</t>
-  </si>
-  <si>
     <t>sort</t>
   </si>
   <si>
@@ -3704,9 +3875,6 @@
     <t>58'</t>
   </si>
   <si>
-    <t>_11</t>
-  </si>
-  <si>
     <t>reset</t>
   </si>
   <si>
@@ -3719,9 +3887,6 @@
     <t>72'</t>
   </si>
   <si>
-    <t>_12</t>
-  </si>
-  <si>
     <t>modified</t>
   </si>
   <si>
@@ -3734,9 +3899,6 @@
     <t>94'</t>
   </si>
   <si>
-    <t>_13</t>
-  </si>
-  <si>
     <t>truncate</t>
   </si>
   <si>
@@ -3749,9 +3911,6 @@
     <t>64'</t>
   </si>
   <si>
-    <t>_14</t>
-  </si>
-  <si>
     <t>history</t>
   </si>
   <si>
@@ -3764,9 +3923,6 @@
     <t>73'</t>
   </si>
   <si>
-    <t>_15</t>
-  </si>
-  <si>
     <t>tag</t>
   </si>
   <si>
@@ -3779,9 +3935,6 @@
     <t>41'</t>
   </si>
   <si>
-    <t>_16</t>
-  </si>
-  <si>
     <t>zip</t>
   </si>
   <si>
@@ -3791,9 +3944,6 @@
     <t>stream</t>
   </si>
   <si>
-    <t>_17</t>
-  </si>
-  <si>
     <t>group</t>
   </si>
   <si>
@@ -3806,9 +3956,6 @@
     <t>78'</t>
   </si>
   <si>
-    <t>_18</t>
-  </si>
-  <si>
     <t>order</t>
   </si>
   <si>
@@ -3821,9 +3968,6 @@
     <t>85'</t>
   </si>
   <si>
-    <t>_19</t>
-  </si>
-  <si>
     <t>session</t>
   </si>
   <si>
@@ -3836,9 +3980,6 @@
     <t>87'</t>
   </si>
   <si>
-    <t>_20</t>
-  </si>
-  <si>
     <t>information</t>
   </si>
   <si>
@@ -3851,9 +3992,6 @@
     <t>107'</t>
   </si>
   <si>
-    <t>_21</t>
-  </si>
-  <si>
     <t>track</t>
   </si>
   <si>
@@ -3866,9 +4004,6 @@
     <t>59'</t>
   </si>
   <si>
-    <t>_22</t>
-  </si>
-  <si>
     <t>unique</t>
   </si>
   <si>
@@ -3881,9 +4016,6 @@
     <t>61'</t>
   </si>
   <si>
-    <t>_23</t>
-  </si>
-  <si>
     <t>argument</t>
   </si>
   <si>
@@ -3896,9 +4028,6 @@
     <t>83'</t>
   </si>
   <si>
-    <t>_24</t>
-  </si>
-  <si>
     <t>pointer</t>
   </si>
   <si>
@@ -3908,9 +4037,6 @@
     <t>70'</t>
   </si>
   <si>
-    <t>_25</t>
-  </si>
-  <si>
     <t>current</t>
   </si>
   <si>
@@ -3920,9 +4046,6 @@
     <t>buffer</t>
   </si>
   <si>
-    <t>_26</t>
-  </si>
-  <si>
     <t>mat</t>
   </si>
   <si>
@@ -3935,24 +4058,9 @@
     <t>52'</t>
   </si>
   <si>
-    <t>_@</t>
-  </si>
-  <si>
-    <t>associative</t>
-  </si>
-  <si>
-    <t>classic</t>
-  </si>
-  <si>
-    <t>primitive</t>
-  </si>
-  <si>
     <t>98'</t>
   </si>
   <si>
-    <t>[_s]</t>
-  </si>
-  <si>
     <t>{555}</t>
   </si>
   <si>
@@ -3965,9 +4073,6 @@
     <t>1755'</t>
   </si>
   <si>
-    <t>[_t]</t>
-  </si>
-  <si>
     <t>{588}</t>
   </si>
   <si>
@@ -3980,9 +4085,6 @@
     <t>1832'</t>
   </si>
   <si>
-    <t>[*1]</t>
-  </si>
-  <si>
     <t>{280}</t>
   </si>
   <si>
@@ -3995,9 +4097,6 @@
     <t>903'</t>
   </si>
   <si>
-    <t>[*2]</t>
-  </si>
-  <si>
     <t>{346}</t>
   </si>
   <si>
@@ -4010,9 +4109,6 @@
     <t>1027'</t>
   </si>
   <si>
-    <t>[_#]</t>
-  </si>
-  <si>
     <t>{71}</t>
   </si>
   <si>
@@ -4025,9 +4121,6 @@
     <t>175'</t>
   </si>
   <si>
-    <t>[/?];</t>
-  </si>
-  <si>
     <t>{1/4/2025 16:05:50};</t>
   </si>
   <si>
@@ -4037,10 +4130,7 @@
     <t>&lt;1/4/2025 16:06:28&gt;;</t>
   </si>
   <si>
-    <t>0';</t>
-  </si>
-  <si>
-    <t>[internet/website/php/library/memory/packet/];</t>
+    <t>0'</t>
   </si>
   <si>
     <t>{associative/};</t>
@@ -4052,7 +4142,7 @@
     <t>&lt;primitive/&gt;;</t>
   </si>
   <si>
-    <t>246';</t>
+    <t>246'</t>
   </si>
   <si>
     <t>_migrate</t>
@@ -4061,51 +4151,69 @@
     <t>_node</t>
   </si>
   <si>
+    <t>97'</t>
+  </si>
+  <si>
+    <t>robotics</t>
+  </si>
+  <si>
+    <t>conversation</t>
+  </si>
+  <si>
+    <t>network</t>
+  </si>
+  <si>
     <t>robot</t>
   </si>
   <si>
-    <t>conversation</t>
-  </si>
-  <si>
-    <t>network</t>
+    <t>comprise</t>
+  </si>
+  <si>
+    <t>optimisation</t>
+  </si>
+  <si>
+    <t>explain</t>
   </si>
   <si>
     <t>compass</t>
   </si>
   <si>
-    <t>optimisation</t>
-  </si>
-  <si>
-    <t>explain</t>
-  </si>
-  <si>
-    <t>service</t>
-  </si>
-  <si>
-    <t>synchronization</t>
+    <t>services</t>
+  </si>
+  <si>
+    <t>synchronisation</t>
   </si>
   <si>
     <t>machine</t>
   </si>
   <si>
+    <t>serve</t>
+  </si>
+  <si>
+    <t>itemised</t>
+  </si>
+  <si>
+    <t>formation</t>
+  </si>
+  <si>
+    <t>cellular</t>
+  </si>
+  <si>
     <t>item</t>
   </si>
   <si>
-    <t>formation</t>
-  </si>
-  <si>
-    <t>cell</t>
+    <t>assigned</t>
+  </si>
+  <si>
+    <t>reservation</t>
+  </si>
+  <si>
+    <t>container</t>
   </si>
   <si>
     <t>assign</t>
   </si>
   <si>
-    <t>reservation</t>
-  </si>
-  <si>
-    <t>container</t>
-  </si>
-  <si>
     <t>template</t>
   </si>
   <si>
@@ -4115,25 +4223,34 @@
     <t>pattern</t>
   </si>
   <si>
+    <t>temporary</t>
+  </si>
+  <si>
+    <t>accessor</t>
+  </si>
+  <si>
+    <t>speciality</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
     <t>access</t>
   </si>
   <si>
-    <t>speciality</t>
-  </si>
-  <si>
-    <t>default</t>
+    <t>terminal</t>
+  </si>
+  <si>
+    <t>slate</t>
+  </si>
+  <si>
+    <t>totally</t>
   </si>
   <si>
     <t>determinant</t>
   </si>
   <si>
-    <t>slate</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>disturb</t>
+    <t>distance</t>
   </si>
   <si>
     <t>print</t>
@@ -4142,28 +4259,103 @@
     <t>tolerance</t>
   </si>
   <si>
-    <t>_packet</t>
-  </si>
-  <si>
-    <t>_format</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>vector</t>
-  </si>
-  <si>
-    <t>signal</t>
-  </si>
-  <si>
-    <t>behaviour</t>
-  </si>
-  <si>
-    <t>distribute</t>
-  </si>
-  <si>
-    <t>club</t>
+    <t>distant</t>
+  </si>
+  <si>
+    <t>regulate</t>
+  </si>
+  <si>
+    <t>repeat</t>
+  </si>
+  <si>
+    <t>cuboid</t>
+  </si>
+  <si>
+    <t>relate</t>
+  </si>
+  <si>
+    <t>guardian</t>
+  </si>
+  <si>
+    <t>badge</t>
+  </si>
+  <si>
+    <t>kit</t>
+  </si>
+  <si>
+    <t>guard</t>
+  </si>
+  <si>
+    <t>equalise</t>
+  </si>
+  <si>
+    <t>mapping</t>
+  </si>
+  <si>
+    <t>equilibrium</t>
+  </si>
+  <si>
+    <t>deposits</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>scan</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>informal</t>
+  </si>
+  <si>
+    <t>flag</t>
+  </si>
+  <si>
+    <t>switch</t>
+  </si>
+  <si>
+    <t>invite</t>
+  </si>
+  <si>
+    <t>parasite</t>
+  </si>
+  <si>
+    <t>represent</t>
+  </si>
+  <si>
+    <t>clutch</t>
+  </si>
+  <si>
+    <t>policy</t>
+  </si>
+  <si>
+    <t>majestic</t>
+  </si>
+  <si>
+    <t>vault</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>smudge</t>
+  </si>
+  <si>
+    <t>shield</t>
+  </si>
+  <si>
+    <t>125'</t>
+  </si>
+  <si>
+    <t>&lt;&gt;;</t>
+  </si>
+  <si>
+    <t>|example/|;</t>
+  </si>
+  <si>
+    <t>273'</t>
   </si>
   <si>
     <t>_recycle</t>
@@ -9092,7 +9284,7 @@
       <c r="C1" s="7" t="s">
         <v>1078</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>1079</v>
       </c>
       <c r="E1" s="12" t="s">
@@ -9104,16 +9296,16 @@
         <v>1081</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>1082</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="E2" s="12" t="s">
         <v>1083</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>1084</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>1085</v>
       </c>
     </row>
     <row r="3">
@@ -9121,16 +9313,16 @@
         <v>1077</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>1086</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>1087</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>1088</v>
-      </c>
       <c r="E3" s="12" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="4">
@@ -9138,16 +9330,16 @@
         <v>1078</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>1091</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>1092</v>
+        <v>1088</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>1089</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>1093</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="5">
@@ -9155,543 +9347,543 @@
         <v>1079</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>1095</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>1096</v>
+        <v>1091</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>1092</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>1097</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
-        <v>1098</v>
+        <v>1093</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>1099</v>
+        <v>1094</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>1100</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>1101</v>
+        <v>1095</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>1096</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>1102</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
-        <v>1103</v>
+        <v>1097</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>1105</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>1106</v>
+        <v>1099</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>256</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>1097</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
-        <v>1107</v>
+        <v>1100</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>1108</v>
+        <v>1101</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>1109</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>1110</v>
+        <v>1102</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>256</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>1111</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>1112</v>
+        <v>1103</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>1113</v>
+        <v>1104</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>1114</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>1115</v>
+        <v>1105</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>256</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>1116</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
-        <v>1117</v>
+        <v>1106</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>1118</v>
+        <v>1107</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>1119</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>1120</v>
+        <v>1108</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>256</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>1121</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
-        <v>1122</v>
+        <v>1109</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>1123</v>
+        <v>1110</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>1124</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>1125</v>
+        <v>1111</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>256</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>1126</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="6" t="s">
-        <v>1127</v>
+        <v>1112</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>1128</v>
+        <v>1113</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>1129</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>1130</v>
+        <v>1114</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>256</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>1131</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
-        <v>1132</v>
+        <v>1115</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>1133</v>
+        <v>256</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>1134</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>1135</v>
+        <v>256</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>256</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>1136</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
-        <v>1137</v>
+        <v>1116</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>1138</v>
+        <v>256</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>1139</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>1140</v>
+        <v>256</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>256</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>1141</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="6" t="s">
-        <v>1142</v>
+        <v>1117</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>1143</v>
+        <v>256</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>1144</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>1145</v>
+        <v>256</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>256</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>1146</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="6" t="s">
-        <v>1147</v>
+        <v>1118</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>1148</v>
+        <v>256</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>1149</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>1150</v>
+        <v>256</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>256</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>1151</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
-        <v>1152</v>
+        <v>1119</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>1153</v>
+        <v>256</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>1154</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>1155</v>
+        <v>256</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>256</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>1156</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
-        <v>1157</v>
+        <v>1120</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>1158</v>
+        <v>256</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>1159</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>1160</v>
+        <v>256</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>256</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>1116</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
-        <v>1161</v>
+        <v>1121</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>1162</v>
+        <v>256</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>1163</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>1164</v>
+        <v>256</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>256</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>1165</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="6" t="s">
-        <v>1166</v>
+        <v>1122</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>1167</v>
+        <v>256</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>1168</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>1169</v>
+        <v>256</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>256</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>1170</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="6" t="s">
-        <v>1171</v>
+        <v>1123</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>1172</v>
+        <v>256</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>1173</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>1174</v>
+        <v>256</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>256</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>1175</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="6" t="s">
-        <v>1176</v>
+        <v>1124</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>1177</v>
+        <v>256</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>1178</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>1179</v>
+        <v>256</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>256</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>1180</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="6" t="s">
-        <v>1181</v>
+        <v>1125</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>1182</v>
+        <v>256</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>1183</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>1184</v>
+        <v>256</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>256</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>1185</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="6" t="s">
-        <v>1186</v>
+        <v>1126</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>1187</v>
+        <v>256</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>1188</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>1189</v>
+        <v>256</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>256</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>1190</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="6" t="s">
-        <v>1191</v>
+        <v>1127</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>1192</v>
+        <v>256</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>1193</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>1194</v>
+        <v>256</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>256</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>1195</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="6" t="s">
-        <v>1196</v>
+        <v>1128</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>61</v>
+        <v>256</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>1197</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>1198</v>
+        <v>256</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>256</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>1199</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="6" t="s">
-        <v>1200</v>
+        <v>1129</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>1201</v>
+        <v>256</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>1202</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>1203</v>
+        <v>256</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>256</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>1146</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="6" t="s">
-        <v>1204</v>
+        <v>1130</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>1205</v>
+        <v>256</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>1206</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>1207</v>
+        <v>256</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>256</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>1208</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="6" t="s">
-        <v>1209</v>
+        <v>1131</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>1210</v>
+        <v>256</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>1211</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>1212</v>
+        <v>256</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>1083</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>1213</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="6" t="s">
-        <v>1214</v>
+        <v>1132</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>1215</v>
+        <v>1086</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>1216</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>1217</v>
+        <v>1089</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>1092</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>1218</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="6" t="s">
-        <v>1219</v>
+        <v>1133</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>1220</v>
+        <v>1086</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>1221</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>1222</v>
+        <v>1089</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>1092</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>1223</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="6" t="s">
-        <v>1224</v>
+        <v>1134</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>1225</v>
+        <v>1086</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>1226</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>1227</v>
+        <v>1089</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>1092</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>1228</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="6" t="s">
-        <v>1229</v>
+        <v>1135</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>1230</v>
+        <v>1086</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>1231</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>1232</v>
+        <v>1089</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>1092</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>1233</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="6" t="s">
-        <v>1234</v>
+        <v>1136</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>1235</v>
+        <v>1086</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>1236</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>1237</v>
+        <v>1089</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>1092</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>1238</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="6" t="s">
-        <v>1239</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>1240</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>1241</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>1242</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>1243</v>
+        <v>1137</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>1140</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>1141</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="6" t="s">
-        <v>1244</v>
+        <v>1142</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>1245</v>
+        <v>1143</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>1246</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>1247</v>
+        <v>1144</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>1145</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>1248</v>
+        <v>1146</v>
       </c>
     </row>
   </sheetData>
@@ -9714,7 +9906,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="6" t="s">
-        <v>1249</v>
+        <v>1147</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>1077</v>
@@ -9731,19 +9923,19 @@
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
-        <v>1250</v>
+        <v>1148</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>1082</v>
+        <v>1085</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>1083</v>
+        <v>1088</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>1084</v>
+        <v>1091</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>1085</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="3">
@@ -9751,373 +9943,578 @@
         <v>1077</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>1251</v>
+        <v>1150</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>1252</v>
+        <v>1151</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>1253</v>
-      </c>
-      <c r="E3" s="6"/>
+        <v>1152</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>1153</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
         <v>1078</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>1254</v>
+        <v>1154</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>1255</v>
+        <v>1155</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>1256</v>
-      </c>
-      <c r="E4" s="6"/>
+        <v>1156</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>1157</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
         <v>1079</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>1257</v>
+        <v>1158</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>1258</v>
+        <v>1159</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>1259</v>
-      </c>
-      <c r="E5" s="6"/>
+        <v>1160</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>1161</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
-        <v>1098</v>
+        <v>1093</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>1260</v>
+        <v>1162</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>1261</v>
+        <v>1163</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>1262</v>
-      </c>
-      <c r="E6" s="6"/>
+        <v>1164</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>1165</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
-        <v>1103</v>
+        <v>1097</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>1263</v>
+        <v>1166</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>1264</v>
+        <v>1167</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>1265</v>
-      </c>
-      <c r="E7" s="6"/>
+        <v>1168</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>1161</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
-        <v>1107</v>
+        <v>1100</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>1266</v>
+        <v>1169</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>1267</v>
+        <v>1170</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>1268</v>
-      </c>
-      <c r="E8" s="6"/>
+        <v>1171</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>1172</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>1112</v>
+        <v>1103</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>1269</v>
+        <v>1173</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>1270</v>
+        <v>1174</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>1271</v>
-      </c>
-      <c r="E9" s="6"/>
+        <v>1175</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>1176</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
-        <v>1117</v>
+        <v>1106</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>1272</v>
+        <v>1177</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>1273</v>
+        <v>1178</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>1274</v>
-      </c>
-      <c r="E10" s="6"/>
+        <v>1179</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>1180</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
-        <v>1122</v>
+        <v>1109</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>1275</v>
+        <v>1181</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>1276</v>
+        <v>1182</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>1277</v>
-      </c>
-      <c r="E11" s="6"/>
+        <v>1183</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>1184</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="6" t="s">
-        <v>1127</v>
-      </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="6"/>
+        <v>1112</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>1188</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
-        <v>1132</v>
-      </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="6"/>
+        <v>1115</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>1190</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>1191</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>1192</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
-        <v>1137</v>
-      </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="6"/>
+        <v>1116</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>1195</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>1196</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="6" t="s">
-        <v>1142</v>
-      </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="6"/>
+        <v>1117</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>1199</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>1200</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="6" t="s">
-        <v>1147</v>
-      </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="6"/>
+        <v>1118</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>1203</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>1204</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
-        <v>1152</v>
-      </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="6"/>
+        <v>1119</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>1207</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>1208</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
-        <v>1157</v>
-      </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="6"/>
+        <v>1120</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>1211</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>1176</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
-        <v>1161</v>
-      </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="6"/>
+        <v>1121</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>1214</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>1215</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="6" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="6"/>
+        <v>1122</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>1218</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>1219</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="6" t="s">
-        <v>1171</v>
-      </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="6"/>
+        <v>1123</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>1223</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="6" t="s">
-        <v>1176</v>
-      </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="6"/>
+        <v>1124</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>1226</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>1227</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="6" t="s">
-        <v>1181</v>
-      </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="6"/>
+        <v>1125</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>1231</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="6" t="s">
-        <v>1186</v>
-      </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="6"/>
+        <v>1126</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>1234</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>1235</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="6" t="s">
-        <v>1191</v>
-      </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="6"/>
+        <v>1127</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>1237</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>1238</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>1239</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="6" t="s">
-        <v>1196</v>
-      </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="6"/>
+        <v>1128</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>1241</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>1242</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="6" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>1244</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E27" s="12" t="s">
         <v>1200</v>
       </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="6"/>
     </row>
     <row r="28">
       <c r="A28" s="6" t="s">
-        <v>1204</v>
-      </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="6"/>
+        <v>1130</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>1247</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>1248</v>
+      </c>
+      <c r="E28" s="12" t="s">
+        <v>1249</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="6" t="s">
-        <v>1209</v>
+        <v>1131</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>1210</v>
+        <v>1084</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>1211</v>
+        <v>1087</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>1212</v>
+        <v>1090</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>1213</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="6" t="s">
-        <v>1214</v>
-      </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="6"/>
+        <v>1132</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>1253</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>1254</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="6" t="s">
-        <v>1219</v>
-      </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="6"/>
+        <v>1133</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>1256</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>1257</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>1258</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="6" t="s">
-        <v>1224</v>
-      </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="6"/>
+        <v>1134</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>1261</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>1262</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="6" t="s">
-        <v>1229</v>
-      </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="6"/>
+        <v>1135</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>1264</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>1265</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>1266</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="6" t="s">
-        <v>1234</v>
-      </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="6"/>
+        <v>1136</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>1268</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>1269</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>1270</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="6" t="s">
-        <v>1239</v>
+        <v>1137</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>1272</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>1273</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>1243</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="6" t="s">
-        <v>1244</v>
+        <v>1142</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>1245</v>
+        <v>1275</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>1246</v>
+        <v>1276</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>1247</v>
-      </c>
-      <c r="E36" s="6"/>
+        <v>1277</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>1278</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -10139,7 +10536,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="6" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>1077</v>
@@ -10147,309 +10544,715 @@
       <c r="C1" s="7" t="s">
         <v>1078</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="7" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>1080</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
-        <v>1279</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="6"/>
+        <v>1280</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>1095</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>1281</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
         <v>1077</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>1210</v>
+        <v>1282</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>1082</v>
-      </c>
-      <c r="D3" s="6"/>
+        <v>1283</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>1284</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>1285</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>1083</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
         <v>1078</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>1211</v>
+        <v>1286</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>1287</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>1288</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>1289</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>1083</v>
       </c>
-      <c r="D4" s="6"/>
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
         <v>1079</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>1212</v>
+        <v>1290</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>1084</v>
-      </c>
-      <c r="D5" s="6"/>
+        <v>1291</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>1292</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>1293</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>1083</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
-        <v>1098</v>
+        <v>1093</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>1280</v>
+        <v>1294</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>1281</v>
-      </c>
-      <c r="D6" s="6"/>
+        <v>1295</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>1296</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>1297</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>1083</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
-        <v>1103</v>
+        <v>1097</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>1282</v>
+        <v>1298</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>1283</v>
-      </c>
-      <c r="D7" s="6"/>
+        <v>1299</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>1300</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>1301</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>1083</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
-        <v>1107</v>
+        <v>1100</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>1284</v>
+        <v>1302</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>1285</v>
-      </c>
-      <c r="D8" s="6"/>
+        <v>1303</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>1304</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>1305</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>1083</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>1112</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="6"/>
+        <v>1103</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>1308</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>1309</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>1083</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
-        <v>1117</v>
-      </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="6"/>
+        <v>1106</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>1311</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>1312</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>1313</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>1083</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
-        <v>1122</v>
-      </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="6"/>
+        <v>1109</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>1315</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>1316</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>1317</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>1083</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="6" t="s">
-        <v>1127</v>
-      </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="6"/>
+        <v>1112</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>1319</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>1320</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>1321</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>1083</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
-        <v>1132</v>
-      </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="6"/>
+        <v>1115</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>1324</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>1325</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>1083</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
-        <v>1137</v>
-      </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="6"/>
+        <v>1116</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>1327</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>1083</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="6" t="s">
-        <v>1142</v>
-      </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="6"/>
+        <v>1117</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>1331</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>1332</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>1083</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="6" t="s">
-        <v>1147</v>
-      </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="6"/>
+        <v>1118</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>1335</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>1336</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>1083</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
-        <v>1152</v>
-      </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="6"/>
+        <v>1119</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>1338</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>1339</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>1340</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>1083</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
-        <v>1157</v>
-      </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="6"/>
+        <v>1120</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>1342</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>1344</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>1083</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
-        <v>1161</v>
-      </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="6"/>
+        <v>1121</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>1345</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>1083</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="6" t="s">
-        <v>1166</v>
-      </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="6"/>
+        <v>1122</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>1083</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="6" t="s">
-        <v>1171</v>
-      </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="6"/>
+        <v>1123</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>1083</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="6" t="s">
-        <v>1176</v>
-      </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="6"/>
+        <v>1124</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>1083</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="6" t="s">
-        <v>1181</v>
-      </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="6"/>
+        <v>1125</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>1083</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="6" t="s">
-        <v>1186</v>
-      </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="6"/>
+        <v>1126</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>1083</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="6" t="s">
-        <v>1191</v>
-      </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="6"/>
+        <v>1127</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>1083</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="6" t="s">
-        <v>1196</v>
-      </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="6"/>
+        <v>1128</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>1083</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="6" t="s">
-        <v>1200</v>
-      </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="6"/>
+        <v>1129</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>1083</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="6" t="s">
-        <v>1204</v>
-      </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="6"/>
+        <v>1130</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>1083</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="6" t="s">
-        <v>1209</v>
-      </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="6"/>
+        <v>1131</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>1094</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>1346</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="6" t="s">
-        <v>1214</v>
-      </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="6"/>
+        <v>1132</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>1083</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="6" t="s">
-        <v>1219</v>
-      </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="6"/>
+        <v>1133</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>1083</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="6" t="s">
-        <v>1224</v>
-      </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="6"/>
+        <v>1134</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>1083</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="6" t="s">
-        <v>1229</v>
-      </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="6"/>
+        <v>1135</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>1083</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="6" t="s">
-        <v>1234</v>
-      </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="6"/>
+        <v>1136</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>1083</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="6" t="s">
-        <v>1239</v>
-      </c>
-      <c r="D35" s="6"/>
+        <v>1137</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>1144</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>1347</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>1145</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>1274</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="6"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="6"/>
+      <c r="A36" s="6" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>1276</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>1348</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>1349</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -10471,7 +11274,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="6" t="s">
-        <v>1286</v>
+        <v>1350</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>1077</v>
@@ -10485,13 +11288,13 @@
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
-        <v>1287</v>
+        <v>1351</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>1288</v>
+        <v>1352</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>1289</v>
+        <v>1353</v>
       </c>
       <c r="D2" s="6"/>
     </row>
@@ -10500,10 +11303,10 @@
         <v>1077</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>1290</v>
+        <v>1354</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>1291</v>
+        <v>1355</v>
       </c>
       <c r="D3" s="6"/>
     </row>
@@ -10512,10 +11315,10 @@
         <v>1078</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>1292</v>
+        <v>1356</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>1293</v>
+        <v>1357</v>
       </c>
       <c r="D4" s="6"/>
     </row>
@@ -10524,304 +11327,304 @@
         <v>1079</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>1294</v>
+        <v>1358</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>1295</v>
+        <v>1359</v>
       </c>
       <c r="D5" s="6"/>
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
-        <v>1098</v>
+        <v>1093</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>1296</v>
+        <v>1360</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>1297</v>
+        <v>1361</v>
       </c>
       <c r="D6" s="6"/>
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
-        <v>1103</v>
+        <v>1097</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>1298</v>
+        <v>1362</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>1299</v>
+        <v>1363</v>
       </c>
       <c r="D7" s="6"/>
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
-        <v>1107</v>
+        <v>1100</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>1300</v>
+        <v>1364</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>1301</v>
+        <v>1365</v>
       </c>
       <c r="D8" s="6"/>
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>1112</v>
+        <v>1103</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>1302</v>
+        <v>1366</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>1303</v>
+        <v>1367</v>
       </c>
       <c r="D9" s="6"/>
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
-        <v>1117</v>
+        <v>1106</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>1304</v>
+        <v>1368</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>1305</v>
+        <v>1369</v>
       </c>
       <c r="D10" s="6"/>
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
-        <v>1122</v>
+        <v>1109</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>1306</v>
+        <v>1370</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>1307</v>
+        <v>1371</v>
       </c>
       <c r="D11" s="6"/>
     </row>
     <row r="12">
       <c r="A12" s="6" t="s">
-        <v>1127</v>
+        <v>1112</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>1308</v>
+        <v>1372</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>1309</v>
+        <v>1373</v>
       </c>
       <c r="D12" s="6"/>
     </row>
     <row r="13">
       <c r="A13" s="6" t="s">
-        <v>1132</v>
+        <v>1115</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>1310</v>
+        <v>1374</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>1311</v>
+        <v>1375</v>
       </c>
       <c r="D13" s="6"/>
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
-        <v>1137</v>
+        <v>1116</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>1312</v>
+        <v>1376</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>1313</v>
+        <v>1377</v>
       </c>
       <c r="D14" s="6"/>
     </row>
     <row r="15">
       <c r="A15" s="6" t="s">
-        <v>1142</v>
+        <v>1117</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>1314</v>
+        <v>1378</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>1315</v>
+        <v>1379</v>
       </c>
       <c r="D15" s="6"/>
     </row>
     <row r="16">
       <c r="A16" s="6" t="s">
-        <v>1147</v>
+        <v>1118</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>1316</v>
+        <v>1380</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>1317</v>
+        <v>1381</v>
       </c>
       <c r="D16" s="6"/>
     </row>
     <row r="17">
       <c r="A17" s="6" t="s">
-        <v>1152</v>
+        <v>1119</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>1318</v>
+        <v>1382</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>1319</v>
+        <v>1383</v>
       </c>
       <c r="D17" s="6"/>
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
-        <v>1157</v>
+        <v>1120</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>1320</v>
+        <v>1384</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>1321</v>
+        <v>1385</v>
       </c>
       <c r="D18" s="6"/>
     </row>
     <row r="19">
       <c r="A19" s="6" t="s">
-        <v>1161</v>
+        <v>1121</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>1322</v>
+        <v>1386</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>1323</v>
+        <v>1387</v>
       </c>
       <c r="D19" s="6"/>
     </row>
     <row r="20">
       <c r="A20" s="6" t="s">
-        <v>1166</v>
+        <v>1122</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>1324</v>
+        <v>1388</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>1325</v>
+        <v>1389</v>
       </c>
       <c r="D20" s="6"/>
     </row>
     <row r="21">
       <c r="A21" s="6" t="s">
-        <v>1171</v>
+        <v>1123</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>1326</v>
+        <v>1390</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>1327</v>
+        <v>1391</v>
       </c>
       <c r="D21" s="6"/>
     </row>
     <row r="22">
       <c r="A22" s="6" t="s">
-        <v>1176</v>
+        <v>1124</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>1328</v>
+        <v>1392</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>1329</v>
+        <v>1393</v>
       </c>
       <c r="D22" s="6"/>
     </row>
     <row r="23">
       <c r="A23" s="6" t="s">
-        <v>1181</v>
+        <v>1125</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>1330</v>
+        <v>1394</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>1331</v>
+        <v>1395</v>
       </c>
       <c r="D23" s="6"/>
     </row>
     <row r="24">
       <c r="A24" s="6" t="s">
-        <v>1186</v>
+        <v>1126</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>1332</v>
+        <v>1396</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>1333</v>
+        <v>1397</v>
       </c>
       <c r="D24" s="6"/>
     </row>
     <row r="25">
       <c r="A25" s="6" t="s">
-        <v>1191</v>
+        <v>1127</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>1334</v>
+        <v>1398</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>1335</v>
+        <v>1399</v>
       </c>
       <c r="D25" s="6"/>
     </row>
     <row r="26">
       <c r="A26" s="6" t="s">
-        <v>1196</v>
+        <v>1128</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>1336</v>
+        <v>1400</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>1337</v>
+        <v>1401</v>
       </c>
       <c r="D26" s="6"/>
     </row>
     <row r="27">
       <c r="A27" s="6" t="s">
-        <v>1200</v>
+        <v>1129</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>1338</v>
+        <v>1402</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>1339</v>
+        <v>1403</v>
       </c>
       <c r="D27" s="6"/>
     </row>
     <row r="28">
       <c r="A28" s="6" t="s">
-        <v>1204</v>
+        <v>1130</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>1340</v>
+        <v>1404</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>1341</v>
+        <v>1405</v>
       </c>
       <c r="D28" s="6"/>
     </row>
     <row r="29">
       <c r="A29" s="6" t="s">
-        <v>1209</v>
+        <v>1131</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>1342</v>
+        <v>1406</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>1343</v>
+        <v>1407</v>
       </c>
       <c r="D29" s="6"/>
     </row>
     <row r="30">
       <c r="A30" s="6" t="s">
-        <v>1214</v>
+        <v>1132</v>
       </c>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -10829,7 +11632,7 @@
     </row>
     <row r="31">
       <c r="A31" s="6" t="s">
-        <v>1219</v>
+        <v>1133</v>
       </c>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -10837,7 +11640,7 @@
     </row>
     <row r="32">
       <c r="A32" s="6" t="s">
-        <v>1224</v>
+        <v>1134</v>
       </c>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -10845,7 +11648,7 @@
     </row>
     <row r="33">
       <c r="A33" s="6" t="s">
-        <v>1229</v>
+        <v>1135</v>
       </c>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -10853,7 +11656,7 @@
     </row>
     <row r="34">
       <c r="A34" s="6" t="s">
-        <v>1234</v>
+        <v>1136</v>
       </c>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -10861,7 +11664,7 @@
     </row>
     <row r="35">
       <c r="A35" s="6" t="s">
-        <v>1239</v>
+        <v>1137</v>
       </c>
       <c r="D35" s="6"/>
     </row>

--- a/archive/iceKnives32/iceKnives32.xlsx
+++ b/archive/iceKnives32/iceKnives32.xlsx
@@ -306,7 +306,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2058" uniqueCount="1408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2058" uniqueCount="1423">
   <si>
     <t>{_f}</t>
   </si>
@@ -4343,7 +4343,52 @@
     <t>smudge</t>
   </si>
   <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>requisite</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
     <t>shield</t>
+  </si>
+  <si>
+    <t>transfer</t>
+  </si>
+  <si>
+    <t>encapsulate</t>
+  </si>
+  <si>
+    <t>zone</t>
+  </si>
+  <si>
+    <t>capture</t>
+  </si>
+  <si>
+    <t>register</t>
+  </si>
+  <si>
+    <t>certificate</t>
+  </si>
+  <si>
+    <t>licence</t>
+  </si>
+  <si>
+    <t>render</t>
+  </si>
+  <si>
+    <t>organise</t>
+  </si>
+  <si>
+    <t>knowledge</t>
+  </si>
+  <si>
+    <t>expert</t>
+  </si>
+  <si>
+    <t>once</t>
   </si>
   <si>
     <t>125'</t>
@@ -10899,16 +10944,16 @@
         <v>1121</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>256</v>
+        <v>1345</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>256</v>
+        <v>1346</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>256</v>
+        <v>1347</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>1345</v>
+        <v>1348</v>
       </c>
       <c r="F19" s="12" t="s">
         <v>1083</v>
@@ -10919,16 +10964,16 @@
         <v>1122</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>256</v>
+        <v>1349</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>256</v>
+        <v>1350</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>256</v>
+        <v>1351</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>256</v>
+        <v>1352</v>
       </c>
       <c r="F20" s="12" t="s">
         <v>1083</v>
@@ -10939,16 +10984,16 @@
         <v>1123</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>256</v>
+        <v>1353</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>256</v>
+        <v>1354</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>256</v>
+        <v>1355</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>256</v>
+        <v>1356</v>
       </c>
       <c r="F21" s="12" t="s">
         <v>1083</v>
@@ -10959,16 +11004,16 @@
         <v>1124</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>256</v>
+        <v>1357</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>256</v>
+        <v>1358</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>256</v>
+        <v>1359</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>256</v>
+        <v>1360</v>
       </c>
       <c r="F22" s="12" t="s">
         <v>1083</v>
@@ -11111,7 +11156,7 @@
         <v>1094</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>1346</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="30">
@@ -11225,7 +11270,7 @@
         <v>1144</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>1347</v>
+        <v>1362</v>
       </c>
       <c r="E35" s="8" t="s">
         <v>1145</v>
@@ -11248,10 +11293,10 @@
         <v>1277</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>1348</v>
+        <v>1363</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>1349</v>
+        <v>1364</v>
       </c>
     </row>
   </sheetData>
@@ -11274,7 +11319,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="6" t="s">
-        <v>1350</v>
+        <v>1365</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>1077</v>
@@ -11288,13 +11333,13 @@
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
-        <v>1351</v>
+        <v>1366</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>1352</v>
+        <v>1367</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>1353</v>
+        <v>1368</v>
       </c>
       <c r="D2" s="6"/>
     </row>
@@ -11303,10 +11348,10 @@
         <v>1077</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>1354</v>
+        <v>1369</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>1355</v>
+        <v>1370</v>
       </c>
       <c r="D3" s="6"/>
     </row>
@@ -11315,10 +11360,10 @@
         <v>1078</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>1356</v>
+        <v>1371</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>1357</v>
+        <v>1372</v>
       </c>
       <c r="D4" s="6"/>
     </row>
@@ -11327,10 +11372,10 @@
         <v>1079</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>1358</v>
+        <v>1373</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>1359</v>
+        <v>1374</v>
       </c>
       <c r="D5" s="6"/>
     </row>
@@ -11339,10 +11384,10 @@
         <v>1093</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>1360</v>
+        <v>1375</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>1361</v>
+        <v>1376</v>
       </c>
       <c r="D6" s="6"/>
     </row>
@@ -11351,10 +11396,10 @@
         <v>1097</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>1362</v>
+        <v>1377</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>1363</v>
+        <v>1378</v>
       </c>
       <c r="D7" s="6"/>
     </row>
@@ -11363,10 +11408,10 @@
         <v>1100</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>1364</v>
+        <v>1379</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>1365</v>
+        <v>1380</v>
       </c>
       <c r="D8" s="6"/>
     </row>
@@ -11375,10 +11420,10 @@
         <v>1103</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>1366</v>
+        <v>1381</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>1367</v>
+        <v>1382</v>
       </c>
       <c r="D9" s="6"/>
     </row>
@@ -11387,10 +11432,10 @@
         <v>1106</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>1368</v>
+        <v>1383</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>1369</v>
+        <v>1384</v>
       </c>
       <c r="D10" s="6"/>
     </row>
@@ -11399,10 +11444,10 @@
         <v>1109</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>1370</v>
+        <v>1385</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>1371</v>
+        <v>1386</v>
       </c>
       <c r="D11" s="6"/>
     </row>
@@ -11411,10 +11456,10 @@
         <v>1112</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>1372</v>
+        <v>1387</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>1373</v>
+        <v>1388</v>
       </c>
       <c r="D12" s="6"/>
     </row>
@@ -11423,10 +11468,10 @@
         <v>1115</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>1374</v>
+        <v>1389</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>1375</v>
+        <v>1390</v>
       </c>
       <c r="D13" s="6"/>
     </row>
@@ -11435,10 +11480,10 @@
         <v>1116</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>1376</v>
+        <v>1391</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>1377</v>
+        <v>1392</v>
       </c>
       <c r="D14" s="6"/>
     </row>
@@ -11447,10 +11492,10 @@
         <v>1117</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>1378</v>
+        <v>1393</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>1379</v>
+        <v>1394</v>
       </c>
       <c r="D15" s="6"/>
     </row>
@@ -11459,10 +11504,10 @@
         <v>1118</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>1380</v>
+        <v>1395</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>1381</v>
+        <v>1396</v>
       </c>
       <c r="D16" s="6"/>
     </row>
@@ -11471,10 +11516,10 @@
         <v>1119</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>1382</v>
+        <v>1397</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>1383</v>
+        <v>1398</v>
       </c>
       <c r="D17" s="6"/>
     </row>
@@ -11483,10 +11528,10 @@
         <v>1120</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>1384</v>
+        <v>1399</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>1385</v>
+        <v>1400</v>
       </c>
       <c r="D18" s="6"/>
     </row>
@@ -11495,10 +11540,10 @@
         <v>1121</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>1386</v>
+        <v>1401</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>1387</v>
+        <v>1402</v>
       </c>
       <c r="D19" s="6"/>
     </row>
@@ -11507,10 +11552,10 @@
         <v>1122</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>1388</v>
+        <v>1403</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>1389</v>
+        <v>1404</v>
       </c>
       <c r="D20" s="6"/>
     </row>
@@ -11519,10 +11564,10 @@
         <v>1123</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>1390</v>
+        <v>1405</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>1391</v>
+        <v>1406</v>
       </c>
       <c r="D21" s="6"/>
     </row>
@@ -11531,10 +11576,10 @@
         <v>1124</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>1392</v>
+        <v>1407</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>1393</v>
+        <v>1408</v>
       </c>
       <c r="D22" s="6"/>
     </row>
@@ -11543,10 +11588,10 @@
         <v>1125</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>1394</v>
+        <v>1409</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>1395</v>
+        <v>1410</v>
       </c>
       <c r="D23" s="6"/>
     </row>
@@ -11555,10 +11600,10 @@
         <v>1126</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>1396</v>
+        <v>1411</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>1397</v>
+        <v>1412</v>
       </c>
       <c r="D24" s="6"/>
     </row>
@@ -11567,10 +11612,10 @@
         <v>1127</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>1398</v>
+        <v>1413</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>1399</v>
+        <v>1414</v>
       </c>
       <c r="D25" s="6"/>
     </row>
@@ -11579,10 +11624,10 @@
         <v>1128</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>1400</v>
+        <v>1415</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>1401</v>
+        <v>1416</v>
       </c>
       <c r="D26" s="6"/>
     </row>
@@ -11591,10 +11636,10 @@
         <v>1129</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>1402</v>
+        <v>1417</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>1403</v>
+        <v>1418</v>
       </c>
       <c r="D27" s="6"/>
     </row>
@@ -11603,10 +11648,10 @@
         <v>1130</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>1404</v>
+        <v>1419</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>1405</v>
+        <v>1420</v>
       </c>
       <c r="D28" s="6"/>
     </row>
@@ -11615,10 +11660,10 @@
         <v>1131</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>1406</v>
+        <v>1421</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>1407</v>
+        <v>1422</v>
       </c>
       <c r="D29" s="6"/>
     </row>

--- a/archive/iceKnives32/iceKnives32.xlsx
+++ b/archive/iceKnives32/iceKnives32.xlsx
@@ -306,7 +306,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2058" uniqueCount="1423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2058" uniqueCount="1428">
   <si>
     <t>{_f}</t>
   </si>
@@ -4389,6 +4389,21 @@
   </si>
   <si>
     <t>once</t>
+  </si>
+  <si>
+    <t>changing</t>
+  </si>
+  <si>
+    <t>alternate</t>
+  </si>
+  <si>
+    <t>mirror</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>specific</t>
   </si>
   <si>
     <t>125'</t>
@@ -11024,16 +11039,16 @@
         <v>1125</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>256</v>
+        <v>1361</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>256</v>
+        <v>1362</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>256</v>
+        <v>1363</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>256</v>
+        <v>1364</v>
       </c>
       <c r="F23" s="12" t="s">
         <v>1083</v>
@@ -11044,7 +11059,7 @@
         <v>1126</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>256</v>
+        <v>1365</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>256</v>
@@ -11156,7 +11171,7 @@
         <v>1094</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>1361</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="30">
@@ -11270,7 +11285,7 @@
         <v>1144</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>1362</v>
+        <v>1367</v>
       </c>
       <c r="E35" s="8" t="s">
         <v>1145</v>
@@ -11293,10 +11308,10 @@
         <v>1277</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>1363</v>
+        <v>1368</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>1364</v>
+        <v>1369</v>
       </c>
     </row>
   </sheetData>
@@ -11319,7 +11334,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="6" t="s">
-        <v>1365</v>
+        <v>1370</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>1077</v>
@@ -11333,13 +11348,13 @@
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
-        <v>1366</v>
+        <v>1371</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>1367</v>
+        <v>1372</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>1368</v>
+        <v>1373</v>
       </c>
       <c r="D2" s="6"/>
     </row>
@@ -11348,10 +11363,10 @@
         <v>1077</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>1369</v>
+        <v>1374</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>1370</v>
+        <v>1375</v>
       </c>
       <c r="D3" s="6"/>
     </row>
@@ -11360,10 +11375,10 @@
         <v>1078</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>1371</v>
+        <v>1376</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>1372</v>
+        <v>1377</v>
       </c>
       <c r="D4" s="6"/>
     </row>
@@ -11372,10 +11387,10 @@
         <v>1079</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>1373</v>
+        <v>1378</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>1374</v>
+        <v>1379</v>
       </c>
       <c r="D5" s="6"/>
     </row>
@@ -11384,10 +11399,10 @@
         <v>1093</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>1375</v>
+        <v>1380</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>1376</v>
+        <v>1381</v>
       </c>
       <c r="D6" s="6"/>
     </row>
@@ -11396,10 +11411,10 @@
         <v>1097</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>1377</v>
+        <v>1382</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>1378</v>
+        <v>1383</v>
       </c>
       <c r="D7" s="6"/>
     </row>
@@ -11408,10 +11423,10 @@
         <v>1100</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>1379</v>
+        <v>1384</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>1380</v>
+        <v>1385</v>
       </c>
       <c r="D8" s="6"/>
     </row>
@@ -11420,10 +11435,10 @@
         <v>1103</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>1381</v>
+        <v>1386</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>1382</v>
+        <v>1387</v>
       </c>
       <c r="D9" s="6"/>
     </row>
@@ -11432,10 +11447,10 @@
         <v>1106</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>1383</v>
+        <v>1388</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>1384</v>
+        <v>1389</v>
       </c>
       <c r="D10" s="6"/>
     </row>
@@ -11444,10 +11459,10 @@
         <v>1109</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>1385</v>
+        <v>1390</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>1386</v>
+        <v>1391</v>
       </c>
       <c r="D11" s="6"/>
     </row>
@@ -11456,10 +11471,10 @@
         <v>1112</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>1387</v>
+        <v>1392</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>1388</v>
+        <v>1393</v>
       </c>
       <c r="D12" s="6"/>
     </row>
@@ -11468,10 +11483,10 @@
         <v>1115</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
       <c r="D13" s="6"/>
     </row>
@@ -11480,10 +11495,10 @@
         <v>1116</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>1392</v>
+        <v>1397</v>
       </c>
       <c r="D14" s="6"/>
     </row>
@@ -11492,10 +11507,10 @@
         <v>1117</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>1393</v>
+        <v>1398</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>1394</v>
+        <v>1399</v>
       </c>
       <c r="D15" s="6"/>
     </row>
@@ -11504,10 +11519,10 @@
         <v>1118</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>1395</v>
+        <v>1400</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>1396</v>
+        <v>1401</v>
       </c>
       <c r="D16" s="6"/>
     </row>
@@ -11516,10 +11531,10 @@
         <v>1119</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>1397</v>
+        <v>1402</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>1398</v>
+        <v>1403</v>
       </c>
       <c r="D17" s="6"/>
     </row>
@@ -11528,10 +11543,10 @@
         <v>1120</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>1399</v>
+        <v>1404</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>1400</v>
+        <v>1405</v>
       </c>
       <c r="D18" s="6"/>
     </row>
@@ -11540,10 +11555,10 @@
         <v>1121</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>1401</v>
+        <v>1406</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>1402</v>
+        <v>1407</v>
       </c>
       <c r="D19" s="6"/>
     </row>
@@ -11552,10 +11567,10 @@
         <v>1122</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>1403</v>
+        <v>1408</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>1404</v>
+        <v>1409</v>
       </c>
       <c r="D20" s="6"/>
     </row>
@@ -11564,10 +11579,10 @@
         <v>1123</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>1405</v>
+        <v>1410</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>1406</v>
+        <v>1411</v>
       </c>
       <c r="D21" s="6"/>
     </row>
@@ -11576,10 +11591,10 @@
         <v>1124</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>1407</v>
+        <v>1412</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>1408</v>
+        <v>1413</v>
       </c>
       <c r="D22" s="6"/>
     </row>
@@ -11588,10 +11603,10 @@
         <v>1125</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>1409</v>
+        <v>1414</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>1410</v>
+        <v>1415</v>
       </c>
       <c r="D23" s="6"/>
     </row>
@@ -11600,10 +11615,10 @@
         <v>1126</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>1411</v>
+        <v>1416</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>1412</v>
+        <v>1417</v>
       </c>
       <c r="D24" s="6"/>
     </row>
@@ -11612,10 +11627,10 @@
         <v>1127</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>1413</v>
+        <v>1418</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>1414</v>
+        <v>1419</v>
       </c>
       <c r="D25" s="6"/>
     </row>
@@ -11624,10 +11639,10 @@
         <v>1128</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>1415</v>
+        <v>1420</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>1416</v>
+        <v>1421</v>
       </c>
       <c r="D26" s="6"/>
     </row>
@@ -11636,10 +11651,10 @@
         <v>1129</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>1417</v>
+        <v>1422</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>1418</v>
+        <v>1423</v>
       </c>
       <c r="D27" s="6"/>
     </row>
@@ -11648,10 +11663,10 @@
         <v>1130</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>1419</v>
+        <v>1424</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>1420</v>
+        <v>1425</v>
       </c>
       <c r="D28" s="6"/>
     </row>
@@ -11660,10 +11675,10 @@
         <v>1131</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>1421</v>
+        <v>1426</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>1422</v>
+        <v>1427</v>
       </c>
       <c r="D29" s="6"/>
     </row>

--- a/archive/iceKnives32/iceKnives32.xlsx
+++ b/archive/iceKnives32/iceKnives32.xlsx
@@ -306,7 +306,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2058" uniqueCount="1428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2058" uniqueCount="1447">
   <si>
     <t>{_f}</t>
   </si>
@@ -4404,6 +4404,63 @@
   </si>
   <si>
     <t>specific</t>
+  </si>
+  <si>
+    <t>rubber</t>
+  </si>
+  <si>
+    <t>encrypt</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>acoustic</t>
+  </si>
+  <si>
+    <t>mainframe</t>
+  </si>
+  <si>
+    <t>entity</t>
+  </si>
+  <si>
+    <t>infinite</t>
+  </si>
+  <si>
+    <t>freezers</t>
+  </si>
+  <si>
+    <t>sustain</t>
+  </si>
+  <si>
+    <t>mark</t>
+  </si>
+  <si>
+    <t>alien</t>
+  </si>
+  <si>
+    <t>rotation</t>
+  </si>
+  <si>
+    <t>browser</t>
+  </si>
+  <si>
+    <t>micro</t>
+  </si>
+  <si>
+    <t>applicants</t>
+  </si>
+  <si>
+    <t>rigidity</t>
+  </si>
+  <si>
+    <t>figure</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>sudoku</t>
   </si>
   <si>
     <t>125'</t>
@@ -11062,13 +11119,13 @@
         <v>1365</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>256</v>
+        <v>1366</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>256</v>
+        <v>1367</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>256</v>
+        <v>1368</v>
       </c>
       <c r="F24" s="12" t="s">
         <v>1083</v>
@@ -11079,16 +11136,16 @@
         <v>1127</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>256</v>
+        <v>1369</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>256</v>
+        <v>1370</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>256</v>
+        <v>1371</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>256</v>
+        <v>1372</v>
       </c>
       <c r="F25" s="12" t="s">
         <v>1083</v>
@@ -11099,16 +11156,16 @@
         <v>1128</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>256</v>
+        <v>1373</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>256</v>
+        <v>1374</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>256</v>
+        <v>1375</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>256</v>
+        <v>1376</v>
       </c>
       <c r="F26" s="12" t="s">
         <v>1083</v>
@@ -11119,16 +11176,16 @@
         <v>1129</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>256</v>
+        <v>1377</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>256</v>
+        <v>1378</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>256</v>
+        <v>1379</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>256</v>
+        <v>1380</v>
       </c>
       <c r="F27" s="12" t="s">
         <v>1083</v>
@@ -11139,16 +11196,16 @@
         <v>1130</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>256</v>
+        <v>1381</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>256</v>
+        <v>1382</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>256</v>
+        <v>1383</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>256</v>
+        <v>1384</v>
       </c>
       <c r="F28" s="12" t="s">
         <v>1083</v>
@@ -11171,7 +11228,7 @@
         <v>1094</v>
       </c>
       <c r="F29" s="12" t="s">
-        <v>1366</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="30">
@@ -11285,7 +11342,7 @@
         <v>1144</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>1367</v>
+        <v>1386</v>
       </c>
       <c r="E35" s="8" t="s">
         <v>1145</v>
@@ -11308,10 +11365,10 @@
         <v>1277</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>1368</v>
+        <v>1387</v>
       </c>
       <c r="F36" s="12" t="s">
-        <v>1369</v>
+        <v>1388</v>
       </c>
     </row>
   </sheetData>
@@ -11334,7 +11391,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="6" t="s">
-        <v>1370</v>
+        <v>1389</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>1077</v>
@@ -11348,13 +11405,13 @@
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
-        <v>1371</v>
+        <v>1390</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>1372</v>
+        <v>1391</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>1373</v>
+        <v>1392</v>
       </c>
       <c r="D2" s="6"/>
     </row>
@@ -11363,10 +11420,10 @@
         <v>1077</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>1374</v>
+        <v>1393</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>1375</v>
+        <v>1394</v>
       </c>
       <c r="D3" s="6"/>
     </row>
@@ -11375,10 +11432,10 @@
         <v>1078</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>1376</v>
+        <v>1395</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>1377</v>
+        <v>1396</v>
       </c>
       <c r="D4" s="6"/>
     </row>
@@ -11387,10 +11444,10 @@
         <v>1079</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>1378</v>
+        <v>1397</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>1379</v>
+        <v>1398</v>
       </c>
       <c r="D5" s="6"/>
     </row>
@@ -11399,10 +11456,10 @@
         <v>1093</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>1380</v>
+        <v>1399</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>1381</v>
+        <v>1400</v>
       </c>
       <c r="D6" s="6"/>
     </row>
@@ -11411,10 +11468,10 @@
         <v>1097</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>1382</v>
+        <v>1401</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>1383</v>
+        <v>1402</v>
       </c>
       <c r="D7" s="6"/>
     </row>
@@ -11423,10 +11480,10 @@
         <v>1100</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>1384</v>
+        <v>1403</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>1385</v>
+        <v>1404</v>
       </c>
       <c r="D8" s="6"/>
     </row>
@@ -11435,10 +11492,10 @@
         <v>1103</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>1386</v>
+        <v>1405</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>1387</v>
+        <v>1406</v>
       </c>
       <c r="D9" s="6"/>
     </row>
@@ -11447,10 +11504,10 @@
         <v>1106</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>1388</v>
+        <v>1407</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>1389</v>
+        <v>1408</v>
       </c>
       <c r="D10" s="6"/>
     </row>
@@ -11459,10 +11516,10 @@
         <v>1109</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>1390</v>
+        <v>1409</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>1391</v>
+        <v>1410</v>
       </c>
       <c r="D11" s="6"/>
     </row>
@@ -11471,10 +11528,10 @@
         <v>1112</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>1392</v>
+        <v>1411</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>1393</v>
+        <v>1412</v>
       </c>
       <c r="D12" s="6"/>
     </row>
@@ -11483,10 +11540,10 @@
         <v>1115</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>1394</v>
+        <v>1413</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>1395</v>
+        <v>1414</v>
       </c>
       <c r="D13" s="6"/>
     </row>
@@ -11495,10 +11552,10 @@
         <v>1116</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>1396</v>
+        <v>1415</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>1397</v>
+        <v>1416</v>
       </c>
       <c r="D14" s="6"/>
     </row>
@@ -11507,10 +11564,10 @@
         <v>1117</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>1398</v>
+        <v>1417</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>1399</v>
+        <v>1418</v>
       </c>
       <c r="D15" s="6"/>
     </row>
@@ -11519,10 +11576,10 @@
         <v>1118</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>1400</v>
+        <v>1419</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>1401</v>
+        <v>1420</v>
       </c>
       <c r="D16" s="6"/>
     </row>
@@ -11531,10 +11588,10 @@
         <v>1119</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>1402</v>
+        <v>1421</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>1403</v>
+        <v>1422</v>
       </c>
       <c r="D17" s="6"/>
     </row>
@@ -11543,10 +11600,10 @@
         <v>1120</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>1404</v>
+        <v>1423</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>1405</v>
+        <v>1424</v>
       </c>
       <c r="D18" s="6"/>
     </row>
@@ -11555,10 +11612,10 @@
         <v>1121</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>1406</v>
+        <v>1425</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>1407</v>
+        <v>1426</v>
       </c>
       <c r="D19" s="6"/>
     </row>
@@ -11567,10 +11624,10 @@
         <v>1122</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>1408</v>
+        <v>1427</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>1409</v>
+        <v>1428</v>
       </c>
       <c r="D20" s="6"/>
     </row>
@@ -11579,10 +11636,10 @@
         <v>1123</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>1410</v>
+        <v>1429</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>1411</v>
+        <v>1430</v>
       </c>
       <c r="D21" s="6"/>
     </row>
@@ -11591,10 +11648,10 @@
         <v>1124</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>1412</v>
+        <v>1431</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>1413</v>
+        <v>1432</v>
       </c>
       <c r="D22" s="6"/>
     </row>
@@ -11603,10 +11660,10 @@
         <v>1125</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>1414</v>
+        <v>1433</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>1415</v>
+        <v>1434</v>
       </c>
       <c r="D23" s="6"/>
     </row>
@@ -11615,10 +11672,10 @@
         <v>1126</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>1416</v>
+        <v>1435</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>1417</v>
+        <v>1436</v>
       </c>
       <c r="D24" s="6"/>
     </row>
@@ -11627,10 +11684,10 @@
         <v>1127</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>1418</v>
+        <v>1437</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>1419</v>
+        <v>1438</v>
       </c>
       <c r="D25" s="6"/>
     </row>
@@ -11639,10 +11696,10 @@
         <v>1128</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>1420</v>
+        <v>1439</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>1421</v>
+        <v>1440</v>
       </c>
       <c r="D26" s="6"/>
     </row>
@@ -11651,10 +11708,10 @@
         <v>1129</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>1422</v>
+        <v>1441</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>1423</v>
+        <v>1442</v>
       </c>
       <c r="D27" s="6"/>
     </row>
@@ -11663,10 +11720,10 @@
         <v>1130</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>1424</v>
+        <v>1443</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>1425</v>
+        <v>1444</v>
       </c>
       <c r="D28" s="6"/>
     </row>
@@ -11675,10 +11732,10 @@
         <v>1131</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>1426</v>
+        <v>1445</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>1427</v>
+        <v>1446</v>
       </c>
       <c r="D29" s="6"/>
     </row>

--- a/archive/iceKnives32/iceKnives32.xlsx
+++ b/archive/iceKnives32/iceKnives32.xlsx
@@ -306,7 +306,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2058" uniqueCount="1447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2076" uniqueCount="1465">
   <si>
     <t>{_f}</t>
   </si>
@@ -4274,6 +4274,15 @@
     <t>relate</t>
   </si>
   <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>log</t>
+  </si>
+  <si>
+    <t>miss</t>
+  </si>
+  <si>
     <t>guardian</t>
   </si>
   <si>
@@ -4286,6 +4295,15 @@
     <t>guard</t>
   </si>
   <si>
+    <t>dot</t>
+  </si>
+  <si>
+    <t>scratch</t>
+  </si>
+  <si>
+    <t>oil</t>
+  </si>
+  <si>
     <t>equalise</t>
   </si>
   <si>
@@ -4295,6 +4313,15 @@
     <t>equilibrium</t>
   </si>
   <si>
+    <t>lock</t>
+  </si>
+  <si>
+    <t>scale</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
     <t>deposits</t>
   </si>
   <si>
@@ -4307,6 +4334,15 @@
     <t>post</t>
   </si>
   <si>
+    <t>pause</t>
+  </si>
+  <si>
+    <t>toggle</t>
+  </si>
+  <si>
+    <t>agree</t>
+  </si>
+  <si>
     <t>informal</t>
   </si>
   <si>
@@ -4319,6 +4355,15 @@
     <t>invite</t>
   </si>
   <si>
+    <t>tough</t>
+  </si>
+  <si>
+    <t>opposite</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
     <t>parasite</t>
   </si>
   <si>
@@ -4329,6 +4374,15 @@
   </si>
   <si>
     <t>policy</t>
+  </si>
+  <si>
+    <t>correct</t>
+  </si>
+  <si>
+    <t>auto</t>
+  </si>
+  <si>
+    <t>copy</t>
   </si>
   <si>
     <t>majestic</t>
@@ -10667,7 +10721,10 @@
       <c r="E1" s="7" t="s">
         <v>1093</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="12" t="s">
         <v>1080</v>
       </c>
     </row>
@@ -10687,7 +10744,10 @@
       <c r="E2" s="9" t="s">
         <v>1095</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="12" t="s">
         <v>1281</v>
       </c>
     </row>
@@ -10707,7 +10767,10 @@
       <c r="E3" s="9" t="s">
         <v>1285</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="12" t="s">
         <v>1083</v>
       </c>
     </row>
@@ -10727,7 +10790,10 @@
       <c r="E4" s="9" t="s">
         <v>1289</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="12" t="s">
         <v>1083</v>
       </c>
     </row>
@@ -10747,7 +10813,10 @@
       <c r="E5" s="9" t="s">
         <v>1293</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="12" t="s">
         <v>1083</v>
       </c>
     </row>
@@ -10767,7 +10836,10 @@
       <c r="E6" s="9" t="s">
         <v>1297</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="12" t="s">
         <v>1083</v>
       </c>
     </row>
@@ -10787,7 +10859,10 @@
       <c r="E7" s="9" t="s">
         <v>1301</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="12" t="s">
         <v>1083</v>
       </c>
     </row>
@@ -10807,7 +10882,10 @@
       <c r="E8" s="9" t="s">
         <v>1305</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="12" t="s">
         <v>1083</v>
       </c>
     </row>
@@ -10827,7 +10905,10 @@
       <c r="E9" s="9" t="s">
         <v>1309</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="12" t="s">
         <v>1083</v>
       </c>
     </row>
@@ -10847,7 +10928,10 @@
       <c r="E10" s="9" t="s">
         <v>1313</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="12" t="s">
         <v>1083</v>
       </c>
     </row>
@@ -10867,7 +10951,10 @@
       <c r="E11" s="9" t="s">
         <v>1317</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="12" t="s">
         <v>1083</v>
       </c>
     </row>
@@ -10887,7 +10974,16 @@
       <c r="E12" s="9" t="s">
         <v>1321</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="7" t="s">
+        <v>1322</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>1323</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>1324</v>
+      </c>
+      <c r="I12" s="12" t="s">
         <v>1083</v>
       </c>
     </row>
@@ -10896,18 +10992,27 @@
         <v>1115</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>1322</v>
+        <v>1325</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>1323</v>
+        <v>1326</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>1324</v>
+        <v>1327</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>1325</v>
-      </c>
-      <c r="F13" s="12" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>1329</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>1330</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>1331</v>
+      </c>
+      <c r="I13" s="12" t="s">
         <v>1083</v>
       </c>
     </row>
@@ -10916,18 +11021,27 @@
         <v>1116</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>1326</v>
+        <v>1332</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>77</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>1327</v>
+        <v>1333</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>1328</v>
-      </c>
-      <c r="F14" s="12" t="s">
+        <v>1334</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>1335</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>1336</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>1337</v>
+      </c>
+      <c r="I14" s="12" t="s">
         <v>1083</v>
       </c>
     </row>
@@ -10936,18 +11050,27 @@
         <v>1117</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>1329</v>
+        <v>1338</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>1330</v>
+        <v>1339</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>1331</v>
+        <v>1340</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>1332</v>
-      </c>
-      <c r="F15" s="12" t="s">
+        <v>1341</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>1342</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>1343</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>1344</v>
+      </c>
+      <c r="I15" s="12" t="s">
         <v>1083</v>
       </c>
     </row>
@@ -10956,18 +11079,27 @@
         <v>1118</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>1333</v>
+        <v>1345</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>1334</v>
+        <v>1346</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>1335</v>
+        <v>1347</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>1336</v>
-      </c>
-      <c r="F16" s="12" t="s">
+        <v>1348</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>1349</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>1350</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>1351</v>
+      </c>
+      <c r="I16" s="12" t="s">
         <v>1083</v>
       </c>
     </row>
@@ -10976,18 +11108,27 @@
         <v>1119</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>1337</v>
+        <v>1352</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>1338</v>
+        <v>1353</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>1339</v>
+        <v>1354</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>1340</v>
-      </c>
-      <c r="F17" s="12" t="s">
+        <v>1355</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>1356</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>1357</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>1358</v>
+      </c>
+      <c r="I17" s="12" t="s">
         <v>1083</v>
       </c>
     </row>
@@ -10996,18 +11137,21 @@
         <v>1120</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>1341</v>
+        <v>1359</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>1342</v>
+        <v>1360</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>1343</v>
+        <v>1361</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>1344</v>
-      </c>
-      <c r="F18" s="12" t="s">
+        <v>1362</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="12" t="s">
         <v>1083</v>
       </c>
     </row>
@@ -11016,18 +11160,21 @@
         <v>1121</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>1345</v>
+        <v>1363</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>1346</v>
+        <v>1364</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>1347</v>
+        <v>1365</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>1348</v>
-      </c>
-      <c r="F19" s="12" t="s">
+        <v>1366</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="12" t="s">
         <v>1083</v>
       </c>
     </row>
@@ -11036,18 +11183,21 @@
         <v>1122</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>1349</v>
+        <v>1367</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>1350</v>
+        <v>1368</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>1351</v>
+        <v>1369</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>1352</v>
-      </c>
-      <c r="F20" s="12" t="s">
+        <v>1370</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="12" t="s">
         <v>1083</v>
       </c>
     </row>
@@ -11056,18 +11206,21 @@
         <v>1123</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>1353</v>
+        <v>1371</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>1354</v>
+        <v>1372</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>1355</v>
+        <v>1373</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>1356</v>
-      </c>
-      <c r="F21" s="12" t="s">
+        <v>1374</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="12" t="s">
         <v>1083</v>
       </c>
     </row>
@@ -11076,18 +11229,21 @@
         <v>1124</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>1357</v>
+        <v>1375</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>1358</v>
+        <v>1376</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>1359</v>
+        <v>1377</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>1360</v>
-      </c>
-      <c r="F22" s="12" t="s">
+        <v>1378</v>
+      </c>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="12" t="s">
         <v>1083</v>
       </c>
     </row>
@@ -11096,18 +11252,21 @@
         <v>1125</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>1361</v>
+        <v>1379</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>1362</v>
+        <v>1380</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>1363</v>
+        <v>1381</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>1364</v>
-      </c>
-      <c r="F23" s="12" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="12" t="s">
         <v>1083</v>
       </c>
     </row>
@@ -11116,18 +11275,21 @@
         <v>1126</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>1365</v>
+        <v>1383</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>1366</v>
+        <v>1384</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>1367</v>
+        <v>1385</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>1368</v>
-      </c>
-      <c r="F24" s="12" t="s">
+        <v>1386</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="12" t="s">
         <v>1083</v>
       </c>
     </row>
@@ -11136,18 +11298,21 @@
         <v>1127</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>1369</v>
+        <v>1387</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>1370</v>
+        <v>1388</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>1371</v>
+        <v>1389</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>1372</v>
-      </c>
-      <c r="F25" s="12" t="s">
+        <v>1390</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="12" t="s">
         <v>1083</v>
       </c>
     </row>
@@ -11156,18 +11321,21 @@
         <v>1128</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>1373</v>
+        <v>1391</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>1374</v>
+        <v>1392</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>1375</v>
+        <v>1393</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>1376</v>
-      </c>
-      <c r="F26" s="12" t="s">
+        <v>1394</v>
+      </c>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="12" t="s">
         <v>1083</v>
       </c>
     </row>
@@ -11176,18 +11344,21 @@
         <v>1129</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>1377</v>
+        <v>1395</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>1378</v>
+        <v>1396</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>1379</v>
+        <v>1397</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>1380</v>
-      </c>
-      <c r="F27" s="12" t="s">
+        <v>1398</v>
+      </c>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="12" t="s">
         <v>1083</v>
       </c>
     </row>
@@ -11196,18 +11367,21 @@
         <v>1130</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>1381</v>
+        <v>1399</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>1382</v>
+        <v>1400</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>1383</v>
+        <v>1401</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>1384</v>
-      </c>
-      <c r="F28" s="12" t="s">
+        <v>1402</v>
+      </c>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="12" t="s">
         <v>1083</v>
       </c>
     </row>
@@ -11227,8 +11401,11 @@
       <c r="E29" s="9" t="s">
         <v>1094</v>
       </c>
-      <c r="F29" s="12" t="s">
-        <v>1385</v>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="12" t="s">
+        <v>1403</v>
       </c>
     </row>
     <row r="30">
@@ -11247,7 +11424,10 @@
       <c r="E30" s="9" t="s">
         <v>1096</v>
       </c>
-      <c r="F30" s="12" t="s">
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="12" t="s">
         <v>1083</v>
       </c>
     </row>
@@ -11267,7 +11447,10 @@
       <c r="E31" s="9" t="s">
         <v>1096</v>
       </c>
-      <c r="F31" s="12" t="s">
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="12" t="s">
         <v>1083</v>
       </c>
     </row>
@@ -11287,7 +11470,10 @@
       <c r="E32" s="9" t="s">
         <v>1096</v>
       </c>
-      <c r="F32" s="12" t="s">
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="12" t="s">
         <v>1083</v>
       </c>
     </row>
@@ -11307,7 +11493,10 @@
       <c r="E33" s="9" t="s">
         <v>1096</v>
       </c>
-      <c r="F33" s="12" t="s">
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="12" t="s">
         <v>1083</v>
       </c>
     </row>
@@ -11327,7 +11516,10 @@
       <c r="E34" s="9" t="s">
         <v>1096</v>
       </c>
-      <c r="F34" s="12" t="s">
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="12" t="s">
         <v>1083</v>
       </c>
     </row>
@@ -11342,12 +11534,15 @@
         <v>1144</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>1386</v>
+        <v>1404</v>
       </c>
       <c r="E35" s="8" t="s">
         <v>1145</v>
       </c>
-      <c r="F35" s="12" t="s">
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="12" t="s">
         <v>1274</v>
       </c>
     </row>
@@ -11365,10 +11560,13 @@
         <v>1277</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>1387</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>1388</v>
+        <v>1405</v>
+      </c>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="12" t="s">
+        <v>1406</v>
       </c>
     </row>
   </sheetData>
@@ -11391,7 +11589,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="6" t="s">
-        <v>1389</v>
+        <v>1407</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>1077</v>
@@ -11405,13 +11603,13 @@
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
-        <v>1390</v>
+        <v>1408</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>1391</v>
+        <v>1409</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>1392</v>
+        <v>1410</v>
       </c>
       <c r="D2" s="6"/>
     </row>
@@ -11420,10 +11618,10 @@
         <v>1077</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>1393</v>
+        <v>1411</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>1394</v>
+        <v>1412</v>
       </c>
       <c r="D3" s="6"/>
     </row>
@@ -11432,10 +11630,10 @@
         <v>1078</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>1395</v>
+        <v>1413</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>1396</v>
+        <v>1414</v>
       </c>
       <c r="D4" s="6"/>
     </row>
@@ -11444,10 +11642,10 @@
         <v>1079</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>1397</v>
+        <v>1415</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>1398</v>
+        <v>1416</v>
       </c>
       <c r="D5" s="6"/>
     </row>
@@ -11456,10 +11654,10 @@
         <v>1093</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>1399</v>
+        <v>1417</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>1400</v>
+        <v>1418</v>
       </c>
       <c r="D6" s="6"/>
     </row>
@@ -11468,10 +11666,10 @@
         <v>1097</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>1401</v>
+        <v>1419</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>1402</v>
+        <v>1420</v>
       </c>
       <c r="D7" s="6"/>
     </row>
@@ -11480,10 +11678,10 @@
         <v>1100</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>1403</v>
+        <v>1421</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>1404</v>
+        <v>1422</v>
       </c>
       <c r="D8" s="6"/>
     </row>
@@ -11492,10 +11690,10 @@
         <v>1103</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>1405</v>
+        <v>1423</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>1406</v>
+        <v>1424</v>
       </c>
       <c r="D9" s="6"/>
     </row>
@@ -11504,10 +11702,10 @@
         <v>1106</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>1407</v>
+        <v>1425</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>1408</v>
+        <v>1426</v>
       </c>
       <c r="D10" s="6"/>
     </row>
@@ -11516,10 +11714,10 @@
         <v>1109</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>1409</v>
+        <v>1427</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>1410</v>
+        <v>1428</v>
       </c>
       <c r="D11" s="6"/>
     </row>
@@ -11528,10 +11726,10 @@
         <v>1112</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>1411</v>
+        <v>1429</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>1412</v>
+        <v>1430</v>
       </c>
       <c r="D12" s="6"/>
     </row>
@@ -11540,10 +11738,10 @@
         <v>1115</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>1413</v>
+        <v>1431</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>1414</v>
+        <v>1432</v>
       </c>
       <c r="D13" s="6"/>
     </row>
@@ -11552,10 +11750,10 @@
         <v>1116</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>1415</v>
+        <v>1433</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>1416</v>
+        <v>1434</v>
       </c>
       <c r="D14" s="6"/>
     </row>
@@ -11564,10 +11762,10 @@
         <v>1117</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>1417</v>
+        <v>1435</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>1418</v>
+        <v>1436</v>
       </c>
       <c r="D15" s="6"/>
     </row>
@@ -11576,10 +11774,10 @@
         <v>1118</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>1419</v>
+        <v>1437</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>1420</v>
+        <v>1438</v>
       </c>
       <c r="D16" s="6"/>
     </row>
@@ -11588,10 +11786,10 @@
         <v>1119</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>1421</v>
+        <v>1439</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>1422</v>
+        <v>1440</v>
       </c>
       <c r="D17" s="6"/>
     </row>
@@ -11600,10 +11798,10 @@
         <v>1120</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>1423</v>
+        <v>1441</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>1424</v>
+        <v>1442</v>
       </c>
       <c r="D18" s="6"/>
     </row>
@@ -11612,10 +11810,10 @@
         <v>1121</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>1425</v>
+        <v>1443</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>1426</v>
+        <v>1444</v>
       </c>
       <c r="D19" s="6"/>
     </row>
@@ -11624,10 +11822,10 @@
         <v>1122</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>1427</v>
+        <v>1445</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>1428</v>
+        <v>1446</v>
       </c>
       <c r="D20" s="6"/>
     </row>
@@ -11636,10 +11834,10 @@
         <v>1123</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>1429</v>
+        <v>1447</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>1430</v>
+        <v>1448</v>
       </c>
       <c r="D21" s="6"/>
     </row>
@@ -11648,10 +11846,10 @@
         <v>1124</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>1431</v>
+        <v>1449</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>1432</v>
+        <v>1450</v>
       </c>
       <c r="D22" s="6"/>
     </row>
@@ -11660,10 +11858,10 @@
         <v>1125</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>1433</v>
+        <v>1451</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>1434</v>
+        <v>1452</v>
       </c>
       <c r="D23" s="6"/>
     </row>
@@ -11672,10 +11870,10 @@
         <v>1126</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>1435</v>
+        <v>1453</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>1436</v>
+        <v>1454</v>
       </c>
       <c r="D24" s="6"/>
     </row>
@@ -11684,10 +11882,10 @@
         <v>1127</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>1437</v>
+        <v>1455</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>1438</v>
+        <v>1456</v>
       </c>
       <c r="D25" s="6"/>
     </row>
@@ -11696,10 +11894,10 @@
         <v>1128</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>1439</v>
+        <v>1457</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>1440</v>
+        <v>1458</v>
       </c>
       <c r="D26" s="6"/>
     </row>
@@ -11708,10 +11906,10 @@
         <v>1129</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>1441</v>
+        <v>1459</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>1442</v>
+        <v>1460</v>
       </c>
       <c r="D27" s="6"/>
     </row>
@@ -11720,10 +11918,10 @@
         <v>1130</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>1443</v>
+        <v>1461</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>1444</v>
+        <v>1462</v>
       </c>
       <c r="D28" s="6"/>
     </row>
@@ -11732,10 +11930,10 @@
         <v>1131</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>1445</v>
+        <v>1463</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>1446</v>
+        <v>1464</v>
       </c>
       <c r="D29" s="6"/>
     </row>

--- a/archive/iceKnives32/iceKnives32.xlsx
+++ b/archive/iceKnives32/iceKnives32.xlsx
@@ -306,7 +306,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2076" uniqueCount="1465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2106" uniqueCount="1486">
   <si>
     <t>{_f}</t>
   </si>
@@ -4238,6 +4238,12 @@
     <t>access</t>
   </si>
   <si>
+    <t>century</t>
+  </si>
+  <si>
+    <t>spring</t>
+  </si>
+  <si>
     <t>terminal</t>
   </si>
   <si>
@@ -4250,6 +4256,15 @@
     <t>determinant</t>
   </si>
   <si>
+    <t>contrast</t>
+  </si>
+  <si>
+    <t>bind</t>
+  </si>
+  <si>
+    <t>fair</t>
+  </si>
+  <si>
     <t>distance</t>
   </si>
   <si>
@@ -4262,6 +4277,9 @@
     <t>distant</t>
   </si>
   <si>
+    <t>old</t>
+  </si>
+  <si>
     <t>regulate</t>
   </si>
   <si>
@@ -4397,6 +4415,15 @@
     <t>smudge</t>
   </si>
   <si>
+    <t>merge</t>
+  </si>
+  <si>
+    <t>tap</t>
+  </si>
+  <si>
+    <t>border</t>
+  </si>
+  <si>
     <t>collapse</t>
   </si>
   <si>
@@ -4409,6 +4436,15 @@
     <t>shield</t>
   </si>
   <si>
+    <t>versus</t>
+  </si>
+  <si>
+    <t>warm</t>
+  </si>
+  <si>
+    <t>fiction</t>
+  </si>
+  <si>
     <t>transfer</t>
   </si>
   <si>
@@ -4421,6 +4457,15 @@
     <t>capture</t>
   </si>
   <si>
+    <t>electric</t>
+  </si>
+  <si>
+    <t>reason</t>
+  </si>
+  <si>
+    <t>trait</t>
+  </si>
+  <si>
     <t>register</t>
   </si>
   <si>
@@ -4433,6 +4478,15 @@
     <t>render</t>
   </si>
   <si>
+    <t>over</t>
+  </si>
+  <si>
+    <t>minute</t>
+  </si>
+  <si>
+    <t>system</t>
+  </si>
+  <si>
     <t>organise</t>
   </si>
   <si>
@@ -4443,6 +4497,15 @@
   </si>
   <si>
     <t>once</t>
+  </si>
+  <si>
+    <t>lift</t>
+  </si>
+  <si>
+    <t>sponsor</t>
+  </si>
+  <si>
+    <t>chair</t>
   </si>
   <si>
     <t>changing</t>
@@ -10744,9 +10807,15 @@
       <c r="E2" s="9" t="s">
         <v>1095</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
+      <c r="F2" s="9" t="s">
+        <v>1099</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>1102</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>1105</v>
+      </c>
       <c r="I2" s="12" t="s">
         <v>1281</v>
       </c>
@@ -10905,9 +10974,15 @@
       <c r="E9" s="9" t="s">
         <v>1309</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
+      <c r="F9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>1310</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>1311</v>
+      </c>
       <c r="I9" s="12" t="s">
         <v>1083</v>
       </c>
@@ -10917,20 +10992,26 @@
         <v>1106</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>1310</v>
+        <v>1312</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>1311</v>
+        <v>1313</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>1312</v>
+        <v>1314</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>1313</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
+        <v>1315</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>1316</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>1317</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>1318</v>
+      </c>
       <c r="I10" s="12" t="s">
         <v>1083</v>
       </c>
@@ -10940,20 +11021,26 @@
         <v>1109</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>1314</v>
+        <v>1319</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>1315</v>
+        <v>1320</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>1316</v>
+        <v>1321</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>1317</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+        <v>1322</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>1323</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>178</v>
+      </c>
       <c r="I11" s="12" t="s">
         <v>1083</v>
       </c>
@@ -10963,25 +11050,25 @@
         <v>1112</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>1318</v>
+        <v>1324</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>1319</v>
+        <v>1325</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>1320</v>
+        <v>1326</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>1321</v>
+        <v>1327</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>1322</v>
+        <v>1328</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>1323</v>
+        <v>1329</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>1324</v>
+        <v>1330</v>
       </c>
       <c r="I12" s="12" t="s">
         <v>1083</v>
@@ -10992,25 +11079,25 @@
         <v>1115</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>1325</v>
+        <v>1331</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>1326</v>
+        <v>1332</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>1327</v>
+        <v>1333</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>1328</v>
+        <v>1334</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>1329</v>
+        <v>1335</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>1330</v>
+        <v>1336</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>1331</v>
+        <v>1337</v>
       </c>
       <c r="I13" s="12" t="s">
         <v>1083</v>
@@ -11021,25 +11108,25 @@
         <v>1116</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>1332</v>
+        <v>1338</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>77</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>1333</v>
+        <v>1339</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>1334</v>
+        <v>1340</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>1335</v>
+        <v>1341</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>1336</v>
+        <v>1342</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>1337</v>
+        <v>1343</v>
       </c>
       <c r="I14" s="12" t="s">
         <v>1083</v>
@@ -11050,25 +11137,25 @@
         <v>1117</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>1338</v>
+        <v>1344</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>1339</v>
+        <v>1345</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>1340</v>
+        <v>1346</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>1341</v>
+        <v>1347</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>1342</v>
+        <v>1348</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>1343</v>
+        <v>1349</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>1344</v>
+        <v>1350</v>
       </c>
       <c r="I15" s="12" t="s">
         <v>1083</v>
@@ -11079,25 +11166,25 @@
         <v>1118</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>1345</v>
+        <v>1351</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>1346</v>
+        <v>1352</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>1347</v>
+        <v>1353</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>1348</v>
+        <v>1354</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>1349</v>
+        <v>1355</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>1350</v>
+        <v>1356</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>1351</v>
+        <v>1357</v>
       </c>
       <c r="I16" s="12" t="s">
         <v>1083</v>
@@ -11108,25 +11195,25 @@
         <v>1119</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>1352</v>
+        <v>1358</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>1353</v>
+        <v>1359</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>1354</v>
+        <v>1360</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>1355</v>
+        <v>1361</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>1356</v>
+        <v>1362</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>1357</v>
+        <v>1363</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>1358</v>
+        <v>1364</v>
       </c>
       <c r="I17" s="12" t="s">
         <v>1083</v>
@@ -11137,20 +11224,26 @@
         <v>1120</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>1359</v>
+        <v>1365</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>1360</v>
+        <v>1366</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>1361</v>
+        <v>1367</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>1362</v>
-      </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
+        <v>1368</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>1369</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>1370</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>1371</v>
+      </c>
       <c r="I18" s="12" t="s">
         <v>1083</v>
       </c>
@@ -11160,20 +11253,26 @@
         <v>1121</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>1363</v>
+        <v>1372</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>1364</v>
+        <v>1373</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>1365</v>
+        <v>1374</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>1366</v>
-      </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
+        <v>1375</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>1376</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>1377</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>1378</v>
+      </c>
       <c r="I19" s="12" t="s">
         <v>1083</v>
       </c>
@@ -11183,20 +11282,26 @@
         <v>1122</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>1367</v>
+        <v>1379</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>1368</v>
+        <v>1380</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>1369</v>
+        <v>1381</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>1370</v>
-      </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
+        <v>1382</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>1383</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>1384</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>1385</v>
+      </c>
       <c r="I20" s="12" t="s">
         <v>1083</v>
       </c>
@@ -11206,20 +11311,26 @@
         <v>1123</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>1371</v>
+        <v>1386</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>1372</v>
+        <v>1387</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>1373</v>
+        <v>1388</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>1374</v>
-      </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
+        <v>1389</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>1390</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>1391</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>1392</v>
+      </c>
       <c r="I21" s="12" t="s">
         <v>1083</v>
       </c>
@@ -11229,20 +11340,26 @@
         <v>1124</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>1375</v>
+        <v>1393</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>1376</v>
+        <v>1394</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>1377</v>
+        <v>1395</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>1378</v>
-      </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
+        <v>1396</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>1397</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>1398</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>1399</v>
+      </c>
       <c r="I22" s="12" t="s">
         <v>1083</v>
       </c>
@@ -11252,16 +11369,16 @@
         <v>1125</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>1379</v>
+        <v>1400</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>1380</v>
+        <v>1401</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>1381</v>
+        <v>1402</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>1382</v>
+        <v>1403</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
@@ -11275,16 +11392,16 @@
         <v>1126</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>1383</v>
+        <v>1404</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>1384</v>
+        <v>1405</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>1385</v>
+        <v>1406</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>1386</v>
+        <v>1407</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
@@ -11298,16 +11415,16 @@
         <v>1127</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>1387</v>
+        <v>1408</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>1388</v>
+        <v>1409</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>1389</v>
+        <v>1410</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>1390</v>
+        <v>1411</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
@@ -11321,16 +11438,16 @@
         <v>1128</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>1391</v>
+        <v>1412</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>1392</v>
+        <v>1413</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>1393</v>
+        <v>1414</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>1394</v>
+        <v>1415</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
@@ -11344,16 +11461,16 @@
         <v>1129</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>1395</v>
+        <v>1416</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>1396</v>
+        <v>1417</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>1397</v>
+        <v>1418</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>1398</v>
+        <v>1419</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
@@ -11367,16 +11484,16 @@
         <v>1130</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>1399</v>
+        <v>1420</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>1400</v>
+        <v>1421</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>1401</v>
+        <v>1422</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>1402</v>
+        <v>1423</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
@@ -11401,11 +11518,17 @@
       <c r="E29" s="9" t="s">
         <v>1094</v>
       </c>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
+      <c r="F29" s="9" t="s">
+        <v>1098</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>1101</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>1104</v>
+      </c>
       <c r="I29" s="12" t="s">
-        <v>1403</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="30">
@@ -11534,7 +11657,7 @@
         <v>1144</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>1404</v>
+        <v>1425</v>
       </c>
       <c r="E35" s="8" t="s">
         <v>1145</v>
@@ -11560,13 +11683,13 @@
         <v>1277</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>1405</v>
+        <v>1426</v>
       </c>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
       <c r="I36" s="12" t="s">
-        <v>1406</v>
+        <v>1427</v>
       </c>
     </row>
   </sheetData>
@@ -11589,7 +11712,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="6" t="s">
-        <v>1407</v>
+        <v>1428</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>1077</v>
@@ -11603,13 +11726,13 @@
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
-        <v>1408</v>
+        <v>1429</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>1409</v>
+        <v>1430</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>1410</v>
+        <v>1431</v>
       </c>
       <c r="D2" s="6"/>
     </row>
@@ -11618,10 +11741,10 @@
         <v>1077</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>1411</v>
+        <v>1432</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>1412</v>
+        <v>1433</v>
       </c>
       <c r="D3" s="6"/>
     </row>
@@ -11630,10 +11753,10 @@
         <v>1078</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>1413</v>
+        <v>1434</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>1414</v>
+        <v>1435</v>
       </c>
       <c r="D4" s="6"/>
     </row>
@@ -11642,10 +11765,10 @@
         <v>1079</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>1415</v>
+        <v>1436</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>1416</v>
+        <v>1437</v>
       </c>
       <c r="D5" s="6"/>
     </row>
@@ -11654,10 +11777,10 @@
         <v>1093</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>1417</v>
+        <v>1438</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>1418</v>
+        <v>1439</v>
       </c>
       <c r="D6" s="6"/>
     </row>
@@ -11666,10 +11789,10 @@
         <v>1097</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>1419</v>
+        <v>1440</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>1420</v>
+        <v>1441</v>
       </c>
       <c r="D7" s="6"/>
     </row>
@@ -11678,10 +11801,10 @@
         <v>1100</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>1421</v>
+        <v>1442</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>1422</v>
+        <v>1443</v>
       </c>
       <c r="D8" s="6"/>
     </row>
@@ -11690,10 +11813,10 @@
         <v>1103</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>1423</v>
+        <v>1444</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>1424</v>
+        <v>1445</v>
       </c>
       <c r="D9" s="6"/>
     </row>
@@ -11702,10 +11825,10 @@
         <v>1106</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>1425</v>
+        <v>1446</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>1426</v>
+        <v>1447</v>
       </c>
       <c r="D10" s="6"/>
     </row>
@@ -11714,10 +11837,10 @@
         <v>1109</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>1427</v>
+        <v>1448</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>1428</v>
+        <v>1449</v>
       </c>
       <c r="D11" s="6"/>
     </row>
@@ -11726,10 +11849,10 @@
         <v>1112</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>1429</v>
+        <v>1450</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>1430</v>
+        <v>1451</v>
       </c>
       <c r="D12" s="6"/>
     </row>
@@ -11738,10 +11861,10 @@
         <v>1115</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>1431</v>
+        <v>1452</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>1432</v>
+        <v>1453</v>
       </c>
       <c r="D13" s="6"/>
     </row>
@@ -11750,10 +11873,10 @@
         <v>1116</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>1433</v>
+        <v>1454</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>1434</v>
+        <v>1455</v>
       </c>
       <c r="D14" s="6"/>
     </row>
@@ -11762,10 +11885,10 @@
         <v>1117</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>1435</v>
+        <v>1456</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>1436</v>
+        <v>1457</v>
       </c>
       <c r="D15" s="6"/>
     </row>
@@ -11774,10 +11897,10 @@
         <v>1118</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>1437</v>
+        <v>1458</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>1438</v>
+        <v>1459</v>
       </c>
       <c r="D16" s="6"/>
     </row>
@@ -11786,10 +11909,10 @@
         <v>1119</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>1439</v>
+        <v>1460</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>1440</v>
+        <v>1461</v>
       </c>
       <c r="D17" s="6"/>
     </row>
@@ -11798,10 +11921,10 @@
         <v>1120</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>1441</v>
+        <v>1462</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>1442</v>
+        <v>1463</v>
       </c>
       <c r="D18" s="6"/>
     </row>
@@ -11810,10 +11933,10 @@
         <v>1121</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>1443</v>
+        <v>1464</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>1444</v>
+        <v>1465</v>
       </c>
       <c r="D19" s="6"/>
     </row>
@@ -11822,10 +11945,10 @@
         <v>1122</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>1445</v>
+        <v>1466</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>1446</v>
+        <v>1467</v>
       </c>
       <c r="D20" s="6"/>
     </row>
@@ -11834,10 +11957,10 @@
         <v>1123</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>1447</v>
+        <v>1468</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>1448</v>
+        <v>1469</v>
       </c>
       <c r="D21" s="6"/>
     </row>
@@ -11846,10 +11969,10 @@
         <v>1124</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>1449</v>
+        <v>1470</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>1450</v>
+        <v>1471</v>
       </c>
       <c r="D22" s="6"/>
     </row>
@@ -11858,10 +11981,10 @@
         <v>1125</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>1451</v>
+        <v>1472</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>1452</v>
+        <v>1473</v>
       </c>
       <c r="D23" s="6"/>
     </row>
@@ -11870,10 +11993,10 @@
         <v>1126</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>1453</v>
+        <v>1474</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>1454</v>
+        <v>1475</v>
       </c>
       <c r="D24" s="6"/>
     </row>
@@ -11882,10 +12005,10 @@
         <v>1127</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>1455</v>
+        <v>1476</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>1456</v>
+        <v>1477</v>
       </c>
       <c r="D25" s="6"/>
     </row>
@@ -11894,10 +12017,10 @@
         <v>1128</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>1457</v>
+        <v>1478</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>1458</v>
+        <v>1479</v>
       </c>
       <c r="D26" s="6"/>
     </row>
@@ -11906,10 +12029,10 @@
         <v>1129</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>1459</v>
+        <v>1480</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>1460</v>
+        <v>1481</v>
       </c>
       <c r="D27" s="6"/>
     </row>
@@ -11918,10 +12041,10 @@
         <v>1130</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>1461</v>
+        <v>1482</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>1462</v>
+        <v>1483</v>
       </c>
       <c r="D28" s="6"/>
     </row>
@@ -11930,10 +12053,10 @@
         <v>1131</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>1463</v>
+        <v>1484</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>1464</v>
+        <v>1485</v>
       </c>
       <c r="D29" s="6"/>
     </row>

--- a/archive/iceKnives32/iceKnives32.xlsx
+++ b/archive/iceKnives32/iceKnives32.xlsx
@@ -306,7 +306,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2106" uniqueCount="1486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2112" uniqueCount="1489">
   <si>
     <t>{_f}</t>
   </si>
@@ -4151,7 +4151,7 @@
     <t>_node</t>
   </si>
   <si>
-    <t>97'</t>
+    <t>174'</t>
   </si>
   <si>
     <t>robotics</t>
@@ -4580,7 +4580,7 @@
     <t>sudoku</t>
   </si>
   <si>
-    <t>125'</t>
+    <t>203'</t>
   </si>
   <si>
     <t>&lt;&gt;;</t>
@@ -4589,7 +4589,16 @@
     <t>|example/|;</t>
   </si>
   <si>
-    <t>273'</t>
+    <t>signal/</t>
+  </si>
+  <si>
+    <t>distribute/</t>
+  </si>
+  <si>
+    <t>span/</t>
+  </si>
+  <si>
+    <t>351'</t>
   </si>
   <si>
     <t>_recycle</t>
@@ -10784,9 +10793,15 @@
       <c r="E1" s="7" t="s">
         <v>1093</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
+      <c r="F1" s="7" t="s">
+        <v>1097</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>1100</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>1103</v>
+      </c>
       <c r="I1" s="12" t="s">
         <v>1080</v>
       </c>
@@ -11685,11 +11700,17 @@
       <c r="E36" s="9" t="s">
         <v>1426</v>
       </c>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
+      <c r="F36" s="9" t="s">
+        <v>1427</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>1428</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>1429</v>
+      </c>
       <c r="I36" s="12" t="s">
-        <v>1427</v>
+        <v>1430</v>
       </c>
     </row>
   </sheetData>
@@ -11712,7 +11733,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="6" t="s">
-        <v>1428</v>
+        <v>1431</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>1077</v>
@@ -11726,13 +11747,13 @@
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
-        <v>1429</v>
+        <v>1432</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>1430</v>
+        <v>1433</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>1431</v>
+        <v>1434</v>
       </c>
       <c r="D2" s="6"/>
     </row>
@@ -11741,10 +11762,10 @@
         <v>1077</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>1432</v>
+        <v>1435</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>1433</v>
+        <v>1436</v>
       </c>
       <c r="D3" s="6"/>
     </row>
@@ -11753,10 +11774,10 @@
         <v>1078</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>1434</v>
+        <v>1437</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>1435</v>
+        <v>1438</v>
       </c>
       <c r="D4" s="6"/>
     </row>
@@ -11765,10 +11786,10 @@
         <v>1079</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>1436</v>
+        <v>1439</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>1437</v>
+        <v>1440</v>
       </c>
       <c r="D5" s="6"/>
     </row>
@@ -11777,10 +11798,10 @@
         <v>1093</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>1438</v>
+        <v>1441</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>1439</v>
+        <v>1442</v>
       </c>
       <c r="D6" s="6"/>
     </row>
@@ -11789,10 +11810,10 @@
         <v>1097</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>1440</v>
+        <v>1443</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>1441</v>
+        <v>1444</v>
       </c>
       <c r="D7" s="6"/>
     </row>
@@ -11801,10 +11822,10 @@
         <v>1100</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>1442</v>
+        <v>1445</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>1443</v>
+        <v>1446</v>
       </c>
       <c r="D8" s="6"/>
     </row>
@@ -11813,10 +11834,10 @@
         <v>1103</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>1444</v>
+        <v>1447</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>1445</v>
+        <v>1448</v>
       </c>
       <c r="D9" s="6"/>
     </row>
@@ -11825,10 +11846,10 @@
         <v>1106</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>1446</v>
+        <v>1449</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>1447</v>
+        <v>1450</v>
       </c>
       <c r="D10" s="6"/>
     </row>
@@ -11837,10 +11858,10 @@
         <v>1109</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>1448</v>
+        <v>1451</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>1449</v>
+        <v>1452</v>
       </c>
       <c r="D11" s="6"/>
     </row>
@@ -11849,10 +11870,10 @@
         <v>1112</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>1450</v>
+        <v>1453</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>1451</v>
+        <v>1454</v>
       </c>
       <c r="D12" s="6"/>
     </row>
@@ -11861,10 +11882,10 @@
         <v>1115</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>1452</v>
+        <v>1455</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>1453</v>
+        <v>1456</v>
       </c>
       <c r="D13" s="6"/>
     </row>
@@ -11873,10 +11894,10 @@
         <v>1116</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>1454</v>
+        <v>1457</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>1455</v>
+        <v>1458</v>
       </c>
       <c r="D14" s="6"/>
     </row>
@@ -11885,10 +11906,10 @@
         <v>1117</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>1456</v>
+        <v>1459</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>1457</v>
+        <v>1460</v>
       </c>
       <c r="D15" s="6"/>
     </row>
@@ -11897,10 +11918,10 @@
         <v>1118</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>1458</v>
+        <v>1461</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>1459</v>
+        <v>1462</v>
       </c>
       <c r="D16" s="6"/>
     </row>
@@ -11909,10 +11930,10 @@
         <v>1119</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>1460</v>
+        <v>1463</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>1461</v>
+        <v>1464</v>
       </c>
       <c r="D17" s="6"/>
     </row>
@@ -11921,10 +11942,10 @@
         <v>1120</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>1462</v>
+        <v>1465</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>1463</v>
+        <v>1466</v>
       </c>
       <c r="D18" s="6"/>
     </row>
@@ -11933,10 +11954,10 @@
         <v>1121</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>1464</v>
+        <v>1467</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>1465</v>
+        <v>1468</v>
       </c>
       <c r="D19" s="6"/>
     </row>
@@ -11945,10 +11966,10 @@
         <v>1122</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>1466</v>
+        <v>1469</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>1467</v>
+        <v>1470</v>
       </c>
       <c r="D20" s="6"/>
     </row>
@@ -11957,10 +11978,10 @@
         <v>1123</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>1468</v>
+        <v>1471</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>1469</v>
+        <v>1472</v>
       </c>
       <c r="D21" s="6"/>
     </row>
@@ -11969,10 +11990,10 @@
         <v>1124</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>1470</v>
+        <v>1473</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>1471</v>
+        <v>1474</v>
       </c>
       <c r="D22" s="6"/>
     </row>
@@ -11981,10 +12002,10 @@
         <v>1125</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>1472</v>
+        <v>1475</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>1473</v>
+        <v>1476</v>
       </c>
       <c r="D23" s="6"/>
     </row>
@@ -11993,10 +12014,10 @@
         <v>1126</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>1474</v>
+        <v>1477</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>1475</v>
+        <v>1478</v>
       </c>
       <c r="D24" s="6"/>
     </row>
@@ -12005,10 +12026,10 @@
         <v>1127</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>1476</v>
+        <v>1479</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>1477</v>
+        <v>1480</v>
       </c>
       <c r="D25" s="6"/>
     </row>
@@ -12017,10 +12038,10 @@
         <v>1128</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>1478</v>
+        <v>1481</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>1479</v>
+        <v>1482</v>
       </c>
       <c r="D26" s="6"/>
     </row>
@@ -12029,10 +12050,10 @@
         <v>1129</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>1480</v>
+        <v>1483</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>1481</v>
+        <v>1484</v>
       </c>
       <c r="D27" s="6"/>
     </row>
@@ -12041,10 +12062,10 @@
         <v>1130</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>1482</v>
+        <v>1485</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>1483</v>
+        <v>1486</v>
       </c>
       <c r="D28" s="6"/>
     </row>
@@ -12053,10 +12074,10 @@
         <v>1131</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>1484</v>
+        <v>1487</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="D29" s="6"/>
     </row>

--- a/archive/iceKnives32/iceKnives32.xlsx
+++ b/archive/iceKnives32/iceKnives32.xlsx
@@ -306,7 +306,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2112" uniqueCount="1489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2115" uniqueCount="1492">
   <si>
     <t>{_f}</t>
   </si>
@@ -4518,6 +4518,15 @@
   </si>
   <si>
     <t>you</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>claim</t>
+  </si>
+  <si>
+    <t>pie</t>
   </si>
   <si>
     <t>specific</t>
@@ -11395,9 +11404,15 @@
       <c r="E23" s="9" t="s">
         <v>1403</v>
       </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
+      <c r="F23" s="7" t="s">
+        <v>1404</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>1405</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>1406</v>
+      </c>
       <c r="I23" s="12" t="s">
         <v>1083</v>
       </c>
@@ -11407,16 +11422,16 @@
         <v>1126</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>1404</v>
+        <v>1407</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>1405</v>
+        <v>1408</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>1406</v>
+        <v>1409</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>1407</v>
+        <v>1410</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
@@ -11430,16 +11445,16 @@
         <v>1127</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>1408</v>
+        <v>1411</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>1409</v>
+        <v>1412</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>1410</v>
+        <v>1413</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>1411</v>
+        <v>1414</v>
       </c>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
@@ -11453,16 +11468,16 @@
         <v>1128</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>1412</v>
+        <v>1415</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>1413</v>
+        <v>1416</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>1414</v>
+        <v>1417</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>1415</v>
+        <v>1418</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
@@ -11476,16 +11491,16 @@
         <v>1129</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>1416</v>
+        <v>1419</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>1417</v>
+        <v>1420</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>1418</v>
+        <v>1421</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>1419</v>
+        <v>1422</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
@@ -11499,16 +11514,16 @@
         <v>1130</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>1420</v>
+        <v>1423</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>1421</v>
+        <v>1424</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>1422</v>
+        <v>1425</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>1423</v>
+        <v>1426</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
@@ -11543,7 +11558,7 @@
         <v>1104</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>1424</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="30">
@@ -11672,7 +11687,7 @@
         <v>1144</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>1425</v>
+        <v>1428</v>
       </c>
       <c r="E35" s="8" t="s">
         <v>1145</v>
@@ -11698,19 +11713,19 @@
         <v>1277</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>1426</v>
+        <v>1429</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>1427</v>
+        <v>1430</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>1428</v>
+        <v>1431</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>1429</v>
+        <v>1432</v>
       </c>
       <c r="I36" s="12" t="s">
-        <v>1430</v>
+        <v>1433</v>
       </c>
     </row>
   </sheetData>
@@ -11733,7 +11748,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="6" t="s">
-        <v>1431</v>
+        <v>1434</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>1077</v>
@@ -11747,13 +11762,13 @@
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
-        <v>1432</v>
+        <v>1435</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>1433</v>
+        <v>1436</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>1434</v>
+        <v>1437</v>
       </c>
       <c r="D2" s="6"/>
     </row>
@@ -11762,10 +11777,10 @@
         <v>1077</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>1435</v>
+        <v>1438</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>1436</v>
+        <v>1439</v>
       </c>
       <c r="D3" s="6"/>
     </row>
@@ -11774,10 +11789,10 @@
         <v>1078</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>1437</v>
+        <v>1440</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>1438</v>
+        <v>1441</v>
       </c>
       <c r="D4" s="6"/>
     </row>
@@ -11786,10 +11801,10 @@
         <v>1079</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>1439</v>
+        <v>1442</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>1440</v>
+        <v>1443</v>
       </c>
       <c r="D5" s="6"/>
     </row>
@@ -11798,10 +11813,10 @@
         <v>1093</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>1441</v>
+        <v>1444</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>1442</v>
+        <v>1445</v>
       </c>
       <c r="D6" s="6"/>
     </row>
@@ -11810,10 +11825,10 @@
         <v>1097</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>1443</v>
+        <v>1446</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>1444</v>
+        <v>1447</v>
       </c>
       <c r="D7" s="6"/>
     </row>
@@ -11822,10 +11837,10 @@
         <v>1100</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>1445</v>
+        <v>1448</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>1446</v>
+        <v>1449</v>
       </c>
       <c r="D8" s="6"/>
     </row>
@@ -11834,10 +11849,10 @@
         <v>1103</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>1447</v>
+        <v>1450</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>1448</v>
+        <v>1451</v>
       </c>
       <c r="D9" s="6"/>
     </row>
@@ -11846,10 +11861,10 @@
         <v>1106</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>1449</v>
+        <v>1452</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>1450</v>
+        <v>1453</v>
       </c>
       <c r="D10" s="6"/>
     </row>
@@ -11858,10 +11873,10 @@
         <v>1109</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>1451</v>
+        <v>1454</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>1452</v>
+        <v>1455</v>
       </c>
       <c r="D11" s="6"/>
     </row>
@@ -11870,10 +11885,10 @@
         <v>1112</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>1453</v>
+        <v>1456</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>1454</v>
+        <v>1457</v>
       </c>
       <c r="D12" s="6"/>
     </row>
@@ -11882,10 +11897,10 @@
         <v>1115</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>1455</v>
+        <v>1458</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>1456</v>
+        <v>1459</v>
       </c>
       <c r="D13" s="6"/>
     </row>
@@ -11894,10 +11909,10 @@
         <v>1116</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>1457</v>
+        <v>1460</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>1458</v>
+        <v>1461</v>
       </c>
       <c r="D14" s="6"/>
     </row>
@@ -11906,10 +11921,10 @@
         <v>1117</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>1459</v>
+        <v>1462</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>1460</v>
+        <v>1463</v>
       </c>
       <c r="D15" s="6"/>
     </row>
@@ -11918,10 +11933,10 @@
         <v>1118</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>1461</v>
+        <v>1464</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>1462</v>
+        <v>1465</v>
       </c>
       <c r="D16" s="6"/>
     </row>
@@ -11930,10 +11945,10 @@
         <v>1119</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>1463</v>
+        <v>1466</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>1464</v>
+        <v>1467</v>
       </c>
       <c r="D17" s="6"/>
     </row>
@@ -11942,10 +11957,10 @@
         <v>1120</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>1465</v>
+        <v>1468</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>1466</v>
+        <v>1469</v>
       </c>
       <c r="D18" s="6"/>
     </row>
@@ -11954,10 +11969,10 @@
         <v>1121</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>1467</v>
+        <v>1470</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>1468</v>
+        <v>1471</v>
       </c>
       <c r="D19" s="6"/>
     </row>
@@ -11966,10 +11981,10 @@
         <v>1122</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>1469</v>
+        <v>1472</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>1470</v>
+        <v>1473</v>
       </c>
       <c r="D20" s="6"/>
     </row>
@@ -11978,10 +11993,10 @@
         <v>1123</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>1471</v>
+        <v>1474</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>1472</v>
+        <v>1475</v>
       </c>
       <c r="D21" s="6"/>
     </row>
@@ -11990,10 +12005,10 @@
         <v>1124</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>1473</v>
+        <v>1476</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>1474</v>
+        <v>1477</v>
       </c>
       <c r="D22" s="6"/>
     </row>
@@ -12002,10 +12017,10 @@
         <v>1125</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>1475</v>
+        <v>1478</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>1476</v>
+        <v>1479</v>
       </c>
       <c r="D23" s="6"/>
     </row>
@@ -12014,10 +12029,10 @@
         <v>1126</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>1477</v>
+        <v>1480</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>1478</v>
+        <v>1481</v>
       </c>
       <c r="D24" s="6"/>
     </row>
@@ -12026,10 +12041,10 @@
         <v>1127</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>1479</v>
+        <v>1482</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>1480</v>
+        <v>1483</v>
       </c>
       <c r="D25" s="6"/>
     </row>
@@ -12038,10 +12053,10 @@
         <v>1128</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>1481</v>
+        <v>1484</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>1482</v>
+        <v>1485</v>
       </c>
       <c r="D26" s="6"/>
     </row>
@@ -12050,10 +12065,10 @@
         <v>1129</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>1483</v>
+        <v>1486</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>1484</v>
+        <v>1487</v>
       </c>
       <c r="D27" s="6"/>
     </row>
@@ -12062,10 +12077,10 @@
         <v>1130</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>1486</v>
+        <v>1489</v>
       </c>
       <c r="D28" s="6"/>
     </row>
@@ -12074,10 +12089,10 @@
         <v>1131</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>1487</v>
+        <v>1490</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>1488</v>
+        <v>1491</v>
       </c>
       <c r="D29" s="6"/>
     </row>

--- a/archive/iceKnives32/iceKnives32.xlsx
+++ b/archive/iceKnives32/iceKnives32.xlsx
@@ -306,7 +306,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2115" uniqueCount="1492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2121" uniqueCount="1498">
   <si>
     <t>{_f}</t>
   </si>
@@ -4541,6 +4541,15 @@
     <t>important</t>
   </si>
   <si>
+    <t>spam</t>
+  </si>
+  <si>
+    <t>mail</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
     <t>acoustic</t>
   </si>
   <si>
@@ -4551,6 +4560,15 @@
   </si>
   <si>
     <t>infinite</t>
+  </si>
+  <si>
+    <t>rate</t>
+  </si>
+  <si>
+    <t>cause</t>
+  </si>
+  <si>
+    <t>derive</t>
   </si>
   <si>
     <t>freezers</t>
@@ -11433,9 +11451,15 @@
       <c r="E24" s="9" t="s">
         <v>1410</v>
       </c>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
+      <c r="F24" s="7" t="s">
+        <v>1411</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>1412</v>
+      </c>
+      <c r="H24" s="7" t="s">
+        <v>1413</v>
+      </c>
       <c r="I24" s="12" t="s">
         <v>1083</v>
       </c>
@@ -11445,20 +11469,26 @@
         <v>1127</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>1411</v>
+        <v>1414</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>1412</v>
+        <v>1415</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>1413</v>
+        <v>1416</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>1414</v>
-      </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
+        <v>1417</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>1418</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>1419</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>1420</v>
+      </c>
       <c r="I25" s="12" t="s">
         <v>1083</v>
       </c>
@@ -11468,16 +11498,16 @@
         <v>1128</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>1415</v>
+        <v>1421</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>1416</v>
+        <v>1422</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>1417</v>
+        <v>1423</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>1418</v>
+        <v>1424</v>
       </c>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
@@ -11491,16 +11521,16 @@
         <v>1129</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>1419</v>
+        <v>1425</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>1420</v>
+        <v>1426</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>1421</v>
+        <v>1427</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>1422</v>
+        <v>1428</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
@@ -11514,16 +11544,16 @@
         <v>1130</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>1423</v>
+        <v>1429</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>1424</v>
+        <v>1430</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>1425</v>
+        <v>1431</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>1426</v>
+        <v>1432</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
@@ -11558,7 +11588,7 @@
         <v>1104</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>1427</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="30">
@@ -11687,7 +11717,7 @@
         <v>1144</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>1428</v>
+        <v>1434</v>
       </c>
       <c r="E35" s="8" t="s">
         <v>1145</v>
@@ -11713,19 +11743,19 @@
         <v>1277</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>1429</v>
+        <v>1435</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>1430</v>
+        <v>1436</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>1431</v>
+        <v>1437</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>1432</v>
+        <v>1438</v>
       </c>
       <c r="I36" s="12" t="s">
-        <v>1433</v>
+        <v>1439</v>
       </c>
     </row>
   </sheetData>
@@ -11748,7 +11778,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="6" t="s">
-        <v>1434</v>
+        <v>1440</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>1077</v>
@@ -11762,13 +11792,13 @@
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
-        <v>1435</v>
+        <v>1441</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>1436</v>
+        <v>1442</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>1437</v>
+        <v>1443</v>
       </c>
       <c r="D2" s="6"/>
     </row>
@@ -11777,10 +11807,10 @@
         <v>1077</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>1438</v>
+        <v>1444</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>1439</v>
+        <v>1445</v>
       </c>
       <c r="D3" s="6"/>
     </row>
@@ -11789,10 +11819,10 @@
         <v>1078</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>1440</v>
+        <v>1446</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>1441</v>
+        <v>1447</v>
       </c>
       <c r="D4" s="6"/>
     </row>
@@ -11801,10 +11831,10 @@
         <v>1079</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>1442</v>
+        <v>1448</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>1443</v>
+        <v>1449</v>
       </c>
       <c r="D5" s="6"/>
     </row>
@@ -11813,10 +11843,10 @@
         <v>1093</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>1444</v>
+        <v>1450</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>1445</v>
+        <v>1451</v>
       </c>
       <c r="D6" s="6"/>
     </row>
@@ -11825,10 +11855,10 @@
         <v>1097</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>1446</v>
+        <v>1452</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>1447</v>
+        <v>1453</v>
       </c>
       <c r="D7" s="6"/>
     </row>
@@ -11837,10 +11867,10 @@
         <v>1100</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>1448</v>
+        <v>1454</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>1449</v>
+        <v>1455</v>
       </c>
       <c r="D8" s="6"/>
     </row>
@@ -11849,10 +11879,10 @@
         <v>1103</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>1450</v>
+        <v>1456</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>1451</v>
+        <v>1457</v>
       </c>
       <c r="D9" s="6"/>
     </row>
@@ -11861,10 +11891,10 @@
         <v>1106</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>1452</v>
+        <v>1458</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>1453</v>
+        <v>1459</v>
       </c>
       <c r="D10" s="6"/>
     </row>
@@ -11873,10 +11903,10 @@
         <v>1109</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>1454</v>
+        <v>1460</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>1455</v>
+        <v>1461</v>
       </c>
       <c r="D11" s="6"/>
     </row>
@@ -11885,10 +11915,10 @@
         <v>1112</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>1456</v>
+        <v>1462</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>1457</v>
+        <v>1463</v>
       </c>
       <c r="D12" s="6"/>
     </row>
@@ -11897,10 +11927,10 @@
         <v>1115</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>1458</v>
+        <v>1464</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>1459</v>
+        <v>1465</v>
       </c>
       <c r="D13" s="6"/>
     </row>
@@ -11909,10 +11939,10 @@
         <v>1116</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>1460</v>
+        <v>1466</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>1461</v>
+        <v>1467</v>
       </c>
       <c r="D14" s="6"/>
     </row>
@@ -11921,10 +11951,10 @@
         <v>1117</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>1462</v>
+        <v>1468</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>1463</v>
+        <v>1469</v>
       </c>
       <c r="D15" s="6"/>
     </row>
@@ -11933,10 +11963,10 @@
         <v>1118</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>1464</v>
+        <v>1470</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>1465</v>
+        <v>1471</v>
       </c>
       <c r="D16" s="6"/>
     </row>
@@ -11945,10 +11975,10 @@
         <v>1119</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>1466</v>
+        <v>1472</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>1467</v>
+        <v>1473</v>
       </c>
       <c r="D17" s="6"/>
     </row>
@@ -11957,10 +11987,10 @@
         <v>1120</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>1468</v>
+        <v>1474</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>1469</v>
+        <v>1475</v>
       </c>
       <c r="D18" s="6"/>
     </row>
@@ -11969,10 +11999,10 @@
         <v>1121</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>1470</v>
+        <v>1476</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>1471</v>
+        <v>1477</v>
       </c>
       <c r="D19" s="6"/>
     </row>
@@ -11981,10 +12011,10 @@
         <v>1122</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>1472</v>
+        <v>1478</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>1473</v>
+        <v>1479</v>
       </c>
       <c r="D20" s="6"/>
     </row>
@@ -11993,10 +12023,10 @@
         <v>1123</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>1474</v>
+        <v>1480</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>1475</v>
+        <v>1481</v>
       </c>
       <c r="D21" s="6"/>
     </row>
@@ -12005,10 +12035,10 @@
         <v>1124</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>1476</v>
+        <v>1482</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>1477</v>
+        <v>1483</v>
       </c>
       <c r="D22" s="6"/>
     </row>
@@ -12017,10 +12047,10 @@
         <v>1125</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>1478</v>
+        <v>1484</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>1479</v>
+        <v>1485</v>
       </c>
       <c r="D23" s="6"/>
     </row>
@@ -12029,10 +12059,10 @@
         <v>1126</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>1480</v>
+        <v>1486</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>1481</v>
+        <v>1487</v>
       </c>
       <c r="D24" s="6"/>
     </row>
@@ -12041,10 +12071,10 @@
         <v>1127</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>1482</v>
+        <v>1488</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>1483</v>
+        <v>1489</v>
       </c>
       <c r="D25" s="6"/>
     </row>
@@ -12053,10 +12083,10 @@
         <v>1128</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>1484</v>
+        <v>1490</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>1485</v>
+        <v>1491</v>
       </c>
       <c r="D26" s="6"/>
     </row>
@@ -12065,10 +12095,10 @@
         <v>1129</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>1486</v>
+        <v>1492</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>1487</v>
+        <v>1493</v>
       </c>
       <c r="D27" s="6"/>
     </row>
@@ -12077,10 +12107,10 @@
         <v>1130</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>1488</v>
+        <v>1494</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>1489</v>
+        <v>1495</v>
       </c>
       <c r="D28" s="6"/>
     </row>
@@ -12089,10 +12119,10 @@
         <v>1131</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>1490</v>
+        <v>1496</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>1491</v>
+        <v>1497</v>
       </c>
       <c r="D29" s="6"/>
     </row>

--- a/archive/iceKnives32/iceKnives32.xlsx
+++ b/archive/iceKnives32/iceKnives32.xlsx
@@ -306,7 +306,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2121" uniqueCount="1498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2127" uniqueCount="1503">
   <si>
     <t>{_f}</t>
   </si>
@@ -4583,6 +4583,12 @@
     <t>alien</t>
   </si>
   <si>
+    <t>phase</t>
+  </si>
+  <si>
+    <t>chart</t>
+  </si>
+  <si>
     <t>rotation</t>
   </si>
   <si>
@@ -4593,6 +4599,15 @@
   </si>
   <si>
     <t>applicants</t>
+  </si>
+  <si>
+    <t>transform</t>
+  </si>
+  <si>
+    <t>graphite</t>
+  </si>
+  <si>
+    <t>rhombus</t>
   </si>
   <si>
     <t>rigidity</t>
@@ -11509,9 +11524,15 @@
       <c r="E26" s="9" t="s">
         <v>1424</v>
       </c>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
+      <c r="F26" s="7" t="s">
+        <v>1425</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>1174</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>1426</v>
+      </c>
       <c r="I26" s="12" t="s">
         <v>1083</v>
       </c>
@@ -11521,20 +11542,26 @@
         <v>1129</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>1425</v>
+        <v>1427</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>1426</v>
+        <v>1428</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>1427</v>
+        <v>1429</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>1428</v>
-      </c>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
+        <v>1430</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>1431</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>1432</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>1433</v>
+      </c>
       <c r="I27" s="12" t="s">
         <v>1083</v>
       </c>
@@ -11544,16 +11571,16 @@
         <v>1130</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>1429</v>
+        <v>1434</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>1430</v>
+        <v>1435</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>1431</v>
+        <v>1436</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>1432</v>
+        <v>1437</v>
       </c>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
@@ -11588,7 +11615,7 @@
         <v>1104</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>1433</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="30">
@@ -11717,7 +11744,7 @@
         <v>1144</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>1434</v>
+        <v>1439</v>
       </c>
       <c r="E35" s="8" t="s">
         <v>1145</v>
@@ -11743,19 +11770,19 @@
         <v>1277</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>1435</v>
+        <v>1440</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>1436</v>
+        <v>1441</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>1437</v>
+        <v>1442</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>1438</v>
+        <v>1443</v>
       </c>
       <c r="I36" s="12" t="s">
-        <v>1439</v>
+        <v>1444</v>
       </c>
     </row>
   </sheetData>
@@ -11778,7 +11805,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="6" t="s">
-        <v>1440</v>
+        <v>1445</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>1077</v>
@@ -11792,13 +11819,13 @@
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
-        <v>1441</v>
+        <v>1446</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>1442</v>
+        <v>1447</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>1443</v>
+        <v>1448</v>
       </c>
       <c r="D2" s="6"/>
     </row>
@@ -11807,10 +11834,10 @@
         <v>1077</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>1444</v>
+        <v>1449</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>1445</v>
+        <v>1450</v>
       </c>
       <c r="D3" s="6"/>
     </row>
@@ -11819,10 +11846,10 @@
         <v>1078</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>1446</v>
+        <v>1451</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>1447</v>
+        <v>1452</v>
       </c>
       <c r="D4" s="6"/>
     </row>
@@ -11831,10 +11858,10 @@
         <v>1079</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>1448</v>
+        <v>1453</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>1449</v>
+        <v>1454</v>
       </c>
       <c r="D5" s="6"/>
     </row>
@@ -11843,10 +11870,10 @@
         <v>1093</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>1450</v>
+        <v>1455</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>1451</v>
+        <v>1456</v>
       </c>
       <c r="D6" s="6"/>
     </row>
@@ -11855,10 +11882,10 @@
         <v>1097</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>1452</v>
+        <v>1457</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>1453</v>
+        <v>1458</v>
       </c>
       <c r="D7" s="6"/>
     </row>
@@ -11867,10 +11894,10 @@
         <v>1100</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>1454</v>
+        <v>1459</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>1455</v>
+        <v>1460</v>
       </c>
       <c r="D8" s="6"/>
     </row>
@@ -11879,10 +11906,10 @@
         <v>1103</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>1456</v>
+        <v>1461</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>1457</v>
+        <v>1462</v>
       </c>
       <c r="D9" s="6"/>
     </row>
@@ -11891,10 +11918,10 @@
         <v>1106</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>1458</v>
+        <v>1463</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>1459</v>
+        <v>1464</v>
       </c>
       <c r="D10" s="6"/>
     </row>
@@ -11903,10 +11930,10 @@
         <v>1109</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>1460</v>
+        <v>1465</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>1461</v>
+        <v>1466</v>
       </c>
       <c r="D11" s="6"/>
     </row>
@@ -11915,10 +11942,10 @@
         <v>1112</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>1462</v>
+        <v>1467</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>1463</v>
+        <v>1468</v>
       </c>
       <c r="D12" s="6"/>
     </row>
@@ -11927,10 +11954,10 @@
         <v>1115</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>1464</v>
+        <v>1469</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>1465</v>
+        <v>1470</v>
       </c>
       <c r="D13" s="6"/>
     </row>
@@ -11939,10 +11966,10 @@
         <v>1116</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>1466</v>
+        <v>1471</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>1467</v>
+        <v>1472</v>
       </c>
       <c r="D14" s="6"/>
     </row>
@@ -11951,10 +11978,10 @@
         <v>1117</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>1468</v>
+        <v>1473</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>1469</v>
+        <v>1474</v>
       </c>
       <c r="D15" s="6"/>
     </row>
@@ -11963,10 +11990,10 @@
         <v>1118</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>1470</v>
+        <v>1475</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>1471</v>
+        <v>1476</v>
       </c>
       <c r="D16" s="6"/>
     </row>
@@ -11975,10 +12002,10 @@
         <v>1119</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>1472</v>
+        <v>1477</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>1473</v>
+        <v>1478</v>
       </c>
       <c r="D17" s="6"/>
     </row>
@@ -11987,10 +12014,10 @@
         <v>1120</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>1474</v>
+        <v>1479</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>1475</v>
+        <v>1480</v>
       </c>
       <c r="D18" s="6"/>
     </row>
@@ -11999,10 +12026,10 @@
         <v>1121</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>1476</v>
+        <v>1481</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>1477</v>
+        <v>1482</v>
       </c>
       <c r="D19" s="6"/>
     </row>
@@ -12011,10 +12038,10 @@
         <v>1122</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>1478</v>
+        <v>1483</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>1479</v>
+        <v>1484</v>
       </c>
       <c r="D20" s="6"/>
     </row>
@@ -12023,10 +12050,10 @@
         <v>1123</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>1480</v>
+        <v>1485</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>1481</v>
+        <v>1486</v>
       </c>
       <c r="D21" s="6"/>
     </row>
@@ -12035,10 +12062,10 @@
         <v>1124</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>1482</v>
+        <v>1487</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>1483</v>
+        <v>1488</v>
       </c>
       <c r="D22" s="6"/>
     </row>
@@ -12047,10 +12074,10 @@
         <v>1125</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>1484</v>
+        <v>1489</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>1485</v>
+        <v>1490</v>
       </c>
       <c r="D23" s="6"/>
     </row>
@@ -12059,10 +12086,10 @@
         <v>1126</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>1486</v>
+        <v>1491</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>1487</v>
+        <v>1492</v>
       </c>
       <c r="D24" s="6"/>
     </row>
@@ -12071,10 +12098,10 @@
         <v>1127</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>1488</v>
+        <v>1493</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>1489</v>
+        <v>1494</v>
       </c>
       <c r="D25" s="6"/>
     </row>
@@ -12083,10 +12110,10 @@
         <v>1128</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>1490</v>
+        <v>1495</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>1491</v>
+        <v>1496</v>
       </c>
       <c r="D26" s="6"/>
     </row>
@@ -12095,10 +12122,10 @@
         <v>1129</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>1492</v>
+        <v>1497</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>1493</v>
+        <v>1498</v>
       </c>
       <c r="D27" s="6"/>
     </row>
@@ -12107,10 +12134,10 @@
         <v>1130</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>1494</v>
+        <v>1499</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>1495</v>
+        <v>1500</v>
       </c>
       <c r="D28" s="6"/>
     </row>
@@ -12119,10 +12146,10 @@
         <v>1131</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>1496</v>
+        <v>1501</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>1497</v>
+        <v>1502</v>
       </c>
       <c r="D29" s="6"/>
     </row>

--- a/archive/iceKnives32/iceKnives32.xlsx
+++ b/archive/iceKnives32/iceKnives32.xlsx
@@ -306,7 +306,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2127" uniqueCount="1503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2130" uniqueCount="1506">
   <si>
     <t>{_f}</t>
   </si>
@@ -4436,12 +4436,12 @@
     <t>shield</t>
   </si>
   <si>
+    <t>warm</t>
+  </si>
+  <si>
     <t>versus</t>
   </si>
   <si>
-    <t>warm</t>
-  </si>
-  <si>
     <t>fiction</t>
   </si>
   <si>
@@ -4520,12 +4520,12 @@
     <t>you</t>
   </si>
   <si>
+    <t>claim</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
-    <t>claim</t>
-  </si>
-  <si>
     <t>pie</t>
   </si>
   <si>
@@ -4541,12 +4541,12 @@
     <t>important</t>
   </si>
   <si>
+    <t>mail</t>
+  </si>
+  <si>
     <t>spam</t>
   </si>
   <si>
-    <t>mail</t>
-  </si>
-  <si>
     <t>alert</t>
   </si>
   <si>
@@ -4562,12 +4562,12 @@
     <t>infinite</t>
   </si>
   <si>
+    <t>cause</t>
+  </si>
+  <si>
     <t>rate</t>
   </si>
   <si>
-    <t>cause</t>
-  </si>
-  <si>
     <t>derive</t>
   </si>
   <si>
@@ -4601,12 +4601,12 @@
     <t>applicants</t>
   </si>
   <si>
+    <t>graphite</t>
+  </si>
+  <si>
     <t>transform</t>
   </si>
   <si>
-    <t>graphite</t>
-  </si>
-  <si>
     <t>rhombus</t>
   </si>
   <si>
@@ -4620,6 +4620,15 @@
   </si>
   <si>
     <t>sudoku</t>
+  </si>
+  <si>
+    <t>ticket</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>invoke</t>
   </si>
   <si>
     <t>203'</t>
@@ -11321,7 +11330,7 @@
       <c r="E19" s="9" t="s">
         <v>1375</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="8" t="s">
         <v>1376</v>
       </c>
       <c r="G19" s="7" t="s">
@@ -11437,7 +11446,7 @@
       <c r="E23" s="9" t="s">
         <v>1403</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="8" t="s">
         <v>1404</v>
       </c>
       <c r="G23" s="7" t="s">
@@ -11582,9 +11591,15 @@
       <c r="E28" s="9" t="s">
         <v>1437</v>
       </c>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
+      <c r="F28" s="7" t="s">
+        <v>1438</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>1439</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>1440</v>
+      </c>
       <c r="I28" s="12" t="s">
         <v>1083</v>
       </c>
@@ -11615,7 +11630,7 @@
         <v>1104</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>1438</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="30">
@@ -11744,7 +11759,7 @@
         <v>1144</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>1439</v>
+        <v>1442</v>
       </c>
       <c r="E35" s="8" t="s">
         <v>1145</v>
@@ -11770,19 +11785,19 @@
         <v>1277</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>1440</v>
+        <v>1443</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>1441</v>
+        <v>1444</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>1442</v>
+        <v>1445</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>1443</v>
+        <v>1446</v>
       </c>
       <c r="I36" s="12" t="s">
-        <v>1444</v>
+        <v>1447</v>
       </c>
     </row>
   </sheetData>
@@ -11805,7 +11820,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="6" t="s">
-        <v>1445</v>
+        <v>1448</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>1077</v>
@@ -11819,13 +11834,13 @@
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
-        <v>1446</v>
+        <v>1449</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>1447</v>
+        <v>1450</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>1448</v>
+        <v>1451</v>
       </c>
       <c r="D2" s="6"/>
     </row>
@@ -11834,10 +11849,10 @@
         <v>1077</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>1449</v>
+        <v>1452</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>1450</v>
+        <v>1453</v>
       </c>
       <c r="D3" s="6"/>
     </row>
@@ -11846,10 +11861,10 @@
         <v>1078</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>1451</v>
+        <v>1454</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>1452</v>
+        <v>1455</v>
       </c>
       <c r="D4" s="6"/>
     </row>
@@ -11858,10 +11873,10 @@
         <v>1079</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>1453</v>
+        <v>1456</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>1454</v>
+        <v>1457</v>
       </c>
       <c r="D5" s="6"/>
     </row>
@@ -11870,10 +11885,10 @@
         <v>1093</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>1455</v>
+        <v>1458</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>1456</v>
+        <v>1459</v>
       </c>
       <c r="D6" s="6"/>
     </row>
@@ -11882,10 +11897,10 @@
         <v>1097</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>1457</v>
+        <v>1460</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>1458</v>
+        <v>1461</v>
       </c>
       <c r="D7" s="6"/>
     </row>
@@ -11894,10 +11909,10 @@
         <v>1100</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>1459</v>
+        <v>1462</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>1460</v>
+        <v>1463</v>
       </c>
       <c r="D8" s="6"/>
     </row>
@@ -11906,10 +11921,10 @@
         <v>1103</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>1461</v>
+        <v>1464</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>1462</v>
+        <v>1465</v>
       </c>
       <c r="D9" s="6"/>
     </row>
@@ -11918,10 +11933,10 @@
         <v>1106</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>1463</v>
+        <v>1466</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>1464</v>
+        <v>1467</v>
       </c>
       <c r="D10" s="6"/>
     </row>
@@ -11930,10 +11945,10 @@
         <v>1109</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>1465</v>
+        <v>1468</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>1466</v>
+        <v>1469</v>
       </c>
       <c r="D11" s="6"/>
     </row>
@@ -11942,10 +11957,10 @@
         <v>1112</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>1467</v>
+        <v>1470</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>1468</v>
+        <v>1471</v>
       </c>
       <c r="D12" s="6"/>
     </row>
@@ -11954,10 +11969,10 @@
         <v>1115</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>1469</v>
+        <v>1472</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>1470</v>
+        <v>1473</v>
       </c>
       <c r="D13" s="6"/>
     </row>
@@ -11966,10 +11981,10 @@
         <v>1116</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>1471</v>
+        <v>1474</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>1472</v>
+        <v>1475</v>
       </c>
       <c r="D14" s="6"/>
     </row>
@@ -11978,10 +11993,10 @@
         <v>1117</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>1473</v>
+        <v>1476</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>1474</v>
+        <v>1477</v>
       </c>
       <c r="D15" s="6"/>
     </row>
@@ -11990,10 +12005,10 @@
         <v>1118</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>1475</v>
+        <v>1478</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>1476</v>
+        <v>1479</v>
       </c>
       <c r="D16" s="6"/>
     </row>
@@ -12002,10 +12017,10 @@
         <v>1119</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>1477</v>
+        <v>1480</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>1478</v>
+        <v>1481</v>
       </c>
       <c r="D17" s="6"/>
     </row>
@@ -12014,10 +12029,10 @@
         <v>1120</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>1479</v>
+        <v>1482</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>1480</v>
+        <v>1483</v>
       </c>
       <c r="D18" s="6"/>
     </row>
@@ -12026,10 +12041,10 @@
         <v>1121</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>1481</v>
+        <v>1484</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>1482</v>
+        <v>1485</v>
       </c>
       <c r="D19" s="6"/>
     </row>
@@ -12038,10 +12053,10 @@
         <v>1122</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>1483</v>
+        <v>1486</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>1484</v>
+        <v>1487</v>
       </c>
       <c r="D20" s="6"/>
     </row>
@@ -12050,10 +12065,10 @@
         <v>1123</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>1486</v>
+        <v>1489</v>
       </c>
       <c r="D21" s="6"/>
     </row>
@@ -12062,10 +12077,10 @@
         <v>1124</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>1487</v>
+        <v>1490</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>1488</v>
+        <v>1491</v>
       </c>
       <c r="D22" s="6"/>
     </row>
@@ -12074,10 +12089,10 @@
         <v>1125</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>1489</v>
+        <v>1492</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>1490</v>
+        <v>1493</v>
       </c>
       <c r="D23" s="6"/>
     </row>
@@ -12086,10 +12101,10 @@
         <v>1126</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>1491</v>
+        <v>1494</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>1492</v>
+        <v>1495</v>
       </c>
       <c r="D24" s="6"/>
     </row>
@@ -12098,10 +12113,10 @@
         <v>1127</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>1493</v>
+        <v>1496</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>1494</v>
+        <v>1497</v>
       </c>
       <c r="D25" s="6"/>
     </row>
@@ -12110,10 +12125,10 @@
         <v>1128</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>1495</v>
+        <v>1498</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>1496</v>
+        <v>1499</v>
       </c>
       <c r="D26" s="6"/>
     </row>
@@ -12122,10 +12137,10 @@
         <v>1129</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>1497</v>
+        <v>1500</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>1498</v>
+        <v>1501</v>
       </c>
       <c r="D27" s="6"/>
     </row>
@@ -12134,10 +12149,10 @@
         <v>1130</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>1499</v>
+        <v>1502</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>1500</v>
+        <v>1503</v>
       </c>
       <c r="D28" s="6"/>
     </row>
@@ -12146,10 +12161,10 @@
         <v>1131</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>1501</v>
+        <v>1504</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>1502</v>
+        <v>1505</v>
       </c>
       <c r="D29" s="6"/>
     </row>

--- a/archive/iceKnives32/iceKnives32.xlsx
+++ b/archive/iceKnives32/iceKnives32.xlsx
@@ -306,7 +306,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2299" uniqueCount="1605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2299" uniqueCount="1625">
   <si>
     <t>[packet]</t>
   </si>
@@ -545,31 +545,91 @@
     <t>[18]</t>
   </si>
   <si>
+    <t>fine</t>
+  </si>
+  <si>
+    <t>guarantee</t>
+  </si>
+  <si>
+    <t>::</t>
+  </si>
+  <si>
+    <t>[19]</t>
+  </si>
+  <si>
+    <t>fold</t>
+  </si>
+  <si>
+    <t>response</t>
+  </si>
+  <si>
+    <t>@@</t>
+  </si>
+  <si>
+    <t>[20]</t>
+  </si>
+  <si>
+    <t>job</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
-    <t>[19]</t>
-  </si>
-  <si>
-    <t>[20]</t>
-  </si>
-  <si>
     <t>[21]</t>
   </si>
   <si>
+    <t>book</t>
+  </si>
+  <si>
+    <t>instruct</t>
+  </si>
+  <si>
     <t>[22]</t>
   </si>
   <si>
+    <t>manage</t>
+  </si>
+  <si>
+    <t>quick</t>
+  </si>
+  <si>
     <t>[23]</t>
   </si>
   <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>wipe</t>
+  </si>
+  <si>
     <t>[24]</t>
   </si>
   <si>
+    <t>chat</t>
+  </si>
+  <si>
+    <t>room</t>
+  </si>
+  <si>
     <t>[25]</t>
   </si>
   <si>
+    <t>opera</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
     <t>[26]</t>
+  </si>
+  <si>
+    <t>command</t>
+  </si>
+  <si>
+    <t>screen</t>
   </si>
   <si>
     <t>[@]</t>
@@ -5780,10 +5840,10 @@
         <v>79</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>9</v>
@@ -5791,16 +5851,16 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>9</v>
@@ -5808,16 +5868,16 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>9</v>
@@ -5825,16 +5885,16 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>9</v>
@@ -5842,16 +5902,16 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>9</v>
@@ -5859,16 +5919,16 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>9</v>
@@ -5876,16 +5936,16 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>9</v>
@@ -5893,16 +5953,16 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="E27" s="3" t="s">
         <v>9</v>
@@ -5910,16 +5970,16 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>9</v>
@@ -5927,16 +5987,16 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>9</v>
@@ -5944,7 +6004,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>13</v>
@@ -5961,7 +6021,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>13</v>
@@ -5978,7 +6038,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>13</v>
@@ -5995,7 +6055,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>13</v>
@@ -6012,7 +6072,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>13</v>
@@ -6029,7 +6089,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>13</v>
@@ -6046,7 +6106,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>13</v>
@@ -6063,7 +6123,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>13</v>
@@ -6080,7 +6140,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>13</v>
@@ -6097,7 +6157,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>13</v>
@@ -6114,7 +6174,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>13</v>
@@ -6131,7 +6191,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>13</v>
@@ -6148,36 +6208,36 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -6201,7 +6261,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -6218,7 +6278,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>12</v>
@@ -6230,7 +6290,7 @@
         <v>20</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3">
@@ -6238,16 +6298,16 @@
         <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4">
@@ -6255,16 +6315,16 @@
         <v>14</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5">
@@ -6272,16 +6332,16 @@
         <v>18</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6">
@@ -6292,13 +6352,13 @@
         <v>7</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7">
@@ -6306,16 +6366,16 @@
         <v>26</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8">
@@ -6323,16 +6383,16 @@
         <v>30</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9">
@@ -6340,16 +6400,16 @@
         <v>34</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10">
@@ -6357,16 +6417,16 @@
         <v>38</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11">
@@ -6374,16 +6434,16 @@
         <v>42</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12">
@@ -6391,16 +6451,16 @@
         <v>46</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13">
@@ -6408,16 +6468,16 @@
         <v>50</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>156</v>
+        <v>176</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14">
@@ -6425,16 +6485,16 @@
         <v>54</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15">
@@ -6442,16 +6502,16 @@
         <v>58</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>163</v>
+        <v>183</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16">
@@ -6459,16 +6519,16 @@
         <v>62</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
     </row>
     <row r="17">
@@ -6476,16 +6536,16 @@
         <v>66</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18">
@@ -6493,16 +6553,16 @@
         <v>70</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19">
@@ -6510,16 +6570,16 @@
         <v>74</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20">
@@ -6527,157 +6587,157 @@
         <v>78</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>189</v>
+        <v>209</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>199</v>
+        <v>219</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>11</v>
@@ -6689,80 +6749,80 @@
         <v>19</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>225</v>
+        <v>245</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>227</v>
+        <v>247</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>229</v>
+        <v>249</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>13</v>
@@ -6779,7 +6839,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>13</v>
@@ -6791,29 +6851,29 @@
         <v>21</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>238</v>
+        <v>258</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>13</v>
@@ -6830,7 +6890,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>13</v>
@@ -6847,7 +6907,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>13</v>
@@ -6864,7 +6924,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>13</v>
@@ -6881,7 +6941,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>13</v>
@@ -6898,36 +6958,36 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>244</v>
+        <v>264</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -6950,7 +7010,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -6962,16 +7022,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>4</v>
@@ -6979,7 +7039,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>12</v>
@@ -7003,7 +7063,7 @@
         <v>36</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3">
@@ -7011,25 +7071,25 @@
         <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>257</v>
+        <v>277</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>9</v>
@@ -7040,25 +7100,25 @@
         <v>14</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>9</v>
@@ -7069,25 +7129,25 @@
         <v>18</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>9</v>
@@ -7098,25 +7158,25 @@
         <v>22</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>276</v>
+        <v>296</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>277</v>
+        <v>297</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>9</v>
@@ -7127,25 +7187,25 @@
         <v>26</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>281</v>
+        <v>301</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>282</v>
+        <v>302</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>284</v>
+        <v>304</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>285</v>
+        <v>305</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>287</v>
+        <v>307</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>9</v>
@@ -7156,25 +7216,25 @@
         <v>30</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>289</v>
+        <v>309</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>291</v>
+        <v>311</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>292</v>
+        <v>312</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>293</v>
+        <v>313</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>294</v>
+        <v>314</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>9</v>
@@ -7185,25 +7245,25 @@
         <v>34</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>295</v>
+        <v>315</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>296</v>
+        <v>316</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>297</v>
+        <v>317</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>298</v>
+        <v>318</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>299</v>
+        <v>319</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>9</v>
@@ -7214,25 +7274,25 @@
         <v>38</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>302</v>
+        <v>322</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>303</v>
+        <v>323</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>304</v>
+        <v>324</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>305</v>
+        <v>325</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>306</v>
+        <v>326</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>307</v>
+        <v>327</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>9</v>
@@ -7243,25 +7303,25 @@
         <v>42</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>309</v>
+        <v>329</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>311</v>
+        <v>331</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>312</v>
+        <v>332</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>314</v>
+        <v>334</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>315</v>
+        <v>335</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>9</v>
@@ -7272,25 +7332,25 @@
         <v>46</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>316</v>
+        <v>336</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>317</v>
+        <v>337</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>318</v>
+        <v>338</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>319</v>
+        <v>339</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>321</v>
+        <v>341</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>322</v>
+        <v>342</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>9</v>
@@ -7301,25 +7361,25 @@
         <v>50</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>323</v>
+        <v>343</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>324</v>
+        <v>344</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>325</v>
+        <v>345</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>326</v>
+        <v>346</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>327</v>
+        <v>347</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>328</v>
+        <v>348</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>329</v>
+        <v>349</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>9</v>
@@ -7330,25 +7390,25 @@
         <v>54</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>331</v>
+        <v>351</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>9</v>
@@ -7359,25 +7419,25 @@
         <v>58</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>338</v>
+        <v>358</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>339</v>
+        <v>359</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>341</v>
+        <v>361</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>342</v>
+        <v>362</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>343</v>
+        <v>363</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>9</v>
@@ -7388,25 +7448,25 @@
         <v>62</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>344</v>
+        <v>364</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>345</v>
+        <v>365</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>346</v>
+        <v>366</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>347</v>
+        <v>367</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>348</v>
+        <v>368</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>349</v>
+        <v>369</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>9</v>
@@ -7417,25 +7477,25 @@
         <v>66</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>351</v>
+        <v>371</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>352</v>
+        <v>372</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>353</v>
+        <v>373</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>354</v>
+        <v>374</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>355</v>
+        <v>375</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>356</v>
+        <v>376</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>357</v>
+        <v>377</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>9</v>
@@ -7446,25 +7506,25 @@
         <v>70</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>358</v>
+        <v>378</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>362</v>
+        <v>382</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>363</v>
+        <v>383</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>364</v>
+        <v>384</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>9</v>
@@ -7475,25 +7535,25 @@
         <v>74</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>365</v>
+        <v>385</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>366</v>
+        <v>386</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>367</v>
+        <v>387</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>368</v>
+        <v>388</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>369</v>
+        <v>389</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>370</v>
+        <v>390</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>371</v>
+        <v>391</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>9</v>
@@ -7504,25 +7564,25 @@
         <v>78</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>372</v>
+        <v>392</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>373</v>
+        <v>393</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>374</v>
+        <v>394</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>375</v>
+        <v>395</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>376</v>
+        <v>396</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>377</v>
+        <v>397</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>9</v>
@@ -7530,28 +7590,28 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>379</v>
+        <v>399</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>381</v>
+        <v>401</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>382</v>
+        <v>402</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>383</v>
+        <v>403</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>384</v>
+        <v>404</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>385</v>
+        <v>405</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>9</v>
@@ -7559,28 +7619,28 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>386</v>
+        <v>406</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>387</v>
+        <v>407</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>388</v>
+        <v>408</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>389</v>
+        <v>409</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>390</v>
+        <v>410</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>391</v>
+        <v>411</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>392</v>
+        <v>412</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>9</v>
@@ -7588,28 +7648,28 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>393</v>
+        <v>413</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>394</v>
+        <v>414</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>395</v>
+        <v>415</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>396</v>
+        <v>416</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>397</v>
+        <v>417</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>398</v>
+        <v>418</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>399</v>
+        <v>419</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>9</v>
@@ -7617,28 +7677,28 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>400</v>
+        <v>420</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>401</v>
+        <v>421</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>402</v>
+        <v>422</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>403</v>
+        <v>423</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>404</v>
+        <v>424</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>405</v>
+        <v>425</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>406</v>
+        <v>426</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>9</v>
@@ -7646,28 +7706,28 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>407</v>
+        <v>427</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>408</v>
+        <v>428</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>409</v>
+        <v>429</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>410</v>
+        <v>430</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>411</v>
+        <v>431</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>412</v>
+        <v>432</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>413</v>
+        <v>433</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>9</v>
@@ -7675,28 +7735,28 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>414</v>
+        <v>434</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>415</v>
+        <v>435</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>416</v>
+        <v>436</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>417</v>
+        <v>437</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>418</v>
+        <v>438</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>419</v>
+        <v>439</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>9</v>
@@ -7704,28 +7764,28 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>421</v>
+        <v>441</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>422</v>
+        <v>442</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>423</v>
+        <v>443</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>424</v>
+        <v>444</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>426</v>
+        <v>446</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>9</v>
@@ -7733,28 +7793,28 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>427</v>
+        <v>447</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>428</v>
+        <v>448</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>429</v>
+        <v>449</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>430</v>
+        <v>450</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>431</v>
+        <v>451</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>432</v>
+        <v>452</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>433</v>
+        <v>453</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>9</v>
@@ -7762,7 +7822,7 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>11</v>
@@ -7786,12 +7846,12 @@
         <v>35</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>434</v>
+        <v>454</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>13</v>
@@ -7820,7 +7880,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>13</v>
@@ -7849,7 +7909,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>13</v>
@@ -7878,7 +7938,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>13</v>
@@ -7907,7 +7967,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>13</v>
@@ -7936,7 +7996,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>13</v>
@@ -7960,12 +8020,12 @@
         <v>37</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>435</v>
+        <v>455</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>13</v>
@@ -7989,12 +8049,12 @@
         <v>37</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>436</v>
+        <v>456</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>13</v>
@@ -8023,7 +8083,7 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>13</v>
@@ -8052,7 +8112,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>13</v>
@@ -8081,7 +8141,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>13</v>
@@ -8110,7 +8170,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>13</v>
@@ -8134,65 +8194,65 @@
         <v>37</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>437</v>
+        <v>457</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>438</v>
+        <v>458</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>439</v>
+        <v>459</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>440</v>
+        <v>460</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>441</v>
+        <v>461</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>244</v>
+        <v>264</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>442</v>
+        <v>462</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>443</v>
+        <v>463</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>444</v>
+        <v>464</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>445</v>
+        <v>465</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>446</v>
+        <v>466</v>
       </c>
     </row>
   </sheetData>
@@ -8217,834 +8277,834 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="8" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>448</v>
+        <v>468</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>449</v>
+        <v>469</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>450</v>
+        <v>470</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>451</v>
+        <v>471</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>452</v>
+        <v>472</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>454</v>
+        <v>474</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>455</v>
+        <v>475</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>456</v>
+        <v>476</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>457</v>
+        <v>477</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>458</v>
+        <v>478</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>459</v>
+        <v>479</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>460</v>
+        <v>480</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>461</v>
+        <v>481</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>462</v>
+        <v>482</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="8" t="s">
-        <v>448</v>
+        <v>468</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>463</v>
+        <v>483</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>464</v>
+        <v>484</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>465</v>
+        <v>485</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>466</v>
+        <v>486</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>467</v>
+        <v>487</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>468</v>
+        <v>488</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>469</v>
+        <v>489</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="8" t="s">
-        <v>449</v>
+        <v>469</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>470</v>
+        <v>490</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>471</v>
+        <v>491</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>472</v>
+        <v>492</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>473</v>
+        <v>493</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>474</v>
+        <v>494</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>475</v>
+        <v>495</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>476</v>
+        <v>496</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="8" t="s">
-        <v>450</v>
+        <v>470</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>477</v>
+        <v>497</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>478</v>
+        <v>498</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>479</v>
+        <v>499</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>481</v>
+        <v>501</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>482</v>
+        <v>502</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>483</v>
+        <v>503</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="8" t="s">
-        <v>451</v>
+        <v>471</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>484</v>
+        <v>504</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>485</v>
+        <v>505</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>486</v>
+        <v>506</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>487</v>
+        <v>507</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>488</v>
+        <v>508</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>489</v>
+        <v>509</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>490</v>
+        <v>510</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>452</v>
+        <v>472</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>491</v>
+        <v>511</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>492</v>
+        <v>512</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>299</v>
+        <v>319</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>493</v>
+        <v>513</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>494</v>
+        <v>514</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>495</v>
+        <v>515</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>496</v>
+        <v>516</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>497</v>
+        <v>517</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>498</v>
+        <v>518</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>64</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>499</v>
+        <v>519</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>500</v>
+        <v>520</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>501</v>
+        <v>521</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>502</v>
+        <v>522</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="8" t="s">
-        <v>503</v>
+        <v>523</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>504</v>
+        <v>524</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>505</v>
+        <v>525</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>506</v>
+        <v>526</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>508</v>
+        <v>528</v>
       </c>
       <c r="H9" s="11" t="s">
-        <v>509</v>
+        <v>529</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="8" t="s">
-        <v>510</v>
+        <v>530</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>511</v>
+        <v>531</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>512</v>
+        <v>532</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>513</v>
+        <v>533</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>514</v>
+        <v>534</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>515</v>
+        <v>535</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>516</v>
+        <v>536</v>
       </c>
       <c r="H10" s="11" t="s">
-        <v>517</v>
+        <v>537</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
-        <v>518</v>
+        <v>538</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>519</v>
+        <v>539</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>520</v>
+        <v>540</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>331</v>
+        <v>351</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>521</v>
+        <v>541</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>522</v>
+        <v>542</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>523</v>
+        <v>543</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>469</v>
+        <v>489</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="8" t="s">
-        <v>524</v>
+        <v>544</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>525</v>
+        <v>545</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>526</v>
+        <v>546</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>527</v>
+        <v>547</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>528</v>
+        <v>548</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>529</v>
+        <v>549</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>530</v>
+        <v>550</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>531</v>
+        <v>551</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="8" t="s">
-        <v>532</v>
+        <v>552</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>533</v>
+        <v>553</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>534</v>
+        <v>554</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>535</v>
+        <v>555</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>536</v>
+        <v>556</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>537</v>
+        <v>557</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>538</v>
+        <v>558</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="8" t="s">
-        <v>539</v>
+        <v>559</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>540</v>
+        <v>560</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>541</v>
+        <v>561</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>542</v>
+        <v>562</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>543</v>
+        <v>563</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>544</v>
+        <v>564</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>545</v>
+        <v>565</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>546</v>
+        <v>566</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="8" t="s">
-        <v>547</v>
+        <v>567</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>548</v>
+        <v>568</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>549</v>
+        <v>569</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>550</v>
+        <v>570</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>551</v>
+        <v>571</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>552</v>
+        <v>572</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>553</v>
+        <v>573</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>554</v>
+        <v>574</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="8" t="s">
-        <v>555</v>
+        <v>575</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>556</v>
+        <v>576</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>557</v>
+        <v>577</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>558</v>
+        <v>578</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>559</v>
+        <v>579</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>560</v>
+        <v>580</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>561</v>
+        <v>581</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>562</v>
+        <v>582</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="8" t="s">
-        <v>563</v>
+        <v>583</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>564</v>
+        <v>584</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>565</v>
+        <v>585</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>566</v>
+        <v>586</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>567</v>
+        <v>587</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>568</v>
+        <v>588</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>569</v>
+        <v>589</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>502</v>
+        <v>522</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="8" t="s">
-        <v>570</v>
+        <v>590</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>571</v>
+        <v>591</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>572</v>
+        <v>592</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>573</v>
+        <v>593</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>574</v>
+        <v>594</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>575</v>
+        <v>595</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>576</v>
+        <v>596</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>577</v>
+        <v>597</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="8" t="s">
-        <v>578</v>
+        <v>598</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>579</v>
+        <v>599</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>580</v>
+        <v>600</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>581</v>
+        <v>601</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>582</v>
+        <v>602</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>583</v>
+        <v>603</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>584</v>
+        <v>604</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>585</v>
+        <v>605</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="8" t="s">
-        <v>586</v>
+        <v>606</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>587</v>
+        <v>607</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>588</v>
+        <v>608</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>589</v>
+        <v>609</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>590</v>
+        <v>610</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>591</v>
+        <v>611</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>592</v>
+        <v>612</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>502</v>
+        <v>522</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="8" t="s">
-        <v>593</v>
+        <v>613</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>594</v>
+        <v>614</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>595</v>
+        <v>615</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>596</v>
+        <v>616</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>597</v>
+        <v>617</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>598</v>
+        <v>618</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>599</v>
+        <v>619</v>
       </c>
       <c r="H21" s="11" t="s">
-        <v>600</v>
+        <v>620</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="8" t="s">
-        <v>601</v>
+        <v>621</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>602</v>
+        <v>622</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>603</v>
+        <v>623</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>604</v>
+        <v>624</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>605</v>
+        <v>625</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>606</v>
+        <v>626</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>607</v>
+        <v>627</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>608</v>
+        <v>628</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="8" t="s">
-        <v>609</v>
+        <v>629</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>610</v>
+        <v>630</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>611</v>
+        <v>631</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>612</v>
+        <v>632</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>613</v>
+        <v>633</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>614</v>
+        <v>634</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>615</v>
+        <v>635</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>616</v>
+        <v>636</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="8" t="s">
-        <v>617</v>
+        <v>637</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>618</v>
+        <v>638</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>619</v>
+        <v>639</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>315</v>
+        <v>335</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>620</v>
+        <v>640</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>621</v>
+        <v>641</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>622</v>
+        <v>642</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>623</v>
+        <v>643</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="8" t="s">
-        <v>624</v>
+        <v>644</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>625</v>
+        <v>645</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>626</v>
+        <v>646</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>627</v>
+        <v>647</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>628</v>
+        <v>648</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>629</v>
+        <v>649</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>630</v>
+        <v>650</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="8" t="s">
-        <v>631</v>
+        <v>651</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>632</v>
+        <v>652</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>633</v>
+        <v>653</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>634</v>
+        <v>654</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>635</v>
+        <v>655</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>636</v>
+        <v>656</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>637</v>
+        <v>657</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>638</v>
+        <v>658</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="8" t="s">
-        <v>639</v>
+        <v>659</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>640</v>
+        <v>660</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>641</v>
+        <v>661</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>642</v>
+        <v>662</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>643</v>
+        <v>663</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>644</v>
+        <v>664</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>645</v>
+        <v>665</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>502</v>
+        <v>522</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="8" t="s">
-        <v>646</v>
+        <v>666</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>647</v>
+        <v>667</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>648</v>
+        <v>668</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>649</v>
+        <v>669</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>650</v>
+        <v>670</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>651</v>
+        <v>671</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>608</v>
+        <v>628</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="8" t="s">
-        <v>652</v>
+        <v>672</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>653</v>
+        <v>673</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>654</v>
+        <v>674</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>655</v>
+        <v>675</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>656</v>
+        <v>676</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>657</v>
+        <v>677</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>658</v>
+        <v>678</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>659</v>
+        <v>679</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="8" t="s">
-        <v>454</v>
+        <v>474</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>660</v>
+        <v>680</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>661</v>
+        <v>681</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>662</v>
+        <v>682</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>663</v>
+        <v>683</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>664</v>
+        <v>684</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>665</v>
+        <v>685</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>666</v>
+        <v>686</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="8" t="s">
-        <v>667</v>
+        <v>687</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>668</v>
+        <v>688</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>669</v>
+        <v>689</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>670</v>
+        <v>690</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>671</v>
+        <v>691</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>672</v>
+        <v>692</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>673</v>
+        <v>693</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>674</v>
+        <v>694</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="8" t="s">
-        <v>675</v>
+        <v>695</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>676</v>
+        <v>696</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>677</v>
+        <v>697</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>678</v>
+        <v>698</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>679</v>
+        <v>699</v>
       </c>
       <c r="F32" s="12" t="s">
-        <v>680</v>
+        <v>700</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>681</v>
+        <v>701</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>682</v>
+        <v>702</v>
       </c>
     </row>
   </sheetData>
@@ -9071,774 +9131,774 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>683</v>
+        <v>703</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>448</v>
+        <v>468</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>449</v>
+        <v>469</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>450</v>
+        <v>470</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>451</v>
+        <v>471</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>452</v>
+        <v>472</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>503</v>
+        <v>523</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>454</v>
+        <v>474</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>684</v>
+        <v>704</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>685</v>
+        <v>705</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>686</v>
+        <v>706</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>687</v>
+        <v>707</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>688</v>
+        <v>708</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>689</v>
+        <v>709</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>690</v>
+        <v>710</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>691</v>
+        <v>711</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>448</v>
+        <v>468</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>692</v>
+        <v>712</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>693</v>
+        <v>713</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>694</v>
+        <v>714</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>449</v>
+        <v>469</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>695</v>
+        <v>715</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>696</v>
+        <v>716</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>697</v>
+        <v>717</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>450</v>
+        <v>470</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>698</v>
+        <v>718</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>699</v>
+        <v>719</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>700</v>
+        <v>720</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>451</v>
+        <v>471</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>701</v>
+        <v>721</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>702</v>
+        <v>722</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>703</v>
+        <v>723</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>452</v>
+        <v>472</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>704</v>
+        <v>724</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>705</v>
+        <v>725</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>706</v>
+        <v>726</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>707</v>
+        <v>727</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>708</v>
+        <v>728</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>709</v>
+        <v>729</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>503</v>
+        <v>523</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>710</v>
+        <v>730</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>711</v>
+        <v>731</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>712</v>
+        <v>732</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>510</v>
+        <v>530</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>713</v>
+        <v>733</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>714</v>
+        <v>734</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>715</v>
+        <v>735</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>518</v>
+        <v>538</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>716</v>
+        <v>736</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>717</v>
+        <v>737</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>718</v>
+        <v>738</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>524</v>
+        <v>544</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>719</v>
+        <v>739</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>720</v>
+        <v>740</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>721</v>
+        <v>741</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>532</v>
+        <v>552</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>722</v>
+        <v>742</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>723</v>
+        <v>743</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>724</v>
+        <v>744</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>539</v>
+        <v>559</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>725</v>
+        <v>745</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>726</v>
+        <v>746</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>727</v>
+        <v>747</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>547</v>
+        <v>567</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>728</v>
+        <v>748</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>729</v>
+        <v>749</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>730</v>
+        <v>750</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>555</v>
+        <v>575</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>731</v>
+        <v>751</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>732</v>
+        <v>752</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>733</v>
+        <v>753</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>563</v>
+        <v>583</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>734</v>
+        <v>754</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>735</v>
+        <v>755</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>736</v>
+        <v>756</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>570</v>
+        <v>590</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>737</v>
+        <v>757</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>738</v>
+        <v>758</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>739</v>
+        <v>759</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>578</v>
+        <v>598</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>740</v>
+        <v>760</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>741</v>
+        <v>761</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>742</v>
+        <v>762</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>586</v>
+        <v>606</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>743</v>
+        <v>763</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>744</v>
+        <v>764</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>745</v>
+        <v>765</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>593</v>
+        <v>613</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>746</v>
+        <v>766</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>747</v>
+        <v>767</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>748</v>
+        <v>768</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>601</v>
+        <v>621</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>749</v>
+        <v>769</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>750</v>
+        <v>770</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>751</v>
+        <v>771</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>609</v>
+        <v>629</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>752</v>
+        <v>772</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>753</v>
+        <v>773</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>754</v>
+        <v>774</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>617</v>
+        <v>637</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>755</v>
+        <v>775</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>756</v>
+        <v>776</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>757</v>
+        <v>777</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>624</v>
+        <v>644</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>758</v>
+        <v>778</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>759</v>
+        <v>779</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>760</v>
+        <v>780</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>631</v>
+        <v>651</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>761</v>
+        <v>781</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>762</v>
+        <v>782</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>763</v>
+        <v>783</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>639</v>
+        <v>659</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>764</v>
+        <v>784</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>765</v>
+        <v>785</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>766</v>
+        <v>786</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>646</v>
+        <v>666</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>767</v>
+        <v>787</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>768</v>
+        <v>788</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>769</v>
+        <v>789</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>652</v>
+        <v>672</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>770</v>
+        <v>790</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>771</v>
+        <v>791</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>772</v>
+        <v>792</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>773</v>
+        <v>793</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>774</v>
+        <v>794</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>775</v>
+        <v>795</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>776</v>
+        <v>796</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>454</v>
+        <v>474</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>667</v>
+        <v>687</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>675</v>
+        <v>695</v>
       </c>
     </row>
   </sheetData>
@@ -9863,2754 +9923,2754 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>777</v>
+        <v>797</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>448</v>
+        <v>468</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>449</v>
+        <v>469</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>450</v>
+        <v>470</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>451</v>
+        <v>471</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>452</v>
+        <v>472</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>503</v>
+        <v>523</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>510</v>
+        <v>530</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>518</v>
+        <v>538</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>524</v>
+        <v>544</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>532</v>
+        <v>552</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>539</v>
+        <v>559</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>547</v>
+        <v>567</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>555</v>
+        <v>575</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>563</v>
+        <v>583</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>570</v>
+        <v>590</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>578</v>
+        <v>598</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>586</v>
+        <v>606</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>593</v>
+        <v>613</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>601</v>
+        <v>621</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>609</v>
+        <v>629</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>617</v>
+        <v>637</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>624</v>
+        <v>644</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>631</v>
+        <v>651</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>639</v>
+        <v>659</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>646</v>
+        <v>666</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>454</v>
+        <v>474</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>683</v>
+        <v>703</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>778</v>
+        <v>798</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>779</v>
+        <v>799</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>780</v>
+        <v>800</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>781</v>
+        <v>801</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>782</v>
+        <v>802</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>783</v>
+        <v>803</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>784</v>
+        <v>804</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>785</v>
+        <v>805</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>786</v>
+        <v>806</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>787</v>
+        <v>807</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>788</v>
+        <v>808</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>789</v>
+        <v>809</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>790</v>
+        <v>810</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>791</v>
+        <v>811</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>792</v>
+        <v>812</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>793</v>
+        <v>813</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>794</v>
+        <v>814</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>795</v>
+        <v>815</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>796</v>
+        <v>816</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>797</v>
+        <v>817</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>798</v>
+        <v>818</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>799</v>
+        <v>819</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>800</v>
+        <v>820</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>801</v>
+        <v>821</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>802</v>
+        <v>822</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>803</v>
+        <v>823</v>
       </c>
       <c r="AB2" s="13" t="s">
-        <v>804</v>
+        <v>824</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>448</v>
+        <v>468</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>805</v>
+        <v>825</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>806</v>
+        <v>826</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>807</v>
+        <v>827</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>808</v>
+        <v>828</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>809</v>
+        <v>829</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>810</v>
+        <v>830</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>811</v>
+        <v>831</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>812</v>
+        <v>832</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>543</v>
+        <v>563</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>813</v>
+        <v>833</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>814</v>
+        <v>834</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>815</v>
+        <v>835</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>816</v>
+        <v>836</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>525</v>
+        <v>545</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>619</v>
+        <v>639</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>817</v>
+        <v>837</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>818</v>
+        <v>838</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>819</v>
+        <v>839</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>820</v>
+        <v>840</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>821</v>
+        <v>841</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>822</v>
+        <v>842</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>823</v>
+        <v>843</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>824</v>
+        <v>844</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>565</v>
+        <v>585</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>825</v>
+        <v>845</v>
       </c>
       <c r="AA3" s="5" t="s">
-        <v>654</v>
+        <v>674</v>
       </c>
       <c r="AB3" s="13" t="s">
-        <v>826</v>
+        <v>846</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>449</v>
+        <v>469</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>827</v>
+        <v>847</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>828</v>
+        <v>848</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>829</v>
+        <v>849</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>830</v>
+        <v>850</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>831</v>
+        <v>851</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>508</v>
+        <v>528</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>832</v>
+        <v>852</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>833</v>
+        <v>853</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>575</v>
+        <v>595</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>834</v>
+        <v>854</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>835</v>
+        <v>855</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>836</v>
+        <v>856</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>837</v>
+        <v>857</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>838</v>
+        <v>858</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>839</v>
+        <v>859</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>840</v>
+        <v>860</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>559</v>
+        <v>579</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>841</v>
+        <v>861</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>842</v>
+        <v>862</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>843</v>
+        <v>863</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>844</v>
+        <v>864</v>
       </c>
       <c r="W4" s="5" t="s">
-        <v>845</v>
+        <v>865</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>846</v>
+        <v>866</v>
       </c>
       <c r="Y4" s="5" t="s">
-        <v>847</v>
+        <v>867</v>
       </c>
       <c r="Z4" s="5" t="s">
-        <v>848</v>
+        <v>868</v>
       </c>
       <c r="AA4" s="5" t="s">
-        <v>849</v>
+        <v>869</v>
       </c>
       <c r="AB4" s="13" t="s">
-        <v>850</v>
+        <v>870</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>450</v>
+        <v>470</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>851</v>
+        <v>871</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>852</v>
+        <v>872</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>853</v>
+        <v>873</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>854</v>
+        <v>874</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>855</v>
+        <v>875</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>856</v>
+        <v>876</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>627</v>
+        <v>647</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>857</v>
+        <v>877</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>858</v>
+        <v>878</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>859</v>
+        <v>879</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>637</v>
+        <v>657</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>466</v>
+        <v>486</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>860</v>
+        <v>880</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>861</v>
+        <v>881</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>862</v>
+        <v>882</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>863</v>
+        <v>883</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>864</v>
+        <v>884</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>865</v>
+        <v>885</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>866</v>
+        <v>886</v>
       </c>
       <c r="U5" s="5" t="s">
-        <v>867</v>
+        <v>887</v>
       </c>
       <c r="V5" s="5" t="s">
-        <v>484</v>
+        <v>504</v>
       </c>
       <c r="W5" s="5" t="s">
-        <v>868</v>
+        <v>888</v>
       </c>
       <c r="X5" s="5" t="s">
-        <v>869</v>
+        <v>889</v>
       </c>
       <c r="Y5" s="5" t="s">
-        <v>870</v>
+        <v>890</v>
       </c>
       <c r="Z5" s="5" t="s">
-        <v>871</v>
+        <v>891</v>
       </c>
       <c r="AA5" s="5" t="s">
-        <v>872</v>
+        <v>892</v>
       </c>
       <c r="AB5" s="13" t="s">
-        <v>873</v>
+        <v>893</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>451</v>
+        <v>471</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>874</v>
+        <v>894</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>875</v>
+        <v>895</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>876</v>
+        <v>896</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>877</v>
+        <v>897</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>878</v>
+        <v>898</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>879</v>
+        <v>899</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>880</v>
+        <v>900</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>881</v>
+        <v>901</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>882</v>
+        <v>902</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>883</v>
+        <v>903</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>884</v>
+        <v>904</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>885</v>
+        <v>905</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>886</v>
+        <v>906</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>556</v>
+        <v>576</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>887</v>
+        <v>907</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>888</v>
+        <v>908</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>889</v>
+        <v>909</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>890</v>
+        <v>910</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>891</v>
+        <v>911</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>892</v>
+        <v>912</v>
       </c>
       <c r="V6" s="5" t="s">
-        <v>893</v>
+        <v>913</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>894</v>
+        <v>914</v>
       </c>
       <c r="X6" s="5" t="s">
-        <v>895</v>
+        <v>915</v>
       </c>
       <c r="Y6" s="5" t="s">
-        <v>896</v>
+        <v>916</v>
       </c>
       <c r="Z6" s="5" t="s">
-        <v>897</v>
+        <v>917</v>
       </c>
       <c r="AA6" s="5" t="s">
-        <v>561</v>
+        <v>581</v>
       </c>
       <c r="AB6" s="13" t="s">
-        <v>898</v>
+        <v>918</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>452</v>
+        <v>472</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>899</v>
+        <v>919</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>900</v>
+        <v>920</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>901</v>
+        <v>921</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>902</v>
+        <v>922</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>903</v>
+        <v>923</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>904</v>
+        <v>924</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>618</v>
+        <v>638</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>905</v>
+        <v>925</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>906</v>
+        <v>926</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>537</v>
+        <v>557</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>907</v>
+        <v>927</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>529</v>
+        <v>549</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>644</v>
+        <v>664</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>908</v>
+        <v>928</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>909</v>
+        <v>929</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>648</v>
+        <v>668</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>910</v>
+        <v>930</v>
       </c>
       <c r="S7" s="5" t="s">
-        <v>911</v>
+        <v>931</v>
       </c>
       <c r="T7" s="5" t="s">
-        <v>481</v>
+        <v>501</v>
       </c>
       <c r="U7" s="5" t="s">
-        <v>912</v>
+        <v>932</v>
       </c>
       <c r="V7" s="5" t="s">
-        <v>913</v>
+        <v>933</v>
       </c>
       <c r="W7" s="5" t="s">
-        <v>914</v>
+        <v>934</v>
       </c>
       <c r="X7" s="5" t="s">
-        <v>475</v>
+        <v>495</v>
       </c>
       <c r="Y7" s="5" t="s">
-        <v>915</v>
+        <v>935</v>
       </c>
       <c r="Z7" s="5" t="s">
-        <v>916</v>
+        <v>936</v>
       </c>
       <c r="AA7" s="5" t="s">
-        <v>917</v>
+        <v>937</v>
       </c>
       <c r="AB7" s="13" t="s">
-        <v>918</v>
+        <v>938</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>919</v>
+        <v>939</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>920</v>
+        <v>940</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>921</v>
+        <v>941</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>922</v>
+        <v>942</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>923</v>
+        <v>943</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>924</v>
+        <v>944</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>925</v>
+        <v>945</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>926</v>
+        <v>946</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>927</v>
+        <v>947</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>522</v>
+        <v>542</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>928</v>
+        <v>948</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>929</v>
+        <v>949</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>594</v>
+        <v>614</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>930</v>
+        <v>950</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>931</v>
+        <v>951</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>932</v>
+        <v>952</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>933</v>
+        <v>953</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>934</v>
+        <v>954</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>935</v>
+        <v>955</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>936</v>
+        <v>956</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>937</v>
+        <v>957</v>
       </c>
       <c r="X8" s="5" t="s">
-        <v>938</v>
+        <v>958</v>
       </c>
       <c r="Y8" s="5" t="s">
-        <v>939</v>
+        <v>959</v>
       </c>
       <c r="Z8" s="5" t="s">
-        <v>940</v>
+        <v>960</v>
       </c>
       <c r="AA8" s="5" t="s">
-        <v>941</v>
+        <v>961</v>
       </c>
       <c r="AB8" s="13" t="s">
-        <v>942</v>
+        <v>962</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>503</v>
+        <v>523</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>943</v>
+        <v>963</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>944</v>
+        <v>964</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>945</v>
+        <v>965</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>946</v>
+        <v>966</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>947</v>
+        <v>967</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>948</v>
+        <v>968</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>950</v>
+        <v>970</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>951</v>
+        <v>971</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>952</v>
+        <v>972</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>953</v>
+        <v>973</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>954</v>
+        <v>974</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>955</v>
+        <v>975</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>956</v>
+        <v>976</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>957</v>
+        <v>977</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>528</v>
+        <v>548</v>
       </c>
       <c r="R9" s="5" t="s">
-        <v>958</v>
+        <v>978</v>
       </c>
       <c r="S9" s="5" t="s">
-        <v>959</v>
+        <v>979</v>
       </c>
       <c r="T9" s="5" t="s">
-        <v>960</v>
+        <v>980</v>
       </c>
       <c r="U9" s="5" t="s">
-        <v>961</v>
+        <v>981</v>
       </c>
       <c r="V9" s="5" t="s">
-        <v>962</v>
+        <v>982</v>
       </c>
       <c r="W9" s="5" t="s">
-        <v>963</v>
+        <v>983</v>
       </c>
       <c r="X9" s="5" t="s">
-        <v>964</v>
+        <v>984</v>
       </c>
       <c r="Y9" s="5" t="s">
-        <v>965</v>
+        <v>985</v>
       </c>
       <c r="Z9" s="5" t="s">
-        <v>966</v>
+        <v>986</v>
       </c>
       <c r="AA9" s="5" t="s">
-        <v>967</v>
+        <v>987</v>
       </c>
       <c r="AB9" s="13" t="s">
-        <v>968</v>
+        <v>988</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>510</v>
+        <v>530</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>969</v>
+        <v>989</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>970</v>
+        <v>990</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>971</v>
+        <v>991</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>972</v>
+        <v>992</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>973</v>
+        <v>993</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>974</v>
+        <v>994</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>975</v>
+        <v>995</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>976</v>
+        <v>996</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>977</v>
+        <v>997</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>978</v>
+        <v>998</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>979</v>
+        <v>999</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>981</v>
+        <v>1001</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>982</v>
+        <v>1002</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>983</v>
+        <v>1003</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>984</v>
+        <v>1004</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>985</v>
+        <v>1005</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>986</v>
+        <v>1006</v>
       </c>
       <c r="T10" s="5" t="s">
-        <v>606</v>
+        <v>626</v>
       </c>
       <c r="U10" s="5" t="s">
-        <v>987</v>
+        <v>1007</v>
       </c>
       <c r="V10" s="5" t="s">
-        <v>988</v>
+        <v>1008</v>
       </c>
       <c r="W10" s="5" t="s">
-        <v>989</v>
+        <v>1009</v>
       </c>
       <c r="X10" s="5" t="s">
-        <v>990</v>
+        <v>1010</v>
       </c>
       <c r="Y10" s="5" t="s">
-        <v>991</v>
+        <v>1011</v>
       </c>
       <c r="Z10" s="5" t="s">
-        <v>992</v>
+        <v>1012</v>
       </c>
       <c r="AA10" s="5" t="s">
-        <v>993</v>
+        <v>1013</v>
       </c>
       <c r="AB10" s="13" t="s">
-        <v>826</v>
+        <v>846</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>518</v>
+        <v>538</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>994</v>
+        <v>1014</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>995</v>
+        <v>1015</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>996</v>
+        <v>1016</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>997</v>
+        <v>1017</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>998</v>
+        <v>1018</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>999</v>
+        <v>1019</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>1000</v>
+        <v>1020</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>1001</v>
+        <v>1021</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>1002</v>
+        <v>1022</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>1003</v>
+        <v>1023</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>605</v>
+        <v>625</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>1004</v>
+        <v>1024</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>1005</v>
+        <v>1025</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>1006</v>
+        <v>1026</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>1007</v>
+        <v>1027</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>1008</v>
+        <v>1028</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>1009</v>
+        <v>1029</v>
       </c>
       <c r="S11" s="5" t="s">
-        <v>1010</v>
+        <v>1030</v>
       </c>
       <c r="T11" s="5" t="s">
-        <v>1011</v>
+        <v>1031</v>
       </c>
       <c r="U11" s="5" t="s">
-        <v>1012</v>
+        <v>1032</v>
       </c>
       <c r="V11" s="5" t="s">
-        <v>1013</v>
+        <v>1033</v>
       </c>
       <c r="W11" s="5" t="s">
-        <v>1014</v>
+        <v>1034</v>
       </c>
       <c r="X11" s="5" t="s">
-        <v>1015</v>
+        <v>1035</v>
       </c>
       <c r="Y11" s="5" t="s">
-        <v>1016</v>
+        <v>1036</v>
       </c>
       <c r="Z11" s="5" t="s">
-        <v>1017</v>
+        <v>1037</v>
       </c>
       <c r="AA11" s="5" t="s">
-        <v>1018</v>
+        <v>1038</v>
       </c>
       <c r="AB11" s="13" t="s">
-        <v>850</v>
+        <v>870</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>524</v>
+        <v>544</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1019</v>
+        <v>1039</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>1020</v>
+        <v>1040</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>1021</v>
+        <v>1041</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>1022</v>
+        <v>1042</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>1023</v>
+        <v>1043</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>1024</v>
+        <v>1044</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>1025</v>
+        <v>1045</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>1026</v>
+        <v>1046</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>1027</v>
+        <v>1047</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>645</v>
+        <v>665</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>1028</v>
+        <v>1048</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>1029</v>
+        <v>1049</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>493</v>
+        <v>513</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>1030</v>
+        <v>1050</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>1031</v>
+        <v>1051</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>651</v>
+        <v>671</v>
       </c>
       <c r="R12" s="5" t="s">
-        <v>1032</v>
+        <v>1052</v>
       </c>
       <c r="S12" s="5" t="s">
-        <v>1033</v>
+        <v>1053</v>
       </c>
       <c r="T12" s="5" t="s">
-        <v>1034</v>
+        <v>1054</v>
       </c>
       <c r="U12" s="5" t="s">
-        <v>1035</v>
+        <v>1055</v>
       </c>
       <c r="V12" s="5" t="s">
-        <v>1036</v>
+        <v>1056</v>
       </c>
       <c r="W12" s="5" t="s">
-        <v>1037</v>
+        <v>1057</v>
       </c>
       <c r="X12" s="5" t="s">
-        <v>1038</v>
+        <v>1058</v>
       </c>
       <c r="Y12" s="5" t="s">
-        <v>1039</v>
+        <v>1059</v>
       </c>
       <c r="Z12" s="5" t="s">
-        <v>1040</v>
+        <v>1060</v>
       </c>
       <c r="AA12" s="5" t="s">
-        <v>1041</v>
+        <v>1061</v>
       </c>
       <c r="AB12" s="13" t="s">
-        <v>1042</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>532</v>
+        <v>552</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1043</v>
+        <v>1063</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>1044</v>
+        <v>1064</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>1045</v>
+        <v>1065</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>1046</v>
+        <v>1066</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>1047</v>
+        <v>1067</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>1048</v>
+        <v>1068</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>1049</v>
+        <v>1069</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>1050</v>
+        <v>1070</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>1051</v>
+        <v>1071</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>567</v>
+        <v>587</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>1052</v>
+        <v>1072</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>1053</v>
+        <v>1073</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>1054</v>
+        <v>1074</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>1055</v>
+        <v>1075</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>1056</v>
+        <v>1076</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>1057</v>
+        <v>1077</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>1058</v>
+        <v>1078</v>
       </c>
       <c r="S13" s="5" t="s">
-        <v>511</v>
+        <v>531</v>
       </c>
       <c r="T13" s="5" t="s">
-        <v>1059</v>
+        <v>1079</v>
       </c>
       <c r="U13" s="5" t="s">
-        <v>1060</v>
+        <v>1080</v>
       </c>
       <c r="V13" s="5" t="s">
-        <v>1061</v>
+        <v>1081</v>
       </c>
       <c r="W13" s="5" t="s">
-        <v>1062</v>
+        <v>1082</v>
       </c>
       <c r="X13" s="5" t="s">
-        <v>1063</v>
+        <v>1083</v>
       </c>
       <c r="Y13" s="5" t="s">
-        <v>1064</v>
+        <v>1084</v>
       </c>
       <c r="Z13" s="5" t="s">
-        <v>1065</v>
+        <v>1085</v>
       </c>
       <c r="AA13" s="5" t="s">
-        <v>1066</v>
+        <v>1086</v>
       </c>
       <c r="AB13" s="13" t="s">
-        <v>1067</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>539</v>
+        <v>559</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1068</v>
+        <v>1088</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>1069</v>
+        <v>1089</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>1070</v>
+        <v>1090</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>1071</v>
+        <v>1091</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>1072</v>
+        <v>1092</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>1073</v>
+        <v>1093</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>1074</v>
+        <v>1094</v>
       </c>
       <c r="I14" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>1095</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>1096</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>1097</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>1098</v>
+      </c>
+      <c r="O14" s="5" t="s">
         <v>584</v>
       </c>
-      <c r="J14" s="5" t="s">
-        <v>640</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>1075</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>1076</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>1077</v>
-      </c>
-      <c r="N14" s="5" t="s">
-        <v>1078</v>
-      </c>
-      <c r="O14" s="5" t="s">
-        <v>564</v>
-      </c>
       <c r="P14" s="5" t="s">
-        <v>647</v>
+        <v>667</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>1079</v>
+        <v>1099</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>1080</v>
+        <v>1100</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>1081</v>
+        <v>1101</v>
       </c>
       <c r="T14" s="5" t="s">
-        <v>1082</v>
+        <v>1102</v>
       </c>
       <c r="U14" s="5" t="s">
-        <v>1083</v>
+        <v>1103</v>
       </c>
       <c r="V14" s="5" t="s">
-        <v>1084</v>
+        <v>1104</v>
       </c>
       <c r="W14" s="5" t="s">
-        <v>1085</v>
+        <v>1105</v>
       </c>
       <c r="X14" s="5" t="s">
-        <v>1086</v>
+        <v>1106</v>
       </c>
       <c r="Y14" s="5" t="s">
-        <v>1087</v>
+        <v>1107</v>
       </c>
       <c r="Z14" s="5" t="s">
-        <v>1088</v>
+        <v>1108</v>
       </c>
       <c r="AA14" s="5" t="s">
-        <v>1089</v>
+        <v>1109</v>
       </c>
       <c r="AB14" s="13" t="s">
-        <v>661</v>
+        <v>681</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>547</v>
+        <v>567</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>1090</v>
+        <v>1110</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>1091</v>
+        <v>1111</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>1092</v>
+        <v>1112</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>1093</v>
+        <v>1113</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>468</v>
+        <v>488</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>1094</v>
+        <v>1114</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>1095</v>
+        <v>1115</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>488</v>
+        <v>508</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>1096</v>
+        <v>1116</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>583</v>
+        <v>603</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>1097</v>
+        <v>1117</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>1098</v>
+        <v>1118</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>588</v>
+        <v>608</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>1099</v>
+        <v>1119</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>560</v>
+        <v>580</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>1100</v>
+        <v>1120</v>
       </c>
       <c r="R15" s="5" t="s">
-        <v>1101</v>
+        <v>1121</v>
       </c>
       <c r="S15" s="5" t="s">
-        <v>497</v>
+        <v>517</v>
       </c>
       <c r="T15" s="5" t="s">
-        <v>1102</v>
+        <v>1122</v>
       </c>
       <c r="U15" s="5" t="s">
-        <v>1103</v>
+        <v>1123</v>
       </c>
       <c r="V15" s="5" t="s">
-        <v>1104</v>
+        <v>1124</v>
       </c>
       <c r="W15" s="5" t="s">
-        <v>1105</v>
+        <v>1125</v>
       </c>
       <c r="X15" s="5" t="s">
-        <v>1106</v>
+        <v>1126</v>
       </c>
       <c r="Y15" s="5" t="s">
-        <v>1107</v>
+        <v>1127</v>
       </c>
       <c r="Z15" s="5" t="s">
-        <v>1108</v>
+        <v>1128</v>
       </c>
       <c r="AA15" s="5" t="s">
-        <v>572</v>
+        <v>592</v>
       </c>
       <c r="AB15" s="13" t="s">
-        <v>1109</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>555</v>
+        <v>575</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>1110</v>
+        <v>1130</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>1111</v>
+        <v>1131</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>1112</v>
+        <v>1132</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>1113</v>
+        <v>1133</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>1114</v>
+        <v>1134</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>1115</v>
+        <v>1135</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>1116</v>
+        <v>1136</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>1117</v>
+        <v>1137</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>1118</v>
+        <v>1138</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>1119</v>
+        <v>1139</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>1120</v>
+        <v>1140</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>1121</v>
+        <v>1141</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>1122</v>
+        <v>1142</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>501</v>
+        <v>521</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>1123</v>
+        <v>1143</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>1124</v>
+        <v>1144</v>
       </c>
       <c r="R16" s="5" t="s">
-        <v>1125</v>
+        <v>1145</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>1126</v>
+        <v>1146</v>
       </c>
       <c r="T16" s="5" t="s">
-        <v>1127</v>
+        <v>1147</v>
       </c>
       <c r="U16" s="5" t="s">
-        <v>1128</v>
+        <v>1148</v>
       </c>
       <c r="V16" s="5" t="s">
-        <v>1129</v>
+        <v>1149</v>
       </c>
       <c r="W16" s="5" t="s">
-        <v>1130</v>
+        <v>1150</v>
       </c>
       <c r="X16" s="5" t="s">
-        <v>1131</v>
+        <v>1151</v>
       </c>
       <c r="Y16" s="5" t="s">
-        <v>1132</v>
+        <v>1152</v>
       </c>
       <c r="Z16" s="5" t="s">
-        <v>1133</v>
+        <v>1153</v>
       </c>
       <c r="AA16" s="5" t="s">
-        <v>1134</v>
+        <v>1154</v>
       </c>
       <c r="AB16" s="13" t="s">
-        <v>668</v>
+        <v>688</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>563</v>
+        <v>583</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1135</v>
+        <v>1155</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>1136</v>
+        <v>1156</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>1137</v>
+        <v>1157</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>1138</v>
+        <v>1158</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>1139</v>
+        <v>1159</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>1140</v>
+        <v>1160</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>1141</v>
+        <v>1161</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>1142</v>
+        <v>1162</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>552</v>
+        <v>572</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>607</v>
+        <v>627</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>1143</v>
+        <v>1163</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>1144</v>
+        <v>1164</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>1145</v>
+        <v>1165</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>1146</v>
+        <v>1166</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>1147</v>
+        <v>1167</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>1148</v>
+        <v>1168</v>
       </c>
       <c r="R17" s="5" t="s">
-        <v>643</v>
+        <v>663</v>
       </c>
       <c r="S17" s="5" t="s">
-        <v>1149</v>
+        <v>1169</v>
       </c>
       <c r="T17" s="5" t="s">
-        <v>1150</v>
+        <v>1170</v>
       </c>
       <c r="U17" s="5" t="s">
-        <v>1151</v>
+        <v>1171</v>
       </c>
       <c r="V17" s="5" t="s">
-        <v>1152</v>
+        <v>1172</v>
       </c>
       <c r="W17" s="5" t="s">
-        <v>1153</v>
+        <v>1173</v>
       </c>
       <c r="X17" s="5" t="s">
-        <v>1154</v>
+        <v>1174</v>
       </c>
       <c r="Y17" s="5" t="s">
-        <v>622</v>
+        <v>642</v>
       </c>
       <c r="Z17" s="5" t="s">
-        <v>1155</v>
+        <v>1175</v>
       </c>
       <c r="AA17" s="5" t="s">
-        <v>1156</v>
+        <v>1176</v>
       </c>
       <c r="AB17" s="13" t="s">
-        <v>670</v>
+        <v>690</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>570</v>
+        <v>590</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>1157</v>
+        <v>1177</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>1158</v>
+        <v>1178</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>1159</v>
+        <v>1179</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>1160</v>
+        <v>1180</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>599</v>
+        <v>619</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>536</v>
+        <v>556</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>1161</v>
+        <v>1181</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>1162</v>
+        <v>1182</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>1163</v>
+        <v>1183</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>1164</v>
+        <v>1184</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>1165</v>
+        <v>1185</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>540</v>
+        <v>560</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>1166</v>
+        <v>1186</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>1167</v>
+        <v>1187</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>1168</v>
+        <v>1188</v>
       </c>
       <c r="Q18" s="5" t="s">
-        <v>1169</v>
+        <v>1189</v>
       </c>
       <c r="R18" s="5" t="s">
-        <v>1170</v>
+        <v>1190</v>
       </c>
       <c r="S18" s="5" t="s">
-        <v>611</v>
+        <v>631</v>
       </c>
       <c r="T18" s="5" t="s">
-        <v>1171</v>
+        <v>1191</v>
       </c>
       <c r="U18" s="5" t="s">
-        <v>1172</v>
+        <v>1192</v>
       </c>
       <c r="V18" s="5" t="s">
-        <v>1173</v>
+        <v>1193</v>
       </c>
       <c r="W18" s="5" t="s">
-        <v>1174</v>
+        <v>1194</v>
       </c>
       <c r="X18" s="5" t="s">
-        <v>1175</v>
+        <v>1195</v>
       </c>
       <c r="Y18" s="5" t="s">
-        <v>1176</v>
+        <v>1196</v>
       </c>
       <c r="Z18" s="5" t="s">
-        <v>1177</v>
+        <v>1197</v>
       </c>
       <c r="AA18" s="5" t="s">
-        <v>1178</v>
+        <v>1198</v>
       </c>
       <c r="AB18" s="13" t="s">
-        <v>918</v>
+        <v>938</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>578</v>
+        <v>598</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>1179</v>
+        <v>1199</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>1180</v>
+        <v>1200</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>1181</v>
+        <v>1201</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>1182</v>
+        <v>1202</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>1183</v>
+        <v>1203</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>1184</v>
+        <v>1204</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>1185</v>
+        <v>1205</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>571</v>
+        <v>591</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>1186</v>
+        <v>1206</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>553</v>
+        <v>573</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>519</v>
+        <v>539</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>1187</v>
+        <v>1207</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>545</v>
+        <v>565</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>1188</v>
+        <v>1208</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>1189</v>
+        <v>1209</v>
       </c>
       <c r="Q19" s="5" t="s">
-        <v>1190</v>
+        <v>1210</v>
       </c>
       <c r="R19" s="5" t="s">
-        <v>1191</v>
+        <v>1211</v>
       </c>
       <c r="S19" s="5" t="s">
-        <v>1192</v>
+        <v>1212</v>
       </c>
       <c r="T19" s="5" t="s">
-        <v>1193</v>
+        <v>1213</v>
       </c>
       <c r="U19" s="5" t="s">
-        <v>1194</v>
+        <v>1214</v>
       </c>
       <c r="V19" s="5" t="s">
-        <v>1195</v>
+        <v>1215</v>
       </c>
       <c r="W19" s="5" t="s">
-        <v>1196</v>
+        <v>1216</v>
       </c>
       <c r="X19" s="5" t="s">
-        <v>1197</v>
+        <v>1217</v>
       </c>
       <c r="Y19" s="5" t="s">
-        <v>1198</v>
+        <v>1218</v>
       </c>
       <c r="Z19" s="5" t="s">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="AA19" s="5" t="s">
-        <v>1200</v>
+        <v>1220</v>
       </c>
       <c r="AB19" s="13" t="s">
-        <v>1201</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>586</v>
+        <v>606</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1202</v>
+        <v>1222</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>1203</v>
+        <v>1223</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>1204</v>
+        <v>1224</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>1205</v>
+        <v>1225</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>1206</v>
+        <v>1226</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>1207</v>
+        <v>1227</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>1208</v>
+        <v>1228</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>1209</v>
+        <v>1229</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>650</v>
+        <v>670</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>505</v>
+        <v>525</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>1210</v>
+        <v>1230</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>1211</v>
+        <v>1231</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>1212</v>
+        <v>1232</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>1213</v>
+        <v>1233</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>1214</v>
+        <v>1234</v>
       </c>
       <c r="Q20" s="5" t="s">
-        <v>1215</v>
+        <v>1235</v>
       </c>
       <c r="R20" s="5" t="s">
-        <v>1216</v>
+        <v>1236</v>
       </c>
       <c r="S20" s="5" t="s">
-        <v>1217</v>
+        <v>1237</v>
       </c>
       <c r="T20" s="5" t="s">
-        <v>1218</v>
+        <v>1238</v>
       </c>
       <c r="U20" s="5" t="s">
-        <v>1219</v>
+        <v>1239</v>
       </c>
       <c r="V20" s="5" t="s">
-        <v>1220</v>
+        <v>1240</v>
       </c>
       <c r="W20" s="5" t="s">
-        <v>1221</v>
+        <v>1241</v>
       </c>
       <c r="X20" s="5" t="s">
-        <v>482</v>
+        <v>502</v>
       </c>
       <c r="Y20" s="5" t="s">
-        <v>1222</v>
+        <v>1242</v>
       </c>
       <c r="Z20" s="5" t="s">
-        <v>1223</v>
+        <v>1243</v>
       </c>
       <c r="AA20" s="5" t="s">
-        <v>1224</v>
+        <v>1244</v>
       </c>
       <c r="AB20" s="13" t="s">
-        <v>1225</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>593</v>
+        <v>613</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>1226</v>
+        <v>1246</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>1227</v>
+        <v>1247</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>1228</v>
+        <v>1248</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>1229</v>
+        <v>1249</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>1230</v>
+        <v>1250</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>626</v>
+        <v>646</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>1231</v>
+        <v>1251</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>1232</v>
+        <v>1252</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>1233</v>
+        <v>1253</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>1234</v>
+        <v>1254</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>1235</v>
+        <v>1255</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>656</v>
+        <v>676</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>1236</v>
+        <v>1256</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>1237</v>
+        <v>1257</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>1238</v>
+        <v>1258</v>
       </c>
       <c r="Q21" s="5" t="s">
-        <v>1239</v>
+        <v>1259</v>
       </c>
       <c r="R21" s="5" t="s">
-        <v>1240</v>
+        <v>1260</v>
       </c>
       <c r="S21" s="5" t="s">
-        <v>1241</v>
+        <v>1261</v>
       </c>
       <c r="T21" s="5" t="s">
-        <v>1242</v>
+        <v>1262</v>
       </c>
       <c r="U21" s="5" t="s">
-        <v>1243</v>
+        <v>1263</v>
       </c>
       <c r="V21" s="5" t="s">
-        <v>1244</v>
+        <v>1264</v>
       </c>
       <c r="W21" s="5" t="s">
-        <v>1245</v>
+        <v>1265</v>
       </c>
       <c r="X21" s="5" t="s">
-        <v>1246</v>
+        <v>1266</v>
       </c>
       <c r="Y21" s="5" t="s">
-        <v>1247</v>
+        <v>1267</v>
       </c>
       <c r="Z21" s="5" t="s">
-        <v>1248</v>
+        <v>1268</v>
       </c>
       <c r="AA21" s="5" t="s">
-        <v>456</v>
+        <v>476</v>
       </c>
       <c r="AB21" s="13" t="s">
-        <v>662</v>
+        <v>682</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>601</v>
+        <v>621</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>1249</v>
+        <v>1269</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>1250</v>
+        <v>1270</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>1251</v>
+        <v>1271</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>1252</v>
+        <v>1272</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>1253</v>
+        <v>1273</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>1254</v>
+        <v>1274</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>1255</v>
+        <v>1275</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>1256</v>
+        <v>1276</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>1257</v>
+        <v>1277</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>1258</v>
+        <v>1278</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>1259</v>
+        <v>1279</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>1260</v>
+        <v>1280</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>628</v>
+        <v>648</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>487</v>
+        <v>507</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>1261</v>
+        <v>1281</v>
       </c>
       <c r="Q22" s="5" t="s">
-        <v>1262</v>
+        <v>1282</v>
       </c>
       <c r="R22" s="5" t="s">
-        <v>1263</v>
+        <v>1283</v>
       </c>
       <c r="S22" s="5" t="s">
-        <v>1264</v>
+        <v>1284</v>
       </c>
       <c r="T22" s="5" t="s">
-        <v>1265</v>
+        <v>1285</v>
       </c>
       <c r="U22" s="5" t="s">
-        <v>1266</v>
+        <v>1286</v>
       </c>
       <c r="V22" s="5" t="s">
-        <v>1267</v>
+        <v>1287</v>
       </c>
       <c r="W22" s="5" t="s">
-        <v>1268</v>
+        <v>1288</v>
       </c>
       <c r="X22" s="5" t="s">
-        <v>1269</v>
+        <v>1289</v>
       </c>
       <c r="Y22" s="5" t="s">
-        <v>1270</v>
+        <v>1290</v>
       </c>
       <c r="Z22" s="5" t="s">
-        <v>633</v>
+        <v>653</v>
       </c>
       <c r="AA22" s="5" t="s">
-        <v>1271</v>
+        <v>1291</v>
       </c>
       <c r="AB22" s="13" t="s">
-        <v>1272</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>609</v>
+        <v>629</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>1273</v>
+        <v>1293</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>1274</v>
+        <v>1294</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>1275</v>
+        <v>1295</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>1276</v>
+        <v>1296</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>1277</v>
+        <v>1297</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>1278</v>
+        <v>1298</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>1279</v>
+        <v>1299</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>1280</v>
+        <v>1300</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>1281</v>
+        <v>1301</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>1282</v>
+        <v>1302</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>1283</v>
+        <v>1303</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>1284</v>
+        <v>1304</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>1285</v>
+        <v>1305</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>1286</v>
+        <v>1306</v>
       </c>
       <c r="P23" s="5" t="s">
-        <v>1287</v>
+        <v>1307</v>
       </c>
       <c r="Q23" s="5" t="s">
-        <v>1288</v>
+        <v>1308</v>
       </c>
       <c r="R23" s="5" t="s">
-        <v>1289</v>
+        <v>1309</v>
       </c>
       <c r="S23" s="5" t="s">
-        <v>1290</v>
+        <v>1310</v>
       </c>
       <c r="T23" s="5" t="s">
-        <v>1291</v>
+        <v>1311</v>
       </c>
       <c r="U23" s="5" t="s">
-        <v>1292</v>
+        <v>1312</v>
       </c>
       <c r="V23" s="5" t="s">
-        <v>635</v>
+        <v>655</v>
       </c>
       <c r="W23" s="5" t="s">
-        <v>1293</v>
+        <v>1313</v>
       </c>
       <c r="X23" s="5" t="s">
-        <v>1294</v>
+        <v>1314</v>
       </c>
       <c r="Y23" s="5" t="s">
-        <v>1295</v>
+        <v>1315</v>
       </c>
       <c r="Z23" s="5" t="s">
-        <v>1296</v>
+        <v>1316</v>
       </c>
       <c r="AA23" s="5" t="s">
-        <v>1297</v>
+        <v>1317</v>
       </c>
       <c r="AB23" s="13" t="s">
-        <v>1298</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>617</v>
+        <v>637</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>1299</v>
+        <v>1319</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>1300</v>
+        <v>1320</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>1301</v>
+        <v>1321</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>1302</v>
+        <v>1322</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>1303</v>
+        <v>1323</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>1304</v>
+        <v>1324</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>576</v>
+        <v>596</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>1305</v>
+        <v>1325</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>1306</v>
+        <v>1326</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>1307</v>
+        <v>1327</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>1308</v>
+        <v>1328</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>1309</v>
+        <v>1329</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>1310</v>
+        <v>1330</v>
       </c>
       <c r="O24" s="5" t="s">
-        <v>1311</v>
+        <v>1331</v>
       </c>
       <c r="P24" s="5" t="s">
-        <v>1312</v>
+        <v>1332</v>
       </c>
       <c r="Q24" s="5" t="s">
-        <v>1313</v>
+        <v>1333</v>
       </c>
       <c r="R24" s="5" t="s">
-        <v>1314</v>
+        <v>1334</v>
       </c>
       <c r="S24" s="5" t="s">
-        <v>1315</v>
+        <v>1335</v>
       </c>
       <c r="T24" s="5" t="s">
-        <v>1316</v>
+        <v>1336</v>
       </c>
       <c r="U24" s="5" t="s">
-        <v>1317</v>
+        <v>1337</v>
       </c>
       <c r="V24" s="5" t="s">
-        <v>1318</v>
+        <v>1338</v>
       </c>
       <c r="W24" s="5" t="s">
-        <v>1319</v>
+        <v>1339</v>
       </c>
       <c r="X24" s="5" t="s">
-        <v>1320</v>
+        <v>1340</v>
       </c>
       <c r="Y24" s="5" t="s">
-        <v>1321</v>
+        <v>1341</v>
       </c>
       <c r="Z24" s="5" t="s">
-        <v>1322</v>
+        <v>1342</v>
       </c>
       <c r="AA24" s="5" t="s">
-        <v>1323</v>
+        <v>1343</v>
       </c>
       <c r="AB24" s="13" t="s">
-        <v>1324</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>624</v>
+        <v>644</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>1325</v>
+        <v>1345</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>1326</v>
+        <v>1346</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>1327</v>
+        <v>1347</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>1328</v>
+        <v>1348</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>1329</v>
+        <v>1349</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>1330</v>
+        <v>1350</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>1331</v>
+        <v>1351</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>1332</v>
+        <v>1352</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>1333</v>
+        <v>1353</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>1334</v>
+        <v>1354</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>1335</v>
+        <v>1355</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>1336</v>
+        <v>1356</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>1337</v>
+        <v>1357</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>1338</v>
+        <v>1358</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>1339</v>
+        <v>1359</v>
       </c>
       <c r="Q25" s="5" t="s">
-        <v>569</v>
+        <v>589</v>
       </c>
       <c r="R25" s="5" t="s">
-        <v>1340</v>
+        <v>1360</v>
       </c>
       <c r="S25" s="5" t="s">
-        <v>1341</v>
+        <v>1361</v>
       </c>
       <c r="T25" s="5" t="s">
-        <v>521</v>
+        <v>541</v>
       </c>
       <c r="U25" s="5" t="s">
-        <v>1342</v>
+        <v>1362</v>
       </c>
       <c r="V25" s="5" t="s">
-        <v>1343</v>
+        <v>1363</v>
       </c>
       <c r="W25" s="5" t="s">
-        <v>1344</v>
+        <v>1364</v>
       </c>
       <c r="X25" s="5" t="s">
-        <v>1345</v>
+        <v>1365</v>
       </c>
       <c r="Y25" s="5" t="s">
-        <v>1346</v>
+        <v>1366</v>
       </c>
       <c r="Z25" s="5" t="s">
-        <v>1347</v>
+        <v>1367</v>
       </c>
       <c r="AA25" s="5" t="s">
-        <v>1348</v>
+        <v>1368</v>
       </c>
       <c r="AB25" s="13" t="s">
-        <v>968</v>
+        <v>988</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>631</v>
+        <v>651</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>1349</v>
+        <v>1369</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>1350</v>
+        <v>1370</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>1351</v>
+        <v>1371</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>1352</v>
+        <v>1372</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>1353</v>
+        <v>1373</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>1354</v>
+        <v>1374</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>1355</v>
+        <v>1375</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>1356</v>
+        <v>1376</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>1357</v>
+        <v>1377</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>1358</v>
+        <v>1378</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>1359</v>
+        <v>1379</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>492</v>
+        <v>512</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>1360</v>
+        <v>1380</v>
       </c>
       <c r="O26" s="5" t="s">
-        <v>614</v>
+        <v>634</v>
       </c>
       <c r="P26" s="5" t="s">
-        <v>1361</v>
+        <v>1381</v>
       </c>
       <c r="Q26" s="5" t="s">
-        <v>657</v>
+        <v>677</v>
       </c>
       <c r="R26" s="5" t="s">
-        <v>1362</v>
+        <v>1382</v>
       </c>
       <c r="S26" s="5" t="s">
-        <v>1363</v>
+        <v>1383</v>
       </c>
       <c r="T26" s="5" t="s">
-        <v>1364</v>
+        <v>1384</v>
       </c>
       <c r="U26" s="5" t="s">
-        <v>1365</v>
+        <v>1385</v>
       </c>
       <c r="V26" s="5" t="s">
-        <v>1366</v>
+        <v>1386</v>
       </c>
       <c r="W26" s="5" t="s">
-        <v>1367</v>
+        <v>1387</v>
       </c>
       <c r="X26" s="5" t="s">
-        <v>1368</v>
+        <v>1388</v>
       </c>
       <c r="Y26" s="5" t="s">
-        <v>1369</v>
+        <v>1389</v>
       </c>
       <c r="Z26" s="5" t="s">
-        <v>1370</v>
+        <v>1390</v>
       </c>
       <c r="AA26" s="5" t="s">
-        <v>1371</v>
+        <v>1391</v>
       </c>
       <c r="AB26" s="13" t="s">
-        <v>1372</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>639</v>
+        <v>659</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>1373</v>
+        <v>1393</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>1374</v>
+        <v>1394</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>1375</v>
+        <v>1395</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>1376</v>
+        <v>1396</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>1377</v>
+        <v>1397</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>1378</v>
+        <v>1398</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>1379</v>
+        <v>1399</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>1380</v>
+        <v>1400</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>1381</v>
+        <v>1401</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>1382</v>
+        <v>1402</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>1383</v>
+        <v>1403</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>1384</v>
+        <v>1404</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>1385</v>
+        <v>1405</v>
       </c>
       <c r="O27" s="5" t="s">
-        <v>1386</v>
+        <v>1406</v>
       </c>
       <c r="P27" s="5" t="s">
-        <v>1387</v>
+        <v>1407</v>
       </c>
       <c r="Q27" s="5" t="s">
-        <v>1388</v>
+        <v>1408</v>
       </c>
       <c r="R27" s="5" t="s">
-        <v>1389</v>
+        <v>1409</v>
       </c>
       <c r="S27" s="5" t="s">
-        <v>1390</v>
+        <v>1410</v>
       </c>
       <c r="T27" s="5" t="s">
-        <v>1391</v>
+        <v>1411</v>
       </c>
       <c r="U27" s="5" t="s">
-        <v>1392</v>
+        <v>1412</v>
       </c>
       <c r="V27" s="5" t="s">
-        <v>470</v>
+        <v>490</v>
       </c>
       <c r="W27" s="5" t="s">
-        <v>1393</v>
+        <v>1413</v>
       </c>
       <c r="X27" s="5" t="s">
-        <v>1394</v>
+        <v>1414</v>
       </c>
       <c r="Y27" s="5" t="s">
-        <v>1395</v>
+        <v>1415</v>
       </c>
       <c r="Z27" s="5" t="s">
-        <v>1396</v>
+        <v>1416</v>
       </c>
       <c r="AA27" s="5" t="s">
-        <v>1397</v>
+        <v>1417</v>
       </c>
       <c r="AB27" s="13" t="s">
-        <v>1398</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>646</v>
+        <v>666</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>1399</v>
+        <v>1419</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>1400</v>
+        <v>1420</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>1401</v>
+        <v>1421</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>1402</v>
+        <v>1422</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>1403</v>
+        <v>1423</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>1404</v>
+        <v>1424</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>602</v>
+        <v>622</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>1405</v>
+        <v>1425</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>1406</v>
+        <v>1426</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>1407</v>
+        <v>1427</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>1408</v>
+        <v>1428</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>1409</v>
+        <v>1429</v>
       </c>
       <c r="N28" s="5" t="s">
-        <v>1410</v>
+        <v>1430</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>1411</v>
+        <v>1431</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>1412</v>
+        <v>1432</v>
       </c>
       <c r="Q28" s="5" t="s">
-        <v>1413</v>
+        <v>1433</v>
       </c>
       <c r="R28" s="5" t="s">
-        <v>1414</v>
+        <v>1434</v>
       </c>
       <c r="S28" s="5" t="s">
-        <v>1415</v>
+        <v>1435</v>
       </c>
       <c r="T28" s="5" t="s">
-        <v>1416</v>
+        <v>1436</v>
       </c>
       <c r="U28" s="5" t="s">
-        <v>1417</v>
+        <v>1437</v>
       </c>
       <c r="V28" s="5" t="s">
-        <v>1418</v>
+        <v>1438</v>
       </c>
       <c r="W28" s="5" t="s">
-        <v>1419</v>
+        <v>1439</v>
       </c>
       <c r="X28" s="5" t="s">
-        <v>1420</v>
+        <v>1440</v>
       </c>
       <c r="Y28" s="5" t="s">
-        <v>1421</v>
+        <v>1441</v>
       </c>
       <c r="Z28" s="5" t="s">
-        <v>1422</v>
+        <v>1442</v>
       </c>
       <c r="AA28" s="5" t="s">
-        <v>1423</v>
+        <v>1443</v>
       </c>
       <c r="AB28" s="13" t="s">
-        <v>1424</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>652</v>
+        <v>672</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>1425</v>
+        <v>1445</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>1426</v>
+        <v>1446</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>1427</v>
+        <v>1447</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>1428</v>
+        <v>1448</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>1429</v>
+        <v>1449</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>1430</v>
+        <v>1450</v>
       </c>
       <c r="H29" s="14" t="s">
-        <v>1431</v>
+        <v>1451</v>
       </c>
       <c r="I29" s="14" t="s">
-        <v>1432</v>
+        <v>1452</v>
       </c>
       <c r="J29" s="14" t="s">
-        <v>1433</v>
+        <v>1453</v>
       </c>
       <c r="K29" s="14" t="s">
-        <v>1434</v>
+        <v>1454</v>
       </c>
       <c r="L29" s="14" t="s">
-        <v>1435</v>
+        <v>1455</v>
       </c>
       <c r="M29" s="14" t="s">
-        <v>1436</v>
+        <v>1456</v>
       </c>
       <c r="N29" s="14" t="s">
-        <v>1437</v>
+        <v>1457</v>
       </c>
       <c r="O29" s="14" t="s">
-        <v>1438</v>
+        <v>1458</v>
       </c>
       <c r="P29" s="14" t="s">
-        <v>1439</v>
+        <v>1459</v>
       </c>
       <c r="Q29" s="14" t="s">
-        <v>1440</v>
+        <v>1460</v>
       </c>
       <c r="R29" s="14" t="s">
-        <v>1441</v>
+        <v>1461</v>
       </c>
       <c r="S29" s="14" t="s">
-        <v>1442</v>
+        <v>1462</v>
       </c>
       <c r="T29" s="14" t="s">
-        <v>1443</v>
+        <v>1463</v>
       </c>
       <c r="U29" s="14" t="s">
-        <v>1444</v>
+        <v>1464</v>
       </c>
       <c r="V29" s="14" t="s">
-        <v>1445</v>
+        <v>1465</v>
       </c>
       <c r="W29" s="14" t="s">
-        <v>1446</v>
+        <v>1466</v>
       </c>
       <c r="X29" s="14" t="s">
-        <v>1211</v>
+        <v>1231</v>
       </c>
       <c r="Y29" s="14" t="s">
-        <v>1447</v>
+        <v>1467</v>
       </c>
       <c r="Z29" s="14" t="s">
-        <v>1448</v>
+        <v>1468</v>
       </c>
       <c r="AA29" s="14" t="s">
-        <v>1449</v>
+        <v>1469</v>
       </c>
       <c r="AB29" s="13" t="s">
-        <v>1450</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>454</v>
+        <v>474</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>1451</v>
+        <v>1471</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>1452</v>
+        <v>1472</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>1453</v>
+        <v>1473</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>1454</v>
+        <v>1474</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>1455</v>
+        <v>1475</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>1456</v>
+        <v>1476</v>
       </c>
       <c r="H30" s="14" t="s">
-        <v>1457</v>
+        <v>1477</v>
       </c>
       <c r="I30" s="14" t="s">
-        <v>1458</v>
+        <v>1478</v>
       </c>
       <c r="J30" s="14" t="s">
-        <v>1459</v>
+        <v>1479</v>
       </c>
       <c r="K30" s="14" t="s">
-        <v>1460</v>
+        <v>1480</v>
       </c>
       <c r="L30" s="14" t="s">
-        <v>1461</v>
+        <v>1481</v>
       </c>
       <c r="M30" s="14" t="s">
-        <v>1462</v>
+        <v>1482</v>
       </c>
       <c r="N30" s="14" t="s">
-        <v>1463</v>
+        <v>1483</v>
       </c>
       <c r="O30" s="14" t="s">
-        <v>1272</v>
+        <v>1292</v>
       </c>
       <c r="P30" s="14" t="s">
-        <v>1464</v>
+        <v>1484</v>
       </c>
       <c r="Q30" s="14" t="s">
-        <v>1465</v>
+        <v>1485</v>
       </c>
       <c r="R30" s="14" t="s">
-        <v>1466</v>
+        <v>1486</v>
       </c>
       <c r="S30" s="14" t="s">
-        <v>668</v>
+        <v>688</v>
       </c>
       <c r="T30" s="14" t="s">
-        <v>1467</v>
+        <v>1487</v>
       </c>
       <c r="U30" s="14" t="s">
-        <v>1468</v>
+        <v>1488</v>
       </c>
       <c r="V30" s="14" t="s">
-        <v>1469</v>
+        <v>1489</v>
       </c>
       <c r="W30" s="14" t="s">
-        <v>1470</v>
+        <v>1490</v>
       </c>
       <c r="X30" s="14" t="s">
-        <v>1471</v>
+        <v>1491</v>
       </c>
       <c r="Y30" s="14" t="s">
-        <v>1472</v>
+        <v>1492</v>
       </c>
       <c r="Z30" s="14" t="s">
-        <v>1473</v>
+        <v>1493</v>
       </c>
       <c r="AA30" s="14" t="s">
-        <v>1474</v>
+        <v>1494</v>
       </c>
       <c r="AB30" s="13" t="s">
-        <v>1475</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>667</v>
+        <v>687</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>826</v>
+        <v>846</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>1476</v>
+        <v>1496</v>
       </c>
       <c r="D31" s="14" t="s">
+        <v>1497</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>1498</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>1499</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>1500</v>
+      </c>
+      <c r="H31" s="14" t="s">
+        <v>1501</v>
+      </c>
+      <c r="I31" s="14" t="s">
         <v>1477</v>
       </c>
-      <c r="E31" s="14" t="s">
-        <v>1478</v>
-      </c>
-      <c r="F31" s="14" t="s">
-        <v>1479</v>
-      </c>
-      <c r="G31" s="14" t="s">
-        <v>1480</v>
-      </c>
-      <c r="H31" s="14" t="s">
-        <v>1481</v>
-      </c>
-      <c r="I31" s="14" t="s">
-        <v>1457</v>
-      </c>
       <c r="J31" s="14" t="s">
-        <v>668</v>
+        <v>688</v>
       </c>
       <c r="K31" s="14" t="s">
-        <v>1482</v>
+        <v>1502</v>
       </c>
       <c r="L31" s="14" t="s">
-        <v>1483</v>
+        <v>1503</v>
       </c>
       <c r="M31" s="14" t="s">
+        <v>1504</v>
+      </c>
+      <c r="N31" s="14" t="s">
         <v>1484</v>
       </c>
-      <c r="N31" s="14" t="s">
-        <v>1464</v>
-      </c>
       <c r="O31" s="14" t="s">
-        <v>1485</v>
+        <v>1505</v>
       </c>
       <c r="P31" s="14" t="s">
-        <v>968</v>
+        <v>988</v>
       </c>
       <c r="Q31" s="14" t="s">
-        <v>1486</v>
+        <v>1506</v>
       </c>
       <c r="R31" s="14" t="s">
-        <v>1487</v>
+        <v>1507</v>
       </c>
       <c r="S31" s="14" t="s">
-        <v>1488</v>
+        <v>1508</v>
       </c>
       <c r="T31" s="14" t="s">
-        <v>1489</v>
+        <v>1509</v>
       </c>
       <c r="U31" s="14" t="s">
-        <v>1490</v>
+        <v>1510</v>
       </c>
       <c r="V31" s="14" t="s">
-        <v>1491</v>
+        <v>1511</v>
       </c>
       <c r="W31" s="14" t="s">
-        <v>1492</v>
+        <v>1512</v>
       </c>
       <c r="X31" s="14" t="s">
-        <v>1493</v>
+        <v>1513</v>
       </c>
       <c r="Y31" s="14" t="s">
-        <v>1494</v>
+        <v>1514</v>
       </c>
       <c r="Z31" s="14" t="s">
-        <v>1398</v>
+        <v>1418</v>
       </c>
       <c r="AA31" s="14" t="s">
-        <v>1495</v>
+        <v>1515</v>
       </c>
       <c r="AB31" s="13" t="s">
-        <v>1496</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>675</v>
+        <v>695</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>680</v>
+        <v>700</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>678</v>
+        <v>698</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>1497</v>
+        <v>1517</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>679</v>
+        <v>699</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>1498</v>
+        <v>1518</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>1499</v>
+        <v>1519</v>
       </c>
       <c r="H32" s="14" t="s">
-        <v>1500</v>
+        <v>1520</v>
       </c>
       <c r="I32" s="14" t="s">
-        <v>1501</v>
+        <v>1521</v>
       </c>
       <c r="J32" s="14" t="s">
-        <v>1502</v>
+        <v>1522</v>
       </c>
       <c r="K32" s="14" t="s">
-        <v>1503</v>
+        <v>1523</v>
       </c>
       <c r="L32" s="14" t="s">
-        <v>1504</v>
+        <v>1524</v>
       </c>
       <c r="M32" s="14" t="s">
-        <v>1501</v>
+        <v>1521</v>
       </c>
       <c r="N32" s="14" t="s">
-        <v>1505</v>
+        <v>1525</v>
       </c>
       <c r="O32" s="14" t="s">
-        <v>1506</v>
+        <v>1526</v>
       </c>
       <c r="P32" s="14" t="s">
-        <v>1507</v>
+        <v>1527</v>
       </c>
       <c r="Q32" s="14" t="s">
-        <v>1505</v>
+        <v>1525</v>
       </c>
       <c r="R32" s="14" t="s">
-        <v>678</v>
+        <v>698</v>
       </c>
       <c r="S32" s="14" t="s">
-        <v>1506</v>
+        <v>1526</v>
       </c>
       <c r="T32" s="14" t="s">
-        <v>1508</v>
+        <v>1528</v>
       </c>
       <c r="U32" s="14" t="s">
-        <v>1509</v>
+        <v>1529</v>
       </c>
       <c r="V32" s="14" t="s">
-        <v>1510</v>
+        <v>1530</v>
       </c>
       <c r="W32" s="14" t="s">
-        <v>1509</v>
+        <v>1529</v>
       </c>
       <c r="X32" s="14" t="s">
-        <v>1511</v>
+        <v>1531</v>
       </c>
       <c r="Y32" s="14" t="s">
-        <v>1512</v>
+        <v>1532</v>
       </c>
       <c r="Z32" s="14" t="s">
-        <v>1505</v>
+        <v>1525</v>
       </c>
       <c r="AA32" s="14" t="s">
-        <v>676</v>
+        <v>696</v>
       </c>
       <c r="AB32" s="13" t="s">
-        <v>1513</v>
+        <v>1533</v>
       </c>
     </row>
   </sheetData>
@@ -12636,357 +12696,357 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>1514</v>
+        <v>1534</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1515</v>
+        <v>1535</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1516</v>
+        <v>1536</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>1517</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1518</v>
+        <v>1538</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1519</v>
+        <v>1539</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1520</v>
+        <v>1540</v>
       </c>
       <c r="D2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>1515</v>
+        <v>1535</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1521</v>
+        <v>1541</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>1522</v>
+        <v>1542</v>
       </c>
       <c r="D3" s="1"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>1516</v>
+        <v>1536</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1523</v>
+        <v>1543</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1524</v>
+        <v>1544</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>1525</v>
+        <v>1545</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1526</v>
+        <v>1546</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1527</v>
+        <v>1547</v>
       </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>1528</v>
+        <v>1548</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1529</v>
+        <v>1549</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1530</v>
+        <v>1550</v>
       </c>
       <c r="D6" s="1"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>1531</v>
+        <v>1551</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1532</v>
+        <v>1552</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1533</v>
+        <v>1553</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>1534</v>
+        <v>1554</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1535</v>
+        <v>1555</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>1536</v>
+        <v>1556</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>1537</v>
+        <v>1557</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1538</v>
+        <v>1558</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1539</v>
+        <v>1559</v>
       </c>
       <c r="D9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>1540</v>
+        <v>1560</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>1541</v>
+        <v>1561</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>1542</v>
+        <v>1562</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>1543</v>
+        <v>1563</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>1544</v>
+        <v>1564</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>1545</v>
+        <v>1565</v>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>1546</v>
+        <v>1566</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>1547</v>
+        <v>1567</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>1548</v>
+        <v>1568</v>
       </c>
       <c r="D12" s="1"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>1549</v>
+        <v>1569</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>1550</v>
+        <v>1570</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>1551</v>
+        <v>1571</v>
       </c>
       <c r="D13" s="1"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>1552</v>
+        <v>1572</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1553</v>
+        <v>1573</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>1554</v>
+        <v>1574</v>
       </c>
       <c r="D14" s="1"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>1555</v>
+        <v>1575</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>1556</v>
+        <v>1576</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>1557</v>
+        <v>1577</v>
       </c>
       <c r="D15" s="1"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>1558</v>
+        <v>1578</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>1559</v>
+        <v>1579</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>1560</v>
+        <v>1580</v>
       </c>
       <c r="D16" s="1"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>1561</v>
+        <v>1581</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>1562</v>
+        <v>1582</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>1563</v>
+        <v>1583</v>
       </c>
       <c r="D17" s="1"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>1564</v>
+        <v>1584</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>1565</v>
+        <v>1585</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>1566</v>
+        <v>1586</v>
       </c>
       <c r="D18" s="1"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>1567</v>
+        <v>1587</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>1568</v>
+        <v>1588</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>1569</v>
+        <v>1589</v>
       </c>
       <c r="D19" s="1"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>1570</v>
+        <v>1590</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>1571</v>
+        <v>1591</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>1572</v>
+        <v>1592</v>
       </c>
       <c r="D20" s="1"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>1573</v>
+        <v>1593</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>1574</v>
+        <v>1594</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>1575</v>
+        <v>1595</v>
       </c>
       <c r="D21" s="1"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>1576</v>
+        <v>1596</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>1577</v>
+        <v>1597</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>1578</v>
+        <v>1598</v>
       </c>
       <c r="D22" s="1"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>1579</v>
+        <v>1599</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>1580</v>
+        <v>1600</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>1581</v>
+        <v>1601</v>
       </c>
       <c r="D23" s="1"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>1582</v>
+        <v>1602</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>1583</v>
+        <v>1603</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>1584</v>
+        <v>1604</v>
       </c>
       <c r="D24" s="1"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>1585</v>
+        <v>1605</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>1586</v>
+        <v>1606</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>1587</v>
+        <v>1607</v>
       </c>
       <c r="D25" s="1"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>1588</v>
+        <v>1608</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>1589</v>
+        <v>1609</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>1590</v>
+        <v>1610</v>
       </c>
       <c r="D26" s="1"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>1591</v>
+        <v>1611</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>1592</v>
+        <v>1612</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>1593</v>
+        <v>1613</v>
       </c>
       <c r="D27" s="1"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>1594</v>
+        <v>1614</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>1595</v>
+        <v>1615</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>1596</v>
+        <v>1616</v>
       </c>
       <c r="D28" s="1"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>1597</v>
+        <v>1617</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>1598</v>
+        <v>1618</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>1599</v>
+        <v>1619</v>
       </c>
       <c r="D29" s="1"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>1600</v>
+        <v>1620</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -12994,7 +13054,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>1601</v>
+        <v>1621</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -13002,7 +13062,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>1602</v>
+        <v>1622</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -13010,7 +13070,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>1603</v>
+        <v>1623</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -13018,7 +13078,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>1604</v>
+        <v>1624</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -13026,7 +13086,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="D35" s="1"/>
     </row>

--- a/archive/iceKnives32/iceKnives32.xlsx
+++ b/archive/iceKnives32/iceKnives32.xlsx
@@ -306,7 +306,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2299" uniqueCount="1632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2371" uniqueCount="1601">
   <si>
     <t>[packet]</t>
   </si>
@@ -731,10 +731,22 @@
     <t>[range]</t>
   </si>
   <si>
+    <t>|4|</t>
+  </si>
+  <si>
+    <t>_5_</t>
+  </si>
+  <si>
+    <t>"6"</t>
+  </si>
+  <si>
+    <t>!7!</t>
+  </si>
+  <si>
     <t>[one]</t>
   </si>
   <si>
-    <t>'77'</t>
+    <t>'174'</t>
   </si>
   <si>
     <t>get</t>
@@ -746,7 +758,16 @@
     <t>card</t>
   </si>
   <si>
-    <t>'47'</t>
+    <t>work</t>
+  </si>
+  <si>
+    <t>borrow</t>
+  </si>
+  <si>
+    <t>tense</t>
+  </si>
+  <si>
+    <t>coin</t>
   </si>
   <si>
     <t>first</t>
@@ -758,9 +779,6 @@
     <t>model</t>
   </si>
   <si>
-    <t>'57'</t>
-  </si>
-  <si>
     <t>last</t>
   </si>
   <si>
@@ -770,18 +788,12 @@
     <t>graphs</t>
   </si>
   <si>
-    <t>'56'</t>
-  </si>
-  <si>
     <t>difference</t>
   </si>
   <si>
     <t>stamp</t>
   </si>
   <si>
-    <t>'80'</t>
-  </si>
-  <si>
     <t>add</t>
   </si>
   <si>
@@ -800,9 +812,6 @@
     <t>control</t>
   </si>
   <si>
-    <t>'65'</t>
-  </si>
-  <si>
     <t>delete</t>
   </si>
   <si>
@@ -812,9 +821,6 @@
     <t>demon</t>
   </si>
   <si>
-    <t>'69'</t>
-  </si>
-  <si>
     <t>chunk</t>
   </si>
   <si>
@@ -824,9 +830,6 @@
     <t>branch</t>
   </si>
   <si>
-    <t>'62'</t>
-  </si>
-  <si>
     <t>part</t>
   </si>
   <si>
@@ -836,9 +839,6 @@
     <t>grade</t>
   </si>
   <si>
-    <t>'46'</t>
-  </si>
-  <si>
     <t>sort</t>
   </si>
   <si>
@@ -848,9 +848,6 @@
     <t>slip</t>
   </si>
   <si>
-    <t>'58'</t>
-  </si>
-  <si>
     <t>reset</t>
   </si>
   <si>
@@ -860,9 +857,6 @@
     <t>medium</t>
   </si>
   <si>
-    <t>'72'</t>
-  </si>
-  <si>
     <t>modified</t>
   </si>
   <si>
@@ -872,9 +866,6 @@
     <t>thread</t>
   </si>
   <si>
-    <t>'94'</t>
-  </si>
-  <si>
     <t>truncate</t>
   </si>
   <si>
@@ -884,9 +875,6 @@
     <t>ring</t>
   </si>
   <si>
-    <t>'64'</t>
-  </si>
-  <si>
     <t>history</t>
   </si>
   <si>
@@ -896,9 +884,6 @@
     <t>script</t>
   </si>
   <si>
-    <t>'73'</t>
-  </si>
-  <si>
     <t>tag</t>
   </si>
   <si>
@@ -908,9 +893,6 @@
     <t>type</t>
   </si>
   <si>
-    <t>'41'</t>
-  </si>
-  <si>
     <t>zip</t>
   </si>
   <si>
@@ -929,9 +911,6 @@
     <t>address</t>
   </si>
   <si>
-    <t>'78'</t>
-  </si>
-  <si>
     <t>order</t>
   </si>
   <si>
@@ -941,9 +920,6 @@
     <t>reminder</t>
   </si>
   <si>
-    <t>'85'</t>
-  </si>
-  <si>
     <t>session</t>
   </si>
   <si>
@@ -953,9 +929,6 @@
     <t>derivative</t>
   </si>
   <si>
-    <t>'87'</t>
-  </si>
-  <si>
     <t>information</t>
   </si>
   <si>
@@ -965,9 +938,6 @@
     <t>volume</t>
   </si>
   <si>
-    <t>'107'</t>
-  </si>
-  <si>
     <t>track</t>
   </si>
   <si>
@@ -977,9 +947,6 @@
     <t>task</t>
   </si>
   <si>
-    <t>'59'</t>
-  </si>
-  <si>
     <t>unique</t>
   </si>
   <si>
@@ -989,9 +956,6 @@
     <t>series</t>
   </si>
   <si>
-    <t>'61'</t>
-  </si>
-  <si>
     <t>argument</t>
   </si>
   <si>
@@ -1001,9 +965,6 @@
     <t>function</t>
   </si>
   <si>
-    <t>'83'</t>
-  </si>
-  <si>
     <t>format</t>
   </si>
   <si>
@@ -1013,9 +974,6 @@
     <t>port</t>
   </si>
   <si>
-    <t>'70'</t>
-  </si>
-  <si>
     <t>current</t>
   </si>
   <si>
@@ -1034,10 +992,7 @@
     <t>bracket</t>
   </si>
   <si>
-    <t>'52'</t>
-  </si>
-  <si>
-    <t>'98'</t>
+    <t>'203'</t>
   </si>
   <si>
     <t>{555}</t>
@@ -1049,9 +1004,6 @@
     <t>&lt;597&gt;</t>
   </si>
   <si>
-    <t>'1755'</t>
-  </si>
-  <si>
     <t>{588}</t>
   </si>
   <si>
@@ -1061,9 +1013,6 @@
     <t>&lt;622&gt;</t>
   </si>
   <si>
-    <t>'1832'</t>
-  </si>
-  <si>
     <t>{280}</t>
   </si>
   <si>
@@ -1073,9 +1022,6 @@
     <t>&lt;310&gt;</t>
   </si>
   <si>
-    <t>'903'</t>
-  </si>
-  <si>
     <t>{346}</t>
   </si>
   <si>
@@ -1085,12 +1031,6 @@
     <t>&lt;343&gt;</t>
   </si>
   <si>
-    <t>'1027'</t>
-  </si>
-  <si>
-    <t>'1943'</t>
-  </si>
-  <si>
     <t>{71}</t>
   </si>
   <si>
@@ -1100,16 +1040,16 @@
     <t>&lt;56&gt;</t>
   </si>
   <si>
-    <t>'175'</t>
-  </si>
-  <si>
-    <t>{1/4/2025 16:05:50};</t>
-  </si>
-  <si>
-    <t>(1/4/2025 16:06:15);</t>
-  </si>
-  <si>
-    <t>&lt;1/4/2025 16:06:28&gt;;</t>
+    <t>&lt;&gt;;</t>
+  </si>
+  <si>
+    <t>__;</t>
+  </si>
+  <si>
+    <t>"";</t>
+  </si>
+  <si>
+    <t>!!;</t>
   </si>
   <si>
     <t>{associative/};</t>
@@ -1121,30 +1061,27 @@
     <t>&lt;primitive/&gt;;</t>
   </si>
   <si>
-    <t>'246'</t>
+    <t>|example/|;</t>
+  </si>
+  <si>
+    <t>_signal/_;</t>
+  </si>
+  <si>
+    <t>"distribute/";</t>
+  </si>
+  <si>
+    <t>!span/!;</t>
+  </si>
+  <si>
+    <t>'351'</t>
   </si>
   <si>
     <t>[migrate]</t>
   </si>
   <si>
-    <t>|4|</t>
-  </si>
-  <si>
-    <t>_5_</t>
-  </si>
-  <si>
-    <t>"6"</t>
-  </si>
-  <si>
-    <t>!7!</t>
-  </si>
-  <si>
     <t>[node]</t>
   </si>
   <si>
-    <t>'174'</t>
-  </si>
-  <si>
     <t>robotics</t>
   </si>
   <si>
@@ -1688,9 +1625,6 @@
     <t>invoke</t>
   </si>
   <si>
-    <t>'203'</t>
-  </si>
-  <si>
     <t>'4908'</t>
   </si>
   <si>
@@ -1698,33 +1632,6 @@
   </si>
   <si>
     <t>'309'</t>
-  </si>
-  <si>
-    <t>&lt;&gt;;</t>
-  </si>
-  <si>
-    <t>__;</t>
-  </si>
-  <si>
-    <t>"";</t>
-  </si>
-  <si>
-    <t>!!;</t>
-  </si>
-  <si>
-    <t>|example/|;</t>
-  </si>
-  <si>
-    <t>_signal/_;</t>
-  </si>
-  <si>
-    <t>"distribute/";</t>
-  </si>
-  <si>
-    <t>!span/!;</t>
-  </si>
-  <si>
-    <t>'351'</t>
   </si>
   <si>
     <t>{_f}</t>
@@ -5241,7 +5148,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -5262,9 +5169,6 @@
     </xf>
     <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0"/>
@@ -6293,13 +6197,25 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>12</v>
@@ -6310,8 +6226,20 @@
       <c r="D2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>142</v>
+      <c r="E2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="3">
@@ -6319,16 +6247,28 @@
         <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>146</v>
+        <v>149</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -6336,16 +6276,20 @@
         <v>14</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>150</v>
+        <v>156</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -6353,16 +6297,20 @@
         <v>18</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>154</v>
+        <v>159</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -6373,13 +6321,17 @@
         <v>7</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>157</v>
+        <v>161</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -6387,16 +6339,20 @@
         <v>26</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>154</v>
+        <v>164</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -6404,16 +6360,20 @@
         <v>30</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>164</v>
+        <v>167</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -6421,16 +6381,20 @@
         <v>34</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>168</v>
+        <v>170</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -6438,16 +6402,20 @@
         <v>38</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -6455,16 +6423,20 @@
         <v>42</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="E11" s="3" t="s">
         <v>176</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -6480,8 +6452,12 @@
       <c r="D12" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>180</v>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -6489,16 +6465,20 @@
         <v>50</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>184</v>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -6506,16 +6486,20 @@
         <v>54</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>188</v>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -6523,16 +6507,20 @@
         <v>58</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>192</v>
+        <v>188</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -6540,16 +6528,20 @@
         <v>62</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>196</v>
+        <v>191</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -6557,16 +6549,20 @@
         <v>66</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>200</v>
+        <v>194</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="18">
@@ -6574,16 +6570,20 @@
         <v>70</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>168</v>
+        <v>197</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -6591,16 +6591,20 @@
         <v>74</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>207</v>
+        <v>200</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -6608,16 +6612,20 @@
         <v>78</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>211</v>
+        <v>203</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -6625,16 +6633,20 @@
         <v>82</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>215</v>
+        <v>206</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -6642,16 +6654,20 @@
         <v>86</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>219</v>
+        <v>209</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -6659,16 +6675,20 @@
         <v>90</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>223</v>
+        <v>212</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="24">
@@ -6676,16 +6696,20 @@
         <v>94</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>227</v>
+        <v>215</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -6693,16 +6717,20 @@
         <v>98</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>231</v>
+        <v>218</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -6710,16 +6738,20 @@
         <v>102</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>235</v>
+        <v>221</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="27">
@@ -6727,16 +6759,20 @@
         <v>106</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>192</v>
+        <v>224</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="28">
@@ -6744,16 +6780,20 @@
         <v>110</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>242</v>
+        <v>227</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="29">
@@ -6769,8 +6809,20 @@
       <c r="D29" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>243</v>
+      <c r="E29" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="30">
@@ -6778,16 +6830,28 @@
         <v>118</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>247</v>
+        <v>231</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="31">
@@ -6795,16 +6859,28 @@
         <v>119</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>251</v>
+        <v>234</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="32">
@@ -6812,16 +6888,28 @@
         <v>120</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>255</v>
+        <v>237</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="33">
@@ -6829,16 +6917,28 @@
         <v>121</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>259</v>
+        <v>240</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="34">
@@ -6854,7 +6954,19 @@
       <c r="D34" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E34" s="7" t="s">
+      <c r="E34" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I34" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6871,8 +6983,20 @@
       <c r="D35" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>260</v>
+      <c r="E35" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="36">
@@ -6880,16 +7004,28 @@
         <v>124</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>264</v>
+        <v>243</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="37">
@@ -6905,7 +7041,19 @@
       <c r="D37" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I37" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6922,7 +7070,19 @@
       <c r="D38" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I38" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6939,7 +7099,19 @@
       <c r="D39" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E39" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I39" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6956,7 +7128,19 @@
       <c r="D40" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E40" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I40" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6973,7 +7157,19 @@
       <c r="D41" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E41" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I41" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -6982,15 +7178,27 @@
         <v>130</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>265</v>
+        <v>136</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>266</v>
+        <v>137</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="E42" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="I42" s="3" t="s">
         <v>134</v>
       </c>
     </row>
@@ -6999,16 +7207,28 @@
         <v>135</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>271</v>
+        <v>250</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -7031,7 +7251,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -7043,16 +7263,16 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>273</v>
+        <v>141</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>274</v>
+        <v>142</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>275</v>
+        <v>143</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>276</v>
+        <v>144</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>4</v>
@@ -7060,7 +7280,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>12</v>
@@ -7084,7 +7304,7 @@
         <v>36</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>278</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3">
@@ -7092,25 +7312,25 @@
         <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>9</v>
@@ -7121,25 +7341,25 @@
         <v>14</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>292</v>
+        <v>271</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>9</v>
@@ -7150,25 +7370,25 @@
         <v>18</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>294</v>
+        <v>273</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>9</v>
@@ -7179,25 +7399,25 @@
         <v>22</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>305</v>
+        <v>284</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>306</v>
+        <v>285</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>9</v>
@@ -7208,25 +7428,25 @@
         <v>26</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>307</v>
+        <v>286</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>309</v>
+        <v>288</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>9</v>
@@ -7237,25 +7457,25 @@
         <v>30</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>314</v>
+        <v>293</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>315</v>
+        <v>294</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>9</v>
@@ -7266,25 +7486,25 @@
         <v>34</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>323</v>
+        <v>302</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>324</v>
+        <v>303</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>326</v>
+        <v>305</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>9</v>
@@ -7295,25 +7515,25 @@
         <v>38</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>328</v>
+        <v>307</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>329</v>
+        <v>308</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>330</v>
+        <v>309</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>331</v>
+        <v>310</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>9</v>
@@ -7324,25 +7544,25 @@
         <v>42</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>336</v>
+        <v>315</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>337</v>
+        <v>316</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>338</v>
+        <v>317</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>339</v>
+        <v>318</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>9</v>
@@ -7353,25 +7573,25 @@
         <v>46</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>347</v>
+        <v>326</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>348</v>
+        <v>327</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>9</v>
@@ -7382,25 +7602,25 @@
         <v>50</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>350</v>
+        <v>329</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>352</v>
+        <v>331</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>353</v>
+        <v>332</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>354</v>
+        <v>333</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>355</v>
+        <v>334</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>9</v>
@@ -7411,25 +7631,25 @@
         <v>54</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>358</v>
+        <v>337</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>359</v>
+        <v>338</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>360</v>
+        <v>339</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>361</v>
+        <v>340</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>362</v>
+        <v>341</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>9</v>
@@ -7440,25 +7660,25 @@
         <v>58</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>363</v>
+        <v>342</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>364</v>
+        <v>343</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>365</v>
+        <v>344</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>366</v>
+        <v>345</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>368</v>
+        <v>347</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>369</v>
+        <v>348</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>9</v>
@@ -7469,25 +7689,25 @@
         <v>62</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>370</v>
+        <v>349</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>372</v>
+        <v>351</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>373</v>
+        <v>352</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>374</v>
+        <v>353</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>375</v>
+        <v>354</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>376</v>
+        <v>355</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>9</v>
@@ -7498,25 +7718,25 @@
         <v>66</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>378</v>
+        <v>357</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>379</v>
+        <v>358</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>380</v>
+        <v>359</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>381</v>
+        <v>360</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>383</v>
+        <v>362</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>9</v>
@@ -7527,25 +7747,25 @@
         <v>70</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>384</v>
+        <v>363</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>385</v>
+        <v>364</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>387</v>
+        <v>366</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>388</v>
+        <v>367</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>389</v>
+        <v>368</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>390</v>
+        <v>369</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>9</v>
@@ -7556,25 +7776,25 @@
         <v>74</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>391</v>
+        <v>370</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>392</v>
+        <v>371</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>393</v>
+        <v>372</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>394</v>
+        <v>373</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>395</v>
+        <v>374</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>396</v>
+        <v>375</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>397</v>
+        <v>376</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>9</v>
@@ -7585,25 +7805,25 @@
         <v>78</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>398</v>
+        <v>377</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>399</v>
+        <v>378</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>400</v>
+        <v>379</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>401</v>
+        <v>380</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>402</v>
+        <v>381</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>403</v>
+        <v>382</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>404</v>
+        <v>383</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>9</v>
@@ -7614,25 +7834,25 @@
         <v>82</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>405</v>
+        <v>384</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>406</v>
+        <v>385</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>407</v>
+        <v>386</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>408</v>
+        <v>387</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>409</v>
+        <v>388</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>410</v>
+        <v>389</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>411</v>
+        <v>390</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>9</v>
@@ -7643,25 +7863,25 @@
         <v>86</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>412</v>
+        <v>391</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>413</v>
+        <v>392</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>414</v>
+        <v>393</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>415</v>
+        <v>394</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>416</v>
+        <v>395</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>417</v>
+        <v>396</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>418</v>
+        <v>397</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>9</v>
@@ -7672,25 +7892,25 @@
         <v>90</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>419</v>
+        <v>398</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>420</v>
+        <v>399</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>421</v>
+        <v>400</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>422</v>
+        <v>401</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>423</v>
+        <v>402</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>424</v>
+        <v>403</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>425</v>
+        <v>404</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>9</v>
@@ -7701,25 +7921,25 @@
         <v>94</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>426</v>
+        <v>405</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>427</v>
+        <v>406</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>428</v>
+        <v>407</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>429</v>
+        <v>408</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>430</v>
+        <v>409</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>432</v>
+        <v>411</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>9</v>
@@ -7730,25 +7950,25 @@
         <v>98</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>433</v>
+        <v>412</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>434</v>
+        <v>413</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>435</v>
+        <v>414</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>436</v>
+        <v>415</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>437</v>
+        <v>416</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>438</v>
+        <v>417</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>439</v>
+        <v>418</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>9</v>
@@ -7759,25 +7979,25 @@
         <v>102</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>442</v>
+        <v>421</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>443</v>
+        <v>422</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>444</v>
+        <v>423</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>445</v>
+        <v>424</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>9</v>
@@ -7788,25 +8008,25 @@
         <v>106</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>446</v>
+        <v>425</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>447</v>
+        <v>426</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>448</v>
+        <v>427</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>449</v>
+        <v>428</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>450</v>
+        <v>429</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>451</v>
+        <v>430</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>452</v>
+        <v>431</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>9</v>
@@ -7817,25 +8037,25 @@
         <v>110</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>453</v>
+        <v>432</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>454</v>
+        <v>433</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>455</v>
+        <v>434</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>456</v>
+        <v>435</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>457</v>
+        <v>436</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>458</v>
+        <v>437</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>459</v>
+        <v>438</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>9</v>
@@ -7867,7 +8087,7 @@
         <v>35</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>460</v>
+        <v>228</v>
       </c>
     </row>
     <row r="30">
@@ -8041,7 +8261,7 @@
         <v>37</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>461</v>
+        <v>439</v>
       </c>
     </row>
     <row r="36">
@@ -8070,7 +8290,7 @@
         <v>37</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>462</v>
+        <v>440</v>
       </c>
     </row>
     <row r="37">
@@ -8215,7 +8435,7 @@
         <v>37</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>463</v>
+        <v>441</v>
       </c>
     </row>
     <row r="42">
@@ -8229,19 +8449,19 @@
         <v>137</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>464</v>
+        <v>244</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>138</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>465</v>
+        <v>245</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>466</v>
+        <v>246</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>467</v>
+        <v>247</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>134</v>
@@ -8252,28 +8472,28 @@
         <v>135</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>468</v>
+        <v>251</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>469</v>
+        <v>252</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>470</v>
+        <v>253</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>471</v>
+        <v>254</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>472</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -8297,835 +8517,835 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>452</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>455</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>459</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>472</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>473</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="D5" s="9" t="s">
         <v>474</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="E5" s="9" t="s">
         <v>475</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="F5" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="G5" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="H5" s="10" t="s">
         <v>478</v>
       </c>
-      <c r="G1" s="9" t="s">
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>479</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="C6" s="9" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="8" t="s">
+      <c r="D6" s="9" t="s">
         <v>481</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="E6" s="9" t="s">
         <v>482</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="F6" s="9" t="s">
         <v>483</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="G6" s="9" t="s">
         <v>484</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="H6" s="10" t="s">
         <v>485</v>
       </c>
-      <c r="F2" s="10" t="s">
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>486</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>487</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="D7" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="8" t="s">
-        <v>474</v>
-      </c>
-      <c r="B3" s="10" t="s">
+      <c r="F7" s="9" t="s">
         <v>489</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="G7" s="9" t="s">
         <v>490</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="H7" s="10" t="s">
         <v>491</v>
       </c>
-      <c r="E3" s="10" t="s">
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>492</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>493</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="D8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>494</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="F8" s="9" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="8" t="s">
-        <v>475</v>
-      </c>
-      <c r="B4" s="10" t="s">
+      <c r="G8" s="9" t="s">
         <v>496</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="H8" s="10" t="s">
         <v>497</v>
       </c>
-      <c r="D4" s="10" t="s">
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>499</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>500</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="D9" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>501</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="F9" s="9" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="8" t="s">
-        <v>476</v>
-      </c>
-      <c r="B5" s="10" t="s">
+      <c r="G9" s="9" t="s">
         <v>503</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="H9" s="10" t="s">
         <v>504</v>
       </c>
-      <c r="D5" s="10" t="s">
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="s">
         <v>505</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>506</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>507</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="D10" s="9" t="s">
         <v>508</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="E10" s="9" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="8" t="s">
-        <v>477</v>
-      </c>
-      <c r="B6" s="10" t="s">
+      <c r="F10" s="9" t="s">
         <v>510</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="G10" s="9" t="s">
         <v>511</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="H10" s="10" t="s">
         <v>512</v>
       </c>
-      <c r="E6" s="10" t="s">
+    </row>
+    <row r="11">
+      <c r="A11" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>514</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>515</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="D11" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="8" t="s">
-        <v>478</v>
-      </c>
-      <c r="B7" s="10" t="s">
+      <c r="F11" s="9" t="s">
         <v>517</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="G11" s="9" t="s">
         <v>518</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="E7" s="10" t="s">
+      <c r="H11" s="10" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>520</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>521</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="D12" s="9" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="8" t="s">
-        <v>479</v>
-      </c>
-      <c r="B8" s="10" t="s">
+      <c r="E12" s="9" t="s">
         <v>523</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="F12" s="9" t="s">
         <v>524</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" s="10" t="s">
+      <c r="G12" s="9" t="s">
         <v>525</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="H12" s="10" t="s">
         <v>526</v>
       </c>
-      <c r="G8" s="10" t="s">
+    </row>
+    <row r="13">
+      <c r="A13" s="7" t="s">
         <v>527</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="B13" s="9" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="8" t="s">
+      <c r="C13" s="9" t="s">
         <v>529</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="D13" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="F13" s="9" t="s">
         <v>531</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="E9" s="10" t="s">
+      <c r="G13" s="9" t="s">
         <v>532</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="H13" s="10" t="s">
         <v>533</v>
       </c>
-      <c r="G9" s="10" t="s">
+    </row>
+    <row r="14">
+      <c r="A14" s="7" t="s">
         <v>534</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="B14" s="9" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="8" t="s">
+      <c r="C14" s="9" t="s">
         <v>536</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="D14" s="9" t="s">
         <v>537</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="E14" s="9" t="s">
         <v>538</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="F14" s="9" t="s">
         <v>539</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="G14" s="9" t="s">
         <v>540</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="H14" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="G10" s="10" t="s">
+    </row>
+    <row r="15">
+      <c r="A15" s="7" t="s">
         <v>542</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="B15" s="9" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="8" t="s">
+      <c r="C15" s="9" t="s">
         <v>544</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="D15" s="9" t="s">
         <v>545</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="E15" s="9" t="s">
         <v>546</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>357</v>
-      </c>
-      <c r="E11" s="10" t="s">
+      <c r="F15" s="9" t="s">
         <v>547</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="G15" s="9" t="s">
         <v>548</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="H15" s="10" t="s">
         <v>549</v>
       </c>
-      <c r="H11" s="11" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="8" t="s">
+    </row>
+    <row r="16">
+      <c r="A16" s="7" t="s">
         <v>550</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>551</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>552</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D16" s="9" t="s">
         <v>553</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E16" s="9" t="s">
         <v>554</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F16" s="9" t="s">
         <v>555</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G16" s="9" t="s">
         <v>556</v>
       </c>
-      <c r="H12" s="11" t="s">
+      <c r="H16" s="10" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="8" t="s">
+    <row r="17">
+      <c r="A17" s="7" t="s">
         <v>558</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>559</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>560</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>339</v>
-      </c>
-      <c r="E13" s="10" t="s">
+      <c r="D17" s="9" t="s">
         <v>561</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="E17" s="9" t="s">
         <v>562</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="F17" s="9" t="s">
         <v>563</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="G17" s="9" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="8" t="s">
+      <c r="H17" s="10" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="7" t="s">
         <v>565</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>566</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C18" s="9" t="s">
         <v>567</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D18" s="9" t="s">
         <v>568</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E18" s="9" t="s">
         <v>569</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F18" s="9" t="s">
         <v>570</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G18" s="9" t="s">
         <v>571</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="H18" s="10" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="8" t="s">
+    <row r="19">
+      <c r="A19" s="7" t="s">
         <v>573</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>574</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C19" s="9" t="s">
         <v>575</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D19" s="9" t="s">
         <v>576</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E19" s="9" t="s">
         <v>577</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F19" s="9" t="s">
         <v>578</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G19" s="9" t="s">
         <v>579</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="H19" s="10" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="8" t="s">
+    <row r="20">
+      <c r="A20" s="7" t="s">
         <v>581</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>582</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C20" s="9" t="s">
         <v>583</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D20" s="9" t="s">
         <v>584</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E20" s="9" t="s">
         <v>585</v>
       </c>
-      <c r="F16" s="10" t="s">
+      <c r="F20" s="9" t="s">
         <v>586</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G20" s="9" t="s">
         <v>587</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="H20" s="10" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="7" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="8" t="s">
+      <c r="B21" s="9" t="s">
         <v>589</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="C21" s="9" t="s">
         <v>590</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="D21" s="9" t="s">
         <v>591</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="E21" s="9" t="s">
         <v>592</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="F21" s="9" t="s">
         <v>593</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="G21" s="9" t="s">
         <v>594</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="H21" s="10" t="s">
         <v>595</v>
       </c>
-      <c r="H17" s="11" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="8" t="s">
+    </row>
+    <row r="22">
+      <c r="A22" s="7" t="s">
         <v>596</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B22" s="9" t="s">
         <v>597</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C22" s="9" t="s">
         <v>598</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D22" s="9" t="s">
         <v>599</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E22" s="9" t="s">
         <v>600</v>
       </c>
-      <c r="F18" s="10" t="s">
+      <c r="F22" s="9" t="s">
         <v>601</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G22" s="9" t="s">
         <v>602</v>
       </c>
-      <c r="H18" s="11" t="s">
+      <c r="H22" s="10" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="8" t="s">
+    <row r="23">
+      <c r="A23" s="7" t="s">
         <v>604</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B23" s="9" t="s">
         <v>605</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C23" s="9" t="s">
         <v>606</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D23" s="9" t="s">
         <v>607</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E23" s="9" t="s">
         <v>608</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F23" s="9" t="s">
         <v>609</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G23" s="9" t="s">
         <v>610</v>
       </c>
-      <c r="H19" s="11" t="s">
+      <c r="H23" s="10" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="8" t="s">
+    <row r="24">
+      <c r="A24" s="7" t="s">
         <v>612</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B24" s="9" t="s">
         <v>613</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C24" s="9" t="s">
         <v>614</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D24" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="E24" s="9" t="s">
         <v>615</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="F24" s="9" t="s">
         <v>616</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="G24" s="9" t="s">
         <v>617</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="H24" s="10" t="s">
         <v>618</v>
       </c>
-      <c r="H20" s="11" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="8" t="s">
+    </row>
+    <row r="25">
+      <c r="A25" s="7" t="s">
         <v>619</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B25" s="9" t="s">
         <v>620</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C25" s="9" t="s">
         <v>621</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D25" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="E25" s="9" t="s">
         <v>622</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="F25" s="9" t="s">
         <v>623</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="G25" s="9" t="s">
         <v>624</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="H25" s="10" t="s">
         <v>625</v>
       </c>
-      <c r="H21" s="11" t="s">
+    </row>
+    <row r="26">
+      <c r="A26" s="7" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="8" t="s">
+      <c r="B26" s="9" t="s">
         <v>627</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="C26" s="9" t="s">
         <v>628</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="D26" s="9" t="s">
         <v>629</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="E26" s="9" t="s">
         <v>630</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="F26" s="9" t="s">
         <v>631</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="G26" s="9" t="s">
         <v>632</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="H26" s="10" t="s">
         <v>633</v>
       </c>
-      <c r="H22" s="11" t="s">
+    </row>
+    <row r="27">
+      <c r="A27" s="7" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="8" t="s">
+      <c r="B27" s="9" t="s">
         <v>635</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="C27" s="9" t="s">
         <v>636</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="D27" s="9" t="s">
         <v>637</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="E27" s="9" t="s">
         <v>638</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="F27" s="9" t="s">
         <v>639</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="G27" s="9" t="s">
         <v>640</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="H27" s="10" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="7" t="s">
         <v>641</v>
       </c>
-      <c r="H23" s="11" t="s">
+      <c r="B28" s="9" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="8" t="s">
+      <c r="C28" s="9" t="s">
         <v>643</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="D28" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="E28" s="9" t="s">
         <v>644</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="F28" s="9" t="s">
         <v>645</v>
       </c>
-      <c r="D24" s="10" t="s">
-        <v>341</v>
-      </c>
-      <c r="E24" s="10" t="s">
+      <c r="G28" s="9" t="s">
         <v>646</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="H28" s="10" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="7" t="s">
         <v>647</v>
       </c>
-      <c r="G24" s="10" t="s">
+      <c r="B29" s="9" t="s">
         <v>648</v>
       </c>
-      <c r="H24" s="11" t="s">
+      <c r="C29" s="9" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="8" t="s">
+      <c r="D29" s="9" t="s">
         <v>650</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="E29" s="9" t="s">
         <v>651</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="F29" s="9" t="s">
         <v>652</v>
       </c>
-      <c r="D25" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="E25" s="10" t="s">
+      <c r="G29" s="9" t="s">
         <v>653</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="H29" s="10" t="s">
         <v>654</v>
       </c>
-      <c r="G25" s="10" t="s">
+    </row>
+    <row r="30">
+      <c r="A30" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="B30" s="11" t="s">
         <v>655</v>
       </c>
-      <c r="H25" s="11" t="s">
+      <c r="C30" s="11" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="8" t="s">
+      <c r="D30" s="11" t="s">
         <v>657</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="E30" s="11" t="s">
         <v>658</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="F30" s="11" t="s">
         <v>659</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="G30" s="11" t="s">
         <v>660</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="H30" s="10" t="s">
         <v>661</v>
       </c>
-      <c r="F26" s="10" t="s">
+    </row>
+    <row r="31">
+      <c r="A31" s="7" t="s">
         <v>662</v>
       </c>
-      <c r="G26" s="10" t="s">
+      <c r="B31" s="11" t="s">
         <v>663</v>
       </c>
-      <c r="H26" s="11" t="s">
+      <c r="C31" s="11" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="8" t="s">
+      <c r="D31" s="11" t="s">
         <v>665</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="E31" s="11" t="s">
         <v>666</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="F31" s="11" t="s">
         <v>667</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="G31" s="11" t="s">
         <v>668</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="H31" s="10" t="s">
         <v>669</v>
       </c>
-      <c r="F27" s="10" t="s">
+    </row>
+    <row r="32">
+      <c r="A32" s="7" t="s">
         <v>670</v>
       </c>
-      <c r="G27" s="10" t="s">
+      <c r="B32" s="11" t="s">
         <v>671</v>
       </c>
-      <c r="H27" s="11" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="8" t="s">
+      <c r="C32" s="11" t="s">
         <v>672</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="D32" s="11" t="s">
         <v>673</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="E32" s="11" t="s">
         <v>674</v>
       </c>
-      <c r="D28" s="10" t="s">
-        <v>297</v>
-      </c>
-      <c r="E28" s="10" t="s">
+      <c r="F32" s="11" t="s">
         <v>675</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="G32" s="11" t="s">
         <v>676</v>
       </c>
-      <c r="G28" s="10" t="s">
+      <c r="H32" s="10" t="s">
         <v>677</v>
-      </c>
-      <c r="H28" s="11" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="8" t="s">
-        <v>678</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>679</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>680</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>681</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>682</v>
-      </c>
-      <c r="F29" s="10" t="s">
-        <v>683</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>684</v>
-      </c>
-      <c r="H29" s="11" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="8" t="s">
-        <v>480</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>686</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>687</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>688</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>689</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>690</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>691</v>
-      </c>
-      <c r="H30" s="11" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="8" t="s">
-        <v>693</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>694</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>695</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>696</v>
-      </c>
-      <c r="E31" s="12" t="s">
-        <v>697</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>698</v>
-      </c>
-      <c r="G31" s="12" t="s">
-        <v>699</v>
-      </c>
-      <c r="H31" s="11" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="8" t="s">
-        <v>701</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>702</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>703</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>704</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>705</v>
-      </c>
-      <c r="F32" s="12" t="s">
-        <v>706</v>
-      </c>
-      <c r="G32" s="12" t="s">
-        <v>707</v>
-      </c>
-      <c r="H32" s="11" t="s">
-        <v>708</v>
       </c>
     </row>
   </sheetData>
@@ -9152,774 +9372,774 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>709</v>
+        <v>678</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>474</v>
+        <v>443</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>475</v>
+        <v>444</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>476</v>
+        <v>445</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>477</v>
+        <v>446</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>478</v>
+        <v>447</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>479</v>
+        <v>448</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>529</v>
+        <v>498</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>480</v>
+        <v>449</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>710</v>
+        <v>679</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>711</v>
+        <v>680</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>712</v>
+        <v>681</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>713</v>
+        <v>682</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>714</v>
+        <v>683</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>715</v>
+        <v>684</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>716</v>
+        <v>685</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>717</v>
+        <v>686</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>474</v>
+        <v>443</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>718</v>
+        <v>687</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>719</v>
+        <v>688</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>720</v>
+        <v>689</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>475</v>
+        <v>444</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>722</v>
+        <v>691</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>723</v>
+        <v>692</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>724</v>
+        <v>693</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>476</v>
+        <v>445</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>725</v>
+        <v>694</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>726</v>
+        <v>695</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>727</v>
+        <v>696</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>477</v>
+        <v>446</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>728</v>
+        <v>697</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>729</v>
+        <v>698</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>730</v>
+        <v>699</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>478</v>
+        <v>447</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>731</v>
+        <v>700</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>732</v>
+        <v>701</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>733</v>
+        <v>702</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>479</v>
+        <v>448</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>734</v>
+        <v>703</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>735</v>
+        <v>704</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>736</v>
+        <v>705</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>529</v>
+        <v>498</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>737</v>
+        <v>706</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>738</v>
+        <v>707</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>739</v>
+        <v>708</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>536</v>
+        <v>505</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>740</v>
+        <v>709</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>741</v>
+        <v>710</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>742</v>
+        <v>711</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>544</v>
+        <v>513</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>743</v>
+        <v>712</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>744</v>
+        <v>713</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>745</v>
+        <v>714</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>550</v>
+        <v>519</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>746</v>
+        <v>715</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>747</v>
+        <v>716</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>748</v>
+        <v>717</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>558</v>
+        <v>527</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>749</v>
+        <v>718</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>750</v>
+        <v>719</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>751</v>
+        <v>720</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>565</v>
+        <v>534</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>752</v>
+        <v>721</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>753</v>
+        <v>722</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>754</v>
+        <v>723</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>573</v>
+        <v>542</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>756</v>
+        <v>725</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>757</v>
+        <v>726</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>581</v>
+        <v>550</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>758</v>
+        <v>727</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>759</v>
+        <v>728</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>760</v>
+        <v>729</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>589</v>
+        <v>558</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>761</v>
+        <v>730</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>762</v>
+        <v>731</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>763</v>
+        <v>732</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>596</v>
+        <v>565</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>764</v>
+        <v>733</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>765</v>
+        <v>734</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>766</v>
+        <v>735</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>604</v>
+        <v>573</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>767</v>
+        <v>736</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>768</v>
+        <v>737</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>769</v>
+        <v>738</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>612</v>
+        <v>581</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>770</v>
+        <v>739</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>771</v>
+        <v>740</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>772</v>
+        <v>741</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>619</v>
+        <v>588</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>773</v>
+        <v>742</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>774</v>
+        <v>743</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>775</v>
+        <v>744</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>627</v>
+        <v>596</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>776</v>
+        <v>745</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>777</v>
+        <v>746</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>778</v>
+        <v>747</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>635</v>
+        <v>604</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>779</v>
+        <v>748</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>780</v>
+        <v>749</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>781</v>
+        <v>750</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>643</v>
+        <v>612</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>782</v>
+        <v>751</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>783</v>
+        <v>752</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>784</v>
+        <v>753</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>650</v>
+        <v>619</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>785</v>
+        <v>754</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>786</v>
+        <v>755</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>787</v>
+        <v>756</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>657</v>
+        <v>626</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>788</v>
+        <v>757</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>789</v>
+        <v>758</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>790</v>
+        <v>759</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>665</v>
+        <v>634</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>791</v>
+        <v>760</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>792</v>
+        <v>761</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>793</v>
+        <v>762</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>672</v>
+        <v>641</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>794</v>
+        <v>763</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>795</v>
+        <v>764</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>796</v>
+        <v>765</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>721</v>
+        <v>690</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>678</v>
+        <v>647</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>797</v>
+        <v>766</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>798</v>
+        <v>767</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>799</v>
+        <v>768</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>800</v>
+        <v>769</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>801</v>
+        <v>770</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>802</v>
+        <v>771</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>803</v>
+        <v>772</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>480</v>
+        <v>449</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>693</v>
+        <v>662</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>701</v>
+        <v>670</v>
       </c>
     </row>
   </sheetData>
@@ -9944,2754 +10164,2754 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>804</v>
+        <v>773</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>474</v>
+        <v>443</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>475</v>
+        <v>444</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>476</v>
+        <v>445</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>477</v>
+        <v>446</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>478</v>
+        <v>447</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>479</v>
+        <v>448</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>529</v>
+        <v>498</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>536</v>
+        <v>505</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>544</v>
+        <v>513</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>589</v>
-      </c>
-      <c r="Q1" s="2" t="s">
+      <c r="T1" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="U1" s="2" t="s">
-        <v>627</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>635</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>650</v>
-      </c>
       <c r="Y1" s="2" t="s">
-        <v>657</v>
+        <v>626</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>665</v>
+        <v>634</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>672</v>
+        <v>641</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>480</v>
+        <v>449</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>709</v>
+        <v>678</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>805</v>
+        <v>774</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>806</v>
+        <v>775</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>807</v>
+        <v>776</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>808</v>
+        <v>777</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>809</v>
+        <v>778</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>810</v>
+        <v>779</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>811</v>
+        <v>780</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>812</v>
+        <v>781</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>813</v>
+        <v>782</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>814</v>
+        <v>783</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>815</v>
+        <v>784</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>816</v>
+        <v>785</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>817</v>
+        <v>786</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>818</v>
+        <v>787</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>819</v>
+        <v>788</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>820</v>
+        <v>789</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>821</v>
+        <v>790</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>822</v>
+        <v>791</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>823</v>
+        <v>792</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>824</v>
+        <v>793</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>825</v>
+        <v>794</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>826</v>
+        <v>795</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>827</v>
+        <v>796</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>828</v>
+        <v>797</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>829</v>
+        <v>798</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>830</v>
-      </c>
-      <c r="AB2" s="13" t="s">
-        <v>831</v>
+        <v>799</v>
+      </c>
+      <c r="AB2" s="12" t="s">
+        <v>800</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>474</v>
+        <v>443</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>832</v>
+        <v>801</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>833</v>
+        <v>802</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>834</v>
+        <v>803</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>835</v>
+        <v>804</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>836</v>
+        <v>805</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>837</v>
+        <v>806</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>838</v>
+        <v>807</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>839</v>
+        <v>808</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>569</v>
+        <v>538</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>840</v>
+        <v>809</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>841</v>
+        <v>810</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>842</v>
+        <v>811</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>843</v>
+        <v>812</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>551</v>
+        <v>520</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>645</v>
+        <v>614</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>844</v>
+        <v>813</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>845</v>
+        <v>814</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>846</v>
+        <v>815</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>847</v>
+        <v>816</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>848</v>
+        <v>817</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>849</v>
+        <v>818</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>850</v>
+        <v>819</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>851</v>
+        <v>820</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>591</v>
+        <v>560</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>852</v>
+        <v>821</v>
       </c>
       <c r="AA3" s="5" t="s">
-        <v>680</v>
-      </c>
-      <c r="AB3" s="13" t="s">
-        <v>853</v>
+        <v>649</v>
+      </c>
+      <c r="AB3" s="12" t="s">
+        <v>822</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>475</v>
+        <v>444</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>854</v>
+        <v>823</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>855</v>
+        <v>824</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>856</v>
+        <v>825</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>857</v>
+        <v>826</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>858</v>
+        <v>827</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>534</v>
+        <v>503</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>859</v>
+        <v>828</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>860</v>
+        <v>829</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>601</v>
+        <v>570</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>861</v>
+        <v>830</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>862</v>
+        <v>831</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>863</v>
+        <v>832</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>864</v>
+        <v>833</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>865</v>
+        <v>834</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>866</v>
+        <v>835</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>867</v>
+        <v>836</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>585</v>
+        <v>554</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>868</v>
+        <v>837</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>869</v>
+        <v>838</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>870</v>
+        <v>839</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>871</v>
+        <v>840</v>
       </c>
       <c r="W4" s="5" t="s">
-        <v>872</v>
+        <v>841</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>873</v>
+        <v>842</v>
       </c>
       <c r="Y4" s="5" t="s">
-        <v>874</v>
+        <v>843</v>
       </c>
       <c r="Z4" s="5" t="s">
-        <v>875</v>
+        <v>844</v>
       </c>
       <c r="AA4" s="5" t="s">
-        <v>876</v>
-      </c>
-      <c r="AB4" s="13" t="s">
-        <v>877</v>
+        <v>845</v>
+      </c>
+      <c r="AB4" s="12" t="s">
+        <v>846</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>476</v>
+        <v>445</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>878</v>
+        <v>847</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>879</v>
+        <v>848</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>880</v>
+        <v>849</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>881</v>
+        <v>850</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>882</v>
+        <v>851</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>883</v>
+        <v>852</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>653</v>
+        <v>622</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>884</v>
+        <v>853</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>885</v>
+        <v>854</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>886</v>
+        <v>855</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>663</v>
+        <v>632</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>492</v>
+        <v>461</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>887</v>
+        <v>856</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>888</v>
+        <v>857</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>889</v>
+        <v>858</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>890</v>
+        <v>859</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>891</v>
+        <v>860</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>892</v>
+        <v>861</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>893</v>
+        <v>862</v>
       </c>
       <c r="U5" s="5" t="s">
-        <v>894</v>
+        <v>863</v>
       </c>
       <c r="V5" s="5" t="s">
-        <v>510</v>
+        <v>479</v>
       </c>
       <c r="W5" s="5" t="s">
-        <v>895</v>
+        <v>864</v>
       </c>
       <c r="X5" s="5" t="s">
-        <v>896</v>
+        <v>865</v>
       </c>
       <c r="Y5" s="5" t="s">
-        <v>897</v>
+        <v>866</v>
       </c>
       <c r="Z5" s="5" t="s">
-        <v>898</v>
+        <v>867</v>
       </c>
       <c r="AA5" s="5" t="s">
-        <v>899</v>
-      </c>
-      <c r="AB5" s="13" t="s">
-        <v>900</v>
+        <v>868</v>
+      </c>
+      <c r="AB5" s="12" t="s">
+        <v>869</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>477</v>
+        <v>446</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>901</v>
+        <v>870</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>902</v>
+        <v>871</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>903</v>
+        <v>872</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>904</v>
+        <v>873</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>905</v>
+        <v>874</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>906</v>
+        <v>875</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>907</v>
+        <v>876</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>908</v>
+        <v>877</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>909</v>
+        <v>878</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>910</v>
+        <v>879</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>911</v>
+        <v>880</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>912</v>
+        <v>881</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>913</v>
+        <v>882</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>582</v>
+        <v>551</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>914</v>
+        <v>883</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>915</v>
+        <v>884</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>916</v>
+        <v>885</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>917</v>
+        <v>886</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>918</v>
+        <v>887</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>919</v>
+        <v>888</v>
       </c>
       <c r="V6" s="5" t="s">
-        <v>920</v>
+        <v>889</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>921</v>
+        <v>890</v>
       </c>
       <c r="X6" s="5" t="s">
-        <v>922</v>
+        <v>891</v>
       </c>
       <c r="Y6" s="5" t="s">
-        <v>923</v>
+        <v>892</v>
       </c>
       <c r="Z6" s="5" t="s">
-        <v>924</v>
+        <v>893</v>
       </c>
       <c r="AA6" s="5" t="s">
-        <v>587</v>
-      </c>
-      <c r="AB6" s="13" t="s">
-        <v>925</v>
+        <v>556</v>
+      </c>
+      <c r="AB6" s="12" t="s">
+        <v>894</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>478</v>
+        <v>447</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>926</v>
+        <v>895</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>927</v>
+        <v>896</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>928</v>
+        <v>897</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>929</v>
+        <v>898</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>930</v>
+        <v>899</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>931</v>
+        <v>900</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>644</v>
+        <v>613</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>932</v>
+        <v>901</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>933</v>
+        <v>902</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>563</v>
+        <v>532</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>934</v>
+        <v>903</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>555</v>
+        <v>524</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>670</v>
+        <v>639</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>935</v>
+        <v>904</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>936</v>
+        <v>905</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>674</v>
+        <v>643</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>937</v>
+        <v>906</v>
       </c>
       <c r="S7" s="5" t="s">
-        <v>938</v>
+        <v>907</v>
       </c>
       <c r="T7" s="5" t="s">
-        <v>507</v>
+        <v>476</v>
       </c>
       <c r="U7" s="5" t="s">
-        <v>939</v>
+        <v>908</v>
       </c>
       <c r="V7" s="5" t="s">
-        <v>940</v>
+        <v>909</v>
       </c>
       <c r="W7" s="5" t="s">
-        <v>941</v>
+        <v>910</v>
       </c>
       <c r="X7" s="5" t="s">
-        <v>501</v>
+        <v>470</v>
       </c>
       <c r="Y7" s="5" t="s">
-        <v>942</v>
+        <v>911</v>
       </c>
       <c r="Z7" s="5" t="s">
-        <v>943</v>
+        <v>912</v>
       </c>
       <c r="AA7" s="5" t="s">
-        <v>944</v>
-      </c>
-      <c r="AB7" s="13" t="s">
-        <v>945</v>
+        <v>913</v>
+      </c>
+      <c r="AB7" s="12" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>479</v>
+        <v>448</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>946</v>
+        <v>915</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>947</v>
+        <v>916</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>948</v>
+        <v>917</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>949</v>
+        <v>918</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>950</v>
+        <v>919</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>951</v>
+        <v>920</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>952</v>
+        <v>921</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>953</v>
+        <v>922</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>954</v>
+        <v>923</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>548</v>
+        <v>517</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>955</v>
+        <v>924</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>956</v>
+        <v>925</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>620</v>
+        <v>589</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>957</v>
+        <v>926</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>958</v>
+        <v>927</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>533</v>
+        <v>502</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>959</v>
+        <v>928</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>960</v>
+        <v>929</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>961</v>
+        <v>930</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>962</v>
+        <v>931</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>963</v>
+        <v>932</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>964</v>
+        <v>933</v>
       </c>
       <c r="X8" s="5" t="s">
-        <v>965</v>
+        <v>934</v>
       </c>
       <c r="Y8" s="5" t="s">
-        <v>966</v>
+        <v>935</v>
       </c>
       <c r="Z8" s="5" t="s">
-        <v>967</v>
+        <v>936</v>
       </c>
       <c r="AA8" s="5" t="s">
-        <v>968</v>
-      </c>
-      <c r="AB8" s="13" t="s">
-        <v>969</v>
+        <v>937</v>
+      </c>
+      <c r="AB8" s="12" t="s">
+        <v>938</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>529</v>
+        <v>498</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>970</v>
+        <v>939</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>971</v>
+        <v>940</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>972</v>
+        <v>941</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>973</v>
+        <v>942</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>974</v>
+        <v>943</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>975</v>
+        <v>944</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>976</v>
+        <v>945</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>977</v>
+        <v>946</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>978</v>
+        <v>947</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>979</v>
+        <v>948</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>980</v>
+        <v>949</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>981</v>
+        <v>950</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>982</v>
+        <v>951</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>983</v>
+        <v>952</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>984</v>
+        <v>953</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>554</v>
+        <v>523</v>
       </c>
       <c r="R9" s="5" t="s">
-        <v>985</v>
+        <v>954</v>
       </c>
       <c r="S9" s="5" t="s">
-        <v>986</v>
+        <v>955</v>
       </c>
       <c r="T9" s="5" t="s">
-        <v>987</v>
+        <v>956</v>
       </c>
       <c r="U9" s="5" t="s">
-        <v>988</v>
+        <v>957</v>
       </c>
       <c r="V9" s="5" t="s">
-        <v>989</v>
+        <v>958</v>
       </c>
       <c r="W9" s="5" t="s">
-        <v>990</v>
+        <v>959</v>
       </c>
       <c r="X9" s="5" t="s">
-        <v>991</v>
+        <v>960</v>
       </c>
       <c r="Y9" s="5" t="s">
-        <v>992</v>
+        <v>961</v>
       </c>
       <c r="Z9" s="5" t="s">
-        <v>993</v>
+        <v>962</v>
       </c>
       <c r="AA9" s="5" t="s">
-        <v>994</v>
-      </c>
-      <c r="AB9" s="13" t="s">
-        <v>995</v>
+        <v>963</v>
+      </c>
+      <c r="AB9" s="12" t="s">
+        <v>964</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>536</v>
+        <v>505</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>996</v>
+        <v>965</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>997</v>
+        <v>966</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>998</v>
+        <v>967</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>999</v>
+        <v>968</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>1000</v>
+        <v>969</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>1001</v>
+        <v>970</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>1002</v>
+        <v>971</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>1003</v>
+        <v>972</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>1004</v>
+        <v>973</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>1005</v>
+        <v>974</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>1006</v>
+        <v>975</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>1007</v>
+        <v>976</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>1008</v>
+        <v>977</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>1009</v>
+        <v>978</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>1010</v>
+        <v>979</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>1011</v>
+        <v>980</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>1012</v>
+        <v>981</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>1013</v>
+        <v>982</v>
       </c>
       <c r="T10" s="5" t="s">
-        <v>632</v>
+        <v>601</v>
       </c>
       <c r="U10" s="5" t="s">
-        <v>1014</v>
+        <v>983</v>
       </c>
       <c r="V10" s="5" t="s">
-        <v>1015</v>
+        <v>984</v>
       </c>
       <c r="W10" s="5" t="s">
-        <v>1016</v>
+        <v>985</v>
       </c>
       <c r="X10" s="5" t="s">
-        <v>1017</v>
+        <v>986</v>
       </c>
       <c r="Y10" s="5" t="s">
-        <v>1018</v>
+        <v>987</v>
       </c>
       <c r="Z10" s="5" t="s">
-        <v>1019</v>
+        <v>988</v>
       </c>
       <c r="AA10" s="5" t="s">
-        <v>1020</v>
-      </c>
-      <c r="AB10" s="13" t="s">
-        <v>853</v>
+        <v>989</v>
+      </c>
+      <c r="AB10" s="12" t="s">
+        <v>822</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>544</v>
+        <v>513</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1021</v>
+        <v>990</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>1022</v>
+        <v>991</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>1023</v>
+        <v>992</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>1024</v>
+        <v>993</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>1025</v>
+        <v>994</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>1026</v>
+        <v>995</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>1027</v>
+        <v>996</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>1028</v>
+        <v>997</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>1029</v>
+        <v>998</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>1030</v>
+        <v>999</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>631</v>
+        <v>600</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>1031</v>
+        <v>1000</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>1032</v>
+        <v>1001</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>1033</v>
+        <v>1002</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>1034</v>
+        <v>1003</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>1035</v>
+        <v>1004</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>1036</v>
+        <v>1005</v>
       </c>
       <c r="S11" s="5" t="s">
-        <v>1037</v>
+        <v>1006</v>
       </c>
       <c r="T11" s="5" t="s">
-        <v>1038</v>
+        <v>1007</v>
       </c>
       <c r="U11" s="5" t="s">
-        <v>1039</v>
+        <v>1008</v>
       </c>
       <c r="V11" s="5" t="s">
-        <v>1040</v>
+        <v>1009</v>
       </c>
       <c r="W11" s="5" t="s">
-        <v>1041</v>
+        <v>1010</v>
       </c>
       <c r="X11" s="5" t="s">
-        <v>1042</v>
+        <v>1011</v>
       </c>
       <c r="Y11" s="5" t="s">
-        <v>1043</v>
+        <v>1012</v>
       </c>
       <c r="Z11" s="5" t="s">
-        <v>1044</v>
+        <v>1013</v>
       </c>
       <c r="AA11" s="5" t="s">
-        <v>1045</v>
-      </c>
-      <c r="AB11" s="13" t="s">
-        <v>877</v>
+        <v>1014</v>
+      </c>
+      <c r="AB11" s="12" t="s">
+        <v>846</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>550</v>
+        <v>519</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1046</v>
+        <v>1015</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>1047</v>
+        <v>1016</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>1048</v>
+        <v>1017</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>1049</v>
+        <v>1018</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>1050</v>
+        <v>1019</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>1051</v>
+        <v>1020</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>1052</v>
+        <v>1021</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>1053</v>
+        <v>1022</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>1054</v>
+        <v>1023</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>671</v>
+        <v>640</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>1055</v>
+        <v>1024</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>1056</v>
+        <v>1025</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>519</v>
+        <v>488</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>1057</v>
+        <v>1026</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>1058</v>
+        <v>1027</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>677</v>
+        <v>646</v>
       </c>
       <c r="R12" s="5" t="s">
-        <v>1059</v>
+        <v>1028</v>
       </c>
       <c r="S12" s="5" t="s">
-        <v>1060</v>
+        <v>1029</v>
       </c>
       <c r="T12" s="5" t="s">
-        <v>1061</v>
+        <v>1030</v>
       </c>
       <c r="U12" s="5" t="s">
-        <v>1062</v>
+        <v>1031</v>
       </c>
       <c r="V12" s="5" t="s">
-        <v>1063</v>
+        <v>1032</v>
       </c>
       <c r="W12" s="5" t="s">
-        <v>1064</v>
+        <v>1033</v>
       </c>
       <c r="X12" s="5" t="s">
-        <v>1065</v>
+        <v>1034</v>
       </c>
       <c r="Y12" s="5" t="s">
-        <v>1066</v>
+        <v>1035</v>
       </c>
       <c r="Z12" s="5" t="s">
-        <v>1067</v>
+        <v>1036</v>
       </c>
       <c r="AA12" s="5" t="s">
-        <v>1068</v>
-      </c>
-      <c r="AB12" s="13" t="s">
-        <v>1069</v>
+        <v>1037</v>
+      </c>
+      <c r="AB12" s="12" t="s">
+        <v>1038</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>558</v>
+        <v>527</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1070</v>
+        <v>1039</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>1071</v>
+        <v>1040</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>1072</v>
+        <v>1041</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>1073</v>
+        <v>1042</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>1074</v>
+        <v>1043</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>1075</v>
+        <v>1044</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>1076</v>
+        <v>1045</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>1077</v>
+        <v>1046</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>1078</v>
+        <v>1047</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>593</v>
+        <v>562</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>1079</v>
+        <v>1048</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>1080</v>
+        <v>1049</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>1081</v>
+        <v>1050</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>1082</v>
+        <v>1051</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>1083</v>
+        <v>1052</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>1084</v>
+        <v>1053</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>1085</v>
+        <v>1054</v>
       </c>
       <c r="S13" s="5" t="s">
-        <v>537</v>
+        <v>506</v>
       </c>
       <c r="T13" s="5" t="s">
-        <v>1086</v>
+        <v>1055</v>
       </c>
       <c r="U13" s="5" t="s">
-        <v>1087</v>
+        <v>1056</v>
       </c>
       <c r="V13" s="5" t="s">
-        <v>1088</v>
+        <v>1057</v>
       </c>
       <c r="W13" s="5" t="s">
-        <v>1089</v>
+        <v>1058</v>
       </c>
       <c r="X13" s="5" t="s">
-        <v>1090</v>
+        <v>1059</v>
       </c>
       <c r="Y13" s="5" t="s">
-        <v>1091</v>
+        <v>1060</v>
       </c>
       <c r="Z13" s="5" t="s">
-        <v>1092</v>
+        <v>1061</v>
       </c>
       <c r="AA13" s="5" t="s">
-        <v>1093</v>
-      </c>
-      <c r="AB13" s="13" t="s">
-        <v>1094</v>
+        <v>1062</v>
+      </c>
+      <c r="AB13" s="12" t="s">
+        <v>1063</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>565</v>
+        <v>534</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1095</v>
+        <v>1064</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>1096</v>
+        <v>1065</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>1097</v>
+        <v>1066</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>1098</v>
+        <v>1067</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>1099</v>
+        <v>1068</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>1100</v>
+        <v>1069</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>1101</v>
+        <v>1070</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>610</v>
+        <v>579</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>666</v>
+        <v>635</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>1102</v>
+        <v>1071</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>1103</v>
+        <v>1072</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>1104</v>
+        <v>1073</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>1105</v>
+        <v>1074</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>590</v>
+        <v>559</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>673</v>
+        <v>642</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>1106</v>
+        <v>1075</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>1107</v>
+        <v>1076</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>1108</v>
+        <v>1077</v>
       </c>
       <c r="T14" s="5" t="s">
-        <v>1109</v>
+        <v>1078</v>
       </c>
       <c r="U14" s="5" t="s">
-        <v>1110</v>
+        <v>1079</v>
       </c>
       <c r="V14" s="5" t="s">
-        <v>1111</v>
+        <v>1080</v>
       </c>
       <c r="W14" s="5" t="s">
-        <v>1112</v>
+        <v>1081</v>
       </c>
       <c r="X14" s="5" t="s">
-        <v>1113</v>
+        <v>1082</v>
       </c>
       <c r="Y14" s="5" t="s">
-        <v>1114</v>
+        <v>1083</v>
       </c>
       <c r="Z14" s="5" t="s">
-        <v>1115</v>
+        <v>1084</v>
       </c>
       <c r="AA14" s="5" t="s">
-        <v>1116</v>
-      </c>
-      <c r="AB14" s="13" t="s">
-        <v>687</v>
+        <v>1085</v>
+      </c>
+      <c r="AB14" s="12" t="s">
+        <v>656</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>573</v>
+        <v>542</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>1117</v>
+        <v>1086</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>1118</v>
+        <v>1087</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>1119</v>
+        <v>1088</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>1120</v>
+        <v>1089</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>494</v>
+        <v>463</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>1121</v>
+        <v>1090</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>1122</v>
+        <v>1091</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>514</v>
+        <v>483</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>1123</v>
+        <v>1092</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>609</v>
+        <v>578</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>1124</v>
+        <v>1093</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>1125</v>
+        <v>1094</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>614</v>
+        <v>583</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>1126</v>
+        <v>1095</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>586</v>
+        <v>555</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>1127</v>
+        <v>1096</v>
       </c>
       <c r="R15" s="5" t="s">
-        <v>1128</v>
+        <v>1097</v>
       </c>
       <c r="S15" s="5" t="s">
-        <v>523</v>
+        <v>492</v>
       </c>
       <c r="T15" s="5" t="s">
-        <v>1129</v>
+        <v>1098</v>
       </c>
       <c r="U15" s="5" t="s">
-        <v>1130</v>
+        <v>1099</v>
       </c>
       <c r="V15" s="5" t="s">
-        <v>1131</v>
+        <v>1100</v>
       </c>
       <c r="W15" s="5" t="s">
-        <v>1132</v>
+        <v>1101</v>
       </c>
       <c r="X15" s="5" t="s">
-        <v>1133</v>
+        <v>1102</v>
       </c>
       <c r="Y15" s="5" t="s">
-        <v>1134</v>
+        <v>1103</v>
       </c>
       <c r="Z15" s="5" t="s">
-        <v>1135</v>
+        <v>1104</v>
       </c>
       <c r="AA15" s="5" t="s">
-        <v>598</v>
-      </c>
-      <c r="AB15" s="13" t="s">
-        <v>1136</v>
+        <v>567</v>
+      </c>
+      <c r="AB15" s="12" t="s">
+        <v>1105</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>581</v>
+        <v>550</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>1137</v>
+        <v>1106</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>1138</v>
+        <v>1107</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>1139</v>
+        <v>1108</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>1140</v>
+        <v>1109</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>1141</v>
+        <v>1110</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>1142</v>
+        <v>1111</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>1143</v>
+        <v>1112</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>1144</v>
+        <v>1113</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>1145</v>
+        <v>1114</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>1146</v>
+        <v>1115</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>1147</v>
+        <v>1116</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>1148</v>
+        <v>1117</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>1149</v>
+        <v>1118</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>527</v>
+        <v>496</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>1150</v>
+        <v>1119</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>1151</v>
+        <v>1120</v>
       </c>
       <c r="R16" s="5" t="s">
-        <v>1152</v>
+        <v>1121</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>1153</v>
+        <v>1122</v>
       </c>
       <c r="T16" s="5" t="s">
-        <v>1154</v>
+        <v>1123</v>
       </c>
       <c r="U16" s="5" t="s">
-        <v>1155</v>
+        <v>1124</v>
       </c>
       <c r="V16" s="5" t="s">
-        <v>1156</v>
+        <v>1125</v>
       </c>
       <c r="W16" s="5" t="s">
-        <v>1157</v>
+        <v>1126</v>
       </c>
       <c r="X16" s="5" t="s">
-        <v>1158</v>
+        <v>1127</v>
       </c>
       <c r="Y16" s="5" t="s">
-        <v>1159</v>
+        <v>1128</v>
       </c>
       <c r="Z16" s="5" t="s">
-        <v>1160</v>
+        <v>1129</v>
       </c>
       <c r="AA16" s="5" t="s">
-        <v>1161</v>
-      </c>
-      <c r="AB16" s="13" t="s">
-        <v>694</v>
+        <v>1130</v>
+      </c>
+      <c r="AB16" s="12" t="s">
+        <v>663</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>589</v>
+        <v>558</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1162</v>
+        <v>1131</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>1163</v>
+        <v>1132</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>1164</v>
+        <v>1133</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>1165</v>
+        <v>1134</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>1166</v>
+        <v>1135</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>1167</v>
+        <v>1136</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>1168</v>
+        <v>1137</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>1169</v>
+        <v>1138</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>578</v>
+        <v>547</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>633</v>
+        <v>602</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>1170</v>
+        <v>1139</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>1171</v>
+        <v>1140</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>1172</v>
+        <v>1141</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>1173</v>
+        <v>1142</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>1174</v>
+        <v>1143</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>1175</v>
+        <v>1144</v>
       </c>
       <c r="R17" s="5" t="s">
-        <v>669</v>
+        <v>638</v>
       </c>
       <c r="S17" s="5" t="s">
-        <v>1176</v>
+        <v>1145</v>
       </c>
       <c r="T17" s="5" t="s">
-        <v>1177</v>
+        <v>1146</v>
       </c>
       <c r="U17" s="5" t="s">
-        <v>1178</v>
+        <v>1147</v>
       </c>
       <c r="V17" s="5" t="s">
-        <v>1179</v>
+        <v>1148</v>
       </c>
       <c r="W17" s="5" t="s">
-        <v>1180</v>
+        <v>1149</v>
       </c>
       <c r="X17" s="5" t="s">
-        <v>1181</v>
+        <v>1150</v>
       </c>
       <c r="Y17" s="5" t="s">
-        <v>648</v>
+        <v>617</v>
       </c>
       <c r="Z17" s="5" t="s">
-        <v>1182</v>
+        <v>1151</v>
       </c>
       <c r="AA17" s="5" t="s">
-        <v>1183</v>
-      </c>
-      <c r="AB17" s="13" t="s">
-        <v>696</v>
+        <v>1152</v>
+      </c>
+      <c r="AB17" s="12" t="s">
+        <v>665</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>596</v>
+        <v>565</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>1184</v>
+        <v>1153</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>1185</v>
+        <v>1154</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>1186</v>
+        <v>1155</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>1187</v>
+        <v>1156</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>625</v>
+        <v>594</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>562</v>
+        <v>531</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>1188</v>
+        <v>1157</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>1189</v>
+        <v>1158</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>1190</v>
+        <v>1159</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>1191</v>
+        <v>1160</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>1192</v>
+        <v>1161</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>566</v>
+        <v>535</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>1193</v>
+        <v>1162</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>1194</v>
+        <v>1163</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>1195</v>
+        <v>1164</v>
       </c>
       <c r="Q18" s="5" t="s">
-        <v>1196</v>
+        <v>1165</v>
       </c>
       <c r="R18" s="5" t="s">
-        <v>1197</v>
+        <v>1166</v>
       </c>
       <c r="S18" s="5" t="s">
-        <v>637</v>
+        <v>606</v>
       </c>
       <c r="T18" s="5" t="s">
-        <v>1198</v>
+        <v>1167</v>
       </c>
       <c r="U18" s="5" t="s">
-        <v>1199</v>
+        <v>1168</v>
       </c>
       <c r="V18" s="5" t="s">
-        <v>1200</v>
+        <v>1169</v>
       </c>
       <c r="W18" s="5" t="s">
-        <v>1201</v>
+        <v>1170</v>
       </c>
       <c r="X18" s="5" t="s">
-        <v>1202</v>
+        <v>1171</v>
       </c>
       <c r="Y18" s="5" t="s">
-        <v>1203</v>
+        <v>1172</v>
       </c>
       <c r="Z18" s="5" t="s">
-        <v>1204</v>
+        <v>1173</v>
       </c>
       <c r="AA18" s="5" t="s">
-        <v>1205</v>
-      </c>
-      <c r="AB18" s="13" t="s">
-        <v>945</v>
+        <v>1174</v>
+      </c>
+      <c r="AB18" s="12" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>604</v>
+        <v>573</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>1206</v>
+        <v>1175</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>1207</v>
+        <v>1176</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>1208</v>
+        <v>1177</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>1209</v>
+        <v>1178</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>1210</v>
+        <v>1179</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>1211</v>
+        <v>1180</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>1212</v>
+        <v>1181</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>597</v>
+        <v>566</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>1213</v>
+        <v>1182</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>579</v>
+        <v>548</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>545</v>
+        <v>514</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>1214</v>
+        <v>1183</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>571</v>
+        <v>540</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>1215</v>
+        <v>1184</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>1216</v>
+        <v>1185</v>
       </c>
       <c r="Q19" s="5" t="s">
-        <v>1217</v>
+        <v>1186</v>
       </c>
       <c r="R19" s="5" t="s">
-        <v>1218</v>
+        <v>1187</v>
       </c>
       <c r="S19" s="5" t="s">
-        <v>1219</v>
+        <v>1188</v>
       </c>
       <c r="T19" s="5" t="s">
-        <v>1220</v>
+        <v>1189</v>
       </c>
       <c r="U19" s="5" t="s">
-        <v>1221</v>
+        <v>1190</v>
       </c>
       <c r="V19" s="5" t="s">
-        <v>1222</v>
+        <v>1191</v>
       </c>
       <c r="W19" s="5" t="s">
-        <v>1223</v>
+        <v>1192</v>
       </c>
       <c r="X19" s="5" t="s">
-        <v>1224</v>
+        <v>1193</v>
       </c>
       <c r="Y19" s="5" t="s">
-        <v>1225</v>
+        <v>1194</v>
       </c>
       <c r="Z19" s="5" t="s">
-        <v>1226</v>
+        <v>1195</v>
       </c>
       <c r="AA19" s="5" t="s">
-        <v>1227</v>
-      </c>
-      <c r="AB19" s="13" t="s">
-        <v>1228</v>
+        <v>1196</v>
+      </c>
+      <c r="AB19" s="12" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>612</v>
+        <v>581</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1229</v>
+        <v>1198</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>1230</v>
+        <v>1199</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>1231</v>
+        <v>1200</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>1232</v>
+        <v>1201</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>1233</v>
+        <v>1202</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>1234</v>
+        <v>1203</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>1235</v>
+        <v>1204</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>1236</v>
+        <v>1205</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>676</v>
+        <v>645</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>531</v>
+        <v>500</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>1237</v>
+        <v>1206</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>1238</v>
+        <v>1207</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>1239</v>
+        <v>1208</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>1240</v>
+        <v>1209</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>1241</v>
+        <v>1210</v>
       </c>
       <c r="Q20" s="5" t="s">
-        <v>1242</v>
+        <v>1211</v>
       </c>
       <c r="R20" s="5" t="s">
-        <v>1243</v>
+        <v>1212</v>
       </c>
       <c r="S20" s="5" t="s">
-        <v>1244</v>
+        <v>1213</v>
       </c>
       <c r="T20" s="5" t="s">
-        <v>1245</v>
+        <v>1214</v>
       </c>
       <c r="U20" s="5" t="s">
-        <v>1246</v>
+        <v>1215</v>
       </c>
       <c r="V20" s="5" t="s">
-        <v>1247</v>
+        <v>1216</v>
       </c>
       <c r="W20" s="5" t="s">
-        <v>1248</v>
+        <v>1217</v>
       </c>
       <c r="X20" s="5" t="s">
-        <v>508</v>
+        <v>477</v>
       </c>
       <c r="Y20" s="5" t="s">
-        <v>1249</v>
+        <v>1218</v>
       </c>
       <c r="Z20" s="5" t="s">
-        <v>1250</v>
+        <v>1219</v>
       </c>
       <c r="AA20" s="5" t="s">
-        <v>1251</v>
-      </c>
-      <c r="AB20" s="13" t="s">
-        <v>1252</v>
+        <v>1220</v>
+      </c>
+      <c r="AB20" s="12" t="s">
+        <v>1221</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>619</v>
+        <v>588</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>1253</v>
+        <v>1222</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>1254</v>
+        <v>1223</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>1255</v>
+        <v>1224</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>1256</v>
+        <v>1225</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>1257</v>
+        <v>1226</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>652</v>
+        <v>621</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>1258</v>
+        <v>1227</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>1259</v>
+        <v>1228</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>1260</v>
+        <v>1229</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>1261</v>
+        <v>1230</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>1262</v>
+        <v>1231</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>682</v>
+        <v>651</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>1263</v>
+        <v>1232</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>1264</v>
+        <v>1233</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>1265</v>
+        <v>1234</v>
       </c>
       <c r="Q21" s="5" t="s">
-        <v>1266</v>
+        <v>1235</v>
       </c>
       <c r="R21" s="5" t="s">
-        <v>1267</v>
+        <v>1236</v>
       </c>
       <c r="S21" s="5" t="s">
-        <v>1268</v>
+        <v>1237</v>
       </c>
       <c r="T21" s="5" t="s">
-        <v>1269</v>
+        <v>1238</v>
       </c>
       <c r="U21" s="5" t="s">
-        <v>1270</v>
+        <v>1239</v>
       </c>
       <c r="V21" s="5" t="s">
-        <v>1271</v>
+        <v>1240</v>
       </c>
       <c r="W21" s="5" t="s">
-        <v>1272</v>
+        <v>1241</v>
       </c>
       <c r="X21" s="5" t="s">
-        <v>1273</v>
+        <v>1242</v>
       </c>
       <c r="Y21" s="5" t="s">
-        <v>1274</v>
+        <v>1243</v>
       </c>
       <c r="Z21" s="5" t="s">
-        <v>1275</v>
+        <v>1244</v>
       </c>
       <c r="AA21" s="5" t="s">
-        <v>482</v>
-      </c>
-      <c r="AB21" s="13" t="s">
-        <v>688</v>
+        <v>451</v>
+      </c>
+      <c r="AB21" s="12" t="s">
+        <v>657</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>627</v>
+        <v>596</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>1276</v>
+        <v>1245</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>1277</v>
+        <v>1246</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>1278</v>
+        <v>1247</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>1279</v>
+        <v>1248</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>1280</v>
+        <v>1249</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>1281</v>
+        <v>1250</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>1282</v>
+        <v>1251</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>1283</v>
+        <v>1252</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>1284</v>
+        <v>1253</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>1285</v>
+        <v>1254</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>1286</v>
+        <v>1255</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>1287</v>
+        <v>1256</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>654</v>
+        <v>623</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>513</v>
+        <v>482</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>1288</v>
+        <v>1257</v>
       </c>
       <c r="Q22" s="5" t="s">
-        <v>1289</v>
+        <v>1258</v>
       </c>
       <c r="R22" s="5" t="s">
-        <v>1290</v>
+        <v>1259</v>
       </c>
       <c r="S22" s="5" t="s">
-        <v>1291</v>
+        <v>1260</v>
       </c>
       <c r="T22" s="5" t="s">
-        <v>1292</v>
+        <v>1261</v>
       </c>
       <c r="U22" s="5" t="s">
-        <v>1293</v>
+        <v>1262</v>
       </c>
       <c r="V22" s="5" t="s">
-        <v>1294</v>
+        <v>1263</v>
       </c>
       <c r="W22" s="5" t="s">
-        <v>1295</v>
+        <v>1264</v>
       </c>
       <c r="X22" s="5" t="s">
-        <v>1296</v>
+        <v>1265</v>
       </c>
       <c r="Y22" s="5" t="s">
-        <v>1297</v>
+        <v>1266</v>
       </c>
       <c r="Z22" s="5" t="s">
-        <v>659</v>
+        <v>628</v>
       </c>
       <c r="AA22" s="5" t="s">
-        <v>1298</v>
-      </c>
-      <c r="AB22" s="13" t="s">
-        <v>1299</v>
+        <v>1267</v>
+      </c>
+      <c r="AB22" s="12" t="s">
+        <v>1268</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>635</v>
+        <v>604</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>1300</v>
+        <v>1269</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>1301</v>
+        <v>1270</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>1302</v>
+        <v>1271</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>1303</v>
+        <v>1272</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>1304</v>
+        <v>1273</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>1305</v>
+        <v>1274</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>1306</v>
+        <v>1275</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>1307</v>
+        <v>1276</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>1308</v>
+        <v>1277</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>1309</v>
+        <v>1278</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>1310</v>
+        <v>1279</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>1311</v>
+        <v>1280</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>1312</v>
+        <v>1281</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>1313</v>
+        <v>1282</v>
       </c>
       <c r="P23" s="5" t="s">
-        <v>1314</v>
+        <v>1283</v>
       </c>
       <c r="Q23" s="5" t="s">
-        <v>1315</v>
+        <v>1284</v>
       </c>
       <c r="R23" s="5" t="s">
-        <v>1316</v>
+        <v>1285</v>
       </c>
       <c r="S23" s="5" t="s">
-        <v>1317</v>
+        <v>1286</v>
       </c>
       <c r="T23" s="5" t="s">
-        <v>1318</v>
+        <v>1287</v>
       </c>
       <c r="U23" s="5" t="s">
-        <v>1319</v>
+        <v>1288</v>
       </c>
       <c r="V23" s="5" t="s">
-        <v>661</v>
+        <v>630</v>
       </c>
       <c r="W23" s="5" t="s">
-        <v>1320</v>
+        <v>1289</v>
       </c>
       <c r="X23" s="5" t="s">
-        <v>1321</v>
+        <v>1290</v>
       </c>
       <c r="Y23" s="5" t="s">
-        <v>1322</v>
+        <v>1291</v>
       </c>
       <c r="Z23" s="5" t="s">
-        <v>1323</v>
+        <v>1292</v>
       </c>
       <c r="AA23" s="5" t="s">
-        <v>1324</v>
-      </c>
-      <c r="AB23" s="13" t="s">
-        <v>1325</v>
+        <v>1293</v>
+      </c>
+      <c r="AB23" s="12" t="s">
+        <v>1294</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>643</v>
+        <v>612</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>1326</v>
+        <v>1295</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>1327</v>
+        <v>1296</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>1328</v>
+        <v>1297</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>1329</v>
+        <v>1298</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>1330</v>
+        <v>1299</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>1331</v>
+        <v>1300</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>602</v>
+        <v>571</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>1332</v>
+        <v>1301</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>1333</v>
+        <v>1302</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>1334</v>
+        <v>1303</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>1335</v>
+        <v>1304</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>1336</v>
+        <v>1305</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>1337</v>
+        <v>1306</v>
       </c>
       <c r="O24" s="5" t="s">
-        <v>1338</v>
+        <v>1307</v>
       </c>
       <c r="P24" s="5" t="s">
-        <v>1339</v>
+        <v>1308</v>
       </c>
       <c r="Q24" s="5" t="s">
-        <v>1340</v>
+        <v>1309</v>
       </c>
       <c r="R24" s="5" t="s">
-        <v>1341</v>
+        <v>1310</v>
       </c>
       <c r="S24" s="5" t="s">
-        <v>1342</v>
+        <v>1311</v>
       </c>
       <c r="T24" s="5" t="s">
-        <v>1343</v>
+        <v>1312</v>
       </c>
       <c r="U24" s="5" t="s">
-        <v>1344</v>
+        <v>1313</v>
       </c>
       <c r="V24" s="5" t="s">
-        <v>1345</v>
+        <v>1314</v>
       </c>
       <c r="W24" s="5" t="s">
-        <v>1346</v>
+        <v>1315</v>
       </c>
       <c r="X24" s="5" t="s">
-        <v>1347</v>
+        <v>1316</v>
       </c>
       <c r="Y24" s="5" t="s">
-        <v>1348</v>
+        <v>1317</v>
       </c>
       <c r="Z24" s="5" t="s">
-        <v>1349</v>
+        <v>1318</v>
       </c>
       <c r="AA24" s="5" t="s">
-        <v>1350</v>
-      </c>
-      <c r="AB24" s="13" t="s">
-        <v>1351</v>
+        <v>1319</v>
+      </c>
+      <c r="AB24" s="12" t="s">
+        <v>1320</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>650</v>
+        <v>619</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>1352</v>
+        <v>1321</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>1353</v>
+        <v>1322</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>1354</v>
+        <v>1323</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>1355</v>
+        <v>1324</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>1356</v>
+        <v>1325</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>1357</v>
+        <v>1326</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>1358</v>
+        <v>1327</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>1359</v>
+        <v>1328</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>1360</v>
+        <v>1329</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>1361</v>
+        <v>1330</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>1362</v>
+        <v>1331</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>1363</v>
+        <v>1332</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>1364</v>
+        <v>1333</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>1365</v>
+        <v>1334</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>1366</v>
+        <v>1335</v>
       </c>
       <c r="Q25" s="5" t="s">
-        <v>595</v>
+        <v>564</v>
       </c>
       <c r="R25" s="5" t="s">
-        <v>1367</v>
+        <v>1336</v>
       </c>
       <c r="S25" s="5" t="s">
-        <v>1368</v>
+        <v>1337</v>
       </c>
       <c r="T25" s="5" t="s">
-        <v>547</v>
+        <v>516</v>
       </c>
       <c r="U25" s="5" t="s">
-        <v>1369</v>
+        <v>1338</v>
       </c>
       <c r="V25" s="5" t="s">
-        <v>1370</v>
+        <v>1339</v>
       </c>
       <c r="W25" s="5" t="s">
-        <v>1371</v>
+        <v>1340</v>
       </c>
       <c r="X25" s="5" t="s">
-        <v>1372</v>
+        <v>1341</v>
       </c>
       <c r="Y25" s="5" t="s">
-        <v>1373</v>
+        <v>1342</v>
       </c>
       <c r="Z25" s="5" t="s">
-        <v>1374</v>
+        <v>1343</v>
       </c>
       <c r="AA25" s="5" t="s">
-        <v>1375</v>
-      </c>
-      <c r="AB25" s="13" t="s">
-        <v>995</v>
+        <v>1344</v>
+      </c>
+      <c r="AB25" s="12" t="s">
+        <v>964</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>657</v>
+        <v>626</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>1376</v>
+        <v>1345</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>1377</v>
+        <v>1346</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>1378</v>
+        <v>1347</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>1379</v>
+        <v>1348</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>1380</v>
+        <v>1349</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>1381</v>
+        <v>1350</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>1382</v>
+        <v>1351</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>1383</v>
+        <v>1352</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>1384</v>
+        <v>1353</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>1385</v>
+        <v>1354</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>1386</v>
+        <v>1355</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>518</v>
+        <v>487</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>1387</v>
+        <v>1356</v>
       </c>
       <c r="O26" s="5" t="s">
-        <v>640</v>
+        <v>609</v>
       </c>
       <c r="P26" s="5" t="s">
-        <v>1388</v>
+        <v>1357</v>
       </c>
       <c r="Q26" s="5" t="s">
-        <v>683</v>
+        <v>652</v>
       </c>
       <c r="R26" s="5" t="s">
-        <v>1389</v>
+        <v>1358</v>
       </c>
       <c r="S26" s="5" t="s">
-        <v>1390</v>
+        <v>1359</v>
       </c>
       <c r="T26" s="5" t="s">
-        <v>1391</v>
+        <v>1360</v>
       </c>
       <c r="U26" s="5" t="s">
-        <v>1392</v>
+        <v>1361</v>
       </c>
       <c r="V26" s="5" t="s">
-        <v>1393</v>
+        <v>1362</v>
       </c>
       <c r="W26" s="5" t="s">
-        <v>1394</v>
+        <v>1363</v>
       </c>
       <c r="X26" s="5" t="s">
-        <v>1395</v>
+        <v>1364</v>
       </c>
       <c r="Y26" s="5" t="s">
-        <v>1396</v>
+        <v>1365</v>
       </c>
       <c r="Z26" s="5" t="s">
-        <v>1397</v>
+        <v>1366</v>
       </c>
       <c r="AA26" s="5" t="s">
-        <v>1398</v>
-      </c>
-      <c r="AB26" s="13" t="s">
-        <v>1399</v>
+        <v>1367</v>
+      </c>
+      <c r="AB26" s="12" t="s">
+        <v>1368</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>665</v>
+        <v>634</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>1400</v>
+        <v>1369</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>1401</v>
+        <v>1370</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>1402</v>
+        <v>1371</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>1403</v>
+        <v>1372</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>1404</v>
+        <v>1373</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>1405</v>
+        <v>1374</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>1406</v>
+        <v>1375</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>1407</v>
+        <v>1376</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>1408</v>
+        <v>1377</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>1409</v>
+        <v>1378</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>1410</v>
+        <v>1379</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>1411</v>
+        <v>1380</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>1412</v>
+        <v>1381</v>
       </c>
       <c r="O27" s="5" t="s">
-        <v>1413</v>
+        <v>1382</v>
       </c>
       <c r="P27" s="5" t="s">
-        <v>1414</v>
+        <v>1383</v>
       </c>
       <c r="Q27" s="5" t="s">
-        <v>1415</v>
+        <v>1384</v>
       </c>
       <c r="R27" s="5" t="s">
-        <v>1416</v>
+        <v>1385</v>
       </c>
       <c r="S27" s="5" t="s">
-        <v>1417</v>
+        <v>1386</v>
       </c>
       <c r="T27" s="5" t="s">
-        <v>1418</v>
+        <v>1387</v>
       </c>
       <c r="U27" s="5" t="s">
-        <v>1419</v>
+        <v>1388</v>
       </c>
       <c r="V27" s="5" t="s">
-        <v>496</v>
+        <v>465</v>
       </c>
       <c r="W27" s="5" t="s">
-        <v>1420</v>
+        <v>1389</v>
       </c>
       <c r="X27" s="5" t="s">
-        <v>1421</v>
+        <v>1390</v>
       </c>
       <c r="Y27" s="5" t="s">
-        <v>1422</v>
+        <v>1391</v>
       </c>
       <c r="Z27" s="5" t="s">
-        <v>1423</v>
+        <v>1392</v>
       </c>
       <c r="AA27" s="5" t="s">
-        <v>1424</v>
-      </c>
-      <c r="AB27" s="13" t="s">
-        <v>1425</v>
+        <v>1393</v>
+      </c>
+      <c r="AB27" s="12" t="s">
+        <v>1394</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>672</v>
+        <v>641</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>1426</v>
+        <v>1395</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>1427</v>
+        <v>1396</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>1428</v>
+        <v>1397</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>1429</v>
+        <v>1398</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>1430</v>
+        <v>1399</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>1431</v>
+        <v>1400</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>628</v>
+        <v>597</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>1432</v>
+        <v>1401</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>1433</v>
+        <v>1402</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>1434</v>
+        <v>1403</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>1435</v>
+        <v>1404</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>1436</v>
+        <v>1405</v>
       </c>
       <c r="N28" s="5" t="s">
-        <v>1437</v>
+        <v>1406</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>1438</v>
+        <v>1407</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>1439</v>
+        <v>1408</v>
       </c>
       <c r="Q28" s="5" t="s">
-        <v>1440</v>
+        <v>1409</v>
       </c>
       <c r="R28" s="5" t="s">
-        <v>1441</v>
+        <v>1410</v>
       </c>
       <c r="S28" s="5" t="s">
-        <v>1442</v>
+        <v>1411</v>
       </c>
       <c r="T28" s="5" t="s">
-        <v>1443</v>
+        <v>1412</v>
       </c>
       <c r="U28" s="5" t="s">
-        <v>1444</v>
+        <v>1413</v>
       </c>
       <c r="V28" s="5" t="s">
-        <v>1445</v>
+        <v>1414</v>
       </c>
       <c r="W28" s="5" t="s">
-        <v>1446</v>
+        <v>1415</v>
       </c>
       <c r="X28" s="5" t="s">
-        <v>1447</v>
+        <v>1416</v>
       </c>
       <c r="Y28" s="5" t="s">
-        <v>1448</v>
+        <v>1417</v>
       </c>
       <c r="Z28" s="5" t="s">
-        <v>1449</v>
+        <v>1418</v>
       </c>
       <c r="AA28" s="5" t="s">
-        <v>1450</v>
-      </c>
-      <c r="AB28" s="13" t="s">
-        <v>1451</v>
+        <v>1419</v>
+      </c>
+      <c r="AB28" s="12" t="s">
+        <v>1420</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>678</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>1452</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>1453</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>1454</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>1455</v>
-      </c>
-      <c r="F29" s="14" t="s">
-        <v>1456</v>
-      </c>
-      <c r="G29" s="14" t="s">
-        <v>1457</v>
-      </c>
-      <c r="H29" s="14" t="s">
-        <v>1458</v>
-      </c>
-      <c r="I29" s="14" t="s">
-        <v>1459</v>
-      </c>
-      <c r="J29" s="14" t="s">
-        <v>1460</v>
-      </c>
-      <c r="K29" s="14" t="s">
-        <v>1461</v>
-      </c>
-      <c r="L29" s="14" t="s">
-        <v>1462</v>
-      </c>
-      <c r="M29" s="14" t="s">
-        <v>1463</v>
-      </c>
-      <c r="N29" s="14" t="s">
-        <v>1464</v>
-      </c>
-      <c r="O29" s="14" t="s">
-        <v>1465</v>
-      </c>
-      <c r="P29" s="14" t="s">
-        <v>1466</v>
-      </c>
-      <c r="Q29" s="14" t="s">
-        <v>1467</v>
-      </c>
-      <c r="R29" s="14" t="s">
-        <v>1468</v>
-      </c>
-      <c r="S29" s="14" t="s">
-        <v>1469</v>
-      </c>
-      <c r="T29" s="14" t="s">
-        <v>1470</v>
-      </c>
-      <c r="U29" s="14" t="s">
-        <v>1471</v>
-      </c>
-      <c r="V29" s="14" t="s">
-        <v>1472</v>
-      </c>
-      <c r="W29" s="14" t="s">
-        <v>1473</v>
-      </c>
-      <c r="X29" s="14" t="s">
-        <v>1238</v>
-      </c>
-      <c r="Y29" s="14" t="s">
-        <v>1474</v>
-      </c>
-      <c r="Z29" s="14" t="s">
-        <v>1475</v>
-      </c>
-      <c r="AA29" s="14" t="s">
-        <v>1476</v>
-      </c>
-      <c r="AB29" s="13" t="s">
-        <v>1477</v>
+        <v>647</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>1422</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>1423</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>1424</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>1425</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>1426</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>1427</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>1428</v>
+      </c>
+      <c r="J29" s="13" t="s">
+        <v>1429</v>
+      </c>
+      <c r="K29" s="13" t="s">
+        <v>1430</v>
+      </c>
+      <c r="L29" s="13" t="s">
+        <v>1431</v>
+      </c>
+      <c r="M29" s="13" t="s">
+        <v>1432</v>
+      </c>
+      <c r="N29" s="13" t="s">
+        <v>1433</v>
+      </c>
+      <c r="O29" s="13" t="s">
+        <v>1434</v>
+      </c>
+      <c r="P29" s="13" t="s">
+        <v>1435</v>
+      </c>
+      <c r="Q29" s="13" t="s">
+        <v>1436</v>
+      </c>
+      <c r="R29" s="13" t="s">
+        <v>1437</v>
+      </c>
+      <c r="S29" s="13" t="s">
+        <v>1438</v>
+      </c>
+      <c r="T29" s="13" t="s">
+        <v>1439</v>
+      </c>
+      <c r="U29" s="13" t="s">
+        <v>1440</v>
+      </c>
+      <c r="V29" s="13" t="s">
+        <v>1441</v>
+      </c>
+      <c r="W29" s="13" t="s">
+        <v>1442</v>
+      </c>
+      <c r="X29" s="13" t="s">
+        <v>1207</v>
+      </c>
+      <c r="Y29" s="13" t="s">
+        <v>1443</v>
+      </c>
+      <c r="Z29" s="13" t="s">
+        <v>1444</v>
+      </c>
+      <c r="AA29" s="13" t="s">
+        <v>1445</v>
+      </c>
+      <c r="AB29" s="12" t="s">
+        <v>1446</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>1478</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>1479</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>1480</v>
-      </c>
-      <c r="E30" s="14" t="s">
-        <v>1481</v>
-      </c>
-      <c r="F30" s="14" t="s">
-        <v>1482</v>
-      </c>
-      <c r="G30" s="14" t="s">
-        <v>1483</v>
-      </c>
-      <c r="H30" s="14" t="s">
-        <v>1484</v>
-      </c>
-      <c r="I30" s="14" t="s">
-        <v>1485</v>
-      </c>
-      <c r="J30" s="14" t="s">
-        <v>1486</v>
-      </c>
-      <c r="K30" s="14" t="s">
-        <v>1487</v>
-      </c>
-      <c r="L30" s="14" t="s">
-        <v>1488</v>
-      </c>
-      <c r="M30" s="14" t="s">
-        <v>1489</v>
-      </c>
-      <c r="N30" s="14" t="s">
-        <v>1490</v>
-      </c>
-      <c r="O30" s="14" t="s">
-        <v>1299</v>
-      </c>
-      <c r="P30" s="14" t="s">
-        <v>1491</v>
-      </c>
-      <c r="Q30" s="14" t="s">
-        <v>1492</v>
-      </c>
-      <c r="R30" s="14" t="s">
-        <v>1493</v>
-      </c>
-      <c r="S30" s="14" t="s">
-        <v>694</v>
-      </c>
-      <c r="T30" s="14" t="s">
-        <v>1494</v>
-      </c>
-      <c r="U30" s="14" t="s">
-        <v>1495</v>
-      </c>
-      <c r="V30" s="14" t="s">
-        <v>1496</v>
-      </c>
-      <c r="W30" s="14" t="s">
-        <v>1497</v>
-      </c>
-      <c r="X30" s="14" t="s">
-        <v>1498</v>
-      </c>
-      <c r="Y30" s="14" t="s">
-        <v>1499</v>
-      </c>
-      <c r="Z30" s="14" t="s">
-        <v>1500</v>
-      </c>
-      <c r="AA30" s="14" t="s">
-        <v>1501</v>
-      </c>
-      <c r="AB30" s="13" t="s">
-        <v>1502</v>
+        <v>449</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>1448</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>1449</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>1450</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>1451</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>1452</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>1453</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>1454</v>
+      </c>
+      <c r="J30" s="13" t="s">
+        <v>1455</v>
+      </c>
+      <c r="K30" s="13" t="s">
+        <v>1456</v>
+      </c>
+      <c r="L30" s="13" t="s">
+        <v>1457</v>
+      </c>
+      <c r="M30" s="13" t="s">
+        <v>1458</v>
+      </c>
+      <c r="N30" s="13" t="s">
+        <v>1459</v>
+      </c>
+      <c r="O30" s="13" t="s">
+        <v>1268</v>
+      </c>
+      <c r="P30" s="13" t="s">
+        <v>1460</v>
+      </c>
+      <c r="Q30" s="13" t="s">
+        <v>1461</v>
+      </c>
+      <c r="R30" s="13" t="s">
+        <v>1462</v>
+      </c>
+      <c r="S30" s="13" t="s">
+        <v>663</v>
+      </c>
+      <c r="T30" s="13" t="s">
+        <v>1463</v>
+      </c>
+      <c r="U30" s="13" t="s">
+        <v>1464</v>
+      </c>
+      <c r="V30" s="13" t="s">
+        <v>1465</v>
+      </c>
+      <c r="W30" s="13" t="s">
+        <v>1466</v>
+      </c>
+      <c r="X30" s="13" t="s">
+        <v>1467</v>
+      </c>
+      <c r="Y30" s="13" t="s">
+        <v>1468</v>
+      </c>
+      <c r="Z30" s="13" t="s">
+        <v>1469</v>
+      </c>
+      <c r="AA30" s="13" t="s">
+        <v>1470</v>
+      </c>
+      <c r="AB30" s="12" t="s">
+        <v>1471</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>693</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>853</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>1503</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>1504</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>1505</v>
-      </c>
-      <c r="F31" s="14" t="s">
-        <v>1506</v>
-      </c>
-      <c r="G31" s="14" t="s">
-        <v>1507</v>
-      </c>
-      <c r="H31" s="14" t="s">
-        <v>1508</v>
-      </c>
-      <c r="I31" s="14" t="s">
+        <v>662</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>822</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>1472</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>1473</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>1474</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>1475</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>1476</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>1477</v>
+      </c>
+      <c r="I31" s="13" t="s">
+        <v>1453</v>
+      </c>
+      <c r="J31" s="13" t="s">
+        <v>663</v>
+      </c>
+      <c r="K31" s="13" t="s">
+        <v>1478</v>
+      </c>
+      <c r="L31" s="13" t="s">
+        <v>1479</v>
+      </c>
+      <c r="M31" s="13" t="s">
+        <v>1480</v>
+      </c>
+      <c r="N31" s="13" t="s">
+        <v>1460</v>
+      </c>
+      <c r="O31" s="13" t="s">
+        <v>1481</v>
+      </c>
+      <c r="P31" s="13" t="s">
+        <v>964</v>
+      </c>
+      <c r="Q31" s="13" t="s">
+        <v>1482</v>
+      </c>
+      <c r="R31" s="13" t="s">
+        <v>1483</v>
+      </c>
+      <c r="S31" s="13" t="s">
         <v>1484</v>
       </c>
-      <c r="J31" s="14" t="s">
-        <v>694</v>
-      </c>
-      <c r="K31" s="14" t="s">
-        <v>1509</v>
-      </c>
-      <c r="L31" s="14" t="s">
-        <v>1510</v>
-      </c>
-      <c r="M31" s="14" t="s">
-        <v>1511</v>
-      </c>
-      <c r="N31" s="14" t="s">
+      <c r="T31" s="13" t="s">
+        <v>1485</v>
+      </c>
+      <c r="U31" s="13" t="s">
+        <v>1486</v>
+      </c>
+      <c r="V31" s="13" t="s">
+        <v>1487</v>
+      </c>
+      <c r="W31" s="13" t="s">
+        <v>1488</v>
+      </c>
+      <c r="X31" s="13" t="s">
+        <v>1489</v>
+      </c>
+      <c r="Y31" s="13" t="s">
+        <v>1490</v>
+      </c>
+      <c r="Z31" s="13" t="s">
+        <v>1394</v>
+      </c>
+      <c r="AA31" s="13" t="s">
         <v>1491</v>
       </c>
-      <c r="O31" s="14" t="s">
-        <v>1512</v>
-      </c>
-      <c r="P31" s="14" t="s">
-        <v>995</v>
-      </c>
-      <c r="Q31" s="14" t="s">
-        <v>1513</v>
-      </c>
-      <c r="R31" s="14" t="s">
-        <v>1514</v>
-      </c>
-      <c r="S31" s="14" t="s">
-        <v>1515</v>
-      </c>
-      <c r="T31" s="14" t="s">
-        <v>1516</v>
-      </c>
-      <c r="U31" s="14" t="s">
-        <v>1517</v>
-      </c>
-      <c r="V31" s="14" t="s">
-        <v>1518</v>
-      </c>
-      <c r="W31" s="14" t="s">
-        <v>1519</v>
-      </c>
-      <c r="X31" s="14" t="s">
-        <v>1520</v>
-      </c>
-      <c r="Y31" s="14" t="s">
-        <v>1521</v>
-      </c>
-      <c r="Z31" s="14" t="s">
-        <v>1425</v>
-      </c>
-      <c r="AA31" s="14" t="s">
-        <v>1522</v>
-      </c>
-      <c r="AB31" s="13" t="s">
-        <v>1523</v>
+      <c r="AB31" s="12" t="s">
+        <v>1492</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>701</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>706</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>704</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>1524</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>705</v>
-      </c>
-      <c r="F32" s="14" t="s">
-        <v>1525</v>
-      </c>
-      <c r="G32" s="14" t="s">
-        <v>1526</v>
-      </c>
-      <c r="H32" s="14" t="s">
-        <v>1527</v>
-      </c>
-      <c r="I32" s="14" t="s">
-        <v>1528</v>
-      </c>
-      <c r="J32" s="14" t="s">
-        <v>1529</v>
-      </c>
-      <c r="K32" s="14" t="s">
-        <v>1530</v>
-      </c>
-      <c r="L32" s="14" t="s">
-        <v>1531</v>
-      </c>
-      <c r="M32" s="14" t="s">
-        <v>1528</v>
-      </c>
-      <c r="N32" s="14" t="s">
-        <v>1532</v>
-      </c>
-      <c r="O32" s="14" t="s">
-        <v>1533</v>
-      </c>
-      <c r="P32" s="14" t="s">
-        <v>1534</v>
-      </c>
-      <c r="Q32" s="14" t="s">
-        <v>1532</v>
-      </c>
-      <c r="R32" s="14" t="s">
-        <v>704</v>
-      </c>
-      <c r="S32" s="14" t="s">
-        <v>1533</v>
-      </c>
-      <c r="T32" s="14" t="s">
-        <v>1535</v>
-      </c>
-      <c r="U32" s="14" t="s">
-        <v>1536</v>
-      </c>
-      <c r="V32" s="14" t="s">
-        <v>1537</v>
-      </c>
-      <c r="W32" s="14" t="s">
-        <v>1536</v>
-      </c>
-      <c r="X32" s="14" t="s">
-        <v>1538</v>
-      </c>
-      <c r="Y32" s="14" t="s">
-        <v>1539</v>
-      </c>
-      <c r="Z32" s="14" t="s">
-        <v>1532</v>
-      </c>
-      <c r="AA32" s="14" t="s">
-        <v>702</v>
-      </c>
-      <c r="AB32" s="13" t="s">
-        <v>1540</v>
+        <v>670</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>675</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>673</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>1493</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>674</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>1494</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>1495</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>1496</v>
+      </c>
+      <c r="I32" s="13" t="s">
+        <v>1497</v>
+      </c>
+      <c r="J32" s="13" t="s">
+        <v>1498</v>
+      </c>
+      <c r="K32" s="13" t="s">
+        <v>1499</v>
+      </c>
+      <c r="L32" s="13" t="s">
+        <v>1500</v>
+      </c>
+      <c r="M32" s="13" t="s">
+        <v>1497</v>
+      </c>
+      <c r="N32" s="13" t="s">
+        <v>1501</v>
+      </c>
+      <c r="O32" s="13" t="s">
+        <v>1502</v>
+      </c>
+      <c r="P32" s="13" t="s">
+        <v>1503</v>
+      </c>
+      <c r="Q32" s="13" t="s">
+        <v>1501</v>
+      </c>
+      <c r="R32" s="13" t="s">
+        <v>673</v>
+      </c>
+      <c r="S32" s="13" t="s">
+        <v>1502</v>
+      </c>
+      <c r="T32" s="13" t="s">
+        <v>1504</v>
+      </c>
+      <c r="U32" s="13" t="s">
+        <v>1505</v>
+      </c>
+      <c r="V32" s="13" t="s">
+        <v>1506</v>
+      </c>
+      <c r="W32" s="13" t="s">
+        <v>1505</v>
+      </c>
+      <c r="X32" s="13" t="s">
+        <v>1507</v>
+      </c>
+      <c r="Y32" s="13" t="s">
+        <v>1508</v>
+      </c>
+      <c r="Z32" s="13" t="s">
+        <v>1501</v>
+      </c>
+      <c r="AA32" s="13" t="s">
+        <v>671</v>
+      </c>
+      <c r="AB32" s="12" t="s">
+        <v>1509</v>
       </c>
     </row>
   </sheetData>
@@ -12717,357 +12937,357 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>1541</v>
+        <v>1510</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1542</v>
+        <v>1511</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1543</v>
+        <v>1512</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>1544</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1545</v>
+        <v>1514</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1546</v>
+        <v>1515</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1547</v>
+        <v>1516</v>
       </c>
       <c r="D2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>1542</v>
+        <v>1511</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1548</v>
+        <v>1517</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>1549</v>
+        <v>1518</v>
       </c>
       <c r="D3" s="1"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>1543</v>
+        <v>1512</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1550</v>
+        <v>1519</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1551</v>
+        <v>1520</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>1552</v>
+        <v>1521</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1553</v>
+        <v>1522</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1554</v>
+        <v>1523</v>
       </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>1555</v>
+        <v>1524</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1556</v>
+        <v>1525</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1557</v>
+        <v>1526</v>
       </c>
       <c r="D6" s="1"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>1558</v>
+        <v>1527</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1559</v>
+        <v>1528</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1560</v>
+        <v>1529</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>1561</v>
+        <v>1530</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1562</v>
+        <v>1531</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>1563</v>
+        <v>1532</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>1564</v>
+        <v>1533</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1565</v>
+        <v>1534</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1566</v>
+        <v>1535</v>
       </c>
       <c r="D9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>1567</v>
+        <v>1536</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>1568</v>
+        <v>1537</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>1569</v>
+        <v>1538</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>1570</v>
+        <v>1539</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>1571</v>
+        <v>1540</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>1572</v>
+        <v>1541</v>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>1573</v>
+        <v>1542</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>1574</v>
+        <v>1543</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>1575</v>
+        <v>1544</v>
       </c>
       <c r="D12" s="1"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>1576</v>
+        <v>1545</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>1577</v>
+        <v>1546</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>1578</v>
+        <v>1547</v>
       </c>
       <c r="D13" s="1"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>1579</v>
+        <v>1548</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1580</v>
+        <v>1549</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>1581</v>
+        <v>1550</v>
       </c>
       <c r="D14" s="1"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>1582</v>
+        <v>1551</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>1583</v>
+        <v>1552</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>1584</v>
+        <v>1553</v>
       </c>
       <c r="D15" s="1"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>1585</v>
+        <v>1554</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>1586</v>
+        <v>1555</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>1587</v>
+        <v>1556</v>
       </c>
       <c r="D16" s="1"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>1588</v>
+        <v>1557</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>1589</v>
+        <v>1558</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>1590</v>
+        <v>1559</v>
       </c>
       <c r="D17" s="1"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>1591</v>
+        <v>1560</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>1592</v>
+        <v>1561</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>1593</v>
+        <v>1562</v>
       </c>
       <c r="D18" s="1"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>1594</v>
+        <v>1563</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>1595</v>
+        <v>1564</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>1596</v>
+        <v>1565</v>
       </c>
       <c r="D19" s="1"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>1597</v>
+        <v>1566</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>1598</v>
+        <v>1567</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>1599</v>
+        <v>1568</v>
       </c>
       <c r="D20" s="1"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>1600</v>
+        <v>1569</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>1601</v>
+        <v>1570</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>1602</v>
+        <v>1571</v>
       </c>
       <c r="D21" s="1"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>1603</v>
+        <v>1572</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>1604</v>
+        <v>1573</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>1605</v>
+        <v>1574</v>
       </c>
       <c r="D22" s="1"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>1606</v>
+        <v>1575</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>1607</v>
+        <v>1576</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>1608</v>
+        <v>1577</v>
       </c>
       <c r="D23" s="1"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>1609</v>
+        <v>1578</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>1610</v>
+        <v>1579</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>1611</v>
+        <v>1580</v>
       </c>
       <c r="D24" s="1"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>1612</v>
+        <v>1581</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>1613</v>
+        <v>1582</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>1614</v>
+        <v>1583</v>
       </c>
       <c r="D25" s="1"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>1615</v>
+        <v>1584</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>1616</v>
+        <v>1585</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>1617</v>
+        <v>1586</v>
       </c>
       <c r="D26" s="1"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>1618</v>
+        <v>1587</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>1619</v>
+        <v>1588</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>1620</v>
+        <v>1589</v>
       </c>
       <c r="D27" s="1"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>1621</v>
+        <v>1590</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>1622</v>
+        <v>1591</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>1623</v>
+        <v>1592</v>
       </c>
       <c r="D28" s="1"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>1624</v>
+        <v>1593</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>1625</v>
+        <v>1594</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>1626</v>
+        <v>1595</v>
       </c>
       <c r="D29" s="1"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>1627</v>
+        <v>1596</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -13075,7 +13295,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>1628</v>
+        <v>1597</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -13083,7 +13303,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>1629</v>
+        <v>1598</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -13091,7 +13311,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>1630</v>
+        <v>1599</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -13099,7 +13319,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>1631</v>
+        <v>1600</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>

--- a/archive/iceKnives32/iceKnives32.xlsx
+++ b/archive/iceKnives32/iceKnives32.xlsx
@@ -306,7 +306,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2371" uniqueCount="1601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2375" uniqueCount="1607">
   <si>
     <t>[packet]</t>
   </si>
@@ -770,6 +770,9 @@
     <t>coin</t>
   </si>
   <si>
+    <t>'130'</t>
+  </si>
+  <si>
     <t>first</t>
   </si>
   <si>
@@ -777,6 +780,21 @@
   </si>
   <si>
     <t>model</t>
+  </si>
+  <si>
+    <t>gyro</t>
+  </si>
+  <si>
+    <t>grammar</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>layout</t>
+  </si>
+  <si>
+    <t>'145'</t>
   </si>
   <si>
     <t>last</t>
@@ -6268,7 +6286,7 @@
         <v>153</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>9</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4">
@@ -6276,20 +6294,28 @@
         <v>14</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="I4" s="3" t="s">
-        <v>9</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5">
@@ -6297,13 +6323,13 @@
         <v>18</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -6321,10 +6347,10 @@
         <v>7</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -6339,13 +6365,13 @@
         <v>26</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -6360,13 +6386,13 @@
         <v>30</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -6381,13 +6407,13 @@
         <v>34</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -6402,13 +6428,13 @@
         <v>38</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -6423,13 +6449,13 @@
         <v>42</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -6444,13 +6470,13 @@
         <v>46</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -6465,13 +6491,13 @@
         <v>50</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -6486,13 +6512,13 @@
         <v>54</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -6507,13 +6533,13 @@
         <v>58</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -6528,13 +6554,13 @@
         <v>62</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -6549,13 +6575,13 @@
         <v>66</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -6570,13 +6596,13 @@
         <v>70</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -6591,13 +6617,13 @@
         <v>74</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -6612,13 +6638,13 @@
         <v>78</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -6633,13 +6659,13 @@
         <v>82</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -6654,13 +6680,13 @@
         <v>86</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -6675,13 +6701,13 @@
         <v>90</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -6696,13 +6722,13 @@
         <v>94</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -6717,13 +6743,13 @@
         <v>98</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -6738,13 +6764,13 @@
         <v>102</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -6759,13 +6785,13 @@
         <v>106</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -6780,13 +6806,13 @@
         <v>110</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -6822,7 +6848,7 @@
         <v>35</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
     </row>
     <row r="30">
@@ -6830,13 +6856,13 @@
         <v>118</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>25</v>
@@ -6859,13 +6885,13 @@
         <v>119</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>25</v>
@@ -6888,13 +6914,13 @@
         <v>120</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>25</v>
@@ -6917,13 +6943,13 @@
         <v>121</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>25</v>
@@ -7004,13 +7030,13 @@
         <v>124</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>25</v>
@@ -7184,19 +7210,19 @@
         <v>137</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>138</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>134</v>
@@ -7207,28 +7233,28 @@
         <v>135</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -7251,7 +7277,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -7280,7 +7306,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>12</v>
@@ -7312,25 +7338,25 @@
         <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>9</v>
@@ -7341,25 +7367,25 @@
         <v>14</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>9</v>
@@ -7370,25 +7396,25 @@
         <v>18</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>9</v>
@@ -7399,25 +7425,25 @@
         <v>22</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>9</v>
@@ -7428,25 +7454,25 @@
         <v>26</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>9</v>
@@ -7457,25 +7483,25 @@
         <v>30</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>9</v>
@@ -7486,25 +7512,25 @@
         <v>34</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>9</v>
@@ -7515,25 +7541,25 @@
         <v>38</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>9</v>
@@ -7544,25 +7570,25 @@
         <v>42</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>9</v>
@@ -7573,25 +7599,25 @@
         <v>46</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>9</v>
@@ -7602,25 +7628,25 @@
         <v>50</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>9</v>
@@ -7631,25 +7657,25 @@
         <v>54</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>9</v>
@@ -7660,25 +7686,25 @@
         <v>58</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>9</v>
@@ -7689,25 +7715,25 @@
         <v>62</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>9</v>
@@ -7718,25 +7744,25 @@
         <v>66</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>9</v>
@@ -7747,25 +7773,25 @@
         <v>70</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>9</v>
@@ -7776,25 +7802,25 @@
         <v>74</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>9</v>
@@ -7805,25 +7831,25 @@
         <v>78</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>9</v>
@@ -7834,25 +7860,25 @@
         <v>82</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>9</v>
@@ -7863,25 +7889,25 @@
         <v>86</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>9</v>
@@ -7892,25 +7918,25 @@
         <v>90</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>9</v>
@@ -7921,25 +7947,25 @@
         <v>94</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>9</v>
@@ -7950,25 +7976,25 @@
         <v>98</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>9</v>
@@ -7979,25 +8005,25 @@
         <v>102</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>9</v>
@@ -8008,25 +8034,25 @@
         <v>106</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>9</v>
@@ -8037,25 +8063,25 @@
         <v>110</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>9</v>
@@ -8087,7 +8113,7 @@
         <v>35</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
     </row>
     <row r="30">
@@ -8261,7 +8287,7 @@
         <v>37</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
     </row>
     <row r="36">
@@ -8290,7 +8316,7 @@
         <v>37</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
     </row>
     <row r="37">
@@ -8435,7 +8461,7 @@
         <v>37</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
     </row>
     <row r="42">
@@ -8449,19 +8475,19 @@
         <v>137</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>138</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>134</v>
@@ -8472,28 +8498,28 @@
         <v>135</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -8518,834 +8544,834 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="7" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="7" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="7" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="7" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>64</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="7" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="7" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="7" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="7" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="7" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="7" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="7" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="7" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="7" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="7" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="7" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="7" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="7" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="7" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="7" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="7" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="7" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>652</v>
+        <v>658</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="7" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>657</v>
+        <v>663</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>661</v>
+        <v>667</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="7" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>666</v>
+        <v>672</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>669</v>
+        <v>675</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="7" t="s">
-        <v>670</v>
+        <v>676</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>671</v>
+        <v>677</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>672</v>
+        <v>678</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>673</v>
+        <v>679</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>674</v>
+        <v>680</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>675</v>
+        <v>681</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>676</v>
+        <v>682</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
     </row>
   </sheetData>
@@ -9372,774 +9398,774 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>678</v>
+        <v>684</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>679</v>
+        <v>685</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>680</v>
+        <v>686</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>681</v>
+        <v>687</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>683</v>
+        <v>689</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>684</v>
+        <v>690</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>685</v>
+        <v>691</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>686</v>
+        <v>692</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>687</v>
+        <v>693</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>691</v>
+        <v>697</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>692</v>
+        <v>698</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>693</v>
+        <v>699</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>694</v>
+        <v>700</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>695</v>
+        <v>701</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>702</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>696</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>690</v>
-      </c>
       <c r="F5" s="5" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>700</v>
+        <v>706</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>701</v>
+        <v>707</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>702</v>
+        <v>708</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>703</v>
+        <v>709</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>704</v>
+        <v>710</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>705</v>
+        <v>711</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>706</v>
+        <v>712</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>707</v>
+        <v>713</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>708</v>
+        <v>714</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>709</v>
+        <v>715</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>710</v>
+        <v>716</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>711</v>
+        <v>717</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>712</v>
+        <v>718</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>714</v>
+        <v>720</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>715</v>
+        <v>721</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>716</v>
+        <v>722</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>717</v>
+        <v>723</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>718</v>
+        <v>724</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>719</v>
+        <v>725</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>720</v>
+        <v>726</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>721</v>
+        <v>727</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>722</v>
+        <v>728</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>723</v>
+        <v>729</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>724</v>
+        <v>730</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>725</v>
+        <v>731</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>726</v>
+        <v>732</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>727</v>
+        <v>733</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>728</v>
+        <v>734</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>729</v>
+        <v>735</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>730</v>
+        <v>736</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>731</v>
+        <v>737</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>732</v>
+        <v>738</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>733</v>
+        <v>739</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>734</v>
+        <v>740</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>735</v>
+        <v>741</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>736</v>
+        <v>742</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>737</v>
+        <v>743</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>738</v>
+        <v>744</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>739</v>
+        <v>745</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>740</v>
+        <v>746</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>741</v>
+        <v>747</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>742</v>
+        <v>748</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>743</v>
+        <v>749</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>744</v>
+        <v>750</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>745</v>
+        <v>751</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>746</v>
+        <v>752</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>747</v>
+        <v>753</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>748</v>
+        <v>754</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>749</v>
+        <v>755</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>750</v>
+        <v>756</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>751</v>
+        <v>757</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>752</v>
+        <v>758</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>753</v>
+        <v>759</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>754</v>
+        <v>760</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>755</v>
+        <v>761</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>756</v>
+        <v>762</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>757</v>
+        <v>763</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>758</v>
+        <v>764</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>759</v>
+        <v>765</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>760</v>
+        <v>766</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>761</v>
+        <v>767</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>762</v>
+        <v>768</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>763</v>
+        <v>769</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>764</v>
+        <v>770</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>765</v>
+        <v>771</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>766</v>
+        <v>772</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>767</v>
+        <v>773</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>768</v>
+        <v>774</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>769</v>
+        <v>775</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>770</v>
+        <v>776</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>771</v>
+        <v>777</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>772</v>
+        <v>778</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>670</v>
+        <v>676</v>
       </c>
     </row>
   </sheetData>
@@ -10164,2754 +10190,2754 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>773</v>
+        <v>779</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>678</v>
+        <v>684</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>774</v>
+        <v>780</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>775</v>
+        <v>781</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>776</v>
+        <v>782</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>777</v>
+        <v>783</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>778</v>
+        <v>784</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>779</v>
+        <v>785</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>780</v>
+        <v>786</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>781</v>
+        <v>787</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>782</v>
+        <v>788</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>783</v>
+        <v>789</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>784</v>
+        <v>790</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>785</v>
+        <v>791</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>786</v>
+        <v>792</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>787</v>
+        <v>793</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>788</v>
+        <v>794</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>789</v>
+        <v>795</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>790</v>
+        <v>796</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>791</v>
+        <v>797</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>792</v>
+        <v>798</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>793</v>
+        <v>799</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>794</v>
+        <v>800</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>795</v>
+        <v>801</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>796</v>
+        <v>802</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>797</v>
+        <v>803</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>798</v>
+        <v>804</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>799</v>
+        <v>805</v>
       </c>
       <c r="AB2" s="12" t="s">
-        <v>800</v>
+        <v>806</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>801</v>
+        <v>807</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>802</v>
+        <v>808</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>803</v>
+        <v>809</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>804</v>
+        <v>810</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>805</v>
+        <v>811</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>806</v>
+        <v>812</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>807</v>
+        <v>813</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>808</v>
+        <v>814</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>809</v>
+        <v>815</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>810</v>
+        <v>816</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>811</v>
+        <v>817</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>812</v>
+        <v>818</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>813</v>
+        <v>819</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>814</v>
+        <v>820</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>815</v>
+        <v>821</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>816</v>
+        <v>822</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>817</v>
+        <v>823</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>818</v>
+        <v>824</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>819</v>
+        <v>825</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>820</v>
+        <v>826</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>821</v>
+        <v>827</v>
       </c>
       <c r="AA3" s="5" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
       <c r="AB3" s="12" t="s">
-        <v>822</v>
+        <v>828</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>823</v>
+        <v>829</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>824</v>
+        <v>830</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>825</v>
+        <v>831</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>827</v>
+        <v>833</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>828</v>
+        <v>834</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>829</v>
+        <v>835</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>830</v>
+        <v>836</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>831</v>
+        <v>837</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>832</v>
+        <v>838</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>833</v>
+        <v>839</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>834</v>
+        <v>840</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>836</v>
+        <v>842</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>837</v>
+        <v>843</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>838</v>
+        <v>844</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>839</v>
+        <v>845</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>840</v>
+        <v>846</v>
       </c>
       <c r="W4" s="5" t="s">
-        <v>841</v>
+        <v>847</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>842</v>
+        <v>848</v>
       </c>
       <c r="Y4" s="5" t="s">
-        <v>843</v>
+        <v>849</v>
       </c>
       <c r="Z4" s="5" t="s">
-        <v>844</v>
+        <v>850</v>
       </c>
       <c r="AA4" s="5" t="s">
-        <v>845</v>
+        <v>851</v>
       </c>
       <c r="AB4" s="12" t="s">
-        <v>846</v>
+        <v>852</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>847</v>
+        <v>853</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>848</v>
+        <v>854</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>849</v>
+        <v>855</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>850</v>
+        <v>856</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>851</v>
+        <v>857</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>852</v>
+        <v>858</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>853</v>
+        <v>859</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>854</v>
+        <v>860</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>855</v>
+        <v>861</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>856</v>
+        <v>862</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>857</v>
+        <v>863</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>858</v>
+        <v>864</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>859</v>
+        <v>865</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>860</v>
+        <v>866</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>861</v>
+        <v>867</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>862</v>
+        <v>868</v>
       </c>
       <c r="U5" s="5" t="s">
-        <v>863</v>
+        <v>869</v>
       </c>
       <c r="V5" s="5" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="W5" s="5" t="s">
-        <v>864</v>
+        <v>870</v>
       </c>
       <c r="X5" s="5" t="s">
-        <v>865</v>
+        <v>871</v>
       </c>
       <c r="Y5" s="5" t="s">
-        <v>866</v>
+        <v>872</v>
       </c>
       <c r="Z5" s="5" t="s">
-        <v>867</v>
+        <v>873</v>
       </c>
       <c r="AA5" s="5" t="s">
-        <v>868</v>
+        <v>874</v>
       </c>
       <c r="AB5" s="12" t="s">
-        <v>869</v>
+        <v>875</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>870</v>
+        <v>876</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>871</v>
+        <v>877</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>872</v>
+        <v>878</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>873</v>
+        <v>879</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>874</v>
+        <v>880</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>875</v>
+        <v>881</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>876</v>
+        <v>882</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>877</v>
+        <v>883</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>878</v>
+        <v>884</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>879</v>
+        <v>885</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>880</v>
+        <v>886</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>881</v>
+        <v>887</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>882</v>
+        <v>888</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>883</v>
+        <v>889</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>884</v>
+        <v>890</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>885</v>
+        <v>891</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>886</v>
+        <v>892</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>887</v>
+        <v>893</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>888</v>
+        <v>894</v>
       </c>
       <c r="V6" s="5" t="s">
-        <v>889</v>
+        <v>895</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>890</v>
+        <v>896</v>
       </c>
       <c r="X6" s="5" t="s">
-        <v>891</v>
+        <v>897</v>
       </c>
       <c r="Y6" s="5" t="s">
-        <v>892</v>
+        <v>898</v>
       </c>
       <c r="Z6" s="5" t="s">
-        <v>893</v>
+        <v>899</v>
       </c>
       <c r="AA6" s="5" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="AB6" s="12" t="s">
-        <v>894</v>
+        <v>900</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>895</v>
+        <v>901</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>897</v>
+        <v>903</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>898</v>
+        <v>904</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>899</v>
+        <v>905</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>900</v>
+        <v>906</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>901</v>
+        <v>907</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>902</v>
+        <v>908</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>903</v>
+        <v>909</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>904</v>
+        <v>910</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>905</v>
+        <v>911</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>906</v>
+        <v>912</v>
       </c>
       <c r="S7" s="5" t="s">
-        <v>907</v>
+        <v>913</v>
       </c>
       <c r="T7" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>914</v>
+      </c>
+      <c r="V7" s="5" t="s">
+        <v>915</v>
+      </c>
+      <c r="W7" s="5" t="s">
+        <v>916</v>
+      </c>
+      <c r="X7" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="U7" s="5" t="s">
-        <v>908</v>
-      </c>
-      <c r="V7" s="5" t="s">
-        <v>909</v>
-      </c>
-      <c r="W7" s="5" t="s">
-        <v>910</v>
-      </c>
-      <c r="X7" s="5" t="s">
-        <v>470</v>
-      </c>
       <c r="Y7" s="5" t="s">
-        <v>911</v>
+        <v>917</v>
       </c>
       <c r="Z7" s="5" t="s">
-        <v>912</v>
+        <v>918</v>
       </c>
       <c r="AA7" s="5" t="s">
-        <v>913</v>
+        <v>919</v>
       </c>
       <c r="AB7" s="12" t="s">
-        <v>914</v>
+        <v>920</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>915</v>
+        <v>921</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>916</v>
+        <v>922</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>917</v>
+        <v>923</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>918</v>
+        <v>924</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>919</v>
+        <v>925</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>920</v>
+        <v>926</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>921</v>
+        <v>927</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>922</v>
+        <v>928</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>923</v>
+        <v>929</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>924</v>
+        <v>930</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>925</v>
+        <v>931</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>926</v>
+        <v>932</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>927</v>
+        <v>933</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>928</v>
+        <v>934</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>929</v>
+        <v>935</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>930</v>
+        <v>936</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>931</v>
+        <v>937</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>932</v>
+        <v>938</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>933</v>
+        <v>939</v>
       </c>
       <c r="X8" s="5" t="s">
-        <v>934</v>
+        <v>940</v>
       </c>
       <c r="Y8" s="5" t="s">
-        <v>935</v>
+        <v>941</v>
       </c>
       <c r="Z8" s="5" t="s">
-        <v>936</v>
+        <v>942</v>
       </c>
       <c r="AA8" s="5" t="s">
-        <v>937</v>
+        <v>943</v>
       </c>
       <c r="AB8" s="12" t="s">
-        <v>938</v>
+        <v>944</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>939</v>
+        <v>945</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>940</v>
+        <v>946</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>941</v>
+        <v>947</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>942</v>
+        <v>948</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>943</v>
+        <v>949</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>944</v>
+        <v>950</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>945</v>
+        <v>951</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>946</v>
+        <v>952</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>948</v>
+        <v>954</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>949</v>
+        <v>955</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>950</v>
+        <v>956</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>951</v>
+        <v>957</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>952</v>
+        <v>958</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>953</v>
+        <v>959</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="R9" s="5" t="s">
-        <v>954</v>
+        <v>960</v>
       </c>
       <c r="S9" s="5" t="s">
-        <v>955</v>
+        <v>961</v>
       </c>
       <c r="T9" s="5" t="s">
-        <v>956</v>
+        <v>962</v>
       </c>
       <c r="U9" s="5" t="s">
-        <v>957</v>
+        <v>963</v>
       </c>
       <c r="V9" s="5" t="s">
-        <v>958</v>
+        <v>964</v>
       </c>
       <c r="W9" s="5" t="s">
-        <v>959</v>
+        <v>965</v>
       </c>
       <c r="X9" s="5" t="s">
-        <v>960</v>
+        <v>966</v>
       </c>
       <c r="Y9" s="5" t="s">
-        <v>961</v>
+        <v>967</v>
       </c>
       <c r="Z9" s="5" t="s">
-        <v>962</v>
+        <v>968</v>
       </c>
       <c r="AA9" s="5" t="s">
-        <v>963</v>
+        <v>969</v>
       </c>
       <c r="AB9" s="12" t="s">
-        <v>964</v>
+        <v>970</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>965</v>
+        <v>971</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>966</v>
+        <v>972</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>967</v>
+        <v>973</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>968</v>
+        <v>974</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>969</v>
+        <v>975</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>970</v>
+        <v>976</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>971</v>
+        <v>977</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>972</v>
+        <v>978</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>973</v>
+        <v>979</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>974</v>
+        <v>980</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>975</v>
+        <v>981</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>976</v>
+        <v>982</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>977</v>
+        <v>983</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>978</v>
+        <v>984</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>980</v>
+        <v>986</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>981</v>
+        <v>987</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>982</v>
+        <v>988</v>
       </c>
       <c r="T10" s="5" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="U10" s="5" t="s">
-        <v>983</v>
+        <v>989</v>
       </c>
       <c r="V10" s="5" t="s">
-        <v>984</v>
+        <v>990</v>
       </c>
       <c r="W10" s="5" t="s">
-        <v>985</v>
+        <v>991</v>
       </c>
       <c r="X10" s="5" t="s">
-        <v>986</v>
+        <v>992</v>
       </c>
       <c r="Y10" s="5" t="s">
-        <v>987</v>
+        <v>993</v>
       </c>
       <c r="Z10" s="5" t="s">
-        <v>988</v>
+        <v>994</v>
       </c>
       <c r="AA10" s="5" t="s">
-        <v>989</v>
+        <v>995</v>
       </c>
       <c r="AB10" s="12" t="s">
-        <v>822</v>
+        <v>828</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>990</v>
+        <v>996</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>991</v>
+        <v>997</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>992</v>
+        <v>998</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>993</v>
+        <v>999</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>994</v>
+        <v>1000</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>995</v>
+        <v>1001</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>996</v>
+        <v>1002</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>997</v>
+        <v>1003</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>998</v>
+        <v>1004</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>999</v>
+        <v>1005</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>1000</v>
+        <v>1006</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>1001</v>
+        <v>1007</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>1002</v>
+        <v>1008</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>1003</v>
+        <v>1009</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>1004</v>
+        <v>1010</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>1005</v>
+        <v>1011</v>
       </c>
       <c r="S11" s="5" t="s">
-        <v>1006</v>
+        <v>1012</v>
       </c>
       <c r="T11" s="5" t="s">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="U11" s="5" t="s">
-        <v>1008</v>
+        <v>1014</v>
       </c>
       <c r="V11" s="5" t="s">
-        <v>1009</v>
+        <v>1015</v>
       </c>
       <c r="W11" s="5" t="s">
-        <v>1010</v>
+        <v>1016</v>
       </c>
       <c r="X11" s="5" t="s">
-        <v>1011</v>
+        <v>1017</v>
       </c>
       <c r="Y11" s="5" t="s">
-        <v>1012</v>
+        <v>1018</v>
       </c>
       <c r="Z11" s="5" t="s">
-        <v>1013</v>
+        <v>1019</v>
       </c>
       <c r="AA11" s="5" t="s">
-        <v>1014</v>
+        <v>1020</v>
       </c>
       <c r="AB11" s="12" t="s">
-        <v>846</v>
+        <v>852</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1015</v>
+        <v>1021</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>1016</v>
+        <v>1022</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>1017</v>
+        <v>1023</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>1018</v>
+        <v>1024</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>1019</v>
+        <v>1025</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>1020</v>
+        <v>1026</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>1022</v>
+        <v>1028</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>1023</v>
+        <v>1029</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>1024</v>
+        <v>1030</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>1025</v>
+        <v>1031</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>1026</v>
+        <v>1032</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>1027</v>
+        <v>1033</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="R12" s="5" t="s">
-        <v>1028</v>
+        <v>1034</v>
       </c>
       <c r="S12" s="5" t="s">
-        <v>1029</v>
+        <v>1035</v>
       </c>
       <c r="T12" s="5" t="s">
-        <v>1030</v>
+        <v>1036</v>
       </c>
       <c r="U12" s="5" t="s">
-        <v>1031</v>
+        <v>1037</v>
       </c>
       <c r="V12" s="5" t="s">
-        <v>1032</v>
+        <v>1038</v>
       </c>
       <c r="W12" s="5" t="s">
-        <v>1033</v>
+        <v>1039</v>
       </c>
       <c r="X12" s="5" t="s">
-        <v>1034</v>
+        <v>1040</v>
       </c>
       <c r="Y12" s="5" t="s">
-        <v>1035</v>
+        <v>1041</v>
       </c>
       <c r="Z12" s="5" t="s">
-        <v>1036</v>
+        <v>1042</v>
       </c>
       <c r="AA12" s="5" t="s">
-        <v>1037</v>
+        <v>1043</v>
       </c>
       <c r="AB12" s="12" t="s">
-        <v>1038</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1039</v>
+        <v>1045</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>1040</v>
+        <v>1046</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>1041</v>
+        <v>1047</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>1042</v>
+        <v>1048</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>1043</v>
+        <v>1049</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>1044</v>
+        <v>1050</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>1045</v>
+        <v>1051</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>1046</v>
+        <v>1052</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>1047</v>
+        <v>1053</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>1048</v>
+        <v>1054</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>1049</v>
+        <v>1055</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>1050</v>
+        <v>1056</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>1051</v>
+        <v>1057</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>1052</v>
+        <v>1058</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>1053</v>
+        <v>1059</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>1054</v>
+        <v>1060</v>
       </c>
       <c r="S13" s="5" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="T13" s="5" t="s">
-        <v>1055</v>
+        <v>1061</v>
       </c>
       <c r="U13" s="5" t="s">
-        <v>1056</v>
+        <v>1062</v>
       </c>
       <c r="V13" s="5" t="s">
-        <v>1057</v>
+        <v>1063</v>
       </c>
       <c r="W13" s="5" t="s">
-        <v>1058</v>
+        <v>1064</v>
       </c>
       <c r="X13" s="5" t="s">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="Y13" s="5" t="s">
-        <v>1060</v>
+        <v>1066</v>
       </c>
       <c r="Z13" s="5" t="s">
-        <v>1061</v>
+        <v>1067</v>
       </c>
       <c r="AA13" s="5" t="s">
-        <v>1062</v>
+        <v>1068</v>
       </c>
       <c r="AB13" s="12" t="s">
-        <v>1063</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1064</v>
+        <v>1070</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>1066</v>
+        <v>1072</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>1067</v>
+        <v>1073</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>1068</v>
+        <v>1074</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>1069</v>
+        <v>1075</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>1072</v>
+        <v>1078</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>1073</v>
+        <v>1079</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>1074</v>
+        <v>1080</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>1075</v>
+        <v>1081</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>1076</v>
+        <v>1082</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>1077</v>
+        <v>1083</v>
       </c>
       <c r="T14" s="5" t="s">
-        <v>1078</v>
+        <v>1084</v>
       </c>
       <c r="U14" s="5" t="s">
-        <v>1079</v>
+        <v>1085</v>
       </c>
       <c r="V14" s="5" t="s">
-        <v>1080</v>
+        <v>1086</v>
       </c>
       <c r="W14" s="5" t="s">
-        <v>1081</v>
+        <v>1087</v>
       </c>
       <c r="X14" s="5" t="s">
-        <v>1082</v>
+        <v>1088</v>
       </c>
       <c r="Y14" s="5" t="s">
-        <v>1083</v>
+        <v>1089</v>
       </c>
       <c r="Z14" s="5" t="s">
-        <v>1084</v>
+        <v>1090</v>
       </c>
       <c r="AA14" s="5" t="s">
-        <v>1085</v>
+        <v>1091</v>
       </c>
       <c r="AB14" s="12" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>1086</v>
+        <v>1092</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>1087</v>
+        <v>1093</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>1088</v>
+        <v>1094</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>1089</v>
+        <v>1095</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>1090</v>
+        <v>1096</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>1091</v>
+        <v>1097</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>1092</v>
+        <v>1098</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>1093</v>
+        <v>1099</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>1094</v>
+        <v>1100</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>1095</v>
+        <v>1101</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>1096</v>
+        <v>1102</v>
       </c>
       <c r="R15" s="5" t="s">
-        <v>1097</v>
+        <v>1103</v>
       </c>
       <c r="S15" s="5" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="T15" s="5" t="s">
-        <v>1098</v>
+        <v>1104</v>
       </c>
       <c r="U15" s="5" t="s">
-        <v>1099</v>
+        <v>1105</v>
       </c>
       <c r="V15" s="5" t="s">
-        <v>1100</v>
+        <v>1106</v>
       </c>
       <c r="W15" s="5" t="s">
-        <v>1101</v>
+        <v>1107</v>
       </c>
       <c r="X15" s="5" t="s">
-        <v>1102</v>
+        <v>1108</v>
       </c>
       <c r="Y15" s="5" t="s">
-        <v>1103</v>
+        <v>1109</v>
       </c>
       <c r="Z15" s="5" t="s">
-        <v>1104</v>
+        <v>1110</v>
       </c>
       <c r="AA15" s="5" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="AB15" s="12" t="s">
-        <v>1105</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>1106</v>
+        <v>1112</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>1107</v>
+        <v>1113</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>1108</v>
+        <v>1114</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>1109</v>
+        <v>1115</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>1110</v>
+        <v>1116</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>1111</v>
+        <v>1117</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>1112</v>
+        <v>1118</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>1113</v>
+        <v>1119</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>1114</v>
+        <v>1120</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>1115</v>
+        <v>1121</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>1116</v>
+        <v>1122</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>1117</v>
+        <v>1123</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>1118</v>
+        <v>1124</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>1119</v>
+        <v>1125</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>1120</v>
+        <v>1126</v>
       </c>
       <c r="R16" s="5" t="s">
-        <v>1121</v>
+        <v>1127</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>1122</v>
+        <v>1128</v>
       </c>
       <c r="T16" s="5" t="s">
-        <v>1123</v>
+        <v>1129</v>
       </c>
       <c r="U16" s="5" t="s">
-        <v>1124</v>
+        <v>1130</v>
       </c>
       <c r="V16" s="5" t="s">
-        <v>1125</v>
+        <v>1131</v>
       </c>
       <c r="W16" s="5" t="s">
-        <v>1126</v>
+        <v>1132</v>
       </c>
       <c r="X16" s="5" t="s">
-        <v>1127</v>
+        <v>1133</v>
       </c>
       <c r="Y16" s="5" t="s">
-        <v>1128</v>
+        <v>1134</v>
       </c>
       <c r="Z16" s="5" t="s">
-        <v>1129</v>
+        <v>1135</v>
       </c>
       <c r="AA16" s="5" t="s">
-        <v>1130</v>
+        <v>1136</v>
       </c>
       <c r="AB16" s="12" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1131</v>
+        <v>1137</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>1132</v>
+        <v>1138</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>1133</v>
+        <v>1139</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>1134</v>
+        <v>1140</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>1135</v>
+        <v>1141</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>1136</v>
+        <v>1142</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>1137</v>
+        <v>1143</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>1138</v>
+        <v>1144</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>1139</v>
+        <v>1145</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>1140</v>
+        <v>1146</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>1142</v>
+        <v>1148</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>1143</v>
+        <v>1149</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>1144</v>
+        <v>1150</v>
       </c>
       <c r="R17" s="5" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="S17" s="5" t="s">
-        <v>1145</v>
+        <v>1151</v>
       </c>
       <c r="T17" s="5" t="s">
-        <v>1146</v>
+        <v>1152</v>
       </c>
       <c r="U17" s="5" t="s">
-        <v>1147</v>
+        <v>1153</v>
       </c>
       <c r="V17" s="5" t="s">
-        <v>1148</v>
+        <v>1154</v>
       </c>
       <c r="W17" s="5" t="s">
-        <v>1149</v>
+        <v>1155</v>
       </c>
       <c r="X17" s="5" t="s">
-        <v>1150</v>
+        <v>1156</v>
       </c>
       <c r="Y17" s="5" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="Z17" s="5" t="s">
-        <v>1151</v>
+        <v>1157</v>
       </c>
       <c r="AA17" s="5" t="s">
-        <v>1152</v>
+        <v>1158</v>
       </c>
       <c r="AB17" s="12" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>1153</v>
+        <v>1159</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>1154</v>
+        <v>1160</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>1155</v>
+        <v>1161</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>1156</v>
+        <v>1162</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>1157</v>
+        <v>1163</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>1158</v>
+        <v>1164</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>1159</v>
+        <v>1165</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>1160</v>
+        <v>1166</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>1161</v>
+        <v>1167</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>1162</v>
+        <v>1168</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>1163</v>
+        <v>1169</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>1164</v>
+        <v>1170</v>
       </c>
       <c r="Q18" s="5" t="s">
-        <v>1165</v>
+        <v>1171</v>
       </c>
       <c r="R18" s="5" t="s">
-        <v>1166</v>
+        <v>1172</v>
       </c>
       <c r="S18" s="5" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="T18" s="5" t="s">
-        <v>1167</v>
+        <v>1173</v>
       </c>
       <c r="U18" s="5" t="s">
-        <v>1168</v>
+        <v>1174</v>
       </c>
       <c r="V18" s="5" t="s">
-        <v>1169</v>
+        <v>1175</v>
       </c>
       <c r="W18" s="5" t="s">
-        <v>1170</v>
+        <v>1176</v>
       </c>
       <c r="X18" s="5" t="s">
-        <v>1171</v>
+        <v>1177</v>
       </c>
       <c r="Y18" s="5" t="s">
-        <v>1172</v>
+        <v>1178</v>
       </c>
       <c r="Z18" s="5" t="s">
-        <v>1173</v>
+        <v>1179</v>
       </c>
       <c r="AA18" s="5" t="s">
-        <v>1174</v>
+        <v>1180</v>
       </c>
       <c r="AB18" s="12" t="s">
-        <v>914</v>
+        <v>920</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>1175</v>
+        <v>1181</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>1176</v>
+        <v>1182</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>1177</v>
+        <v>1183</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>1178</v>
+        <v>1184</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>1179</v>
+        <v>1185</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>1180</v>
+        <v>1186</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>1181</v>
+        <v>1187</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>1182</v>
+        <v>1188</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>1183</v>
+        <v>1189</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>1184</v>
+        <v>1190</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>1185</v>
+        <v>1191</v>
       </c>
       <c r="Q19" s="5" t="s">
-        <v>1186</v>
+        <v>1192</v>
       </c>
       <c r="R19" s="5" t="s">
-        <v>1187</v>
+        <v>1193</v>
       </c>
       <c r="S19" s="5" t="s">
-        <v>1188</v>
+        <v>1194</v>
       </c>
       <c r="T19" s="5" t="s">
-        <v>1189</v>
+        <v>1195</v>
       </c>
       <c r="U19" s="5" t="s">
-        <v>1190</v>
+        <v>1196</v>
       </c>
       <c r="V19" s="5" t="s">
-        <v>1191</v>
+        <v>1197</v>
       </c>
       <c r="W19" s="5" t="s">
-        <v>1192</v>
+        <v>1198</v>
       </c>
       <c r="X19" s="5" t="s">
-        <v>1193</v>
+        <v>1199</v>
       </c>
       <c r="Y19" s="5" t="s">
-        <v>1194</v>
+        <v>1200</v>
       </c>
       <c r="Z19" s="5" t="s">
-        <v>1195</v>
+        <v>1201</v>
       </c>
       <c r="AA19" s="5" t="s">
-        <v>1196</v>
+        <v>1202</v>
       </c>
       <c r="AB19" s="12" t="s">
-        <v>1197</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1198</v>
+        <v>1204</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>1199</v>
+        <v>1205</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>1200</v>
+        <v>1206</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>1201</v>
+        <v>1207</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>1202</v>
+        <v>1208</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>1203</v>
+        <v>1209</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>1204</v>
+        <v>1210</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>1205</v>
+        <v>1211</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>1206</v>
+        <v>1212</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>1207</v>
+        <v>1213</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>1208</v>
+        <v>1214</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>1209</v>
+        <v>1215</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>1210</v>
+        <v>1216</v>
       </c>
       <c r="Q20" s="5" t="s">
-        <v>1211</v>
+        <v>1217</v>
       </c>
       <c r="R20" s="5" t="s">
-        <v>1212</v>
+        <v>1218</v>
       </c>
       <c r="S20" s="5" t="s">
-        <v>1213</v>
+        <v>1219</v>
       </c>
       <c r="T20" s="5" t="s">
-        <v>1214</v>
+        <v>1220</v>
       </c>
       <c r="U20" s="5" t="s">
-        <v>1215</v>
+        <v>1221</v>
       </c>
       <c r="V20" s="5" t="s">
-        <v>1216</v>
+        <v>1222</v>
       </c>
       <c r="W20" s="5" t="s">
-        <v>1217</v>
+        <v>1223</v>
       </c>
       <c r="X20" s="5" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="Y20" s="5" t="s">
-        <v>1218</v>
+        <v>1224</v>
       </c>
       <c r="Z20" s="5" t="s">
-        <v>1219</v>
+        <v>1225</v>
       </c>
       <c r="AA20" s="5" t="s">
-        <v>1220</v>
+        <v>1226</v>
       </c>
       <c r="AB20" s="12" t="s">
-        <v>1221</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>1222</v>
+        <v>1228</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>1223</v>
+        <v>1229</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>1224</v>
+        <v>1230</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>1225</v>
+        <v>1231</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>1226</v>
+        <v>1232</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>1227</v>
+        <v>1233</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>1228</v>
+        <v>1234</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>1229</v>
+        <v>1235</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>1230</v>
+        <v>1236</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>1231</v>
+        <v>1237</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>1232</v>
+        <v>1238</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>1233</v>
+        <v>1239</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>1234</v>
+        <v>1240</v>
       </c>
       <c r="Q21" s="5" t="s">
-        <v>1235</v>
+        <v>1241</v>
       </c>
       <c r="R21" s="5" t="s">
-        <v>1236</v>
+        <v>1242</v>
       </c>
       <c r="S21" s="5" t="s">
-        <v>1237</v>
+        <v>1243</v>
       </c>
       <c r="T21" s="5" t="s">
-        <v>1238</v>
+        <v>1244</v>
       </c>
       <c r="U21" s="5" t="s">
-        <v>1239</v>
+        <v>1245</v>
       </c>
       <c r="V21" s="5" t="s">
-        <v>1240</v>
+        <v>1246</v>
       </c>
       <c r="W21" s="5" t="s">
-        <v>1241</v>
+        <v>1247</v>
       </c>
       <c r="X21" s="5" t="s">
-        <v>1242</v>
+        <v>1248</v>
       </c>
       <c r="Y21" s="5" t="s">
-        <v>1243</v>
+        <v>1249</v>
       </c>
       <c r="Z21" s="5" t="s">
-        <v>1244</v>
+        <v>1250</v>
       </c>
       <c r="AA21" s="5" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="AB21" s="12" t="s">
-        <v>657</v>
+        <v>663</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>1245</v>
+        <v>1251</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>1246</v>
+        <v>1252</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>1247</v>
+        <v>1253</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>1248</v>
+        <v>1254</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>1249</v>
+        <v>1255</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>1250</v>
+        <v>1256</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>1251</v>
+        <v>1257</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>1252</v>
+        <v>1258</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>1253</v>
+        <v>1259</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>1254</v>
+        <v>1260</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>1255</v>
+        <v>1261</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>1256</v>
+        <v>1262</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>1257</v>
+        <v>1263</v>
       </c>
       <c r="Q22" s="5" t="s">
-        <v>1258</v>
+        <v>1264</v>
       </c>
       <c r="R22" s="5" t="s">
-        <v>1259</v>
+        <v>1265</v>
       </c>
       <c r="S22" s="5" t="s">
-        <v>1260</v>
+        <v>1266</v>
       </c>
       <c r="T22" s="5" t="s">
-        <v>1261</v>
+        <v>1267</v>
       </c>
       <c r="U22" s="5" t="s">
-        <v>1262</v>
+        <v>1268</v>
       </c>
       <c r="V22" s="5" t="s">
-        <v>1263</v>
+        <v>1269</v>
       </c>
       <c r="W22" s="5" t="s">
-        <v>1264</v>
+        <v>1270</v>
       </c>
       <c r="X22" s="5" t="s">
-        <v>1265</v>
+        <v>1271</v>
       </c>
       <c r="Y22" s="5" t="s">
-        <v>1266</v>
+        <v>1272</v>
       </c>
       <c r="Z22" s="5" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="AA22" s="5" t="s">
-        <v>1267</v>
+        <v>1273</v>
       </c>
       <c r="AB22" s="12" t="s">
-        <v>1268</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>1269</v>
+        <v>1275</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>1270</v>
+        <v>1276</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>1271</v>
+        <v>1277</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>1272</v>
+        <v>1278</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>1273</v>
+        <v>1279</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>1274</v>
+        <v>1280</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>1275</v>
+        <v>1281</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>1276</v>
+        <v>1282</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>1277</v>
+        <v>1283</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>1278</v>
+        <v>1284</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>1279</v>
+        <v>1285</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>1280</v>
+        <v>1286</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>1281</v>
+        <v>1287</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>1282</v>
+        <v>1288</v>
       </c>
       <c r="P23" s="5" t="s">
-        <v>1283</v>
+        <v>1289</v>
       </c>
       <c r="Q23" s="5" t="s">
-        <v>1284</v>
+        <v>1290</v>
       </c>
       <c r="R23" s="5" t="s">
-        <v>1285</v>
+        <v>1291</v>
       </c>
       <c r="S23" s="5" t="s">
-        <v>1286</v>
+        <v>1292</v>
       </c>
       <c r="T23" s="5" t="s">
-        <v>1287</v>
+        <v>1293</v>
       </c>
       <c r="U23" s="5" t="s">
-        <v>1288</v>
+        <v>1294</v>
       </c>
       <c r="V23" s="5" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="W23" s="5" t="s">
-        <v>1289</v>
+        <v>1295</v>
       </c>
       <c r="X23" s="5" t="s">
-        <v>1290</v>
+        <v>1296</v>
       </c>
       <c r="Y23" s="5" t="s">
-        <v>1291</v>
+        <v>1297</v>
       </c>
       <c r="Z23" s="5" t="s">
-        <v>1292</v>
+        <v>1298</v>
       </c>
       <c r="AA23" s="5" t="s">
-        <v>1293</v>
+        <v>1299</v>
       </c>
       <c r="AB23" s="12" t="s">
-        <v>1294</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>1295</v>
+        <v>1301</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>1296</v>
+        <v>1302</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>1297</v>
+        <v>1303</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>1298</v>
+        <v>1304</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>1299</v>
+        <v>1305</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>1300</v>
+        <v>1306</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>1301</v>
+        <v>1307</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>1302</v>
+        <v>1308</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>1303</v>
+        <v>1309</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>1304</v>
+        <v>1310</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>1305</v>
+        <v>1311</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>1306</v>
+        <v>1312</v>
       </c>
       <c r="O24" s="5" t="s">
-        <v>1307</v>
+        <v>1313</v>
       </c>
       <c r="P24" s="5" t="s">
-        <v>1308</v>
+        <v>1314</v>
       </c>
       <c r="Q24" s="5" t="s">
-        <v>1309</v>
+        <v>1315</v>
       </c>
       <c r="R24" s="5" t="s">
-        <v>1310</v>
+        <v>1316</v>
       </c>
       <c r="S24" s="5" t="s">
-        <v>1311</v>
+        <v>1317</v>
       </c>
       <c r="T24" s="5" t="s">
-        <v>1312</v>
+        <v>1318</v>
       </c>
       <c r="U24" s="5" t="s">
-        <v>1313</v>
+        <v>1319</v>
       </c>
       <c r="V24" s="5" t="s">
-        <v>1314</v>
+        <v>1320</v>
       </c>
       <c r="W24" s="5" t="s">
-        <v>1315</v>
+        <v>1321</v>
       </c>
       <c r="X24" s="5" t="s">
-        <v>1316</v>
+        <v>1322</v>
       </c>
       <c r="Y24" s="5" t="s">
-        <v>1317</v>
+        <v>1323</v>
       </c>
       <c r="Z24" s="5" t="s">
-        <v>1318</v>
+        <v>1324</v>
       </c>
       <c r="AA24" s="5" t="s">
-        <v>1319</v>
+        <v>1325</v>
       </c>
       <c r="AB24" s="12" t="s">
-        <v>1320</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>1321</v>
+        <v>1327</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>1322</v>
+        <v>1328</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>1323</v>
+        <v>1329</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>1324</v>
+        <v>1330</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>1325</v>
+        <v>1331</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>1326</v>
+        <v>1332</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>1327</v>
+        <v>1333</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>1328</v>
+        <v>1334</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>1329</v>
+        <v>1335</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>1330</v>
+        <v>1336</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>1331</v>
+        <v>1337</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>1332</v>
+        <v>1338</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>1333</v>
+        <v>1339</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>1334</v>
+        <v>1340</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>1335</v>
+        <v>1341</v>
       </c>
       <c r="Q25" s="5" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="R25" s="5" t="s">
-        <v>1336</v>
+        <v>1342</v>
       </c>
       <c r="S25" s="5" t="s">
-        <v>1337</v>
+        <v>1343</v>
       </c>
       <c r="T25" s="5" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="U25" s="5" t="s">
-        <v>1338</v>
+        <v>1344</v>
       </c>
       <c r="V25" s="5" t="s">
-        <v>1339</v>
+        <v>1345</v>
       </c>
       <c r="W25" s="5" t="s">
-        <v>1340</v>
+        <v>1346</v>
       </c>
       <c r="X25" s="5" t="s">
-        <v>1341</v>
+        <v>1347</v>
       </c>
       <c r="Y25" s="5" t="s">
-        <v>1342</v>
+        <v>1348</v>
       </c>
       <c r="Z25" s="5" t="s">
-        <v>1343</v>
+        <v>1349</v>
       </c>
       <c r="AA25" s="5" t="s">
-        <v>1344</v>
+        <v>1350</v>
       </c>
       <c r="AB25" s="12" t="s">
-        <v>964</v>
+        <v>970</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>1345</v>
+        <v>1351</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>1346</v>
+        <v>1352</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>1347</v>
+        <v>1353</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>1348</v>
+        <v>1354</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>1349</v>
+        <v>1355</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>1350</v>
+        <v>1356</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>1351</v>
+        <v>1357</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>1352</v>
+        <v>1358</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>1353</v>
+        <v>1359</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>1354</v>
+        <v>1360</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>1355</v>
+        <v>1361</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>1356</v>
+        <v>1362</v>
       </c>
       <c r="O26" s="5" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="P26" s="5" t="s">
-        <v>1357</v>
+        <v>1363</v>
       </c>
       <c r="Q26" s="5" t="s">
-        <v>652</v>
+        <v>658</v>
       </c>
       <c r="R26" s="5" t="s">
-        <v>1358</v>
+        <v>1364</v>
       </c>
       <c r="S26" s="5" t="s">
-        <v>1359</v>
+        <v>1365</v>
       </c>
       <c r="T26" s="5" t="s">
-        <v>1360</v>
+        <v>1366</v>
       </c>
       <c r="U26" s="5" t="s">
-        <v>1361</v>
+        <v>1367</v>
       </c>
       <c r="V26" s="5" t="s">
-        <v>1362</v>
+        <v>1368</v>
       </c>
       <c r="W26" s="5" t="s">
-        <v>1363</v>
+        <v>1369</v>
       </c>
       <c r="X26" s="5" t="s">
-        <v>1364</v>
+        <v>1370</v>
       </c>
       <c r="Y26" s="5" t="s">
-        <v>1365</v>
+        <v>1371</v>
       </c>
       <c r="Z26" s="5" t="s">
-        <v>1366</v>
+        <v>1372</v>
       </c>
       <c r="AA26" s="5" t="s">
-        <v>1367</v>
+        <v>1373</v>
       </c>
       <c r="AB26" s="12" t="s">
-        <v>1368</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>1369</v>
+        <v>1375</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>1370</v>
+        <v>1376</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>1371</v>
+        <v>1377</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>1372</v>
+        <v>1378</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>1373</v>
+        <v>1379</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>1374</v>
+        <v>1380</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>1375</v>
+        <v>1381</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>1376</v>
+        <v>1382</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>1377</v>
+        <v>1383</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>1378</v>
+        <v>1384</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>1379</v>
+        <v>1385</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>1380</v>
+        <v>1386</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>1381</v>
+        <v>1387</v>
       </c>
       <c r="O27" s="5" t="s">
-        <v>1382</v>
+        <v>1388</v>
       </c>
       <c r="P27" s="5" t="s">
-        <v>1383</v>
+        <v>1389</v>
       </c>
       <c r="Q27" s="5" t="s">
-        <v>1384</v>
+        <v>1390</v>
       </c>
       <c r="R27" s="5" t="s">
-        <v>1385</v>
+        <v>1391</v>
       </c>
       <c r="S27" s="5" t="s">
-        <v>1386</v>
+        <v>1392</v>
       </c>
       <c r="T27" s="5" t="s">
-        <v>1387</v>
+        <v>1393</v>
       </c>
       <c r="U27" s="5" t="s">
-        <v>1388</v>
+        <v>1394</v>
       </c>
       <c r="V27" s="5" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="W27" s="5" t="s">
-        <v>1389</v>
+        <v>1395</v>
       </c>
       <c r="X27" s="5" t="s">
-        <v>1390</v>
+        <v>1396</v>
       </c>
       <c r="Y27" s="5" t="s">
-        <v>1391</v>
+        <v>1397</v>
       </c>
       <c r="Z27" s="5" t="s">
-        <v>1392</v>
+        <v>1398</v>
       </c>
       <c r="AA27" s="5" t="s">
-        <v>1393</v>
+        <v>1399</v>
       </c>
       <c r="AB27" s="12" t="s">
-        <v>1394</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>1395</v>
+        <v>1401</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>1396</v>
+        <v>1402</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>1397</v>
+        <v>1403</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>1398</v>
+        <v>1404</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>1399</v>
+        <v>1405</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>1400</v>
+        <v>1406</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>1401</v>
+        <v>1407</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>1402</v>
+        <v>1408</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>1403</v>
+        <v>1409</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>1404</v>
+        <v>1410</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>1405</v>
+        <v>1411</v>
       </c>
       <c r="N28" s="5" t="s">
-        <v>1406</v>
+        <v>1412</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>1407</v>
+        <v>1413</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>1408</v>
+        <v>1414</v>
       </c>
       <c r="Q28" s="5" t="s">
-        <v>1409</v>
+        <v>1415</v>
       </c>
       <c r="R28" s="5" t="s">
-        <v>1410</v>
+        <v>1416</v>
       </c>
       <c r="S28" s="5" t="s">
-        <v>1411</v>
+        <v>1417</v>
       </c>
       <c r="T28" s="5" t="s">
-        <v>1412</v>
+        <v>1418</v>
       </c>
       <c r="U28" s="5" t="s">
-        <v>1413</v>
+        <v>1419</v>
       </c>
       <c r="V28" s="5" t="s">
-        <v>1414</v>
+        <v>1420</v>
       </c>
       <c r="W28" s="5" t="s">
-        <v>1415</v>
+        <v>1421</v>
       </c>
       <c r="X28" s="5" t="s">
-        <v>1416</v>
+        <v>1422</v>
       </c>
       <c r="Y28" s="5" t="s">
-        <v>1417</v>
+        <v>1423</v>
       </c>
       <c r="Z28" s="5" t="s">
-        <v>1418</v>
+        <v>1424</v>
       </c>
       <c r="AA28" s="5" t="s">
-        <v>1419</v>
+        <v>1425</v>
       </c>
       <c r="AB28" s="12" t="s">
-        <v>1420</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>1421</v>
+        <v>1427</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>1422</v>
+        <v>1428</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>1423</v>
+        <v>1429</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>1424</v>
+        <v>1430</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>1425</v>
+        <v>1431</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>1426</v>
+        <v>1432</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>1427</v>
+        <v>1433</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>1428</v>
+        <v>1434</v>
       </c>
       <c r="J29" s="13" t="s">
-        <v>1429</v>
+        <v>1435</v>
       </c>
       <c r="K29" s="13" t="s">
-        <v>1430</v>
+        <v>1436</v>
       </c>
       <c r="L29" s="13" t="s">
-        <v>1431</v>
+        <v>1437</v>
       </c>
       <c r="M29" s="13" t="s">
-        <v>1432</v>
+        <v>1438</v>
       </c>
       <c r="N29" s="13" t="s">
-        <v>1433</v>
+        <v>1439</v>
       </c>
       <c r="O29" s="13" t="s">
-        <v>1434</v>
+        <v>1440</v>
       </c>
       <c r="P29" s="13" t="s">
-        <v>1435</v>
+        <v>1441</v>
       </c>
       <c r="Q29" s="13" t="s">
-        <v>1436</v>
+        <v>1442</v>
       </c>
       <c r="R29" s="13" t="s">
-        <v>1437</v>
+        <v>1443</v>
       </c>
       <c r="S29" s="13" t="s">
-        <v>1438</v>
+        <v>1444</v>
       </c>
       <c r="T29" s="13" t="s">
-        <v>1439</v>
+        <v>1445</v>
       </c>
       <c r="U29" s="13" t="s">
-        <v>1440</v>
+        <v>1446</v>
       </c>
       <c r="V29" s="13" t="s">
-        <v>1441</v>
+        <v>1447</v>
       </c>
       <c r="W29" s="13" t="s">
-        <v>1442</v>
+        <v>1448</v>
       </c>
       <c r="X29" s="13" t="s">
-        <v>1207</v>
+        <v>1213</v>
       </c>
       <c r="Y29" s="13" t="s">
-        <v>1443</v>
+        <v>1449</v>
       </c>
       <c r="Z29" s="13" t="s">
-        <v>1444</v>
+        <v>1450</v>
       </c>
       <c r="AA29" s="13" t="s">
-        <v>1445</v>
+        <v>1451</v>
       </c>
       <c r="AB29" s="12" t="s">
-        <v>1446</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>1447</v>
+        <v>1453</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>1448</v>
+        <v>1454</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>1449</v>
+        <v>1455</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>1450</v>
+        <v>1456</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>1451</v>
+        <v>1457</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>1452</v>
+        <v>1458</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>1453</v>
+        <v>1459</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>1454</v>
+        <v>1460</v>
       </c>
       <c r="J30" s="13" t="s">
-        <v>1455</v>
+        <v>1461</v>
       </c>
       <c r="K30" s="13" t="s">
-        <v>1456</v>
+        <v>1462</v>
       </c>
       <c r="L30" s="13" t="s">
-        <v>1457</v>
+        <v>1463</v>
       </c>
       <c r="M30" s="13" t="s">
-        <v>1458</v>
+        <v>1464</v>
       </c>
       <c r="N30" s="13" t="s">
-        <v>1459</v>
+        <v>1465</v>
       </c>
       <c r="O30" s="13" t="s">
-        <v>1268</v>
+        <v>1274</v>
       </c>
       <c r="P30" s="13" t="s">
-        <v>1460</v>
+        <v>1466</v>
       </c>
       <c r="Q30" s="13" t="s">
-        <v>1461</v>
+        <v>1467</v>
       </c>
       <c r="R30" s="13" t="s">
-        <v>1462</v>
+        <v>1468</v>
       </c>
       <c r="S30" s="13" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
       <c r="T30" s="13" t="s">
-        <v>1463</v>
+        <v>1469</v>
       </c>
       <c r="U30" s="13" t="s">
-        <v>1464</v>
+        <v>1470</v>
       </c>
       <c r="V30" s="13" t="s">
-        <v>1465</v>
+        <v>1471</v>
       </c>
       <c r="W30" s="13" t="s">
-        <v>1466</v>
+        <v>1472</v>
       </c>
       <c r="X30" s="13" t="s">
-        <v>1467</v>
+        <v>1473</v>
       </c>
       <c r="Y30" s="13" t="s">
-        <v>1468</v>
+        <v>1474</v>
       </c>
       <c r="Z30" s="13" t="s">
-        <v>1469</v>
+        <v>1475</v>
       </c>
       <c r="AA30" s="13" t="s">
-        <v>1470</v>
+        <v>1476</v>
       </c>
       <c r="AB30" s="12" t="s">
-        <v>1471</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>822</v>
+        <v>828</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>1472</v>
+        <v>1478</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>1473</v>
+        <v>1479</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>1474</v>
+        <v>1480</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>1475</v>
+        <v>1481</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>1476</v>
+        <v>1482</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>1477</v>
+        <v>1483</v>
       </c>
       <c r="I31" s="13" t="s">
-        <v>1453</v>
+        <v>1459</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
       <c r="K31" s="13" t="s">
-        <v>1478</v>
+        <v>1484</v>
       </c>
       <c r="L31" s="13" t="s">
-        <v>1479</v>
+        <v>1485</v>
       </c>
       <c r="M31" s="13" t="s">
-        <v>1480</v>
+        <v>1486</v>
       </c>
       <c r="N31" s="13" t="s">
-        <v>1460</v>
+        <v>1466</v>
       </c>
       <c r="O31" s="13" t="s">
-        <v>1481</v>
+        <v>1487</v>
       </c>
       <c r="P31" s="13" t="s">
-        <v>964</v>
+        <v>970</v>
       </c>
       <c r="Q31" s="13" t="s">
-        <v>1482</v>
+        <v>1488</v>
       </c>
       <c r="R31" s="13" t="s">
-        <v>1483</v>
+        <v>1489</v>
       </c>
       <c r="S31" s="13" t="s">
-        <v>1484</v>
+        <v>1490</v>
       </c>
       <c r="T31" s="13" t="s">
-        <v>1485</v>
+        <v>1491</v>
       </c>
       <c r="U31" s="13" t="s">
-        <v>1486</v>
+        <v>1492</v>
       </c>
       <c r="V31" s="13" t="s">
-        <v>1487</v>
+        <v>1493</v>
       </c>
       <c r="W31" s="13" t="s">
-        <v>1488</v>
+        <v>1494</v>
       </c>
       <c r="X31" s="13" t="s">
-        <v>1489</v>
+        <v>1495</v>
       </c>
       <c r="Y31" s="13" t="s">
-        <v>1490</v>
+        <v>1496</v>
       </c>
       <c r="Z31" s="13" t="s">
-        <v>1394</v>
+        <v>1400</v>
       </c>
       <c r="AA31" s="13" t="s">
-        <v>1491</v>
+        <v>1497</v>
       </c>
       <c r="AB31" s="12" t="s">
-        <v>1492</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>670</v>
+        <v>676</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>675</v>
+        <v>681</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>673</v>
+        <v>679</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>1493</v>
+        <v>1499</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>674</v>
+        <v>680</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>1494</v>
+        <v>1500</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>1495</v>
+        <v>1501</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>1496</v>
+        <v>1502</v>
       </c>
       <c r="I32" s="13" t="s">
-        <v>1497</v>
+        <v>1503</v>
       </c>
       <c r="J32" s="13" t="s">
-        <v>1498</v>
+        <v>1504</v>
       </c>
       <c r="K32" s="13" t="s">
-        <v>1499</v>
+        <v>1505</v>
       </c>
       <c r="L32" s="13" t="s">
-        <v>1500</v>
+        <v>1506</v>
       </c>
       <c r="M32" s="13" t="s">
-        <v>1497</v>
+        <v>1503</v>
       </c>
       <c r="N32" s="13" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
       <c r="O32" s="13" t="s">
-        <v>1502</v>
+        <v>1508</v>
       </c>
       <c r="P32" s="13" t="s">
-        <v>1503</v>
+        <v>1509</v>
       </c>
       <c r="Q32" s="13" t="s">
-        <v>1501</v>
+        <v>1507</v>
       </c>
       <c r="R32" s="13" t="s">
-        <v>673</v>
+        <v>679</v>
       </c>
       <c r="S32" s="13" t="s">
-        <v>1502</v>
+        <v>1508</v>
       </c>
       <c r="T32" s="13" t="s">
-        <v>1504</v>
+        <v>1510</v>
       </c>
       <c r="U32" s="13" t="s">
-        <v>1505</v>
+        <v>1511</v>
       </c>
       <c r="V32" s="13" t="s">
-        <v>1506</v>
+        <v>1512</v>
       </c>
       <c r="W32" s="13" t="s">
-        <v>1505</v>
+        <v>1511</v>
       </c>
       <c r="X32" s="13" t="s">
+        <v>1513</v>
+      </c>
+      <c r="Y32" s="13" t="s">
+        <v>1514</v>
+      </c>
+      <c r="Z32" s="13" t="s">
         <v>1507</v>
       </c>
-      <c r="Y32" s="13" t="s">
-        <v>1508</v>
-      </c>
-      <c r="Z32" s="13" t="s">
-        <v>1501</v>
-      </c>
       <c r="AA32" s="13" t="s">
-        <v>671</v>
+        <v>677</v>
       </c>
       <c r="AB32" s="12" t="s">
-        <v>1509</v>
+        <v>1515</v>
       </c>
     </row>
   </sheetData>
@@ -12937,357 +12963,357 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>1510</v>
+        <v>1516</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1511</v>
+        <v>1517</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1512</v>
+        <v>1518</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>1513</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1514</v>
+        <v>1520</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1515</v>
+        <v>1521</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1516</v>
+        <v>1522</v>
       </c>
       <c r="D2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>1511</v>
+        <v>1517</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1517</v>
+        <v>1523</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>1518</v>
+        <v>1524</v>
       </c>
       <c r="D3" s="1"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>1512</v>
+        <v>1518</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1519</v>
+        <v>1525</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1520</v>
+        <v>1526</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>1521</v>
+        <v>1527</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1522</v>
+        <v>1528</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1523</v>
+        <v>1529</v>
       </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>1524</v>
+        <v>1530</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1525</v>
+        <v>1531</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1526</v>
+        <v>1532</v>
       </c>
       <c r="D6" s="1"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>1527</v>
+        <v>1533</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1528</v>
+        <v>1534</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1529</v>
+        <v>1535</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>1530</v>
+        <v>1536</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1531</v>
+        <v>1537</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>1532</v>
+        <v>1538</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>1533</v>
+        <v>1539</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1534</v>
+        <v>1540</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1535</v>
+        <v>1541</v>
       </c>
       <c r="D9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>1536</v>
+        <v>1542</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>1537</v>
+        <v>1543</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>1538</v>
+        <v>1544</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>1539</v>
+        <v>1545</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>1540</v>
+        <v>1546</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>1541</v>
+        <v>1547</v>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>1542</v>
+        <v>1548</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>1543</v>
+        <v>1549</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>1544</v>
+        <v>1550</v>
       </c>
       <c r="D12" s="1"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>1545</v>
+        <v>1551</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>1546</v>
+        <v>1552</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>1547</v>
+        <v>1553</v>
       </c>
       <c r="D13" s="1"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>1548</v>
+        <v>1554</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1549</v>
+        <v>1555</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>1550</v>
+        <v>1556</v>
       </c>
       <c r="D14" s="1"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>1551</v>
+        <v>1557</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>1552</v>
+        <v>1558</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>1553</v>
+        <v>1559</v>
       </c>
       <c r="D15" s="1"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>1554</v>
+        <v>1560</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>1555</v>
+        <v>1561</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>1556</v>
+        <v>1562</v>
       </c>
       <c r="D16" s="1"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>1557</v>
+        <v>1563</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>1558</v>
+        <v>1564</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>1559</v>
+        <v>1565</v>
       </c>
       <c r="D17" s="1"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>1560</v>
+        <v>1566</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>1561</v>
+        <v>1567</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>1562</v>
+        <v>1568</v>
       </c>
       <c r="D18" s="1"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>1563</v>
+        <v>1569</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>1564</v>
+        <v>1570</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>1565</v>
+        <v>1571</v>
       </c>
       <c r="D19" s="1"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>1566</v>
+        <v>1572</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>1567</v>
+        <v>1573</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>1568</v>
+        <v>1574</v>
       </c>
       <c r="D20" s="1"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>1569</v>
+        <v>1575</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>1570</v>
+        <v>1576</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>1571</v>
+        <v>1577</v>
       </c>
       <c r="D21" s="1"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>1572</v>
+        <v>1578</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>1573</v>
+        <v>1579</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>1574</v>
+        <v>1580</v>
       </c>
       <c r="D22" s="1"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>1575</v>
+        <v>1581</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>1576</v>
+        <v>1582</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>1577</v>
+        <v>1583</v>
       </c>
       <c r="D23" s="1"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>1578</v>
+        <v>1584</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>1579</v>
+        <v>1585</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>1580</v>
+        <v>1586</v>
       </c>
       <c r="D24" s="1"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>1581</v>
+        <v>1587</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>1582</v>
+        <v>1588</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>1583</v>
+        <v>1589</v>
       </c>
       <c r="D25" s="1"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>1584</v>
+        <v>1590</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>1585</v>
+        <v>1591</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>1586</v>
+        <v>1592</v>
       </c>
       <c r="D26" s="1"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>1587</v>
+        <v>1593</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>1588</v>
+        <v>1594</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>1589</v>
+        <v>1595</v>
       </c>
       <c r="D27" s="1"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>1590</v>
+        <v>1596</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>1591</v>
+        <v>1597</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>1592</v>
+        <v>1598</v>
       </c>
       <c r="D28" s="1"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>1593</v>
+        <v>1599</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>1594</v>
+        <v>1600</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>1595</v>
+        <v>1601</v>
       </c>
       <c r="D29" s="1"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>1596</v>
+        <v>1602</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -13295,7 +13321,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>1597</v>
+        <v>1603</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -13303,7 +13329,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>1598</v>
+        <v>1604</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -13311,7 +13337,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>1599</v>
+        <v>1605</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -13319,7 +13345,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>1600</v>
+        <v>1606</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>

--- a/archive/iceKnives32/iceKnives32.xlsx
+++ b/archive/iceKnives32/iceKnives32.xlsx
@@ -306,7 +306,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2375" uniqueCount="1607">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2411" uniqueCount="1647">
   <si>
     <t>[packet]</t>
   </si>
@@ -806,12 +806,42 @@
     <t>graphs</t>
   </si>
   <si>
+    <t>pixel</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>now</t>
+  </si>
+  <si>
+    <t>batch</t>
+  </si>
+  <si>
+    <t>'124'</t>
+  </si>
+  <si>
     <t>difference</t>
   </si>
   <si>
     <t>stamp</t>
   </si>
   <si>
+    <t>effect</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>cover</t>
+  </si>
+  <si>
+    <t>circuit</t>
+  </si>
+  <si>
+    <t>'159'</t>
+  </si>
+  <si>
     <t>add</t>
   </si>
   <si>
@@ -821,6 +851,21 @@
     <t>structure</t>
   </si>
   <si>
+    <t>meet</t>
+  </si>
+  <si>
+    <t>fix</t>
+  </si>
+  <si>
+    <t>objects</t>
+  </si>
+  <si>
+    <t>gross</t>
+  </si>
+  <si>
+    <t>'127'</t>
+  </si>
+  <si>
     <t>find</t>
   </si>
   <si>
@@ -830,6 +875,21 @@
     <t>control</t>
   </si>
   <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>act</t>
+  </si>
+  <si>
+    <t>cloud</t>
+  </si>
+  <si>
+    <t>deliver</t>
+  </si>
+  <si>
+    <t>'141'</t>
+  </si>
+  <si>
     <t>delete</t>
   </si>
   <si>
@@ -839,6 +899,18 @@
     <t>demon</t>
   </si>
   <si>
+    <t>which</t>
+  </si>
+  <si>
+    <t>talent</t>
+  </si>
+  <si>
+    <t>any</t>
+  </si>
+  <si>
+    <t>with</t>
+  </si>
+  <si>
     <t>chunk</t>
   </si>
   <si>
@@ -848,6 +920,21 @@
     <t>branch</t>
   </si>
   <si>
+    <t>vision</t>
+  </si>
+  <si>
+    <t>sync</t>
+  </si>
+  <si>
+    <t>these</t>
+  </si>
+  <si>
+    <t>root</t>
+  </si>
+  <si>
+    <t>'139'</t>
+  </si>
+  <si>
     <t>part</t>
   </si>
   <si>
@@ -857,6 +944,21 @@
     <t>grade</t>
   </si>
   <si>
+    <t>spread</t>
+  </si>
+  <si>
+    <t>ground</t>
+  </si>
+  <si>
+    <t>hall</t>
+  </si>
+  <si>
+    <t>hook</t>
+  </si>
+  <si>
+    <t>'134'</t>
+  </si>
+  <si>
     <t>sort</t>
   </si>
   <si>
@@ -866,6 +968,18 @@
     <t>slip</t>
   </si>
   <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>gadget</t>
+  </si>
+  <si>
+    <t>thrown</t>
+  </si>
+  <si>
+    <t>side</t>
+  </si>
+  <si>
     <t>reset</t>
   </si>
   <si>
@@ -875,6 +989,15 @@
     <t>medium</t>
   </si>
   <si>
+    <t>concern</t>
+  </si>
+  <si>
+    <t>magic</t>
+  </si>
+  <si>
+    <t>tablet</t>
+  </si>
+  <si>
     <t>modified</t>
   </si>
   <si>
@@ -1935,9 +2058,6 @@
   </si>
   <si>
     <t>By</t>
-  </si>
-  <si>
-    <t>circuit</t>
   </si>
   <si>
     <t>Read</t>
@@ -6331,12 +6451,20 @@
       <c r="D5" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>169</v>
+      </c>
       <c r="I5" s="3" t="s">
-        <v>9</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6">
@@ -6347,17 +6475,25 @@
         <v>7</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>176</v>
+      </c>
       <c r="I6" s="3" t="s">
-        <v>9</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7">
@@ -6365,20 +6501,28 @@
         <v>26</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+        <v>180</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="I7" s="3" t="s">
-        <v>9</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8">
@@ -6386,20 +6530,28 @@
         <v>30</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>192</v>
+      </c>
       <c r="I8" s="3" t="s">
-        <v>9</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9">
@@ -6407,20 +6559,28 @@
         <v>34</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>200</v>
+      </c>
       <c r="I9" s="3" t="s">
-        <v>9</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10">
@@ -6428,20 +6588,28 @@
         <v>38</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>207</v>
+      </c>
       <c r="I10" s="3" t="s">
-        <v>9</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11">
@@ -6449,20 +6617,28 @@
         <v>42</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>180</v>
+        <v>209</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>181</v>
+        <v>210</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>215</v>
+      </c>
       <c r="I11" s="3" t="s">
-        <v>9</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12">
@@ -6470,20 +6646,28 @@
         <v>46</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>183</v>
+        <v>217</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>184</v>
+        <v>218</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>223</v>
+      </c>
       <c r="I12" s="3" t="s">
-        <v>9</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13">
@@ -6491,20 +6675,28 @@
         <v>50</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>186</v>
+        <v>224</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>187</v>
+        <v>225</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>229</v>
+      </c>
       <c r="I13" s="3" t="s">
-        <v>9</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14">
@@ -6512,13 +6704,13 @@
         <v>54</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>189</v>
+        <v>230</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>190</v>
+        <v>231</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>191</v>
+        <v>232</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -6533,13 +6725,13 @@
         <v>58</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>192</v>
+        <v>233</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>193</v>
+        <v>234</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>194</v>
+        <v>235</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -6554,13 +6746,13 @@
         <v>62</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>195</v>
+        <v>236</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>196</v>
+        <v>237</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>197</v>
+        <v>238</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -6575,13 +6767,13 @@
         <v>66</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>198</v>
+        <v>239</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>199</v>
+        <v>240</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>200</v>
+        <v>241</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -6596,13 +6788,13 @@
         <v>70</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>201</v>
+        <v>242</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>202</v>
+        <v>243</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>203</v>
+        <v>244</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -6617,13 +6809,13 @@
         <v>74</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>204</v>
+        <v>245</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>205</v>
+        <v>246</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>206</v>
+        <v>247</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -6638,13 +6830,13 @@
         <v>78</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>207</v>
+        <v>248</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>208</v>
+        <v>249</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>209</v>
+        <v>250</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -6659,13 +6851,13 @@
         <v>82</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>210</v>
+        <v>251</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>211</v>
+        <v>252</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>212</v>
+        <v>253</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -6680,13 +6872,13 @@
         <v>86</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>213</v>
+        <v>254</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>214</v>
+        <v>255</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>215</v>
+        <v>256</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -6701,13 +6893,13 @@
         <v>90</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>216</v>
+        <v>257</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>217</v>
+        <v>258</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>218</v>
+        <v>259</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -6722,13 +6914,13 @@
         <v>94</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>219</v>
+        <v>260</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>220</v>
+        <v>261</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>221</v>
+        <v>262</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -6743,13 +6935,13 @@
         <v>98</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>222</v>
+        <v>263</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>223</v>
+        <v>264</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>224</v>
+        <v>265</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -6764,13 +6956,13 @@
         <v>102</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>225</v>
+        <v>266</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>226</v>
+        <v>267</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>227</v>
+        <v>268</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -6785,13 +6977,13 @@
         <v>106</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>228</v>
+        <v>269</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>229</v>
+        <v>270</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>230</v>
+        <v>271</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -6806,13 +6998,13 @@
         <v>110</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>231</v>
+        <v>272</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>232</v>
+        <v>273</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>233</v>
+        <v>274</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -6848,7 +7040,7 @@
         <v>35</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>234</v>
+        <v>275</v>
       </c>
     </row>
     <row r="30">
@@ -6856,13 +7048,13 @@
         <v>118</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>235</v>
+        <v>276</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>236</v>
+        <v>277</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>237</v>
+        <v>278</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>25</v>
@@ -6885,13 +7077,13 @@
         <v>119</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>238</v>
+        <v>279</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>239</v>
+        <v>280</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>240</v>
+        <v>281</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>25</v>
@@ -6914,13 +7106,13 @@
         <v>120</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>241</v>
+        <v>282</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>242</v>
+        <v>283</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>243</v>
+        <v>284</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>25</v>
@@ -6943,13 +7135,13 @@
         <v>121</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>244</v>
+        <v>285</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>245</v>
+        <v>286</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>246</v>
+        <v>287</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>25</v>
@@ -7030,13 +7222,13 @@
         <v>124</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>247</v>
+        <v>288</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>248</v>
+        <v>289</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>249</v>
+        <v>290</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>25</v>
@@ -7210,19 +7402,19 @@
         <v>137</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>250</v>
+        <v>291</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>138</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>251</v>
+        <v>292</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>252</v>
+        <v>293</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>253</v>
+        <v>294</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>134</v>
@@ -7233,28 +7425,28 @@
         <v>135</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>254</v>
+        <v>295</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>255</v>
+        <v>296</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>256</v>
+        <v>297</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>257</v>
+        <v>298</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>258</v>
+        <v>299</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>259</v>
+        <v>300</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>260</v>
+        <v>301</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>261</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -7277,7 +7469,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>262</v>
+        <v>303</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -7306,7 +7498,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>263</v>
+        <v>304</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>12</v>
@@ -7338,25 +7530,25 @@
         <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>264</v>
+        <v>305</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>265</v>
+        <v>306</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>266</v>
+        <v>307</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>267</v>
+        <v>308</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>268</v>
+        <v>309</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>269</v>
+        <v>310</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>270</v>
+        <v>311</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>9</v>
@@ -7367,25 +7559,25 @@
         <v>14</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>271</v>
+        <v>312</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>272</v>
+        <v>313</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>273</v>
+        <v>314</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>274</v>
+        <v>315</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>275</v>
+        <v>316</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>276</v>
+        <v>317</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>277</v>
+        <v>318</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>9</v>
@@ -7396,25 +7588,25 @@
         <v>18</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>278</v>
+        <v>319</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>279</v>
+        <v>320</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>280</v>
+        <v>321</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>281</v>
+        <v>322</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>282</v>
+        <v>323</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>283</v>
+        <v>324</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>284</v>
+        <v>325</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>9</v>
@@ -7425,25 +7617,25 @@
         <v>22</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>285</v>
+        <v>326</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>286</v>
+        <v>327</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>287</v>
+        <v>328</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>288</v>
+        <v>329</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>289</v>
+        <v>330</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>290</v>
+        <v>331</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>291</v>
+        <v>332</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>9</v>
@@ -7454,25 +7646,25 @@
         <v>26</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>292</v>
+        <v>333</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>293</v>
+        <v>334</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>294</v>
+        <v>335</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>295</v>
+        <v>336</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>296</v>
+        <v>337</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>297</v>
+        <v>338</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>298</v>
+        <v>339</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>9</v>
@@ -7483,25 +7675,25 @@
         <v>30</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>299</v>
+        <v>340</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>300</v>
+        <v>341</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>301</v>
+        <v>342</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>302</v>
+        <v>343</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>303</v>
+        <v>344</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>304</v>
+        <v>345</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>305</v>
+        <v>346</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>9</v>
@@ -7512,25 +7704,25 @@
         <v>34</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>306</v>
+        <v>347</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>307</v>
+        <v>348</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>308</v>
+        <v>349</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>309</v>
+        <v>350</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>310</v>
+        <v>351</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>311</v>
+        <v>352</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>312</v>
+        <v>353</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>9</v>
@@ -7541,25 +7733,25 @@
         <v>38</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>313</v>
+        <v>354</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>314</v>
+        <v>355</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>315</v>
+        <v>356</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>316</v>
+        <v>357</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>317</v>
+        <v>358</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>318</v>
+        <v>359</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>319</v>
+        <v>360</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>9</v>
@@ -7570,25 +7762,25 @@
         <v>42</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>320</v>
+        <v>361</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>321</v>
+        <v>362</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>322</v>
+        <v>363</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>323</v>
+        <v>364</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>324</v>
+        <v>365</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>325</v>
+        <v>366</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>326</v>
+        <v>367</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>9</v>
@@ -7599,25 +7791,25 @@
         <v>46</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>327</v>
+        <v>368</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>328</v>
+        <v>369</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>329</v>
+        <v>370</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>330</v>
+        <v>371</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>331</v>
+        <v>372</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>332</v>
+        <v>373</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>333</v>
+        <v>374</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>9</v>
@@ -7628,25 +7820,25 @@
         <v>50</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>334</v>
+        <v>375</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>335</v>
+        <v>376</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>336</v>
+        <v>377</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>337</v>
+        <v>378</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>338</v>
+        <v>379</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>339</v>
+        <v>380</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>340</v>
+        <v>381</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>9</v>
@@ -7657,25 +7849,25 @@
         <v>54</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>341</v>
+        <v>382</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>342</v>
+        <v>383</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>343</v>
+        <v>384</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>344</v>
+        <v>385</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>345</v>
+        <v>386</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>346</v>
+        <v>387</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>347</v>
+        <v>388</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>9</v>
@@ -7686,25 +7878,25 @@
         <v>58</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>348</v>
+        <v>389</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>349</v>
+        <v>390</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>350</v>
+        <v>391</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>351</v>
+        <v>392</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>352</v>
+        <v>393</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>353</v>
+        <v>394</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>354</v>
+        <v>395</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>9</v>
@@ -7715,25 +7907,25 @@
         <v>62</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>355</v>
+        <v>396</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>356</v>
+        <v>397</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>357</v>
+        <v>398</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>358</v>
+        <v>399</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>359</v>
+        <v>400</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>360</v>
+        <v>401</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>361</v>
+        <v>402</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>9</v>
@@ -7744,25 +7936,25 @@
         <v>66</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>362</v>
+        <v>403</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>363</v>
+        <v>404</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>364</v>
+        <v>405</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>365</v>
+        <v>406</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>366</v>
+        <v>407</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>367</v>
+        <v>408</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>368</v>
+        <v>409</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>9</v>
@@ -7773,25 +7965,25 @@
         <v>70</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>369</v>
+        <v>410</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>370</v>
+        <v>411</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>371</v>
+        <v>412</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>372</v>
+        <v>413</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>373</v>
+        <v>414</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>374</v>
+        <v>415</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>375</v>
+        <v>416</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>9</v>
@@ -7802,25 +7994,25 @@
         <v>74</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>376</v>
+        <v>417</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>377</v>
+        <v>418</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>378</v>
+        <v>419</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>379</v>
+        <v>420</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>380</v>
+        <v>421</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>381</v>
+        <v>422</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>382</v>
+        <v>423</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>9</v>
@@ -7831,25 +8023,25 @@
         <v>78</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>383</v>
+        <v>424</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>384</v>
+        <v>425</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>385</v>
+        <v>426</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>386</v>
+        <v>427</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>387</v>
+        <v>428</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>388</v>
+        <v>429</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>389</v>
+        <v>430</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>9</v>
@@ -7860,25 +8052,25 @@
         <v>82</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>390</v>
+        <v>431</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>391</v>
+        <v>432</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>392</v>
+        <v>433</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>393</v>
+        <v>434</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>394</v>
+        <v>435</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>395</v>
+        <v>436</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>396</v>
+        <v>437</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>9</v>
@@ -7889,25 +8081,25 @@
         <v>86</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>397</v>
+        <v>438</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>398</v>
+        <v>439</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>399</v>
+        <v>440</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>400</v>
+        <v>441</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>401</v>
+        <v>442</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>402</v>
+        <v>443</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>403</v>
+        <v>444</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>9</v>
@@ -7918,25 +8110,25 @@
         <v>90</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>404</v>
+        <v>445</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>405</v>
+        <v>446</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>406</v>
+        <v>447</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>407</v>
+        <v>448</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>408</v>
+        <v>449</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>409</v>
+        <v>450</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>410</v>
+        <v>451</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>9</v>
@@ -7947,25 +8139,25 @@
         <v>94</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>411</v>
+        <v>452</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>412</v>
+        <v>453</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>413</v>
+        <v>454</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>414</v>
+        <v>455</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>415</v>
+        <v>456</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>416</v>
+        <v>457</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>417</v>
+        <v>458</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>9</v>
@@ -7976,25 +8168,25 @@
         <v>98</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>418</v>
+        <v>459</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>419</v>
+        <v>460</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>420</v>
+        <v>461</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>421</v>
+        <v>462</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>422</v>
+        <v>463</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>423</v>
+        <v>464</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>424</v>
+        <v>465</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>9</v>
@@ -8005,25 +8197,25 @@
         <v>102</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>425</v>
+        <v>466</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>426</v>
+        <v>467</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>427</v>
+        <v>468</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>428</v>
+        <v>469</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>429</v>
+        <v>470</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>430</v>
+        <v>471</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>9</v>
@@ -8034,25 +8226,25 @@
         <v>106</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>431</v>
+        <v>472</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>432</v>
+        <v>473</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>433</v>
+        <v>474</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>434</v>
+        <v>475</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>435</v>
+        <v>476</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>436</v>
+        <v>477</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>437</v>
+        <v>478</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>9</v>
@@ -8063,25 +8255,25 @@
         <v>110</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>438</v>
+        <v>479</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>439</v>
+        <v>480</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>440</v>
+        <v>481</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>441</v>
+        <v>482</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>442</v>
+        <v>483</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>443</v>
+        <v>484</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>444</v>
+        <v>485</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>9</v>
@@ -8113,7 +8305,7 @@
         <v>35</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>234</v>
+        <v>275</v>
       </c>
     </row>
     <row r="30">
@@ -8287,7 +8479,7 @@
         <v>37</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>445</v>
+        <v>486</v>
       </c>
     </row>
     <row r="36">
@@ -8316,7 +8508,7 @@
         <v>37</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>446</v>
+        <v>487</v>
       </c>
     </row>
     <row r="37">
@@ -8461,7 +8653,7 @@
         <v>37</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>447</v>
+        <v>488</v>
       </c>
     </row>
     <row r="42">
@@ -8475,19 +8667,19 @@
         <v>137</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>250</v>
+        <v>291</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>138</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>251</v>
+        <v>292</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>252</v>
+        <v>293</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>253</v>
+        <v>294</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>134</v>
@@ -8498,28 +8690,28 @@
         <v>135</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>254</v>
+        <v>295</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>255</v>
+        <v>296</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>256</v>
+        <v>297</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>257</v>
+        <v>298</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>258</v>
+        <v>299</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>259</v>
+        <v>300</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>260</v>
+        <v>301</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>261</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -8544,834 +8736,834 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="7" t="s">
-        <v>448</v>
+        <v>489</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>449</v>
+        <v>490</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>450</v>
+        <v>491</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>451</v>
+        <v>492</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>452</v>
+        <v>493</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>453</v>
+        <v>494</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>454</v>
+        <v>495</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>455</v>
+        <v>496</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
-        <v>456</v>
+        <v>497</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>457</v>
+        <v>498</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>458</v>
+        <v>499</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>459</v>
+        <v>500</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>460</v>
+        <v>501</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>461</v>
+        <v>502</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>462</v>
+        <v>503</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>463</v>
+        <v>504</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="s">
-        <v>449</v>
+        <v>490</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>464</v>
+        <v>505</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>465</v>
+        <v>506</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>466</v>
+        <v>507</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>467</v>
+        <v>508</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>468</v>
+        <v>509</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>469</v>
+        <v>510</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>470</v>
+        <v>511</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="s">
-        <v>450</v>
+        <v>491</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>471</v>
+        <v>512</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>472</v>
+        <v>513</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>473</v>
+        <v>514</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>474</v>
+        <v>515</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>475</v>
+        <v>516</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>476</v>
+        <v>517</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>477</v>
+        <v>518</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
-        <v>451</v>
+        <v>492</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>478</v>
+        <v>519</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>479</v>
+        <v>520</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>480</v>
+        <v>521</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>481</v>
+        <v>522</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>482</v>
+        <v>523</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>483</v>
+        <v>524</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>484</v>
+        <v>525</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="7" t="s">
-        <v>452</v>
+        <v>493</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>485</v>
+        <v>526</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>486</v>
+        <v>527</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>487</v>
+        <v>528</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>488</v>
+        <v>529</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>489</v>
+        <v>530</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>490</v>
+        <v>531</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>491</v>
+        <v>532</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="7" t="s">
-        <v>453</v>
+        <v>494</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>492</v>
+        <v>533</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>493</v>
+        <v>534</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>310</v>
+        <v>351</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>495</v>
+        <v>536</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>496</v>
+        <v>537</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>497</v>
+        <v>538</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="7" t="s">
-        <v>454</v>
+        <v>495</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>498</v>
+        <v>539</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>499</v>
+        <v>540</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>64</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>500</v>
+        <v>541</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>501</v>
+        <v>542</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>502</v>
+        <v>543</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>503</v>
+        <v>544</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="7" t="s">
-        <v>504</v>
+        <v>545</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>505</v>
+        <v>546</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>506</v>
+        <v>547</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>225</v>
+        <v>266</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>507</v>
+        <v>548</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>508</v>
+        <v>549</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>509</v>
+        <v>550</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>510</v>
+        <v>551</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
-        <v>511</v>
+        <v>552</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>512</v>
+        <v>553</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>513</v>
+        <v>554</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>514</v>
+        <v>555</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>515</v>
+        <v>556</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>516</v>
+        <v>557</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>517</v>
+        <v>558</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>518</v>
+        <v>559</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>519</v>
+        <v>560</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>520</v>
+        <v>561</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>521</v>
+        <v>562</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>342</v>
+        <v>383</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>522</v>
+        <v>563</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>523</v>
+        <v>564</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>524</v>
+        <v>565</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>470</v>
+        <v>511</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="7" t="s">
-        <v>525</v>
+        <v>566</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>526</v>
+        <v>567</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>527</v>
+        <v>568</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>528</v>
+        <v>569</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>529</v>
+        <v>570</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>530</v>
+        <v>571</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>531</v>
+        <v>572</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>532</v>
+        <v>573</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>533</v>
+        <v>574</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>534</v>
+        <v>575</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>535</v>
+        <v>576</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>324</v>
+        <v>365</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>536</v>
+        <v>577</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>537</v>
+        <v>578</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>538</v>
+        <v>579</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>539</v>
+        <v>580</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="7" t="s">
-        <v>540</v>
+        <v>581</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>541</v>
+        <v>582</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>542</v>
+        <v>583</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>543</v>
+        <v>176</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>544</v>
+        <v>584</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>545</v>
+        <v>585</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>546</v>
+        <v>586</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>547</v>
+        <v>587</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="7" t="s">
-        <v>548</v>
+        <v>588</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>549</v>
+        <v>589</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>550</v>
+        <v>590</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>551</v>
+        <v>591</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>552</v>
+        <v>592</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>553</v>
+        <v>593</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>554</v>
+        <v>594</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>555</v>
+        <v>595</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="7" t="s">
-        <v>556</v>
+        <v>596</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>557</v>
+        <v>597</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>558</v>
+        <v>598</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>559</v>
+        <v>599</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>561</v>
+        <v>601</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>562</v>
+        <v>602</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>563</v>
+        <v>603</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="7" t="s">
-        <v>564</v>
+        <v>604</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>565</v>
+        <v>605</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>566</v>
+        <v>606</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>567</v>
+        <v>607</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>568</v>
+        <v>608</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>569</v>
+        <v>609</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>570</v>
+        <v>610</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>503</v>
+        <v>544</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="7" t="s">
-        <v>571</v>
+        <v>611</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>572</v>
+        <v>612</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>573</v>
+        <v>613</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>574</v>
+        <v>614</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>575</v>
+        <v>615</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>576</v>
+        <v>616</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>577</v>
+        <v>617</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>578</v>
+        <v>618</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
-        <v>579</v>
+        <v>619</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>580</v>
+        <v>620</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>581</v>
+        <v>621</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>582</v>
+        <v>622</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>583</v>
+        <v>623</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>584</v>
+        <v>624</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>585</v>
+        <v>625</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>586</v>
+        <v>626</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="7" t="s">
-        <v>587</v>
+        <v>627</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>588</v>
+        <v>628</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>589</v>
+        <v>629</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>590</v>
+        <v>630</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>591</v>
+        <v>631</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>592</v>
+        <v>632</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>593</v>
+        <v>633</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>503</v>
+        <v>544</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="7" t="s">
-        <v>594</v>
+        <v>634</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>595</v>
+        <v>635</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>596</v>
+        <v>636</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>597</v>
+        <v>637</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>598</v>
+        <v>638</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>599</v>
+        <v>639</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>600</v>
+        <v>640</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>601</v>
+        <v>641</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="7" t="s">
-        <v>602</v>
+        <v>642</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>603</v>
+        <v>643</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>604</v>
+        <v>644</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>605</v>
+        <v>645</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>606</v>
+        <v>646</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>607</v>
+        <v>647</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>608</v>
+        <v>648</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>609</v>
+        <v>649</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="7" t="s">
-        <v>610</v>
+        <v>650</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>611</v>
+        <v>651</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>612</v>
+        <v>652</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>613</v>
+        <v>653</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>614</v>
+        <v>654</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>615</v>
+        <v>655</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>616</v>
+        <v>656</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>617</v>
+        <v>657</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="7" t="s">
-        <v>618</v>
+        <v>658</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>619</v>
+        <v>659</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>620</v>
+        <v>660</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>326</v>
+        <v>367</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>621</v>
+        <v>661</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>622</v>
+        <v>662</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>623</v>
+        <v>663</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>624</v>
+        <v>664</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="7" t="s">
-        <v>625</v>
+        <v>665</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>626</v>
+        <v>666</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>627</v>
+        <v>667</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>277</v>
+        <v>318</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>628</v>
+        <v>668</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>629</v>
+        <v>669</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>630</v>
+        <v>670</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>631</v>
+        <v>671</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="7" t="s">
-        <v>632</v>
+        <v>672</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>633</v>
+        <v>673</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>634</v>
+        <v>674</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>635</v>
+        <v>675</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>636</v>
+        <v>676</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>637</v>
+        <v>677</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>638</v>
+        <v>678</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>639</v>
+        <v>679</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="7" t="s">
-        <v>640</v>
+        <v>680</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>641</v>
+        <v>681</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>642</v>
+        <v>682</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>643</v>
+        <v>683</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>644</v>
+        <v>684</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>645</v>
+        <v>685</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>646</v>
+        <v>686</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>503</v>
+        <v>544</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="7" t="s">
-        <v>647</v>
+        <v>687</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>648</v>
+        <v>688</v>
       </c>
       <c r="C28" s="9" t="s">
+        <v>689</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>690</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>691</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>692</v>
+      </c>
+      <c r="H28" s="10" t="s">
         <v>649</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>650</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>651</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>652</v>
-      </c>
-      <c r="H28" s="10" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="7" t="s">
-        <v>653</v>
+        <v>693</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>654</v>
+        <v>694</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>655</v>
+        <v>695</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>656</v>
+        <v>696</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>657</v>
+        <v>697</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>658</v>
+        <v>698</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>659</v>
+        <v>699</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>660</v>
+        <v>700</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="7" t="s">
-        <v>455</v>
+        <v>496</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>661</v>
+        <v>701</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>662</v>
+        <v>702</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>663</v>
+        <v>703</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>664</v>
+        <v>704</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>665</v>
+        <v>705</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>666</v>
+        <v>706</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>667</v>
+        <v>707</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="7" t="s">
-        <v>668</v>
+        <v>708</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>669</v>
+        <v>709</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>670</v>
+        <v>710</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>671</v>
+        <v>711</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>672</v>
+        <v>712</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>673</v>
+        <v>713</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>674</v>
+        <v>714</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>675</v>
+        <v>715</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="7" t="s">
-        <v>676</v>
+        <v>716</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>677</v>
+        <v>717</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>678</v>
+        <v>718</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>679</v>
+        <v>719</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>680</v>
+        <v>720</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>681</v>
+        <v>721</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>682</v>
+        <v>722</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>683</v>
+        <v>723</v>
       </c>
     </row>
   </sheetData>
@@ -9398,774 +9590,774 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>684</v>
+        <v>724</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>449</v>
+        <v>490</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>450</v>
+        <v>491</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>451</v>
+        <v>492</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>452</v>
+        <v>493</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>453</v>
+        <v>494</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>454</v>
+        <v>495</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>504</v>
+        <v>545</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>455</v>
+        <v>496</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>685</v>
+        <v>725</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>686</v>
+        <v>726</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>687</v>
+        <v>727</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>688</v>
+        <v>728</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>689</v>
+        <v>729</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>690</v>
+        <v>730</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>691</v>
+        <v>731</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>692</v>
+        <v>732</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>449</v>
+        <v>490</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>693</v>
+        <v>733</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>694</v>
+        <v>734</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>695</v>
+        <v>735</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>450</v>
+        <v>491</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>697</v>
+        <v>737</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>698</v>
+        <v>738</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>699</v>
+        <v>739</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>451</v>
+        <v>492</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>700</v>
+        <v>740</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>701</v>
+        <v>741</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>702</v>
+        <v>742</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>452</v>
+        <v>493</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>703</v>
+        <v>743</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>704</v>
+        <v>744</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>705</v>
+        <v>745</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>453</v>
+        <v>494</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>706</v>
+        <v>746</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>707</v>
+        <v>747</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>708</v>
+        <v>748</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>454</v>
+        <v>495</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>709</v>
+        <v>749</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>710</v>
+        <v>750</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>711</v>
+        <v>751</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>504</v>
+        <v>545</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>712</v>
+        <v>752</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>713</v>
+        <v>753</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>714</v>
+        <v>754</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>511</v>
+        <v>552</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>715</v>
+        <v>755</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>716</v>
+        <v>756</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>717</v>
+        <v>757</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>519</v>
+        <v>560</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>718</v>
+        <v>758</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>719</v>
+        <v>759</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>720</v>
+        <v>760</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>525</v>
+        <v>566</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>721</v>
+        <v>761</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>722</v>
+        <v>762</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>723</v>
+        <v>763</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>533</v>
+        <v>574</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>724</v>
+        <v>764</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>725</v>
+        <v>765</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>726</v>
+        <v>766</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>540</v>
+        <v>581</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>727</v>
+        <v>767</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>728</v>
+        <v>768</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>729</v>
+        <v>769</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>548</v>
+        <v>588</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>730</v>
+        <v>770</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>731</v>
+        <v>771</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>732</v>
+        <v>772</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>556</v>
+        <v>596</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>733</v>
+        <v>773</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>734</v>
+        <v>774</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>735</v>
+        <v>775</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>564</v>
+        <v>604</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>778</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>736</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>737</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>738</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>696</v>
-      </c>
       <c r="F17" s="5" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>571</v>
+        <v>611</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>739</v>
+        <v>779</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>740</v>
+        <v>780</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>741</v>
+        <v>781</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>579</v>
+        <v>619</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>742</v>
+        <v>782</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>743</v>
+        <v>783</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>744</v>
+        <v>784</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>587</v>
+        <v>627</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>745</v>
+        <v>785</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>746</v>
+        <v>786</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>747</v>
+        <v>787</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>594</v>
+        <v>634</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>748</v>
+        <v>788</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>749</v>
+        <v>789</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>750</v>
+        <v>790</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>602</v>
+        <v>642</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>751</v>
+        <v>791</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>752</v>
+        <v>792</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>753</v>
+        <v>793</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>610</v>
+        <v>650</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>754</v>
+        <v>794</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>755</v>
+        <v>795</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>756</v>
+        <v>796</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>618</v>
+        <v>658</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>757</v>
+        <v>797</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>758</v>
+        <v>798</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>759</v>
+        <v>799</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>625</v>
+        <v>665</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>760</v>
+        <v>800</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>761</v>
+        <v>801</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>762</v>
+        <v>802</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>632</v>
+        <v>672</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>763</v>
+        <v>803</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>764</v>
+        <v>804</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>765</v>
+        <v>805</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>640</v>
+        <v>680</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>766</v>
+        <v>806</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>767</v>
+        <v>807</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>768</v>
+        <v>808</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>647</v>
+        <v>687</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>769</v>
+        <v>809</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>770</v>
+        <v>810</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>771</v>
+        <v>811</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>696</v>
+        <v>736</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>653</v>
+        <v>693</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>772</v>
+        <v>812</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>773</v>
+        <v>813</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>774</v>
+        <v>814</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>775</v>
+        <v>815</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>776</v>
+        <v>816</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>777</v>
+        <v>817</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>778</v>
+        <v>818</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>455</v>
+        <v>496</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>668</v>
+        <v>708</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>676</v>
+        <v>716</v>
       </c>
     </row>
   </sheetData>
@@ -10190,2754 +10382,2754 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>779</v>
+        <v>819</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>449</v>
+        <v>490</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>450</v>
+        <v>491</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>451</v>
+        <v>492</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>452</v>
+        <v>493</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>453</v>
+        <v>494</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>454</v>
+        <v>495</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>504</v>
+        <v>545</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>511</v>
+        <v>552</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>519</v>
+        <v>560</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>525</v>
+        <v>566</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>533</v>
+        <v>574</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>540</v>
+        <v>581</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>548</v>
+        <v>588</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>556</v>
+        <v>596</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>564</v>
+        <v>604</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>571</v>
+        <v>611</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>579</v>
+        <v>619</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>587</v>
+        <v>627</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>594</v>
+        <v>634</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>602</v>
+        <v>642</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>610</v>
+        <v>650</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>618</v>
+        <v>658</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>625</v>
+        <v>665</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>632</v>
+        <v>672</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>640</v>
+        <v>680</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>647</v>
+        <v>687</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>455</v>
+        <v>496</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>684</v>
+        <v>724</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>780</v>
+        <v>820</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>781</v>
+        <v>821</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>782</v>
+        <v>822</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>783</v>
+        <v>823</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>784</v>
+        <v>824</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>785</v>
+        <v>825</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>786</v>
+        <v>826</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>787</v>
+        <v>827</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>788</v>
+        <v>828</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>789</v>
+        <v>829</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>790</v>
+        <v>830</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>791</v>
+        <v>831</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>792</v>
+        <v>832</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>793</v>
+        <v>833</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>794</v>
+        <v>834</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>795</v>
+        <v>835</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>796</v>
+        <v>836</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>797</v>
+        <v>837</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>798</v>
+        <v>838</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>799</v>
+        <v>839</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>800</v>
+        <v>840</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>801</v>
+        <v>841</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>802</v>
+        <v>842</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>803</v>
+        <v>843</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>804</v>
+        <v>844</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>805</v>
+        <v>845</v>
       </c>
       <c r="AB2" s="12" t="s">
-        <v>806</v>
+        <v>846</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>449</v>
+        <v>490</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>807</v>
+        <v>847</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>808</v>
+        <v>848</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>809</v>
+        <v>849</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>810</v>
+        <v>850</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>811</v>
+        <v>851</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>812</v>
+        <v>852</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>813</v>
+        <v>853</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>814</v>
+        <v>854</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>544</v>
+        <v>584</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>815</v>
+        <v>855</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>816</v>
+        <v>856</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>817</v>
+        <v>857</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>818</v>
+        <v>858</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>526</v>
+        <v>567</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>620</v>
+        <v>660</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>819</v>
+        <v>859</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>820</v>
+        <v>860</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>821</v>
+        <v>861</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>822</v>
+        <v>862</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>823</v>
+        <v>863</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>824</v>
+        <v>864</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>825</v>
+        <v>865</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>826</v>
+        <v>866</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>566</v>
+        <v>606</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>827</v>
+        <v>867</v>
       </c>
       <c r="AA3" s="5" t="s">
-        <v>655</v>
+        <v>695</v>
       </c>
       <c r="AB3" s="12" t="s">
-        <v>828</v>
+        <v>868</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>450</v>
+        <v>491</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>829</v>
+        <v>869</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>830</v>
+        <v>870</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>831</v>
+        <v>871</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>832</v>
+        <v>872</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>833</v>
+        <v>873</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>509</v>
+        <v>550</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>834</v>
+        <v>874</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>835</v>
+        <v>875</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>576</v>
+        <v>616</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>836</v>
+        <v>876</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>837</v>
+        <v>877</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>838</v>
+        <v>878</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>839</v>
+        <v>879</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>840</v>
+        <v>880</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>841</v>
+        <v>881</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>842</v>
+        <v>882</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>843</v>
+        <v>883</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>844</v>
+        <v>884</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>845</v>
+        <v>885</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>846</v>
+        <v>886</v>
       </c>
       <c r="W4" s="5" t="s">
-        <v>847</v>
+        <v>887</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>848</v>
+        <v>888</v>
       </c>
       <c r="Y4" s="5" t="s">
-        <v>849</v>
+        <v>889</v>
       </c>
       <c r="Z4" s="5" t="s">
-        <v>850</v>
+        <v>890</v>
       </c>
       <c r="AA4" s="5" t="s">
-        <v>851</v>
+        <v>891</v>
       </c>
       <c r="AB4" s="12" t="s">
-        <v>852</v>
+        <v>892</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>451</v>
+        <v>492</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>853</v>
+        <v>893</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>854</v>
+        <v>894</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>855</v>
+        <v>895</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>856</v>
+        <v>896</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>857</v>
+        <v>897</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>858</v>
+        <v>898</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>628</v>
+        <v>668</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>859</v>
+        <v>899</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>860</v>
+        <v>900</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>861</v>
+        <v>901</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>638</v>
+        <v>678</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>467</v>
+        <v>508</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>862</v>
+        <v>902</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>863</v>
+        <v>903</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>864</v>
+        <v>904</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>865</v>
+        <v>905</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>866</v>
+        <v>906</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>867</v>
+        <v>907</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>868</v>
+        <v>908</v>
       </c>
       <c r="U5" s="5" t="s">
-        <v>869</v>
+        <v>909</v>
       </c>
       <c r="V5" s="5" t="s">
-        <v>485</v>
+        <v>526</v>
       </c>
       <c r="W5" s="5" t="s">
-        <v>870</v>
+        <v>910</v>
       </c>
       <c r="X5" s="5" t="s">
-        <v>871</v>
+        <v>911</v>
       </c>
       <c r="Y5" s="5" t="s">
-        <v>872</v>
+        <v>912</v>
       </c>
       <c r="Z5" s="5" t="s">
-        <v>873</v>
+        <v>913</v>
       </c>
       <c r="AA5" s="5" t="s">
-        <v>874</v>
+        <v>914</v>
       </c>
       <c r="AB5" s="12" t="s">
-        <v>875</v>
+        <v>915</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>452</v>
+        <v>493</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>876</v>
+        <v>916</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>877</v>
+        <v>917</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>878</v>
+        <v>918</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>879</v>
+        <v>919</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>880</v>
+        <v>920</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>881</v>
+        <v>921</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>882</v>
+        <v>922</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>883</v>
+        <v>923</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>884</v>
+        <v>924</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>885</v>
+        <v>925</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>886</v>
+        <v>926</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>887</v>
+        <v>927</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>888</v>
+        <v>928</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>557</v>
+        <v>597</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>889</v>
+        <v>929</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>890</v>
+        <v>930</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>891</v>
+        <v>931</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>892</v>
+        <v>932</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>893</v>
+        <v>933</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>894</v>
+        <v>934</v>
       </c>
       <c r="V6" s="5" t="s">
-        <v>895</v>
+        <v>935</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>896</v>
+        <v>936</v>
       </c>
       <c r="X6" s="5" t="s">
-        <v>897</v>
+        <v>937</v>
       </c>
       <c r="Y6" s="5" t="s">
-        <v>898</v>
+        <v>938</v>
       </c>
       <c r="Z6" s="5" t="s">
-        <v>899</v>
+        <v>939</v>
       </c>
       <c r="AA6" s="5" t="s">
-        <v>562</v>
+        <v>602</v>
       </c>
       <c r="AB6" s="12" t="s">
-        <v>900</v>
+        <v>940</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>453</v>
+        <v>494</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>901</v>
+        <v>941</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>902</v>
+        <v>942</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>903</v>
+        <v>943</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>904</v>
+        <v>944</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>905</v>
+        <v>945</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>906</v>
+        <v>946</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>619</v>
+        <v>659</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>907</v>
+        <v>947</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>908</v>
+        <v>948</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>538</v>
+        <v>579</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>909</v>
+        <v>949</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>530</v>
+        <v>571</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>645</v>
+        <v>685</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>910</v>
+        <v>950</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>911</v>
+        <v>951</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>649</v>
+        <v>689</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>912</v>
+        <v>952</v>
       </c>
       <c r="S7" s="5" t="s">
-        <v>913</v>
+        <v>953</v>
       </c>
       <c r="T7" s="5" t="s">
-        <v>482</v>
+        <v>523</v>
       </c>
       <c r="U7" s="5" t="s">
-        <v>914</v>
+        <v>954</v>
       </c>
       <c r="V7" s="5" t="s">
-        <v>915</v>
+        <v>955</v>
       </c>
       <c r="W7" s="5" t="s">
-        <v>916</v>
+        <v>956</v>
       </c>
       <c r="X7" s="5" t="s">
-        <v>476</v>
+        <v>517</v>
       </c>
       <c r="Y7" s="5" t="s">
-        <v>917</v>
+        <v>957</v>
       </c>
       <c r="Z7" s="5" t="s">
-        <v>918</v>
+        <v>958</v>
       </c>
       <c r="AA7" s="5" t="s">
-        <v>919</v>
+        <v>959</v>
       </c>
       <c r="AB7" s="12" t="s">
-        <v>920</v>
+        <v>960</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>454</v>
+        <v>495</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>921</v>
+        <v>961</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>922</v>
+        <v>962</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>923</v>
+        <v>963</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>924</v>
+        <v>964</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>925</v>
+        <v>965</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>926</v>
+        <v>966</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>927</v>
+        <v>967</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>928</v>
+        <v>968</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>929</v>
+        <v>969</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>523</v>
+        <v>564</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>930</v>
+        <v>970</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>931</v>
+        <v>971</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>595</v>
+        <v>635</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>932</v>
+        <v>972</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>933</v>
+        <v>973</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>508</v>
+        <v>549</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>934</v>
+        <v>974</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>935</v>
+        <v>975</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>936</v>
+        <v>976</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>937</v>
+        <v>977</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>938</v>
+        <v>978</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>939</v>
+        <v>979</v>
       </c>
       <c r="X8" s="5" t="s">
-        <v>940</v>
+        <v>980</v>
       </c>
       <c r="Y8" s="5" t="s">
-        <v>941</v>
+        <v>981</v>
       </c>
       <c r="Z8" s="5" t="s">
-        <v>942</v>
+        <v>982</v>
       </c>
       <c r="AA8" s="5" t="s">
-        <v>943</v>
+        <v>983</v>
       </c>
       <c r="AB8" s="12" t="s">
-        <v>944</v>
+        <v>984</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>504</v>
+        <v>545</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>945</v>
+        <v>985</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>946</v>
+        <v>986</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>947</v>
+        <v>987</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>948</v>
+        <v>988</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>949</v>
+        <v>989</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>950</v>
+        <v>990</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>951</v>
+        <v>991</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>952</v>
+        <v>992</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>953</v>
+        <v>993</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>954</v>
+        <v>994</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>955</v>
+        <v>995</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>956</v>
+        <v>996</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>957</v>
+        <v>997</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>958</v>
+        <v>998</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>959</v>
+        <v>999</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>529</v>
+        <v>570</v>
       </c>
       <c r="R9" s="5" t="s">
-        <v>960</v>
+        <v>1000</v>
       </c>
       <c r="S9" s="5" t="s">
-        <v>961</v>
+        <v>1001</v>
       </c>
       <c r="T9" s="5" t="s">
-        <v>962</v>
+        <v>1002</v>
       </c>
       <c r="U9" s="5" t="s">
-        <v>963</v>
+        <v>1003</v>
       </c>
       <c r="V9" s="5" t="s">
-        <v>964</v>
+        <v>1004</v>
       </c>
       <c r="W9" s="5" t="s">
-        <v>965</v>
+        <v>1005</v>
       </c>
       <c r="X9" s="5" t="s">
-        <v>966</v>
+        <v>1006</v>
       </c>
       <c r="Y9" s="5" t="s">
-        <v>967</v>
+        <v>1007</v>
       </c>
       <c r="Z9" s="5" t="s">
-        <v>968</v>
+        <v>1008</v>
       </c>
       <c r="AA9" s="5" t="s">
-        <v>969</v>
+        <v>1009</v>
       </c>
       <c r="AB9" s="12" t="s">
-        <v>970</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>511</v>
+        <v>552</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>971</v>
+        <v>1011</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>972</v>
+        <v>1012</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>973</v>
+        <v>1013</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>974</v>
+        <v>1014</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>975</v>
+        <v>1015</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>976</v>
+        <v>1016</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>977</v>
+        <v>1017</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>978</v>
+        <v>1018</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>979</v>
+        <v>1019</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>980</v>
+        <v>1020</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>981</v>
+        <v>1021</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>982</v>
+        <v>1022</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>983</v>
+        <v>1023</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>984</v>
+        <v>1024</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>985</v>
+        <v>1025</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>986</v>
+        <v>1026</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>987</v>
+        <v>1027</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>988</v>
+        <v>1028</v>
       </c>
       <c r="T10" s="5" t="s">
-        <v>607</v>
+        <v>647</v>
       </c>
       <c r="U10" s="5" t="s">
-        <v>989</v>
+        <v>1029</v>
       </c>
       <c r="V10" s="5" t="s">
-        <v>990</v>
+        <v>1030</v>
       </c>
       <c r="W10" s="5" t="s">
-        <v>991</v>
+        <v>1031</v>
       </c>
       <c r="X10" s="5" t="s">
-        <v>992</v>
+        <v>1032</v>
       </c>
       <c r="Y10" s="5" t="s">
-        <v>993</v>
+        <v>1033</v>
       </c>
       <c r="Z10" s="5" t="s">
-        <v>994</v>
+        <v>1034</v>
       </c>
       <c r="AA10" s="5" t="s">
-        <v>995</v>
+        <v>1035</v>
       </c>
       <c r="AB10" s="12" t="s">
-        <v>828</v>
+        <v>868</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>519</v>
+        <v>560</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>996</v>
+        <v>1036</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>997</v>
+        <v>1037</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>998</v>
+        <v>1038</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>999</v>
+        <v>1039</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>1000</v>
+        <v>1040</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>1001</v>
+        <v>1041</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>1002</v>
+        <v>1042</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>1003</v>
+        <v>1043</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>1004</v>
+        <v>1044</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>1005</v>
+        <v>1045</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>606</v>
+        <v>646</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>1006</v>
+        <v>1046</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>1007</v>
+        <v>1047</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>1008</v>
+        <v>1048</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>1009</v>
+        <v>1049</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>1010</v>
+        <v>1050</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>1011</v>
+        <v>1051</v>
       </c>
       <c r="S11" s="5" t="s">
-        <v>1012</v>
+        <v>1052</v>
       </c>
       <c r="T11" s="5" t="s">
-        <v>1013</v>
+        <v>1053</v>
       </c>
       <c r="U11" s="5" t="s">
-        <v>1014</v>
+        <v>1054</v>
       </c>
       <c r="V11" s="5" t="s">
-        <v>1015</v>
+        <v>1055</v>
       </c>
       <c r="W11" s="5" t="s">
-        <v>1016</v>
+        <v>1056</v>
       </c>
       <c r="X11" s="5" t="s">
-        <v>1017</v>
+        <v>1057</v>
       </c>
       <c r="Y11" s="5" t="s">
-        <v>1018</v>
+        <v>1058</v>
       </c>
       <c r="Z11" s="5" t="s">
-        <v>1019</v>
+        <v>1059</v>
       </c>
       <c r="AA11" s="5" t="s">
-        <v>1020</v>
+        <v>1060</v>
       </c>
       <c r="AB11" s="12" t="s">
-        <v>852</v>
+        <v>892</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>525</v>
+        <v>566</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1021</v>
+        <v>1061</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>1022</v>
+        <v>1062</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>1023</v>
+        <v>1063</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>1024</v>
+        <v>1064</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>1025</v>
+        <v>1065</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>1026</v>
+        <v>1066</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>1027</v>
+        <v>1067</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>1028</v>
+        <v>1068</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>1029</v>
+        <v>1069</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>646</v>
+        <v>686</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>1030</v>
+        <v>1070</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>1031</v>
+        <v>1071</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>1032</v>
+        <v>1072</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>1033</v>
+        <v>1073</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>652</v>
+        <v>692</v>
       </c>
       <c r="R12" s="5" t="s">
-        <v>1034</v>
+        <v>1074</v>
       </c>
       <c r="S12" s="5" t="s">
-        <v>1035</v>
+        <v>1075</v>
       </c>
       <c r="T12" s="5" t="s">
-        <v>1036</v>
+        <v>1076</v>
       </c>
       <c r="U12" s="5" t="s">
-        <v>1037</v>
+        <v>1077</v>
       </c>
       <c r="V12" s="5" t="s">
-        <v>1038</v>
+        <v>1078</v>
       </c>
       <c r="W12" s="5" t="s">
-        <v>1039</v>
+        <v>1079</v>
       </c>
       <c r="X12" s="5" t="s">
-        <v>1040</v>
+        <v>1080</v>
       </c>
       <c r="Y12" s="5" t="s">
-        <v>1041</v>
+        <v>1081</v>
       </c>
       <c r="Z12" s="5" t="s">
-        <v>1042</v>
+        <v>1082</v>
       </c>
       <c r="AA12" s="5" t="s">
-        <v>1043</v>
+        <v>1083</v>
       </c>
       <c r="AB12" s="12" t="s">
-        <v>1044</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>533</v>
+        <v>574</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1045</v>
+        <v>1085</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>1046</v>
+        <v>1086</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>1047</v>
+        <v>1087</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>1048</v>
+        <v>1088</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>1049</v>
+        <v>1089</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>1050</v>
+        <v>1090</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>1051</v>
+        <v>1091</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>1052</v>
+        <v>1092</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>1053</v>
+        <v>1093</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>568</v>
+        <v>608</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>1054</v>
+        <v>1094</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>1055</v>
+        <v>1095</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>1056</v>
+        <v>1096</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>1057</v>
+        <v>1097</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>1058</v>
+        <v>1098</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>1059</v>
+        <v>1099</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>1060</v>
+        <v>1100</v>
       </c>
       <c r="S13" s="5" t="s">
-        <v>512</v>
+        <v>553</v>
       </c>
       <c r="T13" s="5" t="s">
-        <v>1061</v>
+        <v>1101</v>
       </c>
       <c r="U13" s="5" t="s">
-        <v>1062</v>
+        <v>1102</v>
       </c>
       <c r="V13" s="5" t="s">
-        <v>1063</v>
+        <v>1103</v>
       </c>
       <c r="W13" s="5" t="s">
-        <v>1064</v>
+        <v>1104</v>
       </c>
       <c r="X13" s="5" t="s">
-        <v>1065</v>
+        <v>1105</v>
       </c>
       <c r="Y13" s="5" t="s">
-        <v>1066</v>
+        <v>1106</v>
       </c>
       <c r="Z13" s="5" t="s">
-        <v>1067</v>
+        <v>1107</v>
       </c>
       <c r="AA13" s="5" t="s">
-        <v>1068</v>
+        <v>1108</v>
       </c>
       <c r="AB13" s="12" t="s">
-        <v>1069</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>540</v>
+        <v>581</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1070</v>
+        <v>1110</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>1071</v>
+        <v>1111</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>1072</v>
+        <v>1112</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>1073</v>
+        <v>1113</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>1074</v>
+        <v>1114</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>1075</v>
+        <v>1115</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>1076</v>
+        <v>1116</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>585</v>
+        <v>625</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>641</v>
+        <v>681</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>1077</v>
+        <v>1117</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>1078</v>
+        <v>1118</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>1079</v>
+        <v>1119</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>1080</v>
+        <v>1120</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>565</v>
+        <v>605</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>648</v>
+        <v>688</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>1081</v>
+        <v>1121</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>1082</v>
+        <v>1122</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>1083</v>
+        <v>1123</v>
       </c>
       <c r="T14" s="5" t="s">
-        <v>1084</v>
+        <v>1124</v>
       </c>
       <c r="U14" s="5" t="s">
-        <v>1085</v>
+        <v>1125</v>
       </c>
       <c r="V14" s="5" t="s">
-        <v>1086</v>
+        <v>1126</v>
       </c>
       <c r="W14" s="5" t="s">
-        <v>1087</v>
+        <v>1127</v>
       </c>
       <c r="X14" s="5" t="s">
-        <v>1088</v>
+        <v>1128</v>
       </c>
       <c r="Y14" s="5" t="s">
-        <v>1089</v>
+        <v>1129</v>
       </c>
       <c r="Z14" s="5" t="s">
-        <v>1090</v>
+        <v>1130</v>
       </c>
       <c r="AA14" s="5" t="s">
-        <v>1091</v>
+        <v>1131</v>
       </c>
       <c r="AB14" s="12" t="s">
-        <v>662</v>
+        <v>702</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>548</v>
+        <v>588</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>1092</v>
+        <v>1132</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>1093</v>
+        <v>1133</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>1094</v>
+        <v>1134</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>1095</v>
+        <v>1135</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>469</v>
+        <v>510</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>1096</v>
+        <v>1136</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>1097</v>
+        <v>1137</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>489</v>
+        <v>530</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>1098</v>
+        <v>1138</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>584</v>
+        <v>624</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>1099</v>
+        <v>1139</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>1100</v>
+        <v>1140</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>589</v>
+        <v>629</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>1101</v>
+        <v>1141</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>561</v>
+        <v>601</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>1102</v>
+        <v>1142</v>
       </c>
       <c r="R15" s="5" t="s">
-        <v>1103</v>
+        <v>1143</v>
       </c>
       <c r="S15" s="5" t="s">
-        <v>498</v>
+        <v>539</v>
       </c>
       <c r="T15" s="5" t="s">
-        <v>1104</v>
+        <v>1144</v>
       </c>
       <c r="U15" s="5" t="s">
-        <v>1105</v>
+        <v>1145</v>
       </c>
       <c r="V15" s="5" t="s">
-        <v>1106</v>
+        <v>1146</v>
       </c>
       <c r="W15" s="5" t="s">
-        <v>1107</v>
+        <v>1147</v>
       </c>
       <c r="X15" s="5" t="s">
-        <v>1108</v>
+        <v>1148</v>
       </c>
       <c r="Y15" s="5" t="s">
-        <v>1109</v>
+        <v>1149</v>
       </c>
       <c r="Z15" s="5" t="s">
-        <v>1110</v>
+        <v>1150</v>
       </c>
       <c r="AA15" s="5" t="s">
-        <v>573</v>
+        <v>613</v>
       </c>
       <c r="AB15" s="12" t="s">
-        <v>1111</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>556</v>
+        <v>596</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>1112</v>
+        <v>1152</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>1113</v>
+        <v>1153</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>1114</v>
+        <v>1154</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>1115</v>
+        <v>1155</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>1116</v>
+        <v>1156</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>1117</v>
+        <v>1157</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>1118</v>
+        <v>1158</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>1119</v>
+        <v>1159</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>1120</v>
+        <v>1160</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>1121</v>
+        <v>1161</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>1122</v>
+        <v>1162</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>1123</v>
+        <v>1163</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>1124</v>
+        <v>1164</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>502</v>
+        <v>543</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>1125</v>
+        <v>1165</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>1126</v>
+        <v>1166</v>
       </c>
       <c r="R16" s="5" t="s">
-        <v>1127</v>
+        <v>1167</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>1128</v>
+        <v>1168</v>
       </c>
       <c r="T16" s="5" t="s">
-        <v>1129</v>
+        <v>1169</v>
       </c>
       <c r="U16" s="5" t="s">
-        <v>1130</v>
+        <v>1170</v>
       </c>
       <c r="V16" s="5" t="s">
-        <v>1131</v>
+        <v>1171</v>
       </c>
       <c r="W16" s="5" t="s">
-        <v>1132</v>
+        <v>1172</v>
       </c>
       <c r="X16" s="5" t="s">
-        <v>1133</v>
+        <v>1173</v>
       </c>
       <c r="Y16" s="5" t="s">
-        <v>1134</v>
+        <v>1174</v>
       </c>
       <c r="Z16" s="5" t="s">
-        <v>1135</v>
+        <v>1175</v>
       </c>
       <c r="AA16" s="5" t="s">
-        <v>1136</v>
+        <v>1176</v>
       </c>
       <c r="AB16" s="12" t="s">
-        <v>669</v>
+        <v>709</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>564</v>
+        <v>604</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1137</v>
+        <v>1177</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>1138</v>
+        <v>1178</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>1139</v>
+        <v>1179</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>1140</v>
+        <v>1180</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>1141</v>
+        <v>1181</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>1142</v>
+        <v>1182</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>1143</v>
+        <v>1183</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>1144</v>
+        <v>1184</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>553</v>
+        <v>593</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>608</v>
+        <v>648</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>1145</v>
+        <v>1185</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>1146</v>
+        <v>1186</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>1147</v>
+        <v>1187</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>1148</v>
+        <v>1188</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>1149</v>
+        <v>1189</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>1150</v>
+        <v>1190</v>
       </c>
       <c r="R17" s="5" t="s">
-        <v>644</v>
+        <v>684</v>
       </c>
       <c r="S17" s="5" t="s">
-        <v>1151</v>
+        <v>1191</v>
       </c>
       <c r="T17" s="5" t="s">
-        <v>1152</v>
+        <v>1192</v>
       </c>
       <c r="U17" s="5" t="s">
-        <v>1153</v>
+        <v>1193</v>
       </c>
       <c r="V17" s="5" t="s">
-        <v>1154</v>
+        <v>1194</v>
       </c>
       <c r="W17" s="5" t="s">
-        <v>1155</v>
+        <v>1195</v>
       </c>
       <c r="X17" s="5" t="s">
-        <v>1156</v>
+        <v>1196</v>
       </c>
       <c r="Y17" s="5" t="s">
-        <v>623</v>
+        <v>663</v>
       </c>
       <c r="Z17" s="5" t="s">
-        <v>1157</v>
+        <v>1197</v>
       </c>
       <c r="AA17" s="5" t="s">
-        <v>1158</v>
+        <v>1198</v>
       </c>
       <c r="AB17" s="12" t="s">
-        <v>671</v>
+        <v>711</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>571</v>
+        <v>611</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>1159</v>
+        <v>1199</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>1160</v>
+        <v>1200</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>1161</v>
+        <v>1201</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>1162</v>
+        <v>1202</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>600</v>
+        <v>640</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>537</v>
+        <v>578</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>1163</v>
+        <v>1203</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>1164</v>
+        <v>1204</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>1165</v>
+        <v>1205</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>1166</v>
+        <v>1206</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>1167</v>
+        <v>1207</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>541</v>
+        <v>582</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>1168</v>
+        <v>1208</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>1169</v>
+        <v>1209</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>1170</v>
+        <v>1210</v>
       </c>
       <c r="Q18" s="5" t="s">
-        <v>1171</v>
+        <v>1211</v>
       </c>
       <c r="R18" s="5" t="s">
-        <v>1172</v>
+        <v>1212</v>
       </c>
       <c r="S18" s="5" t="s">
-        <v>612</v>
+        <v>652</v>
       </c>
       <c r="T18" s="5" t="s">
-        <v>1173</v>
+        <v>1213</v>
       </c>
       <c r="U18" s="5" t="s">
-        <v>1174</v>
+        <v>1214</v>
       </c>
       <c r="V18" s="5" t="s">
-        <v>1175</v>
+        <v>1215</v>
       </c>
       <c r="W18" s="5" t="s">
-        <v>1176</v>
+        <v>1216</v>
       </c>
       <c r="X18" s="5" t="s">
-        <v>1177</v>
+        <v>1217</v>
       </c>
       <c r="Y18" s="5" t="s">
-        <v>1178</v>
+        <v>1218</v>
       </c>
       <c r="Z18" s="5" t="s">
-        <v>1179</v>
+        <v>1219</v>
       </c>
       <c r="AA18" s="5" t="s">
-        <v>1180</v>
+        <v>1220</v>
       </c>
       <c r="AB18" s="12" t="s">
-        <v>920</v>
+        <v>960</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>579</v>
+        <v>619</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>1181</v>
+        <v>1221</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>1182</v>
+        <v>1222</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>1183</v>
+        <v>1223</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>1184</v>
+        <v>1224</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>1185</v>
+        <v>1225</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>1186</v>
+        <v>1226</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>1187</v>
+        <v>1227</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>572</v>
+        <v>612</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>1188</v>
+        <v>1228</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>554</v>
+        <v>594</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>520</v>
+        <v>561</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>1189</v>
+        <v>1229</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>546</v>
+        <v>586</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>1190</v>
+        <v>1230</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>1191</v>
+        <v>1231</v>
       </c>
       <c r="Q19" s="5" t="s">
-        <v>1192</v>
+        <v>1232</v>
       </c>
       <c r="R19" s="5" t="s">
-        <v>1193</v>
+        <v>1233</v>
       </c>
       <c r="S19" s="5" t="s">
-        <v>1194</v>
+        <v>1234</v>
       </c>
       <c r="T19" s="5" t="s">
-        <v>1195</v>
+        <v>1235</v>
       </c>
       <c r="U19" s="5" t="s">
-        <v>1196</v>
+        <v>1236</v>
       </c>
       <c r="V19" s="5" t="s">
-        <v>1197</v>
+        <v>1237</v>
       </c>
       <c r="W19" s="5" t="s">
-        <v>1198</v>
+        <v>1238</v>
       </c>
       <c r="X19" s="5" t="s">
-        <v>1199</v>
+        <v>1239</v>
       </c>
       <c r="Y19" s="5" t="s">
-        <v>1200</v>
+        <v>1240</v>
       </c>
       <c r="Z19" s="5" t="s">
-        <v>1201</v>
+        <v>1241</v>
       </c>
       <c r="AA19" s="5" t="s">
-        <v>1202</v>
+        <v>1242</v>
       </c>
       <c r="AB19" s="12" t="s">
-        <v>1203</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>587</v>
+        <v>627</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1204</v>
+        <v>1244</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>1205</v>
+        <v>1245</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>1206</v>
+        <v>1246</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>1207</v>
+        <v>1247</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>1208</v>
+        <v>1248</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>1209</v>
+        <v>1249</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>1210</v>
+        <v>1250</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>1211</v>
+        <v>1251</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>651</v>
+        <v>691</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>506</v>
+        <v>547</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>1212</v>
+        <v>1252</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>1213</v>
+        <v>1253</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>1214</v>
+        <v>1254</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>1215</v>
+        <v>1255</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>1216</v>
+        <v>1256</v>
       </c>
       <c r="Q20" s="5" t="s">
-        <v>1217</v>
+        <v>1257</v>
       </c>
       <c r="R20" s="5" t="s">
-        <v>1218</v>
+        <v>1258</v>
       </c>
       <c r="S20" s="5" t="s">
-        <v>1219</v>
+        <v>1259</v>
       </c>
       <c r="T20" s="5" t="s">
-        <v>1220</v>
+        <v>1260</v>
       </c>
       <c r="U20" s="5" t="s">
-        <v>1221</v>
+        <v>1261</v>
       </c>
       <c r="V20" s="5" t="s">
-        <v>1222</v>
+        <v>1262</v>
       </c>
       <c r="W20" s="5" t="s">
-        <v>1223</v>
+        <v>1263</v>
       </c>
       <c r="X20" s="5" t="s">
-        <v>483</v>
+        <v>524</v>
       </c>
       <c r="Y20" s="5" t="s">
-        <v>1224</v>
+        <v>1264</v>
       </c>
       <c r="Z20" s="5" t="s">
-        <v>1225</v>
+        <v>1265</v>
       </c>
       <c r="AA20" s="5" t="s">
-        <v>1226</v>
+        <v>1266</v>
       </c>
       <c r="AB20" s="12" t="s">
-        <v>1227</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>594</v>
+        <v>634</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>1228</v>
+        <v>1268</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>1229</v>
+        <v>1269</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>1230</v>
+        <v>1270</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>1231</v>
+        <v>1271</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>1232</v>
+        <v>1272</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>627</v>
+        <v>667</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>1233</v>
+        <v>1273</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>1234</v>
+        <v>1274</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>1235</v>
+        <v>1275</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>1236</v>
+        <v>1276</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>1237</v>
+        <v>1277</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>657</v>
+        <v>697</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>1238</v>
+        <v>1278</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>1239</v>
+        <v>1279</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>1240</v>
+        <v>1280</v>
       </c>
       <c r="Q21" s="5" t="s">
-        <v>1241</v>
+        <v>1281</v>
       </c>
       <c r="R21" s="5" t="s">
-        <v>1242</v>
+        <v>1282</v>
       </c>
       <c r="S21" s="5" t="s">
-        <v>1243</v>
+        <v>1283</v>
       </c>
       <c r="T21" s="5" t="s">
-        <v>1244</v>
+        <v>1284</v>
       </c>
       <c r="U21" s="5" t="s">
-        <v>1245</v>
+        <v>1285</v>
       </c>
       <c r="V21" s="5" t="s">
-        <v>1246</v>
+        <v>1286</v>
       </c>
       <c r="W21" s="5" t="s">
-        <v>1247</v>
+        <v>1287</v>
       </c>
       <c r="X21" s="5" t="s">
-        <v>1248</v>
+        <v>1288</v>
       </c>
       <c r="Y21" s="5" t="s">
-        <v>1249</v>
+        <v>1289</v>
       </c>
       <c r="Z21" s="5" t="s">
-        <v>1250</v>
+        <v>1290</v>
       </c>
       <c r="AA21" s="5" t="s">
-        <v>457</v>
+        <v>498</v>
       </c>
       <c r="AB21" s="12" t="s">
-        <v>663</v>
+        <v>703</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>602</v>
+        <v>642</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>1251</v>
+        <v>1291</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>1252</v>
+        <v>1292</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>1253</v>
+        <v>1293</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>1254</v>
+        <v>1294</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>1255</v>
+        <v>1295</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>1256</v>
+        <v>1296</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>1257</v>
+        <v>1297</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>1258</v>
+        <v>1298</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>1259</v>
+        <v>1299</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>1260</v>
+        <v>1300</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>1261</v>
+        <v>1301</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>1262</v>
+        <v>1302</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>629</v>
+        <v>669</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>488</v>
+        <v>529</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>1263</v>
+        <v>1303</v>
       </c>
       <c r="Q22" s="5" t="s">
-        <v>1264</v>
+        <v>1304</v>
       </c>
       <c r="R22" s="5" t="s">
-        <v>1265</v>
+        <v>1305</v>
       </c>
       <c r="S22" s="5" t="s">
-        <v>1266</v>
+        <v>1306</v>
       </c>
       <c r="T22" s="5" t="s">
-        <v>1267</v>
+        <v>1307</v>
       </c>
       <c r="U22" s="5" t="s">
-        <v>1268</v>
+        <v>1308</v>
       </c>
       <c r="V22" s="5" t="s">
-        <v>1269</v>
+        <v>1309</v>
       </c>
       <c r="W22" s="5" t="s">
-        <v>1270</v>
+        <v>1310</v>
       </c>
       <c r="X22" s="5" t="s">
-        <v>1271</v>
+        <v>1311</v>
       </c>
       <c r="Y22" s="5" t="s">
-        <v>1272</v>
+        <v>1312</v>
       </c>
       <c r="Z22" s="5" t="s">
-        <v>634</v>
+        <v>674</v>
       </c>
       <c r="AA22" s="5" t="s">
-        <v>1273</v>
+        <v>1313</v>
       </c>
       <c r="AB22" s="12" t="s">
-        <v>1274</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>610</v>
+        <v>650</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>1275</v>
+        <v>1315</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>1276</v>
+        <v>1316</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>1277</v>
+        <v>1317</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>1278</v>
+        <v>1318</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>1279</v>
+        <v>1319</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>1280</v>
+        <v>1320</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>1281</v>
+        <v>1321</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>1282</v>
+        <v>1322</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>1283</v>
+        <v>1323</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>1284</v>
+        <v>1324</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>1285</v>
+        <v>1325</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>1286</v>
+        <v>1326</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>1287</v>
+        <v>1327</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>1288</v>
+        <v>1328</v>
       </c>
       <c r="P23" s="5" t="s">
-        <v>1289</v>
+        <v>1329</v>
       </c>
       <c r="Q23" s="5" t="s">
-        <v>1290</v>
+        <v>1330</v>
       </c>
       <c r="R23" s="5" t="s">
-        <v>1291</v>
+        <v>1331</v>
       </c>
       <c r="S23" s="5" t="s">
-        <v>1292</v>
+        <v>1332</v>
       </c>
       <c r="T23" s="5" t="s">
-        <v>1293</v>
+        <v>1333</v>
       </c>
       <c r="U23" s="5" t="s">
-        <v>1294</v>
+        <v>1334</v>
       </c>
       <c r="V23" s="5" t="s">
-        <v>636</v>
+        <v>676</v>
       </c>
       <c r="W23" s="5" t="s">
-        <v>1295</v>
+        <v>1335</v>
       </c>
       <c r="X23" s="5" t="s">
-        <v>1296</v>
+        <v>1336</v>
       </c>
       <c r="Y23" s="5" t="s">
-        <v>1297</v>
+        <v>1337</v>
       </c>
       <c r="Z23" s="5" t="s">
-        <v>1298</v>
+        <v>1338</v>
       </c>
       <c r="AA23" s="5" t="s">
-        <v>1299</v>
+        <v>1339</v>
       </c>
       <c r="AB23" s="12" t="s">
-        <v>1300</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>618</v>
+        <v>658</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>1301</v>
+        <v>1341</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>1302</v>
+        <v>1342</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>1303</v>
+        <v>1343</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>1304</v>
+        <v>1344</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>1305</v>
+        <v>1345</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>1306</v>
+        <v>1346</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>577</v>
+        <v>617</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>1307</v>
+        <v>1347</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>1308</v>
+        <v>1348</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>1309</v>
+        <v>1349</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>1310</v>
+        <v>1350</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>1311</v>
+        <v>1351</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>1312</v>
+        <v>1352</v>
       </c>
       <c r="O24" s="5" t="s">
-        <v>1313</v>
+        <v>1353</v>
       </c>
       <c r="P24" s="5" t="s">
-        <v>1314</v>
+        <v>1354</v>
       </c>
       <c r="Q24" s="5" t="s">
-        <v>1315</v>
+        <v>1355</v>
       </c>
       <c r="R24" s="5" t="s">
-        <v>1316</v>
+        <v>1356</v>
       </c>
       <c r="S24" s="5" t="s">
-        <v>1317</v>
+        <v>1357</v>
       </c>
       <c r="T24" s="5" t="s">
-        <v>1318</v>
+        <v>1358</v>
       </c>
       <c r="U24" s="5" t="s">
-        <v>1319</v>
+        <v>1359</v>
       </c>
       <c r="V24" s="5" t="s">
-        <v>1320</v>
+        <v>1360</v>
       </c>
       <c r="W24" s="5" t="s">
-        <v>1321</v>
+        <v>1361</v>
       </c>
       <c r="X24" s="5" t="s">
-        <v>1322</v>
+        <v>1362</v>
       </c>
       <c r="Y24" s="5" t="s">
-        <v>1323</v>
+        <v>1363</v>
       </c>
       <c r="Z24" s="5" t="s">
-        <v>1324</v>
+        <v>1364</v>
       </c>
       <c r="AA24" s="5" t="s">
-        <v>1325</v>
+        <v>1365</v>
       </c>
       <c r="AB24" s="12" t="s">
-        <v>1326</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>625</v>
+        <v>665</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>1327</v>
+        <v>1367</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>1328</v>
+        <v>1368</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>1329</v>
+        <v>1369</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>1330</v>
+        <v>1370</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>1331</v>
+        <v>1371</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>1332</v>
+        <v>1372</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>1333</v>
+        <v>1373</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>1334</v>
+        <v>1374</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>1335</v>
+        <v>1375</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>1336</v>
+        <v>1376</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>1337</v>
+        <v>1377</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>1338</v>
+        <v>1378</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>1339</v>
+        <v>1379</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>1340</v>
+        <v>1380</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>1341</v>
+        <v>1381</v>
       </c>
       <c r="Q25" s="5" t="s">
-        <v>570</v>
+        <v>610</v>
       </c>
       <c r="R25" s="5" t="s">
-        <v>1342</v>
+        <v>1382</v>
       </c>
       <c r="S25" s="5" t="s">
-        <v>1343</v>
+        <v>1383</v>
       </c>
       <c r="T25" s="5" t="s">
-        <v>522</v>
+        <v>563</v>
       </c>
       <c r="U25" s="5" t="s">
-        <v>1344</v>
+        <v>1384</v>
       </c>
       <c r="V25" s="5" t="s">
-        <v>1345</v>
+        <v>1385</v>
       </c>
       <c r="W25" s="5" t="s">
-        <v>1346</v>
+        <v>1386</v>
       </c>
       <c r="X25" s="5" t="s">
-        <v>1347</v>
+        <v>1387</v>
       </c>
       <c r="Y25" s="5" t="s">
-        <v>1348</v>
+        <v>1388</v>
       </c>
       <c r="Z25" s="5" t="s">
-        <v>1349</v>
+        <v>1389</v>
       </c>
       <c r="AA25" s="5" t="s">
-        <v>1350</v>
+        <v>1390</v>
       </c>
       <c r="AB25" s="12" t="s">
-        <v>970</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>632</v>
+        <v>672</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>1351</v>
+        <v>1391</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>1352</v>
+        <v>1392</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>1353</v>
+        <v>1393</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>1354</v>
+        <v>1394</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>1355</v>
+        <v>1395</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>1356</v>
+        <v>1396</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>1357</v>
+        <v>1397</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>1358</v>
+        <v>1398</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>1359</v>
+        <v>1399</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>1360</v>
+        <v>1400</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>1361</v>
+        <v>1401</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>493</v>
+        <v>534</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>1362</v>
+        <v>1402</v>
       </c>
       <c r="O26" s="5" t="s">
-        <v>615</v>
+        <v>655</v>
       </c>
       <c r="P26" s="5" t="s">
-        <v>1363</v>
+        <v>1403</v>
       </c>
       <c r="Q26" s="5" t="s">
-        <v>658</v>
+        <v>698</v>
       </c>
       <c r="R26" s="5" t="s">
-        <v>1364</v>
+        <v>1404</v>
       </c>
       <c r="S26" s="5" t="s">
-        <v>1365</v>
+        <v>1405</v>
       </c>
       <c r="T26" s="5" t="s">
-        <v>1366</v>
+        <v>1406</v>
       </c>
       <c r="U26" s="5" t="s">
-        <v>1367</v>
+        <v>1407</v>
       </c>
       <c r="V26" s="5" t="s">
-        <v>1368</v>
+        <v>1408</v>
       </c>
       <c r="W26" s="5" t="s">
-        <v>1369</v>
+        <v>1409</v>
       </c>
       <c r="X26" s="5" t="s">
-        <v>1370</v>
+        <v>1410</v>
       </c>
       <c r="Y26" s="5" t="s">
-        <v>1371</v>
+        <v>1411</v>
       </c>
       <c r="Z26" s="5" t="s">
-        <v>1372</v>
+        <v>1412</v>
       </c>
       <c r="AA26" s="5" t="s">
-        <v>1373</v>
+        <v>1413</v>
       </c>
       <c r="AB26" s="12" t="s">
-        <v>1374</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>640</v>
+        <v>680</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>1375</v>
+        <v>1415</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>1376</v>
+        <v>1416</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>1377</v>
+        <v>1417</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>1378</v>
+        <v>1418</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>1379</v>
+        <v>1419</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>1380</v>
+        <v>1420</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>1381</v>
+        <v>1421</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>1382</v>
+        <v>1422</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>1383</v>
+        <v>1423</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>1384</v>
+        <v>1424</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>1385</v>
+        <v>1425</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>1386</v>
+        <v>1426</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>1387</v>
+        <v>1427</v>
       </c>
       <c r="O27" s="5" t="s">
-        <v>1388</v>
+        <v>1428</v>
       </c>
       <c r="P27" s="5" t="s">
-        <v>1389</v>
+        <v>1429</v>
       </c>
       <c r="Q27" s="5" t="s">
-        <v>1390</v>
+        <v>1430</v>
       </c>
       <c r="R27" s="5" t="s">
-        <v>1391</v>
+        <v>1431</v>
       </c>
       <c r="S27" s="5" t="s">
-        <v>1392</v>
+        <v>1432</v>
       </c>
       <c r="T27" s="5" t="s">
-        <v>1393</v>
+        <v>1433</v>
       </c>
       <c r="U27" s="5" t="s">
-        <v>1394</v>
+        <v>1434</v>
       </c>
       <c r="V27" s="5" t="s">
-        <v>471</v>
+        <v>512</v>
       </c>
       <c r="W27" s="5" t="s">
-        <v>1395</v>
+        <v>1435</v>
       </c>
       <c r="X27" s="5" t="s">
-        <v>1396</v>
+        <v>1436</v>
       </c>
       <c r="Y27" s="5" t="s">
-        <v>1397</v>
+        <v>1437</v>
       </c>
       <c r="Z27" s="5" t="s">
-        <v>1398</v>
+        <v>1438</v>
       </c>
       <c r="AA27" s="5" t="s">
-        <v>1399</v>
+        <v>1439</v>
       </c>
       <c r="AB27" s="12" t="s">
-        <v>1400</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>647</v>
+        <v>687</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>1401</v>
+        <v>1441</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>1402</v>
+        <v>1442</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>1403</v>
+        <v>1443</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>1404</v>
+        <v>1444</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>1405</v>
+        <v>1445</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>1406</v>
+        <v>1446</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>603</v>
+        <v>643</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>1407</v>
+        <v>1447</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>1408</v>
+        <v>1448</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>1409</v>
+        <v>1449</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>1410</v>
+        <v>1450</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>1411</v>
+        <v>1451</v>
       </c>
       <c r="N28" s="5" t="s">
-        <v>1412</v>
+        <v>1452</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>1413</v>
+        <v>1453</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>1414</v>
+        <v>1454</v>
       </c>
       <c r="Q28" s="5" t="s">
-        <v>1415</v>
+        <v>1455</v>
       </c>
       <c r="R28" s="5" t="s">
-        <v>1416</v>
+        <v>1456</v>
       </c>
       <c r="S28" s="5" t="s">
-        <v>1417</v>
+        <v>1457</v>
       </c>
       <c r="T28" s="5" t="s">
-        <v>1418</v>
+        <v>1458</v>
       </c>
       <c r="U28" s="5" t="s">
-        <v>1419</v>
+        <v>1459</v>
       </c>
       <c r="V28" s="5" t="s">
-        <v>1420</v>
+        <v>1460</v>
       </c>
       <c r="W28" s="5" t="s">
-        <v>1421</v>
+        <v>1461</v>
       </c>
       <c r="X28" s="5" t="s">
-        <v>1422</v>
+        <v>1462</v>
       </c>
       <c r="Y28" s="5" t="s">
-        <v>1423</v>
+        <v>1463</v>
       </c>
       <c r="Z28" s="5" t="s">
-        <v>1424</v>
+        <v>1464</v>
       </c>
       <c r="AA28" s="5" t="s">
-        <v>1425</v>
+        <v>1465</v>
       </c>
       <c r="AB28" s="12" t="s">
-        <v>1426</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>653</v>
+        <v>693</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>1427</v>
+        <v>1467</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>1428</v>
+        <v>1468</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>1429</v>
+        <v>1469</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>1430</v>
+        <v>1470</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>1431</v>
+        <v>1471</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>1432</v>
+        <v>1472</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>1433</v>
+        <v>1473</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>1434</v>
+        <v>1474</v>
       </c>
       <c r="J29" s="13" t="s">
-        <v>1435</v>
+        <v>1475</v>
       </c>
       <c r="K29" s="13" t="s">
-        <v>1436</v>
+        <v>1476</v>
       </c>
       <c r="L29" s="13" t="s">
-        <v>1437</v>
+        <v>1477</v>
       </c>
       <c r="M29" s="13" t="s">
-        <v>1438</v>
+        <v>1478</v>
       </c>
       <c r="N29" s="13" t="s">
-        <v>1439</v>
+        <v>1479</v>
       </c>
       <c r="O29" s="13" t="s">
-        <v>1440</v>
+        <v>1480</v>
       </c>
       <c r="P29" s="13" t="s">
-        <v>1441</v>
+        <v>1481</v>
       </c>
       <c r="Q29" s="13" t="s">
-        <v>1442</v>
+        <v>1482</v>
       </c>
       <c r="R29" s="13" t="s">
-        <v>1443</v>
+        <v>1483</v>
       </c>
       <c r="S29" s="13" t="s">
-        <v>1444</v>
+        <v>1484</v>
       </c>
       <c r="T29" s="13" t="s">
-        <v>1445</v>
+        <v>1485</v>
       </c>
       <c r="U29" s="13" t="s">
-        <v>1446</v>
+        <v>1486</v>
       </c>
       <c r="V29" s="13" t="s">
-        <v>1447</v>
+        <v>1487</v>
       </c>
       <c r="W29" s="13" t="s">
-        <v>1448</v>
+        <v>1488</v>
       </c>
       <c r="X29" s="13" t="s">
-        <v>1213</v>
+        <v>1253</v>
       </c>
       <c r="Y29" s="13" t="s">
-        <v>1449</v>
+        <v>1489</v>
       </c>
       <c r="Z29" s="13" t="s">
-        <v>1450</v>
+        <v>1490</v>
       </c>
       <c r="AA29" s="13" t="s">
-        <v>1451</v>
+        <v>1491</v>
       </c>
       <c r="AB29" s="12" t="s">
-        <v>1452</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>455</v>
+        <v>496</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>1453</v>
+        <v>1493</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>1454</v>
+        <v>1494</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>1455</v>
+        <v>1495</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>1456</v>
+        <v>1496</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>1457</v>
+        <v>1497</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>1458</v>
+        <v>1498</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>1459</v>
+        <v>1499</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>1460</v>
+        <v>1500</v>
       </c>
       <c r="J30" s="13" t="s">
-        <v>1461</v>
+        <v>1501</v>
       </c>
       <c r="K30" s="13" t="s">
-        <v>1462</v>
+        <v>1502</v>
       </c>
       <c r="L30" s="13" t="s">
-        <v>1463</v>
+        <v>1503</v>
       </c>
       <c r="M30" s="13" t="s">
-        <v>1464</v>
+        <v>1504</v>
       </c>
       <c r="N30" s="13" t="s">
-        <v>1465</v>
+        <v>1505</v>
       </c>
       <c r="O30" s="13" t="s">
-        <v>1274</v>
+        <v>1314</v>
       </c>
       <c r="P30" s="13" t="s">
-        <v>1466</v>
+        <v>1506</v>
       </c>
       <c r="Q30" s="13" t="s">
-        <v>1467</v>
+        <v>1507</v>
       </c>
       <c r="R30" s="13" t="s">
-        <v>1468</v>
+        <v>1508</v>
       </c>
       <c r="S30" s="13" t="s">
-        <v>669</v>
+        <v>709</v>
       </c>
       <c r="T30" s="13" t="s">
-        <v>1469</v>
+        <v>1509</v>
       </c>
       <c r="U30" s="13" t="s">
-        <v>1470</v>
+        <v>1510</v>
       </c>
       <c r="V30" s="13" t="s">
-        <v>1471</v>
+        <v>1511</v>
       </c>
       <c r="W30" s="13" t="s">
-        <v>1472</v>
+        <v>1512</v>
       </c>
       <c r="X30" s="13" t="s">
-        <v>1473</v>
+        <v>1513</v>
       </c>
       <c r="Y30" s="13" t="s">
-        <v>1474</v>
+        <v>1514</v>
       </c>
       <c r="Z30" s="13" t="s">
-        <v>1475</v>
+        <v>1515</v>
       </c>
       <c r="AA30" s="13" t="s">
-        <v>1476</v>
+        <v>1516</v>
       </c>
       <c r="AB30" s="12" t="s">
-        <v>1477</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>668</v>
+        <v>708</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>828</v>
+        <v>868</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>1478</v>
+        <v>1518</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>1479</v>
+        <v>1519</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>1480</v>
+        <v>1520</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>1481</v>
+        <v>1521</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>1482</v>
+        <v>1522</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>1483</v>
+        <v>1523</v>
       </c>
       <c r="I31" s="13" t="s">
-        <v>1459</v>
+        <v>1499</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>669</v>
+        <v>709</v>
       </c>
       <c r="K31" s="13" t="s">
-        <v>1484</v>
+        <v>1524</v>
       </c>
       <c r="L31" s="13" t="s">
-        <v>1485</v>
+        <v>1525</v>
       </c>
       <c r="M31" s="13" t="s">
-        <v>1486</v>
+        <v>1526</v>
       </c>
       <c r="N31" s="13" t="s">
-        <v>1466</v>
+        <v>1506</v>
       </c>
       <c r="O31" s="13" t="s">
-        <v>1487</v>
+        <v>1527</v>
       </c>
       <c r="P31" s="13" t="s">
-        <v>970</v>
+        <v>1010</v>
       </c>
       <c r="Q31" s="13" t="s">
-        <v>1488</v>
+        <v>1528</v>
       </c>
       <c r="R31" s="13" t="s">
-        <v>1489</v>
+        <v>1529</v>
       </c>
       <c r="S31" s="13" t="s">
-        <v>1490</v>
+        <v>1530</v>
       </c>
       <c r="T31" s="13" t="s">
-        <v>1491</v>
+        <v>1531</v>
       </c>
       <c r="U31" s="13" t="s">
-        <v>1492</v>
+        <v>1532</v>
       </c>
       <c r="V31" s="13" t="s">
-        <v>1493</v>
+        <v>1533</v>
       </c>
       <c r="W31" s="13" t="s">
-        <v>1494</v>
+        <v>1534</v>
       </c>
       <c r="X31" s="13" t="s">
-        <v>1495</v>
+        <v>1535</v>
       </c>
       <c r="Y31" s="13" t="s">
-        <v>1496</v>
+        <v>1536</v>
       </c>
       <c r="Z31" s="13" t="s">
-        <v>1400</v>
+        <v>1440</v>
       </c>
       <c r="AA31" s="13" t="s">
-        <v>1497</v>
+        <v>1537</v>
       </c>
       <c r="AB31" s="12" t="s">
-        <v>1498</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>676</v>
+        <v>716</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>681</v>
+        <v>721</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>679</v>
+        <v>719</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>1499</v>
+        <v>1539</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>680</v>
+        <v>720</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>1500</v>
+        <v>1540</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>1501</v>
+        <v>1541</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>1502</v>
+        <v>1542</v>
       </c>
       <c r="I32" s="13" t="s">
-        <v>1503</v>
+        <v>1543</v>
       </c>
       <c r="J32" s="13" t="s">
-        <v>1504</v>
+        <v>1544</v>
       </c>
       <c r="K32" s="13" t="s">
-        <v>1505</v>
+        <v>1545</v>
       </c>
       <c r="L32" s="13" t="s">
-        <v>1506</v>
+        <v>1546</v>
       </c>
       <c r="M32" s="13" t="s">
-        <v>1503</v>
+        <v>1543</v>
       </c>
       <c r="N32" s="13" t="s">
-        <v>1507</v>
+        <v>1547</v>
       </c>
       <c r="O32" s="13" t="s">
-        <v>1508</v>
+        <v>1548</v>
       </c>
       <c r="P32" s="13" t="s">
-        <v>1509</v>
+        <v>1549</v>
       </c>
       <c r="Q32" s="13" t="s">
-        <v>1507</v>
+        <v>1547</v>
       </c>
       <c r="R32" s="13" t="s">
-        <v>679</v>
+        <v>719</v>
       </c>
       <c r="S32" s="13" t="s">
-        <v>1508</v>
+        <v>1548</v>
       </c>
       <c r="T32" s="13" t="s">
-        <v>1510</v>
+        <v>1550</v>
       </c>
       <c r="U32" s="13" t="s">
-        <v>1511</v>
+        <v>1551</v>
       </c>
       <c r="V32" s="13" t="s">
-        <v>1512</v>
+        <v>1552</v>
       </c>
       <c r="W32" s="13" t="s">
-        <v>1511</v>
+        <v>1551</v>
       </c>
       <c r="X32" s="13" t="s">
-        <v>1513</v>
+        <v>1553</v>
       </c>
       <c r="Y32" s="13" t="s">
-        <v>1514</v>
+        <v>1554</v>
       </c>
       <c r="Z32" s="13" t="s">
-        <v>1507</v>
+        <v>1547</v>
       </c>
       <c r="AA32" s="13" t="s">
-        <v>677</v>
+        <v>717</v>
       </c>
       <c r="AB32" s="12" t="s">
-        <v>1515</v>
+        <v>1555</v>
       </c>
     </row>
   </sheetData>
@@ -12963,357 +13155,357 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>1516</v>
+        <v>1556</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1517</v>
+        <v>1557</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1518</v>
+        <v>1558</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>1519</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1520</v>
+        <v>1560</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1521</v>
+        <v>1561</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1522</v>
+        <v>1562</v>
       </c>
       <c r="D2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>1517</v>
+        <v>1557</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1523</v>
+        <v>1563</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>1524</v>
+        <v>1564</v>
       </c>
       <c r="D3" s="1"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>1518</v>
+        <v>1558</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1525</v>
+        <v>1565</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1526</v>
+        <v>1566</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>1527</v>
+        <v>1567</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1528</v>
+        <v>1568</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1529</v>
+        <v>1569</v>
       </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>1530</v>
+        <v>1570</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1531</v>
+        <v>1571</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1532</v>
+        <v>1572</v>
       </c>
       <c r="D6" s="1"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>1533</v>
+        <v>1573</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1534</v>
+        <v>1574</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1535</v>
+        <v>1575</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>1536</v>
+        <v>1576</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1537</v>
+        <v>1577</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>1538</v>
+        <v>1578</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>1539</v>
+        <v>1579</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1540</v>
+        <v>1580</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1541</v>
+        <v>1581</v>
       </c>
       <c r="D9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>1542</v>
+        <v>1582</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>1543</v>
+        <v>1583</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>1544</v>
+        <v>1584</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>1545</v>
+        <v>1585</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>1546</v>
+        <v>1586</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>1547</v>
+        <v>1587</v>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>1548</v>
+        <v>1588</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>1549</v>
+        <v>1589</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>1550</v>
+        <v>1590</v>
       </c>
       <c r="D12" s="1"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>1551</v>
+        <v>1591</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>1552</v>
+        <v>1592</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>1553</v>
+        <v>1593</v>
       </c>
       <c r="D13" s="1"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>1554</v>
+        <v>1594</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1555</v>
+        <v>1595</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>1556</v>
+        <v>1596</v>
       </c>
       <c r="D14" s="1"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>1557</v>
+        <v>1597</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>1558</v>
+        <v>1598</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>1559</v>
+        <v>1599</v>
       </c>
       <c r="D15" s="1"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>1560</v>
+        <v>1600</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>1561</v>
+        <v>1601</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>1562</v>
+        <v>1602</v>
       </c>
       <c r="D16" s="1"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>1563</v>
+        <v>1603</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>1564</v>
+        <v>1604</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>1565</v>
+        <v>1605</v>
       </c>
       <c r="D17" s="1"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>1566</v>
+        <v>1606</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>1567</v>
+        <v>1607</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>1568</v>
+        <v>1608</v>
       </c>
       <c r="D18" s="1"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>1569</v>
+        <v>1609</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>1570</v>
+        <v>1610</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>1571</v>
+        <v>1611</v>
       </c>
       <c r="D19" s="1"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>1572</v>
+        <v>1612</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>1573</v>
+        <v>1613</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>1574</v>
+        <v>1614</v>
       </c>
       <c r="D20" s="1"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>1575</v>
+        <v>1615</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>1576</v>
+        <v>1616</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>1577</v>
+        <v>1617</v>
       </c>
       <c r="D21" s="1"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>1578</v>
+        <v>1618</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>1579</v>
+        <v>1619</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>1580</v>
+        <v>1620</v>
       </c>
       <c r="D22" s="1"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>1581</v>
+        <v>1621</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>1582</v>
+        <v>1622</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>1583</v>
+        <v>1623</v>
       </c>
       <c r="D23" s="1"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>1584</v>
+        <v>1624</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>1585</v>
+        <v>1625</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>1586</v>
+        <v>1626</v>
       </c>
       <c r="D24" s="1"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>1587</v>
+        <v>1627</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>1588</v>
+        <v>1628</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>1589</v>
+        <v>1629</v>
       </c>
       <c r="D25" s="1"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>1590</v>
+        <v>1630</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>1591</v>
+        <v>1631</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>1592</v>
+        <v>1632</v>
       </c>
       <c r="D26" s="1"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>1593</v>
+        <v>1633</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>1594</v>
+        <v>1634</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>1595</v>
+        <v>1635</v>
       </c>
       <c r="D27" s="1"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>1596</v>
+        <v>1636</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>1597</v>
+        <v>1637</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>1598</v>
+        <v>1638</v>
       </c>
       <c r="D28" s="1"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>1599</v>
+        <v>1639</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>1600</v>
+        <v>1640</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>1601</v>
+        <v>1641</v>
       </c>
       <c r="D29" s="1"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>1602</v>
+        <v>1642</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -13321,7 +13513,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>1603</v>
+        <v>1643</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -13329,7 +13521,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>1604</v>
+        <v>1644</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -13337,7 +13529,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>1605</v>
+        <v>1645</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -13345,7 +13537,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>1606</v>
+        <v>1646</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>

--- a/archive/iceKnives32/iceKnives32.xlsx
+++ b/archive/iceKnives32/iceKnives32.xlsx
@@ -306,7 +306,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2411" uniqueCount="1647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2419" uniqueCount="1655">
   <si>
     <t>[packet]</t>
   </si>
@@ -1007,6 +1007,18 @@
     <t>thread</t>
   </si>
   <si>
+    <t>bias</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>distract</t>
+  </si>
+  <si>
+    <t>rope</t>
+  </si>
+  <si>
     <t>truncate</t>
   </si>
   <si>
@@ -1014,6 +1026,18 @@
   </si>
   <si>
     <t>ring</t>
+  </si>
+  <si>
+    <t>acronym</t>
+  </si>
+  <si>
+    <t>carry</t>
+  </si>
+  <si>
+    <t>aim</t>
+  </si>
+  <si>
+    <t>engine</t>
   </si>
   <si>
     <t>history</t>
@@ -6712,12 +6736,20 @@
       <c r="D14" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>236</v>
+      </c>
       <c r="I14" s="3" t="s">
-        <v>9</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15">
@@ -6725,20 +6757,28 @@
         <v>58</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+        <v>239</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>243</v>
+      </c>
       <c r="I15" s="3" t="s">
-        <v>9</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16">
@@ -6746,13 +6786,13 @@
         <v>62</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -6767,13 +6807,13 @@
         <v>66</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -6788,13 +6828,13 @@
         <v>70</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -6809,13 +6849,13 @@
         <v>74</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -6830,13 +6870,13 @@
         <v>78</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -6851,13 +6891,13 @@
         <v>82</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -6872,13 +6912,13 @@
         <v>86</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -6893,13 +6933,13 @@
         <v>90</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -6914,13 +6954,13 @@
         <v>94</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -6935,13 +6975,13 @@
         <v>98</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -6956,13 +6996,13 @@
         <v>102</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -6977,13 +7017,13 @@
         <v>106</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -6998,13 +7038,13 @@
         <v>110</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -7040,7 +7080,7 @@
         <v>35</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
     </row>
     <row r="30">
@@ -7048,13 +7088,13 @@
         <v>118</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>25</v>
@@ -7077,13 +7117,13 @@
         <v>119</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>25</v>
@@ -7106,13 +7146,13 @@
         <v>120</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>25</v>
@@ -7135,13 +7175,13 @@
         <v>121</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>25</v>
@@ -7222,13 +7262,13 @@
         <v>124</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>25</v>
@@ -7402,19 +7442,19 @@
         <v>137</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>138</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>134</v>
@@ -7425,28 +7465,28 @@
         <v>135</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -7469,7 +7509,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -7498,7 +7538,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>12</v>
@@ -7530,25 +7570,25 @@
         <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>9</v>
@@ -7559,25 +7599,25 @@
         <v>14</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>9</v>
@@ -7588,25 +7628,25 @@
         <v>18</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>9</v>
@@ -7617,25 +7657,25 @@
         <v>22</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>9</v>
@@ -7646,25 +7686,25 @@
         <v>26</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>9</v>
@@ -7675,25 +7715,25 @@
         <v>30</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>9</v>
@@ -7704,25 +7744,25 @@
         <v>34</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>9</v>
@@ -7733,25 +7773,25 @@
         <v>38</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>9</v>
@@ -7762,25 +7802,25 @@
         <v>42</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>9</v>
@@ -7791,25 +7831,25 @@
         <v>46</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>9</v>
@@ -7820,25 +7860,25 @@
         <v>50</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>9</v>
@@ -7849,25 +7889,25 @@
         <v>54</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>9</v>
@@ -7878,25 +7918,25 @@
         <v>58</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>9</v>
@@ -7907,25 +7947,25 @@
         <v>62</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>9</v>
@@ -7936,25 +7976,25 @@
         <v>66</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>9</v>
@@ -7965,25 +8005,25 @@
         <v>70</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>9</v>
@@ -7994,25 +8034,25 @@
         <v>74</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>9</v>
@@ -8023,25 +8063,25 @@
         <v>78</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>9</v>
@@ -8052,25 +8092,25 @@
         <v>82</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>9</v>
@@ -8081,25 +8121,25 @@
         <v>86</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>9</v>
@@ -8110,25 +8150,25 @@
         <v>90</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>9</v>
@@ -8139,25 +8179,25 @@
         <v>94</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>9</v>
@@ -8168,25 +8208,25 @@
         <v>98</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>9</v>
@@ -8197,25 +8237,25 @@
         <v>102</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>195</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>9</v>
@@ -8226,25 +8266,25 @@
         <v>106</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>9</v>
@@ -8255,25 +8295,25 @@
         <v>110</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>9</v>
@@ -8305,7 +8345,7 @@
         <v>35</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
     </row>
     <row r="30">
@@ -8479,7 +8519,7 @@
         <v>37</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
     </row>
     <row r="36">
@@ -8508,7 +8548,7 @@
         <v>37</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
     </row>
     <row r="37">
@@ -8653,7 +8693,7 @@
         <v>37</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
     </row>
     <row r="42">
@@ -8667,19 +8707,19 @@
         <v>137</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>138</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>134</v>
@@ -8690,28 +8730,28 @@
         <v>135</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -8736,834 +8776,834 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="7" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>518</v>
+        <v>526</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="7" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="7" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="7" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>64</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>542</v>
+        <v>550</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="7" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>550</v>
+        <v>558</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>551</v>
+        <v>559</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>553</v>
+        <v>561</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>554</v>
+        <v>562</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>556</v>
+        <v>564</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>558</v>
+        <v>566</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>559</v>
+        <v>567</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>562</v>
+        <v>570</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>563</v>
+        <v>571</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="7" t="s">
-        <v>566</v>
+        <v>574</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>576</v>
+        <v>584</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>579</v>
+        <v>587</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="7" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>582</v>
+        <v>590</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>176</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>586</v>
+        <v>594</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>587</v>
+        <v>595</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="7" t="s">
-        <v>588</v>
+        <v>596</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="7" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>602</v>
+        <v>610</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>603</v>
+        <v>611</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="7" t="s">
-        <v>604</v>
+        <v>612</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>605</v>
+        <v>613</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>606</v>
+        <v>614</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>607</v>
+        <v>615</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>608</v>
+        <v>616</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>609</v>
+        <v>617</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>610</v>
+        <v>618</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="7" t="s">
-        <v>611</v>
+        <v>619</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>612</v>
+        <v>620</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>614</v>
+        <v>622</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>622</v>
+        <v>630</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="7" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>628</v>
+        <v>636</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>629</v>
+        <v>637</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>630</v>
+        <v>638</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>631</v>
+        <v>639</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>632</v>
+        <v>640</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>633</v>
+        <v>641</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="7" t="s">
-        <v>634</v>
+        <v>642</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>636</v>
+        <v>644</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>637</v>
+        <v>645</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>639</v>
+        <v>647</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>640</v>
+        <v>648</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>641</v>
+        <v>649</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="7" t="s">
-        <v>642</v>
+        <v>650</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>643</v>
+        <v>651</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>645</v>
+        <v>653</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>646</v>
+        <v>654</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>647</v>
+        <v>655</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>648</v>
+        <v>656</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>649</v>
+        <v>657</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="7" t="s">
-        <v>650</v>
+        <v>658</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>652</v>
+        <v>660</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>653</v>
+        <v>661</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>656</v>
+        <v>664</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>657</v>
+        <v>665</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="7" t="s">
-        <v>658</v>
+        <v>666</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>659</v>
+        <v>667</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>660</v>
+        <v>668</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>661</v>
+        <v>669</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>662</v>
+        <v>670</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>663</v>
+        <v>671</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>664</v>
+        <v>672</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="7" t="s">
-        <v>665</v>
+        <v>673</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>666</v>
+        <v>674</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>667</v>
+        <v>675</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>668</v>
+        <v>676</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>669</v>
+        <v>677</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>670</v>
+        <v>678</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>671</v>
+        <v>679</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="7" t="s">
-        <v>672</v>
+        <v>680</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>673</v>
+        <v>681</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>674</v>
+        <v>682</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>675</v>
+        <v>683</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>676</v>
+        <v>684</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>678</v>
+        <v>686</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>679</v>
+        <v>687</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="7" t="s">
-        <v>680</v>
+        <v>688</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>681</v>
+        <v>689</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>682</v>
+        <v>690</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>683</v>
+        <v>691</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>684</v>
+        <v>692</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>686</v>
+        <v>694</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="7" t="s">
-        <v>687</v>
+        <v>695</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>688</v>
+        <v>696</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>689</v>
+        <v>697</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>690</v>
+        <v>698</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>691</v>
+        <v>699</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>692</v>
+        <v>700</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>649</v>
+        <v>657</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="7" t="s">
-        <v>693</v>
+        <v>701</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>694</v>
+        <v>702</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>695</v>
+        <v>703</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>696</v>
+        <v>704</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>697</v>
+        <v>705</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>698</v>
+        <v>706</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>699</v>
+        <v>707</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>700</v>
+        <v>708</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="7" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>701</v>
+        <v>709</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>702</v>
+        <v>710</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>703</v>
+        <v>711</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>704</v>
+        <v>712</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>705</v>
+        <v>713</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>706</v>
+        <v>714</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>707</v>
+        <v>715</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="7" t="s">
-        <v>708</v>
+        <v>716</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>709</v>
+        <v>717</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>710</v>
+        <v>718</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>711</v>
+        <v>719</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>712</v>
+        <v>720</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>713</v>
+        <v>721</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>714</v>
+        <v>722</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>715</v>
+        <v>723</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="7" t="s">
-        <v>716</v>
+        <v>724</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>717</v>
+        <v>725</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>719</v>
+        <v>727</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>720</v>
+        <v>728</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>721</v>
+        <v>729</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>722</v>
+        <v>730</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>723</v>
+        <v>731</v>
       </c>
     </row>
   </sheetData>
@@ -9590,774 +9630,774 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>724</v>
+        <v>732</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>725</v>
+        <v>733</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>726</v>
+        <v>734</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>727</v>
+        <v>735</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>728</v>
+        <v>736</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>729</v>
+        <v>737</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>730</v>
+        <v>738</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>731</v>
+        <v>739</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>732</v>
+        <v>740</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>733</v>
+        <v>741</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>734</v>
+        <v>742</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>735</v>
+        <v>743</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>737</v>
+        <v>745</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>738</v>
+        <v>746</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>740</v>
+        <v>748</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>741</v>
+        <v>749</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>742</v>
+        <v>750</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>743</v>
+        <v>751</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>752</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>753</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>744</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>745</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>736</v>
-      </c>
       <c r="F6" s="5" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>746</v>
+        <v>754</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>747</v>
+        <v>755</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>748</v>
+        <v>756</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>749</v>
+        <v>757</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>750</v>
+        <v>758</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>751</v>
+        <v>759</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>752</v>
+        <v>760</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>753</v>
+        <v>761</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>754</v>
+        <v>762</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>755</v>
+        <v>763</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>756</v>
+        <v>764</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>757</v>
+        <v>765</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>758</v>
+        <v>766</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>759</v>
+        <v>767</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>760</v>
+        <v>768</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>566</v>
+        <v>574</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>761</v>
+        <v>769</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>762</v>
+        <v>770</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>763</v>
+        <v>771</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>764</v>
+        <v>772</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>765</v>
+        <v>773</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>766</v>
+        <v>774</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>767</v>
+        <v>775</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>768</v>
+        <v>776</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>769</v>
+        <v>777</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>588</v>
+        <v>596</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>770</v>
+        <v>778</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>771</v>
+        <v>779</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>772</v>
+        <v>780</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>773</v>
+        <v>781</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>774</v>
+        <v>782</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>775</v>
+        <v>783</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>604</v>
+        <v>612</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>776</v>
+        <v>784</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>777</v>
+        <v>785</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>778</v>
+        <v>786</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>611</v>
+        <v>619</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>779</v>
+        <v>787</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>780</v>
+        <v>788</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>781</v>
+        <v>789</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>782</v>
+        <v>790</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>783</v>
+        <v>791</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>784</v>
+        <v>792</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>785</v>
+        <v>793</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>786</v>
+        <v>794</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>787</v>
+        <v>795</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>634</v>
+        <v>642</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>788</v>
+        <v>796</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>789</v>
+        <v>797</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>790</v>
+        <v>798</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>642</v>
+        <v>650</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>791</v>
+        <v>799</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>792</v>
+        <v>800</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>793</v>
+        <v>801</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>650</v>
+        <v>658</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>794</v>
+        <v>802</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>795</v>
+        <v>803</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>796</v>
+        <v>804</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>658</v>
+        <v>666</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>797</v>
+        <v>805</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>798</v>
+        <v>806</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>799</v>
+        <v>807</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>665</v>
+        <v>673</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>800</v>
+        <v>808</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>801</v>
+        <v>809</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>802</v>
+        <v>810</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>672</v>
+        <v>680</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>803</v>
+        <v>811</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>804</v>
+        <v>812</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>805</v>
+        <v>813</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>680</v>
+        <v>688</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>806</v>
+        <v>814</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>807</v>
+        <v>815</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>808</v>
+        <v>816</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>687</v>
+        <v>695</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>809</v>
+        <v>817</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>810</v>
+        <v>818</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>811</v>
+        <v>819</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>693</v>
+        <v>701</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>812</v>
+        <v>820</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>813</v>
+        <v>821</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>814</v>
+        <v>822</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>815</v>
+        <v>823</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>816</v>
+        <v>824</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>817</v>
+        <v>825</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>818</v>
+        <v>826</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>708</v>
+        <v>716</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>716</v>
+        <v>724</v>
       </c>
     </row>
   </sheetData>
@@ -10382,2754 +10422,2754 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>819</v>
+        <v>827</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>566</v>
+        <v>574</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>588</v>
+        <v>596</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>604</v>
+        <v>612</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>611</v>
+        <v>619</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>634</v>
+        <v>642</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>642</v>
+        <v>650</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>650</v>
+        <v>658</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>658</v>
+        <v>666</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>665</v>
+        <v>673</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>672</v>
+        <v>680</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>680</v>
+        <v>688</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>687</v>
+        <v>695</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>724</v>
+        <v>732</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>820</v>
+        <v>828</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>821</v>
+        <v>829</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>822</v>
+        <v>830</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>823</v>
+        <v>831</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>824</v>
+        <v>832</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>825</v>
+        <v>833</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>826</v>
+        <v>834</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>827</v>
+        <v>835</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>828</v>
+        <v>836</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>829</v>
+        <v>837</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>830</v>
+        <v>838</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>832</v>
+        <v>840</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>833</v>
+        <v>841</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>834</v>
+        <v>842</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>835</v>
+        <v>843</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>836</v>
+        <v>844</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>837</v>
+        <v>845</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>838</v>
+        <v>846</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>839</v>
+        <v>847</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>840</v>
+        <v>848</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>841</v>
+        <v>849</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>842</v>
+        <v>850</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>843</v>
+        <v>851</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>844</v>
+        <v>852</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>845</v>
+        <v>853</v>
       </c>
       <c r="AB2" s="12" t="s">
-        <v>846</v>
+        <v>854</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>847</v>
+        <v>855</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>848</v>
+        <v>856</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>849</v>
+        <v>857</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>850</v>
+        <v>858</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>851</v>
+        <v>859</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>852</v>
+        <v>860</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>853</v>
+        <v>861</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>854</v>
+        <v>862</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>855</v>
+        <v>863</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>856</v>
+        <v>864</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>857</v>
+        <v>865</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>858</v>
+        <v>866</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>660</v>
+        <v>668</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>859</v>
+        <v>867</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>860</v>
+        <v>868</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>861</v>
+        <v>869</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>862</v>
+        <v>870</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>863</v>
+        <v>871</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>864</v>
+        <v>872</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>865</v>
+        <v>873</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>866</v>
+        <v>874</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>606</v>
+        <v>614</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>867</v>
+        <v>875</v>
       </c>
       <c r="AA3" s="5" t="s">
-        <v>695</v>
+        <v>703</v>
       </c>
       <c r="AB3" s="12" t="s">
-        <v>868</v>
+        <v>876</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>869</v>
+        <v>877</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>870</v>
+        <v>878</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>871</v>
+        <v>879</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>872</v>
+        <v>880</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>873</v>
+        <v>881</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>550</v>
+        <v>558</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>874</v>
+        <v>882</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>875</v>
+        <v>883</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>876</v>
+        <v>884</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>877</v>
+        <v>885</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>878</v>
+        <v>886</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>879</v>
+        <v>887</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>880</v>
+        <v>888</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>881</v>
+        <v>889</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>882</v>
+        <v>890</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>883</v>
+        <v>891</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>884</v>
+        <v>892</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>885</v>
+        <v>893</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>886</v>
+        <v>894</v>
       </c>
       <c r="W4" s="5" t="s">
-        <v>887</v>
+        <v>895</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>888</v>
+        <v>896</v>
       </c>
       <c r="Y4" s="5" t="s">
-        <v>889</v>
+        <v>897</v>
       </c>
       <c r="Z4" s="5" t="s">
-        <v>890</v>
+        <v>898</v>
       </c>
       <c r="AA4" s="5" t="s">
-        <v>891</v>
+        <v>899</v>
       </c>
       <c r="AB4" s="12" t="s">
-        <v>892</v>
+        <v>900</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>893</v>
+        <v>901</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>894</v>
+        <v>902</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>895</v>
+        <v>903</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>896</v>
+        <v>904</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>897</v>
+        <v>905</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>898</v>
+        <v>906</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>668</v>
+        <v>676</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>899</v>
+        <v>907</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>900</v>
+        <v>908</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>901</v>
+        <v>909</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>678</v>
+        <v>686</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>902</v>
+        <v>910</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>903</v>
+        <v>911</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>904</v>
+        <v>912</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>905</v>
+        <v>913</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>906</v>
+        <v>914</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>907</v>
+        <v>915</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>908</v>
+        <v>916</v>
       </c>
       <c r="U5" s="5" t="s">
-        <v>909</v>
+        <v>917</v>
       </c>
       <c r="V5" s="5" t="s">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="W5" s="5" t="s">
-        <v>910</v>
+        <v>918</v>
       </c>
       <c r="X5" s="5" t="s">
-        <v>911</v>
+        <v>919</v>
       </c>
       <c r="Y5" s="5" t="s">
-        <v>912</v>
+        <v>920</v>
       </c>
       <c r="Z5" s="5" t="s">
-        <v>913</v>
+        <v>921</v>
       </c>
       <c r="AA5" s="5" t="s">
-        <v>914</v>
+        <v>922</v>
       </c>
       <c r="AB5" s="12" t="s">
-        <v>915</v>
+        <v>923</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>916</v>
+        <v>924</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>917</v>
+        <v>925</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>918</v>
+        <v>926</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>919</v>
+        <v>927</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>920</v>
+        <v>928</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>921</v>
+        <v>929</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>922</v>
+        <v>930</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>923</v>
+        <v>931</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>924</v>
+        <v>932</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>925</v>
+        <v>933</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>926</v>
+        <v>934</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>927</v>
+        <v>935</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>928</v>
+        <v>936</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>929</v>
+        <v>937</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>930</v>
+        <v>938</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>931</v>
+        <v>939</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>932</v>
+        <v>940</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>933</v>
+        <v>941</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>934</v>
+        <v>942</v>
       </c>
       <c r="V6" s="5" t="s">
-        <v>935</v>
+        <v>943</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>936</v>
+        <v>944</v>
       </c>
       <c r="X6" s="5" t="s">
-        <v>937</v>
+        <v>945</v>
       </c>
       <c r="Y6" s="5" t="s">
-        <v>938</v>
+        <v>946</v>
       </c>
       <c r="Z6" s="5" t="s">
-        <v>939</v>
+        <v>947</v>
       </c>
       <c r="AA6" s="5" t="s">
-        <v>602</v>
+        <v>610</v>
       </c>
       <c r="AB6" s="12" t="s">
-        <v>940</v>
+        <v>948</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>941</v>
+        <v>949</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>942</v>
+        <v>950</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>943</v>
+        <v>951</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>944</v>
+        <v>952</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>945</v>
+        <v>953</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>946</v>
+        <v>954</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>659</v>
+        <v>667</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>947</v>
+        <v>955</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>948</v>
+        <v>956</v>
       </c>
       <c r="K7" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>957</v>
+      </c>
+      <c r="M7" s="5" t="s">
         <v>579</v>
       </c>
-      <c r="L7" s="5" t="s">
-        <v>949</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>571</v>
-      </c>
       <c r="N7" s="5" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>950</v>
+        <v>958</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>951</v>
+        <v>959</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>689</v>
+        <v>697</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>952</v>
+        <v>960</v>
       </c>
       <c r="S7" s="5" t="s">
-        <v>953</v>
+        <v>961</v>
       </c>
       <c r="T7" s="5" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="U7" s="5" t="s">
-        <v>954</v>
+        <v>962</v>
       </c>
       <c r="V7" s="5" t="s">
-        <v>955</v>
+        <v>963</v>
       </c>
       <c r="W7" s="5" t="s">
-        <v>956</v>
+        <v>964</v>
       </c>
       <c r="X7" s="5" t="s">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="Y7" s="5" t="s">
-        <v>957</v>
+        <v>965</v>
       </c>
       <c r="Z7" s="5" t="s">
-        <v>958</v>
+        <v>966</v>
       </c>
       <c r="AA7" s="5" t="s">
-        <v>959</v>
+        <v>967</v>
       </c>
       <c r="AB7" s="12" t="s">
-        <v>960</v>
+        <v>968</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>961</v>
+        <v>969</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>962</v>
+        <v>970</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>963</v>
+        <v>971</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>964</v>
+        <v>972</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>965</v>
+        <v>973</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>966</v>
+        <v>974</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>967</v>
+        <v>975</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>968</v>
+        <v>976</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>969</v>
+        <v>977</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>970</v>
+        <v>978</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>971</v>
+        <v>979</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>972</v>
+        <v>980</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>973</v>
+        <v>981</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>974</v>
+        <v>982</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>975</v>
+        <v>983</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>976</v>
+        <v>984</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>977</v>
+        <v>985</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>978</v>
+        <v>986</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>979</v>
+        <v>987</v>
       </c>
       <c r="X8" s="5" t="s">
-        <v>980</v>
+        <v>988</v>
       </c>
       <c r="Y8" s="5" t="s">
-        <v>981</v>
+        <v>989</v>
       </c>
       <c r="Z8" s="5" t="s">
-        <v>982</v>
+        <v>990</v>
       </c>
       <c r="AA8" s="5" t="s">
-        <v>983</v>
+        <v>991</v>
       </c>
       <c r="AB8" s="12" t="s">
-        <v>984</v>
+        <v>992</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>985</v>
+        <v>993</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>986</v>
+        <v>994</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>987</v>
+        <v>995</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>988</v>
+        <v>996</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>989</v>
+        <v>997</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>990</v>
+        <v>998</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>991</v>
+        <v>999</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>992</v>
+        <v>1000</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>993</v>
+        <v>1001</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>994</v>
+        <v>1002</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>995</v>
+        <v>1003</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>996</v>
+        <v>1004</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>997</v>
+        <v>1005</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>998</v>
+        <v>1006</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>999</v>
+        <v>1007</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="R9" s="5" t="s">
-        <v>1000</v>
+        <v>1008</v>
       </c>
       <c r="S9" s="5" t="s">
-        <v>1001</v>
+        <v>1009</v>
       </c>
       <c r="T9" s="5" t="s">
-        <v>1002</v>
+        <v>1010</v>
       </c>
       <c r="U9" s="5" t="s">
-        <v>1003</v>
+        <v>1011</v>
       </c>
       <c r="V9" s="5" t="s">
-        <v>1004</v>
+        <v>1012</v>
       </c>
       <c r="W9" s="5" t="s">
-        <v>1005</v>
+        <v>1013</v>
       </c>
       <c r="X9" s="5" t="s">
-        <v>1006</v>
+        <v>1014</v>
       </c>
       <c r="Y9" s="5" t="s">
-        <v>1007</v>
+        <v>1015</v>
       </c>
       <c r="Z9" s="5" t="s">
-        <v>1008</v>
+        <v>1016</v>
       </c>
       <c r="AA9" s="5" t="s">
-        <v>1009</v>
+        <v>1017</v>
       </c>
       <c r="AB9" s="12" t="s">
-        <v>1010</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1011</v>
+        <v>1019</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>1012</v>
+        <v>1020</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>1013</v>
+        <v>1021</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>1014</v>
+        <v>1022</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>1015</v>
+        <v>1023</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>1016</v>
+        <v>1024</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>1017</v>
+        <v>1025</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>1018</v>
+        <v>1026</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>1019</v>
+        <v>1027</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>1020</v>
+        <v>1028</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>1021</v>
+        <v>1029</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>1022</v>
+        <v>1030</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>1023</v>
+        <v>1031</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>1024</v>
+        <v>1032</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>1025</v>
+        <v>1033</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>1026</v>
+        <v>1034</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>1027</v>
+        <v>1035</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>1028</v>
+        <v>1036</v>
       </c>
       <c r="T10" s="5" t="s">
-        <v>647</v>
+        <v>655</v>
       </c>
       <c r="U10" s="5" t="s">
-        <v>1029</v>
+        <v>1037</v>
       </c>
       <c r="V10" s="5" t="s">
-        <v>1030</v>
+        <v>1038</v>
       </c>
       <c r="W10" s="5" t="s">
-        <v>1031</v>
+        <v>1039</v>
       </c>
       <c r="X10" s="5" t="s">
-        <v>1032</v>
+        <v>1040</v>
       </c>
       <c r="Y10" s="5" t="s">
-        <v>1033</v>
+        <v>1041</v>
       </c>
       <c r="Z10" s="5" t="s">
-        <v>1034</v>
+        <v>1042</v>
       </c>
       <c r="AA10" s="5" t="s">
-        <v>1035</v>
+        <v>1043</v>
       </c>
       <c r="AB10" s="12" t="s">
-        <v>868</v>
+        <v>876</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1036</v>
+        <v>1044</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>1037</v>
+        <v>1045</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>1038</v>
+        <v>1046</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>1039</v>
+        <v>1047</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>1040</v>
+        <v>1048</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>1041</v>
+        <v>1049</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>1042</v>
+        <v>1050</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>1043</v>
+        <v>1051</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>1044</v>
+        <v>1052</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>1045</v>
+        <v>1053</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>646</v>
+        <v>654</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>1046</v>
+        <v>1054</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>1047</v>
+        <v>1055</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>1048</v>
+        <v>1056</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>1049</v>
+        <v>1057</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>1050</v>
+        <v>1058</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>1051</v>
+        <v>1059</v>
       </c>
       <c r="S11" s="5" t="s">
-        <v>1052</v>
+        <v>1060</v>
       </c>
       <c r="T11" s="5" t="s">
-        <v>1053</v>
+        <v>1061</v>
       </c>
       <c r="U11" s="5" t="s">
-        <v>1054</v>
+        <v>1062</v>
       </c>
       <c r="V11" s="5" t="s">
-        <v>1055</v>
+        <v>1063</v>
       </c>
       <c r="W11" s="5" t="s">
-        <v>1056</v>
+        <v>1064</v>
       </c>
       <c r="X11" s="5" t="s">
-        <v>1057</v>
+        <v>1065</v>
       </c>
       <c r="Y11" s="5" t="s">
-        <v>1058</v>
+        <v>1066</v>
       </c>
       <c r="Z11" s="5" t="s">
-        <v>1059</v>
+        <v>1067</v>
       </c>
       <c r="AA11" s="5" t="s">
-        <v>1060</v>
+        <v>1068</v>
       </c>
       <c r="AB11" s="12" t="s">
-        <v>892</v>
+        <v>900</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>566</v>
+        <v>574</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1061</v>
+        <v>1069</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>1062</v>
+        <v>1070</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>1063</v>
+        <v>1071</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>1064</v>
+        <v>1072</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>1065</v>
+        <v>1073</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>1066</v>
+        <v>1074</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>1067</v>
+        <v>1075</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>1068</v>
+        <v>1076</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>1069</v>
+        <v>1077</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>686</v>
+        <v>694</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>1070</v>
+        <v>1078</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>1071</v>
+        <v>1079</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>1072</v>
+        <v>1080</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>1073</v>
+        <v>1081</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>692</v>
+        <v>700</v>
       </c>
       <c r="R12" s="5" t="s">
-        <v>1074</v>
+        <v>1082</v>
       </c>
       <c r="S12" s="5" t="s">
-        <v>1075</v>
+        <v>1083</v>
       </c>
       <c r="T12" s="5" t="s">
-        <v>1076</v>
+        <v>1084</v>
       </c>
       <c r="U12" s="5" t="s">
-        <v>1077</v>
+        <v>1085</v>
       </c>
       <c r="V12" s="5" t="s">
-        <v>1078</v>
+        <v>1086</v>
       </c>
       <c r="W12" s="5" t="s">
-        <v>1079</v>
+        <v>1087</v>
       </c>
       <c r="X12" s="5" t="s">
-        <v>1080</v>
+        <v>1088</v>
       </c>
       <c r="Y12" s="5" t="s">
-        <v>1081</v>
+        <v>1089</v>
       </c>
       <c r="Z12" s="5" t="s">
-        <v>1082</v>
+        <v>1090</v>
       </c>
       <c r="AA12" s="5" t="s">
-        <v>1083</v>
+        <v>1091</v>
       </c>
       <c r="AB12" s="12" t="s">
-        <v>1084</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1085</v>
+        <v>1093</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>1086</v>
+        <v>1094</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>1087</v>
+        <v>1095</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>1088</v>
+        <v>1096</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>1089</v>
+        <v>1097</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>1090</v>
+        <v>1098</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>1091</v>
+        <v>1099</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>1092</v>
+        <v>1100</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>1093</v>
+        <v>1101</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>608</v>
+        <v>616</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>1094</v>
+        <v>1102</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>1095</v>
+        <v>1103</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>1096</v>
+        <v>1104</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>1097</v>
+        <v>1105</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>1098</v>
+        <v>1106</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>1099</v>
+        <v>1107</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>1100</v>
+        <v>1108</v>
       </c>
       <c r="S13" s="5" t="s">
-        <v>553</v>
+        <v>561</v>
       </c>
       <c r="T13" s="5" t="s">
-        <v>1101</v>
+        <v>1109</v>
       </c>
       <c r="U13" s="5" t="s">
-        <v>1102</v>
+        <v>1110</v>
       </c>
       <c r="V13" s="5" t="s">
-        <v>1103</v>
+        <v>1111</v>
       </c>
       <c r="W13" s="5" t="s">
-        <v>1104</v>
+        <v>1112</v>
       </c>
       <c r="X13" s="5" t="s">
-        <v>1105</v>
+        <v>1113</v>
       </c>
       <c r="Y13" s="5" t="s">
-        <v>1106</v>
+        <v>1114</v>
       </c>
       <c r="Z13" s="5" t="s">
-        <v>1107</v>
+        <v>1115</v>
       </c>
       <c r="AA13" s="5" t="s">
-        <v>1108</v>
+        <v>1116</v>
       </c>
       <c r="AB13" s="12" t="s">
-        <v>1109</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1110</v>
+        <v>1118</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>1111</v>
+        <v>1119</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>1112</v>
+        <v>1120</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>1113</v>
+        <v>1121</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>1114</v>
+        <v>1122</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>1115</v>
+        <v>1123</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>1116</v>
+        <v>1124</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>681</v>
+        <v>689</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>1117</v>
+        <v>1125</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>1118</v>
+        <v>1126</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>1119</v>
+        <v>1127</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>1120</v>
+        <v>1128</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>605</v>
+        <v>613</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>688</v>
+        <v>696</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>1121</v>
+        <v>1129</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>1122</v>
+        <v>1130</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>1123</v>
+        <v>1131</v>
       </c>
       <c r="T14" s="5" t="s">
-        <v>1124</v>
+        <v>1132</v>
       </c>
       <c r="U14" s="5" t="s">
-        <v>1125</v>
+        <v>1133</v>
       </c>
       <c r="V14" s="5" t="s">
-        <v>1126</v>
+        <v>1134</v>
       </c>
       <c r="W14" s="5" t="s">
-        <v>1127</v>
+        <v>1135</v>
       </c>
       <c r="X14" s="5" t="s">
-        <v>1128</v>
+        <v>1136</v>
       </c>
       <c r="Y14" s="5" t="s">
-        <v>1129</v>
+        <v>1137</v>
       </c>
       <c r="Z14" s="5" t="s">
-        <v>1130</v>
+        <v>1138</v>
       </c>
       <c r="AA14" s="5" t="s">
-        <v>1131</v>
+        <v>1139</v>
       </c>
       <c r="AB14" s="12" t="s">
-        <v>702</v>
+        <v>710</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>588</v>
+        <v>596</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>1132</v>
+        <v>1140</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>1133</v>
+        <v>1141</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>1134</v>
+        <v>1142</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>1135</v>
+        <v>1143</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>1136</v>
+        <v>1144</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>1137</v>
+        <v>1145</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>1138</v>
+        <v>1146</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>1139</v>
+        <v>1147</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>1140</v>
+        <v>1148</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>629</v>
+        <v>637</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>1141</v>
+        <v>1149</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>1142</v>
+        <v>1150</v>
       </c>
       <c r="R15" s="5" t="s">
-        <v>1143</v>
+        <v>1151</v>
       </c>
       <c r="S15" s="5" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="T15" s="5" t="s">
-        <v>1144</v>
+        <v>1152</v>
       </c>
       <c r="U15" s="5" t="s">
-        <v>1145</v>
+        <v>1153</v>
       </c>
       <c r="V15" s="5" t="s">
-        <v>1146</v>
+        <v>1154</v>
       </c>
       <c r="W15" s="5" t="s">
-        <v>1147</v>
+        <v>1155</v>
       </c>
       <c r="X15" s="5" t="s">
-        <v>1148</v>
+        <v>1156</v>
       </c>
       <c r="Y15" s="5" t="s">
-        <v>1149</v>
+        <v>1157</v>
       </c>
       <c r="Z15" s="5" t="s">
-        <v>1150</v>
+        <v>1158</v>
       </c>
       <c r="AA15" s="5" t="s">
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="AB15" s="12" t="s">
-        <v>1151</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>1152</v>
+        <v>1160</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>1153</v>
+        <v>1161</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>1154</v>
+        <v>1162</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>1155</v>
+        <v>1163</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>1156</v>
+        <v>1164</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>1157</v>
+        <v>1165</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>1158</v>
+        <v>1166</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>1159</v>
+        <v>1167</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>1160</v>
+        <v>1168</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>1161</v>
+        <v>1169</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>1162</v>
+        <v>1170</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>1163</v>
+        <v>1171</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>1164</v>
+        <v>1172</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>1165</v>
+        <v>1173</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>1166</v>
+        <v>1174</v>
       </c>
       <c r="R16" s="5" t="s">
-        <v>1167</v>
+        <v>1175</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>1168</v>
+        <v>1176</v>
       </c>
       <c r="T16" s="5" t="s">
-        <v>1169</v>
+        <v>1177</v>
       </c>
       <c r="U16" s="5" t="s">
-        <v>1170</v>
+        <v>1178</v>
       </c>
       <c r="V16" s="5" t="s">
-        <v>1171</v>
+        <v>1179</v>
       </c>
       <c r="W16" s="5" t="s">
-        <v>1172</v>
+        <v>1180</v>
       </c>
       <c r="X16" s="5" t="s">
-        <v>1173</v>
+        <v>1181</v>
       </c>
       <c r="Y16" s="5" t="s">
-        <v>1174</v>
+        <v>1182</v>
       </c>
       <c r="Z16" s="5" t="s">
-        <v>1175</v>
+        <v>1183</v>
       </c>
       <c r="AA16" s="5" t="s">
-        <v>1176</v>
+        <v>1184</v>
       </c>
       <c r="AB16" s="12" t="s">
-        <v>709</v>
+        <v>717</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>604</v>
+        <v>612</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1177</v>
+        <v>1185</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>1178</v>
+        <v>1186</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>1179</v>
+        <v>1187</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>1180</v>
+        <v>1188</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>1181</v>
+        <v>1189</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>1182</v>
+        <v>1190</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>1183</v>
+        <v>1191</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>1184</v>
+        <v>1192</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>648</v>
+        <v>656</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>1185</v>
+        <v>1193</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>1186</v>
+        <v>1194</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>1187</v>
+        <v>1195</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>1188</v>
+        <v>1196</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>1189</v>
+        <v>1197</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>1190</v>
+        <v>1198</v>
       </c>
       <c r="R17" s="5" t="s">
-        <v>684</v>
+        <v>692</v>
       </c>
       <c r="S17" s="5" t="s">
-        <v>1191</v>
+        <v>1199</v>
       </c>
       <c r="T17" s="5" t="s">
-        <v>1192</v>
+        <v>1200</v>
       </c>
       <c r="U17" s="5" t="s">
-        <v>1193</v>
+        <v>1201</v>
       </c>
       <c r="V17" s="5" t="s">
-        <v>1194</v>
+        <v>1202</v>
       </c>
       <c r="W17" s="5" t="s">
-        <v>1195</v>
+        <v>1203</v>
       </c>
       <c r="X17" s="5" t="s">
-        <v>1196</v>
+        <v>1204</v>
       </c>
       <c r="Y17" s="5" t="s">
-        <v>663</v>
+        <v>671</v>
       </c>
       <c r="Z17" s="5" t="s">
-        <v>1197</v>
+        <v>1205</v>
       </c>
       <c r="AA17" s="5" t="s">
-        <v>1198</v>
+        <v>1206</v>
       </c>
       <c r="AB17" s="12" t="s">
-        <v>711</v>
+        <v>719</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>611</v>
+        <v>619</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>1199</v>
+        <v>1207</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>1200</v>
+        <v>1208</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>1201</v>
+        <v>1209</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>1202</v>
+        <v>1210</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>640</v>
+        <v>648</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>1203</v>
+        <v>1211</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>1204</v>
+        <v>1212</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>1205</v>
+        <v>1213</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>1206</v>
+        <v>1214</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>1207</v>
+        <v>1215</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>582</v>
+        <v>590</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>1208</v>
+        <v>1216</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>1209</v>
+        <v>1217</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>1210</v>
+        <v>1218</v>
       </c>
       <c r="Q18" s="5" t="s">
-        <v>1211</v>
+        <v>1219</v>
       </c>
       <c r="R18" s="5" t="s">
-        <v>1212</v>
+        <v>1220</v>
       </c>
       <c r="S18" s="5" t="s">
-        <v>652</v>
+        <v>660</v>
       </c>
       <c r="T18" s="5" t="s">
-        <v>1213</v>
+        <v>1221</v>
       </c>
       <c r="U18" s="5" t="s">
-        <v>1214</v>
+        <v>1222</v>
       </c>
       <c r="V18" s="5" t="s">
-        <v>1215</v>
+        <v>1223</v>
       </c>
       <c r="W18" s="5" t="s">
-        <v>1216</v>
+        <v>1224</v>
       </c>
       <c r="X18" s="5" t="s">
-        <v>1217</v>
+        <v>1225</v>
       </c>
       <c r="Y18" s="5" t="s">
-        <v>1218</v>
+        <v>1226</v>
       </c>
       <c r="Z18" s="5" t="s">
-        <v>1219</v>
+        <v>1227</v>
       </c>
       <c r="AA18" s="5" t="s">
-        <v>1220</v>
+        <v>1228</v>
       </c>
       <c r="AB18" s="12" t="s">
-        <v>960</v>
+        <v>968</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>1221</v>
+        <v>1229</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>1222</v>
+        <v>1230</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>1223</v>
+        <v>1231</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>1224</v>
+        <v>1232</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>1225</v>
+        <v>1233</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>1226</v>
+        <v>1234</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>1227</v>
+        <v>1235</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>612</v>
+        <v>620</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>1228</v>
+        <v>1236</v>
       </c>
       <c r="K19" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>1237</v>
+      </c>
+      <c r="N19" s="5" t="s">
         <v>594</v>
       </c>
-      <c r="L19" s="5" t="s">
-        <v>561</v>
-      </c>
-      <c r="M19" s="5" t="s">
-        <v>1229</v>
-      </c>
-      <c r="N19" s="5" t="s">
-        <v>586</v>
-      </c>
       <c r="O19" s="5" t="s">
-        <v>1230</v>
+        <v>1238</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>1231</v>
+        <v>1239</v>
       </c>
       <c r="Q19" s="5" t="s">
-        <v>1232</v>
+        <v>1240</v>
       </c>
       <c r="R19" s="5" t="s">
-        <v>1233</v>
+        <v>1241</v>
       </c>
       <c r="S19" s="5" t="s">
-        <v>1234</v>
+        <v>1242</v>
       </c>
       <c r="T19" s="5" t="s">
-        <v>1235</v>
+        <v>1243</v>
       </c>
       <c r="U19" s="5" t="s">
-        <v>1236</v>
+        <v>1244</v>
       </c>
       <c r="V19" s="5" t="s">
-        <v>1237</v>
+        <v>1245</v>
       </c>
       <c r="W19" s="5" t="s">
-        <v>1238</v>
+        <v>1246</v>
       </c>
       <c r="X19" s="5" t="s">
-        <v>1239</v>
+        <v>1247</v>
       </c>
       <c r="Y19" s="5" t="s">
-        <v>1240</v>
+        <v>1248</v>
       </c>
       <c r="Z19" s="5" t="s">
-        <v>1241</v>
+        <v>1249</v>
       </c>
       <c r="AA19" s="5" t="s">
-        <v>1242</v>
+        <v>1250</v>
       </c>
       <c r="AB19" s="12" t="s">
-        <v>1243</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1244</v>
+        <v>1252</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>1245</v>
+        <v>1253</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>1246</v>
+        <v>1254</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>1247</v>
+        <v>1255</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>1248</v>
+        <v>1256</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>1249</v>
+        <v>1257</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>1250</v>
+        <v>1258</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>1251</v>
+        <v>1259</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>691</v>
+        <v>699</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>1252</v>
+        <v>1260</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>1253</v>
+        <v>1261</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>1254</v>
+        <v>1262</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>1255</v>
+        <v>1263</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>1256</v>
+        <v>1264</v>
       </c>
       <c r="Q20" s="5" t="s">
-        <v>1257</v>
+        <v>1265</v>
       </c>
       <c r="R20" s="5" t="s">
-        <v>1258</v>
+        <v>1266</v>
       </c>
       <c r="S20" s="5" t="s">
-        <v>1259</v>
+        <v>1267</v>
       </c>
       <c r="T20" s="5" t="s">
-        <v>1260</v>
+        <v>1268</v>
       </c>
       <c r="U20" s="5" t="s">
-        <v>1261</v>
+        <v>1269</v>
       </c>
       <c r="V20" s="5" t="s">
-        <v>1262</v>
+        <v>1270</v>
       </c>
       <c r="W20" s="5" t="s">
-        <v>1263</v>
+        <v>1271</v>
       </c>
       <c r="X20" s="5" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="Y20" s="5" t="s">
-        <v>1264</v>
+        <v>1272</v>
       </c>
       <c r="Z20" s="5" t="s">
-        <v>1265</v>
+        <v>1273</v>
       </c>
       <c r="AA20" s="5" t="s">
-        <v>1266</v>
+        <v>1274</v>
       </c>
       <c r="AB20" s="12" t="s">
-        <v>1267</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>634</v>
+        <v>642</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>1268</v>
+        <v>1276</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>1269</v>
+        <v>1277</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>1270</v>
+        <v>1278</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>1271</v>
+        <v>1279</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>1272</v>
+        <v>1280</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>667</v>
+        <v>675</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>1273</v>
+        <v>1281</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>1274</v>
+        <v>1282</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>1275</v>
+        <v>1283</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>1276</v>
+        <v>1284</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>1277</v>
+        <v>1285</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>697</v>
+        <v>705</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>1278</v>
+        <v>1286</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>1279</v>
+        <v>1287</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>1280</v>
+        <v>1288</v>
       </c>
       <c r="Q21" s="5" t="s">
-        <v>1281</v>
+        <v>1289</v>
       </c>
       <c r="R21" s="5" t="s">
-        <v>1282</v>
+        <v>1290</v>
       </c>
       <c r="S21" s="5" t="s">
-        <v>1283</v>
+        <v>1291</v>
       </c>
       <c r="T21" s="5" t="s">
-        <v>1284</v>
+        <v>1292</v>
       </c>
       <c r="U21" s="5" t="s">
-        <v>1285</v>
+        <v>1293</v>
       </c>
       <c r="V21" s="5" t="s">
-        <v>1286</v>
+        <v>1294</v>
       </c>
       <c r="W21" s="5" t="s">
-        <v>1287</v>
+        <v>1295</v>
       </c>
       <c r="X21" s="5" t="s">
-        <v>1288</v>
+        <v>1296</v>
       </c>
       <c r="Y21" s="5" t="s">
-        <v>1289</v>
+        <v>1297</v>
       </c>
       <c r="Z21" s="5" t="s">
-        <v>1290</v>
+        <v>1298</v>
       </c>
       <c r="AA21" s="5" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="AB21" s="12" t="s">
-        <v>703</v>
+        <v>711</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>642</v>
+        <v>650</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>1291</v>
+        <v>1299</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>1292</v>
+        <v>1300</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>1293</v>
+        <v>1301</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>1294</v>
+        <v>1302</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>1295</v>
+        <v>1303</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>1296</v>
+        <v>1304</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>1297</v>
+        <v>1305</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>1298</v>
+        <v>1306</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>1299</v>
+        <v>1307</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>1300</v>
+        <v>1308</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>1301</v>
+        <v>1309</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>1302</v>
+        <v>1310</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>669</v>
+        <v>677</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>1303</v>
+        <v>1311</v>
       </c>
       <c r="Q22" s="5" t="s">
-        <v>1304</v>
+        <v>1312</v>
       </c>
       <c r="R22" s="5" t="s">
-        <v>1305</v>
+        <v>1313</v>
       </c>
       <c r="S22" s="5" t="s">
-        <v>1306</v>
+        <v>1314</v>
       </c>
       <c r="T22" s="5" t="s">
-        <v>1307</v>
+        <v>1315</v>
       </c>
       <c r="U22" s="5" t="s">
-        <v>1308</v>
+        <v>1316</v>
       </c>
       <c r="V22" s="5" t="s">
-        <v>1309</v>
+        <v>1317</v>
       </c>
       <c r="W22" s="5" t="s">
-        <v>1310</v>
+        <v>1318</v>
       </c>
       <c r="X22" s="5" t="s">
-        <v>1311</v>
+        <v>1319</v>
       </c>
       <c r="Y22" s="5" t="s">
-        <v>1312</v>
+        <v>1320</v>
       </c>
       <c r="Z22" s="5" t="s">
-        <v>674</v>
+        <v>682</v>
       </c>
       <c r="AA22" s="5" t="s">
-        <v>1313</v>
+        <v>1321</v>
       </c>
       <c r="AB22" s="12" t="s">
-        <v>1314</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>650</v>
+        <v>658</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>1315</v>
+        <v>1323</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>1316</v>
+        <v>1324</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>1317</v>
+        <v>1325</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>1318</v>
+        <v>1326</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>1319</v>
+        <v>1327</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>1320</v>
+        <v>1328</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>1321</v>
+        <v>1329</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>1322</v>
+        <v>1330</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>1323</v>
+        <v>1331</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>1324</v>
+        <v>1332</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>1325</v>
+        <v>1333</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>1326</v>
+        <v>1334</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>1327</v>
+        <v>1335</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>1328</v>
+        <v>1336</v>
       </c>
       <c r="P23" s="5" t="s">
-        <v>1329</v>
+        <v>1337</v>
       </c>
       <c r="Q23" s="5" t="s">
-        <v>1330</v>
+        <v>1338</v>
       </c>
       <c r="R23" s="5" t="s">
-        <v>1331</v>
+        <v>1339</v>
       </c>
       <c r="S23" s="5" t="s">
-        <v>1332</v>
+        <v>1340</v>
       </c>
       <c r="T23" s="5" t="s">
-        <v>1333</v>
+        <v>1341</v>
       </c>
       <c r="U23" s="5" t="s">
-        <v>1334</v>
+        <v>1342</v>
       </c>
       <c r="V23" s="5" t="s">
-        <v>676</v>
+        <v>684</v>
       </c>
       <c r="W23" s="5" t="s">
-        <v>1335</v>
+        <v>1343</v>
       </c>
       <c r="X23" s="5" t="s">
-        <v>1336</v>
+        <v>1344</v>
       </c>
       <c r="Y23" s="5" t="s">
-        <v>1337</v>
+        <v>1345</v>
       </c>
       <c r="Z23" s="5" t="s">
-        <v>1338</v>
+        <v>1346</v>
       </c>
       <c r="AA23" s="5" t="s">
-        <v>1339</v>
+        <v>1347</v>
       </c>
       <c r="AB23" s="12" t="s">
-        <v>1340</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>658</v>
+        <v>666</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>1341</v>
+        <v>1349</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>1342</v>
+        <v>1350</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>1343</v>
+        <v>1351</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>1344</v>
+        <v>1352</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>1345</v>
+        <v>1353</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>1346</v>
+        <v>1354</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>1347</v>
+        <v>1355</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>1348</v>
+        <v>1356</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>1349</v>
+        <v>1357</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>1350</v>
+        <v>1358</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>1351</v>
+        <v>1359</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>1352</v>
+        <v>1360</v>
       </c>
       <c r="O24" s="5" t="s">
-        <v>1353</v>
+        <v>1361</v>
       </c>
       <c r="P24" s="5" t="s">
-        <v>1354</v>
+        <v>1362</v>
       </c>
       <c r="Q24" s="5" t="s">
-        <v>1355</v>
+        <v>1363</v>
       </c>
       <c r="R24" s="5" t="s">
-        <v>1356</v>
+        <v>1364</v>
       </c>
       <c r="S24" s="5" t="s">
-        <v>1357</v>
+        <v>1365</v>
       </c>
       <c r="T24" s="5" t="s">
-        <v>1358</v>
+        <v>1366</v>
       </c>
       <c r="U24" s="5" t="s">
-        <v>1359</v>
+        <v>1367</v>
       </c>
       <c r="V24" s="5" t="s">
-        <v>1360</v>
+        <v>1368</v>
       </c>
       <c r="W24" s="5" t="s">
-        <v>1361</v>
+        <v>1369</v>
       </c>
       <c r="X24" s="5" t="s">
-        <v>1362</v>
+        <v>1370</v>
       </c>
       <c r="Y24" s="5" t="s">
-        <v>1363</v>
+        <v>1371</v>
       </c>
       <c r="Z24" s="5" t="s">
-        <v>1364</v>
+        <v>1372</v>
       </c>
       <c r="AA24" s="5" t="s">
-        <v>1365</v>
+        <v>1373</v>
       </c>
       <c r="AB24" s="12" t="s">
-        <v>1366</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>665</v>
+        <v>673</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>1367</v>
+        <v>1375</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>1368</v>
+        <v>1376</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>1369</v>
+        <v>1377</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>1370</v>
+        <v>1378</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>1371</v>
+        <v>1379</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>1372</v>
+        <v>1380</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>1373</v>
+        <v>1381</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>1374</v>
+        <v>1382</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>1375</v>
+        <v>1383</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>1376</v>
+        <v>1384</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>1377</v>
+        <v>1385</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>1378</v>
+        <v>1386</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>1379</v>
+        <v>1387</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>1380</v>
+        <v>1388</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>1381</v>
+        <v>1389</v>
       </c>
       <c r="Q25" s="5" t="s">
-        <v>610</v>
+        <v>618</v>
       </c>
       <c r="R25" s="5" t="s">
-        <v>1382</v>
+        <v>1390</v>
       </c>
       <c r="S25" s="5" t="s">
-        <v>1383</v>
+        <v>1391</v>
       </c>
       <c r="T25" s="5" t="s">
-        <v>563</v>
+        <v>571</v>
       </c>
       <c r="U25" s="5" t="s">
-        <v>1384</v>
+        <v>1392</v>
       </c>
       <c r="V25" s="5" t="s">
-        <v>1385</v>
+        <v>1393</v>
       </c>
       <c r="W25" s="5" t="s">
-        <v>1386</v>
+        <v>1394</v>
       </c>
       <c r="X25" s="5" t="s">
-        <v>1387</v>
+        <v>1395</v>
       </c>
       <c r="Y25" s="5" t="s">
-        <v>1388</v>
+        <v>1396</v>
       </c>
       <c r="Z25" s="5" t="s">
-        <v>1389</v>
+        <v>1397</v>
       </c>
       <c r="AA25" s="5" t="s">
-        <v>1390</v>
+        <v>1398</v>
       </c>
       <c r="AB25" s="12" t="s">
-        <v>1010</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>672</v>
+        <v>680</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>1391</v>
+        <v>1399</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>1392</v>
+        <v>1400</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>1393</v>
+        <v>1401</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>1394</v>
+        <v>1402</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>1395</v>
+        <v>1403</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>1396</v>
+        <v>1404</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>1397</v>
+        <v>1405</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>1398</v>
+        <v>1406</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>1399</v>
+        <v>1407</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>1400</v>
+        <v>1408</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>1401</v>
+        <v>1409</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>1402</v>
+        <v>1410</v>
       </c>
       <c r="O26" s="5" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="P26" s="5" t="s">
-        <v>1403</v>
+        <v>1411</v>
       </c>
       <c r="Q26" s="5" t="s">
-        <v>698</v>
+        <v>706</v>
       </c>
       <c r="R26" s="5" t="s">
-        <v>1404</v>
+        <v>1412</v>
       </c>
       <c r="S26" s="5" t="s">
-        <v>1405</v>
+        <v>1413</v>
       </c>
       <c r="T26" s="5" t="s">
-        <v>1406</v>
+        <v>1414</v>
       </c>
       <c r="U26" s="5" t="s">
-        <v>1407</v>
+        <v>1415</v>
       </c>
       <c r="V26" s="5" t="s">
-        <v>1408</v>
+        <v>1416</v>
       </c>
       <c r="W26" s="5" t="s">
-        <v>1409</v>
+        <v>1417</v>
       </c>
       <c r="X26" s="5" t="s">
-        <v>1410</v>
+        <v>1418</v>
       </c>
       <c r="Y26" s="5" t="s">
-        <v>1411</v>
+        <v>1419</v>
       </c>
       <c r="Z26" s="5" t="s">
-        <v>1412</v>
+        <v>1420</v>
       </c>
       <c r="AA26" s="5" t="s">
-        <v>1413</v>
+        <v>1421</v>
       </c>
       <c r="AB26" s="12" t="s">
-        <v>1414</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>680</v>
+        <v>688</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>1415</v>
+        <v>1423</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>1416</v>
+        <v>1424</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>1417</v>
+        <v>1425</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>1418</v>
+        <v>1426</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>1419</v>
+        <v>1427</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>1420</v>
+        <v>1428</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>1421</v>
+        <v>1429</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>1422</v>
+        <v>1430</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>1423</v>
+        <v>1431</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>1424</v>
+        <v>1432</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>1425</v>
+        <v>1433</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>1426</v>
+        <v>1434</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>1427</v>
+        <v>1435</v>
       </c>
       <c r="O27" s="5" t="s">
-        <v>1428</v>
+        <v>1436</v>
       </c>
       <c r="P27" s="5" t="s">
-        <v>1429</v>
+        <v>1437</v>
       </c>
       <c r="Q27" s="5" t="s">
-        <v>1430</v>
+        <v>1438</v>
       </c>
       <c r="R27" s="5" t="s">
-        <v>1431</v>
+        <v>1439</v>
       </c>
       <c r="S27" s="5" t="s">
-        <v>1432</v>
+        <v>1440</v>
       </c>
       <c r="T27" s="5" t="s">
-        <v>1433</v>
+        <v>1441</v>
       </c>
       <c r="U27" s="5" t="s">
-        <v>1434</v>
+        <v>1442</v>
       </c>
       <c r="V27" s="5" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="W27" s="5" t="s">
-        <v>1435</v>
+        <v>1443</v>
       </c>
       <c r="X27" s="5" t="s">
-        <v>1436</v>
+        <v>1444</v>
       </c>
       <c r="Y27" s="5" t="s">
-        <v>1437</v>
+        <v>1445</v>
       </c>
       <c r="Z27" s="5" t="s">
-        <v>1438</v>
+        <v>1446</v>
       </c>
       <c r="AA27" s="5" t="s">
-        <v>1439</v>
+        <v>1447</v>
       </c>
       <c r="AB27" s="12" t="s">
-        <v>1440</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>687</v>
+        <v>695</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>1441</v>
+        <v>1449</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>1442</v>
+        <v>1450</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>1443</v>
+        <v>1451</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>1444</v>
+        <v>1452</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>1445</v>
+        <v>1453</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>1446</v>
+        <v>1454</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>643</v>
+        <v>651</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>1447</v>
+        <v>1455</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>1448</v>
+        <v>1456</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>1449</v>
+        <v>1457</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>1450</v>
+        <v>1458</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>1451</v>
+        <v>1459</v>
       </c>
       <c r="N28" s="5" t="s">
-        <v>1452</v>
+        <v>1460</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>1453</v>
+        <v>1461</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>1454</v>
+        <v>1462</v>
       </c>
       <c r="Q28" s="5" t="s">
-        <v>1455</v>
+        <v>1463</v>
       </c>
       <c r="R28" s="5" t="s">
-        <v>1456</v>
+        <v>1464</v>
       </c>
       <c r="S28" s="5" t="s">
-        <v>1457</v>
+        <v>1465</v>
       </c>
       <c r="T28" s="5" t="s">
-        <v>1458</v>
+        <v>1466</v>
       </c>
       <c r="U28" s="5" t="s">
-        <v>1459</v>
+        <v>1467</v>
       </c>
       <c r="V28" s="5" t="s">
-        <v>1460</v>
+        <v>1468</v>
       </c>
       <c r="W28" s="5" t="s">
-        <v>1461</v>
+        <v>1469</v>
       </c>
       <c r="X28" s="5" t="s">
-        <v>1462</v>
+        <v>1470</v>
       </c>
       <c r="Y28" s="5" t="s">
-        <v>1463</v>
+        <v>1471</v>
       </c>
       <c r="Z28" s="5" t="s">
-        <v>1464</v>
+        <v>1472</v>
       </c>
       <c r="AA28" s="5" t="s">
-        <v>1465</v>
+        <v>1473</v>
       </c>
       <c r="AB28" s="12" t="s">
-        <v>1466</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>693</v>
+        <v>701</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>1467</v>
+        <v>1475</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>1468</v>
+        <v>1476</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>1469</v>
+        <v>1477</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>1470</v>
+        <v>1478</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>1471</v>
+        <v>1479</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>1472</v>
+        <v>1480</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>1473</v>
+        <v>1481</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>1474</v>
+        <v>1482</v>
       </c>
       <c r="J29" s="13" t="s">
-        <v>1475</v>
+        <v>1483</v>
       </c>
       <c r="K29" s="13" t="s">
-        <v>1476</v>
+        <v>1484</v>
       </c>
       <c r="L29" s="13" t="s">
-        <v>1477</v>
+        <v>1485</v>
       </c>
       <c r="M29" s="13" t="s">
-        <v>1478</v>
+        <v>1486</v>
       </c>
       <c r="N29" s="13" t="s">
-        <v>1479</v>
+        <v>1487</v>
       </c>
       <c r="O29" s="13" t="s">
-        <v>1480</v>
+        <v>1488</v>
       </c>
       <c r="P29" s="13" t="s">
-        <v>1481</v>
+        <v>1489</v>
       </c>
       <c r="Q29" s="13" t="s">
-        <v>1482</v>
+        <v>1490</v>
       </c>
       <c r="R29" s="13" t="s">
-        <v>1483</v>
+        <v>1491</v>
       </c>
       <c r="S29" s="13" t="s">
-        <v>1484</v>
+        <v>1492</v>
       </c>
       <c r="T29" s="13" t="s">
-        <v>1485</v>
+        <v>1493</v>
       </c>
       <c r="U29" s="13" t="s">
-        <v>1486</v>
+        <v>1494</v>
       </c>
       <c r="V29" s="13" t="s">
-        <v>1487</v>
+        <v>1495</v>
       </c>
       <c r="W29" s="13" t="s">
-        <v>1488</v>
+        <v>1496</v>
       </c>
       <c r="X29" s="13" t="s">
-        <v>1253</v>
+        <v>1261</v>
       </c>
       <c r="Y29" s="13" t="s">
-        <v>1489</v>
+        <v>1497</v>
       </c>
       <c r="Z29" s="13" t="s">
-        <v>1490</v>
+        <v>1498</v>
       </c>
       <c r="AA29" s="13" t="s">
-        <v>1491</v>
+        <v>1499</v>
       </c>
       <c r="AB29" s="12" t="s">
-        <v>1492</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>1493</v>
+        <v>1501</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>1494</v>
+        <v>1502</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>1495</v>
+        <v>1503</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>1496</v>
+        <v>1504</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>1497</v>
+        <v>1505</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>1498</v>
+        <v>1506</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>1499</v>
+        <v>1507</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>1500</v>
+        <v>1508</v>
       </c>
       <c r="J30" s="13" t="s">
-        <v>1501</v>
+        <v>1509</v>
       </c>
       <c r="K30" s="13" t="s">
-        <v>1502</v>
+        <v>1510</v>
       </c>
       <c r="L30" s="13" t="s">
-        <v>1503</v>
+        <v>1511</v>
       </c>
       <c r="M30" s="13" t="s">
-        <v>1504</v>
+        <v>1512</v>
       </c>
       <c r="N30" s="13" t="s">
-        <v>1505</v>
+        <v>1513</v>
       </c>
       <c r="O30" s="13" t="s">
-        <v>1314</v>
+        <v>1322</v>
       </c>
       <c r="P30" s="13" t="s">
-        <v>1506</v>
+        <v>1514</v>
       </c>
       <c r="Q30" s="13" t="s">
-        <v>1507</v>
+        <v>1515</v>
       </c>
       <c r="R30" s="13" t="s">
-        <v>1508</v>
+        <v>1516</v>
       </c>
       <c r="S30" s="13" t="s">
-        <v>709</v>
+        <v>717</v>
       </c>
       <c r="T30" s="13" t="s">
-        <v>1509</v>
+        <v>1517</v>
       </c>
       <c r="U30" s="13" t="s">
-        <v>1510</v>
+        <v>1518</v>
       </c>
       <c r="V30" s="13" t="s">
-        <v>1511</v>
+        <v>1519</v>
       </c>
       <c r="W30" s="13" t="s">
-        <v>1512</v>
+        <v>1520</v>
       </c>
       <c r="X30" s="13" t="s">
-        <v>1513</v>
+        <v>1521</v>
       </c>
       <c r="Y30" s="13" t="s">
-        <v>1514</v>
+        <v>1522</v>
       </c>
       <c r="Z30" s="13" t="s">
-        <v>1515</v>
+        <v>1523</v>
       </c>
       <c r="AA30" s="13" t="s">
-        <v>1516</v>
+        <v>1524</v>
       </c>
       <c r="AB30" s="12" t="s">
-        <v>1517</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>708</v>
+        <v>716</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>868</v>
+        <v>876</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>1518</v>
+        <v>1526</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>1519</v>
+        <v>1527</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>1520</v>
+        <v>1528</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>1521</v>
+        <v>1529</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>1522</v>
+        <v>1530</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>1523</v>
+        <v>1531</v>
       </c>
       <c r="I31" s="13" t="s">
-        <v>1499</v>
+        <v>1507</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>709</v>
+        <v>717</v>
       </c>
       <c r="K31" s="13" t="s">
-        <v>1524</v>
+        <v>1532</v>
       </c>
       <c r="L31" s="13" t="s">
-        <v>1525</v>
+        <v>1533</v>
       </c>
       <c r="M31" s="13" t="s">
-        <v>1526</v>
+        <v>1534</v>
       </c>
       <c r="N31" s="13" t="s">
-        <v>1506</v>
+        <v>1514</v>
       </c>
       <c r="O31" s="13" t="s">
-        <v>1527</v>
+        <v>1535</v>
       </c>
       <c r="P31" s="13" t="s">
-        <v>1010</v>
+        <v>1018</v>
       </c>
       <c r="Q31" s="13" t="s">
-        <v>1528</v>
+        <v>1536</v>
       </c>
       <c r="R31" s="13" t="s">
-        <v>1529</v>
+        <v>1537</v>
       </c>
       <c r="S31" s="13" t="s">
-        <v>1530</v>
+        <v>1538</v>
       </c>
       <c r="T31" s="13" t="s">
-        <v>1531</v>
+        <v>1539</v>
       </c>
       <c r="U31" s="13" t="s">
-        <v>1532</v>
+        <v>1540</v>
       </c>
       <c r="V31" s="13" t="s">
-        <v>1533</v>
+        <v>1541</v>
       </c>
       <c r="W31" s="13" t="s">
-        <v>1534</v>
+        <v>1542</v>
       </c>
       <c r="X31" s="13" t="s">
-        <v>1535</v>
+        <v>1543</v>
       </c>
       <c r="Y31" s="13" t="s">
-        <v>1536</v>
+        <v>1544</v>
       </c>
       <c r="Z31" s="13" t="s">
-        <v>1440</v>
+        <v>1448</v>
       </c>
       <c r="AA31" s="13" t="s">
-        <v>1537</v>
+        <v>1545</v>
       </c>
       <c r="AB31" s="12" t="s">
-        <v>1538</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>716</v>
+        <v>724</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>721</v>
+        <v>729</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>719</v>
+        <v>727</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>1539</v>
+        <v>1547</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>720</v>
+        <v>728</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>1540</v>
+        <v>1548</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>1541</v>
+        <v>1549</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>1542</v>
+        <v>1550</v>
       </c>
       <c r="I32" s="13" t="s">
-        <v>1543</v>
+        <v>1551</v>
       </c>
       <c r="J32" s="13" t="s">
-        <v>1544</v>
+        <v>1552</v>
       </c>
       <c r="K32" s="13" t="s">
-        <v>1545</v>
+        <v>1553</v>
       </c>
       <c r="L32" s="13" t="s">
-        <v>1546</v>
+        <v>1554</v>
       </c>
       <c r="M32" s="13" t="s">
-        <v>1543</v>
+        <v>1551</v>
       </c>
       <c r="N32" s="13" t="s">
-        <v>1547</v>
+        <v>1555</v>
       </c>
       <c r="O32" s="13" t="s">
-        <v>1548</v>
+        <v>1556</v>
       </c>
       <c r="P32" s="13" t="s">
-        <v>1549</v>
+        <v>1557</v>
       </c>
       <c r="Q32" s="13" t="s">
-        <v>1547</v>
+        <v>1555</v>
       </c>
       <c r="R32" s="13" t="s">
-        <v>719</v>
+        <v>727</v>
       </c>
       <c r="S32" s="13" t="s">
-        <v>1548</v>
+        <v>1556</v>
       </c>
       <c r="T32" s="13" t="s">
-        <v>1550</v>
+        <v>1558</v>
       </c>
       <c r="U32" s="13" t="s">
-        <v>1551</v>
+        <v>1559</v>
       </c>
       <c r="V32" s="13" t="s">
-        <v>1552</v>
+        <v>1560</v>
       </c>
       <c r="W32" s="13" t="s">
-        <v>1551</v>
+        <v>1559</v>
       </c>
       <c r="X32" s="13" t="s">
-        <v>1553</v>
+        <v>1561</v>
       </c>
       <c r="Y32" s="13" t="s">
-        <v>1554</v>
+        <v>1562</v>
       </c>
       <c r="Z32" s="13" t="s">
-        <v>1547</v>
+        <v>1555</v>
       </c>
       <c r="AA32" s="13" t="s">
-        <v>717</v>
+        <v>725</v>
       </c>
       <c r="AB32" s="12" t="s">
-        <v>1555</v>
+        <v>1563</v>
       </c>
     </row>
   </sheetData>
@@ -13155,357 +13195,357 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>1556</v>
+        <v>1564</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1557</v>
+        <v>1565</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1558</v>
+        <v>1566</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>1559</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1560</v>
+        <v>1568</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1561</v>
+        <v>1569</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1562</v>
+        <v>1570</v>
       </c>
       <c r="D2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>1557</v>
+        <v>1565</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1563</v>
+        <v>1571</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>1564</v>
+        <v>1572</v>
       </c>
       <c r="D3" s="1"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>1558</v>
+        <v>1566</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1565</v>
+        <v>1573</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1566</v>
+        <v>1574</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>1567</v>
+        <v>1575</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1568</v>
+        <v>1576</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1569</v>
+        <v>1577</v>
       </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>1570</v>
+        <v>1578</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1571</v>
+        <v>1579</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1572</v>
+        <v>1580</v>
       </c>
       <c r="D6" s="1"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>1573</v>
+        <v>1581</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1574</v>
+        <v>1582</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1575</v>
+        <v>1583</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>1576</v>
+        <v>1584</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1577</v>
+        <v>1585</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>1578</v>
+        <v>1586</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>1579</v>
+        <v>1587</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1580</v>
+        <v>1588</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1581</v>
+        <v>1589</v>
       </c>
       <c r="D9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>1582</v>
+        <v>1590</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>1583</v>
+        <v>1591</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>1584</v>
+        <v>1592</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>1585</v>
+        <v>1593</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>1586</v>
+        <v>1594</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>1587</v>
+        <v>1595</v>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>1588</v>
+        <v>1596</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>1589</v>
+        <v>1597</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>1590</v>
+        <v>1598</v>
       </c>
       <c r="D12" s="1"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>1591</v>
+        <v>1599</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>1592</v>
+        <v>1600</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>1593</v>
+        <v>1601</v>
       </c>
       <c r="D13" s="1"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>1594</v>
+        <v>1602</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1595</v>
+        <v>1603</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>1596</v>
+        <v>1604</v>
       </c>
       <c r="D14" s="1"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>1597</v>
+        <v>1605</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>1598</v>
+        <v>1606</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>1599</v>
+        <v>1607</v>
       </c>
       <c r="D15" s="1"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>1600</v>
+        <v>1608</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>1601</v>
+        <v>1609</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>1602</v>
+        <v>1610</v>
       </c>
       <c r="D16" s="1"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>1603</v>
+        <v>1611</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>1604</v>
+        <v>1612</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>1605</v>
+        <v>1613</v>
       </c>
       <c r="D17" s="1"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>1606</v>
+        <v>1614</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>1607</v>
+        <v>1615</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>1608</v>
+        <v>1616</v>
       </c>
       <c r="D18" s="1"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>1609</v>
+        <v>1617</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>1610</v>
+        <v>1618</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>1611</v>
+        <v>1619</v>
       </c>
       <c r="D19" s="1"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>1612</v>
+        <v>1620</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>1613</v>
+        <v>1621</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>1614</v>
+        <v>1622</v>
       </c>
       <c r="D20" s="1"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>1615</v>
+        <v>1623</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>1616</v>
+        <v>1624</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>1617</v>
+        <v>1625</v>
       </c>
       <c r="D21" s="1"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>1618</v>
+        <v>1626</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>1619</v>
+        <v>1627</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>1620</v>
+        <v>1628</v>
       </c>
       <c r="D22" s="1"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>1621</v>
+        <v>1629</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>1622</v>
+        <v>1630</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>1623</v>
+        <v>1631</v>
       </c>
       <c r="D23" s="1"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>1624</v>
+        <v>1632</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>1625</v>
+        <v>1633</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>1626</v>
+        <v>1634</v>
       </c>
       <c r="D24" s="1"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>1627</v>
+        <v>1635</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>1628</v>
+        <v>1636</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>1629</v>
+        <v>1637</v>
       </c>
       <c r="D25" s="1"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>1630</v>
+        <v>1638</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>1631</v>
+        <v>1639</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>1632</v>
+        <v>1640</v>
       </c>
       <c r="D26" s="1"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>1633</v>
+        <v>1641</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>1634</v>
+        <v>1642</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>1635</v>
+        <v>1643</v>
       </c>
       <c r="D27" s="1"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>1636</v>
+        <v>1644</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>1637</v>
+        <v>1645</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>1638</v>
+        <v>1646</v>
       </c>
       <c r="D28" s="1"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>1639</v>
+        <v>1647</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>1640</v>
+        <v>1648</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>1641</v>
+        <v>1649</v>
       </c>
       <c r="D29" s="1"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>1642</v>
+        <v>1650</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -13513,7 +13553,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>1643</v>
+        <v>1651</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -13521,7 +13561,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>1644</v>
+        <v>1652</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -13529,7 +13569,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>1645</v>
+        <v>1653</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -13537,7 +13577,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>1646</v>
+        <v>1654</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>

--- a/archive/iceKnives32/iceKnives32.xlsx
+++ b/archive/iceKnives32/iceKnives32.xlsx
@@ -306,7 +306,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2419" uniqueCount="1655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2431" uniqueCount="1670">
   <si>
     <t>[packet]</t>
   </si>
@@ -1049,6 +1049,21 @@
     <t>script</t>
   </si>
   <si>
+    <t>brief</t>
+  </si>
+  <si>
+    <t>scope</t>
+  </si>
+  <si>
+    <t>portray</t>
+  </si>
+  <si>
+    <t>lag</t>
+  </si>
+  <si>
+    <t>'154'</t>
+  </si>
+  <si>
     <t>tag</t>
   </si>
   <si>
@@ -1058,6 +1073,21 @@
     <t>type</t>
   </si>
   <si>
+    <t>tube</t>
+  </si>
+  <si>
+    <t>hack</t>
+  </si>
+  <si>
+    <t>clear</t>
+  </si>
+  <si>
+    <t>fact</t>
+  </si>
+  <si>
+    <t>'103'</t>
+  </si>
+  <si>
     <t>zip</t>
   </si>
   <si>
@@ -1065,6 +1095,21 @@
   </si>
   <si>
     <t>stream</t>
+  </si>
+  <si>
+    <t>dice</t>
+  </si>
+  <si>
+    <t>dense</t>
+  </si>
+  <si>
+    <t>hang</t>
+  </si>
+  <si>
+    <t>party</t>
+  </si>
+  <si>
+    <t>'136'</t>
   </si>
   <si>
     <t>group</t>
@@ -6794,12 +6839,20 @@
       <c r="D16" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>250</v>
+      </c>
       <c r="I16" s="3" t="s">
-        <v>9</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17">
@@ -6807,20 +6860,28 @@
         <v>66</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>258</v>
+      </c>
       <c r="I17" s="3" t="s">
-        <v>9</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18">
@@ -6828,20 +6889,28 @@
         <v>70</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>266</v>
+      </c>
       <c r="I18" s="3" t="s">
-        <v>9</v>
+        <v>267</v>
       </c>
     </row>
     <row r="19">
@@ -6849,13 +6918,13 @@
         <v>74</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>254</v>
+        <v>269</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -6870,13 +6939,13 @@
         <v>78</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>256</v>
+        <v>271</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -6891,13 +6960,13 @@
         <v>82</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -6912,13 +6981,13 @@
         <v>86</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -6933,13 +7002,13 @@
         <v>90</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -6954,13 +7023,13 @@
         <v>94</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>270</v>
+        <v>285</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -6975,13 +7044,13 @@
         <v>98</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -6996,13 +7065,13 @@
         <v>102</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -7017,13 +7086,13 @@
         <v>106</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -7038,13 +7107,13 @@
         <v>110</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -7080,7 +7149,7 @@
         <v>35</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
     </row>
     <row r="30">
@@ -7088,13 +7157,13 @@
         <v>118</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>25</v>
@@ -7117,13 +7186,13 @@
         <v>119</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>287</v>
+        <v>302</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>288</v>
+        <v>303</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>25</v>
@@ -7146,13 +7215,13 @@
         <v>120</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>25</v>
@@ -7175,13 +7244,13 @@
         <v>121</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>25</v>
@@ -7262,13 +7331,13 @@
         <v>124</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>25</v>
@@ -7442,19 +7511,19 @@
         <v>137</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>138</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>134</v>
@@ -7465,28 +7534,28 @@
         <v>135</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -7509,7 +7578,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -7538,7 +7607,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>12</v>
@@ -7570,25 +7639,25 @@
         <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>9</v>
@@ -7599,25 +7668,25 @@
         <v>14</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>9</v>
@@ -7628,25 +7697,25 @@
         <v>18</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>9</v>
@@ -7657,25 +7726,25 @@
         <v>22</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>339</v>
+        <v>354</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>9</v>
@@ -7686,25 +7755,25 @@
         <v>26</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>342</v>
+        <v>357</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>344</v>
+        <v>359</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>9</v>
@@ -7715,25 +7784,25 @@
         <v>30</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>348</v>
+        <v>363</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>351</v>
+        <v>366</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>352</v>
+        <v>367</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>9</v>
@@ -7744,25 +7813,25 @@
         <v>34</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>356</v>
+        <v>371</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>357</v>
+        <v>372</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>358</v>
+        <v>373</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>359</v>
+        <v>374</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>9</v>
@@ -7773,25 +7842,25 @@
         <v>38</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>9</v>
@@ -7802,25 +7871,25 @@
         <v>42</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>9</v>
@@ -7831,25 +7900,25 @@
         <v>46</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>379</v>
+        <v>394</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>380</v>
+        <v>395</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>382</v>
+        <v>397</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>9</v>
@@ -7860,25 +7929,25 @@
         <v>50</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>383</v>
+        <v>398</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>384</v>
+        <v>399</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>385</v>
+        <v>400</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>386</v>
+        <v>401</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>387</v>
+        <v>402</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>9</v>
@@ -7889,25 +7958,25 @@
         <v>54</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>393</v>
+        <v>408</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>394</v>
+        <v>409</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>396</v>
+        <v>411</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>9</v>
@@ -7918,25 +7987,25 @@
         <v>58</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>398</v>
+        <v>413</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>401</v>
+        <v>416</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>402</v>
+        <v>417</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>403</v>
+        <v>418</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>9</v>
@@ -7947,25 +8016,25 @@
         <v>62</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>404</v>
+        <v>419</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>407</v>
+        <v>422</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>9</v>
@@ -7976,25 +8045,25 @@
         <v>66</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>412</v>
+        <v>427</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>413</v>
+        <v>428</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>414</v>
+        <v>429</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>415</v>
+        <v>430</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>416</v>
+        <v>431</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>9</v>
@@ -8005,25 +8074,25 @@
         <v>70</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>418</v>
+        <v>433</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>419</v>
+        <v>434</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>421</v>
+        <v>436</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>422</v>
+        <v>437</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>423</v>
+        <v>438</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>424</v>
+        <v>439</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>9</v>
@@ -8034,25 +8103,25 @@
         <v>74</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>426</v>
+        <v>441</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>427</v>
+        <v>442</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>428</v>
+        <v>443</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>429</v>
+        <v>444</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>430</v>
+        <v>445</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>9</v>
@@ -8063,25 +8132,25 @@
         <v>78</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>432</v>
+        <v>447</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>433</v>
+        <v>448</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>435</v>
+        <v>450</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>436</v>
+        <v>451</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>9</v>
@@ -8092,25 +8161,25 @@
         <v>82</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>439</v>
+        <v>454</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>441</v>
+        <v>456</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>442</v>
+        <v>457</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>443</v>
+        <v>458</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>9</v>
@@ -8121,25 +8190,25 @@
         <v>86</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>447</v>
+        <v>462</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>448</v>
+        <v>463</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>449</v>
+        <v>464</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>451</v>
+        <v>466</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>452</v>
+        <v>467</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>9</v>
@@ -8150,25 +8219,25 @@
         <v>90</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>453</v>
+        <v>468</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>454</v>
+        <v>469</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>455</v>
+        <v>470</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>456</v>
+        <v>471</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>457</v>
+        <v>472</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>458</v>
+        <v>473</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>459</v>
+        <v>474</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>9</v>
@@ -8179,25 +8248,25 @@
         <v>94</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>460</v>
+        <v>475</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>461</v>
+        <v>476</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>462</v>
+        <v>477</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>463</v>
+        <v>478</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>465</v>
+        <v>480</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>466</v>
+        <v>481</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>9</v>
@@ -8208,25 +8277,25 @@
         <v>98</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>467</v>
+        <v>482</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>468</v>
+        <v>483</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>469</v>
+        <v>484</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>470</v>
+        <v>485</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>471</v>
+        <v>486</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>472</v>
+        <v>487</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>473</v>
+        <v>488</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>9</v>
@@ -8237,25 +8306,25 @@
         <v>102</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>474</v>
+        <v>489</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>475</v>
+        <v>490</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>476</v>
+        <v>491</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>477</v>
+        <v>492</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>478</v>
+        <v>493</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>195</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>479</v>
+        <v>494</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>9</v>
@@ -8266,25 +8335,25 @@
         <v>106</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>480</v>
+        <v>495</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>481</v>
+        <v>496</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>482</v>
+        <v>497</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>483</v>
+        <v>498</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>484</v>
+        <v>499</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>485</v>
+        <v>500</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>486</v>
+        <v>501</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>9</v>
@@ -8295,25 +8364,25 @@
         <v>110</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>487</v>
+        <v>502</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>488</v>
+        <v>503</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>489</v>
+        <v>504</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>490</v>
+        <v>505</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>491</v>
+        <v>506</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>492</v>
+        <v>507</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>493</v>
+        <v>508</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>9</v>
@@ -8345,7 +8414,7 @@
         <v>35</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
     </row>
     <row r="30">
@@ -8519,7 +8588,7 @@
         <v>37</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>494</v>
+        <v>509</v>
       </c>
     </row>
     <row r="36">
@@ -8548,7 +8617,7 @@
         <v>37</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>495</v>
+        <v>510</v>
       </c>
     </row>
     <row r="37">
@@ -8693,7 +8762,7 @@
         <v>37</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>496</v>
+        <v>511</v>
       </c>
     </row>
     <row r="42">
@@ -8707,19 +8776,19 @@
         <v>137</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>138</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>134</v>
@@ -8730,28 +8799,28 @@
         <v>135</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -8776,834 +8845,834 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="7" t="s">
-        <v>497</v>
+        <v>512</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>498</v>
+        <v>513</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>499</v>
+        <v>514</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>500</v>
+        <v>515</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>501</v>
+        <v>516</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>502</v>
+        <v>517</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>503</v>
+        <v>518</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>504</v>
+        <v>519</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
-        <v>505</v>
+        <v>520</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>506</v>
+        <v>521</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>507</v>
+        <v>522</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>508</v>
+        <v>523</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>509</v>
+        <v>524</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>510</v>
+        <v>525</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>511</v>
+        <v>526</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>512</v>
+        <v>527</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="s">
-        <v>498</v>
+        <v>513</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>513</v>
+        <v>528</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>514</v>
+        <v>529</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>515</v>
+        <v>530</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>516</v>
+        <v>531</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>517</v>
+        <v>532</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>518</v>
+        <v>533</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>519</v>
+        <v>534</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="s">
-        <v>499</v>
+        <v>514</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>520</v>
+        <v>535</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>521</v>
+        <v>536</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>522</v>
+        <v>537</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>523</v>
+        <v>538</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>526</v>
+        <v>541</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
-        <v>500</v>
+        <v>515</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>527</v>
+        <v>542</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>528</v>
+        <v>543</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>529</v>
+        <v>544</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>530</v>
+        <v>545</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>531</v>
+        <v>546</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>532</v>
+        <v>547</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>533</v>
+        <v>548</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="7" t="s">
-        <v>501</v>
+        <v>516</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>534</v>
+        <v>549</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>535</v>
+        <v>550</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>536</v>
+        <v>551</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>537</v>
+        <v>552</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>539</v>
+        <v>554</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="7" t="s">
-        <v>502</v>
+        <v>517</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>541</v>
+        <v>556</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>542</v>
+        <v>557</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>359</v>
+        <v>374</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>543</v>
+        <v>558</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>544</v>
+        <v>559</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>545</v>
+        <v>560</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>546</v>
+        <v>561</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="7" t="s">
-        <v>503</v>
+        <v>518</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>548</v>
+        <v>563</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>64</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>549</v>
+        <v>564</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>550</v>
+        <v>565</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>551</v>
+        <v>566</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>552</v>
+        <v>567</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="7" t="s">
-        <v>553</v>
+        <v>568</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>554</v>
+        <v>569</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>555</v>
+        <v>570</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>556</v>
+        <v>571</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>557</v>
+        <v>572</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>558</v>
+        <v>573</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>559</v>
+        <v>574</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
-        <v>560</v>
+        <v>575</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>561</v>
+        <v>576</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>562</v>
+        <v>577</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>563</v>
+        <v>578</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>564</v>
+        <v>579</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>565</v>
+        <v>580</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>566</v>
+        <v>581</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>567</v>
+        <v>582</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>568</v>
+        <v>583</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>569</v>
+        <v>584</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>570</v>
+        <v>585</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>571</v>
+        <v>586</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>572</v>
+        <v>587</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>573</v>
+        <v>588</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>519</v>
+        <v>534</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="7" t="s">
-        <v>574</v>
+        <v>589</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>575</v>
+        <v>590</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>576</v>
+        <v>591</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>577</v>
+        <v>592</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>578</v>
+        <v>593</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>579</v>
+        <v>594</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>580</v>
+        <v>595</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>581</v>
+        <v>596</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>582</v>
+        <v>597</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>583</v>
+        <v>598</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>584</v>
+        <v>599</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>585</v>
+        <v>600</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>586</v>
+        <v>601</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>587</v>
+        <v>602</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>588</v>
+        <v>603</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="7" t="s">
-        <v>589</v>
+        <v>604</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>590</v>
+        <v>605</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>591</v>
+        <v>606</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>176</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>592</v>
+        <v>607</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>593</v>
+        <v>608</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>594</v>
+        <v>609</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>595</v>
+        <v>610</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="7" t="s">
-        <v>596</v>
+        <v>611</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>597</v>
+        <v>612</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>598</v>
+        <v>613</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>599</v>
+        <v>614</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>600</v>
+        <v>615</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>601</v>
+        <v>616</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>602</v>
+        <v>617</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>603</v>
+        <v>618</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="7" t="s">
-        <v>604</v>
+        <v>619</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>605</v>
+        <v>620</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>606</v>
+        <v>621</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>607</v>
+        <v>622</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>608</v>
+        <v>623</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>609</v>
+        <v>624</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>610</v>
+        <v>625</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>611</v>
+        <v>626</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="7" t="s">
-        <v>612</v>
+        <v>627</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>613</v>
+        <v>628</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>614</v>
+        <v>629</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>615</v>
+        <v>630</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>616</v>
+        <v>631</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>617</v>
+        <v>632</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>618</v>
+        <v>633</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>552</v>
+        <v>567</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="7" t="s">
-        <v>619</v>
+        <v>634</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>620</v>
+        <v>635</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>621</v>
+        <v>636</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>622</v>
+        <v>637</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>623</v>
+        <v>638</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>624</v>
+        <v>639</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>625</v>
+        <v>640</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>626</v>
+        <v>641</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
-        <v>627</v>
+        <v>642</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>628</v>
+        <v>643</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>629</v>
+        <v>644</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>630</v>
+        <v>645</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>631</v>
+        <v>646</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>632</v>
+        <v>647</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>633</v>
+        <v>648</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>634</v>
+        <v>649</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="7" t="s">
-        <v>635</v>
+        <v>650</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>636</v>
+        <v>651</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>637</v>
+        <v>652</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>638</v>
+        <v>653</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>639</v>
+        <v>654</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>640</v>
+        <v>655</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>641</v>
+        <v>656</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>552</v>
+        <v>567</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="7" t="s">
-        <v>642</v>
+        <v>657</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>643</v>
+        <v>658</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>644</v>
+        <v>659</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>645</v>
+        <v>660</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>646</v>
+        <v>661</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>647</v>
+        <v>662</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>648</v>
+        <v>663</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>649</v>
+        <v>664</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="7" t="s">
-        <v>650</v>
+        <v>665</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>651</v>
+        <v>666</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>652</v>
+        <v>667</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>653</v>
+        <v>668</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>654</v>
+        <v>669</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>655</v>
+        <v>670</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>656</v>
+        <v>671</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>657</v>
+        <v>672</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="7" t="s">
-        <v>658</v>
+        <v>673</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>659</v>
+        <v>674</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>660</v>
+        <v>675</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>661</v>
+        <v>676</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>662</v>
+        <v>677</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>663</v>
+        <v>678</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>664</v>
+        <v>679</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>665</v>
+        <v>680</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="7" t="s">
-        <v>666</v>
+        <v>681</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>667</v>
+        <v>682</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>668</v>
+        <v>683</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>669</v>
+        <v>684</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>670</v>
+        <v>685</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>671</v>
+        <v>686</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>672</v>
+        <v>687</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="7" t="s">
-        <v>673</v>
+        <v>688</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>674</v>
+        <v>689</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>675</v>
+        <v>690</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>676</v>
+        <v>691</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>677</v>
+        <v>692</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>678</v>
+        <v>693</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>679</v>
+        <v>694</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="7" t="s">
-        <v>680</v>
+        <v>695</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>681</v>
+        <v>696</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>682</v>
+        <v>697</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>683</v>
+        <v>698</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>684</v>
+        <v>699</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>685</v>
+        <v>700</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>686</v>
+        <v>701</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>687</v>
+        <v>702</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="7" t="s">
-        <v>688</v>
+        <v>703</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>689</v>
+        <v>704</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>690</v>
+        <v>705</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>691</v>
+        <v>706</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>692</v>
+        <v>707</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>693</v>
+        <v>708</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>694</v>
+        <v>709</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>552</v>
+        <v>567</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="7" t="s">
-        <v>695</v>
+        <v>710</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>696</v>
+        <v>711</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>697</v>
+        <v>712</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>698</v>
+        <v>713</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>699</v>
+        <v>714</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>700</v>
+        <v>715</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>657</v>
+        <v>672</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="7" t="s">
-        <v>701</v>
+        <v>716</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>702</v>
+        <v>717</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>703</v>
+        <v>718</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>704</v>
+        <v>719</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>705</v>
+        <v>720</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>706</v>
+        <v>721</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>707</v>
+        <v>722</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>708</v>
+        <v>723</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="7" t="s">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>709</v>
+        <v>724</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>710</v>
+        <v>725</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>711</v>
+        <v>726</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>712</v>
+        <v>727</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>713</v>
+        <v>728</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>714</v>
+        <v>729</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>715</v>
+        <v>730</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="7" t="s">
-        <v>716</v>
+        <v>731</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>717</v>
+        <v>732</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>718</v>
+        <v>733</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>719</v>
+        <v>734</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>720</v>
+        <v>735</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>721</v>
+        <v>736</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>722</v>
+        <v>737</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>723</v>
+        <v>738</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="7" t="s">
-        <v>724</v>
+        <v>739</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>725</v>
+        <v>740</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>726</v>
+        <v>741</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>727</v>
+        <v>742</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>728</v>
+        <v>743</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>729</v>
+        <v>744</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>730</v>
+        <v>745</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>731</v>
+        <v>746</v>
       </c>
     </row>
   </sheetData>
@@ -9630,774 +9699,774 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>732</v>
+        <v>747</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>498</v>
+        <v>513</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>499</v>
+        <v>514</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>500</v>
+        <v>515</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>501</v>
+        <v>516</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>502</v>
+        <v>517</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>503</v>
+        <v>518</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>553</v>
+        <v>568</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>504</v>
+        <v>519</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>733</v>
+        <v>748</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>734</v>
+        <v>749</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>735</v>
+        <v>750</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>736</v>
+        <v>751</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>737</v>
+        <v>752</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>738</v>
+        <v>753</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>739</v>
+        <v>754</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>740</v>
+        <v>755</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>498</v>
+        <v>513</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>741</v>
+        <v>756</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>742</v>
+        <v>757</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>743</v>
+        <v>758</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>499</v>
+        <v>514</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>745</v>
+        <v>760</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>746</v>
+        <v>761</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>747</v>
+        <v>762</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>500</v>
+        <v>515</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>748</v>
+        <v>763</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>749</v>
+        <v>764</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>750</v>
+        <v>765</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>501</v>
+        <v>516</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>751</v>
+        <v>766</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>752</v>
+        <v>767</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>753</v>
+        <v>768</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>502</v>
+        <v>517</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>754</v>
+        <v>769</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>755</v>
+        <v>770</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>756</v>
+        <v>771</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>503</v>
+        <v>518</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>757</v>
+        <v>772</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>758</v>
+        <v>773</v>
       </c>
       <c r="D8" s="5" t="s">
+        <v>774</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>759</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>744</v>
-      </c>
       <c r="F8" s="5" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>553</v>
+        <v>568</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>760</v>
+        <v>775</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>761</v>
+        <v>776</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>762</v>
+        <v>777</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>560</v>
+        <v>575</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>763</v>
+        <v>778</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>764</v>
+        <v>779</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>765</v>
+        <v>780</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>568</v>
+        <v>583</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>766</v>
+        <v>781</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>767</v>
+        <v>782</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>768</v>
+        <v>783</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>574</v>
+        <v>589</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>769</v>
+        <v>784</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>770</v>
+        <v>785</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>771</v>
+        <v>786</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>582</v>
+        <v>597</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>772</v>
+        <v>787</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>773</v>
+        <v>788</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>774</v>
+        <v>789</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>589</v>
+        <v>604</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>775</v>
+        <v>790</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>776</v>
+        <v>791</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>777</v>
+        <v>792</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>596</v>
+        <v>611</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>778</v>
+        <v>793</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>779</v>
+        <v>794</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>780</v>
+        <v>795</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>604</v>
+        <v>619</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>781</v>
+        <v>796</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>782</v>
+        <v>797</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>783</v>
+        <v>798</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>612</v>
+        <v>627</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>784</v>
+        <v>799</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>785</v>
+        <v>800</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>786</v>
+        <v>801</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>619</v>
+        <v>634</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>787</v>
+        <v>802</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>788</v>
+        <v>803</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>789</v>
+        <v>804</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>627</v>
+        <v>642</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>790</v>
+        <v>805</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>791</v>
+        <v>806</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>792</v>
+        <v>807</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>635</v>
+        <v>650</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>793</v>
+        <v>808</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>794</v>
+        <v>809</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>795</v>
+        <v>810</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>642</v>
+        <v>657</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>796</v>
+        <v>811</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>797</v>
+        <v>812</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>798</v>
+        <v>813</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>650</v>
+        <v>665</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>799</v>
+        <v>814</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>800</v>
+        <v>815</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>801</v>
+        <v>816</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>658</v>
+        <v>673</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>802</v>
+        <v>817</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>803</v>
+        <v>818</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>804</v>
+        <v>819</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>666</v>
+        <v>681</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>805</v>
+        <v>820</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>806</v>
+        <v>821</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>807</v>
+        <v>822</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>673</v>
+        <v>688</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>808</v>
+        <v>823</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>809</v>
+        <v>824</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>810</v>
+        <v>825</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>680</v>
+        <v>695</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>811</v>
+        <v>826</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>812</v>
+        <v>827</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>813</v>
+        <v>828</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>688</v>
+        <v>703</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>814</v>
+        <v>829</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>815</v>
+        <v>830</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>816</v>
+        <v>831</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>695</v>
+        <v>710</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>817</v>
+        <v>832</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>818</v>
+        <v>833</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>819</v>
+        <v>834</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>744</v>
+        <v>759</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>701</v>
+        <v>716</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>820</v>
+        <v>835</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>821</v>
+        <v>836</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>822</v>
+        <v>837</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>823</v>
+        <v>838</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>824</v>
+        <v>839</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>825</v>
+        <v>840</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>826</v>
+        <v>841</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>504</v>
+        <v>519</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>716</v>
+        <v>731</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>724</v>
+        <v>739</v>
       </c>
     </row>
   </sheetData>
@@ -10422,2754 +10491,2754 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>827</v>
+        <v>842</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>498</v>
+        <v>513</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>499</v>
+        <v>514</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>500</v>
+        <v>515</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>501</v>
+        <v>516</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>502</v>
+        <v>517</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>503</v>
+        <v>518</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>553</v>
+        <v>568</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>560</v>
+        <v>575</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>568</v>
+        <v>583</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>574</v>
+        <v>589</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>582</v>
+        <v>597</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>589</v>
+        <v>604</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>596</v>
+        <v>611</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>604</v>
+        <v>619</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>612</v>
+        <v>627</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>619</v>
+        <v>634</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>627</v>
+        <v>642</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>635</v>
+        <v>650</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>642</v>
+        <v>657</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>650</v>
+        <v>665</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>658</v>
+        <v>673</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>666</v>
+        <v>681</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>673</v>
+        <v>688</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>680</v>
+        <v>695</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>688</v>
+        <v>703</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>695</v>
+        <v>710</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>504</v>
+        <v>519</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>732</v>
+        <v>747</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>828</v>
+        <v>843</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>829</v>
+        <v>844</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>830</v>
+        <v>845</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>831</v>
+        <v>846</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>832</v>
+        <v>847</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>833</v>
+        <v>848</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>834</v>
+        <v>849</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>835</v>
+        <v>850</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>836</v>
+        <v>851</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>837</v>
+        <v>852</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>838</v>
+        <v>853</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>839</v>
+        <v>854</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>840</v>
+        <v>855</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>841</v>
+        <v>856</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>842</v>
+        <v>857</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>843</v>
+        <v>858</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>844</v>
+        <v>859</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>845</v>
+        <v>860</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>846</v>
+        <v>861</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>847</v>
+        <v>862</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>848</v>
+        <v>863</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>849</v>
+        <v>864</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>850</v>
+        <v>865</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>851</v>
+        <v>866</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>852</v>
+        <v>867</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>853</v>
+        <v>868</v>
       </c>
       <c r="AB2" s="12" t="s">
-        <v>854</v>
+        <v>869</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>498</v>
+        <v>513</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>855</v>
+        <v>870</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>856</v>
+        <v>871</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>857</v>
+        <v>872</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>858</v>
+        <v>873</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>859</v>
+        <v>874</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>860</v>
+        <v>875</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>861</v>
+        <v>876</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>862</v>
+        <v>877</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>592</v>
+        <v>607</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>863</v>
+        <v>878</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>864</v>
+        <v>879</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>865</v>
+        <v>880</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>866</v>
+        <v>881</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>575</v>
+        <v>590</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>668</v>
+        <v>683</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>867</v>
+        <v>882</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>868</v>
+        <v>883</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>869</v>
+        <v>884</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>870</v>
+        <v>885</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>871</v>
+        <v>886</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>872</v>
+        <v>887</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>873</v>
+        <v>888</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>874</v>
+        <v>889</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>614</v>
+        <v>629</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>875</v>
+        <v>890</v>
       </c>
       <c r="AA3" s="5" t="s">
-        <v>703</v>
+        <v>718</v>
       </c>
       <c r="AB3" s="12" t="s">
-        <v>876</v>
+        <v>891</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>499</v>
+        <v>514</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>877</v>
+        <v>892</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>878</v>
+        <v>893</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>879</v>
+        <v>894</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>880</v>
+        <v>895</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>881</v>
+        <v>896</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>558</v>
+        <v>573</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>882</v>
+        <v>897</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>883</v>
+        <v>898</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>624</v>
+        <v>639</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>884</v>
+        <v>899</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>885</v>
+        <v>900</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>886</v>
+        <v>901</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>887</v>
+        <v>902</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>888</v>
+        <v>903</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>889</v>
+        <v>904</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>890</v>
+        <v>905</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>608</v>
+        <v>623</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>891</v>
+        <v>906</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>892</v>
+        <v>907</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>893</v>
+        <v>908</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>894</v>
+        <v>909</v>
       </c>
       <c r="W4" s="5" t="s">
-        <v>895</v>
+        <v>910</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>896</v>
+        <v>911</v>
       </c>
       <c r="Y4" s="5" t="s">
-        <v>897</v>
+        <v>912</v>
       </c>
       <c r="Z4" s="5" t="s">
-        <v>898</v>
+        <v>913</v>
       </c>
       <c r="AA4" s="5" t="s">
-        <v>899</v>
+        <v>914</v>
       </c>
       <c r="AB4" s="12" t="s">
-        <v>900</v>
+        <v>915</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>500</v>
+        <v>515</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>901</v>
+        <v>916</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>902</v>
+        <v>917</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>903</v>
+        <v>918</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>904</v>
+        <v>919</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>905</v>
+        <v>920</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>906</v>
+        <v>921</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>676</v>
+        <v>691</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>907</v>
+        <v>922</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>908</v>
+        <v>923</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>909</v>
+        <v>924</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>686</v>
+        <v>701</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>516</v>
+        <v>531</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>910</v>
+        <v>925</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>911</v>
+        <v>926</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>912</v>
+        <v>927</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>913</v>
+        <v>928</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>914</v>
+        <v>929</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>915</v>
+        <v>930</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>916</v>
+        <v>931</v>
       </c>
       <c r="U5" s="5" t="s">
-        <v>917</v>
+        <v>932</v>
       </c>
       <c r="V5" s="5" t="s">
-        <v>534</v>
+        <v>549</v>
       </c>
       <c r="W5" s="5" t="s">
-        <v>918</v>
+        <v>933</v>
       </c>
       <c r="X5" s="5" t="s">
-        <v>919</v>
+        <v>934</v>
       </c>
       <c r="Y5" s="5" t="s">
-        <v>920</v>
+        <v>935</v>
       </c>
       <c r="Z5" s="5" t="s">
-        <v>921</v>
+        <v>936</v>
       </c>
       <c r="AA5" s="5" t="s">
-        <v>922</v>
+        <v>937</v>
       </c>
       <c r="AB5" s="12" t="s">
-        <v>923</v>
+        <v>938</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>501</v>
+        <v>516</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>924</v>
+        <v>939</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>925</v>
+        <v>940</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>926</v>
+        <v>941</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>927</v>
+        <v>942</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>928</v>
+        <v>943</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>929</v>
+        <v>944</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>930</v>
+        <v>945</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>931</v>
+        <v>946</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>932</v>
+        <v>947</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>933</v>
+        <v>948</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>934</v>
+        <v>949</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>935</v>
+        <v>950</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>936</v>
+        <v>951</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>605</v>
+        <v>620</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>937</v>
+        <v>952</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>938</v>
+        <v>953</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>939</v>
+        <v>954</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>940</v>
+        <v>955</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>941</v>
+        <v>956</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>942</v>
+        <v>957</v>
       </c>
       <c r="V6" s="5" t="s">
-        <v>943</v>
+        <v>958</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>944</v>
+        <v>959</v>
       </c>
       <c r="X6" s="5" t="s">
-        <v>945</v>
+        <v>960</v>
       </c>
       <c r="Y6" s="5" t="s">
-        <v>946</v>
+        <v>961</v>
       </c>
       <c r="Z6" s="5" t="s">
-        <v>947</v>
+        <v>962</v>
       </c>
       <c r="AA6" s="5" t="s">
-        <v>610</v>
+        <v>625</v>
       </c>
       <c r="AB6" s="12" t="s">
-        <v>948</v>
+        <v>963</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>502</v>
+        <v>517</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>949</v>
+        <v>964</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>950</v>
+        <v>965</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>951</v>
+        <v>966</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>952</v>
+        <v>967</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>953</v>
+        <v>968</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>954</v>
+        <v>969</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>667</v>
+        <v>682</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>955</v>
+        <v>970</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>956</v>
+        <v>971</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>587</v>
+        <v>602</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>957</v>
+        <v>972</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>579</v>
+        <v>594</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>693</v>
+        <v>708</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>958</v>
+        <v>973</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>959</v>
+        <v>974</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>697</v>
+        <v>712</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>960</v>
+        <v>975</v>
       </c>
       <c r="S7" s="5" t="s">
-        <v>961</v>
+        <v>976</v>
       </c>
       <c r="T7" s="5" t="s">
-        <v>531</v>
+        <v>546</v>
       </c>
       <c r="U7" s="5" t="s">
-        <v>962</v>
+        <v>977</v>
       </c>
       <c r="V7" s="5" t="s">
-        <v>963</v>
+        <v>978</v>
       </c>
       <c r="W7" s="5" t="s">
-        <v>964</v>
+        <v>979</v>
       </c>
       <c r="X7" s="5" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
       <c r="Y7" s="5" t="s">
-        <v>965</v>
+        <v>980</v>
       </c>
       <c r="Z7" s="5" t="s">
-        <v>966</v>
+        <v>981</v>
       </c>
       <c r="AA7" s="5" t="s">
-        <v>967</v>
+        <v>982</v>
       </c>
       <c r="AB7" s="12" t="s">
-        <v>968</v>
+        <v>983</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>503</v>
+        <v>518</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>969</v>
+        <v>984</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>970</v>
+        <v>985</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>971</v>
+        <v>986</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>972</v>
+        <v>987</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>973</v>
+        <v>988</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>974</v>
+        <v>989</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>975</v>
+        <v>990</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>976</v>
+        <v>991</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>977</v>
+        <v>992</v>
       </c>
       <c r="K8" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>993</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>994</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>995</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>996</v>
+      </c>
+      <c r="Q8" s="5" t="s">
         <v>572</v>
       </c>
-      <c r="L8" s="5" t="s">
-        <v>978</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>979</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>643</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>980</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>981</v>
-      </c>
-      <c r="Q8" s="5" t="s">
-        <v>557</v>
-      </c>
       <c r="R8" s="5" t="s">
-        <v>982</v>
+        <v>997</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>983</v>
+        <v>998</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>984</v>
+        <v>999</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>985</v>
+        <v>1000</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>986</v>
+        <v>1001</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>987</v>
+        <v>1002</v>
       </c>
       <c r="X8" s="5" t="s">
-        <v>988</v>
+        <v>1003</v>
       </c>
       <c r="Y8" s="5" t="s">
-        <v>989</v>
+        <v>1004</v>
       </c>
       <c r="Z8" s="5" t="s">
-        <v>990</v>
+        <v>1005</v>
       </c>
       <c r="AA8" s="5" t="s">
-        <v>991</v>
+        <v>1006</v>
       </c>
       <c r="AB8" s="12" t="s">
-        <v>992</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>553</v>
+        <v>568</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>993</v>
+        <v>1008</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>994</v>
+        <v>1009</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>995</v>
+        <v>1010</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>996</v>
+        <v>1011</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>997</v>
+        <v>1012</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>998</v>
+        <v>1013</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>999</v>
+        <v>1014</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>1000</v>
+        <v>1015</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>1001</v>
+        <v>1016</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>1002</v>
+        <v>1017</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>1003</v>
+        <v>1018</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>1004</v>
+        <v>1019</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>1005</v>
+        <v>1020</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>1006</v>
+        <v>1021</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>1007</v>
+        <v>1022</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>578</v>
+        <v>593</v>
       </c>
       <c r="R9" s="5" t="s">
-        <v>1008</v>
+        <v>1023</v>
       </c>
       <c r="S9" s="5" t="s">
-        <v>1009</v>
+        <v>1024</v>
       </c>
       <c r="T9" s="5" t="s">
-        <v>1010</v>
+        <v>1025</v>
       </c>
       <c r="U9" s="5" t="s">
-        <v>1011</v>
+        <v>1026</v>
       </c>
       <c r="V9" s="5" t="s">
-        <v>1012</v>
+        <v>1027</v>
       </c>
       <c r="W9" s="5" t="s">
-        <v>1013</v>
+        <v>1028</v>
       </c>
       <c r="X9" s="5" t="s">
-        <v>1014</v>
+        <v>1029</v>
       </c>
       <c r="Y9" s="5" t="s">
-        <v>1015</v>
+        <v>1030</v>
       </c>
       <c r="Z9" s="5" t="s">
-        <v>1016</v>
+        <v>1031</v>
       </c>
       <c r="AA9" s="5" t="s">
-        <v>1017</v>
+        <v>1032</v>
       </c>
       <c r="AB9" s="12" t="s">
-        <v>1018</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>560</v>
+        <v>575</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1019</v>
+        <v>1034</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>1020</v>
+        <v>1035</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>1021</v>
+        <v>1036</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>1022</v>
+        <v>1037</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>1023</v>
+        <v>1038</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>1024</v>
+        <v>1039</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>1025</v>
+        <v>1040</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>1026</v>
+        <v>1041</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>1027</v>
+        <v>1042</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>1028</v>
+        <v>1043</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>1029</v>
+        <v>1044</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>1030</v>
+        <v>1045</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>1031</v>
+        <v>1046</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>1032</v>
+        <v>1047</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>1033</v>
+        <v>1048</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>1034</v>
+        <v>1049</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>1035</v>
+        <v>1050</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>1036</v>
+        <v>1051</v>
       </c>
       <c r="T10" s="5" t="s">
-        <v>655</v>
+        <v>670</v>
       </c>
       <c r="U10" s="5" t="s">
-        <v>1037</v>
+        <v>1052</v>
       </c>
       <c r="V10" s="5" t="s">
-        <v>1038</v>
+        <v>1053</v>
       </c>
       <c r="W10" s="5" t="s">
-        <v>1039</v>
+        <v>1054</v>
       </c>
       <c r="X10" s="5" t="s">
-        <v>1040</v>
+        <v>1055</v>
       </c>
       <c r="Y10" s="5" t="s">
-        <v>1041</v>
+        <v>1056</v>
       </c>
       <c r="Z10" s="5" t="s">
-        <v>1042</v>
+        <v>1057</v>
       </c>
       <c r="AA10" s="5" t="s">
-        <v>1043</v>
+        <v>1058</v>
       </c>
       <c r="AB10" s="12" t="s">
-        <v>876</v>
+        <v>891</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>568</v>
+        <v>583</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1044</v>
+        <v>1059</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>1045</v>
+        <v>1060</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>1046</v>
+        <v>1061</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>1047</v>
+        <v>1062</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>1048</v>
+        <v>1063</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>1049</v>
+        <v>1064</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>1050</v>
+        <v>1065</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>1051</v>
+        <v>1066</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>1052</v>
+        <v>1067</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>1053</v>
+        <v>1068</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>654</v>
+        <v>669</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>1054</v>
+        <v>1069</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>1055</v>
+        <v>1070</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>1056</v>
+        <v>1071</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>1057</v>
+        <v>1072</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>1058</v>
+        <v>1073</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>1059</v>
+        <v>1074</v>
       </c>
       <c r="S11" s="5" t="s">
-        <v>1060</v>
+        <v>1075</v>
       </c>
       <c r="T11" s="5" t="s">
-        <v>1061</v>
+        <v>1076</v>
       </c>
       <c r="U11" s="5" t="s">
-        <v>1062</v>
+        <v>1077</v>
       </c>
       <c r="V11" s="5" t="s">
-        <v>1063</v>
+        <v>1078</v>
       </c>
       <c r="W11" s="5" t="s">
-        <v>1064</v>
+        <v>1079</v>
       </c>
       <c r="X11" s="5" t="s">
-        <v>1065</v>
+        <v>1080</v>
       </c>
       <c r="Y11" s="5" t="s">
-        <v>1066</v>
+        <v>1081</v>
       </c>
       <c r="Z11" s="5" t="s">
-        <v>1067</v>
+        <v>1082</v>
       </c>
       <c r="AA11" s="5" t="s">
-        <v>1068</v>
+        <v>1083</v>
       </c>
       <c r="AB11" s="12" t="s">
-        <v>900</v>
+        <v>915</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>574</v>
+        <v>589</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1069</v>
+        <v>1084</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>1070</v>
+        <v>1085</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>1071</v>
+        <v>1086</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>1072</v>
+        <v>1087</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>1073</v>
+        <v>1088</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>1074</v>
+        <v>1089</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>1075</v>
+        <v>1090</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>1076</v>
+        <v>1091</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>1077</v>
+        <v>1092</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>694</v>
+        <v>709</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>1078</v>
+        <v>1093</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>1079</v>
+        <v>1094</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>543</v>
+        <v>558</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>1080</v>
+        <v>1095</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>1081</v>
+        <v>1096</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>700</v>
+        <v>715</v>
       </c>
       <c r="R12" s="5" t="s">
-        <v>1082</v>
+        <v>1097</v>
       </c>
       <c r="S12" s="5" t="s">
-        <v>1083</v>
+        <v>1098</v>
       </c>
       <c r="T12" s="5" t="s">
-        <v>1084</v>
+        <v>1099</v>
       </c>
       <c r="U12" s="5" t="s">
-        <v>1085</v>
+        <v>1100</v>
       </c>
       <c r="V12" s="5" t="s">
-        <v>1086</v>
+        <v>1101</v>
       </c>
       <c r="W12" s="5" t="s">
-        <v>1087</v>
+        <v>1102</v>
       </c>
       <c r="X12" s="5" t="s">
-        <v>1088</v>
+        <v>1103</v>
       </c>
       <c r="Y12" s="5" t="s">
-        <v>1089</v>
+        <v>1104</v>
       </c>
       <c r="Z12" s="5" t="s">
-        <v>1090</v>
+        <v>1105</v>
       </c>
       <c r="AA12" s="5" t="s">
-        <v>1091</v>
+        <v>1106</v>
       </c>
       <c r="AB12" s="12" t="s">
-        <v>1092</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>582</v>
+        <v>597</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1093</v>
+        <v>1108</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>1094</v>
+        <v>1109</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>1095</v>
+        <v>1110</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>1096</v>
+        <v>1111</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>1097</v>
+        <v>1112</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>1098</v>
+        <v>1113</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>1099</v>
+        <v>1114</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>1100</v>
+        <v>1115</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>1101</v>
+        <v>1116</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>616</v>
+        <v>631</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>1102</v>
+        <v>1117</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>1103</v>
+        <v>1118</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>1104</v>
+        <v>1119</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>1105</v>
+        <v>1120</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>1106</v>
+        <v>1121</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>1107</v>
+        <v>1122</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>1108</v>
+        <v>1123</v>
       </c>
       <c r="S13" s="5" t="s">
-        <v>561</v>
+        <v>576</v>
       </c>
       <c r="T13" s="5" t="s">
-        <v>1109</v>
+        <v>1124</v>
       </c>
       <c r="U13" s="5" t="s">
-        <v>1110</v>
+        <v>1125</v>
       </c>
       <c r="V13" s="5" t="s">
-        <v>1111</v>
+        <v>1126</v>
       </c>
       <c r="W13" s="5" t="s">
-        <v>1112</v>
+        <v>1127</v>
       </c>
       <c r="X13" s="5" t="s">
-        <v>1113</v>
+        <v>1128</v>
       </c>
       <c r="Y13" s="5" t="s">
-        <v>1114</v>
+        <v>1129</v>
       </c>
       <c r="Z13" s="5" t="s">
-        <v>1115</v>
+        <v>1130</v>
       </c>
       <c r="AA13" s="5" t="s">
-        <v>1116</v>
+        <v>1131</v>
       </c>
       <c r="AB13" s="12" t="s">
-        <v>1117</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>589</v>
+        <v>604</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1118</v>
+        <v>1133</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>1119</v>
+        <v>1134</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>1120</v>
+        <v>1135</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>1121</v>
+        <v>1136</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>1122</v>
+        <v>1137</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>1123</v>
+        <v>1138</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>1124</v>
+        <v>1139</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>633</v>
+        <v>648</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>689</v>
+        <v>704</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>1125</v>
+        <v>1140</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>1126</v>
+        <v>1141</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>1127</v>
+        <v>1142</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>1128</v>
+        <v>1143</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>613</v>
+        <v>628</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>696</v>
+        <v>711</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>1129</v>
+        <v>1144</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>1130</v>
+        <v>1145</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>1131</v>
+        <v>1146</v>
       </c>
       <c r="T14" s="5" t="s">
-        <v>1132</v>
+        <v>1147</v>
       </c>
       <c r="U14" s="5" t="s">
-        <v>1133</v>
+        <v>1148</v>
       </c>
       <c r="V14" s="5" t="s">
-        <v>1134</v>
+        <v>1149</v>
       </c>
       <c r="W14" s="5" t="s">
-        <v>1135</v>
+        <v>1150</v>
       </c>
       <c r="X14" s="5" t="s">
-        <v>1136</v>
+        <v>1151</v>
       </c>
       <c r="Y14" s="5" t="s">
-        <v>1137</v>
+        <v>1152</v>
       </c>
       <c r="Z14" s="5" t="s">
-        <v>1138</v>
+        <v>1153</v>
       </c>
       <c r="AA14" s="5" t="s">
-        <v>1139</v>
+        <v>1154</v>
       </c>
       <c r="AB14" s="12" t="s">
-        <v>710</v>
+        <v>725</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>596</v>
+        <v>611</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>1140</v>
+        <v>1155</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>1141</v>
+        <v>1156</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>1142</v>
+        <v>1157</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>1143</v>
+        <v>1158</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>518</v>
+        <v>533</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>1144</v>
+        <v>1159</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>1145</v>
+        <v>1160</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>1146</v>
+        <v>1161</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>632</v>
+        <v>647</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>1147</v>
+        <v>1162</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>1148</v>
+        <v>1163</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>637</v>
+        <v>652</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>1149</v>
+        <v>1164</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>609</v>
+        <v>624</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>1150</v>
+        <v>1165</v>
       </c>
       <c r="R15" s="5" t="s">
-        <v>1151</v>
+        <v>1166</v>
       </c>
       <c r="S15" s="5" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
       <c r="T15" s="5" t="s">
-        <v>1152</v>
+        <v>1167</v>
       </c>
       <c r="U15" s="5" t="s">
-        <v>1153</v>
+        <v>1168</v>
       </c>
       <c r="V15" s="5" t="s">
-        <v>1154</v>
+        <v>1169</v>
       </c>
       <c r="W15" s="5" t="s">
-        <v>1155</v>
+        <v>1170</v>
       </c>
       <c r="X15" s="5" t="s">
-        <v>1156</v>
+        <v>1171</v>
       </c>
       <c r="Y15" s="5" t="s">
-        <v>1157</v>
+        <v>1172</v>
       </c>
       <c r="Z15" s="5" t="s">
-        <v>1158</v>
+        <v>1173</v>
       </c>
       <c r="AA15" s="5" t="s">
-        <v>621</v>
+        <v>636</v>
       </c>
       <c r="AB15" s="12" t="s">
-        <v>1159</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>604</v>
+        <v>619</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>1160</v>
+        <v>1175</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>1161</v>
+        <v>1176</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>1162</v>
+        <v>1177</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>1163</v>
+        <v>1178</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>1164</v>
+        <v>1179</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>1165</v>
+        <v>1180</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>1166</v>
+        <v>1181</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>1167</v>
+        <v>1182</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>1168</v>
+        <v>1183</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>1169</v>
+        <v>1184</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>1170</v>
+        <v>1185</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>1171</v>
+        <v>1186</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>1172</v>
+        <v>1187</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>551</v>
+        <v>566</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>1173</v>
+        <v>1188</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>1174</v>
+        <v>1189</v>
       </c>
       <c r="R16" s="5" t="s">
-        <v>1175</v>
+        <v>1190</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>1176</v>
+        <v>1191</v>
       </c>
       <c r="T16" s="5" t="s">
-        <v>1177</v>
+        <v>1192</v>
       </c>
       <c r="U16" s="5" t="s">
-        <v>1178</v>
+        <v>1193</v>
       </c>
       <c r="V16" s="5" t="s">
-        <v>1179</v>
+        <v>1194</v>
       </c>
       <c r="W16" s="5" t="s">
-        <v>1180</v>
+        <v>1195</v>
       </c>
       <c r="X16" s="5" t="s">
-        <v>1181</v>
+        <v>1196</v>
       </c>
       <c r="Y16" s="5" t="s">
-        <v>1182</v>
+        <v>1197</v>
       </c>
       <c r="Z16" s="5" t="s">
-        <v>1183</v>
+        <v>1198</v>
       </c>
       <c r="AA16" s="5" t="s">
-        <v>1184</v>
+        <v>1199</v>
       </c>
       <c r="AB16" s="12" t="s">
-        <v>717</v>
+        <v>732</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>612</v>
+        <v>627</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1185</v>
+        <v>1200</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>1186</v>
+        <v>1201</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>1187</v>
+        <v>1202</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>1188</v>
+        <v>1203</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>1189</v>
+        <v>1204</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>1190</v>
+        <v>1205</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>1191</v>
+        <v>1206</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>1192</v>
+        <v>1207</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>601</v>
+        <v>616</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>656</v>
+        <v>671</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>1193</v>
+        <v>1208</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>1194</v>
+        <v>1209</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>1195</v>
+        <v>1210</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>1196</v>
+        <v>1211</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>1197</v>
+        <v>1212</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>1198</v>
+        <v>1213</v>
       </c>
       <c r="R17" s="5" t="s">
-        <v>692</v>
+        <v>707</v>
       </c>
       <c r="S17" s="5" t="s">
-        <v>1199</v>
+        <v>1214</v>
       </c>
       <c r="T17" s="5" t="s">
-        <v>1200</v>
+        <v>1215</v>
       </c>
       <c r="U17" s="5" t="s">
-        <v>1201</v>
+        <v>1216</v>
       </c>
       <c r="V17" s="5" t="s">
-        <v>1202</v>
+        <v>1217</v>
       </c>
       <c r="W17" s="5" t="s">
-        <v>1203</v>
+        <v>1218</v>
       </c>
       <c r="X17" s="5" t="s">
-        <v>1204</v>
+        <v>1219</v>
       </c>
       <c r="Y17" s="5" t="s">
-        <v>671</v>
+        <v>686</v>
       </c>
       <c r="Z17" s="5" t="s">
-        <v>1205</v>
+        <v>1220</v>
       </c>
       <c r="AA17" s="5" t="s">
-        <v>1206</v>
+        <v>1221</v>
       </c>
       <c r="AB17" s="12" t="s">
-        <v>719</v>
+        <v>734</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>619</v>
+        <v>634</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>1207</v>
+        <v>1222</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>1208</v>
+        <v>1223</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>1209</v>
+        <v>1224</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>1210</v>
+        <v>1225</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>648</v>
+        <v>663</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>586</v>
+        <v>601</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>1211</v>
+        <v>1226</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>1212</v>
+        <v>1227</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>1213</v>
+        <v>1228</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>1214</v>
+        <v>1229</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>1215</v>
+        <v>1230</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>590</v>
+        <v>605</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>1216</v>
+        <v>1231</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>1217</v>
+        <v>1232</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>1218</v>
+        <v>1233</v>
       </c>
       <c r="Q18" s="5" t="s">
-        <v>1219</v>
+        <v>1234</v>
       </c>
       <c r="R18" s="5" t="s">
-        <v>1220</v>
+        <v>1235</v>
       </c>
       <c r="S18" s="5" t="s">
-        <v>660</v>
+        <v>675</v>
       </c>
       <c r="T18" s="5" t="s">
-        <v>1221</v>
+        <v>1236</v>
       </c>
       <c r="U18" s="5" t="s">
-        <v>1222</v>
+        <v>1237</v>
       </c>
       <c r="V18" s="5" t="s">
-        <v>1223</v>
+        <v>1238</v>
       </c>
       <c r="W18" s="5" t="s">
-        <v>1224</v>
+        <v>1239</v>
       </c>
       <c r="X18" s="5" t="s">
-        <v>1225</v>
+        <v>1240</v>
       </c>
       <c r="Y18" s="5" t="s">
-        <v>1226</v>
+        <v>1241</v>
       </c>
       <c r="Z18" s="5" t="s">
-        <v>1227</v>
+        <v>1242</v>
       </c>
       <c r="AA18" s="5" t="s">
-        <v>1228</v>
+        <v>1243</v>
       </c>
       <c r="AB18" s="12" t="s">
-        <v>968</v>
+        <v>983</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>627</v>
+        <v>642</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>1229</v>
+        <v>1244</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>1230</v>
+        <v>1245</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>1231</v>
+        <v>1246</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>1232</v>
+        <v>1247</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>1233</v>
+        <v>1248</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>1234</v>
+        <v>1249</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>1235</v>
+        <v>1250</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>620</v>
+        <v>635</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>1236</v>
+        <v>1251</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>602</v>
+        <v>617</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>569</v>
+        <v>584</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>1237</v>
+        <v>1252</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>594</v>
+        <v>609</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>1238</v>
+        <v>1253</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>1239</v>
+        <v>1254</v>
       </c>
       <c r="Q19" s="5" t="s">
-        <v>1240</v>
+        <v>1255</v>
       </c>
       <c r="R19" s="5" t="s">
-        <v>1241</v>
+        <v>1256</v>
       </c>
       <c r="S19" s="5" t="s">
-        <v>1242</v>
+        <v>1257</v>
       </c>
       <c r="T19" s="5" t="s">
-        <v>1243</v>
+        <v>1258</v>
       </c>
       <c r="U19" s="5" t="s">
-        <v>1244</v>
+        <v>1259</v>
       </c>
       <c r="V19" s="5" t="s">
-        <v>1245</v>
+        <v>1260</v>
       </c>
       <c r="W19" s="5" t="s">
-        <v>1246</v>
+        <v>1261</v>
       </c>
       <c r="X19" s="5" t="s">
-        <v>1247</v>
+        <v>1262</v>
       </c>
       <c r="Y19" s="5" t="s">
-        <v>1248</v>
+        <v>1263</v>
       </c>
       <c r="Z19" s="5" t="s">
-        <v>1249</v>
+        <v>1264</v>
       </c>
       <c r="AA19" s="5" t="s">
-        <v>1250</v>
+        <v>1265</v>
       </c>
       <c r="AB19" s="12" t="s">
-        <v>1251</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>635</v>
+        <v>650</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1252</v>
+        <v>1267</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>1253</v>
+        <v>1268</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>1254</v>
+        <v>1269</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>1255</v>
+        <v>1270</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>1256</v>
+        <v>1271</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>1257</v>
+        <v>1272</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>1258</v>
+        <v>1273</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>1259</v>
+        <v>1274</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>699</v>
+        <v>714</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>555</v>
+        <v>570</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>1260</v>
+        <v>1275</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>1261</v>
+        <v>1276</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>1262</v>
+        <v>1277</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>1263</v>
+        <v>1278</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>1264</v>
+        <v>1279</v>
       </c>
       <c r="Q20" s="5" t="s">
-        <v>1265</v>
+        <v>1280</v>
       </c>
       <c r="R20" s="5" t="s">
-        <v>1266</v>
+        <v>1281</v>
       </c>
       <c r="S20" s="5" t="s">
-        <v>1267</v>
+        <v>1282</v>
       </c>
       <c r="T20" s="5" t="s">
-        <v>1268</v>
+        <v>1283</v>
       </c>
       <c r="U20" s="5" t="s">
-        <v>1269</v>
+        <v>1284</v>
       </c>
       <c r="V20" s="5" t="s">
-        <v>1270</v>
+        <v>1285</v>
       </c>
       <c r="W20" s="5" t="s">
-        <v>1271</v>
+        <v>1286</v>
       </c>
       <c r="X20" s="5" t="s">
-        <v>532</v>
+        <v>547</v>
       </c>
       <c r="Y20" s="5" t="s">
-        <v>1272</v>
+        <v>1287</v>
       </c>
       <c r="Z20" s="5" t="s">
-        <v>1273</v>
+        <v>1288</v>
       </c>
       <c r="AA20" s="5" t="s">
-        <v>1274</v>
+        <v>1289</v>
       </c>
       <c r="AB20" s="12" t="s">
-        <v>1275</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>642</v>
+        <v>657</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>1276</v>
+        <v>1291</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>1277</v>
+        <v>1292</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>1278</v>
+        <v>1293</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>1279</v>
+        <v>1294</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>1280</v>
+        <v>1295</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>675</v>
+        <v>690</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>1281</v>
+        <v>1296</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>1282</v>
+        <v>1297</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>1283</v>
+        <v>1298</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>1284</v>
+        <v>1299</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>1285</v>
+        <v>1300</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>705</v>
+        <v>720</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>1286</v>
+        <v>1301</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>1287</v>
+        <v>1302</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>1288</v>
+        <v>1303</v>
       </c>
       <c r="Q21" s="5" t="s">
-        <v>1289</v>
+        <v>1304</v>
       </c>
       <c r="R21" s="5" t="s">
-        <v>1290</v>
+        <v>1305</v>
       </c>
       <c r="S21" s="5" t="s">
-        <v>1291</v>
+        <v>1306</v>
       </c>
       <c r="T21" s="5" t="s">
-        <v>1292</v>
+        <v>1307</v>
       </c>
       <c r="U21" s="5" t="s">
-        <v>1293</v>
+        <v>1308</v>
       </c>
       <c r="V21" s="5" t="s">
-        <v>1294</v>
+        <v>1309</v>
       </c>
       <c r="W21" s="5" t="s">
-        <v>1295</v>
+        <v>1310</v>
       </c>
       <c r="X21" s="5" t="s">
-        <v>1296</v>
+        <v>1311</v>
       </c>
       <c r="Y21" s="5" t="s">
-        <v>1297</v>
+        <v>1312</v>
       </c>
       <c r="Z21" s="5" t="s">
-        <v>1298</v>
+        <v>1313</v>
       </c>
       <c r="AA21" s="5" t="s">
-        <v>506</v>
+        <v>521</v>
       </c>
       <c r="AB21" s="12" t="s">
-        <v>711</v>
+        <v>726</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>650</v>
+        <v>665</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>1299</v>
+        <v>1314</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>1300</v>
+        <v>1315</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>1301</v>
+        <v>1316</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>1302</v>
+        <v>1317</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>1303</v>
+        <v>1318</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>1304</v>
+        <v>1319</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>1305</v>
+        <v>1320</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>1306</v>
+        <v>1321</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>1307</v>
+        <v>1322</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>1308</v>
+        <v>1323</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>1309</v>
+        <v>1324</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>1310</v>
+        <v>1325</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>677</v>
+        <v>692</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>537</v>
+        <v>552</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>1311</v>
+        <v>1326</v>
       </c>
       <c r="Q22" s="5" t="s">
-        <v>1312</v>
+        <v>1327</v>
       </c>
       <c r="R22" s="5" t="s">
-        <v>1313</v>
+        <v>1328</v>
       </c>
       <c r="S22" s="5" t="s">
-        <v>1314</v>
+        <v>1329</v>
       </c>
       <c r="T22" s="5" t="s">
-        <v>1315</v>
+        <v>1330</v>
       </c>
       <c r="U22" s="5" t="s">
-        <v>1316</v>
+        <v>1331</v>
       </c>
       <c r="V22" s="5" t="s">
-        <v>1317</v>
+        <v>1332</v>
       </c>
       <c r="W22" s="5" t="s">
-        <v>1318</v>
+        <v>1333</v>
       </c>
       <c r="X22" s="5" t="s">
-        <v>1319</v>
+        <v>1334</v>
       </c>
       <c r="Y22" s="5" t="s">
-        <v>1320</v>
+        <v>1335</v>
       </c>
       <c r="Z22" s="5" t="s">
-        <v>682</v>
+        <v>697</v>
       </c>
       <c r="AA22" s="5" t="s">
-        <v>1321</v>
+        <v>1336</v>
       </c>
       <c r="AB22" s="12" t="s">
-        <v>1322</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>658</v>
+        <v>673</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>1323</v>
+        <v>1338</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>1324</v>
+        <v>1339</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>1325</v>
+        <v>1340</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>1326</v>
+        <v>1341</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>1327</v>
+        <v>1342</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>1328</v>
+        <v>1343</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>1329</v>
+        <v>1344</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>1330</v>
+        <v>1345</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>1331</v>
+        <v>1346</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>1332</v>
+        <v>1347</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>1333</v>
+        <v>1348</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>1334</v>
+        <v>1349</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>1335</v>
+        <v>1350</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>1336</v>
+        <v>1351</v>
       </c>
       <c r="P23" s="5" t="s">
-        <v>1337</v>
+        <v>1352</v>
       </c>
       <c r="Q23" s="5" t="s">
-        <v>1338</v>
+        <v>1353</v>
       </c>
       <c r="R23" s="5" t="s">
-        <v>1339</v>
+        <v>1354</v>
       </c>
       <c r="S23" s="5" t="s">
-        <v>1340</v>
+        <v>1355</v>
       </c>
       <c r="T23" s="5" t="s">
-        <v>1341</v>
+        <v>1356</v>
       </c>
       <c r="U23" s="5" t="s">
-        <v>1342</v>
+        <v>1357</v>
       </c>
       <c r="V23" s="5" t="s">
-        <v>684</v>
+        <v>699</v>
       </c>
       <c r="W23" s="5" t="s">
-        <v>1343</v>
+        <v>1358</v>
       </c>
       <c r="X23" s="5" t="s">
-        <v>1344</v>
+        <v>1359</v>
       </c>
       <c r="Y23" s="5" t="s">
-        <v>1345</v>
+        <v>1360</v>
       </c>
       <c r="Z23" s="5" t="s">
-        <v>1346</v>
+        <v>1361</v>
       </c>
       <c r="AA23" s="5" t="s">
-        <v>1347</v>
+        <v>1362</v>
       </c>
       <c r="AB23" s="12" t="s">
-        <v>1348</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>666</v>
+        <v>681</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>1349</v>
+        <v>1364</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>1350</v>
+        <v>1365</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>1351</v>
+        <v>1366</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>1352</v>
+        <v>1367</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>1353</v>
+        <v>1368</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>1354</v>
+        <v>1369</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>625</v>
+        <v>640</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>1355</v>
+        <v>1370</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>1356</v>
+        <v>1371</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>1357</v>
+        <v>1372</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>1358</v>
+        <v>1373</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>1359</v>
+        <v>1374</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>1360</v>
+        <v>1375</v>
       </c>
       <c r="O24" s="5" t="s">
-        <v>1361</v>
+        <v>1376</v>
       </c>
       <c r="P24" s="5" t="s">
-        <v>1362</v>
+        <v>1377</v>
       </c>
       <c r="Q24" s="5" t="s">
-        <v>1363</v>
+        <v>1378</v>
       </c>
       <c r="R24" s="5" t="s">
-        <v>1364</v>
+        <v>1379</v>
       </c>
       <c r="S24" s="5" t="s">
-        <v>1365</v>
+        <v>1380</v>
       </c>
       <c r="T24" s="5" t="s">
-        <v>1366</v>
+        <v>1381</v>
       </c>
       <c r="U24" s="5" t="s">
-        <v>1367</v>
+        <v>1382</v>
       </c>
       <c r="V24" s="5" t="s">
-        <v>1368</v>
+        <v>1383</v>
       </c>
       <c r="W24" s="5" t="s">
-        <v>1369</v>
+        <v>1384</v>
       </c>
       <c r="X24" s="5" t="s">
-        <v>1370</v>
+        <v>1385</v>
       </c>
       <c r="Y24" s="5" t="s">
-        <v>1371</v>
+        <v>1386</v>
       </c>
       <c r="Z24" s="5" t="s">
-        <v>1372</v>
+        <v>1387</v>
       </c>
       <c r="AA24" s="5" t="s">
-        <v>1373</v>
+        <v>1388</v>
       </c>
       <c r="AB24" s="12" t="s">
-        <v>1374</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>673</v>
+        <v>688</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>1375</v>
+        <v>1390</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>1376</v>
+        <v>1391</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>1377</v>
+        <v>1392</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>1378</v>
+        <v>1393</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>1379</v>
+        <v>1394</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>1380</v>
+        <v>1395</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>1381</v>
+        <v>1396</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>1382</v>
+        <v>1397</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>1383</v>
+        <v>1398</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>1384</v>
+        <v>1399</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>1385</v>
+        <v>1400</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>1386</v>
+        <v>1401</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>1387</v>
+        <v>1402</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>1388</v>
+        <v>1403</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>1389</v>
+        <v>1404</v>
       </c>
       <c r="Q25" s="5" t="s">
-        <v>618</v>
+        <v>633</v>
       </c>
       <c r="R25" s="5" t="s">
-        <v>1390</v>
+        <v>1405</v>
       </c>
       <c r="S25" s="5" t="s">
-        <v>1391</v>
+        <v>1406</v>
       </c>
       <c r="T25" s="5" t="s">
-        <v>571</v>
+        <v>586</v>
       </c>
       <c r="U25" s="5" t="s">
-        <v>1392</v>
+        <v>1407</v>
       </c>
       <c r="V25" s="5" t="s">
-        <v>1393</v>
+        <v>1408</v>
       </c>
       <c r="W25" s="5" t="s">
-        <v>1394</v>
+        <v>1409</v>
       </c>
       <c r="X25" s="5" t="s">
-        <v>1395</v>
+        <v>1410</v>
       </c>
       <c r="Y25" s="5" t="s">
-        <v>1396</v>
+        <v>1411</v>
       </c>
       <c r="Z25" s="5" t="s">
-        <v>1397</v>
+        <v>1412</v>
       </c>
       <c r="AA25" s="5" t="s">
-        <v>1398</v>
+        <v>1413</v>
       </c>
       <c r="AB25" s="12" t="s">
-        <v>1018</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>680</v>
+        <v>695</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>1399</v>
+        <v>1414</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>1400</v>
+        <v>1415</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>1401</v>
+        <v>1416</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>1402</v>
+        <v>1417</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>1403</v>
+        <v>1418</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>1404</v>
+        <v>1419</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>1405</v>
+        <v>1420</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>1406</v>
+        <v>1421</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>1407</v>
+        <v>1422</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>1408</v>
+        <v>1423</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>1409</v>
+        <v>1424</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>542</v>
+        <v>557</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>1410</v>
+        <v>1425</v>
       </c>
       <c r="O26" s="5" t="s">
-        <v>663</v>
+        <v>678</v>
       </c>
       <c r="P26" s="5" t="s">
-        <v>1411</v>
+        <v>1426</v>
       </c>
       <c r="Q26" s="5" t="s">
-        <v>706</v>
+        <v>721</v>
       </c>
       <c r="R26" s="5" t="s">
-        <v>1412</v>
+        <v>1427</v>
       </c>
       <c r="S26" s="5" t="s">
-        <v>1413</v>
+        <v>1428</v>
       </c>
       <c r="T26" s="5" t="s">
-        <v>1414</v>
+        <v>1429</v>
       </c>
       <c r="U26" s="5" t="s">
-        <v>1415</v>
+        <v>1430</v>
       </c>
       <c r="V26" s="5" t="s">
-        <v>1416</v>
+        <v>1431</v>
       </c>
       <c r="W26" s="5" t="s">
-        <v>1417</v>
+        <v>1432</v>
       </c>
       <c r="X26" s="5" t="s">
-        <v>1418</v>
+        <v>1433</v>
       </c>
       <c r="Y26" s="5" t="s">
-        <v>1419</v>
+        <v>1434</v>
       </c>
       <c r="Z26" s="5" t="s">
-        <v>1420</v>
+        <v>1435</v>
       </c>
       <c r="AA26" s="5" t="s">
-        <v>1421</v>
+        <v>1436</v>
       </c>
       <c r="AB26" s="12" t="s">
-        <v>1422</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>688</v>
+        <v>703</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>1423</v>
+        <v>1438</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>1424</v>
+        <v>1439</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>1425</v>
+        <v>1440</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>1426</v>
+        <v>1441</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>1427</v>
+        <v>1442</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>1428</v>
+        <v>1443</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>1429</v>
+        <v>1444</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>1430</v>
+        <v>1445</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>1431</v>
+        <v>1446</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>1432</v>
+        <v>1447</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>1433</v>
+        <v>1448</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>1434</v>
+        <v>1449</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>1435</v>
+        <v>1450</v>
       </c>
       <c r="O27" s="5" t="s">
-        <v>1436</v>
+        <v>1451</v>
       </c>
       <c r="P27" s="5" t="s">
-        <v>1437</v>
+        <v>1452</v>
       </c>
       <c r="Q27" s="5" t="s">
-        <v>1438</v>
+        <v>1453</v>
       </c>
       <c r="R27" s="5" t="s">
-        <v>1439</v>
+        <v>1454</v>
       </c>
       <c r="S27" s="5" t="s">
-        <v>1440</v>
+        <v>1455</v>
       </c>
       <c r="T27" s="5" t="s">
-        <v>1441</v>
+        <v>1456</v>
       </c>
       <c r="U27" s="5" t="s">
-        <v>1442</v>
+        <v>1457</v>
       </c>
       <c r="V27" s="5" t="s">
-        <v>520</v>
+        <v>535</v>
       </c>
       <c r="W27" s="5" t="s">
-        <v>1443</v>
+        <v>1458</v>
       </c>
       <c r="X27" s="5" t="s">
-        <v>1444</v>
+        <v>1459</v>
       </c>
       <c r="Y27" s="5" t="s">
-        <v>1445</v>
+        <v>1460</v>
       </c>
       <c r="Z27" s="5" t="s">
-        <v>1446</v>
+        <v>1461</v>
       </c>
       <c r="AA27" s="5" t="s">
-        <v>1447</v>
+        <v>1462</v>
       </c>
       <c r="AB27" s="12" t="s">
-        <v>1448</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>695</v>
+        <v>710</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>1449</v>
+        <v>1464</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>1450</v>
+        <v>1465</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>1451</v>
+        <v>1466</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>1452</v>
+        <v>1467</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>1453</v>
+        <v>1468</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>1454</v>
+        <v>1469</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>651</v>
+        <v>666</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>1455</v>
+        <v>1470</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>1456</v>
+        <v>1471</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>1457</v>
+        <v>1472</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>1458</v>
+        <v>1473</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>1459</v>
+        <v>1474</v>
       </c>
       <c r="N28" s="5" t="s">
-        <v>1460</v>
+        <v>1475</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>1461</v>
+        <v>1476</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>1462</v>
+        <v>1477</v>
       </c>
       <c r="Q28" s="5" t="s">
-        <v>1463</v>
+        <v>1478</v>
       </c>
       <c r="R28" s="5" t="s">
-        <v>1464</v>
+        <v>1479</v>
       </c>
       <c r="S28" s="5" t="s">
-        <v>1465</v>
+        <v>1480</v>
       </c>
       <c r="T28" s="5" t="s">
-        <v>1466</v>
+        <v>1481</v>
       </c>
       <c r="U28" s="5" t="s">
-        <v>1467</v>
+        <v>1482</v>
       </c>
       <c r="V28" s="5" t="s">
-        <v>1468</v>
+        <v>1483</v>
       </c>
       <c r="W28" s="5" t="s">
-        <v>1469</v>
+        <v>1484</v>
       </c>
       <c r="X28" s="5" t="s">
-        <v>1470</v>
+        <v>1485</v>
       </c>
       <c r="Y28" s="5" t="s">
-        <v>1471</v>
+        <v>1486</v>
       </c>
       <c r="Z28" s="5" t="s">
-        <v>1472</v>
+        <v>1487</v>
       </c>
       <c r="AA28" s="5" t="s">
-        <v>1473</v>
+        <v>1488</v>
       </c>
       <c r="AB28" s="12" t="s">
-        <v>1474</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>701</v>
+        <v>716</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>1475</v>
+        <v>1490</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>1476</v>
+        <v>1491</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>1477</v>
+        <v>1492</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>1478</v>
+        <v>1493</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>1479</v>
+        <v>1494</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>1480</v>
+        <v>1495</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>1481</v>
+        <v>1496</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>1482</v>
+        <v>1497</v>
       </c>
       <c r="J29" s="13" t="s">
-        <v>1483</v>
+        <v>1498</v>
       </c>
       <c r="K29" s="13" t="s">
-        <v>1484</v>
+        <v>1499</v>
       </c>
       <c r="L29" s="13" t="s">
-        <v>1485</v>
+        <v>1500</v>
       </c>
       <c r="M29" s="13" t="s">
-        <v>1486</v>
+        <v>1501</v>
       </c>
       <c r="N29" s="13" t="s">
-        <v>1487</v>
+        <v>1502</v>
       </c>
       <c r="O29" s="13" t="s">
-        <v>1488</v>
+        <v>1503</v>
       </c>
       <c r="P29" s="13" t="s">
-        <v>1489</v>
+        <v>1504</v>
       </c>
       <c r="Q29" s="13" t="s">
-        <v>1490</v>
+        <v>1505</v>
       </c>
       <c r="R29" s="13" t="s">
-        <v>1491</v>
+        <v>1506</v>
       </c>
       <c r="S29" s="13" t="s">
-        <v>1492</v>
+        <v>1507</v>
       </c>
       <c r="T29" s="13" t="s">
-        <v>1493</v>
+        <v>1508</v>
       </c>
       <c r="U29" s="13" t="s">
-        <v>1494</v>
+        <v>1509</v>
       </c>
       <c r="V29" s="13" t="s">
-        <v>1495</v>
+        <v>1510</v>
       </c>
       <c r="W29" s="13" t="s">
-        <v>1496</v>
+        <v>1511</v>
       </c>
       <c r="X29" s="13" t="s">
-        <v>1261</v>
+        <v>1276</v>
       </c>
       <c r="Y29" s="13" t="s">
-        <v>1497</v>
+        <v>1512</v>
       </c>
       <c r="Z29" s="13" t="s">
-        <v>1498</v>
+        <v>1513</v>
       </c>
       <c r="AA29" s="13" t="s">
-        <v>1499</v>
+        <v>1514</v>
       </c>
       <c r="AB29" s="12" t="s">
-        <v>1500</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>1501</v>
+        <v>1516</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>1502</v>
+        <v>1517</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>1503</v>
+        <v>1518</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>1504</v>
+        <v>1519</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>1505</v>
+        <v>1520</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>1506</v>
+        <v>1521</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>1507</v>
+        <v>1522</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>1508</v>
+        <v>1523</v>
       </c>
       <c r="J30" s="13" t="s">
-        <v>1509</v>
+        <v>1524</v>
       </c>
       <c r="K30" s="13" t="s">
-        <v>1510</v>
+        <v>1525</v>
       </c>
       <c r="L30" s="13" t="s">
-        <v>1511</v>
+        <v>1526</v>
       </c>
       <c r="M30" s="13" t="s">
-        <v>1512</v>
+        <v>1527</v>
       </c>
       <c r="N30" s="13" t="s">
-        <v>1513</v>
+        <v>1528</v>
       </c>
       <c r="O30" s="13" t="s">
-        <v>1322</v>
+        <v>1337</v>
       </c>
       <c r="P30" s="13" t="s">
-        <v>1514</v>
+        <v>1529</v>
       </c>
       <c r="Q30" s="13" t="s">
-        <v>1515</v>
+        <v>1530</v>
       </c>
       <c r="R30" s="13" t="s">
-        <v>1516</v>
+        <v>1531</v>
       </c>
       <c r="S30" s="13" t="s">
-        <v>717</v>
+        <v>732</v>
       </c>
       <c r="T30" s="13" t="s">
-        <v>1517</v>
+        <v>1532</v>
       </c>
       <c r="U30" s="13" t="s">
-        <v>1518</v>
+        <v>1533</v>
       </c>
       <c r="V30" s="13" t="s">
-        <v>1519</v>
+        <v>1534</v>
       </c>
       <c r="W30" s="13" t="s">
-        <v>1520</v>
+        <v>1535</v>
       </c>
       <c r="X30" s="13" t="s">
-        <v>1521</v>
+        <v>1536</v>
       </c>
       <c r="Y30" s="13" t="s">
-        <v>1522</v>
+        <v>1537</v>
       </c>
       <c r="Z30" s="13" t="s">
-        <v>1523</v>
+        <v>1538</v>
       </c>
       <c r="AA30" s="13" t="s">
-        <v>1524</v>
+        <v>1539</v>
       </c>
       <c r="AB30" s="12" t="s">
-        <v>1525</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>716</v>
+        <v>731</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>876</v>
+        <v>891</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>1526</v>
+        <v>1541</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>1527</v>
+        <v>1542</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>1528</v>
+        <v>1543</v>
       </c>
       <c r="F31" s="13" t="s">
+        <v>1544</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>1545</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>1546</v>
+      </c>
+      <c r="I31" s="13" t="s">
+        <v>1522</v>
+      </c>
+      <c r="J31" s="13" t="s">
+        <v>732</v>
+      </c>
+      <c r="K31" s="13" t="s">
+        <v>1547</v>
+      </c>
+      <c r="L31" s="13" t="s">
+        <v>1548</v>
+      </c>
+      <c r="M31" s="13" t="s">
+        <v>1549</v>
+      </c>
+      <c r="N31" s="13" t="s">
         <v>1529</v>
       </c>
-      <c r="G31" s="13" t="s">
-        <v>1530</v>
-      </c>
-      <c r="H31" s="13" t="s">
-        <v>1531</v>
-      </c>
-      <c r="I31" s="13" t="s">
-        <v>1507</v>
-      </c>
-      <c r="J31" s="13" t="s">
-        <v>717</v>
-      </c>
-      <c r="K31" s="13" t="s">
-        <v>1532</v>
-      </c>
-      <c r="L31" s="13" t="s">
-        <v>1533</v>
-      </c>
-      <c r="M31" s="13" t="s">
-        <v>1534</v>
-      </c>
-      <c r="N31" s="13" t="s">
-        <v>1514</v>
-      </c>
       <c r="O31" s="13" t="s">
-        <v>1535</v>
+        <v>1550</v>
       </c>
       <c r="P31" s="13" t="s">
-        <v>1018</v>
+        <v>1033</v>
       </c>
       <c r="Q31" s="13" t="s">
-        <v>1536</v>
+        <v>1551</v>
       </c>
       <c r="R31" s="13" t="s">
-        <v>1537</v>
+        <v>1552</v>
       </c>
       <c r="S31" s="13" t="s">
-        <v>1538</v>
+        <v>1553</v>
       </c>
       <c r="T31" s="13" t="s">
-        <v>1539</v>
+        <v>1554</v>
       </c>
       <c r="U31" s="13" t="s">
-        <v>1540</v>
+        <v>1555</v>
       </c>
       <c r="V31" s="13" t="s">
-        <v>1541</v>
+        <v>1556</v>
       </c>
       <c r="W31" s="13" t="s">
-        <v>1542</v>
+        <v>1557</v>
       </c>
       <c r="X31" s="13" t="s">
-        <v>1543</v>
+        <v>1558</v>
       </c>
       <c r="Y31" s="13" t="s">
-        <v>1544</v>
+        <v>1559</v>
       </c>
       <c r="Z31" s="13" t="s">
-        <v>1448</v>
+        <v>1463</v>
       </c>
       <c r="AA31" s="13" t="s">
-        <v>1545</v>
+        <v>1560</v>
       </c>
       <c r="AB31" s="12" t="s">
-        <v>1546</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>724</v>
+        <v>739</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>729</v>
+        <v>744</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>727</v>
+        <v>742</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>1547</v>
+        <v>1562</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>728</v>
+        <v>743</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>1548</v>
+        <v>1563</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>1549</v>
+        <v>1564</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>1550</v>
+        <v>1565</v>
       </c>
       <c r="I32" s="13" t="s">
-        <v>1551</v>
+        <v>1566</v>
       </c>
       <c r="J32" s="13" t="s">
-        <v>1552</v>
+        <v>1567</v>
       </c>
       <c r="K32" s="13" t="s">
-        <v>1553</v>
+        <v>1568</v>
       </c>
       <c r="L32" s="13" t="s">
-        <v>1554</v>
+        <v>1569</v>
       </c>
       <c r="M32" s="13" t="s">
-        <v>1551</v>
+        <v>1566</v>
       </c>
       <c r="N32" s="13" t="s">
-        <v>1555</v>
+        <v>1570</v>
       </c>
       <c r="O32" s="13" t="s">
-        <v>1556</v>
+        <v>1571</v>
       </c>
       <c r="P32" s="13" t="s">
-        <v>1557</v>
+        <v>1572</v>
       </c>
       <c r="Q32" s="13" t="s">
-        <v>1555</v>
+        <v>1570</v>
       </c>
       <c r="R32" s="13" t="s">
-        <v>727</v>
+        <v>742</v>
       </c>
       <c r="S32" s="13" t="s">
-        <v>1556</v>
+        <v>1571</v>
       </c>
       <c r="T32" s="13" t="s">
-        <v>1558</v>
+        <v>1573</v>
       </c>
       <c r="U32" s="13" t="s">
-        <v>1559</v>
+        <v>1574</v>
       </c>
       <c r="V32" s="13" t="s">
-        <v>1560</v>
+        <v>1575</v>
       </c>
       <c r="W32" s="13" t="s">
-        <v>1559</v>
+        <v>1574</v>
       </c>
       <c r="X32" s="13" t="s">
-        <v>1561</v>
+        <v>1576</v>
       </c>
       <c r="Y32" s="13" t="s">
-        <v>1562</v>
+        <v>1577</v>
       </c>
       <c r="Z32" s="13" t="s">
-        <v>1555</v>
+        <v>1570</v>
       </c>
       <c r="AA32" s="13" t="s">
-        <v>725</v>
+        <v>740</v>
       </c>
       <c r="AB32" s="12" t="s">
-        <v>1563</v>
+        <v>1578</v>
       </c>
     </row>
   </sheetData>
@@ -13195,357 +13264,357 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>1564</v>
+        <v>1579</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1565</v>
+        <v>1580</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1566</v>
+        <v>1581</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>1567</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1568</v>
+        <v>1583</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1569</v>
+        <v>1584</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1570</v>
+        <v>1585</v>
       </c>
       <c r="D2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>1565</v>
+        <v>1580</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1571</v>
+        <v>1586</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>1572</v>
+        <v>1587</v>
       </c>
       <c r="D3" s="1"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>1566</v>
+        <v>1581</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1573</v>
+        <v>1588</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1574</v>
+        <v>1589</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>1575</v>
+        <v>1590</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1576</v>
+        <v>1591</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1577</v>
+        <v>1592</v>
       </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>1578</v>
+        <v>1593</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1579</v>
+        <v>1594</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1580</v>
+        <v>1595</v>
       </c>
       <c r="D6" s="1"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>1581</v>
+        <v>1596</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1582</v>
+        <v>1597</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1583</v>
+        <v>1598</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>1584</v>
+        <v>1599</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1585</v>
+        <v>1600</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>1586</v>
+        <v>1601</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>1587</v>
+        <v>1602</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1588</v>
+        <v>1603</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1589</v>
+        <v>1604</v>
       </c>
       <c r="D9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>1590</v>
+        <v>1605</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>1591</v>
+        <v>1606</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>1592</v>
+        <v>1607</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>1593</v>
+        <v>1608</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>1594</v>
+        <v>1609</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>1595</v>
+        <v>1610</v>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>1596</v>
+        <v>1611</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>1597</v>
+        <v>1612</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>1598</v>
+        <v>1613</v>
       </c>
       <c r="D12" s="1"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>1599</v>
+        <v>1614</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>1600</v>
+        <v>1615</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>1601</v>
+        <v>1616</v>
       </c>
       <c r="D13" s="1"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>1602</v>
+        <v>1617</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1603</v>
+        <v>1618</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>1604</v>
+        <v>1619</v>
       </c>
       <c r="D14" s="1"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>1605</v>
+        <v>1620</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>1606</v>
+        <v>1621</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>1607</v>
+        <v>1622</v>
       </c>
       <c r="D15" s="1"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>1608</v>
+        <v>1623</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>1609</v>
+        <v>1624</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>1610</v>
+        <v>1625</v>
       </c>
       <c r="D16" s="1"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>1611</v>
+        <v>1626</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>1612</v>
+        <v>1627</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>1613</v>
+        <v>1628</v>
       </c>
       <c r="D17" s="1"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>1614</v>
+        <v>1629</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>1615</v>
+        <v>1630</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>1616</v>
+        <v>1631</v>
       </c>
       <c r="D18" s="1"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>1617</v>
+        <v>1632</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>1618</v>
+        <v>1633</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>1619</v>
+        <v>1634</v>
       </c>
       <c r="D19" s="1"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>1620</v>
+        <v>1635</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>1621</v>
+        <v>1636</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>1622</v>
+        <v>1637</v>
       </c>
       <c r="D20" s="1"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>1623</v>
+        <v>1638</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>1624</v>
+        <v>1639</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>1625</v>
+        <v>1640</v>
       </c>
       <c r="D21" s="1"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>1626</v>
+        <v>1641</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>1627</v>
+        <v>1642</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>1628</v>
+        <v>1643</v>
       </c>
       <c r="D22" s="1"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>1629</v>
+        <v>1644</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>1630</v>
+        <v>1645</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>1631</v>
+        <v>1646</v>
       </c>
       <c r="D23" s="1"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>1632</v>
+        <v>1647</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>1633</v>
+        <v>1648</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>1634</v>
+        <v>1649</v>
       </c>
       <c r="D24" s="1"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>1635</v>
+        <v>1650</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>1636</v>
+        <v>1651</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>1637</v>
+        <v>1652</v>
       </c>
       <c r="D25" s="1"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>1638</v>
+        <v>1653</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>1639</v>
+        <v>1654</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>1640</v>
+        <v>1655</v>
       </c>
       <c r="D26" s="1"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>1641</v>
+        <v>1656</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>1642</v>
+        <v>1657</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>1643</v>
+        <v>1658</v>
       </c>
       <c r="D27" s="1"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>1644</v>
+        <v>1659</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>1645</v>
+        <v>1660</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>1646</v>
+        <v>1661</v>
       </c>
       <c r="D28" s="1"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>1647</v>
+        <v>1662</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>1648</v>
+        <v>1663</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>1649</v>
+        <v>1664</v>
       </c>
       <c r="D29" s="1"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>1650</v>
+        <v>1665</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -13553,7 +13622,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>1651</v>
+        <v>1666</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -13561,7 +13630,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>1652</v>
+        <v>1667</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -13569,7 +13638,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>1653</v>
+        <v>1668</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -13577,7 +13646,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>1654</v>
+        <v>1669</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>

--- a/archive/iceKnives32/iceKnives32.xlsx
+++ b/archive/iceKnives32/iceKnives32.xlsx
@@ -306,7 +306,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2431" uniqueCount="1670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2447" uniqueCount="1689">
   <si>
     <t>[packet]</t>
   </si>
@@ -1121,6 +1121,21 @@
     <t>address</t>
   </si>
   <si>
+    <t>correct</t>
+  </si>
+  <si>
+    <t>vigilance</t>
+  </si>
+  <si>
+    <t>nucleus</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>'184'</t>
+  </si>
+  <si>
     <t>order</t>
   </si>
   <si>
@@ -1130,6 +1145,21 @@
     <t>reminder</t>
   </si>
   <si>
+    <t>arrow</t>
+  </si>
+  <si>
+    <t>wheel</t>
+  </si>
+  <si>
+    <t>ghost</t>
+  </si>
+  <si>
+    <t>tip</t>
+  </si>
+  <si>
+    <t>'163'</t>
+  </si>
+  <si>
     <t>session</t>
   </si>
   <si>
@@ -1139,6 +1169,21 @@
     <t>derivative</t>
   </si>
   <si>
+    <t>solve</t>
+  </si>
+  <si>
+    <t>dynamo</t>
+  </si>
+  <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>principal</t>
+  </si>
+  <si>
+    <t>'196'</t>
+  </si>
+  <si>
     <t>information</t>
   </si>
   <si>
@@ -1148,6 +1193,21 @@
     <t>volume</t>
   </si>
   <si>
+    <t>parse</t>
+  </si>
+  <si>
+    <t>optic</t>
+  </si>
+  <si>
+    <t>corner</t>
+  </si>
+  <si>
+    <t>seek</t>
+  </si>
+  <si>
+    <t>'186'</t>
+  </si>
+  <si>
     <t>track</t>
   </si>
   <si>
@@ -1596,9 +1656,6 @@
   </si>
   <si>
     <t>policy</t>
-  </si>
-  <si>
-    <t>correct</t>
   </si>
   <si>
     <t>auto</t>
@@ -6926,12 +6983,20 @@
       <c r="D19" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>274</v>
+      </c>
       <c r="I19" s="3" t="s">
-        <v>9</v>
+        <v>275</v>
       </c>
     </row>
     <row r="20">
@@ -6939,20 +7004,28 @@
         <v>78</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+        <v>278</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="I20" s="3" t="s">
-        <v>9</v>
+        <v>283</v>
       </c>
     </row>
     <row r="21">
@@ -6960,20 +7033,28 @@
         <v>82</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
+        <v>286</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>290</v>
+      </c>
       <c r="I21" s="3" t="s">
-        <v>9</v>
+        <v>291</v>
       </c>
     </row>
     <row r="22">
@@ -6981,20 +7062,28 @@
         <v>86</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
+        <v>294</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>298</v>
+      </c>
       <c r="I22" s="3" t="s">
-        <v>9</v>
+        <v>299</v>
       </c>
     </row>
     <row r="23">
@@ -7002,13 +7091,13 @@
         <v>90</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>281</v>
+        <v>301</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>282</v>
+        <v>302</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -7023,13 +7112,13 @@
         <v>94</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>284</v>
+        <v>304</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>285</v>
+        <v>305</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -7044,13 +7133,13 @@
         <v>98</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>287</v>
+        <v>307</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -7065,13 +7154,13 @@
         <v>102</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>289</v>
+        <v>309</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>291</v>
+        <v>311</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -7086,13 +7175,13 @@
         <v>106</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>292</v>
+        <v>312</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>293</v>
+        <v>313</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>294</v>
+        <v>314</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -7107,13 +7196,13 @@
         <v>110</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>295</v>
+        <v>315</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>296</v>
+        <v>316</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>297</v>
+        <v>317</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -7149,7 +7238,7 @@
         <v>35</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>298</v>
+        <v>318</v>
       </c>
     </row>
     <row r="30">
@@ -7157,13 +7246,13 @@
         <v>118</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>299</v>
+        <v>319</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>25</v>
@@ -7186,13 +7275,13 @@
         <v>119</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>302</v>
+        <v>322</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>303</v>
+        <v>323</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>304</v>
+        <v>324</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>25</v>
@@ -7215,13 +7304,13 @@
         <v>120</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>305</v>
+        <v>325</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>306</v>
+        <v>326</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>307</v>
+        <v>327</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>25</v>
@@ -7244,13 +7333,13 @@
         <v>121</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>309</v>
+        <v>329</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>25</v>
@@ -7331,13 +7420,13 @@
         <v>124</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>311</v>
+        <v>331</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>312</v>
+        <v>332</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>25</v>
@@ -7511,19 +7600,19 @@
         <v>137</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>314</v>
+        <v>334</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>138</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>315</v>
+        <v>335</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>316</v>
+        <v>336</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>317</v>
+        <v>337</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>134</v>
@@ -7534,28 +7623,28 @@
         <v>135</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>318</v>
+        <v>338</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>319</v>
+        <v>339</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>321</v>
+        <v>341</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>322</v>
+        <v>342</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>323</v>
+        <v>343</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>324</v>
+        <v>344</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>325</v>
+        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -7578,7 +7667,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>326</v>
+        <v>346</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -7607,7 +7696,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>327</v>
+        <v>347</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>12</v>
@@ -7639,25 +7728,25 @@
         <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>328</v>
+        <v>348</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>329</v>
+        <v>349</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>331</v>
+        <v>351</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>9</v>
@@ -7668,25 +7757,25 @@
         <v>14</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>338</v>
+        <v>358</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>339</v>
+        <v>359</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>341</v>
+        <v>361</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>9</v>
@@ -7697,25 +7786,25 @@
         <v>18</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>342</v>
+        <v>362</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>343</v>
+        <v>363</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>344</v>
+        <v>364</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>345</v>
+        <v>365</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>346</v>
+        <v>366</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>347</v>
+        <v>367</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>348</v>
+        <v>368</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>9</v>
@@ -7726,25 +7815,25 @@
         <v>22</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>349</v>
+        <v>369</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>351</v>
+        <v>371</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>352</v>
+        <v>372</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>353</v>
+        <v>373</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>354</v>
+        <v>374</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>355</v>
+        <v>375</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>9</v>
@@ -7755,25 +7844,25 @@
         <v>26</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>356</v>
+        <v>376</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>357</v>
+        <v>377</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>358</v>
+        <v>378</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>359</v>
+        <v>379</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>360</v>
+        <v>380</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>361</v>
+        <v>381</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>362</v>
+        <v>382</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>9</v>
@@ -7784,25 +7873,25 @@
         <v>30</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>363</v>
+        <v>383</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>364</v>
+        <v>384</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>365</v>
+        <v>385</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>366</v>
+        <v>386</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>367</v>
+        <v>387</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>368</v>
+        <v>388</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>369</v>
+        <v>389</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>9</v>
@@ -7813,25 +7902,25 @@
         <v>34</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>370</v>
+        <v>390</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>371</v>
+        <v>391</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>372</v>
+        <v>392</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>373</v>
+        <v>393</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>374</v>
+        <v>394</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>375</v>
+        <v>395</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>376</v>
+        <v>396</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>9</v>
@@ -7842,25 +7931,25 @@
         <v>38</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>377</v>
+        <v>397</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>379</v>
+        <v>399</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>381</v>
+        <v>401</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>382</v>
+        <v>402</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>383</v>
+        <v>403</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>9</v>
@@ -7871,25 +7960,25 @@
         <v>42</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>384</v>
+        <v>404</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>385</v>
+        <v>405</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>386</v>
+        <v>406</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>387</v>
+        <v>407</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>388</v>
+        <v>408</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>389</v>
+        <v>409</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>390</v>
+        <v>410</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>9</v>
@@ -7900,25 +7989,25 @@
         <v>46</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>391</v>
+        <v>411</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>392</v>
+        <v>412</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>393</v>
+        <v>413</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>394</v>
+        <v>414</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>395</v>
+        <v>415</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>396</v>
+        <v>416</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>397</v>
+        <v>417</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>9</v>
@@ -7929,25 +8018,25 @@
         <v>50</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>398</v>
+        <v>418</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>399</v>
+        <v>419</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>400</v>
+        <v>420</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>401</v>
+        <v>421</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>402</v>
+        <v>422</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>403</v>
+        <v>423</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>404</v>
+        <v>424</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>9</v>
@@ -7958,25 +8047,25 @@
         <v>54</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>405</v>
+        <v>425</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>406</v>
+        <v>426</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>407</v>
+        <v>427</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>408</v>
+        <v>428</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>409</v>
+        <v>429</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>410</v>
+        <v>430</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>411</v>
+        <v>431</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>9</v>
@@ -7987,25 +8076,25 @@
         <v>58</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>412</v>
+        <v>432</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>413</v>
+        <v>433</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>414</v>
+        <v>434</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>415</v>
+        <v>435</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>416</v>
+        <v>436</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>417</v>
+        <v>437</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>418</v>
+        <v>438</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>9</v>
@@ -8016,25 +8105,25 @@
         <v>62</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>419</v>
+        <v>439</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>420</v>
+        <v>440</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>421</v>
+        <v>441</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>422</v>
+        <v>442</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>423</v>
+        <v>443</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>424</v>
+        <v>444</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>425</v>
+        <v>445</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>9</v>
@@ -8045,25 +8134,25 @@
         <v>66</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>426</v>
+        <v>446</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>427</v>
+        <v>447</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>428</v>
+        <v>448</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>429</v>
+        <v>449</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>430</v>
+        <v>271</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>431</v>
+        <v>450</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>432</v>
+        <v>451</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>9</v>
@@ -8074,25 +8163,25 @@
         <v>70</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>433</v>
+        <v>452</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>434</v>
+        <v>453</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>435</v>
+        <v>454</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>436</v>
+        <v>455</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>437</v>
+        <v>456</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>438</v>
+        <v>457</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>439</v>
+        <v>458</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>9</v>
@@ -8103,25 +8192,25 @@
         <v>74</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>440</v>
+        <v>459</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>441</v>
+        <v>460</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>442</v>
+        <v>461</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>444</v>
+        <v>463</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>445</v>
+        <v>464</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>446</v>
+        <v>465</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>9</v>
@@ -8132,25 +8221,25 @@
         <v>78</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>447</v>
+        <v>466</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>448</v>
+        <v>467</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>449</v>
+        <v>468</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>450</v>
+        <v>469</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>451</v>
+        <v>470</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>452</v>
+        <v>471</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>453</v>
+        <v>472</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>9</v>
@@ -8161,25 +8250,25 @@
         <v>82</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>454</v>
+        <v>473</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>455</v>
+        <v>474</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>456</v>
+        <v>475</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>457</v>
+        <v>476</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>458</v>
+        <v>477</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>460</v>
+        <v>479</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>9</v>
@@ -8190,25 +8279,25 @@
         <v>86</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>461</v>
+        <v>480</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>462</v>
+        <v>481</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>463</v>
+        <v>482</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>464</v>
+        <v>483</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>465</v>
+        <v>484</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>466</v>
+        <v>485</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>9</v>
@@ -8219,25 +8308,25 @@
         <v>90</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>468</v>
+        <v>487</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>469</v>
+        <v>488</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>470</v>
+        <v>489</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>471</v>
+        <v>490</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>472</v>
+        <v>491</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>473</v>
+        <v>492</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>474</v>
+        <v>493</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>9</v>
@@ -8248,25 +8337,25 @@
         <v>94</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>475</v>
+        <v>494</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>476</v>
+        <v>495</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>477</v>
+        <v>496</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>478</v>
+        <v>497</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>479</v>
+        <v>498</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>480</v>
+        <v>499</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>481</v>
+        <v>500</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>9</v>
@@ -8277,25 +8366,25 @@
         <v>98</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>482</v>
+        <v>501</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>483</v>
+        <v>502</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>484</v>
+        <v>503</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>485</v>
+        <v>504</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>486</v>
+        <v>505</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>487</v>
+        <v>506</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>488</v>
+        <v>507</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>9</v>
@@ -8306,25 +8395,25 @@
         <v>102</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>489</v>
+        <v>508</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>490</v>
+        <v>509</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>491</v>
+        <v>510</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>492</v>
+        <v>511</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>493</v>
+        <v>512</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>195</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>494</v>
+        <v>513</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>9</v>
@@ -8335,25 +8424,25 @@
         <v>106</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>495</v>
+        <v>514</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>496</v>
+        <v>515</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>497</v>
+        <v>516</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>498</v>
+        <v>517</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>499</v>
+        <v>518</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>500</v>
+        <v>519</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>501</v>
+        <v>520</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>9</v>
@@ -8364,25 +8453,25 @@
         <v>110</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>502</v>
+        <v>521</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>503</v>
+        <v>522</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>504</v>
+        <v>523</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>505</v>
+        <v>524</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>506</v>
+        <v>525</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>507</v>
+        <v>526</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>508</v>
+        <v>527</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>9</v>
@@ -8414,7 +8503,7 @@
         <v>35</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>298</v>
+        <v>318</v>
       </c>
     </row>
     <row r="30">
@@ -8588,7 +8677,7 @@
         <v>37</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>509</v>
+        <v>528</v>
       </c>
     </row>
     <row r="36">
@@ -8617,7 +8706,7 @@
         <v>37</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>510</v>
+        <v>529</v>
       </c>
     </row>
     <row r="37">
@@ -8762,7 +8851,7 @@
         <v>37</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>511</v>
+        <v>530</v>
       </c>
     </row>
     <row r="42">
@@ -8776,19 +8865,19 @@
         <v>137</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>314</v>
+        <v>334</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>138</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>315</v>
+        <v>335</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>316</v>
+        <v>336</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>317</v>
+        <v>337</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>134</v>
@@ -8799,28 +8888,28 @@
         <v>135</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>318</v>
+        <v>338</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>319</v>
+        <v>339</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>321</v>
+        <v>341</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>322</v>
+        <v>342</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>323</v>
+        <v>343</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>324</v>
+        <v>344</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>325</v>
+        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -8845,834 +8934,834 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="7" t="s">
-        <v>512</v>
+        <v>531</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>513</v>
+        <v>532</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>514</v>
+        <v>533</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>515</v>
+        <v>534</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>516</v>
+        <v>535</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>517</v>
+        <v>536</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>518</v>
+        <v>537</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>519</v>
+        <v>538</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
-        <v>520</v>
+        <v>539</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>521</v>
+        <v>540</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>522</v>
+        <v>541</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>523</v>
+        <v>542</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>524</v>
+        <v>543</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>525</v>
+        <v>544</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>526</v>
+        <v>545</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>527</v>
+        <v>546</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="s">
-        <v>513</v>
+        <v>532</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>528</v>
+        <v>547</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>529</v>
+        <v>548</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>530</v>
+        <v>549</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>531</v>
+        <v>550</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>532</v>
+        <v>551</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>533</v>
+        <v>552</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="s">
-        <v>514</v>
+        <v>533</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>535</v>
+        <v>554</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>536</v>
+        <v>555</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>537</v>
+        <v>556</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>538</v>
+        <v>557</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>539</v>
+        <v>558</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>540</v>
+        <v>559</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>541</v>
+        <v>560</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
-        <v>515</v>
+        <v>534</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>542</v>
+        <v>561</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>543</v>
+        <v>562</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>544</v>
+        <v>563</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>545</v>
+        <v>564</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>546</v>
+        <v>565</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>547</v>
+        <v>566</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>548</v>
+        <v>567</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="7" t="s">
-        <v>516</v>
+        <v>535</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>549</v>
+        <v>568</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>550</v>
+        <v>569</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>551</v>
+        <v>570</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>552</v>
+        <v>571</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>553</v>
+        <v>572</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>554</v>
+        <v>573</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>555</v>
+        <v>574</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="7" t="s">
-        <v>517</v>
+        <v>536</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>556</v>
+        <v>575</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>557</v>
+        <v>576</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>374</v>
+        <v>394</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>558</v>
+        <v>577</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>559</v>
+        <v>578</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>560</v>
+        <v>579</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>561</v>
+        <v>580</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="7" t="s">
-        <v>518</v>
+        <v>537</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>562</v>
+        <v>581</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>563</v>
+        <v>582</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>64</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>564</v>
+        <v>583</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>565</v>
+        <v>584</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>566</v>
+        <v>585</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>567</v>
+        <v>586</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="7" t="s">
-        <v>568</v>
+        <v>587</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>569</v>
+        <v>588</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>570</v>
+        <v>589</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>289</v>
+        <v>309</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>571</v>
+        <v>590</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>572</v>
+        <v>591</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>573</v>
+        <v>592</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>574</v>
+        <v>593</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
-        <v>575</v>
+        <v>594</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>576</v>
+        <v>595</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>577</v>
+        <v>596</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>578</v>
+        <v>597</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>579</v>
+        <v>598</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>580</v>
+        <v>599</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>581</v>
+        <v>600</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>582</v>
+        <v>601</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>583</v>
+        <v>602</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>584</v>
+        <v>603</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>585</v>
+        <v>604</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>406</v>
+        <v>426</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>586</v>
+        <v>605</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>587</v>
+        <v>606</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>588</v>
+        <v>607</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="7" t="s">
-        <v>589</v>
+        <v>608</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>590</v>
+        <v>609</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>591</v>
+        <v>610</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>592</v>
+        <v>611</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>593</v>
+        <v>612</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>594</v>
+        <v>613</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>595</v>
+        <v>614</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>596</v>
+        <v>615</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>597</v>
+        <v>616</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>598</v>
+        <v>617</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>599</v>
+        <v>618</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>388</v>
+        <v>408</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>600</v>
+        <v>619</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>601</v>
+        <v>620</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>602</v>
+        <v>621</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>603</v>
+        <v>622</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="7" t="s">
-        <v>604</v>
+        <v>623</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>605</v>
+        <v>624</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>606</v>
+        <v>625</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>176</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>607</v>
+        <v>626</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>608</v>
+        <v>627</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>609</v>
+        <v>628</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>610</v>
+        <v>629</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="7" t="s">
-        <v>611</v>
+        <v>630</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>612</v>
+        <v>631</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>613</v>
+        <v>632</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>614</v>
+        <v>633</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>615</v>
+        <v>634</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>616</v>
+        <v>635</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>617</v>
+        <v>636</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>618</v>
+        <v>637</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="7" t="s">
-        <v>619</v>
+        <v>638</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>620</v>
+        <v>639</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>621</v>
+        <v>640</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>622</v>
+        <v>641</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>623</v>
+        <v>642</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>624</v>
+        <v>643</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>625</v>
+        <v>644</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>626</v>
+        <v>645</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="7" t="s">
-        <v>627</v>
+        <v>646</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>628</v>
+        <v>647</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>629</v>
+        <v>648</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>630</v>
+        <v>649</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>631</v>
+        <v>650</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>632</v>
+        <v>651</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>633</v>
+        <v>652</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>567</v>
+        <v>586</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="7" t="s">
-        <v>634</v>
+        <v>653</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>635</v>
+        <v>654</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>636</v>
+        <v>655</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>637</v>
+        <v>656</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>638</v>
+        <v>657</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>639</v>
+        <v>658</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>640</v>
+        <v>659</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>641</v>
+        <v>660</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
-        <v>642</v>
+        <v>661</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>643</v>
+        <v>662</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>644</v>
+        <v>663</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>645</v>
+        <v>664</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>646</v>
+        <v>665</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>647</v>
+        <v>666</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>648</v>
+        <v>667</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>649</v>
+        <v>668</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="7" t="s">
-        <v>650</v>
+        <v>669</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>652</v>
+        <v>671</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>653</v>
+        <v>672</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>654</v>
+        <v>673</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>655</v>
+        <v>674</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>656</v>
+        <v>675</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>567</v>
+        <v>586</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="7" t="s">
-        <v>657</v>
+        <v>676</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>658</v>
+        <v>677</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>659</v>
+        <v>678</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>660</v>
+        <v>679</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>661</v>
+        <v>680</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>662</v>
+        <v>681</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>664</v>
+        <v>683</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="7" t="s">
-        <v>665</v>
+        <v>684</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>666</v>
+        <v>685</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>667</v>
+        <v>686</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>668</v>
+        <v>687</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>669</v>
+        <v>688</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>670</v>
+        <v>689</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>671</v>
+        <v>690</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>672</v>
+        <v>691</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="7" t="s">
-        <v>673</v>
+        <v>692</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>674</v>
+        <v>693</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>675</v>
+        <v>694</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>676</v>
+        <v>695</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>677</v>
+        <v>696</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>678</v>
+        <v>697</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>679</v>
+        <v>698</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>680</v>
+        <v>699</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="7" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>683</v>
+        <v>702</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>390</v>
+        <v>410</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>684</v>
+        <v>703</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>685</v>
+        <v>704</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>686</v>
+        <v>705</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>687</v>
+        <v>706</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="7" t="s">
-        <v>688</v>
+        <v>707</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>689</v>
+        <v>708</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>690</v>
+        <v>709</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>341</v>
+        <v>361</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>691</v>
+        <v>710</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>692</v>
+        <v>711</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>693</v>
+        <v>712</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>694</v>
+        <v>713</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="7" t="s">
-        <v>695</v>
+        <v>714</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>696</v>
+        <v>715</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>697</v>
+        <v>716</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>698</v>
+        <v>717</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>699</v>
+        <v>718</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>700</v>
+        <v>719</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>701</v>
+        <v>720</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>702</v>
+        <v>721</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="7" t="s">
-        <v>703</v>
+        <v>722</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>704</v>
+        <v>723</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>705</v>
+        <v>724</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>706</v>
+        <v>725</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>707</v>
+        <v>726</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>708</v>
+        <v>727</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>709</v>
+        <v>728</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>567</v>
+        <v>586</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="7" t="s">
-        <v>710</v>
+        <v>729</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>711</v>
+        <v>730</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>712</v>
+        <v>731</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>346</v>
+        <v>366</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>713</v>
+        <v>732</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>714</v>
+        <v>733</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>715</v>
+        <v>734</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>672</v>
+        <v>691</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="7" t="s">
-        <v>716</v>
+        <v>735</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>717</v>
+        <v>736</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>718</v>
+        <v>737</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>719</v>
+        <v>738</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>720</v>
+        <v>739</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>721</v>
+        <v>740</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>722</v>
+        <v>741</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>723</v>
+        <v>742</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="7" t="s">
-        <v>519</v>
+        <v>538</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>724</v>
+        <v>743</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>725</v>
+        <v>744</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>726</v>
+        <v>745</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>727</v>
+        <v>746</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>728</v>
+        <v>747</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>729</v>
+        <v>748</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>730</v>
+        <v>749</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="7" t="s">
-        <v>731</v>
+        <v>750</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>732</v>
+        <v>751</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>733</v>
+        <v>752</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>734</v>
+        <v>753</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>735</v>
+        <v>754</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>736</v>
+        <v>755</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>737</v>
+        <v>756</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>738</v>
+        <v>757</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="7" t="s">
-        <v>739</v>
+        <v>758</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>740</v>
+        <v>759</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>741</v>
+        <v>760</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>742</v>
+        <v>761</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>743</v>
+        <v>762</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>744</v>
+        <v>763</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>745</v>
+        <v>764</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>746</v>
+        <v>765</v>
       </c>
     </row>
   </sheetData>
@@ -9699,774 +9788,774 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>747</v>
+        <v>766</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>513</v>
+        <v>532</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>514</v>
+        <v>533</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>515</v>
+        <v>534</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>516</v>
+        <v>535</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>517</v>
+        <v>536</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>518</v>
+        <v>537</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>568</v>
+        <v>587</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>519</v>
+        <v>538</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>748</v>
+        <v>767</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>749</v>
+        <v>768</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>751</v>
+        <v>770</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>753</v>
+        <v>772</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>754</v>
+        <v>773</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>755</v>
+        <v>774</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>513</v>
+        <v>532</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>756</v>
+        <v>775</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>757</v>
+        <v>776</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>758</v>
+        <v>777</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>514</v>
+        <v>533</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>760</v>
+        <v>779</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>761</v>
+        <v>780</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>762</v>
+        <v>781</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>515</v>
+        <v>534</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>763</v>
+        <v>782</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>764</v>
+        <v>783</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>765</v>
+        <v>784</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>516</v>
+        <v>535</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>766</v>
+        <v>785</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>767</v>
+        <v>786</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>768</v>
+        <v>787</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>517</v>
+        <v>536</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>769</v>
+        <v>788</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>770</v>
+        <v>789</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>771</v>
+        <v>790</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>518</v>
+        <v>537</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>772</v>
+        <v>791</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>773</v>
+        <v>792</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>774</v>
+        <v>793</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>568</v>
+        <v>587</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>775</v>
+        <v>794</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>776</v>
+        <v>795</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>777</v>
+        <v>796</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>575</v>
+        <v>594</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>799</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>778</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>779</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>780</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>759</v>
-      </c>
       <c r="F10" s="5" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>583</v>
+        <v>602</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>781</v>
+        <v>800</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>782</v>
+        <v>801</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>783</v>
+        <v>802</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>589</v>
+        <v>608</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>784</v>
+        <v>803</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>785</v>
+        <v>804</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>786</v>
+        <v>805</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>597</v>
+        <v>616</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>787</v>
+        <v>806</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>788</v>
+        <v>807</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>789</v>
+        <v>808</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>604</v>
+        <v>623</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>790</v>
+        <v>809</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>791</v>
+        <v>810</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>792</v>
+        <v>811</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>611</v>
+        <v>630</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>793</v>
+        <v>812</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>794</v>
+        <v>813</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>795</v>
+        <v>814</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>619</v>
+        <v>638</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>796</v>
+        <v>815</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>797</v>
+        <v>816</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>798</v>
+        <v>817</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>627</v>
+        <v>646</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>800</v>
+        <v>819</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>801</v>
+        <v>820</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>634</v>
+        <v>653</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>802</v>
+        <v>821</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>803</v>
+        <v>822</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>804</v>
+        <v>823</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>642</v>
+        <v>661</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>805</v>
+        <v>824</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>806</v>
+        <v>825</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>807</v>
+        <v>826</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>650</v>
+        <v>669</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>808</v>
+        <v>827</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>809</v>
+        <v>828</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>810</v>
+        <v>829</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>657</v>
+        <v>676</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>811</v>
+        <v>830</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>812</v>
+        <v>831</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>813</v>
+        <v>832</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>665</v>
+        <v>684</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>814</v>
+        <v>833</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>815</v>
+        <v>834</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>816</v>
+        <v>835</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>673</v>
+        <v>692</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>817</v>
+        <v>836</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>818</v>
+        <v>837</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>819</v>
+        <v>838</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>820</v>
+        <v>839</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>821</v>
+        <v>840</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>822</v>
+        <v>841</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>688</v>
+        <v>707</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>823</v>
+        <v>842</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>824</v>
+        <v>843</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>825</v>
+        <v>844</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>695</v>
+        <v>714</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>826</v>
+        <v>845</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>827</v>
+        <v>846</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>828</v>
+        <v>847</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>703</v>
+        <v>722</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>829</v>
+        <v>848</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>830</v>
+        <v>849</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>831</v>
+        <v>850</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>710</v>
+        <v>729</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>832</v>
+        <v>851</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>833</v>
+        <v>852</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>834</v>
+        <v>853</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>716</v>
+        <v>735</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>835</v>
+        <v>854</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>836</v>
+        <v>855</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>837</v>
+        <v>856</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>838</v>
+        <v>857</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>839</v>
+        <v>858</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>840</v>
+        <v>859</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>841</v>
+        <v>860</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>519</v>
+        <v>538</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>731</v>
+        <v>750</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>739</v>
+        <v>758</v>
       </c>
     </row>
   </sheetData>
@@ -10491,2754 +10580,2754 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>842</v>
+        <v>861</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>513</v>
+        <v>532</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>514</v>
+        <v>533</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>515</v>
+        <v>534</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>516</v>
+        <v>535</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>517</v>
+        <v>536</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>518</v>
+        <v>537</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>568</v>
+        <v>587</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>575</v>
+        <v>594</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>583</v>
+        <v>602</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>589</v>
+        <v>608</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>597</v>
+        <v>616</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>604</v>
+        <v>623</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>611</v>
+        <v>630</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>619</v>
+        <v>638</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>627</v>
+        <v>646</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>634</v>
+        <v>653</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>642</v>
+        <v>661</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>650</v>
+        <v>669</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>657</v>
+        <v>676</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>665</v>
+        <v>684</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>673</v>
+        <v>692</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>688</v>
+        <v>707</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>695</v>
+        <v>714</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>703</v>
+        <v>722</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>710</v>
+        <v>729</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>519</v>
+        <v>538</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>747</v>
+        <v>766</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>843</v>
+        <v>862</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>844</v>
+        <v>863</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>845</v>
+        <v>864</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>846</v>
+        <v>865</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>847</v>
+        <v>866</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>848</v>
+        <v>867</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>849</v>
+        <v>868</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>850</v>
+        <v>869</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>851</v>
+        <v>870</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>852</v>
+        <v>871</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>853</v>
+        <v>872</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>854</v>
+        <v>873</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>855</v>
+        <v>874</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>856</v>
+        <v>875</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>857</v>
+        <v>876</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>858</v>
+        <v>877</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>859</v>
+        <v>878</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>860</v>
+        <v>879</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>861</v>
+        <v>880</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>862</v>
+        <v>881</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>863</v>
+        <v>882</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>864</v>
+        <v>883</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>865</v>
+        <v>884</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>866</v>
+        <v>885</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>867</v>
+        <v>886</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>868</v>
+        <v>887</v>
       </c>
       <c r="AB2" s="12" t="s">
-        <v>869</v>
+        <v>888</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>513</v>
+        <v>532</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>870</v>
+        <v>889</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>871</v>
+        <v>890</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>872</v>
+        <v>891</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>873</v>
+        <v>892</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>874</v>
+        <v>893</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>875</v>
+        <v>894</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>876</v>
+        <v>895</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>877</v>
+        <v>896</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>607</v>
+        <v>626</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>878</v>
+        <v>897</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>879</v>
+        <v>898</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>880</v>
+        <v>899</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>881</v>
+        <v>900</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>590</v>
+        <v>609</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>683</v>
+        <v>702</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>882</v>
+        <v>901</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>883</v>
+        <v>902</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>884</v>
+        <v>903</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>885</v>
+        <v>904</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>886</v>
+        <v>905</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>887</v>
+        <v>906</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>888</v>
+        <v>907</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>889</v>
+        <v>908</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>629</v>
+        <v>648</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>890</v>
+        <v>909</v>
       </c>
       <c r="AA3" s="5" t="s">
-        <v>718</v>
+        <v>737</v>
       </c>
       <c r="AB3" s="12" t="s">
-        <v>891</v>
+        <v>910</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>514</v>
+        <v>533</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>892</v>
+        <v>911</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>893</v>
+        <v>912</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>894</v>
+        <v>913</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>895</v>
+        <v>914</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>896</v>
+        <v>915</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>573</v>
+        <v>592</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>897</v>
+        <v>916</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>898</v>
+        <v>917</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>639</v>
+        <v>658</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>899</v>
+        <v>918</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>900</v>
+        <v>919</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>901</v>
+        <v>920</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>902</v>
+        <v>921</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>903</v>
+        <v>922</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>904</v>
+        <v>923</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>905</v>
+        <v>924</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>623</v>
+        <v>642</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>906</v>
+        <v>925</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>907</v>
+        <v>926</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>908</v>
+        <v>927</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>909</v>
+        <v>928</v>
       </c>
       <c r="W4" s="5" t="s">
-        <v>910</v>
+        <v>929</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>911</v>
+        <v>930</v>
       </c>
       <c r="Y4" s="5" t="s">
-        <v>912</v>
+        <v>931</v>
       </c>
       <c r="Z4" s="5" t="s">
-        <v>913</v>
+        <v>932</v>
       </c>
       <c r="AA4" s="5" t="s">
-        <v>914</v>
+        <v>933</v>
       </c>
       <c r="AB4" s="12" t="s">
-        <v>915</v>
+        <v>934</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>515</v>
+        <v>534</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>916</v>
+        <v>935</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>917</v>
+        <v>936</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>918</v>
+        <v>937</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>919</v>
+        <v>938</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>920</v>
+        <v>939</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>921</v>
+        <v>940</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>691</v>
+        <v>710</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>922</v>
+        <v>941</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>923</v>
+        <v>942</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>924</v>
+        <v>943</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>701</v>
+        <v>720</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>531</v>
+        <v>550</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>925</v>
+        <v>944</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>926</v>
+        <v>945</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>927</v>
+        <v>946</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>928</v>
+        <v>947</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>929</v>
+        <v>948</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>930</v>
+        <v>949</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>931</v>
+        <v>950</v>
       </c>
       <c r="U5" s="5" t="s">
-        <v>932</v>
+        <v>951</v>
       </c>
       <c r="V5" s="5" t="s">
-        <v>549</v>
+        <v>568</v>
       </c>
       <c r="W5" s="5" t="s">
-        <v>933</v>
+        <v>952</v>
       </c>
       <c r="X5" s="5" t="s">
-        <v>934</v>
+        <v>953</v>
       </c>
       <c r="Y5" s="5" t="s">
-        <v>935</v>
+        <v>954</v>
       </c>
       <c r="Z5" s="5" t="s">
-        <v>936</v>
+        <v>955</v>
       </c>
       <c r="AA5" s="5" t="s">
-        <v>937</v>
+        <v>956</v>
       </c>
       <c r="AB5" s="12" t="s">
-        <v>938</v>
+        <v>957</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>516</v>
+        <v>535</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>939</v>
+        <v>958</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>940</v>
+        <v>959</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>941</v>
+        <v>960</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>942</v>
+        <v>961</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>943</v>
+        <v>962</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>944</v>
+        <v>963</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>945</v>
+        <v>964</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>946</v>
+        <v>965</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>947</v>
+        <v>966</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>948</v>
+        <v>967</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>949</v>
+        <v>968</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>950</v>
+        <v>969</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>951</v>
+        <v>970</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>620</v>
+        <v>639</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>952</v>
+        <v>971</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>953</v>
+        <v>972</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>954</v>
+        <v>973</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>955</v>
+        <v>974</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>956</v>
+        <v>975</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>957</v>
+        <v>976</v>
       </c>
       <c r="V6" s="5" t="s">
-        <v>958</v>
+        <v>977</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>959</v>
+        <v>978</v>
       </c>
       <c r="X6" s="5" t="s">
-        <v>960</v>
+        <v>979</v>
       </c>
       <c r="Y6" s="5" t="s">
-        <v>961</v>
+        <v>980</v>
       </c>
       <c r="Z6" s="5" t="s">
-        <v>962</v>
+        <v>981</v>
       </c>
       <c r="AA6" s="5" t="s">
-        <v>625</v>
+        <v>644</v>
       </c>
       <c r="AB6" s="12" t="s">
-        <v>963</v>
+        <v>982</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>517</v>
+        <v>536</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>964</v>
+        <v>983</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>965</v>
+        <v>984</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>966</v>
+        <v>985</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>967</v>
+        <v>986</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>968</v>
+        <v>987</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>969</v>
+        <v>988</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>970</v>
+        <v>989</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>971</v>
+        <v>990</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>602</v>
+        <v>621</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>972</v>
+        <v>991</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>594</v>
+        <v>613</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>708</v>
+        <v>727</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>973</v>
+        <v>992</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>974</v>
+        <v>993</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>712</v>
+        <v>731</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>975</v>
+        <v>994</v>
       </c>
       <c r="S7" s="5" t="s">
-        <v>976</v>
+        <v>995</v>
       </c>
       <c r="T7" s="5" t="s">
-        <v>546</v>
+        <v>565</v>
       </c>
       <c r="U7" s="5" t="s">
-        <v>977</v>
+        <v>996</v>
       </c>
       <c r="V7" s="5" t="s">
-        <v>978</v>
+        <v>997</v>
       </c>
       <c r="W7" s="5" t="s">
-        <v>979</v>
+        <v>998</v>
       </c>
       <c r="X7" s="5" t="s">
-        <v>540</v>
+        <v>559</v>
       </c>
       <c r="Y7" s="5" t="s">
-        <v>980</v>
+        <v>999</v>
       </c>
       <c r="Z7" s="5" t="s">
-        <v>981</v>
+        <v>1000</v>
       </c>
       <c r="AA7" s="5" t="s">
-        <v>982</v>
+        <v>1001</v>
       </c>
       <c r="AB7" s="12" t="s">
-        <v>983</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>518</v>
+        <v>537</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>984</v>
+        <v>1003</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>985</v>
+        <v>1004</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>986</v>
+        <v>1005</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>987</v>
+        <v>1006</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>988</v>
+        <v>1007</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>989</v>
+        <v>1008</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>990</v>
+        <v>1009</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>991</v>
+        <v>1010</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>992</v>
+        <v>1011</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>587</v>
+        <v>606</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>993</v>
+        <v>1012</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>994</v>
+        <v>1013</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>658</v>
+        <v>677</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>995</v>
+        <v>1014</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>996</v>
+        <v>1015</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>572</v>
+        <v>591</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>997</v>
+        <v>1016</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>998</v>
+        <v>1017</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>999</v>
+        <v>1018</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>1000</v>
+        <v>1019</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>1001</v>
+        <v>1020</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>1002</v>
+        <v>1021</v>
       </c>
       <c r="X8" s="5" t="s">
-        <v>1003</v>
+        <v>1022</v>
       </c>
       <c r="Y8" s="5" t="s">
-        <v>1004</v>
+        <v>1023</v>
       </c>
       <c r="Z8" s="5" t="s">
-        <v>1005</v>
+        <v>1024</v>
       </c>
       <c r="AA8" s="5" t="s">
-        <v>1006</v>
+        <v>1025</v>
       </c>
       <c r="AB8" s="12" t="s">
-        <v>1007</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>568</v>
+        <v>587</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1008</v>
+        <v>1027</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>1009</v>
+        <v>1028</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>1010</v>
+        <v>1029</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>1011</v>
+        <v>1030</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>1012</v>
+        <v>1031</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>1013</v>
+        <v>1032</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>1014</v>
+        <v>1033</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>1015</v>
+        <v>1034</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>1016</v>
+        <v>1035</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>1017</v>
+        <v>1036</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>1018</v>
+        <v>1037</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>1019</v>
+        <v>1038</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>1020</v>
+        <v>1039</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>1021</v>
+        <v>1040</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>1022</v>
+        <v>1041</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>593</v>
+        <v>612</v>
       </c>
       <c r="R9" s="5" t="s">
-        <v>1023</v>
+        <v>1042</v>
       </c>
       <c r="S9" s="5" t="s">
-        <v>1024</v>
+        <v>1043</v>
       </c>
       <c r="T9" s="5" t="s">
-        <v>1025</v>
+        <v>1044</v>
       </c>
       <c r="U9" s="5" t="s">
-        <v>1026</v>
+        <v>1045</v>
       </c>
       <c r="V9" s="5" t="s">
-        <v>1027</v>
+        <v>1046</v>
       </c>
       <c r="W9" s="5" t="s">
-        <v>1028</v>
+        <v>1047</v>
       </c>
       <c r="X9" s="5" t="s">
-        <v>1029</v>
+        <v>1048</v>
       </c>
       <c r="Y9" s="5" t="s">
-        <v>1030</v>
+        <v>1049</v>
       </c>
       <c r="Z9" s="5" t="s">
-        <v>1031</v>
+        <v>1050</v>
       </c>
       <c r="AA9" s="5" t="s">
-        <v>1032</v>
+        <v>1051</v>
       </c>
       <c r="AB9" s="12" t="s">
-        <v>1033</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>575</v>
+        <v>594</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1034</v>
+        <v>1053</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>1035</v>
+        <v>1054</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>1036</v>
+        <v>1055</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>1037</v>
+        <v>1056</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>1038</v>
+        <v>1057</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>1039</v>
+        <v>1058</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>1040</v>
+        <v>1059</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>1041</v>
+        <v>1060</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>1042</v>
+        <v>1061</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>1043</v>
+        <v>1062</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>1044</v>
+        <v>1063</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>1045</v>
+        <v>1064</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>1046</v>
+        <v>1065</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>1047</v>
+        <v>1066</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>1048</v>
+        <v>1067</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>1049</v>
+        <v>1068</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>1050</v>
+        <v>1069</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>1051</v>
+        <v>1070</v>
       </c>
       <c r="T10" s="5" t="s">
-        <v>670</v>
+        <v>689</v>
       </c>
       <c r="U10" s="5" t="s">
-        <v>1052</v>
+        <v>1071</v>
       </c>
       <c r="V10" s="5" t="s">
-        <v>1053</v>
+        <v>1072</v>
       </c>
       <c r="W10" s="5" t="s">
-        <v>1054</v>
+        <v>1073</v>
       </c>
       <c r="X10" s="5" t="s">
-        <v>1055</v>
+        <v>1074</v>
       </c>
       <c r="Y10" s="5" t="s">
-        <v>1056</v>
+        <v>1075</v>
       </c>
       <c r="Z10" s="5" t="s">
-        <v>1057</v>
+        <v>1076</v>
       </c>
       <c r="AA10" s="5" t="s">
-        <v>1058</v>
+        <v>1077</v>
       </c>
       <c r="AB10" s="12" t="s">
-        <v>891</v>
+        <v>910</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>583</v>
+        <v>602</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1059</v>
+        <v>1078</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>1060</v>
+        <v>1079</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>1061</v>
+        <v>1080</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>1062</v>
+        <v>1081</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>1063</v>
+        <v>1082</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>1064</v>
+        <v>1083</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>1065</v>
+        <v>1084</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>1066</v>
+        <v>1085</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>1067</v>
+        <v>1086</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>1068</v>
+        <v>1087</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>669</v>
+        <v>688</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>1069</v>
+        <v>1088</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>1070</v>
+        <v>1089</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>1071</v>
+        <v>1090</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>1072</v>
+        <v>1091</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>1073</v>
+        <v>1092</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>1074</v>
+        <v>1093</v>
       </c>
       <c r="S11" s="5" t="s">
-        <v>1075</v>
+        <v>1094</v>
       </c>
       <c r="T11" s="5" t="s">
-        <v>1076</v>
+        <v>1095</v>
       </c>
       <c r="U11" s="5" t="s">
-        <v>1077</v>
+        <v>1096</v>
       </c>
       <c r="V11" s="5" t="s">
-        <v>1078</v>
+        <v>1097</v>
       </c>
       <c r="W11" s="5" t="s">
-        <v>1079</v>
+        <v>1098</v>
       </c>
       <c r="X11" s="5" t="s">
-        <v>1080</v>
+        <v>1099</v>
       </c>
       <c r="Y11" s="5" t="s">
-        <v>1081</v>
+        <v>1100</v>
       </c>
       <c r="Z11" s="5" t="s">
-        <v>1082</v>
+        <v>1101</v>
       </c>
       <c r="AA11" s="5" t="s">
-        <v>1083</v>
+        <v>1102</v>
       </c>
       <c r="AB11" s="12" t="s">
-        <v>915</v>
+        <v>934</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>589</v>
+        <v>608</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1084</v>
+        <v>1103</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>1085</v>
+        <v>1104</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>1086</v>
+        <v>1105</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>1087</v>
+        <v>1106</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>1088</v>
+        <v>1107</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>1089</v>
+        <v>1108</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>1090</v>
+        <v>1109</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>1091</v>
+        <v>1110</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>1092</v>
+        <v>1111</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>709</v>
+        <v>728</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>1093</v>
+        <v>1112</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>1094</v>
+        <v>1113</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>558</v>
+        <v>577</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>1095</v>
+        <v>1114</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>1096</v>
+        <v>1115</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>715</v>
+        <v>734</v>
       </c>
       <c r="R12" s="5" t="s">
-        <v>1097</v>
+        <v>1116</v>
       </c>
       <c r="S12" s="5" t="s">
-        <v>1098</v>
+        <v>1117</v>
       </c>
       <c r="T12" s="5" t="s">
-        <v>1099</v>
+        <v>1118</v>
       </c>
       <c r="U12" s="5" t="s">
-        <v>1100</v>
+        <v>1119</v>
       </c>
       <c r="V12" s="5" t="s">
-        <v>1101</v>
+        <v>1120</v>
       </c>
       <c r="W12" s="5" t="s">
-        <v>1102</v>
+        <v>1121</v>
       </c>
       <c r="X12" s="5" t="s">
-        <v>1103</v>
+        <v>1122</v>
       </c>
       <c r="Y12" s="5" t="s">
-        <v>1104</v>
+        <v>1123</v>
       </c>
       <c r="Z12" s="5" t="s">
-        <v>1105</v>
+        <v>1124</v>
       </c>
       <c r="AA12" s="5" t="s">
-        <v>1106</v>
+        <v>1125</v>
       </c>
       <c r="AB12" s="12" t="s">
-        <v>1107</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>597</v>
+        <v>616</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1108</v>
+        <v>1127</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>1109</v>
+        <v>1128</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>1110</v>
+        <v>1129</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>1111</v>
+        <v>1130</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>1112</v>
+        <v>1131</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>1113</v>
+        <v>1132</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>1114</v>
+        <v>1133</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>1115</v>
+        <v>1134</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>1116</v>
+        <v>1135</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>631</v>
+        <v>650</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>1117</v>
+        <v>1136</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>1118</v>
+        <v>1137</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>1119</v>
+        <v>1138</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>1120</v>
+        <v>1139</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>1121</v>
+        <v>1140</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>1122</v>
+        <v>1141</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>1123</v>
+        <v>1142</v>
       </c>
       <c r="S13" s="5" t="s">
-        <v>576</v>
+        <v>595</v>
       </c>
       <c r="T13" s="5" t="s">
-        <v>1124</v>
+        <v>1143</v>
       </c>
       <c r="U13" s="5" t="s">
-        <v>1125</v>
+        <v>1144</v>
       </c>
       <c r="V13" s="5" t="s">
-        <v>1126</v>
+        <v>1145</v>
       </c>
       <c r="W13" s="5" t="s">
-        <v>1127</v>
+        <v>1146</v>
       </c>
       <c r="X13" s="5" t="s">
-        <v>1128</v>
+        <v>1147</v>
       </c>
       <c r="Y13" s="5" t="s">
-        <v>1129</v>
+        <v>1148</v>
       </c>
       <c r="Z13" s="5" t="s">
-        <v>1130</v>
+        <v>1149</v>
       </c>
       <c r="AA13" s="5" t="s">
-        <v>1131</v>
+        <v>1150</v>
       </c>
       <c r="AB13" s="12" t="s">
-        <v>1132</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>604</v>
+        <v>623</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1133</v>
+        <v>1152</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>1134</v>
+        <v>1153</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>1135</v>
+        <v>1154</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>1136</v>
+        <v>1155</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>1137</v>
+        <v>1156</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>1138</v>
+        <v>1157</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>1139</v>
+        <v>1158</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>648</v>
+        <v>667</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>704</v>
+        <v>723</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>1140</v>
+        <v>1159</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>1141</v>
+        <v>1160</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>1142</v>
+        <v>1161</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>1143</v>
+        <v>1162</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>628</v>
+        <v>647</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>711</v>
+        <v>730</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>1144</v>
+        <v>1163</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>1145</v>
+        <v>1164</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>1146</v>
+        <v>1165</v>
       </c>
       <c r="T14" s="5" t="s">
-        <v>1147</v>
+        <v>1166</v>
       </c>
       <c r="U14" s="5" t="s">
-        <v>1148</v>
+        <v>1167</v>
       </c>
       <c r="V14" s="5" t="s">
-        <v>1149</v>
+        <v>1168</v>
       </c>
       <c r="W14" s="5" t="s">
-        <v>1150</v>
+        <v>1169</v>
       </c>
       <c r="X14" s="5" t="s">
-        <v>1151</v>
+        <v>1170</v>
       </c>
       <c r="Y14" s="5" t="s">
-        <v>1152</v>
+        <v>1171</v>
       </c>
       <c r="Z14" s="5" t="s">
-        <v>1153</v>
+        <v>1172</v>
       </c>
       <c r="AA14" s="5" t="s">
-        <v>1154</v>
+        <v>1173</v>
       </c>
       <c r="AB14" s="12" t="s">
-        <v>725</v>
+        <v>744</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>611</v>
+        <v>630</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>1155</v>
+        <v>1174</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>1156</v>
+        <v>1175</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>1157</v>
+        <v>1176</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>1158</v>
+        <v>1177</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>533</v>
+        <v>552</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>1159</v>
+        <v>1178</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>1160</v>
+        <v>1179</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>553</v>
+        <v>572</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>1161</v>
+        <v>1180</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>647</v>
+        <v>666</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>1162</v>
+        <v>1181</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>1163</v>
+        <v>1182</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>652</v>
+        <v>671</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>1164</v>
+        <v>1183</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>624</v>
+        <v>643</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>1165</v>
+        <v>1184</v>
       </c>
       <c r="R15" s="5" t="s">
-        <v>1166</v>
+        <v>1185</v>
       </c>
       <c r="S15" s="5" t="s">
-        <v>562</v>
+        <v>581</v>
       </c>
       <c r="T15" s="5" t="s">
-        <v>1167</v>
+        <v>1186</v>
       </c>
       <c r="U15" s="5" t="s">
-        <v>1168</v>
+        <v>1187</v>
       </c>
       <c r="V15" s="5" t="s">
-        <v>1169</v>
+        <v>1188</v>
       </c>
       <c r="W15" s="5" t="s">
-        <v>1170</v>
+        <v>1189</v>
       </c>
       <c r="X15" s="5" t="s">
-        <v>1171</v>
+        <v>1190</v>
       </c>
       <c r="Y15" s="5" t="s">
-        <v>1172</v>
+        <v>1191</v>
       </c>
       <c r="Z15" s="5" t="s">
-        <v>1173</v>
+        <v>1192</v>
       </c>
       <c r="AA15" s="5" t="s">
-        <v>636</v>
+        <v>655</v>
       </c>
       <c r="AB15" s="12" t="s">
-        <v>1174</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>619</v>
+        <v>638</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>1175</v>
+        <v>1194</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>1176</v>
+        <v>1195</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>1177</v>
+        <v>1196</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>1178</v>
+        <v>1197</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>1179</v>
+        <v>1198</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>1180</v>
+        <v>1199</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>1181</v>
+        <v>1200</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>1182</v>
+        <v>1201</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>1183</v>
+        <v>1202</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>1184</v>
+        <v>1203</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>1185</v>
+        <v>1204</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>1186</v>
+        <v>1205</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>1187</v>
+        <v>1206</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>566</v>
+        <v>585</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>1188</v>
+        <v>1207</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>1189</v>
+        <v>1208</v>
       </c>
       <c r="R16" s="5" t="s">
-        <v>1190</v>
+        <v>1209</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>1191</v>
+        <v>1210</v>
       </c>
       <c r="T16" s="5" t="s">
-        <v>1192</v>
+        <v>1211</v>
       </c>
       <c r="U16" s="5" t="s">
-        <v>1193</v>
+        <v>1212</v>
       </c>
       <c r="V16" s="5" t="s">
-        <v>1194</v>
+        <v>1213</v>
       </c>
       <c r="W16" s="5" t="s">
-        <v>1195</v>
+        <v>1214</v>
       </c>
       <c r="X16" s="5" t="s">
-        <v>1196</v>
+        <v>1215</v>
       </c>
       <c r="Y16" s="5" t="s">
-        <v>1197</v>
+        <v>1216</v>
       </c>
       <c r="Z16" s="5" t="s">
-        <v>1198</v>
+        <v>1217</v>
       </c>
       <c r="AA16" s="5" t="s">
-        <v>1199</v>
+        <v>1218</v>
       </c>
       <c r="AB16" s="12" t="s">
-        <v>732</v>
+        <v>751</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>627</v>
+        <v>646</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1200</v>
+        <v>1219</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>1201</v>
+        <v>1220</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>1202</v>
+        <v>1221</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>1203</v>
+        <v>1222</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>1204</v>
+        <v>1223</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>1205</v>
+        <v>1224</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>1206</v>
+        <v>1225</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>1207</v>
+        <v>1226</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>616</v>
+        <v>635</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>671</v>
+        <v>690</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>1208</v>
+        <v>1227</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>1209</v>
+        <v>1228</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>1210</v>
+        <v>1229</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>1211</v>
+        <v>1230</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>1212</v>
+        <v>1231</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>1213</v>
+        <v>1232</v>
       </c>
       <c r="R17" s="5" t="s">
-        <v>707</v>
+        <v>726</v>
       </c>
       <c r="S17" s="5" t="s">
-        <v>1214</v>
+        <v>1233</v>
       </c>
       <c r="T17" s="5" t="s">
-        <v>1215</v>
+        <v>1234</v>
       </c>
       <c r="U17" s="5" t="s">
-        <v>1216</v>
+        <v>1235</v>
       </c>
       <c r="V17" s="5" t="s">
-        <v>1217</v>
+        <v>1236</v>
       </c>
       <c r="W17" s="5" t="s">
-        <v>1218</v>
+        <v>1237</v>
       </c>
       <c r="X17" s="5" t="s">
-        <v>1219</v>
+        <v>1238</v>
       </c>
       <c r="Y17" s="5" t="s">
-        <v>686</v>
+        <v>705</v>
       </c>
       <c r="Z17" s="5" t="s">
-        <v>1220</v>
+        <v>1239</v>
       </c>
       <c r="AA17" s="5" t="s">
-        <v>1221</v>
+        <v>1240</v>
       </c>
       <c r="AB17" s="12" t="s">
-        <v>734</v>
+        <v>753</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>634</v>
+        <v>653</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>1222</v>
+        <v>1241</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>1223</v>
+        <v>1242</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>1224</v>
+        <v>1243</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>1225</v>
+        <v>1244</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>601</v>
+        <v>620</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>1226</v>
+        <v>1245</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>1227</v>
+        <v>1246</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>1228</v>
+        <v>1247</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>1229</v>
+        <v>1248</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>1230</v>
+        <v>1249</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>605</v>
+        <v>624</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>1231</v>
+        <v>1250</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>1232</v>
+        <v>1251</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>1233</v>
+        <v>1252</v>
       </c>
       <c r="Q18" s="5" t="s">
-        <v>1234</v>
+        <v>1253</v>
       </c>
       <c r="R18" s="5" t="s">
-        <v>1235</v>
+        <v>1254</v>
       </c>
       <c r="S18" s="5" t="s">
-        <v>675</v>
+        <v>694</v>
       </c>
       <c r="T18" s="5" t="s">
-        <v>1236</v>
+        <v>1255</v>
       </c>
       <c r="U18" s="5" t="s">
-        <v>1237</v>
+        <v>1256</v>
       </c>
       <c r="V18" s="5" t="s">
-        <v>1238</v>
+        <v>1257</v>
       </c>
       <c r="W18" s="5" t="s">
-        <v>1239</v>
+        <v>1258</v>
       </c>
       <c r="X18" s="5" t="s">
-        <v>1240</v>
+        <v>1259</v>
       </c>
       <c r="Y18" s="5" t="s">
-        <v>1241</v>
+        <v>1260</v>
       </c>
       <c r="Z18" s="5" t="s">
-        <v>1242</v>
+        <v>1261</v>
       </c>
       <c r="AA18" s="5" t="s">
-        <v>1243</v>
+        <v>1262</v>
       </c>
       <c r="AB18" s="12" t="s">
-        <v>983</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>642</v>
+        <v>661</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>1244</v>
+        <v>1263</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>1245</v>
+        <v>1264</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>1246</v>
+        <v>1265</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>1247</v>
+        <v>1266</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>1248</v>
+        <v>1267</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>1249</v>
+        <v>1268</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>1250</v>
+        <v>1269</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>635</v>
+        <v>654</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>1251</v>
+        <v>1270</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>617</v>
+        <v>636</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>584</v>
+        <v>603</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>1252</v>
+        <v>1271</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>609</v>
+        <v>628</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>1253</v>
+        <v>1272</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>1254</v>
+        <v>1273</v>
       </c>
       <c r="Q19" s="5" t="s">
-        <v>1255</v>
+        <v>1274</v>
       </c>
       <c r="R19" s="5" t="s">
-        <v>1256</v>
+        <v>1275</v>
       </c>
       <c r="S19" s="5" t="s">
-        <v>1257</v>
+        <v>1276</v>
       </c>
       <c r="T19" s="5" t="s">
-        <v>1258</v>
+        <v>1277</v>
       </c>
       <c r="U19" s="5" t="s">
-        <v>1259</v>
+        <v>1278</v>
       </c>
       <c r="V19" s="5" t="s">
-        <v>1260</v>
+        <v>1279</v>
       </c>
       <c r="W19" s="5" t="s">
-        <v>1261</v>
+        <v>1280</v>
       </c>
       <c r="X19" s="5" t="s">
-        <v>1262</v>
+        <v>1281</v>
       </c>
       <c r="Y19" s="5" t="s">
-        <v>1263</v>
+        <v>1282</v>
       </c>
       <c r="Z19" s="5" t="s">
-        <v>1264</v>
+        <v>1283</v>
       </c>
       <c r="AA19" s="5" t="s">
-        <v>1265</v>
+        <v>1284</v>
       </c>
       <c r="AB19" s="12" t="s">
-        <v>1266</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>650</v>
+        <v>669</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1267</v>
+        <v>1286</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>1268</v>
+        <v>1287</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>1269</v>
+        <v>1288</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>1270</v>
+        <v>1289</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>1271</v>
+        <v>1290</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>1272</v>
+        <v>1291</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>1273</v>
+        <v>1292</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>1274</v>
+        <v>1293</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>714</v>
+        <v>733</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>570</v>
+        <v>589</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>1275</v>
+        <v>1294</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>1276</v>
+        <v>1295</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>1277</v>
+        <v>1296</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>1278</v>
+        <v>1297</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>1279</v>
+        <v>1298</v>
       </c>
       <c r="Q20" s="5" t="s">
-        <v>1280</v>
+        <v>1299</v>
       </c>
       <c r="R20" s="5" t="s">
-        <v>1281</v>
+        <v>1300</v>
       </c>
       <c r="S20" s="5" t="s">
-        <v>1282</v>
+        <v>1301</v>
       </c>
       <c r="T20" s="5" t="s">
-        <v>1283</v>
+        <v>1302</v>
       </c>
       <c r="U20" s="5" t="s">
-        <v>1284</v>
+        <v>1303</v>
       </c>
       <c r="V20" s="5" t="s">
-        <v>1285</v>
+        <v>1304</v>
       </c>
       <c r="W20" s="5" t="s">
-        <v>1286</v>
+        <v>1305</v>
       </c>
       <c r="X20" s="5" t="s">
-        <v>547</v>
+        <v>566</v>
       </c>
       <c r="Y20" s="5" t="s">
-        <v>1287</v>
+        <v>1306</v>
       </c>
       <c r="Z20" s="5" t="s">
-        <v>1288</v>
+        <v>1307</v>
       </c>
       <c r="AA20" s="5" t="s">
-        <v>1289</v>
+        <v>1308</v>
       </c>
       <c r="AB20" s="12" t="s">
-        <v>1290</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>657</v>
+        <v>676</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>1291</v>
+        <v>1310</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>1292</v>
+        <v>1311</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>1293</v>
+        <v>1312</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>1294</v>
+        <v>1313</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>1295</v>
+        <v>1314</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>690</v>
+        <v>709</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>1296</v>
+        <v>1315</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>1297</v>
+        <v>1316</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>1298</v>
+        <v>1317</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>1299</v>
+        <v>1318</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>1300</v>
+        <v>1319</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>720</v>
+        <v>739</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>1301</v>
+        <v>1320</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>1302</v>
+        <v>1321</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>1303</v>
+        <v>1322</v>
       </c>
       <c r="Q21" s="5" t="s">
-        <v>1304</v>
+        <v>1323</v>
       </c>
       <c r="R21" s="5" t="s">
-        <v>1305</v>
+        <v>1324</v>
       </c>
       <c r="S21" s="5" t="s">
-        <v>1306</v>
+        <v>1325</v>
       </c>
       <c r="T21" s="5" t="s">
-        <v>1307</v>
+        <v>1326</v>
       </c>
       <c r="U21" s="5" t="s">
-        <v>1308</v>
+        <v>1327</v>
       </c>
       <c r="V21" s="5" t="s">
-        <v>1309</v>
+        <v>1328</v>
       </c>
       <c r="W21" s="5" t="s">
-        <v>1310</v>
+        <v>1329</v>
       </c>
       <c r="X21" s="5" t="s">
-        <v>1311</v>
+        <v>1330</v>
       </c>
       <c r="Y21" s="5" t="s">
-        <v>1312</v>
+        <v>1331</v>
       </c>
       <c r="Z21" s="5" t="s">
-        <v>1313</v>
+        <v>1332</v>
       </c>
       <c r="AA21" s="5" t="s">
-        <v>521</v>
+        <v>540</v>
       </c>
       <c r="AB21" s="12" t="s">
-        <v>726</v>
+        <v>745</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>665</v>
+        <v>684</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>1314</v>
+        <v>1333</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>1315</v>
+        <v>1334</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>1316</v>
+        <v>1335</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>1317</v>
+        <v>1336</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>1318</v>
+        <v>1337</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>1319</v>
+        <v>1338</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>1320</v>
+        <v>1339</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>1321</v>
+        <v>1340</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>1322</v>
+        <v>1341</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>1323</v>
+        <v>1342</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>1324</v>
+        <v>1343</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>1325</v>
+        <v>1344</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>692</v>
+        <v>711</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>552</v>
+        <v>571</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>1326</v>
+        <v>1345</v>
       </c>
       <c r="Q22" s="5" t="s">
-        <v>1327</v>
+        <v>1346</v>
       </c>
       <c r="R22" s="5" t="s">
-        <v>1328</v>
+        <v>1347</v>
       </c>
       <c r="S22" s="5" t="s">
-        <v>1329</v>
+        <v>1348</v>
       </c>
       <c r="T22" s="5" t="s">
-        <v>1330</v>
+        <v>1349</v>
       </c>
       <c r="U22" s="5" t="s">
-        <v>1331</v>
+        <v>1350</v>
       </c>
       <c r="V22" s="5" t="s">
-        <v>1332</v>
+        <v>1351</v>
       </c>
       <c r="W22" s="5" t="s">
-        <v>1333</v>
+        <v>1352</v>
       </c>
       <c r="X22" s="5" t="s">
-        <v>1334</v>
+        <v>1353</v>
       </c>
       <c r="Y22" s="5" t="s">
-        <v>1335</v>
+        <v>1354</v>
       </c>
       <c r="Z22" s="5" t="s">
-        <v>697</v>
+        <v>716</v>
       </c>
       <c r="AA22" s="5" t="s">
-        <v>1336</v>
+        <v>1355</v>
       </c>
       <c r="AB22" s="12" t="s">
-        <v>1337</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>673</v>
+        <v>692</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>1338</v>
+        <v>1357</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>1339</v>
+        <v>1358</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>1340</v>
+        <v>1359</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>1341</v>
+        <v>1360</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>1342</v>
+        <v>1361</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>1343</v>
+        <v>1362</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>1344</v>
+        <v>1363</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>1345</v>
+        <v>1364</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>1346</v>
+        <v>1365</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>1347</v>
+        <v>1366</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>1348</v>
+        <v>1367</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>1349</v>
+        <v>1368</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>1350</v>
+        <v>1369</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>1351</v>
+        <v>1370</v>
       </c>
       <c r="P23" s="5" t="s">
-        <v>1352</v>
+        <v>1371</v>
       </c>
       <c r="Q23" s="5" t="s">
-        <v>1353</v>
+        <v>1372</v>
       </c>
       <c r="R23" s="5" t="s">
-        <v>1354</v>
+        <v>1373</v>
       </c>
       <c r="S23" s="5" t="s">
-        <v>1355</v>
+        <v>1374</v>
       </c>
       <c r="T23" s="5" t="s">
-        <v>1356</v>
+        <v>1375</v>
       </c>
       <c r="U23" s="5" t="s">
-        <v>1357</v>
+        <v>1376</v>
       </c>
       <c r="V23" s="5" t="s">
-        <v>699</v>
+        <v>718</v>
       </c>
       <c r="W23" s="5" t="s">
-        <v>1358</v>
+        <v>1377</v>
       </c>
       <c r="X23" s="5" t="s">
-        <v>1359</v>
+        <v>1378</v>
       </c>
       <c r="Y23" s="5" t="s">
-        <v>1360</v>
+        <v>1379</v>
       </c>
       <c r="Z23" s="5" t="s">
-        <v>1361</v>
+        <v>1380</v>
       </c>
       <c r="AA23" s="5" t="s">
-        <v>1362</v>
+        <v>1381</v>
       </c>
       <c r="AB23" s="12" t="s">
-        <v>1363</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>1364</v>
+        <v>1383</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>1365</v>
+        <v>1384</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>1366</v>
+        <v>1385</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>1367</v>
+        <v>1386</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>1368</v>
+        <v>1387</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>1369</v>
+        <v>1388</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>640</v>
+        <v>659</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>1370</v>
+        <v>1389</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>1371</v>
+        <v>1390</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>1372</v>
+        <v>1391</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>1373</v>
+        <v>1392</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>1374</v>
+        <v>1393</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>1375</v>
+        <v>1394</v>
       </c>
       <c r="O24" s="5" t="s">
-        <v>1376</v>
+        <v>1395</v>
       </c>
       <c r="P24" s="5" t="s">
-        <v>1377</v>
+        <v>1396</v>
       </c>
       <c r="Q24" s="5" t="s">
-        <v>1378</v>
+        <v>1397</v>
       </c>
       <c r="R24" s="5" t="s">
-        <v>1379</v>
+        <v>1398</v>
       </c>
       <c r="S24" s="5" t="s">
-        <v>1380</v>
+        <v>1399</v>
       </c>
       <c r="T24" s="5" t="s">
-        <v>1381</v>
+        <v>1400</v>
       </c>
       <c r="U24" s="5" t="s">
-        <v>1382</v>
+        <v>1401</v>
       </c>
       <c r="V24" s="5" t="s">
-        <v>1383</v>
+        <v>1402</v>
       </c>
       <c r="W24" s="5" t="s">
-        <v>1384</v>
+        <v>1403</v>
       </c>
       <c r="X24" s="5" t="s">
-        <v>1385</v>
+        <v>1404</v>
       </c>
       <c r="Y24" s="5" t="s">
-        <v>1386</v>
+        <v>1405</v>
       </c>
       <c r="Z24" s="5" t="s">
-        <v>1387</v>
+        <v>1406</v>
       </c>
       <c r="AA24" s="5" t="s">
-        <v>1388</v>
+        <v>1407</v>
       </c>
       <c r="AB24" s="12" t="s">
-        <v>1389</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>688</v>
+        <v>707</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>1390</v>
+        <v>1409</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>1391</v>
+        <v>1410</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>1392</v>
+        <v>1411</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>1393</v>
+        <v>1412</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>1394</v>
+        <v>1413</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>1395</v>
+        <v>1414</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>1396</v>
+        <v>1415</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>1397</v>
+        <v>1416</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>1398</v>
+        <v>1417</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>1399</v>
+        <v>1418</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>1400</v>
+        <v>1419</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>1401</v>
+        <v>1420</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>1402</v>
+        <v>1421</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>1403</v>
+        <v>1422</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>1404</v>
+        <v>1423</v>
       </c>
       <c r="Q25" s="5" t="s">
-        <v>633</v>
+        <v>652</v>
       </c>
       <c r="R25" s="5" t="s">
-        <v>1405</v>
+        <v>1424</v>
       </c>
       <c r="S25" s="5" t="s">
-        <v>1406</v>
+        <v>1425</v>
       </c>
       <c r="T25" s="5" t="s">
-        <v>586</v>
+        <v>605</v>
       </c>
       <c r="U25" s="5" t="s">
-        <v>1407</v>
+        <v>1426</v>
       </c>
       <c r="V25" s="5" t="s">
-        <v>1408</v>
+        <v>1427</v>
       </c>
       <c r="W25" s="5" t="s">
-        <v>1409</v>
+        <v>1428</v>
       </c>
       <c r="X25" s="5" t="s">
-        <v>1410</v>
+        <v>1429</v>
       </c>
       <c r="Y25" s="5" t="s">
-        <v>1411</v>
+        <v>1430</v>
       </c>
       <c r="Z25" s="5" t="s">
-        <v>1412</v>
+        <v>1431</v>
       </c>
       <c r="AA25" s="5" t="s">
-        <v>1413</v>
+        <v>1432</v>
       </c>
       <c r="AB25" s="12" t="s">
-        <v>1033</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>695</v>
+        <v>714</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>1414</v>
+        <v>1433</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>1415</v>
+        <v>1434</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>1416</v>
+        <v>1435</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>1417</v>
+        <v>1436</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>1418</v>
+        <v>1437</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>1419</v>
+        <v>1438</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>1420</v>
+        <v>1439</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>1421</v>
+        <v>1440</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>1422</v>
+        <v>1441</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>1423</v>
+        <v>1442</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>1424</v>
+        <v>1443</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>557</v>
+        <v>576</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>1425</v>
+        <v>1444</v>
       </c>
       <c r="O26" s="5" t="s">
-        <v>678</v>
+        <v>697</v>
       </c>
       <c r="P26" s="5" t="s">
-        <v>1426</v>
+        <v>1445</v>
       </c>
       <c r="Q26" s="5" t="s">
-        <v>721</v>
+        <v>740</v>
       </c>
       <c r="R26" s="5" t="s">
-        <v>1427</v>
+        <v>1446</v>
       </c>
       <c r="S26" s="5" t="s">
-        <v>1428</v>
+        <v>1447</v>
       </c>
       <c r="T26" s="5" t="s">
-        <v>1429</v>
+        <v>1448</v>
       </c>
       <c r="U26" s="5" t="s">
-        <v>1430</v>
+        <v>1449</v>
       </c>
       <c r="V26" s="5" t="s">
-        <v>1431</v>
+        <v>1450</v>
       </c>
       <c r="W26" s="5" t="s">
-        <v>1432</v>
+        <v>1451</v>
       </c>
       <c r="X26" s="5" t="s">
-        <v>1433</v>
+        <v>1452</v>
       </c>
       <c r="Y26" s="5" t="s">
-        <v>1434</v>
+        <v>1453</v>
       </c>
       <c r="Z26" s="5" t="s">
-        <v>1435</v>
+        <v>1454</v>
       </c>
       <c r="AA26" s="5" t="s">
-        <v>1436</v>
+        <v>1455</v>
       </c>
       <c r="AB26" s="12" t="s">
-        <v>1437</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>703</v>
+        <v>722</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>1438</v>
+        <v>1457</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>1439</v>
+        <v>1458</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>1440</v>
+        <v>1459</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>1441</v>
+        <v>1460</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>1442</v>
+        <v>1461</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>1443</v>
+        <v>1462</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>1444</v>
+        <v>1463</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>1445</v>
+        <v>1464</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>1446</v>
+        <v>1465</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>1447</v>
+        <v>1466</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>1448</v>
+        <v>1467</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>1449</v>
+        <v>1468</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>1450</v>
+        <v>1469</v>
       </c>
       <c r="O27" s="5" t="s">
-        <v>1451</v>
+        <v>1470</v>
       </c>
       <c r="P27" s="5" t="s">
-        <v>1452</v>
+        <v>1471</v>
       </c>
       <c r="Q27" s="5" t="s">
-        <v>1453</v>
+        <v>1472</v>
       </c>
       <c r="R27" s="5" t="s">
-        <v>1454</v>
+        <v>1473</v>
       </c>
       <c r="S27" s="5" t="s">
-        <v>1455</v>
+        <v>1474</v>
       </c>
       <c r="T27" s="5" t="s">
-        <v>1456</v>
+        <v>1475</v>
       </c>
       <c r="U27" s="5" t="s">
-        <v>1457</v>
+        <v>1476</v>
       </c>
       <c r="V27" s="5" t="s">
-        <v>535</v>
+        <v>554</v>
       </c>
       <c r="W27" s="5" t="s">
-        <v>1458</v>
+        <v>1477</v>
       </c>
       <c r="X27" s="5" t="s">
-        <v>1459</v>
+        <v>1478</v>
       </c>
       <c r="Y27" s="5" t="s">
-        <v>1460</v>
+        <v>1479</v>
       </c>
       <c r="Z27" s="5" t="s">
-        <v>1461</v>
+        <v>1480</v>
       </c>
       <c r="AA27" s="5" t="s">
-        <v>1462</v>
+        <v>1481</v>
       </c>
       <c r="AB27" s="12" t="s">
-        <v>1463</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>710</v>
+        <v>729</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>1464</v>
+        <v>1483</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>1465</v>
+        <v>1484</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>1466</v>
+        <v>1485</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>1467</v>
+        <v>1486</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>1468</v>
+        <v>1487</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>1469</v>
+        <v>1488</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>666</v>
+        <v>685</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>1470</v>
+        <v>1489</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>1471</v>
+        <v>1490</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>1472</v>
+        <v>1491</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>1473</v>
+        <v>1492</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>1474</v>
+        <v>1493</v>
       </c>
       <c r="N28" s="5" t="s">
-        <v>1475</v>
+        <v>1494</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>1476</v>
+        <v>1495</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>1477</v>
+        <v>1496</v>
       </c>
       <c r="Q28" s="5" t="s">
-        <v>1478</v>
+        <v>1497</v>
       </c>
       <c r="R28" s="5" t="s">
-        <v>1479</v>
+        <v>1498</v>
       </c>
       <c r="S28" s="5" t="s">
-        <v>1480</v>
+        <v>1499</v>
       </c>
       <c r="T28" s="5" t="s">
-        <v>1481</v>
+        <v>1500</v>
       </c>
       <c r="U28" s="5" t="s">
-        <v>1482</v>
+        <v>1501</v>
       </c>
       <c r="V28" s="5" t="s">
-        <v>1483</v>
+        <v>1502</v>
       </c>
       <c r="W28" s="5" t="s">
-        <v>1484</v>
+        <v>1503</v>
       </c>
       <c r="X28" s="5" t="s">
-        <v>1485</v>
+        <v>1504</v>
       </c>
       <c r="Y28" s="5" t="s">
-        <v>1486</v>
+        <v>1505</v>
       </c>
       <c r="Z28" s="5" t="s">
-        <v>1487</v>
+        <v>1506</v>
       </c>
       <c r="AA28" s="5" t="s">
-        <v>1488</v>
+        <v>1507</v>
       </c>
       <c r="AB28" s="12" t="s">
-        <v>1489</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>716</v>
+        <v>735</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>1490</v>
+        <v>1509</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>1491</v>
+        <v>1510</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>1492</v>
+        <v>1511</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>1493</v>
+        <v>1512</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>1494</v>
+        <v>1513</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>1495</v>
+        <v>1514</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>1496</v>
+        <v>1515</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>1497</v>
+        <v>1516</v>
       </c>
       <c r="J29" s="13" t="s">
-        <v>1498</v>
+        <v>1517</v>
       </c>
       <c r="K29" s="13" t="s">
-        <v>1499</v>
+        <v>1518</v>
       </c>
       <c r="L29" s="13" t="s">
-        <v>1500</v>
+        <v>1519</v>
       </c>
       <c r="M29" s="13" t="s">
-        <v>1501</v>
+        <v>1520</v>
       </c>
       <c r="N29" s="13" t="s">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="O29" s="13" t="s">
-        <v>1503</v>
+        <v>1522</v>
       </c>
       <c r="P29" s="13" t="s">
-        <v>1504</v>
+        <v>1523</v>
       </c>
       <c r="Q29" s="13" t="s">
-        <v>1505</v>
+        <v>1524</v>
       </c>
       <c r="R29" s="13" t="s">
-        <v>1506</v>
+        <v>1525</v>
       </c>
       <c r="S29" s="13" t="s">
-        <v>1507</v>
+        <v>1526</v>
       </c>
       <c r="T29" s="13" t="s">
-        <v>1508</v>
+        <v>1527</v>
       </c>
       <c r="U29" s="13" t="s">
-        <v>1509</v>
+        <v>1528</v>
       </c>
       <c r="V29" s="13" t="s">
-        <v>1510</v>
+        <v>1529</v>
       </c>
       <c r="W29" s="13" t="s">
-        <v>1511</v>
+        <v>1530</v>
       </c>
       <c r="X29" s="13" t="s">
-        <v>1276</v>
+        <v>1295</v>
       </c>
       <c r="Y29" s="13" t="s">
-        <v>1512</v>
+        <v>1531</v>
       </c>
       <c r="Z29" s="13" t="s">
-        <v>1513</v>
+        <v>1532</v>
       </c>
       <c r="AA29" s="13" t="s">
-        <v>1514</v>
+        <v>1533</v>
       </c>
       <c r="AB29" s="12" t="s">
-        <v>1515</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>519</v>
+        <v>538</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>1516</v>
+        <v>1535</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>1517</v>
+        <v>1536</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>1518</v>
+        <v>1537</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>1519</v>
+        <v>1538</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>1520</v>
+        <v>1539</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>1521</v>
+        <v>1540</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>1522</v>
+        <v>1541</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>1523</v>
+        <v>1542</v>
       </c>
       <c r="J30" s="13" t="s">
-        <v>1524</v>
+        <v>1543</v>
       </c>
       <c r="K30" s="13" t="s">
-        <v>1525</v>
+        <v>1544</v>
       </c>
       <c r="L30" s="13" t="s">
-        <v>1526</v>
+        <v>1545</v>
       </c>
       <c r="M30" s="13" t="s">
-        <v>1527</v>
+        <v>1546</v>
       </c>
       <c r="N30" s="13" t="s">
-        <v>1528</v>
+        <v>1547</v>
       </c>
       <c r="O30" s="13" t="s">
-        <v>1337</v>
+        <v>1356</v>
       </c>
       <c r="P30" s="13" t="s">
-        <v>1529</v>
+        <v>1548</v>
       </c>
       <c r="Q30" s="13" t="s">
-        <v>1530</v>
+        <v>1549</v>
       </c>
       <c r="R30" s="13" t="s">
-        <v>1531</v>
+        <v>1550</v>
       </c>
       <c r="S30" s="13" t="s">
-        <v>732</v>
+        <v>751</v>
       </c>
       <c r="T30" s="13" t="s">
-        <v>1532</v>
+        <v>1551</v>
       </c>
       <c r="U30" s="13" t="s">
-        <v>1533</v>
+        <v>1552</v>
       </c>
       <c r="V30" s="13" t="s">
-        <v>1534</v>
+        <v>1553</v>
       </c>
       <c r="W30" s="13" t="s">
-        <v>1535</v>
+        <v>1554</v>
       </c>
       <c r="X30" s="13" t="s">
-        <v>1536</v>
+        <v>1555</v>
       </c>
       <c r="Y30" s="13" t="s">
-        <v>1537</v>
+        <v>1556</v>
       </c>
       <c r="Z30" s="13" t="s">
-        <v>1538</v>
+        <v>1557</v>
       </c>
       <c r="AA30" s="13" t="s">
-        <v>1539</v>
+        <v>1558</v>
       </c>
       <c r="AB30" s="12" t="s">
-        <v>1540</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>731</v>
+        <v>750</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>891</v>
+        <v>910</v>
       </c>
       <c r="C31" s="13" t="s">
+        <v>1560</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>1561</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>1562</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>1563</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>1564</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>1565</v>
+      </c>
+      <c r="I31" s="13" t="s">
         <v>1541</v>
       </c>
-      <c r="D31" s="13" t="s">
-        <v>1542</v>
-      </c>
-      <c r="E31" s="13" t="s">
-        <v>1543</v>
-      </c>
-      <c r="F31" s="13" t="s">
-        <v>1544</v>
-      </c>
-      <c r="G31" s="13" t="s">
-        <v>1545</v>
-      </c>
-      <c r="H31" s="13" t="s">
-        <v>1546</v>
-      </c>
-      <c r="I31" s="13" t="s">
-        <v>1522</v>
-      </c>
       <c r="J31" s="13" t="s">
-        <v>732</v>
+        <v>751</v>
       </c>
       <c r="K31" s="13" t="s">
-        <v>1547</v>
+        <v>1566</v>
       </c>
       <c r="L31" s="13" t="s">
+        <v>1567</v>
+      </c>
+      <c r="M31" s="13" t="s">
+        <v>1568</v>
+      </c>
+      <c r="N31" s="13" t="s">
         <v>1548</v>
       </c>
-      <c r="M31" s="13" t="s">
-        <v>1549</v>
-      </c>
-      <c r="N31" s="13" t="s">
-        <v>1529</v>
-      </c>
       <c r="O31" s="13" t="s">
-        <v>1550</v>
+        <v>1569</v>
       </c>
       <c r="P31" s="13" t="s">
-        <v>1033</v>
+        <v>1052</v>
       </c>
       <c r="Q31" s="13" t="s">
-        <v>1551</v>
+        <v>1570</v>
       </c>
       <c r="R31" s="13" t="s">
-        <v>1552</v>
+        <v>1571</v>
       </c>
       <c r="S31" s="13" t="s">
-        <v>1553</v>
+        <v>1572</v>
       </c>
       <c r="T31" s="13" t="s">
-        <v>1554</v>
+        <v>1573</v>
       </c>
       <c r="U31" s="13" t="s">
-        <v>1555</v>
+        <v>1574</v>
       </c>
       <c r="V31" s="13" t="s">
-        <v>1556</v>
+        <v>1575</v>
       </c>
       <c r="W31" s="13" t="s">
-        <v>1557</v>
+        <v>1576</v>
       </c>
       <c r="X31" s="13" t="s">
-        <v>1558</v>
+        <v>1577</v>
       </c>
       <c r="Y31" s="13" t="s">
-        <v>1559</v>
+        <v>1578</v>
       </c>
       <c r="Z31" s="13" t="s">
-        <v>1463</v>
+        <v>1482</v>
       </c>
       <c r="AA31" s="13" t="s">
-        <v>1560</v>
+        <v>1579</v>
       </c>
       <c r="AB31" s="12" t="s">
-        <v>1561</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>739</v>
+        <v>758</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>744</v>
+        <v>763</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>742</v>
+        <v>761</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>1562</v>
+        <v>1581</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>743</v>
+        <v>762</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>1563</v>
+        <v>1582</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>1564</v>
+        <v>1583</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>1565</v>
+        <v>1584</v>
       </c>
       <c r="I32" s="13" t="s">
-        <v>1566</v>
+        <v>1585</v>
       </c>
       <c r="J32" s="13" t="s">
-        <v>1567</v>
+        <v>1586</v>
       </c>
       <c r="K32" s="13" t="s">
-        <v>1568</v>
+        <v>1587</v>
       </c>
       <c r="L32" s="13" t="s">
-        <v>1569</v>
+        <v>1588</v>
       </c>
       <c r="M32" s="13" t="s">
-        <v>1566</v>
+        <v>1585</v>
       </c>
       <c r="N32" s="13" t="s">
-        <v>1570</v>
+        <v>1589</v>
       </c>
       <c r="O32" s="13" t="s">
-        <v>1571</v>
+        <v>1590</v>
       </c>
       <c r="P32" s="13" t="s">
-        <v>1572</v>
+        <v>1591</v>
       </c>
       <c r="Q32" s="13" t="s">
-        <v>1570</v>
+        <v>1589</v>
       </c>
       <c r="R32" s="13" t="s">
-        <v>742</v>
+        <v>761</v>
       </c>
       <c r="S32" s="13" t="s">
-        <v>1571</v>
+        <v>1590</v>
       </c>
       <c r="T32" s="13" t="s">
-        <v>1573</v>
+        <v>1592</v>
       </c>
       <c r="U32" s="13" t="s">
-        <v>1574</v>
+        <v>1593</v>
       </c>
       <c r="V32" s="13" t="s">
-        <v>1575</v>
+        <v>1594</v>
       </c>
       <c r="W32" s="13" t="s">
-        <v>1574</v>
+        <v>1593</v>
       </c>
       <c r="X32" s="13" t="s">
-        <v>1576</v>
+        <v>1595</v>
       </c>
       <c r="Y32" s="13" t="s">
-        <v>1577</v>
+        <v>1596</v>
       </c>
       <c r="Z32" s="13" t="s">
-        <v>1570</v>
+        <v>1589</v>
       </c>
       <c r="AA32" s="13" t="s">
-        <v>740</v>
+        <v>759</v>
       </c>
       <c r="AB32" s="12" t="s">
-        <v>1578</v>
+        <v>1597</v>
       </c>
     </row>
   </sheetData>
@@ -13264,357 +13353,357 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>1579</v>
+        <v>1598</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1580</v>
+        <v>1599</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1581</v>
+        <v>1600</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>1582</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1583</v>
+        <v>1602</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1584</v>
+        <v>1603</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1585</v>
+        <v>1604</v>
       </c>
       <c r="D2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>1580</v>
+        <v>1599</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1586</v>
+        <v>1605</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>1587</v>
+        <v>1606</v>
       </c>
       <c r="D3" s="1"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>1581</v>
+        <v>1600</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1588</v>
+        <v>1607</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1589</v>
+        <v>1608</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>1590</v>
+        <v>1609</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1591</v>
+        <v>1610</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1592</v>
+        <v>1611</v>
       </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>1593</v>
+        <v>1612</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1594</v>
+        <v>1613</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1595</v>
+        <v>1614</v>
       </c>
       <c r="D6" s="1"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>1596</v>
+        <v>1615</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1597</v>
+        <v>1616</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1598</v>
+        <v>1617</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>1599</v>
+        <v>1618</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1600</v>
+        <v>1619</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>1601</v>
+        <v>1620</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>1602</v>
+        <v>1621</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1603</v>
+        <v>1622</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1604</v>
+        <v>1623</v>
       </c>
       <c r="D9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>1605</v>
+        <v>1624</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>1606</v>
+        <v>1625</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>1607</v>
+        <v>1626</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>1608</v>
+        <v>1627</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>1609</v>
+        <v>1628</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>1610</v>
+        <v>1629</v>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>1611</v>
+        <v>1630</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>1612</v>
+        <v>1631</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>1613</v>
+        <v>1632</v>
       </c>
       <c r="D12" s="1"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>1614</v>
+        <v>1633</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>1615</v>
+        <v>1634</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>1616</v>
+        <v>1635</v>
       </c>
       <c r="D13" s="1"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>1617</v>
+        <v>1636</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1618</v>
+        <v>1637</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>1619</v>
+        <v>1638</v>
       </c>
       <c r="D14" s="1"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>1620</v>
+        <v>1639</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>1621</v>
+        <v>1640</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>1622</v>
+        <v>1641</v>
       </c>
       <c r="D15" s="1"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>1623</v>
+        <v>1642</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>1624</v>
+        <v>1643</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>1625</v>
+        <v>1644</v>
       </c>
       <c r="D16" s="1"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>1626</v>
+        <v>1645</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>1627</v>
+        <v>1646</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>1628</v>
+        <v>1647</v>
       </c>
       <c r="D17" s="1"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>1629</v>
+        <v>1648</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>1630</v>
+        <v>1649</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>1631</v>
+        <v>1650</v>
       </c>
       <c r="D18" s="1"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>1632</v>
+        <v>1651</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>1633</v>
+        <v>1652</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>1634</v>
+        <v>1653</v>
       </c>
       <c r="D19" s="1"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>1635</v>
+        <v>1654</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>1636</v>
+        <v>1655</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>1637</v>
+        <v>1656</v>
       </c>
       <c r="D20" s="1"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>1638</v>
+        <v>1657</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>1639</v>
+        <v>1658</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>1640</v>
+        <v>1659</v>
       </c>
       <c r="D21" s="1"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>1641</v>
+        <v>1660</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>1642</v>
+        <v>1661</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>1643</v>
+        <v>1662</v>
       </c>
       <c r="D22" s="1"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>1644</v>
+        <v>1663</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>1645</v>
+        <v>1664</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>1646</v>
+        <v>1665</v>
       </c>
       <c r="D23" s="1"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>1647</v>
+        <v>1666</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>1648</v>
+        <v>1667</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>1649</v>
+        <v>1668</v>
       </c>
       <c r="D24" s="1"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>1650</v>
+        <v>1669</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>1651</v>
+        <v>1670</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>1652</v>
+        <v>1671</v>
       </c>
       <c r="D25" s="1"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>1653</v>
+        <v>1672</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>1654</v>
+        <v>1673</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>1655</v>
+        <v>1674</v>
       </c>
       <c r="D26" s="1"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>1656</v>
+        <v>1675</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>1657</v>
+        <v>1676</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>1658</v>
+        <v>1677</v>
       </c>
       <c r="D27" s="1"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>1659</v>
+        <v>1678</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>1660</v>
+        <v>1679</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>1661</v>
+        <v>1680</v>
       </c>
       <c r="D28" s="1"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>1662</v>
+        <v>1681</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>1663</v>
+        <v>1682</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>1664</v>
+        <v>1683</v>
       </c>
       <c r="D29" s="1"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>1665</v>
+        <v>1684</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -13622,7 +13711,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>1666</v>
+        <v>1685</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -13630,7 +13719,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>1667</v>
+        <v>1686</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -13638,7 +13727,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>1668</v>
+        <v>1687</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -13646,7 +13735,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>1669</v>
+        <v>1688</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>

--- a/archive/iceKnives32/iceKnives32.xlsx
+++ b/archive/iceKnives32/iceKnives32.xlsx
@@ -306,7 +306,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2447" uniqueCount="1689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2471" uniqueCount="1730">
   <si>
     <t>[packet]</t>
   </si>
@@ -1217,6 +1217,21 @@
     <t>task</t>
   </si>
   <si>
+    <t>climate</t>
+  </si>
+  <si>
+    <t>moon</t>
+  </si>
+  <si>
+    <t>bonsai</t>
+  </si>
+  <si>
+    <t>drill</t>
+  </si>
+  <si>
+    <t>'153'</t>
+  </si>
+  <si>
     <t>unique</t>
   </si>
   <si>
@@ -1226,6 +1241,21 @@
     <t>series</t>
   </si>
   <si>
+    <t>seal</t>
+  </si>
+  <si>
+    <t>excel</t>
+  </si>
+  <si>
+    <t>lyric</t>
+  </si>
+  <si>
+    <t>race</t>
+  </si>
+  <si>
+    <t>'132'</t>
+  </si>
+  <si>
     <t>argument</t>
   </si>
   <si>
@@ -1235,6 +1265,21 @@
     <t>function</t>
   </si>
   <si>
+    <t>thumb</t>
+  </si>
+  <si>
+    <t>station</t>
+  </si>
+  <si>
+    <t>horn</t>
+  </si>
+  <si>
+    <t>mesh</t>
+  </si>
+  <si>
+    <t>'164'</t>
+  </si>
+  <si>
     <t>format</t>
   </si>
   <si>
@@ -1244,6 +1289,18 @@
     <t>port</t>
   </si>
   <si>
+    <t>tail</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>pool</t>
+  </si>
+  <si>
+    <t>point</t>
+  </si>
+  <si>
     <t>current</t>
   </si>
   <si>
@@ -1253,6 +1310,21 @@
     <t>buffer</t>
   </si>
   <si>
+    <t>pyramid</t>
+  </si>
+  <si>
+    <t>flex</t>
+  </si>
+  <si>
+    <t>battery</t>
+  </si>
+  <si>
+    <t>board</t>
+  </si>
+  <si>
+    <t>'150'</t>
+  </si>
+  <si>
     <t>mat</t>
   </si>
   <si>
@@ -1262,6 +1334,21 @@
     <t>bracket</t>
   </si>
   <si>
+    <t>turn</t>
+  </si>
+  <si>
+    <t>wave</t>
+  </si>
+  <si>
+    <t>elite</t>
+  </si>
+  <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t>'131'</t>
+  </si>
+  <si>
     <t>'203'</t>
   </si>
   <si>
@@ -1274,6 +1361,21 @@
     <t>&lt;597&gt;</t>
   </si>
   <si>
+    <t>|526|</t>
+  </si>
+  <si>
+    <t>_527_</t>
+  </si>
+  <si>
+    <t>"549"</t>
+  </si>
+  <si>
+    <t>!507!</t>
+  </si>
+  <si>
+    <t>'3864'</t>
+  </si>
+  <si>
     <t>{588}</t>
   </si>
   <si>
@@ -1283,6 +1385,21 @@
     <t>&lt;622&gt;</t>
   </si>
   <si>
+    <t>|546|</t>
+  </si>
+  <si>
+    <t>_558_</t>
+  </si>
+  <si>
+    <t>"566"</t>
+  </si>
+  <si>
+    <t>!536!</t>
+  </si>
+  <si>
+    <t>'4038'</t>
+  </si>
+  <si>
     <t>{280}</t>
   </si>
   <si>
@@ -1310,6 +1427,21 @@
     <t>&lt;56&gt;</t>
   </si>
   <si>
+    <t>|47|</t>
+  </si>
+  <si>
+    <t>_57_</t>
+  </si>
+  <si>
+    <t>"51"</t>
+  </si>
+  <si>
+    <t>!47!</t>
+  </si>
+  <si>
+    <t>'377'</t>
+  </si>
+  <si>
     <t>&lt;&gt;;</t>
   </si>
   <si>
@@ -1430,9 +1562,6 @@
     <t>detail</t>
   </si>
   <si>
-    <t>point</t>
-  </si>
-  <si>
     <t>cart</t>
   </si>
   <si>
@@ -1895,9 +2024,6 @@
     <t>'4908'</t>
   </si>
   <si>
-    <t>'377'</t>
-  </si>
-  <si>
     <t>'309'</t>
   </si>
   <si>
@@ -2520,9 +2646,6 @@
   </si>
   <si>
     <t>Library</t>
-  </si>
-  <si>
-    <t>board</t>
   </si>
   <si>
     <t>Group</t>
@@ -5695,7 +5818,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="7.5"/>
+    <col customWidth="1" min="1" max="1" width="7.88"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6445,7 +6568,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="7.5"/>
+    <col customWidth="1" min="1" max="1" width="7.88"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7099,12 +7222,20 @@
       <c r="D23" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
+      <c r="E23" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>306</v>
+      </c>
       <c r="I23" s="3" t="s">
-        <v>9</v>
+        <v>307</v>
       </c>
     </row>
     <row r="24">
@@ -7112,20 +7243,28 @@
         <v>94</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
+        <v>310</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>314</v>
+      </c>
       <c r="I24" s="3" t="s">
-        <v>9</v>
+        <v>315</v>
       </c>
     </row>
     <row r="25">
@@ -7133,20 +7272,28 @@
         <v>98</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>322</v>
+      </c>
       <c r="I25" s="3" t="s">
-        <v>9</v>
+        <v>323</v>
       </c>
     </row>
     <row r="26">
@@ -7154,20 +7301,28 @@
         <v>102</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
+        <v>326</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>330</v>
+      </c>
       <c r="I26" s="3" t="s">
-        <v>9</v>
+        <v>307</v>
       </c>
     </row>
     <row r="27">
@@ -7175,20 +7330,28 @@
         <v>106</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>312</v>
+        <v>331</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>313</v>
+        <v>332</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
+        <v>333</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>337</v>
+      </c>
       <c r="I27" s="3" t="s">
-        <v>9</v>
+        <v>338</v>
       </c>
     </row>
     <row r="28">
@@ -7196,20 +7359,28 @@
         <v>110</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>315</v>
+        <v>339</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>316</v>
+        <v>340</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
+        <v>341</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>345</v>
+      </c>
       <c r="I28" s="3" t="s">
-        <v>9</v>
+        <v>346</v>
       </c>
     </row>
     <row r="29">
@@ -7238,7 +7409,7 @@
         <v>35</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>318</v>
+        <v>347</v>
       </c>
     </row>
     <row r="30">
@@ -7246,28 +7417,28 @@
         <v>118</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>319</v>
+        <v>348</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>320</v>
+        <v>349</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>321</v>
+        <v>350</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>25</v>
+        <v>351</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>29</v>
+        <v>352</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>33</v>
+        <v>353</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>37</v>
+        <v>354</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>9</v>
+        <v>355</v>
       </c>
     </row>
     <row r="31">
@@ -7275,28 +7446,28 @@
         <v>119</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>323</v>
+        <v>357</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>324</v>
+        <v>358</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>25</v>
+        <v>359</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>29</v>
+        <v>360</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>33</v>
+        <v>361</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>37</v>
+        <v>362</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>9</v>
+        <v>363</v>
       </c>
     </row>
     <row r="32">
@@ -7304,13 +7475,13 @@
         <v>120</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>325</v>
+        <v>364</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>326</v>
+        <v>365</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>327</v>
+        <v>366</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>25</v>
@@ -7333,13 +7504,13 @@
         <v>121</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>328</v>
+        <v>367</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>329</v>
+        <v>368</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>330</v>
+        <v>369</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>25</v>
@@ -7420,28 +7591,28 @@
         <v>124</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>331</v>
+        <v>370</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>332</v>
+        <v>371</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>333</v>
+        <v>372</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>25</v>
+        <v>373</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>29</v>
+        <v>374</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>33</v>
+        <v>375</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>37</v>
+        <v>376</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>9</v>
+        <v>377</v>
       </c>
     </row>
     <row r="37">
@@ -7600,19 +7771,19 @@
         <v>137</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>334</v>
+        <v>378</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>138</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>335</v>
+        <v>379</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>336</v>
+        <v>380</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>337</v>
+        <v>381</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>134</v>
@@ -7623,28 +7794,28 @@
         <v>135</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>338</v>
+        <v>382</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>339</v>
+        <v>383</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>340</v>
+        <v>384</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>341</v>
+        <v>385</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>342</v>
+        <v>386</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>343</v>
+        <v>387</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>344</v>
+        <v>388</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>345</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -7662,12 +7833,12 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="7.38"/>
+    <col customWidth="1" min="1" max="1" width="7.88"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>346</v>
+        <v>390</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -7696,7 +7867,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>347</v>
+        <v>391</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>12</v>
@@ -7728,25 +7899,25 @@
         <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>348</v>
+        <v>392</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>349</v>
+        <v>393</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>350</v>
+        <v>394</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>351</v>
+        <v>395</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>352</v>
+        <v>396</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>353</v>
+        <v>397</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>354</v>
+        <v>398</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>9</v>
@@ -7757,25 +7928,25 @@
         <v>14</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>355</v>
+        <v>399</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>356</v>
+        <v>400</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>357</v>
+        <v>401</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>358</v>
+        <v>402</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>359</v>
+        <v>403</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>360</v>
+        <v>404</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>361</v>
+        <v>405</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>9</v>
@@ -7786,25 +7957,25 @@
         <v>18</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>362</v>
+        <v>406</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>363</v>
+        <v>407</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>364</v>
+        <v>408</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>365</v>
+        <v>409</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>366</v>
+        <v>410</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>367</v>
+        <v>411</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>368</v>
+        <v>412</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>9</v>
@@ -7815,25 +7986,25 @@
         <v>22</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>369</v>
+        <v>413</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>370</v>
+        <v>414</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>371</v>
+        <v>415</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>372</v>
+        <v>416</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>373</v>
+        <v>417</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>374</v>
+        <v>330</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>375</v>
+        <v>418</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>9</v>
@@ -7844,25 +8015,25 @@
         <v>26</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>376</v>
+        <v>419</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>377</v>
+        <v>420</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>378</v>
+        <v>421</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>379</v>
+        <v>422</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>380</v>
+        <v>423</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>381</v>
+        <v>424</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>9</v>
@@ -7873,25 +8044,25 @@
         <v>30</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>383</v>
+        <v>426</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>384</v>
+        <v>427</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>385</v>
+        <v>428</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>386</v>
+        <v>429</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>387</v>
+        <v>430</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>388</v>
+        <v>431</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>389</v>
+        <v>432</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>9</v>
@@ -7902,25 +8073,25 @@
         <v>34</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>390</v>
+        <v>433</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>391</v>
+        <v>434</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>392</v>
+        <v>435</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>393</v>
+        <v>436</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>394</v>
+        <v>437</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>395</v>
+        <v>438</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>396</v>
+        <v>439</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>9</v>
@@ -7931,25 +8102,25 @@
         <v>38</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>397</v>
+        <v>440</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>398</v>
+        <v>441</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>399</v>
+        <v>442</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>400</v>
+        <v>443</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>401</v>
+        <v>444</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>402</v>
+        <v>445</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>403</v>
+        <v>446</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>9</v>
@@ -7960,25 +8131,25 @@
         <v>42</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>404</v>
+        <v>447</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>405</v>
+        <v>448</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>406</v>
+        <v>449</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>407</v>
+        <v>450</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>408</v>
+        <v>451</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>409</v>
+        <v>452</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>410</v>
+        <v>453</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>9</v>
@@ -7989,25 +8160,25 @@
         <v>46</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>411</v>
+        <v>454</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>412</v>
+        <v>455</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>413</v>
+        <v>456</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>414</v>
+        <v>457</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>415</v>
+        <v>458</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>416</v>
+        <v>459</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>417</v>
+        <v>460</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>9</v>
@@ -8018,25 +8189,25 @@
         <v>50</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>418</v>
+        <v>461</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>419</v>
+        <v>462</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>420</v>
+        <v>463</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>421</v>
+        <v>464</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>422</v>
+        <v>465</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>423</v>
+        <v>466</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>424</v>
+        <v>467</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>9</v>
@@ -8047,25 +8218,25 @@
         <v>54</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>425</v>
+        <v>468</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>426</v>
+        <v>469</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>427</v>
+        <v>470</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>428</v>
+        <v>471</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>429</v>
+        <v>472</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>430</v>
+        <v>473</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>431</v>
+        <v>474</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>9</v>
@@ -8076,25 +8247,25 @@
         <v>58</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>432</v>
+        <v>475</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>433</v>
+        <v>476</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>434</v>
+        <v>477</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>435</v>
+        <v>478</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>436</v>
+        <v>479</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>437</v>
+        <v>480</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>438</v>
+        <v>481</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>9</v>
@@ -8105,25 +8276,25 @@
         <v>62</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>439</v>
+        <v>482</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>440</v>
+        <v>483</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>441</v>
+        <v>484</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>442</v>
+        <v>485</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>443</v>
+        <v>486</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>444</v>
+        <v>487</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>445</v>
+        <v>488</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>9</v>
@@ -8134,25 +8305,25 @@
         <v>66</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>446</v>
+        <v>489</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>447</v>
+        <v>490</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>448</v>
+        <v>491</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>449</v>
+        <v>492</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>271</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>450</v>
+        <v>493</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>451</v>
+        <v>494</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>9</v>
@@ -8163,25 +8334,25 @@
         <v>70</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>452</v>
+        <v>495</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>453</v>
+        <v>496</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>454</v>
+        <v>497</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>455</v>
+        <v>498</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>456</v>
+        <v>499</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>457</v>
+        <v>500</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>458</v>
+        <v>501</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>9</v>
@@ -8192,25 +8363,25 @@
         <v>74</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>459</v>
+        <v>502</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>460</v>
+        <v>503</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>461</v>
+        <v>504</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>462</v>
+        <v>505</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>463</v>
+        <v>506</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>464</v>
+        <v>507</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>465</v>
+        <v>508</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>9</v>
@@ -8221,25 +8392,25 @@
         <v>78</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>466</v>
+        <v>509</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>467</v>
+        <v>510</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>468</v>
+        <v>511</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>469</v>
+        <v>512</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>470</v>
+        <v>513</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>471</v>
+        <v>514</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>472</v>
+        <v>515</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>9</v>
@@ -8250,25 +8421,25 @@
         <v>82</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>473</v>
+        <v>516</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>474</v>
+        <v>517</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>475</v>
+        <v>518</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>476</v>
+        <v>519</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>477</v>
+        <v>520</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>478</v>
+        <v>521</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>479</v>
+        <v>522</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>9</v>
@@ -8279,25 +8450,25 @@
         <v>86</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>480</v>
+        <v>523</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>481</v>
+        <v>524</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>482</v>
+        <v>525</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>483</v>
+        <v>526</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>484</v>
+        <v>527</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>485</v>
+        <v>528</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>486</v>
+        <v>529</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>9</v>
@@ -8308,25 +8479,25 @@
         <v>90</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>487</v>
+        <v>530</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>488</v>
+        <v>531</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>489</v>
+        <v>532</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>490</v>
+        <v>533</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>491</v>
+        <v>534</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>492</v>
+        <v>535</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>493</v>
+        <v>536</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>9</v>
@@ -8337,25 +8508,25 @@
         <v>94</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>494</v>
+        <v>537</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>495</v>
+        <v>538</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>496</v>
+        <v>539</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>497</v>
+        <v>540</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>498</v>
+        <v>541</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>499</v>
+        <v>542</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>500</v>
+        <v>543</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>9</v>
@@ -8366,25 +8537,25 @@
         <v>98</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>501</v>
+        <v>544</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>502</v>
+        <v>545</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>503</v>
+        <v>546</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>504</v>
+        <v>547</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>505</v>
+        <v>548</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>506</v>
+        <v>549</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>507</v>
+        <v>550</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>9</v>
@@ -8395,25 +8566,25 @@
         <v>102</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>508</v>
+        <v>551</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>509</v>
+        <v>552</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>510</v>
+        <v>553</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>511</v>
+        <v>554</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>512</v>
+        <v>555</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>195</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>513</v>
+        <v>556</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>9</v>
@@ -8424,25 +8595,25 @@
         <v>106</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>514</v>
+        <v>557</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>515</v>
+        <v>558</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>516</v>
+        <v>559</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>517</v>
+        <v>560</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>518</v>
+        <v>561</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>519</v>
+        <v>562</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>520</v>
+        <v>563</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>9</v>
@@ -8453,25 +8624,25 @@
         <v>110</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>521</v>
+        <v>564</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>522</v>
+        <v>565</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>523</v>
+        <v>566</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>524</v>
+        <v>567</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>525</v>
+        <v>568</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>526</v>
+        <v>569</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>527</v>
+        <v>570</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>9</v>
@@ -8503,7 +8674,7 @@
         <v>35</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>318</v>
+        <v>347</v>
       </c>
     </row>
     <row r="30">
@@ -8677,7 +8848,7 @@
         <v>37</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>528</v>
+        <v>571</v>
       </c>
     </row>
     <row r="36">
@@ -8685,28 +8856,28 @@
         <v>124</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>13</v>
+        <v>370</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>17</v>
+        <v>371</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>21</v>
+        <v>372</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>25</v>
+        <v>373</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>29</v>
+        <v>374</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>33</v>
+        <v>375</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>37</v>
+        <v>376</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>529</v>
+        <v>377</v>
       </c>
     </row>
     <row r="37">
@@ -8851,7 +9022,7 @@
         <v>37</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>530</v>
+        <v>572</v>
       </c>
     </row>
     <row r="42">
@@ -8865,19 +9036,19 @@
         <v>137</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>334</v>
+        <v>378</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>138</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>335</v>
+        <v>379</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>336</v>
+        <v>380</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>337</v>
+        <v>381</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>134</v>
@@ -8888,28 +9059,28 @@
         <v>135</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>338</v>
+        <v>382</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>339</v>
+        <v>383</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>340</v>
+        <v>384</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>341</v>
+        <v>385</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>342</v>
+        <v>386</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>343</v>
+        <v>387</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>344</v>
+        <v>388</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>345</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -8928,840 +9099,840 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="4.75"/>
+    <col customWidth="1" min="1" max="1" width="7.88"/>
     <col customWidth="1" min="8" max="8" width="5.88"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="7" t="s">
-        <v>531</v>
+        <v>573</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>532</v>
+        <v>574</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>533</v>
+        <v>575</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>534</v>
+        <v>576</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>535</v>
+        <v>577</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>536</v>
+        <v>578</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>537</v>
+        <v>579</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>538</v>
+        <v>580</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
-        <v>539</v>
+        <v>581</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>540</v>
+        <v>582</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>541</v>
+        <v>583</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>542</v>
+        <v>584</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>543</v>
+        <v>585</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>544</v>
+        <v>586</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>545</v>
+        <v>587</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>546</v>
+        <v>588</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="s">
-        <v>532</v>
+        <v>574</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>547</v>
+        <v>589</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>548</v>
+        <v>590</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>549</v>
+        <v>591</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>550</v>
+        <v>592</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>551</v>
+        <v>593</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>552</v>
+        <v>594</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>553</v>
+        <v>595</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="s">
-        <v>533</v>
+        <v>575</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>554</v>
+        <v>596</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>555</v>
+        <v>597</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>556</v>
+        <v>598</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>557</v>
+        <v>599</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>558</v>
+        <v>600</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>559</v>
+        <v>601</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>560</v>
+        <v>602</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
-        <v>534</v>
+        <v>576</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>561</v>
+        <v>603</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>562</v>
+        <v>604</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>563</v>
+        <v>605</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>564</v>
+        <v>606</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>565</v>
+        <v>607</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>566</v>
+        <v>608</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>567</v>
+        <v>609</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="7" t="s">
-        <v>535</v>
+        <v>577</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>568</v>
+        <v>610</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>569</v>
+        <v>611</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>570</v>
+        <v>612</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>571</v>
+        <v>613</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>572</v>
+        <v>614</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>573</v>
+        <v>615</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>574</v>
+        <v>616</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="7" t="s">
-        <v>536</v>
+        <v>578</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>575</v>
+        <v>617</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>576</v>
+        <v>618</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>394</v>
+        <v>437</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>577</v>
+        <v>619</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>578</v>
+        <v>620</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>579</v>
+        <v>621</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>580</v>
+        <v>622</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="7" t="s">
-        <v>537</v>
+        <v>579</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>581</v>
+        <v>623</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>582</v>
+        <v>624</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>64</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>583</v>
+        <v>625</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>584</v>
+        <v>626</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>585</v>
+        <v>627</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>586</v>
+        <v>628</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="7" t="s">
-        <v>587</v>
+        <v>629</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>588</v>
+        <v>630</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>589</v>
+        <v>631</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>590</v>
+        <v>632</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>591</v>
+        <v>633</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>592</v>
+        <v>634</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>593</v>
+        <v>635</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
-        <v>594</v>
+        <v>636</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>595</v>
+        <v>637</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>596</v>
+        <v>638</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>597</v>
+        <v>639</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>598</v>
+        <v>640</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>599</v>
+        <v>641</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>600</v>
+        <v>642</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>601</v>
+        <v>643</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>602</v>
+        <v>644</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>603</v>
+        <v>645</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>604</v>
+        <v>646</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>426</v>
+        <v>469</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>605</v>
+        <v>647</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>606</v>
+        <v>648</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>607</v>
+        <v>649</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>553</v>
+        <v>595</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="7" t="s">
-        <v>608</v>
+        <v>650</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>609</v>
+        <v>651</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>610</v>
+        <v>652</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>611</v>
+        <v>653</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>612</v>
+        <v>654</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>613</v>
+        <v>655</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>614</v>
+        <v>656</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>615</v>
+        <v>657</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>616</v>
+        <v>658</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>617</v>
+        <v>659</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>618</v>
+        <v>660</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>408</v>
+        <v>451</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>619</v>
+        <v>661</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>620</v>
+        <v>662</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>621</v>
+        <v>663</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>622</v>
+        <v>664</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="7" t="s">
-        <v>623</v>
+        <v>665</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>624</v>
+        <v>666</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>625</v>
+        <v>667</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>176</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>626</v>
+        <v>668</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>627</v>
+        <v>669</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>628</v>
+        <v>670</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>629</v>
+        <v>671</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="7" t="s">
-        <v>630</v>
+        <v>672</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>631</v>
+        <v>673</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>632</v>
+        <v>674</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>633</v>
+        <v>675</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>634</v>
+        <v>676</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>635</v>
+        <v>677</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>636</v>
+        <v>678</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>637</v>
+        <v>679</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="7" t="s">
-        <v>638</v>
+        <v>680</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>639</v>
+        <v>681</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>640</v>
+        <v>682</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>641</v>
+        <v>683</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>642</v>
+        <v>684</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>643</v>
+        <v>685</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>644</v>
+        <v>686</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>645</v>
+        <v>687</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="7" t="s">
-        <v>646</v>
+        <v>688</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>647</v>
+        <v>689</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>648</v>
+        <v>690</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>649</v>
+        <v>691</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>650</v>
+        <v>692</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>651</v>
+        <v>693</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>652</v>
+        <v>694</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>586</v>
+        <v>628</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="7" t="s">
-        <v>653</v>
+        <v>695</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>654</v>
+        <v>696</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>655</v>
+        <v>697</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>656</v>
+        <v>698</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>657</v>
+        <v>699</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>658</v>
+        <v>700</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>659</v>
+        <v>701</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>660</v>
+        <v>702</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
-        <v>661</v>
+        <v>703</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>662</v>
+        <v>704</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>663</v>
+        <v>705</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>664</v>
+        <v>706</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>665</v>
+        <v>707</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>666</v>
+        <v>708</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>667</v>
+        <v>709</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>668</v>
+        <v>710</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="7" t="s">
-        <v>669</v>
+        <v>711</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>670</v>
+        <v>712</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>671</v>
+        <v>713</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>672</v>
+        <v>714</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>673</v>
+        <v>715</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>674</v>
+        <v>716</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>675</v>
+        <v>717</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>586</v>
+        <v>628</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="7" t="s">
-        <v>676</v>
+        <v>718</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>677</v>
+        <v>719</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>678</v>
+        <v>720</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>679</v>
+        <v>721</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>680</v>
+        <v>722</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>681</v>
+        <v>723</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>682</v>
+        <v>724</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>683</v>
+        <v>725</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="7" t="s">
-        <v>684</v>
+        <v>726</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>685</v>
+        <v>727</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>686</v>
+        <v>728</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>687</v>
+        <v>729</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>689</v>
+        <v>731</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>690</v>
+        <v>732</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>691</v>
+        <v>733</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="7" t="s">
-        <v>692</v>
+        <v>734</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>693</v>
+        <v>735</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>694</v>
+        <v>736</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>695</v>
+        <v>737</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>696</v>
+        <v>738</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>697</v>
+        <v>739</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>698</v>
+        <v>740</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>699</v>
+        <v>741</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="7" t="s">
-        <v>700</v>
+        <v>742</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>701</v>
+        <v>743</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>702</v>
+        <v>744</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>410</v>
+        <v>453</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>703</v>
+        <v>745</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>704</v>
+        <v>746</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>705</v>
+        <v>747</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>706</v>
+        <v>748</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="7" t="s">
-        <v>707</v>
+        <v>749</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>708</v>
+        <v>750</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>709</v>
+        <v>751</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>361</v>
+        <v>405</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>710</v>
+        <v>752</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>711</v>
+        <v>753</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>712</v>
+        <v>754</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>713</v>
+        <v>755</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="7" t="s">
-        <v>714</v>
+        <v>756</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>715</v>
+        <v>757</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>716</v>
+        <v>758</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>717</v>
+        <v>759</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>718</v>
+        <v>760</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>719</v>
+        <v>761</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>720</v>
+        <v>762</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>721</v>
+        <v>763</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="7" t="s">
-        <v>722</v>
+        <v>764</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>723</v>
+        <v>765</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>724</v>
+        <v>766</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>725</v>
+        <v>767</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>726</v>
+        <v>768</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>727</v>
+        <v>769</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>728</v>
+        <v>770</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>586</v>
+        <v>628</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="7" t="s">
-        <v>729</v>
+        <v>771</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>730</v>
+        <v>772</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>731</v>
+        <v>773</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>366</v>
+        <v>410</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>732</v>
+        <v>774</v>
       </c>
       <c r="F28" s="9" t="s">
+        <v>775</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>776</v>
+      </c>
+      <c r="H28" s="10" t="s">
         <v>733</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>734</v>
-      </c>
-      <c r="H28" s="10" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="7" t="s">
-        <v>735</v>
+        <v>777</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>736</v>
+        <v>778</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>737</v>
+        <v>779</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>738</v>
+        <v>337</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>739</v>
+        <v>780</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>740</v>
+        <v>781</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>741</v>
+        <v>782</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>742</v>
+        <v>783</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="7" t="s">
-        <v>538</v>
+        <v>580</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>743</v>
+        <v>784</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>744</v>
+        <v>785</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>745</v>
+        <v>786</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>746</v>
+        <v>787</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>747</v>
+        <v>788</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>748</v>
+        <v>789</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>749</v>
+        <v>790</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="7" t="s">
-        <v>750</v>
+        <v>791</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>751</v>
+        <v>792</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>752</v>
+        <v>793</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>753</v>
+        <v>794</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>754</v>
+        <v>795</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>755</v>
+        <v>796</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>756</v>
+        <v>797</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>757</v>
+        <v>798</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="7" t="s">
-        <v>758</v>
+        <v>799</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>759</v>
+        <v>800</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>760</v>
+        <v>801</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>761</v>
+        <v>802</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>762</v>
+        <v>803</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>763</v>
+        <v>804</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>764</v>
+        <v>805</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>765</v>
+        <v>806</v>
       </c>
     </row>
   </sheetData>
@@ -9782,780 +9953,780 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="4.75"/>
+    <col customWidth="1" min="1" max="1" width="7.88"/>
     <col customWidth="1" min="9" max="9" width="3.88"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>766</v>
+        <v>807</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>532</v>
+        <v>574</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>533</v>
+        <v>575</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>534</v>
+        <v>576</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>535</v>
+        <v>577</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>536</v>
+        <v>578</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>537</v>
+        <v>579</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>587</v>
+        <v>629</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>538</v>
+        <v>580</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>767</v>
+        <v>808</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>768</v>
+        <v>809</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>769</v>
+        <v>810</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>770</v>
+        <v>811</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>771</v>
+        <v>812</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>772</v>
+        <v>813</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>773</v>
+        <v>814</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>774</v>
+        <v>815</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>532</v>
+        <v>574</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>775</v>
+        <v>816</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>776</v>
+        <v>817</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>777</v>
+        <v>818</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>533</v>
+        <v>575</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>779</v>
+        <v>820</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>780</v>
+        <v>821</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>781</v>
+        <v>822</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>534</v>
+        <v>576</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>782</v>
+        <v>823</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>783</v>
+        <v>824</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>784</v>
+        <v>825</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>535</v>
+        <v>577</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>785</v>
+        <v>826</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>786</v>
+        <v>827</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>787</v>
+        <v>828</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>536</v>
+        <v>578</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>788</v>
+        <v>829</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>789</v>
+        <v>830</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>790</v>
+        <v>831</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>537</v>
+        <v>579</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>791</v>
+        <v>832</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>792</v>
+        <v>833</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>793</v>
+        <v>834</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>587</v>
+        <v>629</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>794</v>
+        <v>835</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>795</v>
+        <v>836</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>796</v>
+        <v>837</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>594</v>
+        <v>636</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>797</v>
+        <v>838</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>798</v>
+        <v>839</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>799</v>
+        <v>840</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>602</v>
+        <v>644</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>800</v>
+        <v>841</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>801</v>
+        <v>842</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>802</v>
+        <v>843</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>608</v>
+        <v>650</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>803</v>
+        <v>844</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>804</v>
+        <v>845</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>805</v>
+        <v>846</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>616</v>
+        <v>658</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>806</v>
+        <v>847</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>807</v>
+        <v>848</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>808</v>
+        <v>849</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>623</v>
+        <v>665</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>809</v>
+        <v>850</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>810</v>
+        <v>851</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>811</v>
+        <v>852</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>630</v>
+        <v>672</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>812</v>
+        <v>853</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>813</v>
+        <v>854</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>814</v>
+        <v>855</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>638</v>
+        <v>680</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>815</v>
+        <v>856</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>816</v>
+        <v>857</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>817</v>
+        <v>858</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>646</v>
+        <v>688</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>818</v>
+        <v>859</v>
       </c>
       <c r="C17" s="5" t="s">
+        <v>860</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>861</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>819</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>820</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>778</v>
-      </c>
       <c r="F17" s="5" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>653</v>
+        <v>695</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>821</v>
+        <v>862</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>822</v>
+        <v>863</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>823</v>
+        <v>864</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>661</v>
+        <v>703</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>824</v>
+        <v>865</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>825</v>
+        <v>866</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>826</v>
+        <v>867</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>669</v>
+        <v>711</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>827</v>
+        <v>868</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>828</v>
+        <v>869</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>829</v>
+        <v>870</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>676</v>
+        <v>718</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>830</v>
+        <v>871</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>831</v>
+        <v>872</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>832</v>
+        <v>873</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>684</v>
+        <v>726</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>833</v>
+        <v>874</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>834</v>
+        <v>875</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>835</v>
+        <v>876</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>692</v>
+        <v>734</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>836</v>
+        <v>877</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>837</v>
+        <v>878</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>838</v>
+        <v>879</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>700</v>
+        <v>742</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>839</v>
+        <v>880</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>840</v>
+        <v>881</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>841</v>
+        <v>882</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>707</v>
+        <v>749</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>842</v>
+        <v>883</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>843</v>
+        <v>884</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>844</v>
+        <v>885</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>714</v>
+        <v>756</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>845</v>
+        <v>886</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>846</v>
+        <v>887</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>847</v>
+        <v>888</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>722</v>
+        <v>764</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>848</v>
+        <v>889</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>849</v>
+        <v>890</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>850</v>
+        <v>891</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>729</v>
+        <v>771</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>851</v>
+        <v>892</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>852</v>
+        <v>893</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>853</v>
+        <v>894</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>778</v>
+        <v>819</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>735</v>
+        <v>777</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>854</v>
+        <v>895</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>855</v>
+        <v>896</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>856</v>
+        <v>897</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>857</v>
+        <v>898</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>858</v>
+        <v>899</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>859</v>
+        <v>900</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>860</v>
+        <v>901</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>538</v>
+        <v>580</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>750</v>
+        <v>791</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>758</v>
+        <v>799</v>
       </c>
     </row>
   </sheetData>
@@ -10574,2760 +10745,2760 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="4.75"/>
+    <col customWidth="1" min="1" max="1" width="7.88"/>
     <col customWidth="1" min="28" max="28" width="6.75"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>861</v>
+        <v>902</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>532</v>
+        <v>574</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>533</v>
+        <v>575</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>534</v>
+        <v>576</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>535</v>
+        <v>577</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>536</v>
+        <v>578</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>537</v>
+        <v>579</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>587</v>
+        <v>629</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>594</v>
+        <v>636</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>602</v>
+        <v>644</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>608</v>
+        <v>650</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>616</v>
+        <v>658</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>623</v>
+        <v>665</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>630</v>
+        <v>672</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>638</v>
+        <v>680</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>646</v>
+        <v>688</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>653</v>
+        <v>695</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>661</v>
+        <v>703</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>669</v>
+        <v>711</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>676</v>
+        <v>718</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>684</v>
+        <v>726</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>692</v>
+        <v>734</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>700</v>
+        <v>742</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>707</v>
+        <v>749</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>714</v>
+        <v>756</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>722</v>
+        <v>764</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>729</v>
+        <v>771</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>538</v>
+        <v>580</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>766</v>
+        <v>807</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>862</v>
+        <v>903</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>863</v>
+        <v>904</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>864</v>
+        <v>905</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>865</v>
+        <v>906</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>866</v>
+        <v>907</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>867</v>
+        <v>908</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>868</v>
+        <v>909</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>869</v>
+        <v>910</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>870</v>
+        <v>911</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>871</v>
+        <v>912</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>872</v>
+        <v>913</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>873</v>
+        <v>914</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>874</v>
+        <v>915</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>875</v>
+        <v>916</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>876</v>
+        <v>917</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>877</v>
+        <v>918</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>878</v>
+        <v>919</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>879</v>
+        <v>920</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>880</v>
+        <v>921</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>881</v>
+        <v>922</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>882</v>
+        <v>923</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>883</v>
+        <v>924</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>884</v>
+        <v>925</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>885</v>
+        <v>926</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>886</v>
+        <v>927</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>887</v>
+        <v>928</v>
       </c>
       <c r="AB2" s="12" t="s">
-        <v>888</v>
+        <v>929</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>532</v>
+        <v>574</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>889</v>
+        <v>930</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>890</v>
+        <v>931</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>891</v>
+        <v>932</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>892</v>
+        <v>933</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>893</v>
+        <v>934</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>894</v>
+        <v>935</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>895</v>
+        <v>936</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>896</v>
+        <v>937</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>626</v>
+        <v>668</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>897</v>
+        <v>938</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>898</v>
+        <v>939</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>899</v>
+        <v>940</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>900</v>
+        <v>941</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>609</v>
+        <v>651</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>702</v>
+        <v>744</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>901</v>
+        <v>942</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>902</v>
+        <v>943</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>903</v>
+        <v>944</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>904</v>
+        <v>945</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>905</v>
+        <v>946</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>906</v>
+        <v>947</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>907</v>
+        <v>948</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>908</v>
+        <v>949</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>648</v>
+        <v>690</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>909</v>
+        <v>950</v>
       </c>
       <c r="AA3" s="5" t="s">
-        <v>737</v>
+        <v>779</v>
       </c>
       <c r="AB3" s="12" t="s">
-        <v>910</v>
+        <v>951</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>533</v>
+        <v>575</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>911</v>
+        <v>952</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>912</v>
+        <v>953</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>913</v>
+        <v>954</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>914</v>
+        <v>955</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>915</v>
+        <v>956</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>592</v>
+        <v>634</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>916</v>
+        <v>957</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>917</v>
+        <v>958</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>658</v>
+        <v>700</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>918</v>
+        <v>959</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>919</v>
+        <v>960</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>920</v>
+        <v>961</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>921</v>
+        <v>962</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>922</v>
+        <v>963</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>923</v>
+        <v>964</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>924</v>
+        <v>965</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>642</v>
+        <v>684</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>925</v>
+        <v>966</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>926</v>
+        <v>967</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>927</v>
+        <v>968</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>928</v>
+        <v>969</v>
       </c>
       <c r="W4" s="5" t="s">
-        <v>929</v>
+        <v>970</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>930</v>
+        <v>971</v>
       </c>
       <c r="Y4" s="5" t="s">
-        <v>931</v>
+        <v>972</v>
       </c>
       <c r="Z4" s="5" t="s">
-        <v>932</v>
+        <v>973</v>
       </c>
       <c r="AA4" s="5" t="s">
-        <v>933</v>
+        <v>974</v>
       </c>
       <c r="AB4" s="12" t="s">
-        <v>934</v>
+        <v>975</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>534</v>
+        <v>576</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>935</v>
+        <v>976</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>936</v>
+        <v>977</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>937</v>
+        <v>978</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>938</v>
+        <v>979</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>939</v>
+        <v>980</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>940</v>
+        <v>981</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>710</v>
+        <v>752</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>941</v>
+        <v>982</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>942</v>
+        <v>983</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>943</v>
+        <v>984</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>720</v>
+        <v>762</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>550</v>
+        <v>592</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>944</v>
+        <v>985</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>945</v>
+        <v>986</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>946</v>
+        <v>987</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>947</v>
+        <v>988</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>948</v>
+        <v>989</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>949</v>
+        <v>990</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>950</v>
+        <v>991</v>
       </c>
       <c r="U5" s="5" t="s">
-        <v>951</v>
+        <v>992</v>
       </c>
       <c r="V5" s="5" t="s">
-        <v>568</v>
+        <v>610</v>
       </c>
       <c r="W5" s="5" t="s">
-        <v>952</v>
+        <v>993</v>
       </c>
       <c r="X5" s="5" t="s">
-        <v>953</v>
+        <v>994</v>
       </c>
       <c r="Y5" s="5" t="s">
-        <v>954</v>
+        <v>995</v>
       </c>
       <c r="Z5" s="5" t="s">
-        <v>955</v>
+        <v>996</v>
       </c>
       <c r="AA5" s="5" t="s">
-        <v>956</v>
+        <v>997</v>
       </c>
       <c r="AB5" s="12" t="s">
-        <v>957</v>
+        <v>998</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>535</v>
+        <v>577</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>958</v>
+        <v>999</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>959</v>
+        <v>1000</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>960</v>
+        <v>1001</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>961</v>
+        <v>1002</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>962</v>
+        <v>1003</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>963</v>
+        <v>1004</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>964</v>
+        <v>1005</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>965</v>
+        <v>1006</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>966</v>
+        <v>1007</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>967</v>
+        <v>1008</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>968</v>
+        <v>1009</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>969</v>
+        <v>1010</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>970</v>
+        <v>1011</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>639</v>
+        <v>681</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>971</v>
+        <v>1012</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>972</v>
+        <v>1013</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>973</v>
+        <v>1014</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>974</v>
+        <v>1015</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>975</v>
+        <v>1016</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>976</v>
+        <v>1017</v>
       </c>
       <c r="V6" s="5" t="s">
-        <v>977</v>
+        <v>1018</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>978</v>
+        <v>1019</v>
       </c>
       <c r="X6" s="5" t="s">
-        <v>979</v>
+        <v>1020</v>
       </c>
       <c r="Y6" s="5" t="s">
-        <v>980</v>
+        <v>1021</v>
       </c>
       <c r="Z6" s="5" t="s">
-        <v>981</v>
+        <v>1022</v>
       </c>
       <c r="AA6" s="5" t="s">
-        <v>644</v>
+        <v>686</v>
       </c>
       <c r="AB6" s="12" t="s">
-        <v>982</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>536</v>
+        <v>578</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>983</v>
+        <v>1024</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>984</v>
+        <v>1025</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>985</v>
+        <v>1026</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>986</v>
+        <v>1027</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>987</v>
+        <v>1028</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>988</v>
+        <v>1029</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>701</v>
+        <v>743</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>989</v>
+        <v>1030</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>990</v>
+        <v>1031</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>621</v>
+        <v>663</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>991</v>
+        <v>1032</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>613</v>
+        <v>655</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>727</v>
+        <v>769</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>992</v>
+        <v>1033</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>993</v>
+        <v>1034</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>731</v>
+        <v>773</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>994</v>
+        <v>1035</v>
       </c>
       <c r="S7" s="5" t="s">
-        <v>995</v>
+        <v>1036</v>
       </c>
       <c r="T7" s="5" t="s">
-        <v>565</v>
+        <v>607</v>
       </c>
       <c r="U7" s="5" t="s">
-        <v>996</v>
+        <v>1037</v>
       </c>
       <c r="V7" s="5" t="s">
-        <v>997</v>
+        <v>1038</v>
       </c>
       <c r="W7" s="5" t="s">
-        <v>998</v>
+        <v>1039</v>
       </c>
       <c r="X7" s="5" t="s">
-        <v>559</v>
+        <v>601</v>
       </c>
       <c r="Y7" s="5" t="s">
-        <v>999</v>
+        <v>1040</v>
       </c>
       <c r="Z7" s="5" t="s">
-        <v>1000</v>
+        <v>1041</v>
       </c>
       <c r="AA7" s="5" t="s">
-        <v>1001</v>
+        <v>1042</v>
       </c>
       <c r="AB7" s="12" t="s">
-        <v>1002</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>537</v>
+        <v>579</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1003</v>
+        <v>1044</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>1004</v>
+        <v>1045</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>1005</v>
+        <v>1046</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>1006</v>
+        <v>1047</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>1007</v>
+        <v>1048</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>1008</v>
+        <v>1049</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>1009</v>
+        <v>1050</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>1010</v>
+        <v>1051</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>1011</v>
+        <v>1052</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>606</v>
+        <v>648</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>1012</v>
+        <v>1053</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>1013</v>
+        <v>1054</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>677</v>
+        <v>719</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>1014</v>
+        <v>1055</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>1015</v>
+        <v>1056</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>591</v>
+        <v>633</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>1016</v>
+        <v>1057</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>1017</v>
+        <v>1058</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>1018</v>
+        <v>1059</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>1019</v>
+        <v>1060</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>1020</v>
+        <v>1061</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>1021</v>
+        <v>1062</v>
       </c>
       <c r="X8" s="5" t="s">
-        <v>1022</v>
+        <v>1063</v>
       </c>
       <c r="Y8" s="5" t="s">
-        <v>1023</v>
+        <v>1064</v>
       </c>
       <c r="Z8" s="5" t="s">
-        <v>1024</v>
+        <v>1065</v>
       </c>
       <c r="AA8" s="5" t="s">
-        <v>1025</v>
+        <v>1066</v>
       </c>
       <c r="AB8" s="12" t="s">
-        <v>1026</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>587</v>
+        <v>629</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1027</v>
+        <v>1068</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>1028</v>
+        <v>1069</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>1029</v>
+        <v>1070</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>1030</v>
+        <v>1071</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>1031</v>
+        <v>1072</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>1032</v>
+        <v>1073</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>1033</v>
+        <v>1074</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>1034</v>
+        <v>1075</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>1035</v>
+        <v>1076</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>1036</v>
+        <v>1077</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>1037</v>
+        <v>1078</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>1038</v>
+        <v>1079</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>1039</v>
+        <v>1080</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>1040</v>
+        <v>1081</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>1041</v>
+        <v>1082</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>612</v>
+        <v>654</v>
       </c>
       <c r="R9" s="5" t="s">
-        <v>1042</v>
+        <v>1083</v>
       </c>
       <c r="S9" s="5" t="s">
-        <v>1043</v>
+        <v>1084</v>
       </c>
       <c r="T9" s="5" t="s">
-        <v>1044</v>
+        <v>1085</v>
       </c>
       <c r="U9" s="5" t="s">
-        <v>1045</v>
+        <v>1086</v>
       </c>
       <c r="V9" s="5" t="s">
-        <v>1046</v>
+        <v>1087</v>
       </c>
       <c r="W9" s="5" t="s">
-        <v>1047</v>
+        <v>1088</v>
       </c>
       <c r="X9" s="5" t="s">
-        <v>1048</v>
+        <v>1089</v>
       </c>
       <c r="Y9" s="5" t="s">
-        <v>1049</v>
+        <v>1090</v>
       </c>
       <c r="Z9" s="5" t="s">
-        <v>1050</v>
+        <v>1091</v>
       </c>
       <c r="AA9" s="5" t="s">
-        <v>1051</v>
+        <v>1092</v>
       </c>
       <c r="AB9" s="12" t="s">
-        <v>1052</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>594</v>
+        <v>636</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1053</v>
+        <v>1094</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>1054</v>
+        <v>1095</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>1055</v>
+        <v>1096</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>1056</v>
+        <v>1097</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>1057</v>
+        <v>1098</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>1058</v>
+        <v>1099</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>1059</v>
+        <v>1100</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>1060</v>
+        <v>1101</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>1061</v>
+        <v>1102</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>1062</v>
+        <v>1103</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>1063</v>
+        <v>1104</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>1064</v>
+        <v>1105</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>1065</v>
+        <v>1106</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>1066</v>
+        <v>1107</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>1067</v>
+        <v>1108</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>1068</v>
+        <v>1109</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>1069</v>
+        <v>1110</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>1070</v>
+        <v>1111</v>
       </c>
       <c r="T10" s="5" t="s">
-        <v>689</v>
+        <v>731</v>
       </c>
       <c r="U10" s="5" t="s">
-        <v>1071</v>
+        <v>1112</v>
       </c>
       <c r="V10" s="5" t="s">
-        <v>1072</v>
+        <v>1113</v>
       </c>
       <c r="W10" s="5" t="s">
-        <v>1073</v>
+        <v>1114</v>
       </c>
       <c r="X10" s="5" t="s">
-        <v>1074</v>
+        <v>1115</v>
       </c>
       <c r="Y10" s="5" t="s">
-        <v>1075</v>
+        <v>1116</v>
       </c>
       <c r="Z10" s="5" t="s">
-        <v>1076</v>
+        <v>1117</v>
       </c>
       <c r="AA10" s="5" t="s">
-        <v>1077</v>
+        <v>1118</v>
       </c>
       <c r="AB10" s="12" t="s">
-        <v>910</v>
+        <v>951</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>602</v>
+        <v>644</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1078</v>
+        <v>1119</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>1079</v>
+        <v>1120</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>1080</v>
+        <v>1121</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>1081</v>
+        <v>1122</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>1082</v>
+        <v>1123</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>1083</v>
+        <v>1124</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>1084</v>
+        <v>1125</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>1085</v>
+        <v>1126</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>1086</v>
+        <v>1127</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>1087</v>
+        <v>1128</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>1088</v>
+        <v>1129</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>1089</v>
+        <v>1130</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>1090</v>
+        <v>1131</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>1091</v>
+        <v>1132</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>1092</v>
+        <v>1133</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>1093</v>
+        <v>1134</v>
       </c>
       <c r="S11" s="5" t="s">
-        <v>1094</v>
+        <v>1135</v>
       </c>
       <c r="T11" s="5" t="s">
-        <v>1095</v>
+        <v>1136</v>
       </c>
       <c r="U11" s="5" t="s">
-        <v>1096</v>
+        <v>1137</v>
       </c>
       <c r="V11" s="5" t="s">
-        <v>1097</v>
+        <v>1138</v>
       </c>
       <c r="W11" s="5" t="s">
-        <v>1098</v>
+        <v>1139</v>
       </c>
       <c r="X11" s="5" t="s">
-        <v>1099</v>
+        <v>1140</v>
       </c>
       <c r="Y11" s="5" t="s">
-        <v>1100</v>
+        <v>1141</v>
       </c>
       <c r="Z11" s="5" t="s">
-        <v>1101</v>
+        <v>1142</v>
       </c>
       <c r="AA11" s="5" t="s">
-        <v>1102</v>
+        <v>1143</v>
       </c>
       <c r="AB11" s="12" t="s">
-        <v>934</v>
+        <v>975</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>608</v>
+        <v>650</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1103</v>
+        <v>1144</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>1104</v>
+        <v>1145</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>1105</v>
+        <v>1146</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>1106</v>
+        <v>1147</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>1107</v>
+        <v>1148</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>1108</v>
+        <v>1149</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>1109</v>
+        <v>1150</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>1110</v>
+        <v>1151</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>1111</v>
+        <v>1152</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>728</v>
+        <v>770</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>1112</v>
+        <v>1153</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>1113</v>
+        <v>1154</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>577</v>
+        <v>619</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>1114</v>
+        <v>1155</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>1115</v>
+        <v>1156</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>734</v>
+        <v>776</v>
       </c>
       <c r="R12" s="5" t="s">
-        <v>1116</v>
+        <v>1157</v>
       </c>
       <c r="S12" s="5" t="s">
-        <v>1117</v>
+        <v>1158</v>
       </c>
       <c r="T12" s="5" t="s">
-        <v>1118</v>
+        <v>1159</v>
       </c>
       <c r="U12" s="5" t="s">
-        <v>1119</v>
+        <v>1160</v>
       </c>
       <c r="V12" s="5" t="s">
-        <v>1120</v>
+        <v>1161</v>
       </c>
       <c r="W12" s="5" t="s">
-        <v>1121</v>
+        <v>1162</v>
       </c>
       <c r="X12" s="5" t="s">
-        <v>1122</v>
+        <v>1163</v>
       </c>
       <c r="Y12" s="5" t="s">
-        <v>1123</v>
+        <v>1164</v>
       </c>
       <c r="Z12" s="5" t="s">
-        <v>1124</v>
+        <v>1165</v>
       </c>
       <c r="AA12" s="5" t="s">
-        <v>1125</v>
+        <v>1166</v>
       </c>
       <c r="AB12" s="12" t="s">
-        <v>1126</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>616</v>
+        <v>658</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1127</v>
+        <v>1168</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>1128</v>
+        <v>1169</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>1129</v>
+        <v>1170</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>1130</v>
+        <v>1171</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>1131</v>
+        <v>1172</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>1132</v>
+        <v>1173</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>1133</v>
+        <v>1174</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>1134</v>
+        <v>1175</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>1135</v>
+        <v>1176</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>650</v>
+        <v>692</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>1136</v>
+        <v>1177</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>1137</v>
+        <v>1178</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>1138</v>
+        <v>1179</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>1139</v>
+        <v>1180</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>1140</v>
+        <v>1181</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>1141</v>
+        <v>1182</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>1142</v>
+        <v>1183</v>
       </c>
       <c r="S13" s="5" t="s">
-        <v>595</v>
+        <v>637</v>
       </c>
       <c r="T13" s="5" t="s">
-        <v>1143</v>
+        <v>1184</v>
       </c>
       <c r="U13" s="5" t="s">
-        <v>1144</v>
+        <v>1185</v>
       </c>
       <c r="V13" s="5" t="s">
-        <v>1145</v>
+        <v>1186</v>
       </c>
       <c r="W13" s="5" t="s">
-        <v>1146</v>
+        <v>1187</v>
       </c>
       <c r="X13" s="5" t="s">
-        <v>1147</v>
+        <v>1188</v>
       </c>
       <c r="Y13" s="5" t="s">
-        <v>1148</v>
+        <v>1189</v>
       </c>
       <c r="Z13" s="5" t="s">
-        <v>1149</v>
+        <v>1190</v>
       </c>
       <c r="AA13" s="5" t="s">
-        <v>1150</v>
+        <v>1191</v>
       </c>
       <c r="AB13" s="12" t="s">
-        <v>1151</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>623</v>
+        <v>665</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1152</v>
+        <v>1193</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>1153</v>
+        <v>1194</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>1154</v>
+        <v>1195</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>1155</v>
+        <v>1196</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>1156</v>
+        <v>1197</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>1157</v>
+        <v>1198</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>1158</v>
+        <v>1199</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>667</v>
+        <v>709</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>723</v>
+        <v>765</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>1159</v>
+        <v>1200</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>1160</v>
+        <v>1201</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>1161</v>
+        <v>1202</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>1162</v>
+        <v>1203</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>647</v>
+        <v>689</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>730</v>
+        <v>772</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>1163</v>
+        <v>1204</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>1164</v>
+        <v>1205</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>1165</v>
+        <v>1206</v>
       </c>
       <c r="T14" s="5" t="s">
-        <v>1166</v>
+        <v>1207</v>
       </c>
       <c r="U14" s="5" t="s">
-        <v>1167</v>
+        <v>1208</v>
       </c>
       <c r="V14" s="5" t="s">
-        <v>1168</v>
+        <v>1209</v>
       </c>
       <c r="W14" s="5" t="s">
-        <v>1169</v>
+        <v>1210</v>
       </c>
       <c r="X14" s="5" t="s">
-        <v>1170</v>
+        <v>1211</v>
       </c>
       <c r="Y14" s="5" t="s">
-        <v>1171</v>
+        <v>1212</v>
       </c>
       <c r="Z14" s="5" t="s">
-        <v>1172</v>
+        <v>1213</v>
       </c>
       <c r="AA14" s="5" t="s">
-        <v>1173</v>
+        <v>1214</v>
       </c>
       <c r="AB14" s="12" t="s">
-        <v>744</v>
+        <v>785</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>630</v>
+        <v>672</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>1174</v>
+        <v>1215</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>1175</v>
+        <v>1216</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>1176</v>
+        <v>1217</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>1177</v>
+        <v>1218</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>552</v>
+        <v>594</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>1178</v>
+        <v>1219</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>1179</v>
+        <v>1220</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>572</v>
+        <v>614</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>1180</v>
+        <v>1221</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>666</v>
+        <v>708</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>1181</v>
+        <v>1222</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>1182</v>
+        <v>1223</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>671</v>
+        <v>713</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>1183</v>
+        <v>1224</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>643</v>
+        <v>685</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>1184</v>
+        <v>1225</v>
       </c>
       <c r="R15" s="5" t="s">
-        <v>1185</v>
+        <v>1226</v>
       </c>
       <c r="S15" s="5" t="s">
-        <v>581</v>
+        <v>623</v>
       </c>
       <c r="T15" s="5" t="s">
-        <v>1186</v>
+        <v>1227</v>
       </c>
       <c r="U15" s="5" t="s">
-        <v>1187</v>
+        <v>1228</v>
       </c>
       <c r="V15" s="5" t="s">
-        <v>1188</v>
+        <v>1229</v>
       </c>
       <c r="W15" s="5" t="s">
-        <v>1189</v>
+        <v>1230</v>
       </c>
       <c r="X15" s="5" t="s">
-        <v>1190</v>
+        <v>1231</v>
       </c>
       <c r="Y15" s="5" t="s">
-        <v>1191</v>
+        <v>1232</v>
       </c>
       <c r="Z15" s="5" t="s">
-        <v>1192</v>
+        <v>1233</v>
       </c>
       <c r="AA15" s="5" t="s">
-        <v>655</v>
+        <v>697</v>
       </c>
       <c r="AB15" s="12" t="s">
-        <v>1193</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>638</v>
+        <v>680</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>1194</v>
+        <v>1235</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>1195</v>
+        <v>1236</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>1196</v>
+        <v>1237</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>1197</v>
+        <v>1238</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>1198</v>
+        <v>1239</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>1199</v>
+        <v>1240</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>1200</v>
+        <v>1241</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>1201</v>
+        <v>1242</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>1202</v>
+        <v>1243</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>1203</v>
+        <v>1244</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>1204</v>
+        <v>1245</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>1205</v>
+        <v>1246</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>1206</v>
+        <v>1247</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>585</v>
+        <v>627</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>1207</v>
+        <v>1248</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>1208</v>
+        <v>1249</v>
       </c>
       <c r="R16" s="5" t="s">
-        <v>1209</v>
+        <v>1250</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>1210</v>
+        <v>1251</v>
       </c>
       <c r="T16" s="5" t="s">
-        <v>1211</v>
+        <v>1252</v>
       </c>
       <c r="U16" s="5" t="s">
-        <v>1212</v>
+        <v>1253</v>
       </c>
       <c r="V16" s="5" t="s">
-        <v>1213</v>
+        <v>1254</v>
       </c>
       <c r="W16" s="5" t="s">
-        <v>1214</v>
+        <v>1255</v>
       </c>
       <c r="X16" s="5" t="s">
-        <v>1215</v>
+        <v>1256</v>
       </c>
       <c r="Y16" s="5" t="s">
-        <v>1216</v>
+        <v>1257</v>
       </c>
       <c r="Z16" s="5" t="s">
-        <v>1217</v>
+        <v>1258</v>
       </c>
       <c r="AA16" s="5" t="s">
-        <v>1218</v>
+        <v>1259</v>
       </c>
       <c r="AB16" s="12" t="s">
-        <v>751</v>
+        <v>792</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>646</v>
+        <v>688</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1219</v>
+        <v>1260</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>1220</v>
+        <v>1261</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>1221</v>
+        <v>1262</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>1222</v>
+        <v>1263</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>1223</v>
+        <v>1264</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>1224</v>
+        <v>1265</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>1225</v>
+        <v>1266</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>1226</v>
+        <v>1267</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>635</v>
+        <v>677</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>690</v>
+        <v>732</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>1227</v>
+        <v>1268</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>1228</v>
+        <v>1269</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>1229</v>
+        <v>1270</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>1230</v>
+        <v>1271</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>1231</v>
+        <v>1272</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>1232</v>
+        <v>1273</v>
       </c>
       <c r="R17" s="5" t="s">
-        <v>726</v>
+        <v>768</v>
       </c>
       <c r="S17" s="5" t="s">
-        <v>1233</v>
+        <v>1274</v>
       </c>
       <c r="T17" s="5" t="s">
-        <v>1234</v>
+        <v>1275</v>
       </c>
       <c r="U17" s="5" t="s">
-        <v>1235</v>
+        <v>1276</v>
       </c>
       <c r="V17" s="5" t="s">
-        <v>1236</v>
+        <v>1277</v>
       </c>
       <c r="W17" s="5" t="s">
-        <v>1237</v>
+        <v>1278</v>
       </c>
       <c r="X17" s="5" t="s">
-        <v>1238</v>
+        <v>1279</v>
       </c>
       <c r="Y17" s="5" t="s">
-        <v>705</v>
+        <v>747</v>
       </c>
       <c r="Z17" s="5" t="s">
-        <v>1239</v>
+        <v>1280</v>
       </c>
       <c r="AA17" s="5" t="s">
-        <v>1240</v>
+        <v>1281</v>
       </c>
       <c r="AB17" s="12" t="s">
-        <v>753</v>
+        <v>794</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>653</v>
+        <v>695</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>1241</v>
+        <v>1282</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>1242</v>
+        <v>1283</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>1243</v>
+        <v>1284</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>1244</v>
+        <v>1285</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>682</v>
+        <v>724</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>620</v>
+        <v>662</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>1245</v>
+        <v>1286</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>1246</v>
+        <v>1287</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>1247</v>
+        <v>1288</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>1248</v>
+        <v>1289</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>1249</v>
+        <v>1290</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>624</v>
+        <v>666</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>1250</v>
+        <v>1291</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>1251</v>
+        <v>1292</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>1252</v>
+        <v>1293</v>
       </c>
       <c r="Q18" s="5" t="s">
-        <v>1253</v>
+        <v>1294</v>
       </c>
       <c r="R18" s="5" t="s">
-        <v>1254</v>
+        <v>1295</v>
       </c>
       <c r="S18" s="5" t="s">
-        <v>694</v>
+        <v>736</v>
       </c>
       <c r="T18" s="5" t="s">
-        <v>1255</v>
+        <v>1296</v>
       </c>
       <c r="U18" s="5" t="s">
-        <v>1256</v>
+        <v>1297</v>
       </c>
       <c r="V18" s="5" t="s">
-        <v>1257</v>
+        <v>1298</v>
       </c>
       <c r="W18" s="5" t="s">
-        <v>1258</v>
+        <v>1299</v>
       </c>
       <c r="X18" s="5" t="s">
-        <v>1259</v>
+        <v>1300</v>
       </c>
       <c r="Y18" s="5" t="s">
-        <v>1260</v>
+        <v>1301</v>
       </c>
       <c r="Z18" s="5" t="s">
-        <v>1261</v>
+        <v>1302</v>
       </c>
       <c r="AA18" s="5" t="s">
-        <v>1262</v>
+        <v>1303</v>
       </c>
       <c r="AB18" s="12" t="s">
-        <v>1002</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>661</v>
+        <v>703</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>1263</v>
+        <v>1304</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>1264</v>
+        <v>1305</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>1265</v>
+        <v>1306</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>1266</v>
+        <v>1307</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>1267</v>
+        <v>1308</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>1268</v>
+        <v>1309</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>1269</v>
+        <v>1310</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>654</v>
+        <v>696</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>1270</v>
+        <v>1311</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>636</v>
+        <v>678</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>603</v>
+        <v>645</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>1271</v>
+        <v>1312</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>628</v>
+        <v>670</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>1272</v>
+        <v>1313</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>1273</v>
+        <v>1314</v>
       </c>
       <c r="Q19" s="5" t="s">
-        <v>1274</v>
+        <v>1315</v>
       </c>
       <c r="R19" s="5" t="s">
-        <v>1275</v>
+        <v>1316</v>
       </c>
       <c r="S19" s="5" t="s">
-        <v>1276</v>
+        <v>1317</v>
       </c>
       <c r="T19" s="5" t="s">
-        <v>1277</v>
+        <v>1318</v>
       </c>
       <c r="U19" s="5" t="s">
-        <v>1278</v>
+        <v>1319</v>
       </c>
       <c r="V19" s="5" t="s">
-        <v>1279</v>
+        <v>1320</v>
       </c>
       <c r="W19" s="5" t="s">
-        <v>1280</v>
+        <v>1321</v>
       </c>
       <c r="X19" s="5" t="s">
-        <v>1281</v>
+        <v>1322</v>
       </c>
       <c r="Y19" s="5" t="s">
-        <v>1282</v>
+        <v>1323</v>
       </c>
       <c r="Z19" s="5" t="s">
-        <v>1283</v>
+        <v>1324</v>
       </c>
       <c r="AA19" s="5" t="s">
-        <v>1284</v>
+        <v>1325</v>
       </c>
       <c r="AB19" s="12" t="s">
-        <v>1285</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>669</v>
+        <v>711</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1286</v>
+        <v>1327</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>1287</v>
+        <v>1328</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>1288</v>
+        <v>1329</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>1289</v>
+        <v>1330</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>1290</v>
+        <v>1331</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>1291</v>
+        <v>1332</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>1292</v>
+        <v>1333</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>1293</v>
+        <v>1334</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>733</v>
+        <v>775</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>589</v>
+        <v>631</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>1294</v>
+        <v>1335</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>1295</v>
+        <v>1336</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>1296</v>
+        <v>1337</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>1297</v>
+        <v>1338</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>1298</v>
+        <v>1339</v>
       </c>
       <c r="Q20" s="5" t="s">
-        <v>1299</v>
+        <v>1340</v>
       </c>
       <c r="R20" s="5" t="s">
-        <v>1300</v>
+        <v>1341</v>
       </c>
       <c r="S20" s="5" t="s">
-        <v>1301</v>
+        <v>1342</v>
       </c>
       <c r="T20" s="5" t="s">
-        <v>1302</v>
+        <v>1343</v>
       </c>
       <c r="U20" s="5" t="s">
-        <v>1303</v>
+        <v>1344</v>
       </c>
       <c r="V20" s="5" t="s">
-        <v>1304</v>
+        <v>1345</v>
       </c>
       <c r="W20" s="5" t="s">
-        <v>1305</v>
+        <v>1346</v>
       </c>
       <c r="X20" s="5" t="s">
-        <v>566</v>
+        <v>608</v>
       </c>
       <c r="Y20" s="5" t="s">
-        <v>1306</v>
+        <v>1347</v>
       </c>
       <c r="Z20" s="5" t="s">
-        <v>1307</v>
+        <v>1348</v>
       </c>
       <c r="AA20" s="5" t="s">
-        <v>1308</v>
+        <v>1349</v>
       </c>
       <c r="AB20" s="12" t="s">
-        <v>1309</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>676</v>
+        <v>718</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>1310</v>
+        <v>1351</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>1311</v>
+        <v>1352</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>1312</v>
+        <v>1353</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>1313</v>
+        <v>1354</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>1314</v>
+        <v>1355</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>709</v>
+        <v>751</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>1315</v>
+        <v>1356</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>1316</v>
+        <v>1357</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>1317</v>
+        <v>1358</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>1318</v>
+        <v>1359</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>1319</v>
+        <v>1360</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>739</v>
+        <v>780</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>1320</v>
+        <v>1361</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>1321</v>
+        <v>1362</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>1322</v>
+        <v>1363</v>
       </c>
       <c r="Q21" s="5" t="s">
-        <v>1323</v>
+        <v>1364</v>
       </c>
       <c r="R21" s="5" t="s">
-        <v>1324</v>
+        <v>1365</v>
       </c>
       <c r="S21" s="5" t="s">
-        <v>1325</v>
+        <v>1366</v>
       </c>
       <c r="T21" s="5" t="s">
-        <v>1326</v>
+        <v>1367</v>
       </c>
       <c r="U21" s="5" t="s">
-        <v>1327</v>
+        <v>1368</v>
       </c>
       <c r="V21" s="5" t="s">
-        <v>1328</v>
+        <v>1369</v>
       </c>
       <c r="W21" s="5" t="s">
-        <v>1329</v>
+        <v>1370</v>
       </c>
       <c r="X21" s="5" t="s">
-        <v>1330</v>
+        <v>1371</v>
       </c>
       <c r="Y21" s="5" t="s">
-        <v>1331</v>
+        <v>1372</v>
       </c>
       <c r="Z21" s="5" t="s">
-        <v>1332</v>
+        <v>1373</v>
       </c>
       <c r="AA21" s="5" t="s">
-        <v>540</v>
+        <v>582</v>
       </c>
       <c r="AB21" s="12" t="s">
-        <v>745</v>
+        <v>786</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>684</v>
+        <v>726</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>1333</v>
+        <v>1374</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>1334</v>
+        <v>1375</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>1335</v>
+        <v>1376</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>1336</v>
+        <v>1377</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>1337</v>
+        <v>1378</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>1338</v>
+        <v>1379</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>1339</v>
+        <v>1380</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>1340</v>
+        <v>1381</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>1341</v>
+        <v>1382</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>1342</v>
+        <v>1383</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>1343</v>
+        <v>1384</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>1344</v>
+        <v>1385</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>711</v>
+        <v>753</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>571</v>
+        <v>613</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>1345</v>
+        <v>1386</v>
       </c>
       <c r="Q22" s="5" t="s">
-        <v>1346</v>
+        <v>1387</v>
       </c>
       <c r="R22" s="5" t="s">
-        <v>1347</v>
+        <v>1388</v>
       </c>
       <c r="S22" s="5" t="s">
-        <v>1348</v>
+        <v>1389</v>
       </c>
       <c r="T22" s="5" t="s">
-        <v>1349</v>
+        <v>1390</v>
       </c>
       <c r="U22" s="5" t="s">
-        <v>1350</v>
+        <v>1391</v>
       </c>
       <c r="V22" s="5" t="s">
-        <v>1351</v>
+        <v>1392</v>
       </c>
       <c r="W22" s="5" t="s">
-        <v>1352</v>
+        <v>1393</v>
       </c>
       <c r="X22" s="5" t="s">
-        <v>1353</v>
+        <v>1394</v>
       </c>
       <c r="Y22" s="5" t="s">
-        <v>1354</v>
+        <v>1395</v>
       </c>
       <c r="Z22" s="5" t="s">
-        <v>716</v>
+        <v>758</v>
       </c>
       <c r="AA22" s="5" t="s">
-        <v>1355</v>
+        <v>1396</v>
       </c>
       <c r="AB22" s="12" t="s">
-        <v>1356</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>692</v>
+        <v>734</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>1357</v>
+        <v>1398</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>1358</v>
+        <v>1399</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>1359</v>
+        <v>1400</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>1360</v>
+        <v>1401</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>1361</v>
+        <v>1402</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>1362</v>
+        <v>1403</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>1363</v>
+        <v>1404</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>1364</v>
+        <v>1405</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>1365</v>
+        <v>1406</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>1366</v>
+        <v>1407</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>1367</v>
+        <v>1408</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>1368</v>
+        <v>1409</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>1369</v>
+        <v>1410</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>1370</v>
+        <v>1411</v>
       </c>
       <c r="P23" s="5" t="s">
-        <v>1371</v>
+        <v>1412</v>
       </c>
       <c r="Q23" s="5" t="s">
-        <v>1372</v>
+        <v>1413</v>
       </c>
       <c r="R23" s="5" t="s">
-        <v>1373</v>
+        <v>1414</v>
       </c>
       <c r="S23" s="5" t="s">
-        <v>1374</v>
+        <v>1415</v>
       </c>
       <c r="T23" s="5" t="s">
-        <v>1375</v>
+        <v>1416</v>
       </c>
       <c r="U23" s="5" t="s">
-        <v>1376</v>
+        <v>1417</v>
       </c>
       <c r="V23" s="5" t="s">
-        <v>718</v>
+        <v>760</v>
       </c>
       <c r="W23" s="5" t="s">
-        <v>1377</v>
+        <v>1418</v>
       </c>
       <c r="X23" s="5" t="s">
-        <v>1378</v>
+        <v>1419</v>
       </c>
       <c r="Y23" s="5" t="s">
-        <v>1379</v>
+        <v>1420</v>
       </c>
       <c r="Z23" s="5" t="s">
-        <v>1380</v>
+        <v>1421</v>
       </c>
       <c r="AA23" s="5" t="s">
-        <v>1381</v>
+        <v>1422</v>
       </c>
       <c r="AB23" s="12" t="s">
-        <v>1382</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>700</v>
+        <v>742</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>1383</v>
+        <v>1424</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>1384</v>
+        <v>1425</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>1385</v>
+        <v>1426</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>1386</v>
+        <v>1427</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>1387</v>
+        <v>1428</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>1388</v>
+        <v>1429</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>659</v>
+        <v>701</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>1389</v>
+        <v>1430</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>1390</v>
+        <v>1431</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>1391</v>
+        <v>1432</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>1392</v>
+        <v>1433</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>1393</v>
+        <v>1434</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>1394</v>
+        <v>1435</v>
       </c>
       <c r="O24" s="5" t="s">
-        <v>1395</v>
+        <v>1436</v>
       </c>
       <c r="P24" s="5" t="s">
-        <v>1396</v>
+        <v>1437</v>
       </c>
       <c r="Q24" s="5" t="s">
-        <v>1397</v>
+        <v>1438</v>
       </c>
       <c r="R24" s="5" t="s">
-        <v>1398</v>
+        <v>1439</v>
       </c>
       <c r="S24" s="5" t="s">
-        <v>1399</v>
+        <v>1440</v>
       </c>
       <c r="T24" s="5" t="s">
-        <v>1400</v>
+        <v>1441</v>
       </c>
       <c r="U24" s="5" t="s">
-        <v>1401</v>
+        <v>1442</v>
       </c>
       <c r="V24" s="5" t="s">
-        <v>1402</v>
+        <v>1443</v>
       </c>
       <c r="W24" s="5" t="s">
-        <v>1403</v>
+        <v>1444</v>
       </c>
       <c r="X24" s="5" t="s">
-        <v>1404</v>
+        <v>1445</v>
       </c>
       <c r="Y24" s="5" t="s">
-        <v>1405</v>
+        <v>1446</v>
       </c>
       <c r="Z24" s="5" t="s">
-        <v>1406</v>
+        <v>1447</v>
       </c>
       <c r="AA24" s="5" t="s">
-        <v>1407</v>
+        <v>1448</v>
       </c>
       <c r="AB24" s="12" t="s">
-        <v>1408</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>707</v>
+        <v>749</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>1409</v>
+        <v>1450</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>1410</v>
+        <v>1451</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>1411</v>
+        <v>1452</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>1412</v>
+        <v>1453</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>1413</v>
+        <v>1454</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>1414</v>
+        <v>1455</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>1415</v>
+        <v>1456</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>1416</v>
+        <v>1457</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>1417</v>
+        <v>1458</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>1418</v>
+        <v>1459</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>1419</v>
+        <v>1460</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>1420</v>
+        <v>1461</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>1421</v>
+        <v>1462</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>1422</v>
+        <v>1463</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>1423</v>
+        <v>1464</v>
       </c>
       <c r="Q25" s="5" t="s">
-        <v>652</v>
+        <v>694</v>
       </c>
       <c r="R25" s="5" t="s">
-        <v>1424</v>
+        <v>1465</v>
       </c>
       <c r="S25" s="5" t="s">
-        <v>1425</v>
+        <v>1466</v>
       </c>
       <c r="T25" s="5" t="s">
-        <v>605</v>
+        <v>647</v>
       </c>
       <c r="U25" s="5" t="s">
-        <v>1426</v>
+        <v>1467</v>
       </c>
       <c r="V25" s="5" t="s">
-        <v>1427</v>
+        <v>1468</v>
       </c>
       <c r="W25" s="5" t="s">
-        <v>1428</v>
+        <v>1469</v>
       </c>
       <c r="X25" s="5" t="s">
-        <v>1429</v>
+        <v>1470</v>
       </c>
       <c r="Y25" s="5" t="s">
-        <v>1430</v>
+        <v>1471</v>
       </c>
       <c r="Z25" s="5" t="s">
-        <v>1431</v>
+        <v>1472</v>
       </c>
       <c r="AA25" s="5" t="s">
-        <v>1432</v>
+        <v>1473</v>
       </c>
       <c r="AB25" s="12" t="s">
-        <v>1052</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>714</v>
+        <v>756</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>1433</v>
+        <v>1474</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>1434</v>
+        <v>1475</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>1435</v>
+        <v>1476</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>1436</v>
+        <v>1477</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>1437</v>
+        <v>1478</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>1438</v>
+        <v>1479</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>1439</v>
+        <v>1480</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>1440</v>
+        <v>1481</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>1441</v>
+        <v>1482</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>1442</v>
+        <v>1483</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>1443</v>
+        <v>1484</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>576</v>
+        <v>618</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>1444</v>
+        <v>1485</v>
       </c>
       <c r="O26" s="5" t="s">
-        <v>697</v>
+        <v>739</v>
       </c>
       <c r="P26" s="5" t="s">
-        <v>1445</v>
+        <v>1486</v>
       </c>
       <c r="Q26" s="5" t="s">
-        <v>740</v>
+        <v>781</v>
       </c>
       <c r="R26" s="5" t="s">
-        <v>1446</v>
+        <v>1487</v>
       </c>
       <c r="S26" s="5" t="s">
-        <v>1447</v>
+        <v>1488</v>
       </c>
       <c r="T26" s="5" t="s">
-        <v>1448</v>
+        <v>1489</v>
       </c>
       <c r="U26" s="5" t="s">
-        <v>1449</v>
+        <v>1490</v>
       </c>
       <c r="V26" s="5" t="s">
-        <v>1450</v>
+        <v>1491</v>
       </c>
       <c r="W26" s="5" t="s">
-        <v>1451</v>
+        <v>1492</v>
       </c>
       <c r="X26" s="5" t="s">
-        <v>1452</v>
+        <v>1493</v>
       </c>
       <c r="Y26" s="5" t="s">
-        <v>1453</v>
+        <v>1494</v>
       </c>
       <c r="Z26" s="5" t="s">
-        <v>1454</v>
+        <v>1495</v>
       </c>
       <c r="AA26" s="5" t="s">
-        <v>1455</v>
+        <v>1496</v>
       </c>
       <c r="AB26" s="12" t="s">
-        <v>1456</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>722</v>
+        <v>764</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>1457</v>
+        <v>1498</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>1458</v>
+        <v>1499</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>1459</v>
+        <v>1500</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>1460</v>
+        <v>1501</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>1461</v>
+        <v>1502</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>1462</v>
+        <v>1503</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>1463</v>
+        <v>1504</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>1464</v>
+        <v>1505</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>1465</v>
+        <v>1506</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>1466</v>
+        <v>1507</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>1467</v>
+        <v>1508</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>1468</v>
+        <v>1509</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>1469</v>
+        <v>1510</v>
       </c>
       <c r="O27" s="5" t="s">
-        <v>1470</v>
+        <v>1511</v>
       </c>
       <c r="P27" s="5" t="s">
-        <v>1471</v>
+        <v>1512</v>
       </c>
       <c r="Q27" s="5" t="s">
-        <v>1472</v>
+        <v>1513</v>
       </c>
       <c r="R27" s="5" t="s">
-        <v>1473</v>
+        <v>1514</v>
       </c>
       <c r="S27" s="5" t="s">
-        <v>1474</v>
+        <v>1515</v>
       </c>
       <c r="T27" s="5" t="s">
-        <v>1475</v>
+        <v>1516</v>
       </c>
       <c r="U27" s="5" t="s">
-        <v>1476</v>
+        <v>1517</v>
       </c>
       <c r="V27" s="5" t="s">
-        <v>554</v>
+        <v>596</v>
       </c>
       <c r="W27" s="5" t="s">
-        <v>1477</v>
+        <v>1518</v>
       </c>
       <c r="X27" s="5" t="s">
-        <v>1478</v>
+        <v>1519</v>
       </c>
       <c r="Y27" s="5" t="s">
-        <v>1479</v>
+        <v>1520</v>
       </c>
       <c r="Z27" s="5" t="s">
-        <v>1480</v>
+        <v>1521</v>
       </c>
       <c r="AA27" s="5" t="s">
-        <v>1481</v>
+        <v>1522</v>
       </c>
       <c r="AB27" s="12" t="s">
-        <v>1482</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>729</v>
+        <v>771</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>1483</v>
+        <v>1524</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>1484</v>
+        <v>1525</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>1485</v>
+        <v>1526</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>1486</v>
+        <v>1527</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>1487</v>
+        <v>1528</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>1488</v>
+        <v>1529</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>685</v>
+        <v>727</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>1489</v>
+        <v>1530</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>1490</v>
+        <v>1531</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>1491</v>
+        <v>1532</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>1492</v>
+        <v>1533</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>1493</v>
+        <v>1534</v>
       </c>
       <c r="N28" s="5" t="s">
-        <v>1494</v>
+        <v>1535</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>1495</v>
+        <v>1536</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>1496</v>
+        <v>1537</v>
       </c>
       <c r="Q28" s="5" t="s">
-        <v>1497</v>
+        <v>1538</v>
       </c>
       <c r="R28" s="5" t="s">
-        <v>1498</v>
+        <v>1539</v>
       </c>
       <c r="S28" s="5" t="s">
-        <v>1499</v>
+        <v>1540</v>
       </c>
       <c r="T28" s="5" t="s">
-        <v>1500</v>
+        <v>1541</v>
       </c>
       <c r="U28" s="5" t="s">
-        <v>1501</v>
+        <v>1542</v>
       </c>
       <c r="V28" s="5" t="s">
-        <v>1502</v>
+        <v>1543</v>
       </c>
       <c r="W28" s="5" t="s">
-        <v>1503</v>
+        <v>1544</v>
       </c>
       <c r="X28" s="5" t="s">
-        <v>1504</v>
+        <v>1545</v>
       </c>
       <c r="Y28" s="5" t="s">
-        <v>1505</v>
+        <v>1546</v>
       </c>
       <c r="Z28" s="5" t="s">
-        <v>1506</v>
+        <v>1547</v>
       </c>
       <c r="AA28" s="5" t="s">
-        <v>1507</v>
+        <v>1548</v>
       </c>
       <c r="AB28" s="12" t="s">
-        <v>1508</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>735</v>
+        <v>777</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>1509</v>
+        <v>1550</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>1510</v>
+        <v>1551</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>1511</v>
+        <v>1552</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>1512</v>
+        <v>1553</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>1513</v>
+        <v>1554</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>1514</v>
+        <v>1555</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>1515</v>
+        <v>1556</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>1516</v>
+        <v>1557</v>
       </c>
       <c r="J29" s="13" t="s">
-        <v>1517</v>
+        <v>1558</v>
       </c>
       <c r="K29" s="13" t="s">
-        <v>1518</v>
+        <v>1559</v>
       </c>
       <c r="L29" s="13" t="s">
-        <v>1519</v>
+        <v>1560</v>
       </c>
       <c r="M29" s="13" t="s">
-        <v>1520</v>
+        <v>1561</v>
       </c>
       <c r="N29" s="13" t="s">
-        <v>1521</v>
+        <v>1562</v>
       </c>
       <c r="O29" s="13" t="s">
-        <v>1522</v>
+        <v>1563</v>
       </c>
       <c r="P29" s="13" t="s">
-        <v>1523</v>
+        <v>1564</v>
       </c>
       <c r="Q29" s="13" t="s">
-        <v>1524</v>
+        <v>1565</v>
       </c>
       <c r="R29" s="13" t="s">
-        <v>1525</v>
+        <v>1566</v>
       </c>
       <c r="S29" s="13" t="s">
-        <v>1526</v>
+        <v>1567</v>
       </c>
       <c r="T29" s="13" t="s">
-        <v>1527</v>
+        <v>1568</v>
       </c>
       <c r="U29" s="13" t="s">
-        <v>1528</v>
+        <v>1569</v>
       </c>
       <c r="V29" s="13" t="s">
-        <v>1529</v>
+        <v>1570</v>
       </c>
       <c r="W29" s="13" t="s">
-        <v>1530</v>
+        <v>1571</v>
       </c>
       <c r="X29" s="13" t="s">
-        <v>1295</v>
+        <v>1336</v>
       </c>
       <c r="Y29" s="13" t="s">
-        <v>1531</v>
+        <v>1572</v>
       </c>
       <c r="Z29" s="13" t="s">
-        <v>1532</v>
+        <v>1573</v>
       </c>
       <c r="AA29" s="13" t="s">
-        <v>1533</v>
+        <v>1574</v>
       </c>
       <c r="AB29" s="12" t="s">
-        <v>1534</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>538</v>
+        <v>580</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>1535</v>
+        <v>1576</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>1536</v>
+        <v>1577</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>1537</v>
+        <v>1578</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>1538</v>
+        <v>1579</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>1539</v>
+        <v>1580</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>1540</v>
+        <v>1581</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>1541</v>
+        <v>1582</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>1542</v>
+        <v>1583</v>
       </c>
       <c r="J30" s="13" t="s">
-        <v>1543</v>
+        <v>1584</v>
       </c>
       <c r="K30" s="13" t="s">
-        <v>1544</v>
+        <v>1585</v>
       </c>
       <c r="L30" s="13" t="s">
-        <v>1545</v>
+        <v>1586</v>
       </c>
       <c r="M30" s="13" t="s">
-        <v>1546</v>
+        <v>1587</v>
       </c>
       <c r="N30" s="13" t="s">
-        <v>1547</v>
+        <v>1588</v>
       </c>
       <c r="O30" s="13" t="s">
-        <v>1356</v>
+        <v>1397</v>
       </c>
       <c r="P30" s="13" t="s">
-        <v>1548</v>
+        <v>1589</v>
       </c>
       <c r="Q30" s="13" t="s">
-        <v>1549</v>
+        <v>1590</v>
       </c>
       <c r="R30" s="13" t="s">
-        <v>1550</v>
+        <v>1591</v>
       </c>
       <c r="S30" s="13" t="s">
-        <v>751</v>
+        <v>792</v>
       </c>
       <c r="T30" s="13" t="s">
-        <v>1551</v>
+        <v>1592</v>
       </c>
       <c r="U30" s="13" t="s">
-        <v>1552</v>
+        <v>1593</v>
       </c>
       <c r="V30" s="13" t="s">
-        <v>1553</v>
+        <v>1594</v>
       </c>
       <c r="W30" s="13" t="s">
-        <v>1554</v>
+        <v>1595</v>
       </c>
       <c r="X30" s="13" t="s">
-        <v>1555</v>
+        <v>1596</v>
       </c>
       <c r="Y30" s="13" t="s">
-        <v>1556</v>
+        <v>1597</v>
       </c>
       <c r="Z30" s="13" t="s">
-        <v>1557</v>
+        <v>1598</v>
       </c>
       <c r="AA30" s="13" t="s">
-        <v>1558</v>
+        <v>1599</v>
       </c>
       <c r="AB30" s="12" t="s">
-        <v>1559</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>750</v>
+        <v>791</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>910</v>
+        <v>951</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>1560</v>
+        <v>1601</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>1561</v>
+        <v>1602</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>1562</v>
+        <v>1603</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>1563</v>
+        <v>1604</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>1564</v>
+        <v>1605</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>1565</v>
+        <v>1606</v>
       </c>
       <c r="I31" s="13" t="s">
-        <v>1541</v>
+        <v>1582</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>751</v>
+        <v>792</v>
       </c>
       <c r="K31" s="13" t="s">
-        <v>1566</v>
+        <v>1607</v>
       </c>
       <c r="L31" s="13" t="s">
-        <v>1567</v>
+        <v>1608</v>
       </c>
       <c r="M31" s="13" t="s">
-        <v>1568</v>
+        <v>1609</v>
       </c>
       <c r="N31" s="13" t="s">
-        <v>1548</v>
+        <v>1589</v>
       </c>
       <c r="O31" s="13" t="s">
-        <v>1569</v>
+        <v>1610</v>
       </c>
       <c r="P31" s="13" t="s">
-        <v>1052</v>
+        <v>1093</v>
       </c>
       <c r="Q31" s="13" t="s">
-        <v>1570</v>
+        <v>1611</v>
       </c>
       <c r="R31" s="13" t="s">
-        <v>1571</v>
+        <v>1612</v>
       </c>
       <c r="S31" s="13" t="s">
-        <v>1572</v>
+        <v>1613</v>
       </c>
       <c r="T31" s="13" t="s">
-        <v>1573</v>
+        <v>1614</v>
       </c>
       <c r="U31" s="13" t="s">
-        <v>1574</v>
+        <v>1615</v>
       </c>
       <c r="V31" s="13" t="s">
-        <v>1575</v>
+        <v>1616</v>
       </c>
       <c r="W31" s="13" t="s">
-        <v>1576</v>
+        <v>1617</v>
       </c>
       <c r="X31" s="13" t="s">
-        <v>1577</v>
+        <v>1618</v>
       </c>
       <c r="Y31" s="13" t="s">
-        <v>1578</v>
+        <v>1619</v>
       </c>
       <c r="Z31" s="13" t="s">
-        <v>1482</v>
+        <v>1523</v>
       </c>
       <c r="AA31" s="13" t="s">
-        <v>1579</v>
+        <v>1620</v>
       </c>
       <c r="AB31" s="12" t="s">
-        <v>1580</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>758</v>
+        <v>799</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>763</v>
+        <v>804</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>761</v>
+        <v>802</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>1581</v>
+        <v>1622</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>762</v>
+        <v>803</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>1582</v>
+        <v>1623</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>1583</v>
+        <v>1624</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>1584</v>
+        <v>1625</v>
       </c>
       <c r="I32" s="13" t="s">
-        <v>1585</v>
+        <v>1626</v>
       </c>
       <c r="J32" s="13" t="s">
-        <v>1586</v>
+        <v>1627</v>
       </c>
       <c r="K32" s="13" t="s">
-        <v>1587</v>
+        <v>1628</v>
       </c>
       <c r="L32" s="13" t="s">
-        <v>1588</v>
+        <v>1629</v>
       </c>
       <c r="M32" s="13" t="s">
-        <v>1585</v>
+        <v>1626</v>
       </c>
       <c r="N32" s="13" t="s">
-        <v>1589</v>
+        <v>1630</v>
       </c>
       <c r="O32" s="13" t="s">
-        <v>1590</v>
+        <v>1631</v>
       </c>
       <c r="P32" s="13" t="s">
-        <v>1591</v>
+        <v>1632</v>
       </c>
       <c r="Q32" s="13" t="s">
-        <v>1589</v>
+        <v>1630</v>
       </c>
       <c r="R32" s="13" t="s">
-        <v>761</v>
+        <v>802</v>
       </c>
       <c r="S32" s="13" t="s">
-        <v>1590</v>
+        <v>1631</v>
       </c>
       <c r="T32" s="13" t="s">
-        <v>1592</v>
+        <v>1633</v>
       </c>
       <c r="U32" s="13" t="s">
-        <v>1593</v>
+        <v>1634</v>
       </c>
       <c r="V32" s="13" t="s">
-        <v>1594</v>
+        <v>1635</v>
       </c>
       <c r="W32" s="13" t="s">
-        <v>1593</v>
+        <v>1634</v>
       </c>
       <c r="X32" s="13" t="s">
-        <v>1595</v>
+        <v>1636</v>
       </c>
       <c r="Y32" s="13" t="s">
-        <v>1596</v>
+        <v>1637</v>
       </c>
       <c r="Z32" s="13" t="s">
-        <v>1589</v>
+        <v>1630</v>
       </c>
       <c r="AA32" s="13" t="s">
-        <v>759</v>
+        <v>800</v>
       </c>
       <c r="AB32" s="12" t="s">
-        <v>1597</v>
+        <v>1638</v>
       </c>
     </row>
   </sheetData>
@@ -13348,362 +13519,362 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="7.5"/>
+    <col customWidth="1" min="1" max="1" width="7.88"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>1598</v>
+        <v>1639</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1599</v>
+        <v>1640</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1600</v>
+        <v>1641</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>1601</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1602</v>
+        <v>1643</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1603</v>
+        <v>1644</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1604</v>
+        <v>1645</v>
       </c>
       <c r="D2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>1599</v>
+        <v>1640</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1605</v>
+        <v>1646</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>1606</v>
+        <v>1647</v>
       </c>
       <c r="D3" s="1"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>1600</v>
+        <v>1641</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1607</v>
+        <v>1648</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1608</v>
+        <v>1649</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>1609</v>
+        <v>1650</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1610</v>
+        <v>1651</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1611</v>
+        <v>1652</v>
       </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>1612</v>
+        <v>1653</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1613</v>
+        <v>1654</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1614</v>
+        <v>1655</v>
       </c>
       <c r="D6" s="1"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>1615</v>
+        <v>1656</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1616</v>
+        <v>1657</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1617</v>
+        <v>1658</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>1618</v>
+        <v>1659</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1619</v>
+        <v>1660</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>1620</v>
+        <v>1661</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>1621</v>
+        <v>1662</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1622</v>
+        <v>1663</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1623</v>
+        <v>1664</v>
       </c>
       <c r="D9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>1624</v>
+        <v>1665</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>1625</v>
+        <v>1666</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>1626</v>
+        <v>1667</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>1627</v>
+        <v>1668</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>1628</v>
+        <v>1669</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>1629</v>
+        <v>1670</v>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>1630</v>
+        <v>1671</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>1631</v>
+        <v>1672</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>1632</v>
+        <v>1673</v>
       </c>
       <c r="D12" s="1"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>1633</v>
+        <v>1674</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>1634</v>
+        <v>1675</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>1635</v>
+        <v>1676</v>
       </c>
       <c r="D13" s="1"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>1636</v>
+        <v>1677</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1637</v>
+        <v>1678</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>1638</v>
+        <v>1679</v>
       </c>
       <c r="D14" s="1"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>1639</v>
+        <v>1680</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>1640</v>
+        <v>1681</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>1641</v>
+        <v>1682</v>
       </c>
       <c r="D15" s="1"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>1642</v>
+        <v>1683</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>1643</v>
+        <v>1684</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>1644</v>
+        <v>1685</v>
       </c>
       <c r="D16" s="1"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>1645</v>
+        <v>1686</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>1646</v>
+        <v>1687</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>1647</v>
+        <v>1688</v>
       </c>
       <c r="D17" s="1"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>1648</v>
+        <v>1689</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>1649</v>
+        <v>1690</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>1650</v>
+        <v>1691</v>
       </c>
       <c r="D18" s="1"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>1651</v>
+        <v>1692</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>1652</v>
+        <v>1693</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>1653</v>
+        <v>1694</v>
       </c>
       <c r="D19" s="1"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>1654</v>
+        <v>1695</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>1655</v>
+        <v>1696</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>1656</v>
+        <v>1697</v>
       </c>
       <c r="D20" s="1"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>1657</v>
+        <v>1698</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>1658</v>
+        <v>1699</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>1659</v>
+        <v>1700</v>
       </c>
       <c r="D21" s="1"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>1660</v>
+        <v>1701</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>1661</v>
+        <v>1702</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>1662</v>
+        <v>1703</v>
       </c>
       <c r="D22" s="1"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>1663</v>
+        <v>1704</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>1664</v>
+        <v>1705</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>1665</v>
+        <v>1706</v>
       </c>
       <c r="D23" s="1"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>1666</v>
+        <v>1707</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>1667</v>
+        <v>1708</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>1668</v>
+        <v>1709</v>
       </c>
       <c r="D24" s="1"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>1669</v>
+        <v>1710</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>1670</v>
+        <v>1711</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>1671</v>
+        <v>1712</v>
       </c>
       <c r="D25" s="1"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>1672</v>
+        <v>1713</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>1673</v>
+        <v>1714</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>1674</v>
+        <v>1715</v>
       </c>
       <c r="D26" s="1"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>1675</v>
+        <v>1716</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>1676</v>
+        <v>1717</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>1677</v>
+        <v>1718</v>
       </c>
       <c r="D27" s="1"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>1678</v>
+        <v>1719</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>1679</v>
+        <v>1720</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>1680</v>
+        <v>1721</v>
       </c>
       <c r="D28" s="1"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>1681</v>
+        <v>1722</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>1682</v>
+        <v>1723</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>1683</v>
+        <v>1724</v>
       </c>
       <c r="D29" s="1"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>1684</v>
+        <v>1725</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -13711,7 +13882,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>1685</v>
+        <v>1726</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -13719,7 +13890,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>1686</v>
+        <v>1727</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -13727,7 +13898,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>1687</v>
+        <v>1728</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -13735,7 +13906,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>1688</v>
+        <v>1729</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>

--- a/archive/iceKnives32/iceKnives32.xlsx
+++ b/archive/iceKnives32/iceKnives32.xlsx
@@ -308,7 +308,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2881" uniqueCount="1753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2881" uniqueCount="1754">
   <si>
     <t>[]</t>
   </si>
@@ -604,1498 +604,1501 @@
     <t>!span/!;</t>
   </si>
   <si>
+    <t>'323'</t>
+  </si>
+  <si>
+    <t>[packet]</t>
+  </si>
+  <si>
+    <t>[format]</t>
+  </si>
+  <si>
+    <t>pretend</t>
+  </si>
+  <si>
+    <t>update</t>
+  </si>
+  <si>
+    <t>studio</t>
+  </si>
+  <si>
+    <t>'72'</t>
+  </si>
+  <si>
+    <t>enquiry</t>
+  </si>
+  <si>
+    <t>period</t>
+  </si>
+  <si>
+    <t>//</t>
+  </si>
+  <si>
+    <t>trouble</t>
+  </si>
+  <si>
+    <t>learn</t>
+  </si>
+  <si>
+    <t>\\</t>
+  </si>
+  <si>
+    <t>island</t>
+  </si>
+  <si>
+    <t>sense</t>
+  </si>
+  <si>
+    <t>&amp;&amp;</t>
+  </si>
+  <si>
+    <t>cache</t>
+  </si>
+  <si>
+    <t>slide</t>
+  </si>
+  <si>
+    <t>``</t>
+  </si>
+  <si>
+    <t>glyph</t>
+  </si>
+  <si>
+    <t>scroll</t>
+  </si>
+  <si>
+    <t>~~</t>
+  </si>
+  <si>
+    <t>drum</t>
+  </si>
+  <si>
+    <t>me</t>
+  </si>
+  <si>
+    <t>++</t>
+  </si>
+  <si>
+    <t>film</t>
+  </si>
+  <si>
+    <t>sector</t>
+  </si>
+  <si>
+    <t>==</t>
+  </si>
+  <si>
+    <t>echo</t>
+  </si>
+  <si>
+    <t>guest</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>event</t>
+  </si>
+  <si>
+    <t>full</t>
+  </si>
+  <si>
+    <t>%%</t>
+  </si>
+  <si>
+    <t>wall</t>
+  </si>
+  <si>
+    <t>attach</t>
+  </si>
+  <si>
+    <t>^^</t>
+  </si>
+  <si>
+    <t>fine</t>
+  </si>
+  <si>
+    <t>guarantee</t>
+  </si>
+  <si>
+    <t>::</t>
+  </si>
+  <si>
+    <t>fold</t>
+  </si>
+  <si>
+    <t>response</t>
+  </si>
+  <si>
+    <t>@@</t>
+  </si>
+  <si>
+    <t>job</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>««</t>
+  </si>
+  <si>
+    <t>book</t>
+  </si>
+  <si>
+    <t>instruct</t>
+  </si>
+  <si>
+    <t>**</t>
+  </si>
+  <si>
+    <t>manage</t>
+  </si>
+  <si>
+    <t>quick</t>
+  </si>
+  <si>
+    <t>..</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>wipe</t>
+  </si>
+  <si>
+    <t>;;</t>
+  </si>
+  <si>
+    <t>chat</t>
+  </si>
+  <si>
+    <t>room</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>opera</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>##</t>
+  </si>
+  <si>
+    <t>command</t>
+  </si>
+  <si>
+    <t>screen</t>
+  </si>
+  <si>
+    <t>,,</t>
+  </si>
+  <si>
+    <t>toss</t>
+  </si>
+  <si>
+    <t>deploy</t>
+  </si>
+  <si>
+    <t>marquee</t>
+  </si>
+  <si>
+    <t>'74'</t>
+  </si>
+  <si>
+    <t>'1357'</t>
+  </si>
+  <si>
+    <t>{44}</t>
+  </si>
+  <si>
+    <t>(51)</t>
+  </si>
+  <si>
+    <t>&lt;51&gt;</t>
+  </si>
+  <si>
+    <t>'146'</t>
+  </si>
+  <si>
+    <t>'68'</t>
+  </si>
+  <si>
+    <t>{1/6/2025 11:25:17};</t>
+  </si>
+  <si>
+    <t>(1/6/2025 11:29:32);</t>
+  </si>
+  <si>
+    <t>|1/6/2025 11:35:20|;</t>
+  </si>
+  <si>
+    <t>[internet/website/php/library/packet/];</t>
+  </si>
+  <si>
+    <t>{toss/};</t>
+  </si>
+  <si>
+    <t>(deploy/);</t>
+  </si>
+  <si>
+    <t>|marquee/|;</t>
+  </si>
+  <si>
+    <t>'194'</t>
+  </si>
+  <si>
+    <t>[range]</t>
+  </si>
+  <si>
+    <t>[one]</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>card</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>borrow</t>
+  </si>
+  <si>
+    <t>tense</t>
+  </si>
+  <si>
+    <t>coin</t>
+  </si>
+  <si>
+    <t>'130'</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>gyro</t>
+  </si>
+  <si>
+    <t>grammar</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>layout</t>
+  </si>
+  <si>
+    <t>'145'</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>meta</t>
+  </si>
+  <si>
+    <t>graphs</t>
+  </si>
+  <si>
+    <t>pixel</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>now</t>
+  </si>
+  <si>
+    <t>batch</t>
+  </si>
+  <si>
+    <t>'124'</t>
+  </si>
+  <si>
+    <t>difference</t>
+  </si>
+  <si>
+    <t>stamp</t>
+  </si>
+  <si>
+    <t>effect</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>cover</t>
+  </si>
+  <si>
+    <t>circuit</t>
+  </si>
+  <si>
+    <t>'159'</t>
+  </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>structure</t>
+  </si>
+  <si>
+    <t>meet</t>
+  </si>
+  <si>
+    <t>fix</t>
+  </si>
+  <si>
+    <t>objects</t>
+  </si>
+  <si>
+    <t>gross</t>
+  </si>
+  <si>
+    <t>'127'</t>
+  </si>
+  <si>
+    <t>find</t>
+  </si>
+  <si>
+    <t>piece</t>
+  </si>
+  <si>
+    <t>control</t>
+  </si>
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>act</t>
+  </si>
+  <si>
+    <t>cloud</t>
+  </si>
+  <si>
+    <t>deliver</t>
+  </si>
+  <si>
+    <t>'141'</t>
+  </si>
+  <si>
+    <t>delete</t>
+  </si>
+  <si>
+    <t>clause</t>
+  </si>
+  <si>
+    <t>demon</t>
+  </si>
+  <si>
+    <t>which</t>
+  </si>
+  <si>
+    <t>talent</t>
+  </si>
+  <si>
+    <t>any</t>
+  </si>
+  <si>
+    <t>with</t>
+  </si>
+  <si>
+    <t>chunk</t>
+  </si>
+  <si>
+    <t>space</t>
+  </si>
+  <si>
+    <t>branch</t>
+  </si>
+  <si>
+    <t>vision</t>
+  </si>
+  <si>
+    <t>sync</t>
+  </si>
+  <si>
+    <t>these</t>
+  </si>
+  <si>
+    <t>root</t>
+  </si>
+  <si>
+    <t>'139'</t>
+  </si>
+  <si>
+    <t>part</t>
+  </si>
+  <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>grade</t>
+  </si>
+  <si>
+    <t>spread</t>
+  </si>
+  <si>
+    <t>ground</t>
+  </si>
+  <si>
+    <t>hall</t>
+  </si>
+  <si>
+    <t>hook</t>
+  </si>
+  <si>
+    <t>'134'</t>
+  </si>
+  <si>
+    <t>sort</t>
+  </si>
+  <si>
+    <t>logic</t>
+  </si>
+  <si>
+    <t>slip</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>gadget</t>
+  </si>
+  <si>
+    <t>thrown</t>
+  </si>
+  <si>
+    <t>side</t>
+  </si>
+  <si>
+    <t>reset</t>
+  </si>
+  <si>
+    <t>envelop</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>concern</t>
+  </si>
+  <si>
+    <t>magic</t>
+  </si>
+  <si>
+    <t>tablet</t>
+  </si>
+  <si>
+    <t>modified</t>
+  </si>
+  <si>
+    <t>instruction</t>
+  </si>
+  <si>
+    <t>thread</t>
+  </si>
+  <si>
+    <t>bias</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>distract</t>
+  </si>
+  <si>
+    <t>rope</t>
+  </si>
+  <si>
+    <t>truncate</t>
+  </si>
+  <si>
+    <t>route</t>
+  </si>
+  <si>
+    <t>ring</t>
+  </si>
+  <si>
+    <t>acronym</t>
+  </si>
+  <si>
+    <t>carry</t>
+  </si>
+  <si>
+    <t>aim</t>
+  </si>
+  <si>
+    <t>engine</t>
+  </si>
+  <si>
+    <t>'148'</t>
+  </si>
+  <si>
+    <t>history</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>script</t>
+  </si>
+  <si>
+    <t>brief</t>
+  </si>
+  <si>
+    <t>scope</t>
+  </si>
+  <si>
+    <t>portray</t>
+  </si>
+  <si>
+    <t>lag</t>
+  </si>
+  <si>
+    <t>'154'</t>
+  </si>
+  <si>
+    <t>tag</t>
+  </si>
+  <si>
+    <t>view</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>tube</t>
+  </si>
+  <si>
+    <t>hack</t>
+  </si>
+  <si>
+    <t>clear</t>
+  </si>
+  <si>
+    <t>fact</t>
+  </si>
+  <si>
+    <t>'103'</t>
+  </si>
+  <si>
+    <t>zip</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>stream</t>
+  </si>
+  <si>
+    <t>dice</t>
+  </si>
+  <si>
+    <t>dense</t>
+  </si>
+  <si>
+    <t>hang</t>
+  </si>
+  <si>
+    <t>party</t>
+  </si>
+  <si>
+    <t>'136'</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>channel</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>correct</t>
+  </si>
+  <si>
+    <t>vigilance</t>
+  </si>
+  <si>
+    <t>nucleus</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>'184'</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>reminder</t>
+  </si>
+  <si>
+    <t>arrow</t>
+  </si>
+  <si>
+    <t>wheel</t>
+  </si>
+  <si>
+    <t>ghost</t>
+  </si>
+  <si>
+    <t>tip</t>
+  </si>
+  <si>
+    <t>'163'</t>
+  </si>
+  <si>
+    <t>session</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>derivative</t>
+  </si>
+  <si>
+    <t>solve</t>
+  </si>
+  <si>
+    <t>dynamo</t>
+  </si>
+  <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>principal</t>
+  </si>
+  <si>
+    <t>'196'</t>
+  </si>
+  <si>
+    <t>information</t>
+  </si>
+  <si>
+    <t>signature</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>parse</t>
+  </si>
+  <si>
+    <t>optic</t>
+  </si>
+  <si>
+    <t>corner</t>
+  </si>
+  <si>
+    <t>seek</t>
+  </si>
+  <si>
+    <t>'186'</t>
+  </si>
+  <si>
+    <t>track</t>
+  </si>
+  <si>
+    <t>serial</t>
+  </si>
+  <si>
+    <t>task</t>
+  </si>
+  <si>
+    <t>climate</t>
+  </si>
+  <si>
+    <t>moon</t>
+  </si>
+  <si>
+    <t>bonsai</t>
+  </si>
+  <si>
+    <t>drill</t>
+  </si>
+  <si>
+    <t>'153'</t>
+  </si>
+  <si>
+    <t>unique</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>series</t>
+  </si>
+  <si>
+    <t>seal</t>
+  </si>
+  <si>
+    <t>excel</t>
+  </si>
+  <si>
+    <t>lyric</t>
+  </si>
+  <si>
+    <t>race</t>
+  </si>
+  <si>
+    <t>'132'</t>
+  </si>
+  <si>
+    <t>argument</t>
+  </si>
+  <si>
+    <t>range</t>
+  </si>
+  <si>
+    <t>function</t>
+  </si>
+  <si>
+    <t>thumb</t>
+  </si>
+  <si>
+    <t>station</t>
+  </si>
+  <si>
+    <t>horn</t>
+  </si>
+  <si>
+    <t>mesh</t>
+  </si>
+  <si>
+    <t>'164'</t>
+  </si>
+  <si>
+    <t>format</t>
+  </si>
+  <si>
+    <t>pointer</t>
+  </si>
+  <si>
+    <t>port</t>
+  </si>
+  <si>
+    <t>tail</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>pool</t>
+  </si>
+  <si>
+    <t>point</t>
+  </si>
+  <si>
+    <t>current</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>buffer</t>
+  </si>
+  <si>
+    <t>pyramid</t>
+  </si>
+  <si>
+    <t>flex</t>
+  </si>
+  <si>
+    <t>battery</t>
+  </si>
+  <si>
+    <t>board</t>
+  </si>
+  <si>
+    <t>'150'</t>
+  </si>
+  <si>
+    <t>mat</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>bracket</t>
+  </si>
+  <si>
+    <t>turn</t>
+  </si>
+  <si>
+    <t>wave</t>
+  </si>
+  <si>
+    <t>elite</t>
+  </si>
+  <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t>'131'</t>
+  </si>
+  <si>
+    <t>{555}</t>
+  </si>
+  <si>
+    <t>(603)</t>
+  </si>
+  <si>
+    <t>&lt;597&gt;</t>
+  </si>
+  <si>
+    <t>|526|</t>
+  </si>
+  <si>
+    <t>_527_</t>
+  </si>
+  <si>
+    <t>"549"</t>
+  </si>
+  <si>
+    <t>!507!</t>
+  </si>
+  <si>
+    <t>'3864'</t>
+  </si>
+  <si>
+    <t>{588}</t>
+  </si>
+  <si>
+    <t>(622)</t>
+  </si>
+  <si>
+    <t>&lt;622&gt;</t>
+  </si>
+  <si>
+    <t>|546|</t>
+  </si>
+  <si>
+    <t>_558_</t>
+  </si>
+  <si>
+    <t>"566"</t>
+  </si>
+  <si>
+    <t>!536!</t>
+  </si>
+  <si>
+    <t>'4038'</t>
+  </si>
+  <si>
+    <t>{280}</t>
+  </si>
+  <si>
+    <t>(313)</t>
+  </si>
+  <si>
+    <t>&lt;310&gt;</t>
+  </si>
+  <si>
+    <t>{346}</t>
+  </si>
+  <si>
+    <t>(338)</t>
+  </si>
+  <si>
+    <t>&lt;343&gt;</t>
+  </si>
+  <si>
+    <t>'4254'</t>
+  </si>
+  <si>
+    <t>'302'</t>
+  </si>
+  <si>
+    <t>[internet/website/php/library/packet/range/];</t>
+  </si>
+  <si>
+    <t>'341'</t>
+  </si>
+  <si>
+    <t>[migrate]</t>
+  </si>
+  <si>
+    <t>[node]</t>
+  </si>
+  <si>
+    <t>robotics</t>
+  </si>
+  <si>
+    <t>conversation</t>
+  </si>
+  <si>
+    <t>network</t>
+  </si>
+  <si>
+    <t>robot</t>
+  </si>
+  <si>
+    <t>process</t>
+  </si>
+  <si>
+    <t>between</t>
+  </si>
+  <si>
+    <t>deck</t>
+  </si>
+  <si>
+    <t>comprise</t>
+  </si>
+  <si>
+    <t>optimisation</t>
+  </si>
+  <si>
+    <t>explain</t>
+  </si>
+  <si>
+    <t>compass</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>sheet</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>services</t>
+  </si>
+  <si>
+    <t>synchronisation</t>
+  </si>
+  <si>
+    <t>machine</t>
+  </si>
+  <si>
+    <t>serve</t>
+  </si>
+  <si>
+    <t>interest</t>
+  </si>
+  <si>
+    <t>term</t>
+  </si>
+  <si>
+    <t>thin</t>
+  </si>
+  <si>
+    <t>itemised</t>
+  </si>
+  <si>
+    <t>formation</t>
+  </si>
+  <si>
+    <t>cellular</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>detail</t>
+  </si>
+  <si>
+    <t>cart</t>
+  </si>
+  <si>
+    <t>assigned</t>
+  </si>
+  <si>
+    <t>reservation</t>
+  </si>
+  <si>
+    <t>container</t>
+  </si>
+  <si>
+    <t>assign</t>
+  </si>
+  <si>
+    <t>tape</t>
+  </si>
+  <si>
+    <t>edit</t>
+  </si>
+  <si>
+    <t>hub</t>
+  </si>
+  <si>
+    <t>template</t>
+  </si>
+  <si>
+    <t>specimen</t>
+  </si>
+  <si>
+    <t>pattern</t>
+  </si>
+  <si>
+    <t>temporary</t>
+  </si>
+  <si>
+    <t>transit</t>
+  </si>
+  <si>
+    <t>receipt</t>
+  </si>
+  <si>
+    <t>fuel</t>
+  </si>
+  <si>
+    <t>accessor</t>
+  </si>
+  <si>
+    <t>speciality</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>access</t>
+  </si>
+  <si>
+    <t>target</t>
+  </si>
+  <si>
+    <t>century</t>
+  </si>
+  <si>
+    <t>spring</t>
+  </si>
+  <si>
+    <t>terminal</t>
+  </si>
+  <si>
+    <t>slate</t>
+  </si>
+  <si>
+    <t>totally</t>
+  </si>
+  <si>
+    <t>determinant</t>
+  </si>
+  <si>
+    <t>contrast</t>
+  </si>
+  <si>
+    <t>bind</t>
+  </si>
+  <si>
+    <t>fair</t>
+  </si>
+  <si>
+    <t>distance</t>
+  </si>
+  <si>
+    <t>print</t>
+  </si>
+  <si>
+    <t>tolerance</t>
+  </si>
+  <si>
+    <t>distant</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>tune</t>
+  </si>
+  <si>
+    <t>regulate</t>
+  </si>
+  <si>
+    <t>repeat</t>
+  </si>
+  <si>
+    <t>cuboid</t>
+  </si>
+  <si>
+    <t>relate</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>log</t>
+  </si>
+  <si>
+    <t>miss</t>
+  </si>
+  <si>
+    <t>guardian</t>
+  </si>
+  <si>
+    <t>badge</t>
+  </si>
+  <si>
+    <t>kit</t>
+  </si>
+  <si>
+    <t>guard</t>
+  </si>
+  <si>
+    <t>dot</t>
+  </si>
+  <si>
+    <t>scratch</t>
+  </si>
+  <si>
+    <t>oil</t>
+  </si>
+  <si>
+    <t>equalise</t>
+  </si>
+  <si>
+    <t>step</t>
+  </si>
+  <si>
+    <t>mapping</t>
+  </si>
+  <si>
+    <t>equilibrium</t>
+  </si>
+  <si>
+    <t>lock</t>
+  </si>
+  <si>
+    <t>scale</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>deposits</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>scan</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>pause</t>
+  </si>
+  <si>
+    <t>toggle</t>
+  </si>
+  <si>
+    <t>agree</t>
+  </si>
+  <si>
+    <t>informal</t>
+  </si>
+  <si>
+    <t>flag</t>
+  </si>
+  <si>
+    <t>switch</t>
+  </si>
+  <si>
+    <t>invite</t>
+  </si>
+  <si>
+    <t>tough</t>
+  </si>
+  <si>
+    <t>opposite</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>parasite</t>
+  </si>
+  <si>
+    <t>represent</t>
+  </si>
+  <si>
+    <t>clutch</t>
+  </si>
+  <si>
+    <t>policy</t>
+  </si>
+  <si>
+    <t>auto</t>
+  </si>
+  <si>
+    <t>copy</t>
+  </si>
+  <si>
+    <t>majestic</t>
+  </si>
+  <si>
+    <t>vault</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>smudge</t>
+  </si>
+  <si>
+    <t>merge</t>
+  </si>
+  <si>
+    <t>tap</t>
+  </si>
+  <si>
+    <t>border</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>requisite</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>shield</t>
+  </si>
+  <si>
+    <t>warm</t>
+  </si>
+  <si>
+    <t>versus</t>
+  </si>
+  <si>
+    <t>fiction</t>
+  </si>
+  <si>
+    <t>transfer</t>
+  </si>
+  <si>
+    <t>encapsulate</t>
+  </si>
+  <si>
+    <t>zone</t>
+  </si>
+  <si>
+    <t>capture</t>
+  </si>
+  <si>
+    <t>electric</t>
+  </si>
+  <si>
+    <t>reason</t>
+  </si>
+  <si>
+    <t>trait</t>
+  </si>
+  <si>
+    <t>register</t>
+  </si>
+  <si>
+    <t>certificate</t>
+  </si>
+  <si>
+    <t>licence</t>
+  </si>
+  <si>
+    <t>render</t>
+  </si>
+  <si>
+    <t>over</t>
+  </si>
+  <si>
+    <t>minute</t>
+  </si>
+  <si>
+    <t>system</t>
+  </si>
+  <si>
+    <t>organise</t>
+  </si>
+  <si>
+    <t>knowledge</t>
+  </si>
+  <si>
+    <t>expert</t>
+  </si>
+  <si>
+    <t>once</t>
+  </si>
+  <si>
+    <t>lift</t>
+  </si>
+  <si>
+    <t>sponsor</t>
+  </si>
+  <si>
+    <t>chair</t>
+  </si>
+  <si>
+    <t>changing</t>
+  </si>
+  <si>
+    <t>alternate</t>
+  </si>
+  <si>
+    <t>mirror</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>claim</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>specific</t>
+  </si>
+  <si>
+    <t>rubber</t>
+  </si>
+  <si>
+    <t>encrypt</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>mail</t>
+  </si>
+  <si>
+    <t>spam</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>acoustic</t>
+  </si>
+  <si>
+    <t>mainframe</t>
+  </si>
+  <si>
+    <t>entity</t>
+  </si>
+  <si>
+    <t>infinite</t>
+  </si>
+  <si>
+    <t>cause</t>
+  </si>
+  <si>
+    <t>rate</t>
+  </si>
+  <si>
+    <t>derive</t>
+  </si>
+  <si>
+    <t>freezers</t>
+  </si>
+  <si>
+    <t>sustain</t>
+  </si>
+  <si>
+    <t>mark</t>
+  </si>
+  <si>
+    <t>alien</t>
+  </si>
+  <si>
+    <t>phase</t>
+  </si>
+  <si>
+    <t>chart</t>
+  </si>
+  <si>
+    <t>rotation</t>
+  </si>
+  <si>
+    <t>browser</t>
+  </si>
+  <si>
+    <t>micro</t>
+  </si>
+  <si>
+    <t>applicants</t>
+  </si>
+  <si>
+    <t>graphite</t>
+  </si>
+  <si>
+    <t>transform</t>
+  </si>
+  <si>
+    <t>rhombus</t>
+  </si>
+  <si>
+    <t>rigidity</t>
+  </si>
+  <si>
+    <t>figure</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>sudoku</t>
+  </si>
+  <si>
+    <t>ticket</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>invoke</t>
+  </si>
+  <si>
+    <t>'4908'</t>
+  </si>
+  <si>
+    <t>[internet/website/php/library/packet/migrate/];</t>
+  </si>
+  <si>
+    <t>'347'</t>
+  </si>
+  <si>
+    <t>[memory]</t>
+  </si>
+  <si>
+    <t>[neon]</t>
+  </si>
+  <si>
+    <t>[internet/website/php/library/packet/memory/];</t>
+  </si>
+  <si>
     <t>'351'</t>
-  </si>
-  <si>
-    <t>[packet]</t>
-  </si>
-  <si>
-    <t>[format]</t>
-  </si>
-  <si>
-    <t>pretend</t>
-  </si>
-  <si>
-    <t>update</t>
-  </si>
-  <si>
-    <t>studio</t>
-  </si>
-  <si>
-    <t>'72'</t>
-  </si>
-  <si>
-    <t>enquiry</t>
-  </si>
-  <si>
-    <t>period</t>
-  </si>
-  <si>
-    <t>//</t>
-  </si>
-  <si>
-    <t>trouble</t>
-  </si>
-  <si>
-    <t>learn</t>
-  </si>
-  <si>
-    <t>\\</t>
-  </si>
-  <si>
-    <t>island</t>
-  </si>
-  <si>
-    <t>sense</t>
-  </si>
-  <si>
-    <t>&amp;&amp;</t>
-  </si>
-  <si>
-    <t>cache</t>
-  </si>
-  <si>
-    <t>slide</t>
-  </si>
-  <si>
-    <t>``</t>
-  </si>
-  <si>
-    <t>glyph</t>
-  </si>
-  <si>
-    <t>scroll</t>
-  </si>
-  <si>
-    <t>~~</t>
-  </si>
-  <si>
-    <t>drum</t>
-  </si>
-  <si>
-    <t>me</t>
-  </si>
-  <si>
-    <t>++</t>
-  </si>
-  <si>
-    <t>film</t>
-  </si>
-  <si>
-    <t>sector</t>
-  </si>
-  <si>
-    <t>==</t>
-  </si>
-  <si>
-    <t>echo</t>
-  </si>
-  <si>
-    <t>guest</t>
-  </si>
-  <si>
-    <t>--</t>
-  </si>
-  <si>
-    <t>event</t>
-  </si>
-  <si>
-    <t>full</t>
-  </si>
-  <si>
-    <t>%%</t>
-  </si>
-  <si>
-    <t>wall</t>
-  </si>
-  <si>
-    <t>attach</t>
-  </si>
-  <si>
-    <t>^^</t>
-  </si>
-  <si>
-    <t>fine</t>
-  </si>
-  <si>
-    <t>guarantee</t>
-  </si>
-  <si>
-    <t>::</t>
-  </si>
-  <si>
-    <t>fold</t>
-  </si>
-  <si>
-    <t>response</t>
-  </si>
-  <si>
-    <t>@@</t>
-  </si>
-  <si>
-    <t>job</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>««</t>
-  </si>
-  <si>
-    <t>book</t>
-  </si>
-  <si>
-    <t>instruct</t>
-  </si>
-  <si>
-    <t>**</t>
-  </si>
-  <si>
-    <t>manage</t>
-  </si>
-  <si>
-    <t>quick</t>
-  </si>
-  <si>
-    <t>..</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>wipe</t>
-  </si>
-  <si>
-    <t>;;</t>
-  </si>
-  <si>
-    <t>chat</t>
-  </si>
-  <si>
-    <t>room</t>
-  </si>
-  <si>
-    <t>??</t>
-  </si>
-  <si>
-    <t>opera</t>
-  </si>
-  <si>
-    <t>team</t>
-  </si>
-  <si>
-    <t>##</t>
-  </si>
-  <si>
-    <t>command</t>
-  </si>
-  <si>
-    <t>screen</t>
-  </si>
-  <si>
-    <t>,,</t>
-  </si>
-  <si>
-    <t>toss</t>
-  </si>
-  <si>
-    <t>deploy</t>
-  </si>
-  <si>
-    <t>marquee</t>
-  </si>
-  <si>
-    <t>'74'</t>
-  </si>
-  <si>
-    <t>'1357'</t>
-  </si>
-  <si>
-    <t>{44}</t>
-  </si>
-  <si>
-    <t>(51)</t>
-  </si>
-  <si>
-    <t>&lt;51&gt;</t>
-  </si>
-  <si>
-    <t>'146'</t>
-  </si>
-  <si>
-    <t>'68'</t>
-  </si>
-  <si>
-    <t>{1/6/2025 11:25:17};</t>
-  </si>
-  <si>
-    <t>(1/6/2025 11:29:32);</t>
-  </si>
-  <si>
-    <t>|1/6/2025 11:35:20|;</t>
-  </si>
-  <si>
-    <t>[internet/website/php/library/packet/];</t>
-  </si>
-  <si>
-    <t>{toss/};</t>
-  </si>
-  <si>
-    <t>(deploy/);</t>
-  </si>
-  <si>
-    <t>|marquee/|;</t>
-  </si>
-  <si>
-    <t>'194'</t>
-  </si>
-  <si>
-    <t>[range]</t>
-  </si>
-  <si>
-    <t>[one]</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>card</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>borrow</t>
-  </si>
-  <si>
-    <t>tense</t>
-  </si>
-  <si>
-    <t>coin</t>
-  </si>
-  <si>
-    <t>'130'</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>model</t>
-  </si>
-  <si>
-    <t>gyro</t>
-  </si>
-  <si>
-    <t>grammar</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>layout</t>
-  </si>
-  <si>
-    <t>'145'</t>
-  </si>
-  <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>meta</t>
-  </si>
-  <si>
-    <t>graphs</t>
-  </si>
-  <si>
-    <t>pixel</t>
-  </si>
-  <si>
-    <t>state</t>
-  </si>
-  <si>
-    <t>now</t>
-  </si>
-  <si>
-    <t>batch</t>
-  </si>
-  <si>
-    <t>'124'</t>
-  </si>
-  <si>
-    <t>difference</t>
-  </si>
-  <si>
-    <t>stamp</t>
-  </si>
-  <si>
-    <t>effect</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>cover</t>
-  </si>
-  <si>
-    <t>circuit</t>
-  </si>
-  <si>
-    <t>'159'</t>
-  </si>
-  <si>
-    <t>add</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>structure</t>
-  </si>
-  <si>
-    <t>meet</t>
-  </si>
-  <si>
-    <t>fix</t>
-  </si>
-  <si>
-    <t>objects</t>
-  </si>
-  <si>
-    <t>gross</t>
-  </si>
-  <si>
-    <t>'127'</t>
-  </si>
-  <si>
-    <t>find</t>
-  </si>
-  <si>
-    <t>piece</t>
-  </si>
-  <si>
-    <t>control</t>
-  </si>
-  <si>
-    <t>from</t>
-  </si>
-  <si>
-    <t>act</t>
-  </si>
-  <si>
-    <t>cloud</t>
-  </si>
-  <si>
-    <t>deliver</t>
-  </si>
-  <si>
-    <t>'141'</t>
-  </si>
-  <si>
-    <t>delete</t>
-  </si>
-  <si>
-    <t>clause</t>
-  </si>
-  <si>
-    <t>demon</t>
-  </si>
-  <si>
-    <t>which</t>
-  </si>
-  <si>
-    <t>talent</t>
-  </si>
-  <si>
-    <t>any</t>
-  </si>
-  <si>
-    <t>with</t>
-  </si>
-  <si>
-    <t>chunk</t>
-  </si>
-  <si>
-    <t>space</t>
-  </si>
-  <si>
-    <t>branch</t>
-  </si>
-  <si>
-    <t>vision</t>
-  </si>
-  <si>
-    <t>sync</t>
-  </si>
-  <si>
-    <t>these</t>
-  </si>
-  <si>
-    <t>root</t>
-  </si>
-  <si>
-    <t>'139'</t>
-  </si>
-  <si>
-    <t>part</t>
-  </si>
-  <si>
-    <t>bank</t>
-  </si>
-  <si>
-    <t>grade</t>
-  </si>
-  <si>
-    <t>spread</t>
-  </si>
-  <si>
-    <t>ground</t>
-  </si>
-  <si>
-    <t>hall</t>
-  </si>
-  <si>
-    <t>hook</t>
-  </si>
-  <si>
-    <t>'134'</t>
-  </si>
-  <si>
-    <t>sort</t>
-  </si>
-  <si>
-    <t>logic</t>
-  </si>
-  <si>
-    <t>slip</t>
-  </si>
-  <si>
-    <t>cost</t>
-  </si>
-  <si>
-    <t>gadget</t>
-  </si>
-  <si>
-    <t>thrown</t>
-  </si>
-  <si>
-    <t>side</t>
-  </si>
-  <si>
-    <t>reset</t>
-  </si>
-  <si>
-    <t>envelop</t>
-  </si>
-  <si>
-    <t>medium</t>
-  </si>
-  <si>
-    <t>concern</t>
-  </si>
-  <si>
-    <t>magic</t>
-  </si>
-  <si>
-    <t>tablet</t>
-  </si>
-  <si>
-    <t>modified</t>
-  </si>
-  <si>
-    <t>instruction</t>
-  </si>
-  <si>
-    <t>thread</t>
-  </si>
-  <si>
-    <t>bias</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>distract</t>
-  </si>
-  <si>
-    <t>rope</t>
-  </si>
-  <si>
-    <t>truncate</t>
-  </si>
-  <si>
-    <t>route</t>
-  </si>
-  <si>
-    <t>ring</t>
-  </si>
-  <si>
-    <t>acronym</t>
-  </si>
-  <si>
-    <t>carry</t>
-  </si>
-  <si>
-    <t>aim</t>
-  </si>
-  <si>
-    <t>engine</t>
-  </si>
-  <si>
-    <t>'148'</t>
-  </si>
-  <si>
-    <t>history</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>script</t>
-  </si>
-  <si>
-    <t>brief</t>
-  </si>
-  <si>
-    <t>scope</t>
-  </si>
-  <si>
-    <t>portray</t>
-  </si>
-  <si>
-    <t>lag</t>
-  </si>
-  <si>
-    <t>'154'</t>
-  </si>
-  <si>
-    <t>tag</t>
-  </si>
-  <si>
-    <t>view</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>tube</t>
-  </si>
-  <si>
-    <t>hack</t>
-  </si>
-  <si>
-    <t>clear</t>
-  </si>
-  <si>
-    <t>fact</t>
-  </si>
-  <si>
-    <t>'103'</t>
-  </si>
-  <si>
-    <t>zip</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>stream</t>
-  </si>
-  <si>
-    <t>dice</t>
-  </si>
-  <si>
-    <t>dense</t>
-  </si>
-  <si>
-    <t>hang</t>
-  </si>
-  <si>
-    <t>party</t>
-  </si>
-  <si>
-    <t>'136'</t>
-  </si>
-  <si>
-    <t>group</t>
-  </si>
-  <si>
-    <t>channel</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>correct</t>
-  </si>
-  <si>
-    <t>vigilance</t>
-  </si>
-  <si>
-    <t>nucleus</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>'184'</t>
-  </si>
-  <si>
-    <t>order</t>
-  </si>
-  <si>
-    <t>insurance</t>
-  </si>
-  <si>
-    <t>reminder</t>
-  </si>
-  <si>
-    <t>arrow</t>
-  </si>
-  <si>
-    <t>wheel</t>
-  </si>
-  <si>
-    <t>ghost</t>
-  </si>
-  <si>
-    <t>tip</t>
-  </si>
-  <si>
-    <t>'163'</t>
-  </si>
-  <si>
-    <t>session</t>
-  </si>
-  <si>
-    <t>version</t>
-  </si>
-  <si>
-    <t>derivative</t>
-  </si>
-  <si>
-    <t>solve</t>
-  </si>
-  <si>
-    <t>dynamo</t>
-  </si>
-  <si>
-    <t>kill</t>
-  </si>
-  <si>
-    <t>principal</t>
-  </si>
-  <si>
-    <t>'196'</t>
-  </si>
-  <si>
-    <t>information</t>
-  </si>
-  <si>
-    <t>signature</t>
-  </si>
-  <si>
-    <t>volume</t>
-  </si>
-  <si>
-    <t>parse</t>
-  </si>
-  <si>
-    <t>optic</t>
-  </si>
-  <si>
-    <t>corner</t>
-  </si>
-  <si>
-    <t>seek</t>
-  </si>
-  <si>
-    <t>'186'</t>
-  </si>
-  <si>
-    <t>track</t>
-  </si>
-  <si>
-    <t>serial</t>
-  </si>
-  <si>
-    <t>task</t>
-  </si>
-  <si>
-    <t>climate</t>
-  </si>
-  <si>
-    <t>moon</t>
-  </si>
-  <si>
-    <t>bonsai</t>
-  </si>
-  <si>
-    <t>drill</t>
-  </si>
-  <si>
-    <t>'153'</t>
-  </si>
-  <si>
-    <t>unique</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>series</t>
-  </si>
-  <si>
-    <t>seal</t>
-  </si>
-  <si>
-    <t>excel</t>
-  </si>
-  <si>
-    <t>lyric</t>
-  </si>
-  <si>
-    <t>race</t>
-  </si>
-  <si>
-    <t>'132'</t>
-  </si>
-  <si>
-    <t>argument</t>
-  </si>
-  <si>
-    <t>range</t>
-  </si>
-  <si>
-    <t>function</t>
-  </si>
-  <si>
-    <t>thumb</t>
-  </si>
-  <si>
-    <t>station</t>
-  </si>
-  <si>
-    <t>horn</t>
-  </si>
-  <si>
-    <t>mesh</t>
-  </si>
-  <si>
-    <t>'164'</t>
-  </si>
-  <si>
-    <t>format</t>
-  </si>
-  <si>
-    <t>pointer</t>
-  </si>
-  <si>
-    <t>port</t>
-  </si>
-  <si>
-    <t>tail</t>
-  </si>
-  <si>
-    <t>power</t>
-  </si>
-  <si>
-    <t>pool</t>
-  </si>
-  <si>
-    <t>point</t>
-  </si>
-  <si>
-    <t>current</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>buffer</t>
-  </si>
-  <si>
-    <t>pyramid</t>
-  </si>
-  <si>
-    <t>flex</t>
-  </si>
-  <si>
-    <t>battery</t>
-  </si>
-  <si>
-    <t>board</t>
-  </si>
-  <si>
-    <t>'150'</t>
-  </si>
-  <si>
-    <t>mat</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>bracket</t>
-  </si>
-  <si>
-    <t>turn</t>
-  </si>
-  <si>
-    <t>wave</t>
-  </si>
-  <si>
-    <t>elite</t>
-  </si>
-  <si>
-    <t>project</t>
-  </si>
-  <si>
-    <t>'131'</t>
-  </si>
-  <si>
-    <t>{555}</t>
-  </si>
-  <si>
-    <t>(603)</t>
-  </si>
-  <si>
-    <t>&lt;597&gt;</t>
-  </si>
-  <si>
-    <t>|526|</t>
-  </si>
-  <si>
-    <t>_527_</t>
-  </si>
-  <si>
-    <t>"549"</t>
-  </si>
-  <si>
-    <t>!507!</t>
-  </si>
-  <si>
-    <t>'3864'</t>
-  </si>
-  <si>
-    <t>{588}</t>
-  </si>
-  <si>
-    <t>(622)</t>
-  </si>
-  <si>
-    <t>&lt;622&gt;</t>
-  </si>
-  <si>
-    <t>|546|</t>
-  </si>
-  <si>
-    <t>_558_</t>
-  </si>
-  <si>
-    <t>"566"</t>
-  </si>
-  <si>
-    <t>!536!</t>
-  </si>
-  <si>
-    <t>'4038'</t>
-  </si>
-  <si>
-    <t>{280}</t>
-  </si>
-  <si>
-    <t>(313)</t>
-  </si>
-  <si>
-    <t>&lt;310&gt;</t>
-  </si>
-  <si>
-    <t>{346}</t>
-  </si>
-  <si>
-    <t>(338)</t>
-  </si>
-  <si>
-    <t>&lt;343&gt;</t>
-  </si>
-  <si>
-    <t>'4254'</t>
-  </si>
-  <si>
-    <t>'302'</t>
-  </si>
-  <si>
-    <t>[internet/website/php/library/packet/range/];</t>
-  </si>
-  <si>
-    <t>'341'</t>
-  </si>
-  <si>
-    <t>[migrate]</t>
-  </si>
-  <si>
-    <t>[node]</t>
-  </si>
-  <si>
-    <t>robotics</t>
-  </si>
-  <si>
-    <t>conversation</t>
-  </si>
-  <si>
-    <t>network</t>
-  </si>
-  <si>
-    <t>robot</t>
-  </si>
-  <si>
-    <t>process</t>
-  </si>
-  <si>
-    <t>between</t>
-  </si>
-  <si>
-    <t>deck</t>
-  </si>
-  <si>
-    <t>comprise</t>
-  </si>
-  <si>
-    <t>optimisation</t>
-  </si>
-  <si>
-    <t>explain</t>
-  </si>
-  <si>
-    <t>compass</t>
-  </si>
-  <si>
-    <t>delta</t>
-  </si>
-  <si>
-    <t>sheet</t>
-  </si>
-  <si>
-    <t>pass</t>
-  </si>
-  <si>
-    <t>services</t>
-  </si>
-  <si>
-    <t>synchronisation</t>
-  </si>
-  <si>
-    <t>machine</t>
-  </si>
-  <si>
-    <t>serve</t>
-  </si>
-  <si>
-    <t>interest</t>
-  </si>
-  <si>
-    <t>term</t>
-  </si>
-  <si>
-    <t>thin</t>
-  </si>
-  <si>
-    <t>itemised</t>
-  </si>
-  <si>
-    <t>formation</t>
-  </si>
-  <si>
-    <t>cellular</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>detail</t>
-  </si>
-  <si>
-    <t>cart</t>
-  </si>
-  <si>
-    <t>assigned</t>
-  </si>
-  <si>
-    <t>reservation</t>
-  </si>
-  <si>
-    <t>container</t>
-  </si>
-  <si>
-    <t>assign</t>
-  </si>
-  <si>
-    <t>tape</t>
-  </si>
-  <si>
-    <t>edit</t>
-  </si>
-  <si>
-    <t>hub</t>
-  </si>
-  <si>
-    <t>template</t>
-  </si>
-  <si>
-    <t>specimen</t>
-  </si>
-  <si>
-    <t>pattern</t>
-  </si>
-  <si>
-    <t>temporary</t>
-  </si>
-  <si>
-    <t>transit</t>
-  </si>
-  <si>
-    <t>receipt</t>
-  </si>
-  <si>
-    <t>fuel</t>
-  </si>
-  <si>
-    <t>accessor</t>
-  </si>
-  <si>
-    <t>speciality</t>
-  </si>
-  <si>
-    <t>default</t>
-  </si>
-  <si>
-    <t>access</t>
-  </si>
-  <si>
-    <t>target</t>
-  </si>
-  <si>
-    <t>century</t>
-  </si>
-  <si>
-    <t>spring</t>
-  </si>
-  <si>
-    <t>terminal</t>
-  </si>
-  <si>
-    <t>slate</t>
-  </si>
-  <si>
-    <t>totally</t>
-  </si>
-  <si>
-    <t>determinant</t>
-  </si>
-  <si>
-    <t>contrast</t>
-  </si>
-  <si>
-    <t>bind</t>
-  </si>
-  <si>
-    <t>fair</t>
-  </si>
-  <si>
-    <t>distance</t>
-  </si>
-  <si>
-    <t>print</t>
-  </si>
-  <si>
-    <t>tolerance</t>
-  </si>
-  <si>
-    <t>distant</t>
-  </si>
-  <si>
-    <t>move</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>tune</t>
-  </si>
-  <si>
-    <t>regulate</t>
-  </si>
-  <si>
-    <t>repeat</t>
-  </si>
-  <si>
-    <t>cuboid</t>
-  </si>
-  <si>
-    <t>relate</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>log</t>
-  </si>
-  <si>
-    <t>miss</t>
-  </si>
-  <si>
-    <t>guardian</t>
-  </si>
-  <si>
-    <t>badge</t>
-  </si>
-  <si>
-    <t>kit</t>
-  </si>
-  <si>
-    <t>guard</t>
-  </si>
-  <si>
-    <t>dot</t>
-  </si>
-  <si>
-    <t>scratch</t>
-  </si>
-  <si>
-    <t>oil</t>
-  </si>
-  <si>
-    <t>equalise</t>
-  </si>
-  <si>
-    <t>step</t>
-  </si>
-  <si>
-    <t>mapping</t>
-  </si>
-  <si>
-    <t>equilibrium</t>
-  </si>
-  <si>
-    <t>lock</t>
-  </si>
-  <si>
-    <t>scale</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>deposits</t>
-  </si>
-  <si>
-    <t>note</t>
-  </si>
-  <si>
-    <t>scan</t>
-  </si>
-  <si>
-    <t>post</t>
-  </si>
-  <si>
-    <t>pause</t>
-  </si>
-  <si>
-    <t>toggle</t>
-  </si>
-  <si>
-    <t>agree</t>
-  </si>
-  <si>
-    <t>informal</t>
-  </si>
-  <si>
-    <t>flag</t>
-  </si>
-  <si>
-    <t>switch</t>
-  </si>
-  <si>
-    <t>invite</t>
-  </si>
-  <si>
-    <t>tough</t>
-  </si>
-  <si>
-    <t>opposite</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>parasite</t>
-  </si>
-  <si>
-    <t>represent</t>
-  </si>
-  <si>
-    <t>clutch</t>
-  </si>
-  <si>
-    <t>policy</t>
-  </si>
-  <si>
-    <t>auto</t>
-  </si>
-  <si>
-    <t>copy</t>
-  </si>
-  <si>
-    <t>majestic</t>
-  </si>
-  <si>
-    <t>vault</t>
-  </si>
-  <si>
-    <t>daily</t>
-  </si>
-  <si>
-    <t>smudge</t>
-  </si>
-  <si>
-    <t>merge</t>
-  </si>
-  <si>
-    <t>tap</t>
-  </si>
-  <si>
-    <t>border</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>requisite</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>shield</t>
-  </si>
-  <si>
-    <t>warm</t>
-  </si>
-  <si>
-    <t>versus</t>
-  </si>
-  <si>
-    <t>fiction</t>
-  </si>
-  <si>
-    <t>transfer</t>
-  </si>
-  <si>
-    <t>encapsulate</t>
-  </si>
-  <si>
-    <t>zone</t>
-  </si>
-  <si>
-    <t>capture</t>
-  </si>
-  <si>
-    <t>electric</t>
-  </si>
-  <si>
-    <t>reason</t>
-  </si>
-  <si>
-    <t>trait</t>
-  </si>
-  <si>
-    <t>register</t>
-  </si>
-  <si>
-    <t>certificate</t>
-  </si>
-  <si>
-    <t>licence</t>
-  </si>
-  <si>
-    <t>render</t>
-  </si>
-  <si>
-    <t>over</t>
-  </si>
-  <si>
-    <t>minute</t>
-  </si>
-  <si>
-    <t>system</t>
-  </si>
-  <si>
-    <t>organise</t>
-  </si>
-  <si>
-    <t>knowledge</t>
-  </si>
-  <si>
-    <t>expert</t>
-  </si>
-  <si>
-    <t>once</t>
-  </si>
-  <si>
-    <t>lift</t>
-  </si>
-  <si>
-    <t>sponsor</t>
-  </si>
-  <si>
-    <t>chair</t>
-  </si>
-  <si>
-    <t>changing</t>
-  </si>
-  <si>
-    <t>alternate</t>
-  </si>
-  <si>
-    <t>mirror</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>claim</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>specific</t>
-  </si>
-  <si>
-    <t>rubber</t>
-  </si>
-  <si>
-    <t>encrypt</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>mail</t>
-  </si>
-  <si>
-    <t>spam</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>acoustic</t>
-  </si>
-  <si>
-    <t>mainframe</t>
-  </si>
-  <si>
-    <t>entity</t>
-  </si>
-  <si>
-    <t>infinite</t>
-  </si>
-  <si>
-    <t>cause</t>
-  </si>
-  <si>
-    <t>rate</t>
-  </si>
-  <si>
-    <t>derive</t>
-  </si>
-  <si>
-    <t>freezers</t>
-  </si>
-  <si>
-    <t>sustain</t>
-  </si>
-  <si>
-    <t>mark</t>
-  </si>
-  <si>
-    <t>alien</t>
-  </si>
-  <si>
-    <t>phase</t>
-  </si>
-  <si>
-    <t>chart</t>
-  </si>
-  <si>
-    <t>rotation</t>
-  </si>
-  <si>
-    <t>browser</t>
-  </si>
-  <si>
-    <t>micro</t>
-  </si>
-  <si>
-    <t>applicants</t>
-  </si>
-  <si>
-    <t>graphite</t>
-  </si>
-  <si>
-    <t>transform</t>
-  </si>
-  <si>
-    <t>rhombus</t>
-  </si>
-  <si>
-    <t>rigidity</t>
-  </si>
-  <si>
-    <t>figure</t>
-  </si>
-  <si>
-    <t>green</t>
-  </si>
-  <si>
-    <t>sudoku</t>
-  </si>
-  <si>
-    <t>ticket</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>invoke</t>
-  </si>
-  <si>
-    <t>'4908'</t>
-  </si>
-  <si>
-    <t>[internet/website/php/library/packet/migrate/];</t>
-  </si>
-  <si>
-    <t>'347'</t>
-  </si>
-  <si>
-    <t>[memory]</t>
-  </si>
-  <si>
-    <t>[neon]</t>
-  </si>
-  <si>
-    <t>[internet/website/php/library/packet/memory/];</t>
   </si>
   <si>
     <t>{_f}</t>
@@ -10955,7 +10958,7 @@
         <v>97</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>98</v>
+        <v>596</v>
       </c>
     </row>
   </sheetData>
@@ -10980,834 +10983,834 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="7" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="7" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="7" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>456</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="7" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>124</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="7" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>360</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>488</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="7" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>470</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="7" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>211</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="7" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="7" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="7" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="7" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="7" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="7" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="7" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="7" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="7" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>472</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="7" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>424</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="7" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="7" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="7" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>429</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="7" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>373</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="7" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="7" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="7" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
   </sheetData>
@@ -11834,774 +11837,774 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>844</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>845</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>846</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>843</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>844</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>845</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>842</v>
-      </c>
       <c r="F4" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
     </row>
   </sheetData>
@@ -12626,2754 +12629,2754 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="AB2" s="12" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="AA3" s="5" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="AB3" s="12" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="W4" s="5" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="Y4" s="5" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="Z4" s="5" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="AA4" s="5" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="AB4" s="12" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="U5" s="5" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="V5" s="5" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="W5" s="5" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="X5" s="5" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="Y5" s="5" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="Z5" s="5" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="AA5" s="5" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="AB5" s="12" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="V6" s="5" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="X6" s="5" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="Y6" s="5" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="Z6" s="5" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="AA6" s="5" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="AB6" s="12" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="S7" s="5" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="T7" s="5" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="U7" s="5" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="V7" s="5" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="W7" s="5" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="X7" s="5" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="Y7" s="5" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="Z7" s="5" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="AA7" s="5" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="AB7" s="12" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="X8" s="5" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="Y8" s="5" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="Z8" s="5" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="AA8" s="5" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="AB8" s="12" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="R9" s="5" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="S9" s="5" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="T9" s="5" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="U9" s="5" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="V9" s="5" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="W9" s="5" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="X9" s="5" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="Y9" s="5" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="Z9" s="5" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="AA9" s="5" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="AB9" s="12" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="T10" s="5" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="U10" s="5" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="V10" s="5" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="W10" s="5" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="X10" s="5" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="Y10" s="5" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="Z10" s="5" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="AA10" s="5" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="AB10" s="12" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="S11" s="5" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="T11" s="5" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="U11" s="5" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="V11" s="5" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="W11" s="5" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="X11" s="5" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="Y11" s="5" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="Z11" s="5" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="AA11" s="5" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="AB11" s="12" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="R12" s="5" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="S12" s="5" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="T12" s="5" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="U12" s="5" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="V12" s="5" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="W12" s="5" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="X12" s="5" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="Y12" s="5" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="Z12" s="5" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="AA12" s="5" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="AB12" s="12" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="S13" s="5" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="T13" s="5" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="U13" s="5" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="V13" s="5" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="W13" s="5" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="X13" s="5" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="Y13" s="5" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="Z13" s="5" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="AA13" s="5" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="AB13" s="12" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="T14" s="5" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="U14" s="5" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="V14" s="5" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="W14" s="5" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="X14" s="5" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="Y14" s="5" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="Z14" s="5" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="AA14" s="5" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="AB14" s="12" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="R15" s="5" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="S15" s="5" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="T15" s="5" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="U15" s="5" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="V15" s="5" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="W15" s="5" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="X15" s="5" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="Y15" s="5" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="Z15" s="5" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="AA15" s="5" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="AB15" s="12" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="R16" s="5" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="T16" s="5" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="U16" s="5" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="V16" s="5" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="W16" s="5" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="X16" s="5" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="Y16" s="5" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="Z16" s="5" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="AA16" s="5" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="AB16" s="12" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="R17" s="5" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="S17" s="5" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="T17" s="5" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="U17" s="5" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="V17" s="5" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="W17" s="5" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="X17" s="5" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="Y17" s="5" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="Z17" s="5" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="AA17" s="5" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="AB17" s="12" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="Q18" s="5" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="R18" s="5" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="S18" s="5" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="T18" s="5" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="U18" s="5" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="V18" s="5" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="W18" s="5" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="X18" s="5" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="Y18" s="5" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="Z18" s="5" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="AA18" s="5" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="AB18" s="12" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="Q19" s="5" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="R19" s="5" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="S19" s="5" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="T19" s="5" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="U19" s="5" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="V19" s="5" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="W19" s="5" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="X19" s="5" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="Y19" s="5" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="Z19" s="5" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="AA19" s="5" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="AB19" s="12" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="Q20" s="5" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="R20" s="5" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="S20" s="5" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="T20" s="5" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="U20" s="5" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="V20" s="5" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="W20" s="5" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="X20" s="5" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="Y20" s="5" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="Z20" s="5" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="AA20" s="5" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="AB20" s="12" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="Q21" s="5" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="R21" s="5" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="S21" s="5" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="T21" s="5" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="U21" s="5" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="V21" s="5" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="W21" s="5" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="X21" s="5" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="Y21" s="5" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="Z21" s="5" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="AA21" s="5" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="AB21" s="12" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="Q22" s="5" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="R22" s="5" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="S22" s="5" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="T22" s="5" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="U22" s="5" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="V22" s="5" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="W22" s="5" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="X22" s="5" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="Y22" s="5" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="Z22" s="5" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="AA22" s="5" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="AB22" s="12" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="P23" s="5" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="Q23" s="5" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="R23" s="5" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="S23" s="5" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="T23" s="5" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="U23" s="5" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="V23" s="5" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="W23" s="5" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="X23" s="5" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="Y23" s="5" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="Z23" s="5" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="AA23" s="5" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="AB23" s="12" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="O24" s="5" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="P24" s="5" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="Q24" s="5" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="R24" s="5" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="S24" s="5" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="T24" s="5" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="U24" s="5" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="V24" s="5" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="W24" s="5" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="X24" s="5" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="Y24" s="5" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="Z24" s="5" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="AA24" s="5" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="AB24" s="12" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="Q25" s="5" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="R25" s="5" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="S25" s="5" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="T25" s="5" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="U25" s="5" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="V25" s="5" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="W25" s="5" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="X25" s="5" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="Y25" s="5" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="Z25" s="5" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="AA25" s="5" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="AB25" s="12" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="O26" s="5" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="P26" s="5" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="Q26" s="5" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="R26" s="5" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="S26" s="5" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="T26" s="5" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="U26" s="5" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="V26" s="5" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="W26" s="5" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="X26" s="5" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="Y26" s="5" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="Z26" s="5" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="AA26" s="5" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="AB26" s="12" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="O27" s="5" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="P27" s="5" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="Q27" s="5" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="R27" s="5" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="S27" s="5" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="T27" s="5" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="U27" s="5" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="V27" s="5" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="W27" s="5" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="X27" s="5" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="Y27" s="5" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="Z27" s="5" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="AA27" s="5" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="AB27" s="12" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="N28" s="5" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="Q28" s="5" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="R28" s="5" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="S28" s="5" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="T28" s="5" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="U28" s="5" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="V28" s="5" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="W28" s="5" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="X28" s="5" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="Y28" s="5" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="Z28" s="5" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="AA28" s="5" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
       <c r="AB28" s="12" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="J29" s="13" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
       <c r="K29" s="13" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="L29" s="13" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="M29" s="13" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="N29" s="13" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="O29" s="13" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="P29" s="13" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="Q29" s="13" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="R29" s="13" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="S29" s="13" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="T29" s="13" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="U29" s="13" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="V29" s="13" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="W29" s="13" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="X29" s="13" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="Y29" s="13" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="Z29" s="13" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="AA29" s="13" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="AB29" s="12" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="J30" s="13" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="K30" s="13" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="L30" s="13" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="M30" s="13" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="N30" s="13" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="O30" s="13" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="P30" s="13" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="Q30" s="13" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="R30" s="13" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="S30" s="13" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="T30" s="13" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="U30" s="13" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="V30" s="13" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="W30" s="13" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="X30" s="13" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="Y30" s="13" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="Z30" s="13" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="AA30" s="13" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="AB30" s="12" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="I31" s="13" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="K31" s="13" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="L31" s="13" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="M31" s="13" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="N31" s="13" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="O31" s="13" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="P31" s="13" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="Q31" s="13" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="R31" s="13" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
       <c r="S31" s="13" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="T31" s="13" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="U31" s="13" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="V31" s="13" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="W31" s="13" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="X31" s="13" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
       <c r="Y31" s="13" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="Z31" s="13" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="AA31" s="13" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
       <c r="AB31" s="12" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="B32" s="13" t="s">
+        <v>828</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>826</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>1646</v>
+      </c>
+      <c r="E32" s="13" t="s">
         <v>827</v>
       </c>
-      <c r="C32" s="13" t="s">
-        <v>825</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>1645</v>
-      </c>
-      <c r="E32" s="13" t="s">
+      <c r="F32" s="13" t="s">
+        <v>1647</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>1648</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>1649</v>
+      </c>
+      <c r="I32" s="13" t="s">
+        <v>1650</v>
+      </c>
+      <c r="J32" s="13" t="s">
+        <v>1651</v>
+      </c>
+      <c r="K32" s="13" t="s">
+        <v>1652</v>
+      </c>
+      <c r="L32" s="13" t="s">
+        <v>1653</v>
+      </c>
+      <c r="M32" s="13" t="s">
+        <v>1650</v>
+      </c>
+      <c r="N32" s="13" t="s">
+        <v>1654</v>
+      </c>
+      <c r="O32" s="13" t="s">
+        <v>1655</v>
+      </c>
+      <c r="P32" s="13" t="s">
+        <v>1656</v>
+      </c>
+      <c r="Q32" s="13" t="s">
+        <v>1654</v>
+      </c>
+      <c r="R32" s="13" t="s">
         <v>826</v>
       </c>
-      <c r="F32" s="13" t="s">
-        <v>1646</v>
-      </c>
-      <c r="G32" s="13" t="s">
-        <v>1647</v>
-      </c>
-      <c r="H32" s="13" t="s">
-        <v>1648</v>
-      </c>
-      <c r="I32" s="13" t="s">
-        <v>1649</v>
-      </c>
-      <c r="J32" s="13" t="s">
-        <v>1650</v>
-      </c>
-      <c r="K32" s="13" t="s">
-        <v>1651</v>
-      </c>
-      <c r="L32" s="13" t="s">
-        <v>1652</v>
-      </c>
-      <c r="M32" s="13" t="s">
-        <v>1649</v>
-      </c>
-      <c r="N32" s="13" t="s">
-        <v>1653</v>
-      </c>
-      <c r="O32" s="13" t="s">
+      <c r="S32" s="13" t="s">
+        <v>1655</v>
+      </c>
+      <c r="T32" s="13" t="s">
+        <v>1657</v>
+      </c>
+      <c r="U32" s="13" t="s">
+        <v>1658</v>
+      </c>
+      <c r="V32" s="13" t="s">
+        <v>1659</v>
+      </c>
+      <c r="W32" s="13" t="s">
+        <v>1658</v>
+      </c>
+      <c r="X32" s="13" t="s">
+        <v>1660</v>
+      </c>
+      <c r="Y32" s="13" t="s">
+        <v>1661</v>
+      </c>
+      <c r="Z32" s="13" t="s">
         <v>1654</v>
       </c>
-      <c r="P32" s="13" t="s">
-        <v>1655</v>
-      </c>
-      <c r="Q32" s="13" t="s">
-        <v>1653</v>
-      </c>
-      <c r="R32" s="13" t="s">
-        <v>825</v>
-      </c>
-      <c r="S32" s="13" t="s">
-        <v>1654</v>
-      </c>
-      <c r="T32" s="13" t="s">
-        <v>1656</v>
-      </c>
-      <c r="U32" s="13" t="s">
-        <v>1657</v>
-      </c>
-      <c r="V32" s="13" t="s">
-        <v>1658</v>
-      </c>
-      <c r="W32" s="13" t="s">
-        <v>1657</v>
-      </c>
-      <c r="X32" s="13" t="s">
-        <v>1659</v>
-      </c>
-      <c r="Y32" s="13" t="s">
-        <v>1660</v>
-      </c>
-      <c r="Z32" s="13" t="s">
-        <v>1653</v>
-      </c>
       <c r="AA32" s="13" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="AB32" s="12" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
     </row>
   </sheetData>
@@ -15399,357 +15402,357 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="D2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="D3" s="1"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="D6" s="1"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="D9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="D12" s="1"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="D13" s="1"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="D14" s="1"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="D15" s="1"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="D16" s="1"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="D17" s="1"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="D18" s="1"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="D19" s="1"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="D20" s="1"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="D21" s="1"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="D22" s="1"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="D23" s="1"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="D24" s="1"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="D25" s="1"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="D26" s="1"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="D27" s="1"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="D28" s="1"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="D29" s="1"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -15757,7 +15760,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -15765,7 +15768,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -15773,7 +15776,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -15781,7 +15784,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>

--- a/archive/iceKnives32/iceKnives32.xlsx
+++ b/archive/iceKnives32/iceKnives32.xlsx
@@ -308,7 +308,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2881" uniqueCount="1754">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2894" uniqueCount="1768">
   <si>
     <t>[]</t>
   </si>
@@ -2093,6 +2093,48 @@
   </si>
   <si>
     <t>[neon]</t>
+  </si>
+  <si>
+    <t>show</t>
+  </si>
+  <si>
+    <t>bag</t>
+  </si>
+  <si>
+    <t>glass</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>stuff</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>think</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>aerial</t>
+  </si>
+  <si>
+    <t>menu</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>fit</t>
+  </si>
+  <si>
+    <t>(289)</t>
+  </si>
+  <si>
+    <t>(256)</t>
   </si>
   <si>
     <t>[internet/website/php/library/packet/memory/];</t>
@@ -10143,7 +10185,9 @@
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="4"/>
+      <c r="B3" s="4" t="s">
+        <v>595</v>
+      </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -10158,7 +10202,9 @@
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="4" t="s">
+        <v>596</v>
+      </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -10173,7 +10219,9 @@
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>559</v>
+      </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -10188,7 +10236,9 @@
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="4"/>
+      <c r="B6" s="4" t="s">
+        <v>597</v>
+      </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -10203,7 +10253,9 @@
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="4"/>
+      <c r="B7" s="4" t="s">
+        <v>598</v>
+      </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -10218,7 +10270,9 @@
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="4"/>
+      <c r="B8" s="4" t="s">
+        <v>599</v>
+      </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="2"/>
@@ -10232,7 +10286,9 @@
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="4"/>
+      <c r="B9" s="4" t="s">
+        <v>600</v>
+      </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -10247,7 +10303,9 @@
       <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="4"/>
+      <c r="B10" s="4" t="s">
+        <v>601</v>
+      </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -10262,7 +10320,9 @@
       <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="4"/>
+      <c r="B11" s="4" t="s">
+        <v>602</v>
+      </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -10277,7 +10337,9 @@
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="4"/>
+      <c r="B12" s="4" t="s">
+        <v>603</v>
+      </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -10292,7 +10354,9 @@
       <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="4"/>
+      <c r="B13" s="4" t="s">
+        <v>604</v>
+      </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -10307,7 +10371,9 @@
       <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="4"/>
+      <c r="B14" s="4" t="s">
+        <v>605</v>
+      </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -10322,7 +10388,9 @@
       <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="4"/>
+      <c r="B15" s="4" t="s">
+        <v>606</v>
+      </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -10621,7 +10689,7 @@
         <v>54</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>55</v>
+        <v>607</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>56</v>
@@ -10766,7 +10834,7 @@
         <v>54</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>55</v>
+        <v>608</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>56</v>
@@ -10934,7 +11002,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>595</v>
+        <v>609</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>91</v>
@@ -10958,7 +11026,7 @@
         <v>97</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>596</v>
+        <v>610</v>
       </c>
     </row>
   </sheetData>
@@ -10983,834 +11051,834 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="7" t="s">
-        <v>597</v>
+        <v>611</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>598</v>
+        <v>612</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>599</v>
+        <v>613</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>600</v>
+        <v>614</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>601</v>
+        <v>615</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>602</v>
+        <v>616</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>603</v>
+        <v>617</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>604</v>
+        <v>618</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
-        <v>605</v>
+        <v>619</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>606</v>
+        <v>620</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>607</v>
+        <v>621</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>608</v>
+        <v>622</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>609</v>
+        <v>623</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>610</v>
+        <v>624</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>611</v>
+        <v>625</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>612</v>
+        <v>626</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="s">
-        <v>598</v>
+        <v>612</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>613</v>
+        <v>627</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>614</v>
+        <v>628</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>615</v>
+        <v>629</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>616</v>
+        <v>630</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>617</v>
+        <v>631</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>618</v>
+        <v>632</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>619</v>
+        <v>633</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="s">
-        <v>599</v>
+        <v>613</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>620</v>
+        <v>634</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>621</v>
+        <v>635</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>622</v>
+        <v>636</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>623</v>
+        <v>637</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>624</v>
+        <v>638</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>625</v>
+        <v>639</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>626</v>
+        <v>640</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
-        <v>600</v>
+        <v>614</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>627</v>
+        <v>641</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>628</v>
+        <v>642</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>629</v>
+        <v>643</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>630</v>
+        <v>644</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>631</v>
+        <v>645</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>632</v>
+        <v>646</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>633</v>
+        <v>647</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="7" t="s">
-        <v>601</v>
+        <v>615</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>634</v>
+        <v>648</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>635</v>
+        <v>649</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>636</v>
+        <v>650</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>637</v>
+        <v>651</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>638</v>
+        <v>652</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>639</v>
+        <v>653</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>640</v>
+        <v>654</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="7" t="s">
-        <v>602</v>
+        <v>616</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>641</v>
+        <v>655</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>642</v>
+        <v>656</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>456</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>643</v>
+        <v>657</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>644</v>
+        <v>658</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>645</v>
+        <v>659</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>646</v>
+        <v>660</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="7" t="s">
-        <v>603</v>
+        <v>617</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>647</v>
+        <v>661</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>648</v>
+        <v>662</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>124</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>649</v>
+        <v>663</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>650</v>
+        <v>664</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>651</v>
+        <v>665</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>652</v>
+        <v>666</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="7" t="s">
-        <v>653</v>
+        <v>667</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>654</v>
+        <v>668</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>655</v>
+        <v>669</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>360</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>656</v>
+        <v>670</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>657</v>
+        <v>671</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>658</v>
+        <v>672</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>659</v>
+        <v>673</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
-        <v>660</v>
+        <v>674</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>661</v>
+        <v>675</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>662</v>
+        <v>676</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>663</v>
+        <v>677</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>664</v>
+        <v>678</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>665</v>
+        <v>679</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>666</v>
+        <v>680</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>667</v>
+        <v>681</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>668</v>
+        <v>682</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>669</v>
+        <v>683</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>670</v>
+        <v>684</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>488</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>671</v>
+        <v>685</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>672</v>
+        <v>686</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>673</v>
+        <v>687</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>619</v>
+        <v>633</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="7" t="s">
-        <v>674</v>
+        <v>688</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>675</v>
+        <v>689</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>676</v>
+        <v>690</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>677</v>
+        <v>691</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>678</v>
+        <v>692</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>679</v>
+        <v>693</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>680</v>
+        <v>694</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>681</v>
+        <v>695</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>682</v>
+        <v>696</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>683</v>
+        <v>697</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>684</v>
+        <v>698</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>470</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>685</v>
+        <v>699</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>686</v>
+        <v>700</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>687</v>
+        <v>701</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>688</v>
+        <v>702</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="7" t="s">
-        <v>689</v>
+        <v>703</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>690</v>
+        <v>704</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>691</v>
+        <v>705</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>211</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>692</v>
+        <v>706</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>693</v>
+        <v>707</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>694</v>
+        <v>708</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>695</v>
+        <v>709</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="7" t="s">
-        <v>696</v>
+        <v>710</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>697</v>
+        <v>711</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>698</v>
+        <v>712</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>699</v>
+        <v>713</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>700</v>
+        <v>714</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>701</v>
+        <v>715</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>702</v>
+        <v>716</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>703</v>
+        <v>717</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="7" t="s">
-        <v>704</v>
+        <v>718</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>705</v>
+        <v>719</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>706</v>
+        <v>720</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>707</v>
+        <v>721</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>708</v>
+        <v>722</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>709</v>
+        <v>723</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>710</v>
+        <v>724</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>711</v>
+        <v>725</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="7" t="s">
-        <v>712</v>
+        <v>726</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>713</v>
+        <v>727</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>714</v>
+        <v>728</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>715</v>
+        <v>729</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>716</v>
+        <v>730</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>717</v>
+        <v>731</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>718</v>
+        <v>732</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>652</v>
+        <v>666</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="7" t="s">
-        <v>719</v>
+        <v>733</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>720</v>
+        <v>734</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>721</v>
+        <v>735</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>722</v>
+        <v>736</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>723</v>
+        <v>737</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>724</v>
+        <v>738</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>725</v>
+        <v>739</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>726</v>
+        <v>740</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
-        <v>727</v>
+        <v>741</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>728</v>
+        <v>742</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>729</v>
+        <v>743</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>730</v>
+        <v>744</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>731</v>
+        <v>745</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>732</v>
+        <v>746</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>733</v>
+        <v>747</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>734</v>
+        <v>748</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="7" t="s">
-        <v>735</v>
+        <v>749</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>736</v>
+        <v>750</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>737</v>
+        <v>751</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>738</v>
+        <v>752</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>739</v>
+        <v>753</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>740</v>
+        <v>754</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>741</v>
+        <v>755</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>652</v>
+        <v>666</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="7" t="s">
-        <v>742</v>
+        <v>756</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>743</v>
+        <v>757</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>744</v>
+        <v>758</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>745</v>
+        <v>759</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>746</v>
+        <v>760</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>747</v>
+        <v>761</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>748</v>
+        <v>762</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>749</v>
+        <v>763</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="7" t="s">
-        <v>750</v>
+        <v>764</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>751</v>
+        <v>765</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>752</v>
+        <v>766</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>753</v>
+        <v>767</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>754</v>
+        <v>768</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>755</v>
+        <v>769</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>756</v>
+        <v>770</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>757</v>
+        <v>771</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="7" t="s">
-        <v>758</v>
+        <v>772</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>759</v>
+        <v>773</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>760</v>
+        <v>774</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>761</v>
+        <v>775</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>762</v>
+        <v>776</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>763</v>
+        <v>777</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>764</v>
+        <v>778</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>765</v>
+        <v>779</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="7" t="s">
-        <v>766</v>
+        <v>780</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>767</v>
+        <v>781</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>768</v>
+        <v>782</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>472</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>769</v>
+        <v>783</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>770</v>
+        <v>784</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>771</v>
+        <v>785</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>772</v>
+        <v>786</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="7" t="s">
-        <v>773</v>
+        <v>787</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>774</v>
+        <v>788</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>775</v>
+        <v>789</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>424</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>776</v>
+        <v>790</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>777</v>
+        <v>791</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>778</v>
+        <v>792</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>779</v>
+        <v>793</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="7" t="s">
-        <v>780</v>
+        <v>794</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>781</v>
+        <v>795</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>782</v>
+        <v>796</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>783</v>
+        <v>797</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>784</v>
+        <v>798</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>785</v>
+        <v>799</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>786</v>
+        <v>800</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>787</v>
+        <v>801</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="7" t="s">
-        <v>788</v>
+        <v>802</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>789</v>
+        <v>803</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>790</v>
+        <v>804</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>791</v>
+        <v>805</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>792</v>
+        <v>806</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>793</v>
+        <v>807</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>794</v>
+        <v>808</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>652</v>
+        <v>666</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="7" t="s">
-        <v>795</v>
+        <v>809</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>796</v>
+        <v>810</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>797</v>
+        <v>811</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>429</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>798</v>
+        <v>812</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>799</v>
+        <v>813</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>800</v>
+        <v>814</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>757</v>
+        <v>771</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="7" t="s">
-        <v>801</v>
+        <v>815</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>802</v>
+        <v>816</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>803</v>
+        <v>817</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>373</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>804</v>
+        <v>818</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>805</v>
+        <v>819</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>806</v>
+        <v>820</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>807</v>
+        <v>821</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="7" t="s">
-        <v>604</v>
+        <v>618</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>808</v>
+        <v>822</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>809</v>
+        <v>823</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>810</v>
+        <v>824</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>811</v>
+        <v>825</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>812</v>
+        <v>826</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>813</v>
+        <v>827</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>814</v>
+        <v>828</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="7" t="s">
-        <v>815</v>
+        <v>829</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>816</v>
+        <v>830</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>817</v>
+        <v>831</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>818</v>
+        <v>832</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>819</v>
+        <v>833</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>820</v>
+        <v>834</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>821</v>
+        <v>835</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>822</v>
+        <v>836</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="7" t="s">
-        <v>823</v>
+        <v>837</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>824</v>
+        <v>838</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>825</v>
+        <v>839</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>826</v>
+        <v>840</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>827</v>
+        <v>841</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>828</v>
+        <v>842</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>829</v>
+        <v>843</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>830</v>
+        <v>844</v>
       </c>
     </row>
   </sheetData>
@@ -11837,774 +11905,774 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>831</v>
+        <v>845</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>598</v>
+        <v>612</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>599</v>
+        <v>613</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>600</v>
+        <v>614</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>601</v>
+        <v>615</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>602</v>
+        <v>616</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>603</v>
+        <v>617</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>653</v>
+        <v>667</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>604</v>
+        <v>618</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>832</v>
+        <v>846</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>833</v>
+        <v>847</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>834</v>
+        <v>848</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>835</v>
+        <v>849</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>836</v>
+        <v>850</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>837</v>
+        <v>851</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>838</v>
+        <v>852</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>839</v>
+        <v>853</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>598</v>
+        <v>612</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>840</v>
+        <v>854</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>841</v>
+        <v>855</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>842</v>
+        <v>856</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>599</v>
+        <v>613</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>844</v>
+        <v>858</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>845</v>
+        <v>859</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>846</v>
+        <v>860</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>600</v>
+        <v>614</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>847</v>
+        <v>861</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>848</v>
+        <v>862</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>849</v>
+        <v>863</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>601</v>
+        <v>615</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>850</v>
+        <v>864</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>851</v>
+        <v>865</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>852</v>
+        <v>866</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>602</v>
+        <v>616</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>853</v>
+        <v>867</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>854</v>
+        <v>868</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>855</v>
+        <v>869</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>603</v>
+        <v>617</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>856</v>
+        <v>870</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>871</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>872</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>857</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>858</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>843</v>
-      </c>
       <c r="F8" s="5" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>653</v>
+        <v>667</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>859</v>
+        <v>873</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>860</v>
+        <v>874</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>861</v>
+        <v>875</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>660</v>
+        <v>674</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>862</v>
+        <v>876</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>863</v>
+        <v>877</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>864</v>
+        <v>878</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>668</v>
+        <v>682</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>865</v>
+        <v>879</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>866</v>
+        <v>880</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>867</v>
+        <v>881</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>674</v>
+        <v>688</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>868</v>
+        <v>882</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>869</v>
+        <v>883</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>870</v>
+        <v>884</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>682</v>
+        <v>696</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>871</v>
+        <v>885</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>872</v>
+        <v>886</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>873</v>
+        <v>887</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>689</v>
+        <v>703</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>874</v>
+        <v>888</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>875</v>
+        <v>889</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>876</v>
+        <v>890</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>696</v>
+        <v>710</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>877</v>
+        <v>891</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>878</v>
+        <v>892</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>879</v>
+        <v>893</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>704</v>
+        <v>718</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>880</v>
+        <v>894</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>881</v>
+        <v>895</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>882</v>
+        <v>896</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>712</v>
+        <v>726</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>883</v>
+        <v>897</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>884</v>
+        <v>898</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>885</v>
+        <v>899</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>719</v>
+        <v>733</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>886</v>
+        <v>900</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>887</v>
+        <v>901</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>888</v>
+        <v>902</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>727</v>
+        <v>741</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>889</v>
+        <v>903</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>890</v>
+        <v>904</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>891</v>
+        <v>905</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>735</v>
+        <v>749</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>892</v>
+        <v>906</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>893</v>
+        <v>907</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>894</v>
+        <v>908</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>742</v>
+        <v>756</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>895</v>
+        <v>909</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>896</v>
+        <v>910</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>897</v>
+        <v>911</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>750</v>
+        <v>764</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>898</v>
+        <v>912</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>899</v>
+        <v>913</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>900</v>
+        <v>914</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>758</v>
+        <v>772</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>901</v>
+        <v>915</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>902</v>
+        <v>916</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>903</v>
+        <v>917</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>766</v>
+        <v>780</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>904</v>
+        <v>918</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>905</v>
+        <v>919</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>906</v>
+        <v>920</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>773</v>
+        <v>787</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>907</v>
+        <v>921</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>908</v>
+        <v>922</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>909</v>
+        <v>923</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>780</v>
+        <v>794</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>910</v>
+        <v>924</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>911</v>
+        <v>925</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>912</v>
+        <v>926</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>788</v>
+        <v>802</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>913</v>
+        <v>927</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>914</v>
+        <v>928</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>915</v>
+        <v>929</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>795</v>
+        <v>809</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>916</v>
+        <v>930</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>917</v>
+        <v>931</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>918</v>
+        <v>932</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>843</v>
+        <v>857</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>801</v>
+        <v>815</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>919</v>
+        <v>933</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>920</v>
+        <v>934</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>921</v>
+        <v>935</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>922</v>
+        <v>936</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>923</v>
+        <v>937</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>924</v>
+        <v>938</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>925</v>
+        <v>939</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>604</v>
+        <v>618</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>815</v>
+        <v>829</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>823</v>
+        <v>837</v>
       </c>
     </row>
   </sheetData>
@@ -12629,2754 +12697,2754 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>926</v>
+        <v>940</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>598</v>
+        <v>612</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>599</v>
+        <v>613</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>600</v>
+        <v>614</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>601</v>
+        <v>615</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>602</v>
+        <v>616</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>603</v>
+        <v>617</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>653</v>
+        <v>667</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>660</v>
+        <v>674</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>668</v>
+        <v>682</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>674</v>
+        <v>688</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>682</v>
+        <v>696</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>689</v>
+        <v>703</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>696</v>
+        <v>710</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>704</v>
+        <v>718</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>712</v>
+        <v>726</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>719</v>
+        <v>733</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>727</v>
+        <v>741</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>735</v>
+        <v>749</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>742</v>
+        <v>756</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>750</v>
+        <v>764</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>758</v>
+        <v>772</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>766</v>
+        <v>780</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>773</v>
+        <v>787</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>780</v>
+        <v>794</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>788</v>
+        <v>802</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>795</v>
+        <v>809</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>604</v>
+        <v>618</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>831</v>
+        <v>845</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>927</v>
+        <v>941</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>928</v>
+        <v>942</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>929</v>
+        <v>943</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>930</v>
+        <v>944</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>931</v>
+        <v>945</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>932</v>
+        <v>946</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>933</v>
+        <v>947</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>934</v>
+        <v>948</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>935</v>
+        <v>949</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>936</v>
+        <v>950</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>937</v>
+        <v>951</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>938</v>
+        <v>952</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>939</v>
+        <v>953</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>940</v>
+        <v>954</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>941</v>
+        <v>955</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>942</v>
+        <v>956</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>943</v>
+        <v>957</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>944</v>
+        <v>958</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>945</v>
+        <v>959</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>946</v>
+        <v>960</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>947</v>
+        <v>961</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>948</v>
+        <v>962</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>949</v>
+        <v>963</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>950</v>
+        <v>964</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>951</v>
+        <v>965</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>952</v>
+        <v>966</v>
       </c>
       <c r="AB2" s="12" t="s">
-        <v>953</v>
+        <v>967</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>598</v>
+        <v>612</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>954</v>
+        <v>968</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>955</v>
+        <v>969</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>956</v>
+        <v>970</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>957</v>
+        <v>971</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>958</v>
+        <v>972</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>959</v>
+        <v>973</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>960</v>
+        <v>974</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>961</v>
+        <v>975</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>692</v>
+        <v>706</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>962</v>
+        <v>976</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>963</v>
+        <v>977</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>964</v>
+        <v>978</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>965</v>
+        <v>979</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>675</v>
+        <v>689</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>768</v>
+        <v>782</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>966</v>
+        <v>980</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>967</v>
+        <v>981</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>968</v>
+        <v>982</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>969</v>
+        <v>983</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>970</v>
+        <v>984</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>971</v>
+        <v>985</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>972</v>
+        <v>986</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>973</v>
+        <v>987</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>714</v>
+        <v>728</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>974</v>
+        <v>988</v>
       </c>
       <c r="AA3" s="5" t="s">
-        <v>803</v>
+        <v>817</v>
       </c>
       <c r="AB3" s="12" t="s">
-        <v>975</v>
+        <v>989</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>599</v>
+        <v>613</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>976</v>
+        <v>990</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>977</v>
+        <v>991</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>978</v>
+        <v>992</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>979</v>
+        <v>993</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>980</v>
+        <v>994</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>658</v>
+        <v>672</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>981</v>
+        <v>995</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>982</v>
+        <v>996</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>724</v>
+        <v>738</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>983</v>
+        <v>997</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>984</v>
+        <v>998</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>985</v>
+        <v>999</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>986</v>
+        <v>1000</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>987</v>
+        <v>1001</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>988</v>
+        <v>1002</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>989</v>
+        <v>1003</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>708</v>
+        <v>722</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>990</v>
+        <v>1004</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>991</v>
+        <v>1005</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>992</v>
+        <v>1006</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>993</v>
+        <v>1007</v>
       </c>
       <c r="W4" s="5" t="s">
-        <v>994</v>
+        <v>1008</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>995</v>
+        <v>1009</v>
       </c>
       <c r="Y4" s="5" t="s">
-        <v>996</v>
+        <v>1010</v>
       </c>
       <c r="Z4" s="5" t="s">
-        <v>997</v>
+        <v>1011</v>
       </c>
       <c r="AA4" s="5" t="s">
-        <v>998</v>
+        <v>1012</v>
       </c>
       <c r="AB4" s="12" t="s">
-        <v>999</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>600</v>
+        <v>614</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1000</v>
+        <v>1014</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>1001</v>
+        <v>1015</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>1002</v>
+        <v>1016</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>1003</v>
+        <v>1017</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>1004</v>
+        <v>1018</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>1005</v>
+        <v>1019</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>776</v>
+        <v>790</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>1006</v>
+        <v>1020</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>1007</v>
+        <v>1021</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>1008</v>
+        <v>1022</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>786</v>
+        <v>800</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>616</v>
+        <v>630</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>1009</v>
+        <v>1023</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>1010</v>
+        <v>1024</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>1011</v>
+        <v>1025</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>1012</v>
+        <v>1026</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>1013</v>
+        <v>1027</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>1014</v>
+        <v>1028</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>1015</v>
+        <v>1029</v>
       </c>
       <c r="U5" s="5" t="s">
-        <v>1016</v>
+        <v>1030</v>
       </c>
       <c r="V5" s="5" t="s">
-        <v>634</v>
+        <v>648</v>
       </c>
       <c r="W5" s="5" t="s">
-        <v>1017</v>
+        <v>1031</v>
       </c>
       <c r="X5" s="5" t="s">
-        <v>1018</v>
+        <v>1032</v>
       </c>
       <c r="Y5" s="5" t="s">
-        <v>1019</v>
+        <v>1033</v>
       </c>
       <c r="Z5" s="5" t="s">
-        <v>1020</v>
+        <v>1034</v>
       </c>
       <c r="AA5" s="5" t="s">
-        <v>1021</v>
+        <v>1035</v>
       </c>
       <c r="AB5" s="12" t="s">
-        <v>1022</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>601</v>
+        <v>615</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1023</v>
+        <v>1037</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1024</v>
+        <v>1038</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>1025</v>
+        <v>1039</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>1026</v>
+        <v>1040</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>1027</v>
+        <v>1041</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>1028</v>
+        <v>1042</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>1029</v>
+        <v>1043</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>1030</v>
+        <v>1044</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>1031</v>
+        <v>1045</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>1032</v>
+        <v>1046</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>1033</v>
+        <v>1047</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>1034</v>
+        <v>1048</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>1035</v>
+        <v>1049</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>705</v>
+        <v>719</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>1036</v>
+        <v>1050</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>1037</v>
+        <v>1051</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>1038</v>
+        <v>1052</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>1039</v>
+        <v>1053</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>1040</v>
+        <v>1054</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>1041</v>
+        <v>1055</v>
       </c>
       <c r="V6" s="5" t="s">
-        <v>1042</v>
+        <v>1056</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>1043</v>
+        <v>1057</v>
       </c>
       <c r="X6" s="5" t="s">
-        <v>1044</v>
+        <v>1058</v>
       </c>
       <c r="Y6" s="5" t="s">
-        <v>1045</v>
+        <v>1059</v>
       </c>
       <c r="Z6" s="5" t="s">
-        <v>1046</v>
+        <v>1060</v>
       </c>
       <c r="AA6" s="5" t="s">
-        <v>710</v>
+        <v>724</v>
       </c>
       <c r="AB6" s="12" t="s">
-        <v>1047</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>602</v>
+        <v>616</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1048</v>
+        <v>1062</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>1049</v>
+        <v>1063</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>1050</v>
+        <v>1064</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>1051</v>
+        <v>1065</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>1052</v>
+        <v>1066</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>1053</v>
+        <v>1067</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>767</v>
+        <v>781</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>1054</v>
+        <v>1068</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>1055</v>
+        <v>1069</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>687</v>
+        <v>701</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>1056</v>
+        <v>1070</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>679</v>
+        <v>693</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>793</v>
+        <v>807</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>1057</v>
+        <v>1071</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>1058</v>
+        <v>1072</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>797</v>
+        <v>811</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>1059</v>
+        <v>1073</v>
       </c>
       <c r="S7" s="5" t="s">
-        <v>1060</v>
+        <v>1074</v>
       </c>
       <c r="T7" s="5" t="s">
-        <v>631</v>
+        <v>645</v>
       </c>
       <c r="U7" s="5" t="s">
-        <v>1061</v>
+        <v>1075</v>
       </c>
       <c r="V7" s="5" t="s">
-        <v>1062</v>
+        <v>1076</v>
       </c>
       <c r="W7" s="5" t="s">
-        <v>1063</v>
+        <v>1077</v>
       </c>
       <c r="X7" s="5" t="s">
-        <v>625</v>
+        <v>639</v>
       </c>
       <c r="Y7" s="5" t="s">
-        <v>1064</v>
+        <v>1078</v>
       </c>
       <c r="Z7" s="5" t="s">
-        <v>1065</v>
+        <v>1079</v>
       </c>
       <c r="AA7" s="5" t="s">
-        <v>1066</v>
+        <v>1080</v>
       </c>
       <c r="AB7" s="12" t="s">
-        <v>1067</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>603</v>
+        <v>617</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1068</v>
+        <v>1082</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>1069</v>
+        <v>1083</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>1070</v>
+        <v>1084</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>1071</v>
+        <v>1085</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>1072</v>
+        <v>1086</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>1073</v>
+        <v>1087</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>1074</v>
+        <v>1088</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>1075</v>
+        <v>1089</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>1076</v>
+        <v>1090</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>672</v>
+        <v>686</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>1077</v>
+        <v>1091</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>1078</v>
+        <v>1092</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>743</v>
+        <v>757</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>1079</v>
+        <v>1093</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>1080</v>
+        <v>1094</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>657</v>
+        <v>671</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>1081</v>
+        <v>1095</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>1082</v>
+        <v>1096</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>1083</v>
+        <v>1097</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>1084</v>
+        <v>1098</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>1085</v>
+        <v>1099</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>1086</v>
+        <v>1100</v>
       </c>
       <c r="X8" s="5" t="s">
-        <v>1087</v>
+        <v>1101</v>
       </c>
       <c r="Y8" s="5" t="s">
-        <v>1088</v>
+        <v>1102</v>
       </c>
       <c r="Z8" s="5" t="s">
-        <v>1089</v>
+        <v>1103</v>
       </c>
       <c r="AA8" s="5" t="s">
-        <v>1090</v>
+        <v>1104</v>
       </c>
       <c r="AB8" s="12" t="s">
-        <v>1091</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>653</v>
+        <v>667</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>1092</v>
+        <v>1106</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>1093</v>
+        <v>1107</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>1094</v>
+        <v>1108</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>1095</v>
+        <v>1109</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>1096</v>
+        <v>1110</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>1097</v>
+        <v>1111</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>1098</v>
+        <v>1112</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>1099</v>
+        <v>1113</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>1100</v>
+        <v>1114</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>1101</v>
+        <v>1115</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>1102</v>
+        <v>1116</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>1103</v>
+        <v>1117</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>1104</v>
+        <v>1118</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>1105</v>
+        <v>1119</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>1106</v>
+        <v>1120</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>678</v>
+        <v>692</v>
       </c>
       <c r="R9" s="5" t="s">
-        <v>1107</v>
+        <v>1121</v>
       </c>
       <c r="S9" s="5" t="s">
-        <v>1108</v>
+        <v>1122</v>
       </c>
       <c r="T9" s="5" t="s">
-        <v>1109</v>
+        <v>1123</v>
       </c>
       <c r="U9" s="5" t="s">
-        <v>1110</v>
+        <v>1124</v>
       </c>
       <c r="V9" s="5" t="s">
-        <v>1111</v>
+        <v>1125</v>
       </c>
       <c r="W9" s="5" t="s">
-        <v>1112</v>
+        <v>1126</v>
       </c>
       <c r="X9" s="5" t="s">
-        <v>1113</v>
+        <v>1127</v>
       </c>
       <c r="Y9" s="5" t="s">
-        <v>1114</v>
+        <v>1128</v>
       </c>
       <c r="Z9" s="5" t="s">
-        <v>1115</v>
+        <v>1129</v>
       </c>
       <c r="AA9" s="5" t="s">
-        <v>1116</v>
+        <v>1130</v>
       </c>
       <c r="AB9" s="12" t="s">
-        <v>1117</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>660</v>
+        <v>674</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>1118</v>
+        <v>1132</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>1119</v>
+        <v>1133</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>1120</v>
+        <v>1134</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>1121</v>
+        <v>1135</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>1122</v>
+        <v>1136</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>1123</v>
+        <v>1137</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>1124</v>
+        <v>1138</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>1125</v>
+        <v>1139</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>1126</v>
+        <v>1140</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>1127</v>
+        <v>1141</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>1128</v>
+        <v>1142</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>1129</v>
+        <v>1143</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>1130</v>
+        <v>1144</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>1131</v>
+        <v>1145</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>1132</v>
+        <v>1146</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>1133</v>
+        <v>1147</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>1134</v>
+        <v>1148</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>1135</v>
+        <v>1149</v>
       </c>
       <c r="T10" s="5" t="s">
-        <v>755</v>
+        <v>769</v>
       </c>
       <c r="U10" s="5" t="s">
-        <v>1136</v>
+        <v>1150</v>
       </c>
       <c r="V10" s="5" t="s">
-        <v>1137</v>
+        <v>1151</v>
       </c>
       <c r="W10" s="5" t="s">
-        <v>1138</v>
+        <v>1152</v>
       </c>
       <c r="X10" s="5" t="s">
-        <v>1139</v>
+        <v>1153</v>
       </c>
       <c r="Y10" s="5" t="s">
-        <v>1140</v>
+        <v>1154</v>
       </c>
       <c r="Z10" s="5" t="s">
-        <v>1141</v>
+        <v>1155</v>
       </c>
       <c r="AA10" s="5" t="s">
-        <v>1142</v>
+        <v>1156</v>
       </c>
       <c r="AB10" s="12" t="s">
-        <v>975</v>
+        <v>989</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>668</v>
+        <v>682</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>1143</v>
+        <v>1157</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>1144</v>
+        <v>1158</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>1145</v>
+        <v>1159</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>1146</v>
+        <v>1160</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>1147</v>
+        <v>1161</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>1148</v>
+        <v>1162</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>1149</v>
+        <v>1163</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>1150</v>
+        <v>1164</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>1151</v>
+        <v>1165</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>1152</v>
+        <v>1166</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>754</v>
+        <v>768</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>1153</v>
+        <v>1167</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>1154</v>
+        <v>1168</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>1155</v>
+        <v>1169</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>1156</v>
+        <v>1170</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>1157</v>
+        <v>1171</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>1158</v>
+        <v>1172</v>
       </c>
       <c r="S11" s="5" t="s">
-        <v>1159</v>
+        <v>1173</v>
       </c>
       <c r="T11" s="5" t="s">
-        <v>1160</v>
+        <v>1174</v>
       </c>
       <c r="U11" s="5" t="s">
-        <v>1161</v>
+        <v>1175</v>
       </c>
       <c r="V11" s="5" t="s">
-        <v>1162</v>
+        <v>1176</v>
       </c>
       <c r="W11" s="5" t="s">
-        <v>1163</v>
+        <v>1177</v>
       </c>
       <c r="X11" s="5" t="s">
-        <v>1164</v>
+        <v>1178</v>
       </c>
       <c r="Y11" s="5" t="s">
-        <v>1165</v>
+        <v>1179</v>
       </c>
       <c r="Z11" s="5" t="s">
-        <v>1166</v>
+        <v>1180</v>
       </c>
       <c r="AA11" s="5" t="s">
-        <v>1167</v>
+        <v>1181</v>
       </c>
       <c r="AB11" s="12" t="s">
-        <v>999</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>674</v>
+        <v>688</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>1168</v>
+        <v>1182</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>1169</v>
+        <v>1183</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>1170</v>
+        <v>1184</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>1171</v>
+        <v>1185</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>1172</v>
+        <v>1186</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>1173</v>
+        <v>1187</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>1174</v>
+        <v>1188</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>1175</v>
+        <v>1189</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>1176</v>
+        <v>1190</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>794</v>
+        <v>808</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>1177</v>
+        <v>1191</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>1178</v>
+        <v>1192</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>643</v>
+        <v>657</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>1179</v>
+        <v>1193</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>1180</v>
+        <v>1194</v>
       </c>
       <c r="Q12" s="5" t="s">
-        <v>800</v>
+        <v>814</v>
       </c>
       <c r="R12" s="5" t="s">
-        <v>1181</v>
+        <v>1195</v>
       </c>
       <c r="S12" s="5" t="s">
-        <v>1182</v>
+        <v>1196</v>
       </c>
       <c r="T12" s="5" t="s">
-        <v>1183</v>
+        <v>1197</v>
       </c>
       <c r="U12" s="5" t="s">
-        <v>1184</v>
+        <v>1198</v>
       </c>
       <c r="V12" s="5" t="s">
-        <v>1185</v>
+        <v>1199</v>
       </c>
       <c r="W12" s="5" t="s">
-        <v>1186</v>
+        <v>1200</v>
       </c>
       <c r="X12" s="5" t="s">
-        <v>1187</v>
+        <v>1201</v>
       </c>
       <c r="Y12" s="5" t="s">
-        <v>1188</v>
+        <v>1202</v>
       </c>
       <c r="Z12" s="5" t="s">
-        <v>1189</v>
+        <v>1203</v>
       </c>
       <c r="AA12" s="5" t="s">
-        <v>1190</v>
+        <v>1204</v>
       </c>
       <c r="AB12" s="12" t="s">
-        <v>1191</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>682</v>
+        <v>696</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>1192</v>
+        <v>1206</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>1193</v>
+        <v>1207</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>1194</v>
+        <v>1208</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>1195</v>
+        <v>1209</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>1196</v>
+        <v>1210</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>1197</v>
+        <v>1211</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>1198</v>
+        <v>1212</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>1199</v>
+        <v>1213</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>1200</v>
+        <v>1214</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>716</v>
+        <v>730</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>1201</v>
+        <v>1215</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>1202</v>
+        <v>1216</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>1203</v>
+        <v>1217</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>1204</v>
+        <v>1218</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>1205</v>
+        <v>1219</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>1206</v>
+        <v>1220</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>1207</v>
+        <v>1221</v>
       </c>
       <c r="S13" s="5" t="s">
-        <v>661</v>
+        <v>675</v>
       </c>
       <c r="T13" s="5" t="s">
-        <v>1208</v>
+        <v>1222</v>
       </c>
       <c r="U13" s="5" t="s">
-        <v>1209</v>
+        <v>1223</v>
       </c>
       <c r="V13" s="5" t="s">
-        <v>1210</v>
+        <v>1224</v>
       </c>
       <c r="W13" s="5" t="s">
-        <v>1211</v>
+        <v>1225</v>
       </c>
       <c r="X13" s="5" t="s">
-        <v>1212</v>
+        <v>1226</v>
       </c>
       <c r="Y13" s="5" t="s">
-        <v>1213</v>
+        <v>1227</v>
       </c>
       <c r="Z13" s="5" t="s">
-        <v>1214</v>
+        <v>1228</v>
       </c>
       <c r="AA13" s="5" t="s">
-        <v>1215</v>
+        <v>1229</v>
       </c>
       <c r="AB13" s="12" t="s">
-        <v>1216</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>689</v>
+        <v>703</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>1217</v>
+        <v>1231</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>1218</v>
+        <v>1232</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>1219</v>
+        <v>1233</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>1220</v>
+        <v>1234</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>1221</v>
+        <v>1235</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>1222</v>
+        <v>1236</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>1223</v>
+        <v>1237</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>733</v>
+        <v>747</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>789</v>
+        <v>803</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>1224</v>
+        <v>1238</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>1225</v>
+        <v>1239</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>1226</v>
+        <v>1240</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>1227</v>
+        <v>1241</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>713</v>
+        <v>727</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>796</v>
+        <v>810</v>
       </c>
       <c r="Q14" s="5" t="s">
-        <v>1228</v>
+        <v>1242</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>1229</v>
+        <v>1243</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>1230</v>
+        <v>1244</v>
       </c>
       <c r="T14" s="5" t="s">
-        <v>1231</v>
+        <v>1245</v>
       </c>
       <c r="U14" s="5" t="s">
-        <v>1232</v>
+        <v>1246</v>
       </c>
       <c r="V14" s="5" t="s">
-        <v>1233</v>
+        <v>1247</v>
       </c>
       <c r="W14" s="5" t="s">
-        <v>1234</v>
+        <v>1248</v>
       </c>
       <c r="X14" s="5" t="s">
-        <v>1235</v>
+        <v>1249</v>
       </c>
       <c r="Y14" s="5" t="s">
-        <v>1236</v>
+        <v>1250</v>
       </c>
       <c r="Z14" s="5" t="s">
-        <v>1237</v>
+        <v>1251</v>
       </c>
       <c r="AA14" s="5" t="s">
-        <v>1238</v>
+        <v>1252</v>
       </c>
       <c r="AB14" s="12" t="s">
-        <v>809</v>
+        <v>823</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>696</v>
+        <v>710</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>1239</v>
+        <v>1253</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>1240</v>
+        <v>1254</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>1241</v>
+        <v>1255</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>1242</v>
+        <v>1256</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>618</v>
+        <v>632</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>1243</v>
+        <v>1257</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>1244</v>
+        <v>1258</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>638</v>
+        <v>652</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>1245</v>
+        <v>1259</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>732</v>
+        <v>746</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>1246</v>
+        <v>1260</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>1247</v>
+        <v>1261</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>737</v>
+        <v>751</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>1248</v>
+        <v>1262</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>709</v>
+        <v>723</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>1249</v>
+        <v>1263</v>
       </c>
       <c r="R15" s="5" t="s">
-        <v>1250</v>
+        <v>1264</v>
       </c>
       <c r="S15" s="5" t="s">
-        <v>647</v>
+        <v>661</v>
       </c>
       <c r="T15" s="5" t="s">
-        <v>1251</v>
+        <v>1265</v>
       </c>
       <c r="U15" s="5" t="s">
-        <v>1252</v>
+        <v>1266</v>
       </c>
       <c r="V15" s="5" t="s">
-        <v>1253</v>
+        <v>1267</v>
       </c>
       <c r="W15" s="5" t="s">
-        <v>1254</v>
+        <v>1268</v>
       </c>
       <c r="X15" s="5" t="s">
-        <v>1255</v>
+        <v>1269</v>
       </c>
       <c r="Y15" s="5" t="s">
-        <v>1256</v>
+        <v>1270</v>
       </c>
       <c r="Z15" s="5" t="s">
-        <v>1257</v>
+        <v>1271</v>
       </c>
       <c r="AA15" s="5" t="s">
-        <v>721</v>
+        <v>735</v>
       </c>
       <c r="AB15" s="12" t="s">
-        <v>1258</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>704</v>
+        <v>718</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>1259</v>
+        <v>1273</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>1260</v>
+        <v>1274</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>1261</v>
+        <v>1275</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>1262</v>
+        <v>1276</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>1263</v>
+        <v>1277</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>1264</v>
+        <v>1278</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>1265</v>
+        <v>1279</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>1266</v>
+        <v>1280</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>1267</v>
+        <v>1281</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>1268</v>
+        <v>1282</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>1269</v>
+        <v>1283</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>1270</v>
+        <v>1284</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>1271</v>
+        <v>1285</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>651</v>
+        <v>665</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>1272</v>
+        <v>1286</v>
       </c>
       <c r="Q16" s="5" t="s">
-        <v>1273</v>
+        <v>1287</v>
       </c>
       <c r="R16" s="5" t="s">
-        <v>1274</v>
+        <v>1288</v>
       </c>
       <c r="S16" s="5" t="s">
-        <v>1275</v>
+        <v>1289</v>
       </c>
       <c r="T16" s="5" t="s">
-        <v>1276</v>
+        <v>1290</v>
       </c>
       <c r="U16" s="5" t="s">
-        <v>1277</v>
+        <v>1291</v>
       </c>
       <c r="V16" s="5" t="s">
-        <v>1278</v>
+        <v>1292</v>
       </c>
       <c r="W16" s="5" t="s">
-        <v>1279</v>
+        <v>1293</v>
       </c>
       <c r="X16" s="5" t="s">
-        <v>1280</v>
+        <v>1294</v>
       </c>
       <c r="Y16" s="5" t="s">
-        <v>1281</v>
+        <v>1295</v>
       </c>
       <c r="Z16" s="5" t="s">
-        <v>1282</v>
+        <v>1296</v>
       </c>
       <c r="AA16" s="5" t="s">
-        <v>1283</v>
+        <v>1297</v>
       </c>
       <c r="AB16" s="12" t="s">
-        <v>816</v>
+        <v>830</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>712</v>
+        <v>726</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>1284</v>
+        <v>1298</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>1285</v>
+        <v>1299</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>1286</v>
+        <v>1300</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>1287</v>
+        <v>1301</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>1288</v>
+        <v>1302</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>1289</v>
+        <v>1303</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>1290</v>
+        <v>1304</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>1291</v>
+        <v>1305</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>701</v>
+        <v>715</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>756</v>
+        <v>770</v>
       </c>
       <c r="L17" s="5" t="s">
-        <v>1292</v>
+        <v>1306</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>1293</v>
+        <v>1307</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>1294</v>
+        <v>1308</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>1295</v>
+        <v>1309</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>1296</v>
+        <v>1310</v>
       </c>
       <c r="Q17" s="5" t="s">
-        <v>1297</v>
+        <v>1311</v>
       </c>
       <c r="R17" s="5" t="s">
-        <v>792</v>
+        <v>806</v>
       </c>
       <c r="S17" s="5" t="s">
-        <v>1298</v>
+        <v>1312</v>
       </c>
       <c r="T17" s="5" t="s">
-        <v>1299</v>
+        <v>1313</v>
       </c>
       <c r="U17" s="5" t="s">
-        <v>1300</v>
+        <v>1314</v>
       </c>
       <c r="V17" s="5" t="s">
-        <v>1301</v>
+        <v>1315</v>
       </c>
       <c r="W17" s="5" t="s">
-        <v>1302</v>
+        <v>1316</v>
       </c>
       <c r="X17" s="5" t="s">
-        <v>1303</v>
+        <v>1317</v>
       </c>
       <c r="Y17" s="5" t="s">
-        <v>771</v>
+        <v>785</v>
       </c>
       <c r="Z17" s="5" t="s">
-        <v>1304</v>
+        <v>1318</v>
       </c>
       <c r="AA17" s="5" t="s">
-        <v>1305</v>
+        <v>1319</v>
       </c>
       <c r="AB17" s="12" t="s">
-        <v>818</v>
+        <v>832</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>719</v>
+        <v>733</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>1306</v>
+        <v>1320</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>1307</v>
+        <v>1321</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>1308</v>
+        <v>1322</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>1309</v>
+        <v>1323</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>748</v>
+        <v>762</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>686</v>
+        <v>700</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>1310</v>
+        <v>1324</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>1311</v>
+        <v>1325</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>1312</v>
+        <v>1326</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>1313</v>
+        <v>1327</v>
       </c>
       <c r="L18" s="5" t="s">
-        <v>1314</v>
+        <v>1328</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>690</v>
+        <v>704</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>1315</v>
+        <v>1329</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>1316</v>
+        <v>1330</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>1317</v>
+        <v>1331</v>
       </c>
       <c r="Q18" s="5" t="s">
-        <v>1318</v>
+        <v>1332</v>
       </c>
       <c r="R18" s="5" t="s">
-        <v>1319</v>
+        <v>1333</v>
       </c>
       <c r="S18" s="5" t="s">
-        <v>760</v>
+        <v>774</v>
       </c>
       <c r="T18" s="5" t="s">
-        <v>1320</v>
+        <v>1334</v>
       </c>
       <c r="U18" s="5" t="s">
-        <v>1321</v>
+        <v>1335</v>
       </c>
       <c r="V18" s="5" t="s">
-        <v>1322</v>
+        <v>1336</v>
       </c>
       <c r="W18" s="5" t="s">
-        <v>1323</v>
+        <v>1337</v>
       </c>
       <c r="X18" s="5" t="s">
-        <v>1324</v>
+        <v>1338</v>
       </c>
       <c r="Y18" s="5" t="s">
-        <v>1325</v>
+        <v>1339</v>
       </c>
       <c r="Z18" s="5" t="s">
-        <v>1326</v>
+        <v>1340</v>
       </c>
       <c r="AA18" s="5" t="s">
-        <v>1327</v>
+        <v>1341</v>
       </c>
       <c r="AB18" s="12" t="s">
-        <v>1067</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>727</v>
+        <v>741</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>1328</v>
+        <v>1342</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>1329</v>
+        <v>1343</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>1330</v>
+        <v>1344</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>1331</v>
+        <v>1345</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>1332</v>
+        <v>1346</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>1333</v>
+        <v>1347</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>1334</v>
+        <v>1348</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>720</v>
+        <v>734</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>1335</v>
+        <v>1349</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>702</v>
+        <v>716</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>669</v>
+        <v>683</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>1336</v>
+        <v>1350</v>
       </c>
       <c r="N19" s="5" t="s">
-        <v>694</v>
+        <v>708</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>1337</v>
+        <v>1351</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>1338</v>
+        <v>1352</v>
       </c>
       <c r="Q19" s="5" t="s">
-        <v>1339</v>
+        <v>1353</v>
       </c>
       <c r="R19" s="5" t="s">
-        <v>1340</v>
+        <v>1354</v>
       </c>
       <c r="S19" s="5" t="s">
-        <v>1341</v>
+        <v>1355</v>
       </c>
       <c r="T19" s="5" t="s">
-        <v>1342</v>
+        <v>1356</v>
       </c>
       <c r="U19" s="5" t="s">
-        <v>1343</v>
+        <v>1357</v>
       </c>
       <c r="V19" s="5" t="s">
-        <v>1344</v>
+        <v>1358</v>
       </c>
       <c r="W19" s="5" t="s">
-        <v>1345</v>
+        <v>1359</v>
       </c>
       <c r="X19" s="5" t="s">
-        <v>1346</v>
+        <v>1360</v>
       </c>
       <c r="Y19" s="5" t="s">
-        <v>1347</v>
+        <v>1361</v>
       </c>
       <c r="Z19" s="5" t="s">
-        <v>1348</v>
+        <v>1362</v>
       </c>
       <c r="AA19" s="5" t="s">
-        <v>1349</v>
+        <v>1363</v>
       </c>
       <c r="AB19" s="12" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>735</v>
+        <v>749</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>1353</v>
+        <v>1367</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>1354</v>
+        <v>1368</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>1355</v>
+        <v>1369</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>1356</v>
+        <v>1370</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>1357</v>
+        <v>1371</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>1358</v>
+        <v>1372</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>799</v>
+        <v>813</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>655</v>
+        <v>669</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>1359</v>
+        <v>1373</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>1360</v>
+        <v>1374</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>1361</v>
+        <v>1375</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>1362</v>
+        <v>1376</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>1363</v>
+        <v>1377</v>
       </c>
       <c r="Q20" s="5" t="s">
-        <v>1364</v>
+        <v>1378</v>
       </c>
       <c r="R20" s="5" t="s">
-        <v>1365</v>
+        <v>1379</v>
       </c>
       <c r="S20" s="5" t="s">
-        <v>1366</v>
+        <v>1380</v>
       </c>
       <c r="T20" s="5" t="s">
-        <v>1367</v>
+        <v>1381</v>
       </c>
       <c r="U20" s="5" t="s">
-        <v>1368</v>
+        <v>1382</v>
       </c>
       <c r="V20" s="5" t="s">
-        <v>1369</v>
+        <v>1383</v>
       </c>
       <c r="W20" s="5" t="s">
-        <v>1370</v>
+        <v>1384</v>
       </c>
       <c r="X20" s="5" t="s">
-        <v>632</v>
+        <v>646</v>
       </c>
       <c r="Y20" s="5" t="s">
-        <v>1371</v>
+        <v>1385</v>
       </c>
       <c r="Z20" s="5" t="s">
-        <v>1372</v>
+        <v>1386</v>
       </c>
       <c r="AA20" s="5" t="s">
-        <v>1373</v>
+        <v>1387</v>
       </c>
       <c r="AB20" s="12" t="s">
-        <v>1374</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>742</v>
+        <v>756</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>1375</v>
+        <v>1389</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>1376</v>
+        <v>1390</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>1377</v>
+        <v>1391</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>1378</v>
+        <v>1392</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>1379</v>
+        <v>1393</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>775</v>
+        <v>789</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>1380</v>
+        <v>1394</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>1381</v>
+        <v>1395</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>1382</v>
+        <v>1396</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>1383</v>
+        <v>1397</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>1384</v>
+        <v>1398</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>804</v>
+        <v>818</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>1385</v>
+        <v>1399</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>1386</v>
+        <v>1400</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>1387</v>
+        <v>1401</v>
       </c>
       <c r="Q21" s="5" t="s">
-        <v>1388</v>
+        <v>1402</v>
       </c>
       <c r="R21" s="5" t="s">
-        <v>1389</v>
+        <v>1403</v>
       </c>
       <c r="S21" s="5" t="s">
-        <v>1390</v>
+        <v>1404</v>
       </c>
       <c r="T21" s="5" t="s">
-        <v>1391</v>
+        <v>1405</v>
       </c>
       <c r="U21" s="5" t="s">
-        <v>1392</v>
+        <v>1406</v>
       </c>
       <c r="V21" s="5" t="s">
-        <v>1393</v>
+        <v>1407</v>
       </c>
       <c r="W21" s="5" t="s">
-        <v>1394</v>
+        <v>1408</v>
       </c>
       <c r="X21" s="5" t="s">
-        <v>1395</v>
+        <v>1409</v>
       </c>
       <c r="Y21" s="5" t="s">
-        <v>1396</v>
+        <v>1410</v>
       </c>
       <c r="Z21" s="5" t="s">
-        <v>1397</v>
+        <v>1411</v>
       </c>
       <c r="AA21" s="5" t="s">
-        <v>606</v>
+        <v>620</v>
       </c>
       <c r="AB21" s="12" t="s">
-        <v>810</v>
+        <v>824</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>750</v>
+        <v>764</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>1398</v>
+        <v>1412</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>1399</v>
+        <v>1413</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>1400</v>
+        <v>1414</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>1401</v>
+        <v>1415</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>1402</v>
+        <v>1416</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>1403</v>
+        <v>1417</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>1404</v>
+        <v>1418</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>1405</v>
+        <v>1419</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>1406</v>
+        <v>1420</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>1407</v>
+        <v>1421</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>1408</v>
+        <v>1422</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>1409</v>
+        <v>1423</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>777</v>
+        <v>791</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>637</v>
+        <v>651</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>1410</v>
+        <v>1424</v>
       </c>
       <c r="Q22" s="5" t="s">
-        <v>1411</v>
+        <v>1425</v>
       </c>
       <c r="R22" s="5" t="s">
-        <v>1412</v>
+        <v>1426</v>
       </c>
       <c r="S22" s="5" t="s">
-        <v>1413</v>
+        <v>1427</v>
       </c>
       <c r="T22" s="5" t="s">
-        <v>1414</v>
+        <v>1428</v>
       </c>
       <c r="U22" s="5" t="s">
-        <v>1415</v>
+        <v>1429</v>
       </c>
       <c r="V22" s="5" t="s">
-        <v>1416</v>
+        <v>1430</v>
       </c>
       <c r="W22" s="5" t="s">
-        <v>1417</v>
+        <v>1431</v>
       </c>
       <c r="X22" s="5" t="s">
-        <v>1418</v>
+        <v>1432</v>
       </c>
       <c r="Y22" s="5" t="s">
-        <v>1419</v>
+        <v>1433</v>
       </c>
       <c r="Z22" s="5" t="s">
-        <v>782</v>
+        <v>796</v>
       </c>
       <c r="AA22" s="5" t="s">
-        <v>1420</v>
+        <v>1434</v>
       </c>
       <c r="AB22" s="12" t="s">
-        <v>1421</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>758</v>
+        <v>772</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>1422</v>
+        <v>1436</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>1423</v>
+        <v>1437</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>1424</v>
+        <v>1438</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>1425</v>
+        <v>1439</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>1426</v>
+        <v>1440</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>1427</v>
+        <v>1441</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>1428</v>
+        <v>1442</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>1429</v>
+        <v>1443</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>1430</v>
+        <v>1444</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>1431</v>
+        <v>1445</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>1432</v>
+        <v>1446</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>1433</v>
+        <v>1447</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>1434</v>
+        <v>1448</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>1435</v>
+        <v>1449</v>
       </c>
       <c r="P23" s="5" t="s">
-        <v>1436</v>
+        <v>1450</v>
       </c>
       <c r="Q23" s="5" t="s">
-        <v>1437</v>
+        <v>1451</v>
       </c>
       <c r="R23" s="5" t="s">
-        <v>1438</v>
+        <v>1452</v>
       </c>
       <c r="S23" s="5" t="s">
-        <v>1439</v>
+        <v>1453</v>
       </c>
       <c r="T23" s="5" t="s">
-        <v>1440</v>
+        <v>1454</v>
       </c>
       <c r="U23" s="5" t="s">
-        <v>1441</v>
+        <v>1455</v>
       </c>
       <c r="V23" s="5" t="s">
-        <v>784</v>
+        <v>798</v>
       </c>
       <c r="W23" s="5" t="s">
-        <v>1442</v>
+        <v>1456</v>
       </c>
       <c r="X23" s="5" t="s">
-        <v>1443</v>
+        <v>1457</v>
       </c>
       <c r="Y23" s="5" t="s">
-        <v>1444</v>
+        <v>1458</v>
       </c>
       <c r="Z23" s="5" t="s">
-        <v>1445</v>
+        <v>1459</v>
       </c>
       <c r="AA23" s="5" t="s">
-        <v>1446</v>
+        <v>1460</v>
       </c>
       <c r="AB23" s="12" t="s">
-        <v>1447</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>766</v>
+        <v>780</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>1448</v>
+        <v>1462</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>1449</v>
+        <v>1463</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>1450</v>
+        <v>1464</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>1451</v>
+        <v>1465</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>1452</v>
+        <v>1466</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>1453</v>
+        <v>1467</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>725</v>
+        <v>739</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>1454</v>
+        <v>1468</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>1455</v>
+        <v>1469</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>1456</v>
+        <v>1470</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>1457</v>
+        <v>1471</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>1458</v>
+        <v>1472</v>
       </c>
       <c r="N24" s="5" t="s">
-        <v>1459</v>
+        <v>1473</v>
       </c>
       <c r="O24" s="5" t="s">
-        <v>1460</v>
+        <v>1474</v>
       </c>
       <c r="P24" s="5" t="s">
-        <v>1461</v>
+        <v>1475</v>
       </c>
       <c r="Q24" s="5" t="s">
-        <v>1462</v>
+        <v>1476</v>
       </c>
       <c r="R24" s="5" t="s">
-        <v>1463</v>
+        <v>1477</v>
       </c>
       <c r="S24" s="5" t="s">
-        <v>1464</v>
+        <v>1478</v>
       </c>
       <c r="T24" s="5" t="s">
-        <v>1465</v>
+        <v>1479</v>
       </c>
       <c r="U24" s="5" t="s">
-        <v>1466</v>
+        <v>1480</v>
       </c>
       <c r="V24" s="5" t="s">
-        <v>1467</v>
+        <v>1481</v>
       </c>
       <c r="W24" s="5" t="s">
-        <v>1468</v>
+        <v>1482</v>
       </c>
       <c r="X24" s="5" t="s">
-        <v>1469</v>
+        <v>1483</v>
       </c>
       <c r="Y24" s="5" t="s">
-        <v>1470</v>
+        <v>1484</v>
       </c>
       <c r="Z24" s="5" t="s">
-        <v>1471</v>
+        <v>1485</v>
       </c>
       <c r="AA24" s="5" t="s">
-        <v>1472</v>
+        <v>1486</v>
       </c>
       <c r="AB24" s="12" t="s">
-        <v>1473</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>773</v>
+        <v>787</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>1474</v>
+        <v>1488</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>1475</v>
+        <v>1489</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>1476</v>
+        <v>1490</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>1477</v>
+        <v>1491</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>1478</v>
+        <v>1492</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>1479</v>
+        <v>1493</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>1480</v>
+        <v>1494</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>1481</v>
+        <v>1495</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>1482</v>
+        <v>1496</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>1483</v>
+        <v>1497</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>1484</v>
+        <v>1498</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>1485</v>
+        <v>1499</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>1486</v>
+        <v>1500</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>1487</v>
+        <v>1501</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>1488</v>
+        <v>1502</v>
       </c>
       <c r="Q25" s="5" t="s">
-        <v>718</v>
+        <v>732</v>
       </c>
       <c r="R25" s="5" t="s">
-        <v>1489</v>
+        <v>1503</v>
       </c>
       <c r="S25" s="5" t="s">
-        <v>1490</v>
+        <v>1504</v>
       </c>
       <c r="T25" s="5" t="s">
-        <v>671</v>
+        <v>685</v>
       </c>
       <c r="U25" s="5" t="s">
-        <v>1491</v>
+        <v>1505</v>
       </c>
       <c r="V25" s="5" t="s">
-        <v>1492</v>
+        <v>1506</v>
       </c>
       <c r="W25" s="5" t="s">
-        <v>1493</v>
+        <v>1507</v>
       </c>
       <c r="X25" s="5" t="s">
-        <v>1494</v>
+        <v>1508</v>
       </c>
       <c r="Y25" s="5" t="s">
-        <v>1495</v>
+        <v>1509</v>
       </c>
       <c r="Z25" s="5" t="s">
-        <v>1496</v>
+        <v>1510</v>
       </c>
       <c r="AA25" s="5" t="s">
-        <v>1497</v>
+        <v>1511</v>
       </c>
       <c r="AB25" s="12" t="s">
-        <v>1117</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>780</v>
+        <v>794</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>1498</v>
+        <v>1512</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>1499</v>
+        <v>1513</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>1500</v>
+        <v>1514</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>1501</v>
+        <v>1515</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>1502</v>
+        <v>1516</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>1503</v>
+        <v>1517</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>1504</v>
+        <v>1518</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>1505</v>
+        <v>1519</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>1506</v>
+        <v>1520</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>1507</v>
+        <v>1521</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>1508</v>
+        <v>1522</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>642</v>
+        <v>656</v>
       </c>
       <c r="N26" s="5" t="s">
-        <v>1509</v>
+        <v>1523</v>
       </c>
       <c r="O26" s="5" t="s">
-        <v>763</v>
+        <v>777</v>
       </c>
       <c r="P26" s="5" t="s">
-        <v>1510</v>
+        <v>1524</v>
       </c>
       <c r="Q26" s="5" t="s">
-        <v>805</v>
+        <v>819</v>
       </c>
       <c r="R26" s="5" t="s">
-        <v>1511</v>
+        <v>1525</v>
       </c>
       <c r="S26" s="5" t="s">
-        <v>1512</v>
+        <v>1526</v>
       </c>
       <c r="T26" s="5" t="s">
-        <v>1513</v>
+        <v>1527</v>
       </c>
       <c r="U26" s="5" t="s">
-        <v>1514</v>
+        <v>1528</v>
       </c>
       <c r="V26" s="5" t="s">
-        <v>1515</v>
+        <v>1529</v>
       </c>
       <c r="W26" s="5" t="s">
-        <v>1516</v>
+        <v>1530</v>
       </c>
       <c r="X26" s="5" t="s">
-        <v>1517</v>
+        <v>1531</v>
       </c>
       <c r="Y26" s="5" t="s">
-        <v>1518</v>
+        <v>1532</v>
       </c>
       <c r="Z26" s="5" t="s">
-        <v>1519</v>
+        <v>1533</v>
       </c>
       <c r="AA26" s="5" t="s">
-        <v>1520</v>
+        <v>1534</v>
       </c>
       <c r="AB26" s="12" t="s">
-        <v>1521</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>788</v>
+        <v>802</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>1522</v>
+        <v>1536</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>1523</v>
+        <v>1537</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>1524</v>
+        <v>1538</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>1525</v>
+        <v>1539</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>1526</v>
+        <v>1540</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>1527</v>
+        <v>1541</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>1528</v>
+        <v>1542</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>1529</v>
+        <v>1543</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>1530</v>
+        <v>1544</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>1531</v>
+        <v>1545</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>1532</v>
+        <v>1546</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>1533</v>
+        <v>1547</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>1534</v>
+        <v>1548</v>
       </c>
       <c r="O27" s="5" t="s">
-        <v>1535</v>
+        <v>1549</v>
       </c>
       <c r="P27" s="5" t="s">
-        <v>1536</v>
+        <v>1550</v>
       </c>
       <c r="Q27" s="5" t="s">
-        <v>1537</v>
+        <v>1551</v>
       </c>
       <c r="R27" s="5" t="s">
-        <v>1538</v>
+        <v>1552</v>
       </c>
       <c r="S27" s="5" t="s">
-        <v>1539</v>
+        <v>1553</v>
       </c>
       <c r="T27" s="5" t="s">
-        <v>1540</v>
+        <v>1554</v>
       </c>
       <c r="U27" s="5" t="s">
-        <v>1541</v>
+        <v>1555</v>
       </c>
       <c r="V27" s="5" t="s">
-        <v>620</v>
+        <v>634</v>
       </c>
       <c r="W27" s="5" t="s">
-        <v>1542</v>
+        <v>1556</v>
       </c>
       <c r="X27" s="5" t="s">
-        <v>1543</v>
+        <v>1557</v>
       </c>
       <c r="Y27" s="5" t="s">
-        <v>1544</v>
+        <v>1558</v>
       </c>
       <c r="Z27" s="5" t="s">
-        <v>1545</v>
+        <v>1559</v>
       </c>
       <c r="AA27" s="5" t="s">
-        <v>1546</v>
+        <v>1560</v>
       </c>
       <c r="AB27" s="12" t="s">
-        <v>1547</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>795</v>
+        <v>809</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>1548</v>
+        <v>1562</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>1549</v>
+        <v>1563</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>1550</v>
+        <v>1564</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>1551</v>
+        <v>1565</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>1552</v>
+        <v>1566</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>1553</v>
+        <v>1567</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>751</v>
+        <v>765</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>1554</v>
+        <v>1568</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>1555</v>
+        <v>1569</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>1556</v>
+        <v>1570</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>1557</v>
+        <v>1571</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>1558</v>
+        <v>1572</v>
       </c>
       <c r="N28" s="5" t="s">
-        <v>1559</v>
+        <v>1573</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>1560</v>
+        <v>1574</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>1561</v>
+        <v>1575</v>
       </c>
       <c r="Q28" s="5" t="s">
-        <v>1562</v>
+        <v>1576</v>
       </c>
       <c r="R28" s="5" t="s">
-        <v>1563</v>
+        <v>1577</v>
       </c>
       <c r="S28" s="5" t="s">
-        <v>1564</v>
+        <v>1578</v>
       </c>
       <c r="T28" s="5" t="s">
-        <v>1565</v>
+        <v>1579</v>
       </c>
       <c r="U28" s="5" t="s">
-        <v>1566</v>
+        <v>1580</v>
       </c>
       <c r="V28" s="5" t="s">
-        <v>1567</v>
+        <v>1581</v>
       </c>
       <c r="W28" s="5" t="s">
-        <v>1568</v>
+        <v>1582</v>
       </c>
       <c r="X28" s="5" t="s">
-        <v>1569</v>
+        <v>1583</v>
       </c>
       <c r="Y28" s="5" t="s">
-        <v>1570</v>
+        <v>1584</v>
       </c>
       <c r="Z28" s="5" t="s">
-        <v>1571</v>
+        <v>1585</v>
       </c>
       <c r="AA28" s="5" t="s">
-        <v>1572</v>
+        <v>1586</v>
       </c>
       <c r="AB28" s="12" t="s">
-        <v>1573</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>801</v>
+        <v>815</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>1574</v>
+        <v>1588</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>1575</v>
+        <v>1589</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>1576</v>
+        <v>1590</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>1577</v>
+        <v>1591</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>1578</v>
+        <v>1592</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>1579</v>
+        <v>1593</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>1580</v>
+        <v>1594</v>
       </c>
       <c r="I29" s="13" t="s">
-        <v>1581</v>
+        <v>1595</v>
       </c>
       <c r="J29" s="13" t="s">
-        <v>1582</v>
+        <v>1596</v>
       </c>
       <c r="K29" s="13" t="s">
-        <v>1583</v>
+        <v>1597</v>
       </c>
       <c r="L29" s="13" t="s">
-        <v>1584</v>
+        <v>1598</v>
       </c>
       <c r="M29" s="13" t="s">
-        <v>1585</v>
+        <v>1599</v>
       </c>
       <c r="N29" s="13" t="s">
-        <v>1586</v>
+        <v>1600</v>
       </c>
       <c r="O29" s="13" t="s">
-        <v>1587</v>
+        <v>1601</v>
       </c>
       <c r="P29" s="13" t="s">
-        <v>1588</v>
+        <v>1602</v>
       </c>
       <c r="Q29" s="13" t="s">
-        <v>1589</v>
+        <v>1603</v>
       </c>
       <c r="R29" s="13" t="s">
-        <v>1590</v>
+        <v>1604</v>
       </c>
       <c r="S29" s="13" t="s">
-        <v>1591</v>
+        <v>1605</v>
       </c>
       <c r="T29" s="13" t="s">
-        <v>1592</v>
+        <v>1606</v>
       </c>
       <c r="U29" s="13" t="s">
-        <v>1593</v>
+        <v>1607</v>
       </c>
       <c r="V29" s="13" t="s">
-        <v>1594</v>
+        <v>1608</v>
       </c>
       <c r="W29" s="13" t="s">
-        <v>1595</v>
+        <v>1609</v>
       </c>
       <c r="X29" s="13" t="s">
-        <v>1360</v>
+        <v>1374</v>
       </c>
       <c r="Y29" s="13" t="s">
-        <v>1596</v>
+        <v>1610</v>
       </c>
       <c r="Z29" s="13" t="s">
-        <v>1597</v>
+        <v>1611</v>
       </c>
       <c r="AA29" s="13" t="s">
-        <v>1598</v>
+        <v>1612</v>
       </c>
       <c r="AB29" s="12" t="s">
-        <v>1599</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>604</v>
+        <v>618</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>1600</v>
+        <v>1614</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>1601</v>
+        <v>1615</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>1602</v>
+        <v>1616</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>1603</v>
+        <v>1617</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>1604</v>
+        <v>1618</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>1605</v>
+        <v>1619</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>1606</v>
+        <v>1620</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>1607</v>
+        <v>1621</v>
       </c>
       <c r="J30" s="13" t="s">
-        <v>1608</v>
+        <v>1622</v>
       </c>
       <c r="K30" s="13" t="s">
-        <v>1609</v>
+        <v>1623</v>
       </c>
       <c r="L30" s="13" t="s">
-        <v>1610</v>
+        <v>1624</v>
       </c>
       <c r="M30" s="13" t="s">
-        <v>1611</v>
+        <v>1625</v>
       </c>
       <c r="N30" s="13" t="s">
-        <v>1612</v>
+        <v>1626</v>
       </c>
       <c r="O30" s="13" t="s">
-        <v>1421</v>
+        <v>1435</v>
       </c>
       <c r="P30" s="13" t="s">
-        <v>1613</v>
+        <v>1627</v>
       </c>
       <c r="Q30" s="13" t="s">
-        <v>1614</v>
+        <v>1628</v>
       </c>
       <c r="R30" s="13" t="s">
-        <v>1615</v>
+        <v>1629</v>
       </c>
       <c r="S30" s="13" t="s">
-        <v>816</v>
+        <v>830</v>
       </c>
       <c r="T30" s="13" t="s">
-        <v>1616</v>
+        <v>1630</v>
       </c>
       <c r="U30" s="13" t="s">
-        <v>1617</v>
+        <v>1631</v>
       </c>
       <c r="V30" s="13" t="s">
-        <v>1618</v>
+        <v>1632</v>
       </c>
       <c r="W30" s="13" t="s">
-        <v>1619</v>
+        <v>1633</v>
       </c>
       <c r="X30" s="13" t="s">
-        <v>1620</v>
+        <v>1634</v>
       </c>
       <c r="Y30" s="13" t="s">
-        <v>1621</v>
+        <v>1635</v>
       </c>
       <c r="Z30" s="13" t="s">
-        <v>1622</v>
+        <v>1636</v>
       </c>
       <c r="AA30" s="13" t="s">
-        <v>1623</v>
+        <v>1637</v>
       </c>
       <c r="AB30" s="12" t="s">
-        <v>1624</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>815</v>
+        <v>829</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>975</v>
+        <v>989</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>1625</v>
+        <v>1639</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>1626</v>
+        <v>1640</v>
       </c>
       <c r="E31" s="13" t="s">
+        <v>1641</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>1642</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>1643</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>1644</v>
+      </c>
+      <c r="I31" s="13" t="s">
+        <v>1620</v>
+      </c>
+      <c r="J31" s="13" t="s">
+        <v>830</v>
+      </c>
+      <c r="K31" s="13" t="s">
+        <v>1645</v>
+      </c>
+      <c r="L31" s="13" t="s">
+        <v>1646</v>
+      </c>
+      <c r="M31" s="13" t="s">
+        <v>1647</v>
+      </c>
+      <c r="N31" s="13" t="s">
         <v>1627</v>
       </c>
-      <c r="F31" s="13" t="s">
-        <v>1628</v>
-      </c>
-      <c r="G31" s="13" t="s">
-        <v>1629</v>
-      </c>
-      <c r="H31" s="13" t="s">
-        <v>1630</v>
-      </c>
-      <c r="I31" s="13" t="s">
-        <v>1606</v>
-      </c>
-      <c r="J31" s="13" t="s">
-        <v>816</v>
-      </c>
-      <c r="K31" s="13" t="s">
-        <v>1631</v>
-      </c>
-      <c r="L31" s="13" t="s">
-        <v>1632</v>
-      </c>
-      <c r="M31" s="13" t="s">
-        <v>1633</v>
-      </c>
-      <c r="N31" s="13" t="s">
-        <v>1613</v>
-      </c>
       <c r="O31" s="13" t="s">
-        <v>1634</v>
+        <v>1648</v>
       </c>
       <c r="P31" s="13" t="s">
-        <v>1117</v>
+        <v>1131</v>
       </c>
       <c r="Q31" s="13" t="s">
-        <v>1635</v>
+        <v>1649</v>
       </c>
       <c r="R31" s="13" t="s">
-        <v>1636</v>
+        <v>1650</v>
       </c>
       <c r="S31" s="13" t="s">
-        <v>1637</v>
+        <v>1651</v>
       </c>
       <c r="T31" s="13" t="s">
-        <v>1638</v>
+        <v>1652</v>
       </c>
       <c r="U31" s="13" t="s">
-        <v>1639</v>
+        <v>1653</v>
       </c>
       <c r="V31" s="13" t="s">
-        <v>1640</v>
+        <v>1654</v>
       </c>
       <c r="W31" s="13" t="s">
-        <v>1641</v>
+        <v>1655</v>
       </c>
       <c r="X31" s="13" t="s">
-        <v>1642</v>
+        <v>1656</v>
       </c>
       <c r="Y31" s="13" t="s">
-        <v>1643</v>
+        <v>1657</v>
       </c>
       <c r="Z31" s="13" t="s">
-        <v>1547</v>
+        <v>1561</v>
       </c>
       <c r="AA31" s="13" t="s">
-        <v>1644</v>
+        <v>1658</v>
       </c>
       <c r="AB31" s="12" t="s">
-        <v>1645</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>823</v>
+        <v>837</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>828</v>
+        <v>842</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>826</v>
+        <v>840</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>1646</v>
+        <v>1660</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>827</v>
+        <v>841</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>1647</v>
+        <v>1661</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>1648</v>
+        <v>1662</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>1649</v>
+        <v>1663</v>
       </c>
       <c r="I32" s="13" t="s">
-        <v>1650</v>
+        <v>1664</v>
       </c>
       <c r="J32" s="13" t="s">
-        <v>1651</v>
+        <v>1665</v>
       </c>
       <c r="K32" s="13" t="s">
-        <v>1652</v>
+        <v>1666</v>
       </c>
       <c r="L32" s="13" t="s">
-        <v>1653</v>
+        <v>1667</v>
       </c>
       <c r="M32" s="13" t="s">
-        <v>1650</v>
+        <v>1664</v>
       </c>
       <c r="N32" s="13" t="s">
-        <v>1654</v>
+        <v>1668</v>
       </c>
       <c r="O32" s="13" t="s">
-        <v>1655</v>
+        <v>1669</v>
       </c>
       <c r="P32" s="13" t="s">
-        <v>1656</v>
+        <v>1670</v>
       </c>
       <c r="Q32" s="13" t="s">
-        <v>1654</v>
+        <v>1668</v>
       </c>
       <c r="R32" s="13" t="s">
-        <v>826</v>
+        <v>840</v>
       </c>
       <c r="S32" s="13" t="s">
-        <v>1655</v>
+        <v>1669</v>
       </c>
       <c r="T32" s="13" t="s">
-        <v>1657</v>
+        <v>1671</v>
       </c>
       <c r="U32" s="13" t="s">
-        <v>1658</v>
+        <v>1672</v>
       </c>
       <c r="V32" s="13" t="s">
-        <v>1659</v>
+        <v>1673</v>
       </c>
       <c r="W32" s="13" t="s">
-        <v>1658</v>
+        <v>1672</v>
       </c>
       <c r="X32" s="13" t="s">
-        <v>1660</v>
+        <v>1674</v>
       </c>
       <c r="Y32" s="13" t="s">
-        <v>1661</v>
+        <v>1675</v>
       </c>
       <c r="Z32" s="13" t="s">
-        <v>1654</v>
+        <v>1668</v>
       </c>
       <c r="AA32" s="13" t="s">
-        <v>824</v>
+        <v>838</v>
       </c>
       <c r="AB32" s="12" t="s">
-        <v>1662</v>
+        <v>1676</v>
       </c>
     </row>
   </sheetData>
@@ -15402,357 +15470,357 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>1663</v>
+        <v>1677</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1664</v>
+        <v>1678</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1665</v>
+        <v>1679</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>1666</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1667</v>
+        <v>1681</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1668</v>
+        <v>1682</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>1669</v>
+        <v>1683</v>
       </c>
       <c r="D2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>1664</v>
+        <v>1678</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1670</v>
+        <v>1684</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>1671</v>
+        <v>1685</v>
       </c>
       <c r="D3" s="1"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>1665</v>
+        <v>1679</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1672</v>
+        <v>1686</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1673</v>
+        <v>1687</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>1674</v>
+        <v>1688</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1675</v>
+        <v>1689</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1676</v>
+        <v>1690</v>
       </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>1677</v>
+        <v>1691</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1678</v>
+        <v>1692</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1679</v>
+        <v>1693</v>
       </c>
       <c r="D6" s="1"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>1680</v>
+        <v>1694</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1681</v>
+        <v>1695</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1682</v>
+        <v>1696</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>1683</v>
+        <v>1697</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1684</v>
+        <v>1698</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>1685</v>
+        <v>1699</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>1686</v>
+        <v>1700</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1687</v>
+        <v>1701</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1688</v>
+        <v>1702</v>
       </c>
       <c r="D9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>1689</v>
+        <v>1703</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>1690</v>
+        <v>1704</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>1691</v>
+        <v>1705</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>1692</v>
+        <v>1706</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>1693</v>
+        <v>1707</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>1694</v>
+        <v>1708</v>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>1695</v>
+        <v>1709</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>1696</v>
+        <v>1710</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>1697</v>
+        <v>1711</v>
       </c>
       <c r="D12" s="1"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>1698</v>
+        <v>1712</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>1699</v>
+        <v>1713</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>1700</v>
+        <v>1714</v>
       </c>
       <c r="D13" s="1"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>1701</v>
+        <v>1715</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1702</v>
+        <v>1716</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>1703</v>
+        <v>1717</v>
       </c>
       <c r="D14" s="1"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>1704</v>
+        <v>1718</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>1705</v>
+        <v>1719</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>1706</v>
+        <v>1720</v>
       </c>
       <c r="D15" s="1"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>1707</v>
+        <v>1721</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>1708</v>
+        <v>1722</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>1709</v>
+        <v>1723</v>
       </c>
       <c r="D16" s="1"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>1710</v>
+        <v>1724</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>1711</v>
+        <v>1725</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>1712</v>
+        <v>1726</v>
       </c>
       <c r="D17" s="1"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>1713</v>
+        <v>1727</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>1714</v>
+        <v>1728</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>1715</v>
+        <v>1729</v>
       </c>
       <c r="D18" s="1"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>1716</v>
+        <v>1730</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>1717</v>
+        <v>1731</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>1718</v>
+        <v>1732</v>
       </c>
       <c r="D19" s="1"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>1719</v>
+        <v>1733</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>1720</v>
+        <v>1734</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>1721</v>
+        <v>1735</v>
       </c>
       <c r="D20" s="1"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>1722</v>
+        <v>1736</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>1723</v>
+        <v>1737</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>1724</v>
+        <v>1738</v>
       </c>
       <c r="D21" s="1"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>1725</v>
+        <v>1739</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>1726</v>
+        <v>1740</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>1727</v>
+        <v>1741</v>
       </c>
       <c r="D22" s="1"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>1728</v>
+        <v>1742</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>1729</v>
+        <v>1743</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>1730</v>
+        <v>1744</v>
       </c>
       <c r="D23" s="1"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>1731</v>
+        <v>1745</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>1732</v>
+        <v>1746</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>1733</v>
+        <v>1747</v>
       </c>
       <c r="D24" s="1"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>1734</v>
+        <v>1748</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>1735</v>
+        <v>1749</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>1736</v>
+        <v>1750</v>
       </c>
       <c r="D25" s="1"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>1737</v>
+        <v>1751</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>1738</v>
+        <v>1752</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>1739</v>
+        <v>1753</v>
       </c>
       <c r="D26" s="1"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>1740</v>
+        <v>1754</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>1741</v>
+        <v>1755</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>1742</v>
+        <v>1756</v>
       </c>
       <c r="D27" s="1"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>1743</v>
+        <v>1757</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>1744</v>
+        <v>1758</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>1745</v>
+        <v>1759</v>
       </c>
       <c r="D28" s="1"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>1746</v>
+        <v>1760</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>1747</v>
+        <v>1761</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>1748</v>
+        <v>1762</v>
       </c>
       <c r="D29" s="1"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>1749</v>
+        <v>1763</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -15760,7 +15828,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>1750</v>
+        <v>1764</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -15768,7 +15836,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>1751</v>
+        <v>1765</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -15776,7 +15844,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>1752</v>
+        <v>1766</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -15784,7 +15852,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>1753</v>
+        <v>1767</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>

--- a/archive/iceKnives32/iceKnives32.xlsx
+++ b/archive/iceKnives32/iceKnives32.xlsx
@@ -2131,10 +2131,10 @@
     <t>fit</t>
   </si>
   <si>
-    <t>(289)</t>
-  </si>
-  <si>
-    <t>(256)</t>
+    <t>{289}</t>
+  </si>
+  <si>
+    <t>{256}</t>
   </si>
   <si>
     <t>[internet/website/php/library/packet/memory/];</t>
@@ -10686,10 +10686,10 @@
         <v>62</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>54</v>
+        <v>607</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>607</v>
+        <v>55</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>56</v>
@@ -10831,10 +10831,10 @@
         <v>75</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>54</v>
+        <v>608</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>608</v>
+        <v>55</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>56</v>

--- a/archive/iceKnives32/iceKnives32.xlsx
+++ b/archive/iceKnives32/iceKnives32.xlsx
@@ -308,7 +308,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2894" uniqueCount="1768">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2907" uniqueCount="1784">
   <si>
     <t>[]</t>
   </si>
@@ -2131,12 +2131,69 @@
     <t>fit</t>
   </si>
   <si>
+    <t>again</t>
+  </si>
+  <si>
+    <t>grab</t>
+  </si>
+  <si>
+    <t>flat</t>
+  </si>
+  <si>
+    <t>run</t>
+  </si>
+  <si>
+    <t>habitat</t>
+  </si>
+  <si>
+    <t>pact</t>
+  </si>
+  <si>
+    <t>tie</t>
+  </si>
+  <si>
+    <t>follow</t>
+  </si>
+  <si>
+    <t>reply</t>
+  </si>
+  <si>
+    <t>prescribe</t>
+  </si>
+  <si>
+    <t>subscribe</t>
+  </si>
+  <si>
+    <t>toll</t>
+  </si>
+  <si>
+    <t>bill</t>
+  </si>
+  <si>
+    <t>{527}</t>
+  </si>
+  <si>
+    <t>{560}</t>
+  </si>
+  <si>
     <t>{289}</t>
   </si>
   <si>
+    <t>{320}</t>
+  </si>
+  <si>
+    <t>{598}</t>
+  </si>
+  <si>
     <t>{256}</t>
   </si>
   <si>
+    <t>{282}</t>
+  </si>
+  <si>
+    <t>{28}</t>
+  </si>
+  <si>
     <t>[internet/website/php/library/packet/memory/];</t>
   </si>
   <si>
@@ -2806,9 +2863,6 @@
     <t>{578}</t>
   </si>
   <si>
-    <t>{598}</t>
-  </si>
-  <si>
     <t>{504}</t>
   </si>
   <si>
@@ -5176,9 +5230,6 @@
     <t>{484}</t>
   </si>
   <si>
-    <t>{560}</t>
-  </si>
-  <si>
     <t>{467}</t>
   </si>
   <si>
@@ -5309,9 +5360,6 @@
   </si>
   <si>
     <t>{31}</t>
-  </si>
-  <si>
-    <t>{28}</t>
   </si>
   <si>
     <t>{47}</t>
@@ -10405,7 +10453,9 @@
       <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="4"/>
+      <c r="B16" s="4" t="s">
+        <v>607</v>
+      </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -10420,7 +10470,9 @@
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="4"/>
+      <c r="B17" s="4" t="s">
+        <v>608</v>
+      </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -10435,7 +10487,9 @@
       <c r="A18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="4"/>
+      <c r="B18" s="4" t="s">
+        <v>609</v>
+      </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -10450,7 +10504,9 @@
       <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="4"/>
+      <c r="B19" s="4" t="s">
+        <v>610</v>
+      </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -10464,7 +10520,9 @@
       <c r="A20" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="4"/>
+      <c r="B20" s="4" t="s">
+        <v>611</v>
+      </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -10479,7 +10537,9 @@
       <c r="A21" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="4"/>
+      <c r="B21" s="4" t="s">
+        <v>612</v>
+      </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -10494,7 +10554,9 @@
       <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="4"/>
+      <c r="B22" s="4" t="s">
+        <v>613</v>
+      </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -10509,7 +10571,9 @@
       <c r="A23" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="4"/>
+      <c r="B23" s="4" t="s">
+        <v>614</v>
+      </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -10523,7 +10587,9 @@
       <c r="A24" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="4"/>
+      <c r="B24" s="4" t="s">
+        <v>615</v>
+      </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -10538,7 +10604,9 @@
       <c r="A25" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="4"/>
+      <c r="B25" s="4" t="s">
+        <v>616</v>
+      </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -10553,7 +10621,9 @@
       <c r="A26" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="4"/>
+      <c r="B26" s="4" t="s">
+        <v>617</v>
+      </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -10568,7 +10638,9 @@
       <c r="A27" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="4"/>
+      <c r="B27" s="4" t="s">
+        <v>618</v>
+      </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -10583,7 +10655,9 @@
       <c r="A28" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="4"/>
+      <c r="B28" s="4" t="s">
+        <v>619</v>
+      </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -10628,7 +10702,7 @@
         <v>53</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>54</v>
+        <v>620</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>55</v>
@@ -10657,7 +10731,7 @@
         <v>61</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>54</v>
+        <v>621</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>55</v>
@@ -10686,7 +10760,7 @@
         <v>62</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>607</v>
+        <v>622</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>55</v>
@@ -10715,7 +10789,7 @@
         <v>63</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>54</v>
+        <v>623</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>55</v>
@@ -10744,7 +10818,7 @@
         <v>64</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>54</v>
+        <v>624</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>55</v>
@@ -10831,7 +10905,7 @@
         <v>75</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>608</v>
+        <v>625</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>55</v>
@@ -10860,7 +10934,7 @@
         <v>76</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>54</v>
+        <v>626</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>55</v>
@@ -10947,7 +11021,7 @@
         <v>79</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>54</v>
+        <v>627</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>55</v>
@@ -11002,7 +11076,7 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>609</v>
+        <v>628</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>91</v>
@@ -11026,7 +11100,7 @@
         <v>97</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>610</v>
+        <v>629</v>
       </c>
     </row>
   </sheetData>
@@ -11051,834 +11125,834 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="7" t="s">
-        <v>611</v>
+        <v>630</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>612</v>
+        <v>631</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>613</v>
+        <v>632</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>614</v>
+        <v>633</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>615</v>
+        <v>634</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>616</v>
+        <v>635</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>617</v>
+        <v>636</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>618</v>
+        <v>637</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
-        <v>619</v>
+        <v>638</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>620</v>
+        <v>639</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>621</v>
+        <v>640</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>622</v>
+        <v>641</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>623</v>
+        <v>642</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>624</v>
+        <v>643</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>625</v>
+        <v>644</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>626</v>
+        <v>645</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="s">
-        <v>612</v>
+        <v>631</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>627</v>
+        <v>646</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>628</v>
+        <v>647</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>629</v>
+        <v>648</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>630</v>
+        <v>649</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>631</v>
+        <v>650</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>632</v>
+        <v>651</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>633</v>
+        <v>652</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="s">
-        <v>613</v>
+        <v>632</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>634</v>
+        <v>653</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>635</v>
+        <v>654</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>636</v>
+        <v>655</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>637</v>
+        <v>656</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>638</v>
+        <v>657</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>639</v>
+        <v>658</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>640</v>
+        <v>659</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
-        <v>614</v>
+        <v>633</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>641</v>
+        <v>660</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>642</v>
+        <v>661</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>643</v>
+        <v>662</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>644</v>
+        <v>663</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>645</v>
+        <v>664</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>646</v>
+        <v>665</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>647</v>
+        <v>666</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="7" t="s">
-        <v>615</v>
+        <v>634</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>648</v>
+        <v>667</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>649</v>
+        <v>668</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>650</v>
+        <v>669</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>651</v>
+        <v>670</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>652</v>
+        <v>671</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>653</v>
+        <v>672</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>654</v>
+        <v>673</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="7" t="s">
-        <v>616</v>
+        <v>635</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>655</v>
+        <v>674</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>656</v>
+        <v>675</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>456</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>657</v>
+        <v>676</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>658</v>
+        <v>677</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>659</v>
+        <v>678</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>660</v>
+        <v>679</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="7" t="s">
-        <v>617</v>
+        <v>636</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>661</v>
+        <v>680</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>662</v>
+        <v>681</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>124</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>663</v>
+        <v>682</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>664</v>
+        <v>683</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>665</v>
+        <v>684</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>666</v>
+        <v>685</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="7" t="s">
-        <v>667</v>
+        <v>686</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>668</v>
+        <v>687</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>669</v>
+        <v>688</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>360</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>670</v>
+        <v>689</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>671</v>
+        <v>690</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>672</v>
+        <v>691</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>673</v>
+        <v>692</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
-        <v>674</v>
+        <v>693</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>675</v>
+        <v>694</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>676</v>
+        <v>695</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>677</v>
+        <v>696</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>678</v>
+        <v>697</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>679</v>
+        <v>698</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>680</v>
+        <v>699</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>681</v>
+        <v>700</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>683</v>
+        <v>702</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>684</v>
+        <v>703</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>488</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>685</v>
+        <v>704</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>686</v>
+        <v>705</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>687</v>
+        <v>706</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>633</v>
+        <v>652</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="7" t="s">
-        <v>688</v>
+        <v>707</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>689</v>
+        <v>708</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>690</v>
+        <v>709</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>691</v>
+        <v>710</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>692</v>
+        <v>711</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>693</v>
+        <v>712</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>694</v>
+        <v>713</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>695</v>
+        <v>714</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>696</v>
+        <v>715</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>697</v>
+        <v>716</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>698</v>
+        <v>717</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>470</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>699</v>
+        <v>718</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>700</v>
+        <v>719</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>701</v>
+        <v>720</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>702</v>
+        <v>721</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="7" t="s">
-        <v>703</v>
+        <v>722</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>704</v>
+        <v>723</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>705</v>
+        <v>724</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>211</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>706</v>
+        <v>725</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>707</v>
+        <v>726</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>708</v>
+        <v>727</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>709</v>
+        <v>728</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="7" t="s">
-        <v>710</v>
+        <v>729</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>711</v>
+        <v>730</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>712</v>
+        <v>731</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>713</v>
+        <v>732</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>714</v>
+        <v>733</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>715</v>
+        <v>734</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>716</v>
+        <v>735</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>717</v>
+        <v>736</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="7" t="s">
-        <v>718</v>
+        <v>737</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>719</v>
+        <v>738</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>720</v>
+        <v>739</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>721</v>
+        <v>740</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>722</v>
+        <v>741</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>723</v>
+        <v>742</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>724</v>
+        <v>743</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>725</v>
+        <v>744</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="7" t="s">
-        <v>726</v>
+        <v>745</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>727</v>
+        <v>746</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>728</v>
+        <v>747</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>729</v>
+        <v>748</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>730</v>
+        <v>749</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>731</v>
+        <v>750</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>732</v>
+        <v>751</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>666</v>
+        <v>685</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="7" t="s">
-        <v>733</v>
+        <v>752</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>734</v>
+        <v>753</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>735</v>
+        <v>754</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>736</v>
+        <v>755</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>737</v>
+        <v>756</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>738</v>
+        <v>757</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>739</v>
+        <v>758</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>740</v>
+        <v>759</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
-        <v>741</v>
+        <v>760</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>742</v>
+        <v>761</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>743</v>
+        <v>762</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>744</v>
+        <v>763</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>745</v>
+        <v>764</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>746</v>
+        <v>765</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>747</v>
+        <v>766</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>748</v>
+        <v>767</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="7" t="s">
-        <v>749</v>
+        <v>768</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>750</v>
+        <v>769</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>751</v>
+        <v>770</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>752</v>
+        <v>771</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>753</v>
+        <v>772</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>754</v>
+        <v>773</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>755</v>
+        <v>774</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>666</v>
+        <v>685</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="7" t="s">
-        <v>756</v>
+        <v>775</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>757</v>
+        <v>776</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>758</v>
+        <v>777</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>759</v>
+        <v>778</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>760</v>
+        <v>779</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>761</v>
+        <v>780</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>762</v>
+        <v>781</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>763</v>
+        <v>782</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="7" t="s">
-        <v>764</v>
+        <v>783</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>765</v>
+        <v>784</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>766</v>
+        <v>785</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>767</v>
+        <v>786</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>768</v>
+        <v>787</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>769</v>
+        <v>788</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>770</v>
+        <v>789</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>771</v>
+        <v>790</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="7" t="s">
-        <v>772</v>
+        <v>791</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>773</v>
+        <v>792</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>774</v>
+        <v>793</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>775</v>
+        <v>794</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>776</v>
+        <v>795</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>777</v>
+        <v>796</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>778</v>
+        <v>797</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>779</v>
+        <v>798</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="7" t="s">
-        <v>780</v>
+        <v>799</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>781</v>
+        <v>800</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>782</v>
+        <v>801</v>
       </c>
       <c r="D24" s="9" t="s">
         <v>472</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>783</v>
+        <v>802</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>784</v>
+        <v>803</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>785</v>
+        <v>804</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>786</v>
+        <v>805</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="7" t="s">
-        <v>787</v>
+        <v>806</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>788</v>
+        <v>807</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>789</v>
+        <v>808</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>424</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>790</v>
+        <v>809</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>791</v>
+        <v>810</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>792</v>
+        <v>811</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>793</v>
+        <v>812</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="7" t="s">
-        <v>794</v>
+        <v>813</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>795</v>
+        <v>814</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>796</v>
+        <v>815</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>797</v>
+        <v>816</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>798</v>
+        <v>817</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>799</v>
+        <v>818</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>800</v>
+        <v>819</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>801</v>
+        <v>820</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="7" t="s">
-        <v>802</v>
+        <v>821</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>803</v>
+        <v>822</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>804</v>
+        <v>823</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>805</v>
+        <v>824</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>806</v>
+        <v>825</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>807</v>
+        <v>826</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>808</v>
+        <v>827</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>666</v>
+        <v>685</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="7" t="s">
-        <v>809</v>
+        <v>828</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>810</v>
+        <v>829</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>811</v>
+        <v>830</v>
       </c>
       <c r="D28" s="9" t="s">
         <v>429</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>812</v>
+        <v>831</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>813</v>
+        <v>832</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>814</v>
+        <v>833</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>771</v>
+        <v>790</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="7" t="s">
-        <v>815</v>
+        <v>834</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>816</v>
+        <v>835</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>817</v>
+        <v>836</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>373</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>818</v>
+        <v>837</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>819</v>
+        <v>838</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>820</v>
+        <v>839</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>821</v>
+        <v>840</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="7" t="s">
-        <v>618</v>
+        <v>637</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>822</v>
+        <v>841</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>823</v>
+        <v>842</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>824</v>
+        <v>843</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>825</v>
+        <v>844</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>826</v>
+        <v>845</v>
       </c>
       <c r="G30" s="11" t="s">
-        <v>827</v>
+        <v>846</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>828</v>
+        <v>847</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="7" t="s">
-        <v>829</v>
+        <v>848</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>830</v>
+        <v>849</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>831</v>
+        <v>850</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>832</v>
+        <v>624</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>833</v>
+        <v>851</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>834</v>
+        <v>852</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>835</v>
+        <v>853</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>836</v>
+        <v>854</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="7" t="s">
-        <v>837</v>
+        <v>855</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>838</v>
+        <v>856</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>839</v>
+        <v>857</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>840</v>
+        <v>858</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>841</v>
+        <v>859</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>842</v>
+        <v>860</v>
       </c>
       <c r="G32" s="11" t="s">
-        <v>843</v>
+        <v>861</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>844</v>
+        <v>862</v>
       </c>
     </row>
   </sheetData>
@@ -11905,774 +11979,774 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>845</v>
+        <v>863</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>612</v>
+        <v>631</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>613</v>
+        <v>632</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>614</v>
+        <v>633</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>615</v>
+        <v>634</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>616</v>
+        <v>635</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>617</v>
+        <v>636</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>667</v>
+        <v>686</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>618</v>
+        <v>637</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>846</v>
+        <v>864</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>847</v>
+        <v>865</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>848</v>
+        <v>866</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>849</v>
+        <v>867</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>850</v>
+        <v>868</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>851</v>
+        <v>869</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>852</v>
+        <v>870</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>853</v>
+        <v>871</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>612</v>
+        <v>631</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>854</v>
+        <v>872</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>855</v>
+        <v>873</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>856</v>
+        <v>874</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>613</v>
+        <v>632</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>858</v>
+        <v>876</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>859</v>
+        <v>877</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>860</v>
+        <v>878</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>614</v>
+        <v>633</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>861</v>
+        <v>879</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>862</v>
+        <v>880</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>863</v>
+        <v>881</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>615</v>
+        <v>634</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>864</v>
+        <v>882</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>865</v>
+        <v>883</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>866</v>
+        <v>884</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>616</v>
+        <v>635</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>867</v>
+        <v>885</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>868</v>
+        <v>886</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>869</v>
+        <v>887</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>617</v>
+        <v>636</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>870</v>
+        <v>888</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>871</v>
+        <v>889</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>872</v>
+        <v>890</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>667</v>
+        <v>686</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>873</v>
+        <v>891</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>874</v>
+        <v>892</v>
       </c>
       <c r="D9" s="5" t="s">
+        <v>893</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>875</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>857</v>
-      </c>
       <c r="F9" s="5" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>674</v>
+        <v>693</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>876</v>
+        <v>894</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>877</v>
+        <v>895</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>878</v>
+        <v>896</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>879</v>
+        <v>897</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>880</v>
+        <v>898</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>881</v>
+        <v>899</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>688</v>
+        <v>707</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>882</v>
+        <v>900</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>883</v>
+        <v>901</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>884</v>
+        <v>902</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>696</v>
+        <v>715</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>885</v>
+        <v>903</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>886</v>
+        <v>904</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>887</v>
+        <v>905</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>703</v>
+        <v>722</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>888</v>
+        <v>906</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>889</v>
+        <v>907</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>890</v>
+        <v>908</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>710</v>
+        <v>729</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>891</v>
+        <v>909</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>892</v>
+        <v>910</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>893</v>
+        <v>911</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>718</v>
+        <v>737</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>894</v>
+        <v>912</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>895</v>
+        <v>913</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>896</v>
+        <v>914</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>726</v>
+        <v>745</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>897</v>
+        <v>915</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>898</v>
+        <v>916</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>899</v>
+        <v>917</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>733</v>
+        <v>752</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>900</v>
+        <v>918</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>901</v>
+        <v>919</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>902</v>
+        <v>920</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>741</v>
+        <v>760</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>903</v>
+        <v>921</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>904</v>
+        <v>922</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>905</v>
+        <v>923</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>749</v>
+        <v>768</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>906</v>
+        <v>924</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>907</v>
+        <v>925</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>908</v>
+        <v>926</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>756</v>
+        <v>775</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>909</v>
+        <v>927</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>910</v>
+        <v>928</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>911</v>
+        <v>929</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>764</v>
+        <v>783</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>912</v>
+        <v>930</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>913</v>
+        <v>931</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>914</v>
+        <v>932</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>772</v>
+        <v>791</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>915</v>
+        <v>933</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>916</v>
+        <v>934</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>917</v>
+        <v>935</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>780</v>
+        <v>799</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>918</v>
+        <v>936</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>919</v>
+        <v>937</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>920</v>
+        <v>938</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>787</v>
+        <v>806</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>921</v>
+        <v>939</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>923</v>
+        <v>941</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>794</v>
+        <v>813</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>924</v>
+        <v>942</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>925</v>
+        <v>943</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>926</v>
+        <v>944</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>802</v>
+        <v>821</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>927</v>
+        <v>945</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>928</v>
+        <v>946</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>929</v>
+        <v>947</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>809</v>
+        <v>828</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>930</v>
+        <v>948</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>931</v>
+        <v>949</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>932</v>
+        <v>950</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>857</v>
+        <v>875</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>815</v>
+        <v>834</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>933</v>
+        <v>951</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>934</v>
+        <v>952</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>935</v>
+        <v>953</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>936</v>
+        <v>954</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>937</v>
+        <v>955</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>938</v>
+        <v>956</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>939</v>
+        <v>957</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>618</v>
+        <v>637</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>829</v>
+        <v>848</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>837</v>
+        <v>855</v>
       </c>
     </row>
   </sheetData>
@@ -12697,2754 +12771,2754 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>940</v>
+        <v>958</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>612</v>
+        <v>631</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>613</v>
+        <v>632</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>614</v>
+        <v>633</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>615</v>
+        <v>634</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>616</v>
+        <v>635</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>617</v>
+        <v>636</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>667</v>
+        <v>686</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>674</v>
+        <v>693</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>682</v>
+        <v>701</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>688</v>
+        <v>707</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>696</v>
+        <v>715</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>703</v>
+        <v>722</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>710</v>
+        <v>729</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>718</v>
+        <v>737</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>726</v>
+        <v>745</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>733</v>
+        <v>752</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>741</v>
+        <v>760</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>749</v>
+        <v>768</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>756</v>
+        <v>775</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>764</v>
+        <v>783</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>772</v>
+        <v>791</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>780</v>
+        <v>799</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>787</v>
+        <v>806</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>794</v>
+        <v>813</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>802</v>
+        <v>821</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>809</v>
+        <v>828</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>618</v>
+        <v>637</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>845</v>
+        <v>863</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>941</v>
+        <v>959</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>942</v>
+        <v>960</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>943</v>
+        <v>961</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>944</v>
+        <v>962</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>945</v>
+        <v>963</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>946</v>
+        <v>964</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>947</v>
+        <v>965</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>948</v>
+        <v>966</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>949</v>
+        <v>967</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>950</v>
+        <v>968</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>951</v>
+        <v>969</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>952</v>
+        <v>970</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>953</v>
+        <v>971</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>954</v>
+        <v>972</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>955</v>
+        <v>973</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>956</v>
+        <v>974</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>957</v>
+        <v>975</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>958</v>
+        <v>976</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>959</v>
+        <v>977</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>960</v>
+        <v>978</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>961</v>
+        <v>979</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>962</v>
+        <v>980</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>963</v>
+        <v>981</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>964</v>
+        <v>982</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>965</v>
+        <v>983</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>966</v>
+        <v>984</v>
       </c>
       <c r="AB2" s="12" t="s">
-        <v>967</v>
+        <v>985</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>612</v>
+        <v>631</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>968</v>
+        <v>986</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>969</v>
+        <v>987</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>970</v>
+        <v>988</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>971</v>
+        <v>989</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>972</v>
+        <v>990</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>973</v>
+        <v>991</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>974</v>
+        <v>992</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>975</v>
+        <v>993</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>706</v>
+        <v>725</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>976</v>
+        <v>994</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>977</v>
+        <v>995</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>978</v>
+        <v>996</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>979</v>
+        <v>997</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>689</v>
+        <v>708</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>782</v>
+        <v>801</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>980</v>
+        <v>998</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>981</v>
+        <v>999</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>982</v>
+        <v>1000</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>983</v>
+        <v>1001</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>984</v>
+        <v>1002</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>985</v>
+        <v>1003</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>986</v>
+        <v>1004</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>987</v>
+        <v>1005</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>728</v>
+        <v>747</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>988</v>
+        <v>1006</v>
       </c>
       <c r="AA3" s="5" t="s">
-        <v>817</v>
+        <v>836</v>
       </c>
       <c r="AB3" s="12" t="s">
-        <v>989</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>613</v>
+        <v>632</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>990</v>
+        <v>1008</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>991</v>
+        <v>1009</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>992</v>
+        <v>1010</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>993</v>
+        <v>1011</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>994</v>
+        <v>1012</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>672</v>
+        <v>691</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>995</v>
+        <v>1013</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>996</v>
+        <v>1014</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>738</v>
+        <v>757</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>997</v>
+        <v>1015</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>998</v>
+        <v>1016</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>999</v>
+        <v>1017</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>1000</v>
+        <v>1018</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>1001</v>
+        <v>1019</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>1002</v>
+        <v>1020</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>1003</v>
+        <v>1021</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>722</v>
+        <v>741</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>1004</v>
+        <v>1022</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>1005</v>
+        <v>1023</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>1006</v>
+        <v>1024</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>1007</v>
+        <v>1025</v>
       </c>
       <c r="W4" s="5" t="s">
-        <v>1008</v>
+        <v>1026</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>1009</v>
+        <v>1027</v>
       </c>
       <c r="Y4" s="5" t="s">
-        <v>1010</v>
+        <v>1028</v>
       </c>
       <c r="Z4" s="5" t="s">
-        <v>1011</v>
+        <v>1029</v>
       </c>
       <c r="AA4" s="5" t="s">
-        <v>1012</v>
+        <v>1030</v>
       </c>
       <c r="AB4" s="12" t="s">
-        <v>1013</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>614</v>
+        <v>633</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>1014</v>
+        <v>1032</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>1015</v>
+        <v>1033</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>1016</v>
+        <v>1034</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>1017</v>
+        <v>1035</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>1018</v>
+        <v>1036</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>1019</v>
+        <v>1037</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>790</v>
+        <v>809</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>1020</v>
+        <v>1038</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>1021</v>
+        <v>1039</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>1022</v>
+        <v>1040</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>800</v>
+        <v>819</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>630</v>
+        <v>649</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>1023</v>
+        <v>1041</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>1024</v>
+        <v>1042</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>1025</v>
+        <v>1043</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>1026</v>
+        <v>1044</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>1027</v>
+        <v>1045</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>1028</v>
+        <v>1046</v>
       </c>
       <c r="T5" s="5" t="s">
-        <v>1029</v>
+        <v>1047</v>
       </c>
       <c r="U5" s="5" t="s">
-        <v>1030</v>
+        <v>1048</v>
       </c>
       <c r="V5" s="5" t="s">
-        <v>648</v>
+        <v>667</v>
       </c>
       <c r="W5" s="5" t="s">
-        <v>1031</v>
+        <v>1049</v>
       </c>
       <c r="X5" s="5" t="s">
-        <v>1032</v>
+        <v>1050</v>
       </c>
       <c r="Y5" s="5" t="s">
-        <v>1033</v>
+        <v>1051</v>
       </c>
       <c r="Z5" s="5" t="s">
-        <v>1034</v>
+        <v>1052</v>
       </c>
       <c r="AA5" s="5" t="s">
-        <v>1035</v>
+        <v>1053</v>
       </c>
       <c r="AB5" s="12" t="s">
-        <v>1036</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>615</v>
+        <v>634</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>1037</v>
+        <v>1055</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>1038</v>
+        <v>1056</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>1039</v>
+        <v>1057</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>1040</v>
+        <v>1058</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>1041</v>
+        <v>1059</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>1042</v>
+        <v>1060</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>1043</v>
+        <v>1061</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>1044</v>
+        <v>1062</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>1045</v>
+        <v>1063</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>1046</v>
+        <v>1064</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>1047</v>
+        <v>1065</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>1048</v>
+        <v>1066</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>1049</v>
+        <v>1067</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>719</v>
+        <v>738</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>1050</v>
+        <v>1068</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>1051</v>
+        <v>1069</v>
       </c>
       <c r="R6" s="5" t="s">
-        <v>1052</v>
+        <v>1070</v>
       </c>
       <c r="S6" s="5" t="s">
-        <v>1053</v>
+        <v>1071</v>
       </c>
       <c r="T6" s="5" t="s">
-        <v>1054</v>
+        <v>1072</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>1055</v>
+        <v>1073</v>
       </c>
       <c r="V6" s="5" t="s">
-        <v>1056</v>
+        <v>1074</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>1057</v>
+        <v>1075</v>
       </c>
       <c r="X6" s="5" t="s">
-        <v>1058</v>
+        <v>1076</v>
       </c>
       <c r="Y6" s="5" t="s">
-        <v>1059</v>
+        <v>1077</v>
       </c>
       <c r="Z6" s="5" t="s">
-        <v>1060</v>
+        <v>1078</v>
       </c>
       <c r="AA6" s="5" t="s">
-        <v>724</v>
+        <v>743</v>
       </c>
       <c r="AB6" s="12" t="s">
-        <v>1061</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>616</v>
+        <v>635</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>1062</v>
+        <v>1080</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>1063</v>
+        <v>1081</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>1064</v>
+        <v>1082</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>1065</v>
+        <v>1083</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>1066</v>
+        <v>1084</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>1067</v>
+        <v>1085</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>781</v>
+        <v>800</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>1068</v>
+        <v>1086</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>1069</v>
+        <v>1087</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>701</v>
+        <v>720</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>1070</v>
+        <v>1088</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>693</v>
+        <v>712</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>807</v>
+        <v>826</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>1071</v>
+        <v>1089</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>1072</v>
+        <v>1090</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>811</v>
+        <v>830</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>1073</v>
+        <v>1091</v>
       </c>
       <c r="S7" s="5" t="s">
-        <v>1074</v>
+        <v>1092</v>
       </c>
       <c r="T7" s="5" t="s">
-        <v>645</v>
+        <v>664</v>
       </c>
       <c r="U7" s="5" t="s">
-        <v>1075</v>
+        <v>1093</v>
       </c>
       <c r="V7" s="5" t="s">
-        <v>1076</v>
+        <v>1094</v>
       </c>
       <c r="W7" s="5" t="s">
-        <v>1077</v>
+        <v>1095</v>
       </c>
       <c r="X7" s="5" t="s">
-        <v>639</v>
+        <v>658</v>
       </c>
       <c r="Y7" s="5" t="s">
-        <v>1078</v>
+        <v>1096</v>
       </c>
       <c r="Z7" s="5" t="s">
-        <v>1079</v>
+        <v>1097</v>
       </c>
       <c r="AA7" s="5" t="s">
-        <v>1080</v>
+        <v>1098</v>
       </c>
       <c r="AB7" s="12" t="s">
-        <v>1081</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>617</v>
+        <v>636</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>1082</v>
+        <v>1100</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>1083</v>
+        <v>1101</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>1084</v>
+        <v>1102</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>1085</v>
+        <v>1103</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>1086</v>
+        <v>1104</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>1087</v>
+        <v>1105</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>1088</v>
+        <v>1106</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>1089</v>
+        <v>1107</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>1090</v>
+        <v>1108</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>686</v>
+        <v>705</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>1091</v>
+        <v>1109</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>1092</v>
+        <v>1110</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>757</v>
+        <v>776</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>1093</v>
+        <v>1111</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>1094</v>
+        <v>1112</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>671</v>
+        <v>690</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>1095</v>
+        <v>1113</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>1096</v>
+        <v>1114</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>1097</v>
+        <v>1115</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>1098</v>
+        <v>1116</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>1099</v>
+        <v>1117</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>1100</v>
+        <v>1118</v>
       </c>
       <c r="X8" s="5" t="s">